--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74F409B-C767-4CF7-8A0F-3F0A93F1CDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C8A31C-1C9C-4ECD-AC94-FBFF0D329747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -144,12 +144,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92863B8-4C87-4474-B5B0-52EEB5BB3C33}">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -479,28 +478,21 @@
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>45080</v>
       </c>
-      <c r="G4" s="5" cm="1">
-        <f t="array" ref="G4">_xll.TMX.DATE.ADD.YEARS(dated,1)</f>
-        <v>45445</v>
-      </c>
-      <c r="H4" cm="1">
-        <f t="array" ref="H4">_xll.TMX.DATE.DCF.YEARS(dated,G4)</f>
-        <v>0.99931553730321698</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -514,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>1</v>
       </c>
@@ -522,19 +514,15 @@
         <v>0.05</v>
       </c>
       <c r="D7" s="2" cm="1">
-        <f t="array" ref="D7">_xll.\TMX.BOND.SIMPLE(maturity, coupon)</f>
-        <v>1930819800032</v>
-      </c>
-      <c r="E7" s="7" cm="1">
-        <f t="array" ref="E7">_xll.\TMX.BOND.INSTRUMENT(bond, dated)</f>
-        <v>-6.2774385622041925E+66</v>
-      </c>
-      <c r="F7" t="e" cm="1">
-        <f t="array" ref="F7">_xll.TMX.INSTRUMENT(E7)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="array" ref="D7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
+        <v>1973456868832</v>
+      </c>
+      <c r="E7" s="2" cm="1">
+        <f t="array" ref="E7">_xll.\TMX.BOND.INSTRUMENT(D7, dated)</f>
+        <v>1973458239920</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2</v>
       </c>
@@ -542,15 +530,15 @@
         <v>0.05</v>
       </c>
       <c r="D8" s="2" cm="1">
-        <f t="array" ref="D8">_xll.\TMX.BOND.SIMPLE(maturity, coupon)</f>
-        <v>1931115280208</v>
-      </c>
-      <c r="E8" s="7" cm="1">
-        <f t="array" ref="E8">_xll.\TMX.BOND.INSTRUMENT(bond)</f>
-        <v>-6.2774385622041925E+66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="array" ref="D8">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
+        <v>1973456868256</v>
+      </c>
+      <c r="E8" s="2" cm="1">
+        <f t="array" ref="E8">_xll.\TMX.BOND.INSTRUMENT(D8, dated)</f>
+        <v>1971666615376</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>3</v>
       </c>
@@ -558,15 +546,15 @@
         <v>0.05</v>
       </c>
       <c r="D9" s="2" cm="1">
-        <f t="array" ref="D9">_xll.\TMX.BOND.SIMPLE(maturity, coupon)</f>
-        <v>1931115280976</v>
-      </c>
-      <c r="E9" s="7" cm="1">
-        <f t="array" ref="E9">_xll.\TMX.BOND.INSTRUMENT(bond)</f>
-        <v>-6.2774385622041925E+66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="array" ref="D9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
+        <v>1973456870656</v>
+      </c>
+      <c r="E9" s="2" cm="1">
+        <f t="array" ref="E9">_xll.\TMX.BOND.INSTRUMENT(D9, dated)</f>
+        <v>1971666611056</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>4</v>
       </c>
@@ -574,15 +562,15 @@
         <v>0.05</v>
       </c>
       <c r="D10" s="2" cm="1">
-        <f t="array" ref="D10">_xll.\TMX.BOND.SIMPLE(maturity, coupon)</f>
-        <v>1931115278480</v>
-      </c>
-      <c r="E10" s="7" cm="1">
-        <f t="array" ref="E10">_xll.\TMX.BOND.INSTRUMENT(bond)</f>
-        <v>-6.2774385622041925E+66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="array" ref="D10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
+        <v>1973456870848</v>
+      </c>
+      <c r="E10" s="2" cm="1">
+        <f t="array" ref="E10">_xll.\TMX.BOND.INSTRUMENT(D10, dated)</f>
+        <v>1971666613072</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>5</v>
       </c>
@@ -590,15 +578,15 @@
         <v>0.05</v>
       </c>
       <c r="D11" s="2" cm="1">
-        <f t="array" ref="D11">_xll.\TMX.BOND.SIMPLE(maturity, coupon)</f>
-        <v>1931115278096</v>
-      </c>
-      <c r="E11" s="7" cm="1">
-        <f t="array" ref="E11">_xll.\TMX.BOND.INSTRUMENT(bond)</f>
-        <v>-6.2774385622041925E+66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="array" ref="D11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
+        <v>1973456872000</v>
+      </c>
+      <c r="E11" s="2" cm="1">
+        <f t="array" ref="E11">_xll.\TMX.BOND.INSTRUMENT(D11, dated)</f>
+        <v>1971666616960</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>6</v>
       </c>
@@ -606,15 +594,15 @@
         <v>0.05</v>
       </c>
       <c r="D12" s="2" cm="1">
-        <f t="array" ref="D12">_xll.\TMX.BOND.SIMPLE(maturity, coupon)</f>
-        <v>1931115277712</v>
-      </c>
-      <c r="E12" s="7" cm="1">
-        <f t="array" ref="E12">_xll.\TMX.BOND.INSTRUMENT(bond)</f>
-        <v>-6.2774385622041925E+66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="array" ref="D12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
+        <v>1973456868640</v>
+      </c>
+      <c r="E12" s="2" cm="1">
+        <f t="array" ref="E12">_xll.\TMX.BOND.INSTRUMENT(D12, dated)</f>
+        <v>1971666611920</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>7</v>
       </c>
@@ -622,15 +610,15 @@
         <v>0.05</v>
       </c>
       <c r="D13" s="2" cm="1">
-        <f t="array" ref="D13">_xll.\TMX.BOND.SIMPLE(maturity, coupon)</f>
-        <v>1931115280016</v>
-      </c>
-      <c r="E13" s="7" cm="1">
-        <f t="array" ref="E13">_xll.\TMX.BOND.INSTRUMENT(bond)</f>
-        <v>-6.2774385622041925E+66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="array" ref="D13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
+        <v>1973456868928</v>
+      </c>
+      <c r="E13" s="2" cm="1">
+        <f t="array" ref="E13">_xll.\TMX.BOND.INSTRUMENT(D13, dated)</f>
+        <v>1971666614368</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>8</v>
       </c>
@@ -638,15 +626,15 @@
         <v>0.05</v>
       </c>
       <c r="D14" s="2" cm="1">
-        <f t="array" ref="D14">_xll.\TMX.BOND.SIMPLE(maturity, coupon)</f>
-        <v>1931115277808</v>
-      </c>
-      <c r="E14" s="7" cm="1">
-        <f t="array" ref="E14">_xll.\TMX.BOND.INSTRUMENT(bond)</f>
-        <v>-6.2774385622041925E+66</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="array" ref="D14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
+        <v>1973456871328</v>
+      </c>
+      <c r="E14" s="2" cm="1">
+        <f t="array" ref="E14">_xll.\TMX.BOND.INSTRUMENT(D14, dated)</f>
+        <v>1971666619408</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>9</v>
       </c>
@@ -654,15 +642,15 @@
         <v>0.05</v>
       </c>
       <c r="D15" s="2" cm="1">
-        <f t="array" ref="D15">_xll.\TMX.BOND.SIMPLE(maturity, coupon)</f>
-        <v>1931115281744</v>
-      </c>
-      <c r="E15" s="7" cm="1">
-        <f t="array" ref="E15">_xll.\TMX.BOND.INSTRUMENT(bond)</f>
-        <v>-6.2774385622041925E+66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="array" ref="D15">_xll.\TMX.BOND.SIMPLE(B15, C15)</f>
+        <v>1973456874784</v>
+      </c>
+      <c r="E15" s="2" cm="1">
+        <f t="array" ref="E15">_xll.\TMX.BOND.INSTRUMENT(D15, dated)</f>
+        <v>1971666612928</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>10</v>
       </c>
@@ -670,12 +658,135 @@
         <v>0.05</v>
       </c>
       <c r="D16" s="2" cm="1">
-        <f t="array" ref="D16">_xll.\TMX.BOND.SIMPLE(maturity, coupon)</f>
-        <v>1931115278000</v>
-      </c>
-      <c r="E16" s="7" cm="1">
-        <f t="array" ref="E16">_xll.\TMX.BOND.INSTRUMENT(bond)</f>
-        <v>-6.2774385622041925E+66</v>
+        <f t="array" ref="D16">_xll.\TMX.BOND.SIMPLE(B16, C16)</f>
+        <v>1973456871904</v>
+      </c>
+      <c r="E16" s="2" cm="1">
+        <f t="array" ref="E16">_xll.\TMX.BOND.INSTRUMENT(D16, dated)</f>
+        <v>1971666610480</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16:Y17">_xll.TMX.INSTRUMENT(E16)</f>
+        <v>0.49829907527190836</v>
+      </c>
+      <c r="G16">
+        <v>0.99659815054381673</v>
+      </c>
+      <c r="H16">
+        <v>1.4948972258157252</v>
+      </c>
+      <c r="I16">
+        <v>1.9931963010876335</v>
+      </c>
+      <c r="J16">
+        <v>2.4914953763595418</v>
+      </c>
+      <c r="K16">
+        <v>2.9897944516314503</v>
+      </c>
+      <c r="L16">
+        <v>3.4880935269033588</v>
+      </c>
+      <c r="M16">
+        <v>3.9863926021752669</v>
+      </c>
+      <c r="N16">
+        <v>4.4846916774471755</v>
+      </c>
+      <c r="O16">
+        <v>4.9829907527190835</v>
+      </c>
+      <c r="P16">
+        <v>5.4812898279909925</v>
+      </c>
+      <c r="Q16">
+        <v>5.9795889032629006</v>
+      </c>
+      <c r="R16">
+        <v>6.4778879785348087</v>
+      </c>
+      <c r="S16">
+        <v>6.9761870538067177</v>
+      </c>
+      <c r="T16">
+        <v>7.4744861290786258</v>
+      </c>
+      <c r="U16">
+        <v>7.9727852043505338</v>
+      </c>
+      <c r="V16">
+        <v>8.4710842796224419</v>
+      </c>
+      <c r="W16">
+        <v>8.9693833548943509</v>
+      </c>
+      <c r="X16">
+        <v>9.4676824301662599</v>
+      </c>
+      <c r="Y16">
+        <v>9.9659815054381671</v>
+      </c>
+    </row>
+    <row r="17" spans="6:25" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>2.4861111111111112E-2</v>
+      </c>
+      <c r="G17">
+        <v>2.4861111111111112E-2</v>
+      </c>
+      <c r="H17">
+        <v>2.4861111111111112E-2</v>
+      </c>
+      <c r="I17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J17">
+        <v>2.4861111111111112E-2</v>
+      </c>
+      <c r="K17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L17">
+        <v>2.4861111111111112E-2</v>
+      </c>
+      <c r="M17">
+        <v>2.5138888888888891E-2</v>
+      </c>
+      <c r="N17">
+        <v>2.4722222222222225E-2</v>
+      </c>
+      <c r="O17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P17">
+        <v>2.4722222222222225E-2</v>
+      </c>
+      <c r="Q17">
+        <v>2.5138888888888891E-2</v>
+      </c>
+      <c r="R17">
+        <v>2.4722222222222225E-2</v>
+      </c>
+      <c r="S17">
+        <v>2.5138888888888891E-2</v>
+      </c>
+      <c r="T17">
+        <v>2.4722222222222225E-2</v>
+      </c>
+      <c r="U17">
+        <v>2.5138888888888891E-2</v>
+      </c>
+      <c r="V17">
+        <v>2.4722222222222225E-2</v>
+      </c>
+      <c r="W17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X17">
+        <v>2.4722222222222225E-2</v>
+      </c>
+      <c r="Y17">
+        <v>2.5138888888888891E-2</v>
       </c>
     </row>
   </sheetData>

--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C8A31C-1C9C-4ECD-AC94-FBFF0D329747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67FFE68-C94B-45D6-A090-DFAD87D03150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8928" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -56,16 +57,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>maturity</t>
   </si>
@@ -77,9 +92,6 @@
   </si>
   <si>
     <t>instrument</t>
-  </si>
-  <si>
-    <t>BondLib</t>
   </si>
   <si>
     <t>dated</t>
@@ -166,6 +178,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <fb t="e">#NAME?</fb>
+    <v>10</v>
+    <v>10</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,34 +536,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92863B8-4C87-4474-B5B0-52EEB5BB3C33}">
-  <dimension ref="B2:Y17"/>
+  <dimension ref="B1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B1" t="e" vm="1">
+        <f>ERROR(0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="6">
+        <f>MONTE.CALCULATION()</f>
+        <v>32935</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B3" t="e" vm="1">
+        <f>RETURN()</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>45080</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -506,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>1</v>
       </c>
@@ -515,14 +603,30 @@
       </c>
       <c r="D7" s="2" cm="1">
         <f t="array" ref="D7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>1973456868832</v>
+        <v>2431703226448</v>
       </c>
       <c r="E7" s="2" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.INSTRUMENT(D7, dated)</f>
-        <v>1973458239920</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+        <v>2431704406144</v>
+      </c>
+      <c r="F7" s="4" cm="1">
+        <f t="array" ref="F7">_xll.TMX.DATE.ADD_YEARS(dated,F8)</f>
+        <v>45262.00105324074</v>
+      </c>
+      <c r="G7" s="4" cm="1">
+        <f t="array" ref="G7">_xll.TMX.DATE.ADD_YEARS(dated,G8)</f>
+        <v>45445.002106481479</v>
+      </c>
+      <c r="H7" s="4" cm="1">
+        <f t="array" ref="H7">_xll.TMX.DATE.ADD_YEARS(dated,H8)</f>
+        <v>45627.003148148149</v>
+      </c>
+      <c r="I7" s="4" cm="1">
+        <f t="array" ref="I7">_xll.TMX.DATE.ADD_YEARS(dated,I8)</f>
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2</v>
       </c>
@@ -531,14 +635,24 @@
       </c>
       <c r="D8" s="2" cm="1">
         <f t="array" ref="D8">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>1973456868256</v>
+        <v>2431703230672</v>
       </c>
       <c r="E8" s="2" cm="1">
         <f t="array" ref="E8">_xll.\TMX.BOND.INSTRUMENT(D8, dated)</f>
-        <v>1971666615376</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+        <v>2431704406000</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8:H9">_xll.TMX.INSTRUMENT(E8)</f>
+        <v>0.49829907527190836</v>
+      </c>
+      <c r="G8">
+        <v>0.99933605755080523</v>
+      </c>
+      <c r="H8">
+        <v>1.4976351328227138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>3</v>
       </c>
@@ -547,14 +661,23 @@
       </c>
       <c r="D9" s="2" cm="1">
         <f t="array" ref="D9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>1973456870656</v>
+        <v>2431703227600</v>
       </c>
       <c r="E9" s="2" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.INSTRUMENT(D9, dated)</f>
-        <v>1971666611056</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+        <v>2431704403264</v>
+      </c>
+      <c r="F9">
+        <v>2.4861111111111112E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.4861111111111112E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.4861111111111112E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>4</v>
       </c>
@@ -563,14 +686,14 @@
       </c>
       <c r="D10" s="2" cm="1">
         <f t="array" ref="D10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>1973456870848</v>
+        <v>2431703224720</v>
       </c>
       <c r="E10" s="2" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.INSTRUMENT(D10, dated)</f>
-        <v>1971666613072</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+        <v>2431704405712</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>5</v>
       </c>
@@ -579,14 +702,14 @@
       </c>
       <c r="D11" s="2" cm="1">
         <f t="array" ref="D11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>1973456872000</v>
+        <v>2431703229232</v>
       </c>
       <c r="E11" s="2" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.INSTRUMENT(D11, dated)</f>
-        <v>1971666616960</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+        <v>2431704406432</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>6</v>
       </c>
@@ -595,14 +718,14 @@
       </c>
       <c r="D12" s="2" cm="1">
         <f t="array" ref="D12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>1973456868640</v>
+        <v>2431703224912</v>
       </c>
       <c r="E12" s="2" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.INSTRUMENT(D12, dated)</f>
-        <v>1971666611920</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+        <v>2431704402112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>7</v>
       </c>
@@ -611,14 +734,14 @@
       </c>
       <c r="D13" s="2" cm="1">
         <f t="array" ref="D13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>1973456868928</v>
+        <v>2431703228560</v>
       </c>
       <c r="E13" s="2" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.INSTRUMENT(D13, dated)</f>
-        <v>1971666614368</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+        <v>2431704410464</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>8</v>
       </c>
@@ -627,14 +750,14 @@
       </c>
       <c r="D14" s="2" cm="1">
         <f t="array" ref="D14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>1973456871328</v>
+        <v>2431703230000</v>
       </c>
       <c r="E14" s="2" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.INSTRUMENT(D14, dated)</f>
-        <v>1971666619408</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+        <v>2431704409312</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>9</v>
       </c>
@@ -643,14 +766,14 @@
       </c>
       <c r="D15" s="2" cm="1">
         <f t="array" ref="D15">_xll.\TMX.BOND.SIMPLE(B15, C15)</f>
-        <v>1973456874784</v>
+        <v>2431703227216</v>
       </c>
       <c r="E15" s="2" cm="1">
         <f t="array" ref="E15">_xll.\TMX.BOND.INSTRUMENT(D15, dated)</f>
-        <v>1971666612928</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+        <v>2431704401968</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>10</v>
       </c>
@@ -659,75 +782,72 @@
       </c>
       <c r="D16" s="2" cm="1">
         <f t="array" ref="D16">_xll.\TMX.BOND.SIMPLE(B16, C16)</f>
-        <v>1973456871904</v>
+        <v>2431703226640</v>
       </c>
       <c r="E16" s="2" cm="1">
         <f t="array" ref="E16">_xll.\TMX.BOND.INSTRUMENT(D16, dated)</f>
-        <v>1971666610480</v>
+        <v>2431704407728</v>
       </c>
       <c r="F16" cm="1">
-        <f t="array" ref="F16:Y17">_xll.TMX.INSTRUMENT(E16)</f>
+        <f t="array" ref="F16:X17">_xll.TMX.INSTRUMENT(E16)</f>
         <v>0.49829907527190836</v>
       </c>
       <c r="G16">
-        <v>0.99659815054381673</v>
+        <v>0.99933605755080523</v>
       </c>
       <c r="H16">
-        <v>1.4948972258157252</v>
+        <v>1.4976351328227138</v>
       </c>
       <c r="I16">
-        <v>1.9931963010876335</v>
+        <v>1.9986721151016105</v>
       </c>
       <c r="J16">
-        <v>2.4914953763595418</v>
+        <v>2.4997090973805074</v>
       </c>
       <c r="K16">
-        <v>2.9897944516314503</v>
+        <v>2.9980081726524159</v>
       </c>
       <c r="L16">
-        <v>3.4880935269033588</v>
+        <v>3.4990451549313129</v>
       </c>
       <c r="M16">
-        <v>3.9863926021752669</v>
+        <v>3.9973442302032209</v>
       </c>
       <c r="N16">
-        <v>4.4846916774471755</v>
+        <v>4.4983812124821183</v>
       </c>
       <c r="O16">
-        <v>4.9829907527190835</v>
+        <v>4.9994181947610148</v>
       </c>
       <c r="P16">
-        <v>5.4812898279909925</v>
+        <v>5.4977172700329238</v>
       </c>
       <c r="Q16">
-        <v>5.9795889032629006</v>
+        <v>5.9987542523118202</v>
       </c>
       <c r="R16">
-        <v>6.4778879785348087</v>
+        <v>6.4997912345907167</v>
       </c>
       <c r="S16">
-        <v>6.9761870538067177</v>
+        <v>6.9980903098626257</v>
       </c>
       <c r="T16">
-        <v>7.4744861290786258</v>
+        <v>7.4991272921415222</v>
       </c>
       <c r="U16">
-        <v>7.9727852043505338</v>
+        <v>7.9974263674134312</v>
       </c>
       <c r="V16">
-        <v>8.4710842796224419</v>
+        <v>8.4984633496923276</v>
       </c>
       <c r="W16">
-        <v>8.9693833548943509</v>
+        <v>8.999500331971225</v>
       </c>
       <c r="X16">
-        <v>9.4676824301662599</v>
-      </c>
-      <c r="Y16">
-        <v>9.9659815054381671</v>
-      </c>
-    </row>
-    <row r="17" spans="6:25" x14ac:dyDescent="0.35">
+        <v>9.4977994072431322</v>
+      </c>
+    </row>
+    <row r="17" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F17">
         <v>2.4861111111111112E-2</v>
       </c>
@@ -784,9 +904,6 @@
       </c>
       <c r="X17">
         <v>2.4722222222222225E-2</v>
-      </c>
-      <c r="Y17">
-        <v>2.5138888888888891E-2</v>
       </c>
     </row>
   </sheetData>

--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,32 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DD400E-7E9B-4210-A3AA-CAEE348AD154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02EECB9-6A5C-4E6C-8850-81054CE66AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Date" sheetId="2" r:id="rId1"/>
-    <sheet name="Curve" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Enum" sheetId="4" r:id="rId1"/>
+    <sheet name="Date" sheetId="2" r:id="rId2"/>
+    <sheet name="Curve" sheetId="3" r:id="rId3"/>
+    <sheet name="Bond" sheetId="5" r:id="rId4"/>
+    <sheet name="Bootstrap" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="bond">Sheet1!$E$7:$E$16</definedName>
-    <definedName name="coupon">Sheet1!$C$7:$C$16</definedName>
-    <definedName name="curve" localSheetId="1">Curve!$F$2</definedName>
-    <definedName name="curve">Sheet1!$G$4</definedName>
-    <definedName name="curve_">Curve!$F$5</definedName>
+    <definedName name="bond">Bootstrap!$E$7:$E$16</definedName>
+    <definedName name="bond.simple">Bond!$C$6</definedName>
+    <definedName name="coupon" localSheetId="3">Bond!$C$3</definedName>
+    <definedName name="coupon">Bootstrap!$C$7:$C$16</definedName>
+    <definedName name="curve" localSheetId="2">Curve!$I$2</definedName>
+    <definedName name="curve">Bootstrap!$G$6</definedName>
+    <definedName name="curve_">Curve!$I$6</definedName>
     <definedName name="date">Date!$C$2</definedName>
-    <definedName name="dated">Sheet1!$C$4</definedName>
+    <definedName name="dated" localSheetId="3">Bond!$C$7</definedName>
+    <definedName name="dated">Bootstrap!$C$4</definedName>
+    <definedName name="day_count" localSheetId="3">Bond!$C$5</definedName>
     <definedName name="days">Date!$C$10</definedName>
     <definedName name="extrapolate">Curve!$C$6</definedName>
-    <definedName name="instrument">Sheet1!$F$7:$F$16</definedName>
-    <definedName name="maturity">Sheet1!$B$7:$B$16</definedName>
+    <definedName name="frequency" localSheetId="3">Bond!$C$4</definedName>
+    <definedName name="instrument" localSheetId="3">Bond!$C$8</definedName>
+    <definedName name="instrument">Bootstrap!$F$7:$F$16</definedName>
+    <definedName name="maturity" localSheetId="3">Bond!$C$2</definedName>
+    <definedName name="maturity">Bootstrap!$B$7:$B$16</definedName>
     <definedName name="months">Date!$C$9</definedName>
+    <definedName name="price">Bootstrap!$D$7:$D$16</definedName>
     <definedName name="rate">Curve!$C$3:$C$5</definedName>
-    <definedName name="shift">Curve!$F$3</definedName>
+    <definedName name="shift">Curve!$I$3</definedName>
     <definedName name="time">Curve!$B$3:$B$5</definedName>
-    <definedName name="translate">Curve!$F$4</definedName>
+    <definedName name="translate">Curve!$I$5</definedName>
     <definedName name="years">Date!$C$3</definedName>
     <definedName name="years_">Date!$C$8</definedName>
   </definedNames>
@@ -58,7 +68,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -80,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>maturity</t>
   </si>
@@ -156,15 +166,77 @@
   <si>
     <t>curve_</t>
   </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>day_count</t>
+  </si>
+  <si>
+    <t>TMX_FREQUENCY_ANNUALLY</t>
+  </si>
+  <si>
+    <t>TMX_FREQUENCY_SEMIANNUALLY</t>
+  </si>
+  <si>
+    <t>TMX_FREQUENCY_QUARTERLY</t>
+  </si>
+  <si>
+    <t>TMX_FREQUENCY_MONTHLY</t>
+  </si>
+  <si>
+    <t>TMX_DAY_COUNT_30_360</t>
+  </si>
+  <si>
+    <t>TMX_DAY_COUNT_ACTUAL_360</t>
+  </si>
+  <si>
+    <t>TMX_DAY_COUNT_ACTUAL_365</t>
+  </si>
+  <si>
+    <t>TMX_DAY_COUNT_ACTUAL_ACTUAL</t>
+  </si>
+  <si>
+    <t>TMX_DAY_COUNT_YEARS</t>
+  </si>
+  <si>
+    <t>bond.simple</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>bond.instrument</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>compound_yield</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>convexity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -204,6 +276,14 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,9 +352,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,6 +371,26 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -337,7 +436,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Curve!$I$2</c:f>
+              <c:f>Curve!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -360,7 +459,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Curve!$H$3:$H$43</c:f>
+              <c:f>Curve!$K$3:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -492,7 +591,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Curve!$I$3:$I$43</c:f>
+              <c:f>Curve!$L$3:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -634,7 +733,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Curve!$J$2</c:f>
+              <c:f>Curve!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -657,7 +756,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Curve!$H$3:$H$43</c:f>
+              <c:f>Curve!$K$3:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -789,7 +888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Curve!$J$3:$J$43</c:f>
+              <c:f>Curve!$M$3:$M$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -931,7 +1030,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Curve!$K$2</c:f>
+              <c:f>Curve!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -954,7 +1053,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Curve!$H$3:$H$43</c:f>
+              <c:f>Curve!$K$3:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1086,7 +1185,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Curve!$K$3:$K$43</c:f>
+              <c:f>Curve!$N$3:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1441,7 +1540,943 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Bootstrap!$H$7:$H$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.2999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.3999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.4999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.5999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.6999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.8999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.9999999999999911</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.0999999999999908</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.4999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.7999999999999883</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.8999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.9999999999999876</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.0999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999869</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.2999999999999865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.3999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.4999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.5999999999999854</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999851</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.7999999999999847</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.8999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0999999999999837</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999833</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.2999999999999829</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.3999999999999826</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.4999999999999822</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.5999999999999819</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.7999999999999812</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.8999999999999808</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.9999999999999805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Bootstrap!$I$7:$I$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9688644922257018E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1859212468108845E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1859212468108845E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1859212468108845E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1859212468108845E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1859212468108845E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1859212468108845E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1859212468108845E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1859212468108845E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1859212468108845E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1859212468108845E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7683063278025691E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7683063278025691E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7683063278025691E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7683063278025691E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7683063278025691E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7683063278025691E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7683063278025691E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7683063278025691E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7683063278025691E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.7683063278025691E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.9823073127630173E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9823073127630173E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9823073127630173E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9823073127630173E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9823073127630173E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9823073127630173E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9823073127630173E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.9823073127630173E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9823073127630173E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9823073127630173E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.9688644922258357E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9688644922258357E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.9688644922258357E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.9688644922258357E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.9688644922258357E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.9688644922258357E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.9688644922258357E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.9688644922258357E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9688644922258357E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9688644922258357E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.9823073127630096E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.9688644922257615E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.9688644922257615E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.9688644922257615E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.9688644922257615E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.9688644922257615E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.9688644922257615E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.9688644922257615E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.9688644922257615E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.9688644922257615E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.9688644922257615E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.9823073127629867E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.9823073127629867E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.9823073127629867E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.9823073127629867E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.9823073127629867E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.9823073127629867E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.9823073127629867E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.9823073127629867E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9823073127629867E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.9823073127629867E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EE4-4982-B496-53DEE2E034B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="385689792"/>
+        <c:axId val="385679232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="385689792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385679232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="385679232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385689792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1997,20 +3032,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2018,6 +3569,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C81DCF0-E12E-4895-F818-F09A4FB31411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>397192</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>159067</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E9958D-3DD3-E102-F25C-5D5F958EFF69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,938 +3926,1053 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28EA81D-C5B8-44E1-B499-71D23FEEDB1B}">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" ref="C3">_xll.TMX_FREQUENCY_ANNUALLY()</f>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5" cm="1">
+        <f t="array" ref="E3">_xll.TMX_DAY_COUNT_30_360()</f>
+        <v>140716345864955</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" ref="C4">_xll.TMX_FREQUENCY_SEMIANNUALLY()</f>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" cm="1">
+        <f t="array" ref="E4">_xll.TMX_DAY_COUNT_ACTUAL_360()</f>
+        <v>140716345857945</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" ref="C5">_xll.TMX_FREQUENCY_QUARTERLY()</f>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" cm="1">
+        <f t="array" ref="E5">_xll.TMX_DAY_COUNT_ACTUAL_365()</f>
+        <v>140716345863355</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" ref="C6">_xll.TMX_FREQUENCY_MONTHLY()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5" cm="1">
+        <f t="array" ref="E6">_xll.TMX_DAY_COUNT_ACTUAL_ACTUAL()</f>
+        <v>140716345868405</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" cm="1">
+        <f t="array" ref="E7">_xll.TMX_DAY_COUNT_YEARS()</f>
+        <v>140716345898895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DAD46C-D019-4BB0-8142-A427C42D3B36}">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <f ca="1">10*RAND()</f>
-        <v>5.9950973587374543</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+        <v>6.0795388229777094</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" cm="1">
+      <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>47277.664340277777</v>
+        <v>47311.505949074075</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>47277.664340277777</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" cm="1">
+        <v>47311.505949074075</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.DATE.ADD_YEARS(C4,-years)</f>
-        <v>45088</v>
-      </c>
-      <c r="D5" s="8">
+        <v>45091</v>
+      </c>
+      <c r="D5" s="7">
         <f ca="1">C5-date</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>5.9932784382978435</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" cm="1">
+        <v>6.0781535555144872</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>47277</v>
+        <v>47311</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>47277</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+        <v>47311</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <f ca="1">-years_ + YEAR(C11)-YEAR(date)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f ca="1">-months + MONTH(C11)-MONTH(date)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f ca="1">-days + DATE(YEAR(date),MONTH(date),DAY(C11))-date</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.DATE.ADD_YMD(date, years_, months, days)</f>
-        <v>46248</v>
+      <c r="C11" s="2" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.DATE.ADD_YMD(date, years_,months, days)</f>
+        <v>45521</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError xmlns:x16r3="http://schemas.microsoft.com/office/spreadsheetml/2018/08/main" sqref="D4 D7" x16r3:misleadingFormat="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B429FC-4136-41AD-B308-B590D229D902}">
-  <dimension ref="B2:K43"/>
+  <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="4" max="4" width="3.59765625" customWidth="1"/>
+    <col min="5" max="6" width="8.69921875" customWidth="1"/>
+    <col min="7" max="7" width="3.59765625" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" cm="1">
-        <f t="array" ref="F2">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>3125003000976</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="5" cm="1">
+        <f t="array" ref="I2">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
+        <v>2392573155104</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="10">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="15">
         <v>0.1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" cm="1">
+        <f t="array" ref="E3:F6">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve_))</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="H3" cm="1">
-        <f t="array" ref="H3:H43">_xlfn.SEQUENCE(1+4/0.1,1,0,0.1)</f>
+      <c r="K3" cm="1">
+        <f t="array" ref="K3:K43">_xlfn.SEQUENCE(1+4/0.1,1,0,0.1)</f>
         <v>0</v>
       </c>
-      <c r="I3" cm="1">
-        <f t="array" ref="I3">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H3)</f>
+      <c r="L3" cm="1">
+        <f t="array" ref="L3">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K3)</f>
         <v>0.1</v>
       </c>
-      <c r="J3" cm="1">
-        <f t="array" ref="J3">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H3)</f>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K3)</f>
         <v>0.1</v>
       </c>
-      <c r="K3" cm="1">
-        <f t="array" ref="K3">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H3)</f>
+      <c r="N3" cm="1">
+        <f t="array" ref="N3">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="10">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>0.2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="5" cm="1">
+        <f t="array" ref="I4">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve, shift)</f>
+        <v>2392573154576</v>
+      </c>
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K4)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K4)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N4" cm="1">
+        <f t="array" ref="N4">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K4)</f>
+        <v>0.99004983374916811</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="L5" cm="1">
+        <f t="array" ref="L5">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K5)</f>
         <v>0.1</v>
       </c>
-      <c r="I4" cm="1">
-        <f t="array" ref="I4">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H4)</f>
+      <c r="M5" cm="1">
+        <f t="array" ref="M5">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K5)</f>
         <v>0.1</v>
       </c>
-      <c r="J4" cm="1">
-        <f t="array" ref="J4">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H4)</f>
+      <c r="N5" cm="1">
+        <f t="array" ref="N5">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K5)</f>
+        <v>0.98019867330675525</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5" cm="1">
+        <f t="array" ref="I6">_xll.\TMX.PWFLAT.CURVE.TRANSLATE(I4, translate)</f>
+        <v>2392573153168</v>
+      </c>
+      <c r="K6">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" ref="L6">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K6)</f>
         <v>0.1</v>
       </c>
-      <c r="K4" cm="1">
-        <f t="array" ref="K4">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H4)</f>
-        <v>0.99004983374916811</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="10">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N6" cm="1">
+        <f t="array" ref="N6">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K6)</f>
+        <v>0.97044553354850815</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0.4</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K7)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K7)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N7" cm="1">
+        <f t="array" ref="N7">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K7)</f>
+        <v>0.96078943915232318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K8)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K8)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N8" cm="1">
+        <f t="array" ref="N8">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K8)</f>
+        <v>0.95122942450071402</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0.6</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K9)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K9)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N9" cm="1">
+        <f t="array" ref="N9">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K9)</f>
+        <v>0.94176453358424872</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0.7</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N10" cm="1">
+        <f t="array" ref="N10">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K10)</f>
+        <v>0.93239381990594827</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K11)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K11)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N11" cm="1">
+        <f t="array" ref="N11">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K11)</f>
+        <v>0.92311634638663576</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K12)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K12)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N12" cm="1">
+        <f t="array" ref="N12">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K12)</f>
+        <v>0.91393118527122819</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K13)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K13)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N13" cm="1">
+        <f t="array" ref="N13">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K13)</f>
+        <v>0.90483741803595963</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K14)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K14)</f>
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="N14" cm="1">
+        <f t="array" ref="N14">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K14)</f>
+        <v>0.88692043671715748</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>1.2</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K15)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K15)</f>
+        <v>0.11666666666666668</v>
+      </c>
+      <c r="N15" cm="1">
+        <f t="array" ref="N15">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K15)</f>
+        <v>0.86935823539880586</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1.3</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K16)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K16)</f>
+        <v>0.1230769230769231</v>
+      </c>
+      <c r="N16" cm="1">
+        <f t="array" ref="N16">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K16)</f>
+        <v>0.85214378896621135</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K17)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M17" cm="1">
+        <f t="array" ref="M17">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K17)</f>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="N17" cm="1">
+        <f t="array" ref="N17">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K17)</f>
+        <v>0.835270211411272</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K18)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M18" cm="1">
+        <f t="array" ref="M18">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K18)</f>
+        <v>0.13333333333333336</v>
+      </c>
+      <c r="N18" cm="1">
+        <f t="array" ref="N18">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K18)</f>
+        <v>0.81873075307798182</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K19)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M19" cm="1">
+        <f t="array" ref="M19">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K19)</f>
+        <v>0.13750000000000004</v>
+      </c>
+      <c r="N19" cm="1">
+        <f t="array" ref="N19">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K19)</f>
+        <v>0.80251879796247838</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K20)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M20" cm="1">
+        <f t="array" ref="M20">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K20)</f>
+        <v>0.14117647058823532</v>
+      </c>
+      <c r="N20" cm="1">
+        <f t="array" ref="N20">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K20)</f>
+        <v>0.78662786106655336</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K21)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M21" cm="1">
+        <f t="array" ref="M21">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K21)</f>
+        <v>0.14444444444444446</v>
+      </c>
+      <c r="N21" cm="1">
+        <f t="array" ref="N21">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K21)</f>
+        <v>0.77105158580356614</v>
+      </c>
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K22)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M22" cm="1">
+        <f t="array" ref="M22">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K22)</f>
+        <v>0.14736842105263159</v>
+      </c>
+      <c r="N22" cm="1">
+        <f t="array" ref="N22">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K22)</f>
+        <v>0.75578374145572536</v>
+      </c>
+    </row>
+    <row r="23" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K23)</f>
         <v>0.3</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" cm="1">
-        <f t="array" ref="F5">_xll.\TMX.PWFLAT.CURVE.TRANSLATE(_xll.\TMX.PWFLAT.CURVE.SHIFT(curve, shift), translate)</f>
-        <v>3125074470736</v>
-      </c>
-      <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="I5" cm="1">
-        <f t="array" ref="I5">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H5)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J5" cm="1">
-        <f t="array" ref="J5">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H5)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K5" cm="1">
-        <f t="array" ref="K5">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H5)</f>
-        <v>0.98019867330675525</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="M23" cm="1">
+        <f t="array" ref="M23">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K23)</f>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="N23" cm="1">
+        <f t="array" ref="N23">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K23)</f>
+        <v>0.74081822068171777</v>
+      </c>
+    </row>
+    <row r="24" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K24)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M24" cm="1">
+        <f t="array" ref="M24">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K24)</f>
+        <v>0.1571428571428572</v>
+      </c>
+      <c r="N24" cm="1">
+        <f t="array" ref="N24">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K24)</f>
+        <v>0.71892373343192606</v>
+      </c>
+    </row>
+    <row r="25" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K25)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M25" cm="1">
+        <f t="array" ref="M25">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K25)</f>
+        <v>0.16363636363636369</v>
+      </c>
+      <c r="N25" cm="1">
+        <f t="array" ref="N25">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K25)</f>
+        <v>0.69767632607103092</v>
+      </c>
+    </row>
+    <row r="26" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K26)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M26" cm="1">
+        <f t="array" ref="M26">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K26)</f>
+        <v>0.1695652173913044</v>
+      </c>
+      <c r="N26" cm="1">
+        <f t="array" ref="N26">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K26)</f>
+        <v>0.67705687449816454</v>
+      </c>
+    </row>
+    <row r="27" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K27)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M27" cm="1">
+        <f t="array" ref="M27">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K27)</f>
+        <v>0.17500000000000004</v>
+      </c>
+      <c r="N27" cm="1">
+        <f t="array" ref="N27">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K27)</f>
+        <v>0.65704681981505664</v>
+      </c>
+    </row>
+    <row r="28" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K28)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M28" cm="1">
+        <f t="array" ref="M28">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K28)</f>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="N28" cm="1">
+        <f t="array" ref="N28">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K28)</f>
+        <v>0.63762815162177311</v>
+      </c>
+    </row>
+    <row r="29" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K29)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M29" cm="1">
+        <f t="array" ref="M29">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K29)</f>
+        <v>0.18461538461538468</v>
+      </c>
+      <c r="N29" cm="1">
+        <f t="array" ref="N29">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K29)</f>
+        <v>0.61878339180614061</v>
+      </c>
+    </row>
+    <row r="30" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K30)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M30" cm="1">
+        <f t="array" ref="M30">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K30)</f>
+        <v>0.18888888888888894</v>
+      </c>
+      <c r="N30" cm="1">
+        <f t="array" ref="N30">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K30)</f>
+        <v>0.60049557881226578</v>
+      </c>
+    </row>
+    <row r="31" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>2.8000000000000012</v>
+      </c>
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K31)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M31" cm="1">
+        <f t="array" ref="M31">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K31)</f>
+        <v>0.19285714285714292</v>
+      </c>
+      <c r="N31" cm="1">
+        <f t="array" ref="N31">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K31)</f>
+        <v>0.58274825237398942</v>
+      </c>
+    </row>
+    <row r="32" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K32)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M32" cm="1">
+        <f t="array" ref="M32">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K32)</f>
+        <v>0.19655172413793109</v>
+      </c>
+      <c r="N32" cm="1">
+        <f t="array" ref="N32">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K32)</f>
+        <v>0.56552543869953686</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K33)</f>
         <v>0.4</v>
       </c>
-      <c r="H6">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I6" cm="1">
-        <f t="array" ref="I6">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H6)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J6" cm="1">
-        <f t="array" ref="J6">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H6)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K6" cm="1">
-        <f t="array" ref="K6">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H6)</f>
-        <v>0.97044553354850815</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E7" cm="1">
-        <f t="array" ref="E7:F10">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve_))</f>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
+      <c r="M33" cm="1">
+        <f t="array" ref="M33">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K33)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="N33" cm="1">
+        <f t="array" ref="N33">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K33)</f>
+        <v>0.54881163609402606</v>
+      </c>
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K34)</f>
         <v>0.4</v>
       </c>
-      <c r="I7" cm="1">
-        <f t="array" ref="I7">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H7)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J7" cm="1">
-        <f t="array" ref="J7">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H7)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K7" cm="1">
-        <f t="array" ref="K7">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H7)</f>
-        <v>0.96078943915232318</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.2</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
-      </c>
-      <c r="I8" cm="1">
-        <f t="array" ref="I8">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H8)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J8" cm="1">
-        <f t="array" ref="J8">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H8)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K8" cm="1">
-        <f t="array" ref="K8">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H8)</f>
-        <v>0.95122942450071402</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0.3</v>
-      </c>
-      <c r="H9">
-        <v>0.6</v>
-      </c>
-      <c r="I9" cm="1">
-        <f t="array" ref="I9">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H9)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J9" cm="1">
-        <f t="array" ref="J9">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H9)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K9" cm="1">
-        <f t="array" ref="K9">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H9)</f>
-        <v>0.94176453358424872</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
+      <c r="M34" cm="1">
+        <f t="array" ref="M34">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K34)</f>
+        <v>0.20645161290322592</v>
+      </c>
+      <c r="N34" cm="1">
+        <f t="array" ref="N34">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K34)</f>
+        <v>0.52729242404304821</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K35)</f>
         <v>0.4</v>
       </c>
-      <c r="H10">
-        <v>0.7</v>
-      </c>
-      <c r="I10" cm="1">
-        <f t="array" ref="I10">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H10)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J10" cm="1">
-        <f t="array" ref="J10">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H10)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K10" cm="1">
-        <f t="array" ref="K10">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H10)</f>
-        <v>0.93239381990594827</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H11">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="I11" cm="1">
-        <f t="array" ref="I11">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H11)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J11" cm="1">
-        <f t="array" ref="J11">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H11)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K11" cm="1">
-        <f t="array" ref="K11">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H11)</f>
-        <v>0.92311634638663576</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H12">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="I12" cm="1">
-        <f t="array" ref="I12">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H12)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J12" cm="1">
-        <f t="array" ref="J12">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H12)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K12" cm="1">
-        <f t="array" ref="K12">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H12)</f>
-        <v>0.91393118527122819</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H13">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="I13" cm="1">
-        <f t="array" ref="I13">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H13)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J13" cm="1">
-        <f t="array" ref="J13">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H13)</f>
-        <v>0.1</v>
-      </c>
-      <c r="K13" cm="1">
-        <f t="array" ref="K13">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H13)</f>
-        <v>0.90483741803595963</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H14">
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="I14" cm="1">
-        <f t="array" ref="I14">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H14)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J14" cm="1">
-        <f t="array" ref="J14">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H14)</f>
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="K14" cm="1">
-        <f t="array" ref="K14">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H14)</f>
-        <v>0.88692043671715748</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H15">
-        <v>1.2</v>
-      </c>
-      <c r="I15" cm="1">
-        <f t="array" ref="I15">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H15)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J15" cm="1">
-        <f t="array" ref="J15">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H15)</f>
-        <v>0.11666666666666668</v>
-      </c>
-      <c r="K15" cm="1">
-        <f t="array" ref="K15">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H15)</f>
-        <v>0.86935823539880586</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H16">
-        <v>1.3</v>
-      </c>
-      <c r="I16" cm="1">
-        <f t="array" ref="I16">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H16)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J16" cm="1">
-        <f t="array" ref="J16">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H16)</f>
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="K16" cm="1">
-        <f t="array" ref="K16">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H16)</f>
-        <v>0.85214378896621135</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H17">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="I17" cm="1">
-        <f t="array" ref="I17">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H17)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J17" cm="1">
-        <f t="array" ref="J17">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H17)</f>
-        <v>0.12857142857142859</v>
-      </c>
-      <c r="K17" cm="1">
-        <f t="array" ref="K17">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H17)</f>
-        <v>0.835270211411272</v>
-      </c>
-    </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H18">
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="I18" cm="1">
-        <f t="array" ref="I18">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H18)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J18" cm="1">
-        <f t="array" ref="J18">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H18)</f>
-        <v>0.13333333333333336</v>
-      </c>
-      <c r="K18" cm="1">
-        <f t="array" ref="K18">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H18)</f>
-        <v>0.81873075307798182</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H19">
-        <v>1.6000000000000003</v>
-      </c>
-      <c r="I19" cm="1">
-        <f t="array" ref="I19">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H19)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J19" cm="1">
-        <f t="array" ref="J19">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H19)</f>
-        <v>0.13750000000000004</v>
-      </c>
-      <c r="K19" cm="1">
-        <f t="array" ref="K19">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H19)</f>
-        <v>0.80251879796247838</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H20">
-        <v>1.7000000000000004</v>
-      </c>
-      <c r="I20" cm="1">
-        <f t="array" ref="I20">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H20)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J20" cm="1">
-        <f t="array" ref="J20">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H20)</f>
-        <v>0.14117647058823532</v>
-      </c>
-      <c r="K20" cm="1">
-        <f t="array" ref="K20">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H20)</f>
-        <v>0.78662786106655336</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H21">
-        <v>1.8000000000000005</v>
-      </c>
-      <c r="I21" cm="1">
-        <f t="array" ref="I21">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H21)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J21" cm="1">
-        <f t="array" ref="J21">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H21)</f>
-        <v>0.14444444444444446</v>
-      </c>
-      <c r="K21" cm="1">
-        <f t="array" ref="K21">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H21)</f>
-        <v>0.77105158580356614</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H22">
-        <v>1.9000000000000006</v>
-      </c>
-      <c r="I22" cm="1">
-        <f t="array" ref="I22">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H22)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J22" cm="1">
-        <f t="array" ref="J22">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H22)</f>
-        <v>0.14736842105263159</v>
-      </c>
-      <c r="K22" cm="1">
-        <f t="array" ref="K22">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H22)</f>
-        <v>0.75578374145572536</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H23">
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="I23" cm="1">
-        <f t="array" ref="I23">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H23)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J23" cm="1">
-        <f t="array" ref="J23">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H23)</f>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="K23" cm="1">
-        <f t="array" ref="K23">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H23)</f>
-        <v>0.74081822068171777</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H24">
-        <v>2.1000000000000005</v>
-      </c>
-      <c r="I24" cm="1">
-        <f t="array" ref="I24">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H24)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J24" cm="1">
-        <f t="array" ref="J24">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H24)</f>
-        <v>0.1571428571428572</v>
-      </c>
-      <c r="K24" cm="1">
-        <f t="array" ref="K24">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H24)</f>
-        <v>0.71892373343192606</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H25">
-        <v>2.2000000000000006</v>
-      </c>
-      <c r="I25" cm="1">
-        <f t="array" ref="I25">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H25)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J25" cm="1">
-        <f t="array" ref="J25">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H25)</f>
-        <v>0.16363636363636369</v>
-      </c>
-      <c r="K25" cm="1">
-        <f t="array" ref="K25">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H25)</f>
-        <v>0.69767632607103092</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H26">
-        <v>2.3000000000000007</v>
-      </c>
-      <c r="I26" cm="1">
-        <f t="array" ref="I26">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H26)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J26" cm="1">
-        <f t="array" ref="J26">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H26)</f>
-        <v>0.1695652173913044</v>
-      </c>
-      <c r="K26" cm="1">
-        <f t="array" ref="K26">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H26)</f>
-        <v>0.67705687449816454</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H27">
-        <v>2.4000000000000008</v>
-      </c>
-      <c r="I27" cm="1">
-        <f t="array" ref="I27">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H27)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J27" cm="1">
-        <f t="array" ref="J27">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H27)</f>
-        <v>0.17500000000000004</v>
-      </c>
-      <c r="K27" cm="1">
-        <f t="array" ref="K27">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H27)</f>
-        <v>0.65704681981505664</v>
-      </c>
-    </row>
-    <row r="28" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H28">
-        <v>2.5000000000000009</v>
-      </c>
-      <c r="I28" cm="1">
-        <f t="array" ref="I28">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H28)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J28" cm="1">
-        <f t="array" ref="J28">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H28)</f>
-        <v>0.18000000000000005</v>
-      </c>
-      <c r="K28" cm="1">
-        <f t="array" ref="K28">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H28)</f>
-        <v>0.63762815162177311</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H29">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="I29" cm="1">
-        <f t="array" ref="I29">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H29)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J29" cm="1">
-        <f t="array" ref="J29">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H29)</f>
-        <v>0.18461538461538468</v>
-      </c>
-      <c r="K29" cm="1">
-        <f t="array" ref="K29">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H29)</f>
-        <v>0.61878339180614061</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H30">
-        <v>2.7000000000000011</v>
-      </c>
-      <c r="I30" cm="1">
-        <f t="array" ref="I30">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H30)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J30" cm="1">
-        <f t="array" ref="J30">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H30)</f>
-        <v>0.18888888888888894</v>
-      </c>
-      <c r="K30" cm="1">
-        <f t="array" ref="K30">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H30)</f>
-        <v>0.60049557881226578</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H31">
-        <v>2.8000000000000012</v>
-      </c>
-      <c r="I31" cm="1">
-        <f t="array" ref="I31">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H31)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J31" cm="1">
-        <f t="array" ref="J31">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H31)</f>
-        <v>0.19285714285714292</v>
-      </c>
-      <c r="K31" cm="1">
-        <f t="array" ref="K31">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H31)</f>
-        <v>0.58274825237398942</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H32">
-        <v>2.9000000000000012</v>
-      </c>
-      <c r="I32" cm="1">
-        <f t="array" ref="I32">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H32)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J32" cm="1">
-        <f t="array" ref="J32">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H32)</f>
-        <v>0.19655172413793109</v>
-      </c>
-      <c r="K32" cm="1">
-        <f t="array" ref="K32">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H32)</f>
-        <v>0.56552543869953686</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H33">
-        <v>3.0000000000000013</v>
-      </c>
-      <c r="I33" cm="1">
-        <f t="array" ref="I33">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H33)</f>
+      <c r="M35" cm="1">
+        <f t="array" ref="M35">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K35)</f>
+        <v>0.21250000000000013</v>
+      </c>
+      <c r="N35" cm="1">
+        <f t="array" ref="N35">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K35)</f>
+        <v>0.50661699236558921</v>
+      </c>
+    </row>
+    <row r="36" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K36)</f>
         <v>0.4</v>
       </c>
-      <c r="J33" cm="1">
-        <f t="array" ref="J33">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H33)</f>
-        <v>0.20000000000000012</v>
-      </c>
-      <c r="K33" cm="1">
-        <f t="array" ref="K33">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H33)</f>
-        <v>0.54881163609402606</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H34">
-        <v>3.1000000000000014</v>
-      </c>
-      <c r="I34" cm="1">
-        <f t="array" ref="I34">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H34)</f>
+      <c r="M36" cm="1">
+        <f t="array" ref="M36">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K36)</f>
+        <v>0.21818181818181831</v>
+      </c>
+      <c r="N36" cm="1">
+        <f t="array" ref="N36">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K36)</f>
+        <v>0.48675225595997129</v>
+      </c>
+    </row>
+    <row r="37" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K37)</f>
         <v>0.4</v>
       </c>
-      <c r="J34" cm="1">
-        <f t="array" ref="J34">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H34)</f>
-        <v>0.20645161290322592</v>
-      </c>
-      <c r="K34" cm="1">
-        <f t="array" ref="K34">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H34)</f>
-        <v>0.52729242404304821</v>
-      </c>
-    </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H35">
-        <v>3.2000000000000015</v>
-      </c>
-      <c r="I35" cm="1">
-        <f t="array" ref="I35">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H35)</f>
+      <c r="M37" cm="1">
+        <f t="array" ref="M37">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K37)</f>
+        <v>0.223529411764706</v>
+      </c>
+      <c r="N37" cm="1">
+        <f t="array" ref="N37">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K37)</f>
+        <v>0.46766642700990885</v>
+      </c>
+    </row>
+    <row r="38" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K38)</f>
         <v>0.4</v>
       </c>
-      <c r="J35" cm="1">
-        <f t="array" ref="J35">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H35)</f>
-        <v>0.21250000000000013</v>
-      </c>
-      <c r="K35" cm="1">
-        <f t="array" ref="K35">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H35)</f>
-        <v>0.50661699236558921</v>
-      </c>
-    </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H36">
-        <v>3.3000000000000016</v>
-      </c>
-      <c r="I36" cm="1">
-        <f t="array" ref="I36">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H36)</f>
+      <c r="M38" cm="1">
+        <f t="array" ref="M38">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K38)</f>
+        <v>0.2285714285714287</v>
+      </c>
+      <c r="N38" cm="1">
+        <f t="array" ref="N38">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K38)</f>
+        <v>0.44932896411722123</v>
+      </c>
+    </row>
+    <row r="39" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K39)</f>
         <v>0.4</v>
       </c>
-      <c r="J36" cm="1">
-        <f t="array" ref="J36">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H36)</f>
-        <v>0.21818181818181831</v>
-      </c>
-      <c r="K36" cm="1">
-        <f t="array" ref="K36">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H36)</f>
-        <v>0.48675225595997129</v>
-      </c>
-    </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H37">
-        <v>3.4000000000000017</v>
-      </c>
-      <c r="I37" cm="1">
-        <f t="array" ref="I37">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H37)</f>
+      <c r="M39" cm="1">
+        <f t="array" ref="M39">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K39)</f>
+        <v>0.23333333333333345</v>
+      </c>
+      <c r="N39" cm="1">
+        <f t="array" ref="N39">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K39)</f>
+        <v>0.43171052342907934</v>
+      </c>
+    </row>
+    <row r="40" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>3.700000000000002</v>
+      </c>
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K40)</f>
         <v>0.4</v>
       </c>
-      <c r="J37" cm="1">
-        <f t="array" ref="J37">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H37)</f>
-        <v>0.223529411764706</v>
-      </c>
-      <c r="K37" cm="1">
-        <f t="array" ref="K37">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H37)</f>
-        <v>0.46766642700990885</v>
-      </c>
-    </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H38">
-        <v>3.5000000000000018</v>
-      </c>
-      <c r="I38" cm="1">
-        <f t="array" ref="I38">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H38)</f>
+      <c r="M40" cm="1">
+        <f t="array" ref="M40">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K40)</f>
+        <v>0.23783783783783796</v>
+      </c>
+      <c r="N40" cm="1">
+        <f t="array" ref="N40">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K40)</f>
+        <v>0.41478291168158099</v>
+      </c>
+    </row>
+    <row r="41" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>3.800000000000002</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K41)</f>
         <v>0.4</v>
       </c>
-      <c r="J38" cm="1">
-        <f t="array" ref="J38">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H38)</f>
-        <v>0.2285714285714287</v>
-      </c>
-      <c r="K38" cm="1">
-        <f t="array" ref="K38">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H38)</f>
-        <v>0.44932896411722123</v>
-      </c>
-    </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H39">
-        <v>3.6000000000000019</v>
-      </c>
-      <c r="I39" cm="1">
-        <f t="array" ref="I39">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H39)</f>
+      <c r="M41" cm="1">
+        <f t="array" ref="M41">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K41)</f>
+        <v>0.24210526315789485</v>
+      </c>
+      <c r="N41" cm="1">
+        <f t="array" ref="N41">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K41)</f>
+        <v>0.3985190410845138</v>
+      </c>
+    </row>
+    <row r="42" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K42)</f>
         <v>0.4</v>
       </c>
-      <c r="J39" cm="1">
-        <f t="array" ref="J39">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H39)</f>
-        <v>0.23333333333333345</v>
-      </c>
-      <c r="K39" cm="1">
-        <f t="array" ref="K39">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H39)</f>
-        <v>0.43171052342907934</v>
-      </c>
-    </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H40">
-        <v>3.700000000000002</v>
-      </c>
-      <c r="I40" cm="1">
-        <f t="array" ref="I40">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H40)</f>
+      <c r="M42" cm="1">
+        <f t="array" ref="M42">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K42)</f>
+        <v>0.24615384615384628</v>
+      </c>
+      <c r="N42" cm="1">
+        <f t="array" ref="N42">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K42)</f>
+        <v>0.38289288597511167</v>
+      </c>
+    </row>
+    <row r="43" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K43)</f>
         <v>0.4</v>
       </c>
-      <c r="J40" cm="1">
-        <f t="array" ref="J40">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H40)</f>
-        <v>0.23783783783783796</v>
-      </c>
-      <c r="K40" cm="1">
-        <f t="array" ref="K40">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H40)</f>
-        <v>0.41478291168158099</v>
-      </c>
-    </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H41">
-        <v>3.800000000000002</v>
-      </c>
-      <c r="I41" cm="1">
-        <f t="array" ref="I41">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H41)</f>
-        <v>0.4</v>
-      </c>
-      <c r="J41" cm="1">
-        <f t="array" ref="J41">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H41)</f>
-        <v>0.24210526315789485</v>
-      </c>
-      <c r="K41" cm="1">
-        <f t="array" ref="K41">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H41)</f>
-        <v>0.3985190410845138</v>
-      </c>
-    </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H42">
-        <v>3.9000000000000021</v>
-      </c>
-      <c r="I42" cm="1">
-        <f t="array" ref="I42">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H42)</f>
-        <v>0.4</v>
-      </c>
-      <c r="J42" cm="1">
-        <f t="array" ref="J42">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H42)</f>
-        <v>0.24615384615384628</v>
-      </c>
-      <c r="K42" cm="1">
-        <f t="array" ref="K42">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H42)</f>
-        <v>0.38289288597511167</v>
-      </c>
-    </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H43">
-        <v>4.0000000000000018</v>
-      </c>
-      <c r="I43" cm="1">
-        <f t="array" ref="I43">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,H43)</f>
-        <v>0.4</v>
-      </c>
-      <c r="J43" cm="1">
-        <f t="array" ref="J43">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,H43)</f>
+      <c r="M43" cm="1">
+        <f t="array" ref="M43">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K43)</f>
         <v>0.25000000000000011</v>
       </c>
-      <c r="K43" cm="1">
-        <f t="array" ref="K43">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,H43)</f>
+      <c r="N43" cm="1">
+        <f t="array" ref="N43">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K43)</f>
         <v>0.367879441171442</v>
       </c>
     </row>
@@ -3275,1152 +4982,3254 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92863B8-4C87-4474-B5B0-52EEB5BB3C33}">
-  <dimension ref="B2:J107"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8A3DD8-75E7-4A72-9366-AF366CC35FAC}">
+  <dimension ref="B1:G552"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>4</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D5">_xll.TMX.BOND.SIMPLE(bond.simple)</f>
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" cm="1">
+        <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
+        <v>2394369033232</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="b">
+        <f>F2=D2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="F3">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="17" t="b">
+        <f t="shared" ref="G3:G5" si="0">F3=D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5">
+        <v>140716345864955</v>
+      </c>
+      <c r="F5" s="5">
+        <v>140716345864955</v>
+      </c>
+      <c r="G5" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" cm="1">
+        <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
+        <v>2394369038320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
+        <v>2392569839008</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="20" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
+        <v>4.8786680314628891E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="20" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(C9,12/_xll.ENUM(frequency))</f>
+        <v>4.9996341958828738E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14" cm="1">
+        <f t="array" aca="1" ref="C14:D17" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
+        <v>1.0020739645577939</v>
+      </c>
+      <c r="D14">
+        <f ca="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="2" cm="1">
+        <f t="array" aca="1" ref="E14:E17" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C14),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
+        <v>45457</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f ca="1"/>
+        <v>2.0014100221085989</v>
+      </c>
+      <c r="D15">
+        <f ca="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="2">
+        <f ca="1"/>
+        <v>45821.999988425923</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f ca="1"/>
+        <v>3.0007460796594043</v>
+      </c>
+      <c r="D16">
+        <f ca="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="2">
+        <f ca="1"/>
+        <v>46187</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f ca="1"/>
+        <v>4.0000821372102093</v>
+      </c>
+      <c r="D17">
+        <f ca="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="E17" s="2">
+        <f ca="1"/>
+        <v>46552</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E118" s="2"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E121" s="2"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E126" s="2"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E138" s="2"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E140" s="2"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E141" s="2"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E142" s="2"/>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E143" s="2"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E144" s="2"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E146" s="2"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E147" s="2"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E148" s="2"/>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E149" s="2"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E150" s="2"/>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E151" s="2"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E152" s="2"/>
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E153" s="2"/>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E154" s="2"/>
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E155" s="2"/>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E156" s="2"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E157" s="2"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E158" s="2"/>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E159" s="2"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E160" s="2"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E161" s="2"/>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E162" s="2"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E163" s="2"/>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E164" s="2"/>
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E165" s="2"/>
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E166" s="2"/>
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E167" s="2"/>
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E168" s="2"/>
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E169" s="2"/>
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E170" s="2"/>
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E171" s="2"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E172" s="2"/>
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E173" s="2"/>
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E174" s="2"/>
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E175" s="2"/>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E176" s="2"/>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E177" s="2"/>
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E178" s="2"/>
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E179" s="2"/>
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E180" s="2"/>
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E181" s="2"/>
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E182" s="2"/>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E183" s="2"/>
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E184" s="2"/>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E185" s="2"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E186" s="2"/>
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E187" s="2"/>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E188" s="2"/>
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E189" s="2"/>
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E190" s="2"/>
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E191" s="2"/>
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E192" s="2"/>
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E193" s="2"/>
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E194" s="2"/>
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E195" s="2"/>
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E196" s="2"/>
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E197" s="2"/>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E198" s="2"/>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E199" s="2"/>
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E200" s="2"/>
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E201" s="2"/>
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E202" s="2"/>
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E204" s="2"/>
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E205" s="2"/>
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E206" s="2"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E207" s="2"/>
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E208" s="2"/>
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E209" s="2"/>
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E210" s="2"/>
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E211" s="2"/>
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E212" s="2"/>
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E213" s="2"/>
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E214" s="2"/>
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E215" s="2"/>
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E216" s="2"/>
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E217" s="2"/>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E218" s="2"/>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E219" s="2"/>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E220" s="2"/>
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E221" s="2"/>
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E222" s="2"/>
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E223" s="2"/>
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E224" s="2"/>
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E225" s="2"/>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E226" s="2"/>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E227" s="2"/>
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E228" s="2"/>
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E229" s="2"/>
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E230" s="2"/>
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E231" s="2"/>
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E232" s="2"/>
+      <c r="G232" s="2"/>
+    </row>
+    <row r="233" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E233" s="2"/>
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E234" s="2"/>
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E235" s="2"/>
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E236" s="2"/>
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E237" s="2"/>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E238" s="2"/>
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E239" s="2"/>
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E240" s="2"/>
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E241" s="2"/>
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E242" s="2"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E243" s="2"/>
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E244" s="2"/>
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E245" s="2"/>
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E246" s="2"/>
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E247" s="2"/>
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E248" s="2"/>
+      <c r="G248" s="2"/>
+    </row>
+    <row r="249" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E249" s="2"/>
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E250" s="2"/>
+      <c r="G250" s="2"/>
+    </row>
+    <row r="251" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E251" s="2"/>
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E252" s="2"/>
+      <c r="G252" s="2"/>
+    </row>
+    <row r="253" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E253" s="2"/>
+      <c r="G253" s="2"/>
+    </row>
+    <row r="254" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E254" s="2"/>
+      <c r="G254" s="2"/>
+    </row>
+    <row r="255" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E255" s="2"/>
+      <c r="G255" s="2"/>
+    </row>
+    <row r="256" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E256" s="2"/>
+      <c r="G256" s="2"/>
+    </row>
+    <row r="257" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E257" s="2"/>
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E258" s="2"/>
+      <c r="G258" s="2"/>
+    </row>
+    <row r="259" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E259" s="2"/>
+      <c r="G259" s="2"/>
+    </row>
+    <row r="260" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E260" s="2"/>
+      <c r="G260" s="2"/>
+    </row>
+    <row r="261" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E261" s="2"/>
+      <c r="G261" s="2"/>
+    </row>
+    <row r="262" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E262" s="2"/>
+      <c r="G262" s="2"/>
+    </row>
+    <row r="263" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E263" s="2"/>
+      <c r="G263" s="2"/>
+    </row>
+    <row r="264" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E264" s="2"/>
+      <c r="G264" s="2"/>
+    </row>
+    <row r="265" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E265" s="2"/>
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E266" s="2"/>
+      <c r="G266" s="2"/>
+    </row>
+    <row r="267" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E267" s="2"/>
+      <c r="G267" s="2"/>
+    </row>
+    <row r="268" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E268" s="2"/>
+      <c r="G268" s="2"/>
+    </row>
+    <row r="269" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E269" s="2"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E270" s="2"/>
+      <c r="G270" s="2"/>
+    </row>
+    <row r="271" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E271" s="2"/>
+      <c r="G271" s="2"/>
+    </row>
+    <row r="272" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E272" s="2"/>
+      <c r="G272" s="2"/>
+    </row>
+    <row r="273" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E273" s="2"/>
+      <c r="G273" s="2"/>
+    </row>
+    <row r="274" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E274" s="2"/>
+      <c r="G274" s="2"/>
+    </row>
+    <row r="275" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E275" s="2"/>
+      <c r="G275" s="2"/>
+    </row>
+    <row r="276" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E276" s="2"/>
+      <c r="G276" s="2"/>
+    </row>
+    <row r="277" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E277" s="2"/>
+      <c r="G277" s="2"/>
+    </row>
+    <row r="278" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E278" s="2"/>
+      <c r="G278" s="2"/>
+    </row>
+    <row r="279" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E279" s="2"/>
+      <c r="G279" s="2"/>
+    </row>
+    <row r="280" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E280" s="2"/>
+      <c r="G280" s="2"/>
+    </row>
+    <row r="281" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E281" s="2"/>
+      <c r="G281" s="2"/>
+    </row>
+    <row r="282" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E282" s="2"/>
+      <c r="G282" s="2"/>
+    </row>
+    <row r="283" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E283" s="2"/>
+      <c r="G283" s="2"/>
+    </row>
+    <row r="284" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E284" s="2"/>
+      <c r="G284" s="2"/>
+    </row>
+    <row r="285" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E285" s="2"/>
+      <c r="G285" s="2"/>
+    </row>
+    <row r="286" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E286" s="2"/>
+      <c r="G286" s="2"/>
+    </row>
+    <row r="287" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E287" s="2"/>
+      <c r="G287" s="2"/>
+    </row>
+    <row r="288" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E288" s="2"/>
+      <c r="G288" s="2"/>
+    </row>
+    <row r="289" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E289" s="2"/>
+      <c r="G289" s="2"/>
+    </row>
+    <row r="290" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E290" s="2"/>
+      <c r="G290" s="2"/>
+    </row>
+    <row r="291" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E291" s="2"/>
+      <c r="G291" s="2"/>
+    </row>
+    <row r="292" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E292" s="2"/>
+      <c r="G292" s="2"/>
+    </row>
+    <row r="293" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E293" s="2"/>
+      <c r="G293" s="2"/>
+    </row>
+    <row r="294" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E294" s="2"/>
+      <c r="G294" s="2"/>
+    </row>
+    <row r="295" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E295" s="2"/>
+      <c r="G295" s="2"/>
+    </row>
+    <row r="296" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E296" s="2"/>
+      <c r="G296" s="2"/>
+    </row>
+    <row r="297" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E297" s="2"/>
+      <c r="G297" s="2"/>
+    </row>
+    <row r="298" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E298" s="2"/>
+      <c r="G298" s="2"/>
+    </row>
+    <row r="299" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E299" s="2"/>
+      <c r="G299" s="2"/>
+    </row>
+    <row r="300" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E300" s="2"/>
+      <c r="G300" s="2"/>
+    </row>
+    <row r="301" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E301" s="2"/>
+      <c r="G301" s="2"/>
+    </row>
+    <row r="302" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E302" s="2"/>
+      <c r="G302" s="2"/>
+    </row>
+    <row r="303" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E303" s="2"/>
+      <c r="G303" s="2"/>
+    </row>
+    <row r="304" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E304" s="2"/>
+      <c r="G304" s="2"/>
+    </row>
+    <row r="305" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E305" s="2"/>
+      <c r="G305" s="2"/>
+    </row>
+    <row r="306" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E306" s="2"/>
+      <c r="G306" s="2"/>
+    </row>
+    <row r="307" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E307" s="2"/>
+      <c r="G307" s="2"/>
+    </row>
+    <row r="308" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E308" s="2"/>
+      <c r="G308" s="2"/>
+    </row>
+    <row r="309" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E309" s="2"/>
+      <c r="G309" s="2"/>
+    </row>
+    <row r="310" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E310" s="2"/>
+      <c r="G310" s="2"/>
+    </row>
+    <row r="311" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E311" s="2"/>
+      <c r="G311" s="2"/>
+    </row>
+    <row r="312" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E312" s="2"/>
+      <c r="G312" s="2"/>
+    </row>
+    <row r="313" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E313" s="2"/>
+      <c r="G313" s="2"/>
+    </row>
+    <row r="314" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E314" s="2"/>
+      <c r="G314" s="2"/>
+    </row>
+    <row r="315" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E315" s="2"/>
+      <c r="G315" s="2"/>
+    </row>
+    <row r="316" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E316" s="2"/>
+      <c r="G316" s="2"/>
+    </row>
+    <row r="317" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E317" s="2"/>
+      <c r="G317" s="2"/>
+    </row>
+    <row r="318" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E318" s="2"/>
+      <c r="G318" s="2"/>
+    </row>
+    <row r="319" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E319" s="2"/>
+      <c r="G319" s="2"/>
+    </row>
+    <row r="320" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E320" s="2"/>
+      <c r="G320" s="2"/>
+    </row>
+    <row r="321" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E321" s="2"/>
+      <c r="G321" s="2"/>
+    </row>
+    <row r="322" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E322" s="2"/>
+      <c r="G322" s="2"/>
+    </row>
+    <row r="323" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E323" s="2"/>
+      <c r="G323" s="2"/>
+    </row>
+    <row r="324" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E324" s="2"/>
+      <c r="G324" s="2"/>
+    </row>
+    <row r="325" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E325" s="2"/>
+      <c r="G325" s="2"/>
+    </row>
+    <row r="326" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E326" s="2"/>
+      <c r="G326" s="2"/>
+    </row>
+    <row r="327" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E327" s="2"/>
+      <c r="G327" s="2"/>
+    </row>
+    <row r="328" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E328" s="2"/>
+      <c r="G328" s="2"/>
+    </row>
+    <row r="329" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E329" s="2"/>
+      <c r="G329" s="2"/>
+    </row>
+    <row r="330" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E330" s="2"/>
+      <c r="G330" s="2"/>
+    </row>
+    <row r="331" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E331" s="2"/>
+      <c r="G331" s="2"/>
+    </row>
+    <row r="332" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E332" s="2"/>
+      <c r="G332" s="2"/>
+    </row>
+    <row r="333" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E333" s="2"/>
+      <c r="G333" s="2"/>
+    </row>
+    <row r="334" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E334" s="2"/>
+      <c r="G334" s="2"/>
+    </row>
+    <row r="335" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E335" s="2"/>
+      <c r="G335" s="2"/>
+    </row>
+    <row r="336" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E336" s="2"/>
+      <c r="G336" s="2"/>
+    </row>
+    <row r="337" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E337" s="2"/>
+      <c r="G337" s="2"/>
+    </row>
+    <row r="338" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E338" s="2"/>
+      <c r="G338" s="2"/>
+    </row>
+    <row r="339" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E339" s="2"/>
+      <c r="G339" s="2"/>
+    </row>
+    <row r="340" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E340" s="2"/>
+      <c r="G340" s="2"/>
+    </row>
+    <row r="341" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E341" s="2"/>
+      <c r="G341" s="2"/>
+    </row>
+    <row r="342" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E342" s="2"/>
+      <c r="G342" s="2"/>
+    </row>
+    <row r="343" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E343" s="2"/>
+      <c r="G343" s="2"/>
+    </row>
+    <row r="344" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E344" s="2"/>
+      <c r="G344" s="2"/>
+    </row>
+    <row r="345" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E345" s="2"/>
+      <c r="G345" s="2"/>
+    </row>
+    <row r="346" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E346" s="2"/>
+      <c r="G346" s="2"/>
+    </row>
+    <row r="347" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E347" s="2"/>
+      <c r="G347" s="2"/>
+    </row>
+    <row r="348" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E348" s="2"/>
+      <c r="G348" s="2"/>
+    </row>
+    <row r="349" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E349" s="2"/>
+      <c r="G349" s="2"/>
+    </row>
+    <row r="350" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E350" s="2"/>
+      <c r="G350" s="2"/>
+    </row>
+    <row r="351" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E351" s="2"/>
+      <c r="G351" s="2"/>
+    </row>
+    <row r="352" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E352" s="2"/>
+      <c r="G352" s="2"/>
+    </row>
+    <row r="353" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E353" s="2"/>
+      <c r="G353" s="2"/>
+    </row>
+    <row r="354" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E354" s="2"/>
+      <c r="G354" s="2"/>
+    </row>
+    <row r="355" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E355" s="2"/>
+      <c r="G355" s="2"/>
+    </row>
+    <row r="356" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E356" s="2"/>
+      <c r="G356" s="2"/>
+    </row>
+    <row r="357" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E357" s="2"/>
+    </row>
+    <row r="358" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E358" s="2"/>
+    </row>
+    <row r="359" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E359" s="2"/>
+    </row>
+    <row r="360" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E360" s="2"/>
+    </row>
+    <row r="361" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E361" s="2"/>
+    </row>
+    <row r="362" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E362" s="2"/>
+    </row>
+    <row r="363" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E363" s="2"/>
+    </row>
+    <row r="364" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E364" s="2"/>
+    </row>
+    <row r="365" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E365" s="2"/>
+    </row>
+    <row r="366" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E366" s="2"/>
+    </row>
+    <row r="367" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E367" s="2"/>
+    </row>
+    <row r="368" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E368" s="2"/>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E369" s="2"/>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E370" s="2"/>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E371" s="2"/>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E372" s="2"/>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E373" s="2"/>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E374" s="2"/>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E375" s="2"/>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E376" s="2"/>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E377" s="2"/>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E378" s="2"/>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E379" s="2"/>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E380" s="2"/>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E381" s="2"/>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E382" s="2"/>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E383" s="2"/>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E384" s="2"/>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E385" s="2"/>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E386" s="2"/>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E387" s="2"/>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E388" s="2"/>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E389" s="2"/>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E390" s="2"/>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E391" s="2"/>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E392" s="2"/>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E393" s="2"/>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E394" s="2"/>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E395" s="2"/>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E396" s="2"/>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E397" s="2"/>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E398" s="2"/>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E399" s="2"/>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E400" s="2"/>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E401" s="2"/>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E402" s="2"/>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E403" s="2"/>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E404" s="2"/>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E405" s="2"/>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E406" s="2"/>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E407" s="2"/>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E408" s="2"/>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E409" s="2"/>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E410" s="2"/>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E411" s="2"/>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E412" s="2"/>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E413" s="2"/>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E414" s="2"/>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E415" s="2"/>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E416" s="2"/>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E417" s="2"/>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E418" s="2"/>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E419" s="2"/>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E420" s="2"/>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E421" s="2"/>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E422" s="2"/>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E423" s="2"/>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E424" s="2"/>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E425" s="2"/>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E426" s="2"/>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E427" s="2"/>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E428" s="2"/>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E429" s="2"/>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E430" s="2"/>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E431" s="2"/>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E432" s="2"/>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E433" s="2"/>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E434" s="2"/>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E435" s="2"/>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E436" s="2"/>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E437" s="2"/>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E438" s="2"/>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E439" s="2"/>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E440" s="2"/>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E441" s="2"/>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E442" s="2"/>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E443" s="2"/>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E444" s="2"/>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E445" s="2"/>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E446" s="2"/>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E447" s="2"/>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E448" s="2"/>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E449" s="2"/>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E450" s="2"/>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E451" s="2"/>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E452" s="2"/>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E453" s="2"/>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E454" s="2"/>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E455" s="2"/>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E456" s="2"/>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E457" s="2"/>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E458" s="2"/>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E459" s="2"/>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E460" s="2"/>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E461" s="2"/>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E462" s="2"/>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E463" s="2"/>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E464" s="2"/>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E465" s="2"/>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E466" s="2"/>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E467" s="2"/>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E468" s="2"/>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E469" s="2"/>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E470" s="2"/>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E471" s="2"/>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E472" s="2"/>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E473" s="2"/>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E474" s="2"/>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E475" s="2"/>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E476" s="2"/>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E477" s="2"/>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E478" s="2"/>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E479" s="2"/>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E480" s="2"/>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E481" s="2"/>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E482" s="2"/>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E483" s="2"/>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E484" s="2"/>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E485" s="2"/>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E486" s="2"/>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E487" s="2"/>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E488" s="2"/>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E489" s="2"/>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E490" s="2"/>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E491" s="2"/>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E492" s="2"/>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E493" s="2"/>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E494" s="2"/>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E495" s="2"/>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E496" s="2"/>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E497" s="2"/>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E498" s="2"/>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E499" s="2"/>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E500" s="2"/>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E501" s="2"/>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E502" s="2"/>
+    </row>
+    <row r="503" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E503" s="2"/>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E504" s="2"/>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E505" s="2"/>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E506" s="2"/>
+    </row>
+    <row r="507" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E507" s="2"/>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E508" s="2"/>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E509" s="2"/>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E510" s="2"/>
+    </row>
+    <row r="511" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E511" s="2"/>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E512" s="2"/>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E513" s="2"/>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E514" s="2"/>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E515" s="2"/>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E516" s="2"/>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E517" s="2"/>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E518" s="2"/>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E519" s="2"/>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E520" s="2"/>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E521" s="2"/>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E522" s="2"/>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E523" s="2"/>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E524" s="2"/>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E525" s="2"/>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E526" s="2"/>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E527" s="2"/>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E528" s="2"/>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E529" s="2"/>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E530" s="2"/>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E531" s="2"/>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E532" s="2"/>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E533" s="2"/>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E534" s="2"/>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E535" s="2"/>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E536" s="2"/>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E537" s="2"/>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E538" s="2"/>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E539" s="2"/>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E540" s="2"/>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E541" s="2"/>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E542" s="2"/>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E543" s="2"/>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E544" s="2"/>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E545" s="2"/>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E546" s="2"/>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E547" s="2"/>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E548" s="2"/>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E549" s="2"/>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E550" s="2"/>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E551" s="2"/>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E552" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{408C76A3-52EE-4BB5-9F84-BEB3396E48AF}">
+          <x14:formula1>
+            <xm:f>Enum!$B$3:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC8C6BE2-4172-41D4-AA76-D1EE59EDC566}">
+          <x14:formula1>
+            <xm:f>Enum!$D$3:$D$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92863B8-4C87-4474-B5B0-52EEB5BB3C33}">
+  <dimension ref="B2:K107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>45080</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">_xll.\TMX.BOOTSTRAP(instrument, D7:D16)</f>
-        <v>3125003035104</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G6" s="5" cm="1">
+        <f t="array" ref="G6">_xll.\TMX.BOOTSTRAP(instrument, price)</f>
+        <v>2392573154048</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="18">
         <v>0.05</v>
       </c>
-      <c r="D7" s="7">
-        <v>100</v>
-      </c>
-      <c r="E7" s="6" cm="1">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>3126712226720</v>
-      </c>
-      <c r="F7" s="6" cm="1">
+        <v>2394369038032</v>
+      </c>
+      <c r="F7" s="5" cm="1">
         <f t="array" ref="F7">_xll.\TMX.BOND.INSTRUMENT(E7, dated)</f>
-        <v>3125003039568</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>2392574244672</v>
+      </c>
       <c r="H7" cm="1">
-        <f t="array" ref="H7:H107">_xlfn.SEQUENCE(1+10/H6,1,0,H6)</f>
+        <f t="array" ref="H7:H107">_xlfn.SEQUENCE(1+10/H5,1,0,H5)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="e" cm="1">
-        <f t="array" ref="I7">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I7" s="21" cm="1">
+        <f t="array" ref="I7:I107">_xlfn.MAP(_xlfn.ANCHORARRAY(H7),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.VALUE(curve,_xlpm.t)))</f>
+        <v>4.9688644922257018E-2</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D8" s="7">
-        <v>100</v>
-      </c>
-      <c r="E8" s="6" cm="1">
+      <c r="C8" s="18">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" cm="1">
         <f t="array" ref="E8">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>3126712223072</v>
-      </c>
-      <c r="F8" s="6" cm="1">
+        <v>2394369041488</v>
+      </c>
+      <c r="F8" s="5" cm="1">
         <f t="array" ref="F8">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
-        <v>3125003038992</v>
+        <v>2392574249856</v>
       </c>
       <c r="H8">
         <v>0.1</v>
       </c>
-      <c r="I8" s="3" t="e" cm="1">
-        <f t="array" ref="I8">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H8)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>4.9688644922257018E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="18">
         <v>0.05</v>
       </c>
-      <c r="D9" s="7">
-        <v>100</v>
-      </c>
-      <c r="E9" s="6" cm="1">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>3126712223360</v>
-      </c>
-      <c r="F9" s="6" cm="1">
+        <v>2394369041392</v>
+      </c>
+      <c r="F9" s="5" cm="1">
         <f t="array" ref="F9">_xll.\TMX.BOND.INSTRUMENT(E9, dated)</f>
-        <v>3125003034960</v>
+        <v>2392574243808</v>
       </c>
       <c r="H9">
         <v>0.2</v>
       </c>
-      <c r="I9" s="3" t="e" cm="1">
-        <f t="array" ref="I9">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H9)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>4.9688644922257018E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="18">
         <v>0.05</v>
       </c>
-      <c r="D10" s="7">
-        <v>100</v>
-      </c>
-      <c r="E10" s="6" cm="1">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>3126712226528</v>
-      </c>
-      <c r="F10" s="6" cm="1">
+        <v>2394369042064</v>
+      </c>
+      <c r="F10" s="5" cm="1">
         <f t="array" ref="F10">_xll.\TMX.BOND.INSTRUMENT(E10, dated)</f>
-        <v>3125003039424</v>
+        <v>2392574245824</v>
       </c>
       <c r="H10">
         <v>0.30000000000000004</v>
       </c>
-      <c r="I10" s="3" t="e" cm="1">
-        <f t="array" ref="I10">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H10)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>4.9688644922257018E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="18">
         <v>0.05</v>
       </c>
-      <c r="D11" s="7">
-        <v>100</v>
-      </c>
-      <c r="E11" s="6" cm="1">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>3126712223552</v>
-      </c>
-      <c r="F11" s="6" cm="1">
+        <v>2394369041584</v>
+      </c>
+      <c r="F11" s="5" cm="1">
         <f t="array" ref="F11">_xll.\TMX.BOND.INSTRUMENT(E11, dated)</f>
-        <v>3125003024880</v>
+        <v>2392574249280</v>
       </c>
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11" s="3" t="e" cm="1">
-        <f t="array" ref="I11">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H11)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>4.9688644922257018E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="18">
         <v>0.05</v>
       </c>
-      <c r="D12" s="7">
-        <v>100</v>
-      </c>
-      <c r="E12" s="6" cm="1">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>3126712219136</v>
-      </c>
-      <c r="F12" s="6" cm="1">
+        <v>2394369037072</v>
+      </c>
+      <c r="F12" s="5" cm="1">
         <f t="array" ref="F12">_xll.\TMX.BOND.INSTRUMENT(E12, dated)</f>
-        <v>3125003037984</v>
+        <v>2392574242512</v>
       </c>
       <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="I12" s="3" t="e" cm="1">
-        <f t="array" ref="I12">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H12)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>4.9688644922257018E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="18">
         <v>0.05</v>
       </c>
-      <c r="D13" s="7">
-        <v>100</v>
-      </c>
-      <c r="E13" s="6" cm="1">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>3126712227392</v>
-      </c>
-      <c r="F13" s="6" cm="1">
+        <v>2394369040912</v>
+      </c>
+      <c r="F13" s="5" cm="1">
         <f t="array" ref="F13">_xll.\TMX.BOND.INSTRUMENT(E13, dated)</f>
-        <v>3125003038848</v>
+        <v>2392574247840</v>
       </c>
       <c r="H13">
         <v>0.6</v>
       </c>
-      <c r="I13" s="3" t="e" cm="1">
-        <f t="array" ref="I13">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H13)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>4.9688644922257018E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="18">
         <v>0.05</v>
       </c>
-      <c r="D14" s="7">
-        <v>100</v>
-      </c>
-      <c r="E14" s="6" cm="1">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>3126712225664</v>
-      </c>
-      <c r="F14" s="6" cm="1">
+        <v>2394369041968</v>
+      </c>
+      <c r="F14" s="5" cm="1">
         <f t="array" ref="F14">_xll.\TMX.BOND.INSTRUMENT(E14, dated)</f>
-        <v>3125003038704</v>
+        <v>2392574242800</v>
       </c>
       <c r="H14">
         <v>0.7</v>
       </c>
-      <c r="I14" s="3" t="e" cm="1">
-        <f t="array" ref="I14">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H14)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <v>4.9688644922257018E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="18">
         <v>0.05</v>
       </c>
-      <c r="D15" s="7">
-        <v>100</v>
-      </c>
-      <c r="E15" s="6" cm="1">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" cm="1">
         <f t="array" ref="E15">_xll.\TMX.BOND.SIMPLE(B15, C15)</f>
-        <v>3126712225472</v>
-      </c>
-      <c r="F15" s="6" cm="1">
+        <v>2394369042256</v>
+      </c>
+      <c r="F15" s="5" cm="1">
         <f t="array" ref="F15">_xll.\TMX.BOND.INSTRUMENT(E15, dated)</f>
-        <v>3125003038560</v>
+        <v>2392574246976</v>
       </c>
       <c r="H15">
         <v>0.79999999999999993</v>
       </c>
-      <c r="I15" s="3" t="e" cm="1">
-        <f t="array" ref="I15">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H15)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I15">
+        <v>4.9688644922257018E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="18">
         <v>0.05</v>
       </c>
-      <c r="D16" s="7">
-        <v>100</v>
-      </c>
-      <c r="E16" s="6" cm="1">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" cm="1">
         <f t="array" ref="E16">_xll.\TMX.BOND.SIMPLE(B16, C16)</f>
-        <v>3126712227968</v>
-      </c>
-      <c r="F16" s="6" cm="1">
+        <v>2394369031504</v>
+      </c>
+      <c r="F16" s="5" cm="1">
         <f t="array" ref="F16">_xll.\TMX.BOND.INSTRUMENT(E16, dated)</f>
-        <v>3125003033520</v>
+        <v>2392574249424</v>
       </c>
       <c r="H16">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I16" s="3" t="e" cm="1">
-        <f t="array" ref="I16">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H16)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>4.9688644922257018E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>0.99999999999999989</v>
       </c>
-      <c r="I17" s="3" t="e" cm="1">
-        <f t="array" ref="I17">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H17)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>4.9688644922257018E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>1.0999999999999999</v>
       </c>
-      <c r="I18" s="3" t="e" cm="1">
-        <f t="array" ref="I18">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H18)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>5.1859212468108845E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>1.2</v>
       </c>
-      <c r="I19" s="3" t="e" cm="1">
-        <f t="array" ref="I19">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H19)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>5.1859212468108845E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>1.3</v>
       </c>
-      <c r="I20" s="3" t="e" cm="1">
-        <f t="array" ref="I20">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H20)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>5.1859212468108845E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>1.4000000000000001</v>
       </c>
-      <c r="I21" s="3" t="e" cm="1">
-        <f t="array" ref="I21">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H21)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <v>5.1859212468108845E-2</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">_xll.TMX.PWFLAT.CURVE.VALUE(curve, H21)</f>
+        <v>5.1859212468108845E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H22">
         <v>1.5000000000000002</v>
       </c>
-      <c r="I22" s="3" t="e" cm="1">
-        <f t="array" ref="I22">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H22)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>5.1859212468108845E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>1.6000000000000003</v>
       </c>
-      <c r="I23" s="3" t="e" cm="1">
-        <f t="array" ref="I23">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H23)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>5.1859212468108845E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H24">
         <v>1.7000000000000004</v>
       </c>
-      <c r="I24" s="3" t="e" cm="1">
-        <f t="array" ref="I24">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H24)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>5.1859212468108845E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H25">
         <v>1.8000000000000005</v>
       </c>
-      <c r="I25" s="3" t="e" cm="1">
-        <f t="array" ref="I25">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H25)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>5.1859212468108845E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1.9000000000000006</v>
       </c>
-      <c r="I26" s="3" t="e" cm="1">
-        <f t="array" ref="I26">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H26)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <v>5.1859212468108845E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>2.0000000000000004</v>
       </c>
-      <c r="I27" s="3" t="e" cm="1">
-        <f t="array" ref="I27">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H27)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <v>5.1859212468108845E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>2.1000000000000005</v>
       </c>
-      <c r="I28" s="3" t="e" cm="1">
-        <f t="array" ref="I28">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H28)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <v>4.7683063278025691E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>2.2000000000000006</v>
       </c>
-      <c r="I29" s="3" t="e" cm="1">
-        <f t="array" ref="I29">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H29)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <v>4.7683063278025691E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>2.3000000000000007</v>
       </c>
-      <c r="I30" s="3" t="e" cm="1">
-        <f t="array" ref="I30">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H30)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <v>4.7683063278025691E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>2.4000000000000008</v>
       </c>
-      <c r="I31" s="3" t="e" cm="1">
-        <f t="array" ref="I31">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H31)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I31">
+        <v>4.7683063278025691E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>2.5000000000000009</v>
       </c>
-      <c r="I32" s="3" t="e" cm="1">
-        <f t="array" ref="I32">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H32)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I32">
+        <v>4.7683063278025691E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>2.600000000000001</v>
       </c>
-      <c r="I33" s="3" t="e" cm="1">
-        <f t="array" ref="I33">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H33)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I33">
+        <v>4.7683063278025691E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>2.7000000000000011</v>
       </c>
-      <c r="I34" s="3" t="e" cm="1">
-        <f t="array" ref="I34">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H34)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I34">
+        <v>4.7683063278025691E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>2.8000000000000012</v>
       </c>
-      <c r="I35" s="3" t="e" cm="1">
-        <f t="array" ref="I35">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H35)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I35">
+        <v>4.7683063278025691E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>2.9000000000000012</v>
       </c>
-      <c r="I36" s="3" t="e" cm="1">
-        <f t="array" ref="I36">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H36)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I36">
+        <v>4.7683063278025691E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>3.0000000000000013</v>
       </c>
-      <c r="I37" s="3" t="e" cm="1">
-        <f t="array" ref="I37">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H37)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I37">
+        <v>4.7683063278025691E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>3.1000000000000014</v>
       </c>
-      <c r="I38" s="3" t="e" cm="1">
-        <f t="array" ref="I38">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H38)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I38">
+        <v>4.9823073127630173E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>3.2000000000000015</v>
       </c>
-      <c r="I39" s="3" t="e" cm="1">
-        <f t="array" ref="I39">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H39)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I39">
+        <v>4.9823073127630173E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>3.3000000000000016</v>
       </c>
-      <c r="I40" s="3" t="e" cm="1">
-        <f t="array" ref="I40">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H40)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I40">
+        <v>4.9823073127630173E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>3.4000000000000017</v>
       </c>
-      <c r="I41" s="3" t="e" cm="1">
-        <f t="array" ref="I41">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H41)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I41">
+        <v>4.9823073127630173E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H42">
         <v>3.5000000000000018</v>
       </c>
-      <c r="I42" s="3" t="e" cm="1">
-        <f t="array" ref="I42">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H42)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I42">
+        <v>4.9823073127630173E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H43">
         <v>3.6000000000000019</v>
       </c>
-      <c r="I43" s="3" t="e" cm="1">
-        <f t="array" ref="I43">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H43)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I43">
+        <v>4.9823073127630173E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H44">
         <v>3.700000000000002</v>
       </c>
-      <c r="I44" s="3" t="e" cm="1">
-        <f t="array" ref="I44">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H44)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I44">
+        <v>4.9823073127630173E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H45">
         <v>3.800000000000002</v>
       </c>
-      <c r="I45" s="3" t="e" cm="1">
-        <f t="array" ref="I45">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H45)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I45">
+        <v>4.9823073127630173E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H46">
         <v>3.9000000000000021</v>
       </c>
-      <c r="I46" s="3" t="e" cm="1">
-        <f t="array" ref="I46">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H46)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I46">
+        <v>4.9823073127630173E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>4.0000000000000018</v>
       </c>
-      <c r="I47" s="3" t="e" cm="1">
-        <f t="array" ref="I47">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H47)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I47">
+        <v>4.9823073127630173E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H48">
         <v>4.1000000000000014</v>
       </c>
-      <c r="I48" s="3" t="e" cm="1">
-        <f t="array" ref="I48">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H48)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I48">
+        <v>4.9688644922258357E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49">
         <v>4.2000000000000011</v>
       </c>
-      <c r="I49" s="3" t="e" cm="1">
-        <f t="array" ref="I49">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H49)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <v>4.9688644922258357E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50">
         <v>4.3000000000000007</v>
       </c>
-      <c r="I50" s="3" t="e" cm="1">
-        <f t="array" ref="I50">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H50)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <v>4.9688644922258357E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I51" s="3" t="e" cm="1">
-        <f t="array" ref="I51">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H51)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I51">
+        <v>4.9688644922258357E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52">
         <v>4.5</v>
       </c>
-      <c r="I52" s="3" t="e" cm="1">
-        <f t="array" ref="I52">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H52)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I52">
+        <v>4.9688644922258357E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I53" s="3" t="e" cm="1">
-        <f t="array" ref="I53">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H53)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I53">
+        <v>4.9688644922258357E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H54">
         <v>4.6999999999999993</v>
       </c>
-      <c r="I54" s="3" t="e" cm="1">
-        <f t="array" ref="I54">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H54)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I54">
+        <v>4.9688644922258357E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H55">
         <v>4.7999999999999989</v>
       </c>
-      <c r="I55" s="3" t="e" cm="1">
-        <f t="array" ref="I55">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H55)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I55">
+        <v>4.9688644922258357E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H56">
         <v>4.8999999999999986</v>
       </c>
-      <c r="I56" s="3" t="e" cm="1">
-        <f t="array" ref="I56">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H56)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I56">
+        <v>4.9688644922258357E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H57">
         <v>4.9999999999999982</v>
       </c>
-      <c r="I57" s="3" t="e" cm="1">
-        <f t="array" ref="I57">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H57)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I57">
+        <v>4.9688644922258357E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H58">
         <v>5.0999999999999979</v>
       </c>
-      <c r="I58" s="3" t="e" cm="1">
-        <f t="array" ref="I58">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H58)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I58">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H59">
         <v>5.1999999999999975</v>
       </c>
-      <c r="I59" s="3" t="e" cm="1">
-        <f t="array" ref="I59">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H59)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I59">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H60">
         <v>5.2999999999999972</v>
       </c>
-      <c r="I60" s="3" t="e" cm="1">
-        <f t="array" ref="I60">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H60)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I60">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H61">
         <v>5.3999999999999968</v>
       </c>
-      <c r="I61" s="3" t="e" cm="1">
-        <f t="array" ref="I61">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H61)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I61">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H62">
         <v>5.4999999999999964</v>
       </c>
-      <c r="I62" s="3" t="e" cm="1">
-        <f t="array" ref="I62">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H62)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I62">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H63">
         <v>5.5999999999999961</v>
       </c>
-      <c r="I63" s="3" t="e" cm="1">
-        <f t="array" ref="I63">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H63)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I63">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H64">
         <v>5.6999999999999957</v>
       </c>
-      <c r="I64" s="3" t="e" cm="1">
-        <f t="array" ref="I64">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H64)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I64">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H65">
         <v>5.7999999999999954</v>
       </c>
-      <c r="I65" s="3" t="e" cm="1">
-        <f t="array" ref="I65">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H65)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I65">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H66">
         <v>5.899999999999995</v>
       </c>
-      <c r="I66" s="3" t="e" cm="1">
-        <f t="array" ref="I66">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H66)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I66">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H67">
         <v>5.9999999999999947</v>
       </c>
-      <c r="I67" s="3" t="e" cm="1">
-        <f t="array" ref="I67">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H67)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I67">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H68">
         <v>6.0999999999999943</v>
       </c>
-      <c r="I68" s="3" t="e" cm="1">
-        <f t="array" ref="I68">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H68)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I68">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H69">
         <v>6.199999999999994</v>
       </c>
-      <c r="I69" s="3" t="e" cm="1">
-        <f t="array" ref="I69">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H69)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I69">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H70">
         <v>6.2999999999999936</v>
       </c>
-      <c r="I70" s="3" t="e" cm="1">
-        <f t="array" ref="I70">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H70)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I70">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H71">
         <v>6.3999999999999932</v>
       </c>
-      <c r="I71" s="3" t="e" cm="1">
-        <f t="array" ref="I71">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H71)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I71">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H72">
         <v>6.4999999999999929</v>
       </c>
-      <c r="I72" s="3" t="e" cm="1">
-        <f t="array" ref="I72">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H72)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I72">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H73">
         <v>6.5999999999999925</v>
       </c>
-      <c r="I73" s="3" t="e" cm="1">
-        <f t="array" ref="I73">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H73)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I73">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H74">
         <v>6.6999999999999922</v>
       </c>
-      <c r="I74" s="3" t="e" cm="1">
-        <f t="array" ref="I74">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H74)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I74">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H75">
         <v>6.7999999999999918</v>
       </c>
-      <c r="I75" s="3" t="e" cm="1">
-        <f t="array" ref="I75">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H75)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I75">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H76">
         <v>6.8999999999999915</v>
       </c>
-      <c r="I76" s="3" t="e" cm="1">
-        <f t="array" ref="I76">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H76)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I76">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H77">
         <v>6.9999999999999911</v>
       </c>
-      <c r="I77" s="3" t="e" cm="1">
-        <f t="array" ref="I77">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H77)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I77">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H78">
         <v>7.0999999999999908</v>
       </c>
-      <c r="I78" s="3" t="e" cm="1">
-        <f t="array" ref="I78">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H78)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I78">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H79">
         <v>7.1999999999999904</v>
       </c>
-      <c r="I79" s="3" t="e" cm="1">
-        <f t="array" ref="I79">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H79)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I79">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H80">
         <v>7.2999999999999901</v>
       </c>
-      <c r="I80" s="3" t="e" cm="1">
-        <f t="array" ref="I80">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H80)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I80">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H81">
         <v>7.3999999999999897</v>
       </c>
-      <c r="I81" s="3" t="e" cm="1">
-        <f t="array" ref="I81">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H81)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I81">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H82">
         <v>7.4999999999999893</v>
       </c>
-      <c r="I82" s="3" t="e" cm="1">
-        <f t="array" ref="I82">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H82)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I82">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H83">
         <v>7.599999999999989</v>
       </c>
-      <c r="I83" s="3" t="e" cm="1">
-        <f t="array" ref="I83">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H83)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I83">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H84">
         <v>7.6999999999999886</v>
       </c>
-      <c r="I84" s="3" t="e" cm="1">
-        <f t="array" ref="I84">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H84)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I84">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H85">
         <v>7.7999999999999883</v>
       </c>
-      <c r="I85" s="3" t="e" cm="1">
-        <f t="array" ref="I85">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H85)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I85">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H86">
         <v>7.8999999999999879</v>
       </c>
-      <c r="I86" s="3" t="e" cm="1">
-        <f t="array" ref="I86">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H86)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I86">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H87">
         <v>7.9999999999999876</v>
       </c>
-      <c r="I87" s="3" t="e" cm="1">
-        <f t="array" ref="I87">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H87)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I87">
+        <v>4.9823073127630096E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H88">
         <v>8.0999999999999872</v>
       </c>
-      <c r="I88" s="3" t="e" cm="1">
-        <f t="array" ref="I88">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H88)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I88">
+        <v>4.9688644922257615E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H89">
         <v>8.1999999999999869</v>
       </c>
-      <c r="I89" s="3" t="e" cm="1">
-        <f t="array" ref="I89">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H89)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I89">
+        <v>4.9688644922257615E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H90">
         <v>8.2999999999999865</v>
       </c>
-      <c r="I90" s="3" t="e" cm="1">
-        <f t="array" ref="I90">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H90)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I90">
+        <v>4.9688644922257615E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H91">
         <v>8.3999999999999861</v>
       </c>
-      <c r="I91" s="3" t="e" cm="1">
-        <f t="array" ref="I91">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H91)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I91">
+        <v>4.9688644922257615E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H92">
         <v>8.4999999999999858</v>
       </c>
-      <c r="I92" s="3" t="e" cm="1">
-        <f t="array" ref="I92">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H92)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I92">
+        <v>4.9688644922257615E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H93">
         <v>8.5999999999999854</v>
       </c>
-      <c r="I93" s="3" t="e" cm="1">
-        <f t="array" ref="I93">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H93)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I93">
+        <v>4.9688644922257615E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H94">
         <v>8.6999999999999851</v>
       </c>
-      <c r="I94" s="3" t="e" cm="1">
-        <f t="array" ref="I94">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H94)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I94">
+        <v>4.9688644922257615E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H95">
         <v>8.7999999999999847</v>
       </c>
-      <c r="I95" s="3" t="e" cm="1">
-        <f t="array" ref="I95">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H95)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I95">
+        <v>4.9688644922257615E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H96">
         <v>8.8999999999999844</v>
       </c>
-      <c r="I96" s="3" t="e" cm="1">
-        <f t="array" ref="I96">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H96)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I96">
+        <v>4.9688644922257615E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97">
         <v>8.999999999999984</v>
       </c>
-      <c r="I97" s="3" t="e" cm="1">
-        <f t="array" ref="I97">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H97)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I97">
+        <v>4.9688644922257615E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98">
         <v>9.0999999999999837</v>
       </c>
-      <c r="I98" s="3" t="e" cm="1">
-        <f t="array" ref="I98">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H98)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I98">
+        <v>4.9823073127629867E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99">
         <v>9.1999999999999833</v>
       </c>
-      <c r="I99" s="3" t="e" cm="1">
-        <f t="array" ref="I99">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H99)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I99">
+        <v>4.9823073127629867E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100">
         <v>9.2999999999999829</v>
       </c>
-      <c r="I100" s="3" t="e" cm="1">
-        <f t="array" ref="I100">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H100)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I100">
+        <v>4.9823073127629867E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101">
         <v>9.3999999999999826</v>
       </c>
-      <c r="I101" s="3" t="e" cm="1">
-        <f t="array" ref="I101">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H101)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I101">
+        <v>4.9823073127629867E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102">
         <v>9.4999999999999822</v>
       </c>
-      <c r="I102" s="3" t="e" cm="1">
-        <f t="array" ref="I102">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H102)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I102">
+        <v>4.9823073127629867E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103">
         <v>9.5999999999999819</v>
       </c>
-      <c r="I103" s="3" t="e" cm="1">
-        <f t="array" ref="I103">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H103)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I103">
+        <v>4.9823073127629867E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104">
         <v>9.6999999999999815</v>
       </c>
-      <c r="I104" s="3" t="e" cm="1">
-        <f t="array" ref="I104">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H104)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I104">
+        <v>4.9823073127629867E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105">
         <v>9.7999999999999812</v>
       </c>
-      <c r="I105" s="3" t="e" cm="1">
-        <f t="array" ref="I105">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H105)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I105">
+        <v>4.9823073127629867E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106">
         <v>9.8999999999999808</v>
       </c>
-      <c r="I106" s="3" t="e" cm="1">
-        <f t="array" ref="I106">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H106)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I106">
+        <v>4.9823073127629867E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107">
         <v>9.9999999999999805</v>
       </c>
-      <c r="I107" s="3" t="e" cm="1">
-        <f t="array" ref="I107">_xll.TMX.PWFLAT.CURVE.VALUE(curve,H107)</f>
-        <v>#NUM!</v>
+      <c r="I107">
+        <v>4.9823073127629867E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,44 +8,56 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02EECB9-6A5C-4E6C-8850-81054CE66AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C952BEC-7358-4CA0-BF4E-E0C04C614EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="4" r:id="rId1"/>
-    <sheet name="Date" sheetId="2" r:id="rId2"/>
-    <sheet name="Curve" sheetId="3" r:id="rId3"/>
-    <sheet name="Bond" sheetId="5" r:id="rId4"/>
-    <sheet name="Bootstrap" sheetId="1" r:id="rId5"/>
+    <sheet name="Black" sheetId="6" r:id="rId2"/>
+    <sheet name="Date" sheetId="2" r:id="rId3"/>
+    <sheet name="Curve" sheetId="3" r:id="rId4"/>
+    <sheet name="Bond" sheetId="5" r:id="rId5"/>
+    <sheet name="Bootstrap" sheetId="1" r:id="rId6"/>
+    <sheet name="Ho-Lee" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="bond">Bootstrap!$E$7:$E$16</definedName>
     <definedName name="bond.simple">Bond!$C$6</definedName>
-    <definedName name="coupon" localSheetId="3">Bond!$C$3</definedName>
+    <definedName name="coupon" localSheetId="4">Bond!$C$3</definedName>
     <definedName name="coupon">Bootstrap!$C$7:$C$16</definedName>
-    <definedName name="curve" localSheetId="2">Curve!$I$2</definedName>
+    <definedName name="curve" localSheetId="3">Curve!$I$2</definedName>
     <definedName name="curve">Bootstrap!$G$6</definedName>
     <definedName name="curve_">Curve!$I$6</definedName>
     <definedName name="date">Date!$C$2</definedName>
-    <definedName name="dated" localSheetId="3">Bond!$C$7</definedName>
+    <definedName name="dated" localSheetId="4">Bond!$C$7</definedName>
     <definedName name="dated">Bootstrap!$C$4</definedName>
-    <definedName name="day_count" localSheetId="3">Bond!$C$5</definedName>
+    <definedName name="day_count" localSheetId="4">Bond!$C$5</definedName>
     <definedName name="days">Date!$C$10</definedName>
+    <definedName name="Dt">'Ho-Lee'!$C$6</definedName>
+    <definedName name="Du">'Ho-Lee'!$C$7</definedName>
     <definedName name="extrapolate">Curve!$C$6</definedName>
-    <definedName name="frequency" localSheetId="3">Bond!$C$4</definedName>
-    <definedName name="instrument" localSheetId="3">Bond!$C$8</definedName>
+    <definedName name="f">Black!$C$2</definedName>
+    <definedName name="frequency" localSheetId="4">Bond!$C$4</definedName>
+    <definedName name="instrument" localSheetId="4">Bond!$C$8</definedName>
     <definedName name="instrument">Bootstrap!$F$7:$F$16</definedName>
-    <definedName name="maturity" localSheetId="3">Bond!$C$2</definedName>
+    <definedName name="k">Black!$C$4</definedName>
+    <definedName name="logD">'Ho-Lee'!$C$9</definedName>
+    <definedName name="maturity" localSheetId="4">Bond!$C$2</definedName>
     <definedName name="maturity">Bootstrap!$B$7:$B$16</definedName>
     <definedName name="months">Date!$C$9</definedName>
     <definedName name="price">Bootstrap!$D$7:$D$16</definedName>
+    <definedName name="r_">'Ho-Lee'!$C$2</definedName>
     <definedName name="rate">Curve!$C$3:$C$5</definedName>
+    <definedName name="s">Black!$C$3</definedName>
     <definedName name="shift">Curve!$I$3</definedName>
+    <definedName name="t">'Ho-Lee'!$C$4</definedName>
     <definedName name="time">Curve!$B$3:$B$5</definedName>
     <definedName name="translate">Curve!$I$5</definedName>
+    <definedName name="u">'Ho-Lee'!$C$5</definedName>
     <definedName name="years">Date!$C$3</definedName>
     <definedName name="years_">Date!$C$8</definedName>
+    <definedName name="σ">'Ho-Lee'!$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>maturity</t>
   </si>
@@ -225,6 +237,60 @@
   </si>
   <si>
     <t>convexity</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>moneyness</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>vega</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>D_t(u)</t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>ELogD</t>
+  </si>
+  <si>
+    <t>VarLogD</t>
+  </si>
+  <si>
+    <t>logD</t>
   </si>
 </sst>
 </file>
@@ -596,37 +662,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.2</c:v>
@@ -893,127 +959,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37731695875497728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10909090909090909</c:v>
+                  <c:v>0.36119723523179753</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11666666666666668</c:v>
+                  <c:v>0.34776413229581438</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1230769230769231</c:v>
+                  <c:v>0.33639766058075177</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12857142857142859</c:v>
+                  <c:v>0.32665497053926945</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13333333333333336</c:v>
+                  <c:v>0.31821130583665147</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13750000000000004</c:v>
+                  <c:v>0.3108230992218608</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14117647058823532</c:v>
+                  <c:v>0.30430409338528075</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14444444444444446</c:v>
+                  <c:v>0.29850942153054294</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14736842105263159</c:v>
+                  <c:v>0.29332471513419855</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.15000000000000005</c:v>
+                  <c:v>0.28865847937748867</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1571428571428572</c:v>
+                  <c:v>0.28919855178808446</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.16363636363636369</c:v>
+                  <c:v>0.28968952670680786</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1695652173913044</c:v>
+                  <c:v>0.29013780815433798</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.17500000000000004</c:v>
+                  <c:v>0.29054873281457388</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.18000000000000005</c:v>
+                  <c:v>0.29092678350199092</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18461538461538468</c:v>
+                  <c:v>0.291275753367299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.18888888888888894</c:v>
+                  <c:v>0.29159887361295456</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.19285714285714292</c:v>
+                  <c:v>0.29189891384106331</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.19655172413793109</c:v>
+                  <c:v>0.29217826163964739</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.20000000000000012</c:v>
+                  <c:v>0.29243898625165921</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.20645161290322592</c:v>
+                  <c:v>0.29590869637257339</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21250000000000013</c:v>
+                  <c:v>0.2991615496109305</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.21818181818181831</c:v>
+                  <c:v>0.30221726022878109</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.223529411764706</c:v>
+                  <c:v>0.30509322316322873</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.2285714285714287</c:v>
+                  <c:v>0.30780484535856506</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.23333333333333345</c:v>
+                  <c:v>0.31036582187638267</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.23783783783783796</c:v>
+                  <c:v>0.31278836723107506</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.24210526315789485</c:v>
+                  <c:v>0.31508341019867836</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.24615384615384628</c:v>
+                  <c:v>0.31726075865512249</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.25000000000000011</c:v>
+                  <c:v>0.31932923968874438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,124 +1259,124 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99004983374916811</c:v>
+                  <c:v>0.96297127539850957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98019867330675525</c:v>
+                  <c:v>0.92731367724263203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97044553354850815</c:v>
+                  <c:v>0.89297643446881925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96078943915232318</c:v>
+                  <c:v>0.85991065600125238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95122942450071402</c:v>
+                  <c:v>0.82806926113829504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94176453358424872</c:v>
+                  <c:v>0.79740691251664542</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93239381990594827</c:v>
+                  <c:v>0.7678799515577418</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92311634638663576</c:v>
+                  <c:v>0.73944633630450429</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91393118527122819</c:v>
+                  <c:v>0.71206558155990374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90483741803595963</c:v>
+                  <c:v>0.68569870124212184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88692043671715748</c:v>
+                  <c:v>0.67212095724569298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.86935823539880586</c:v>
+                  <c:v>0.65881207059389468</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.85214378896621135</c:v>
+                  <c:v>0.64576671755461201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.835270211411272</c:v>
+                  <c:v>0.63297967981268888</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.81873075307798182</c:v>
+                  <c:v>0.62044584238253231</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.80251879796247838</c:v>
+                  <c:v>0.60816019156205037</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.78662786106655336</c:v>
+                  <c:v>0.59611781292710386</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.77105158580356614</c:v>
+                  <c:v>0.58431388936567175</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.75578374145572536</c:v>
+                  <c:v>0.5727436991509417</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.74081822068171777</c:v>
+                  <c:v>0.56140261405255643</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.71892373343192606</c:v>
+                  <c:v>0.54481065932976036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.69767632607103092</c:v>
+                  <c:v>0.5287090709761838</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.67705687449816454</c:v>
+                  <c:v>0.51308335647541869</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.65704681981505664</c:v>
+                  <c:v>0.49791945162964713</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.63762815162177311</c:v>
+                  <c:v>0.48320370790091349</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.61878339180614061</c:v>
+                  <c:v>0.4689228801265195</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.60049557881226578</c:v>
+                  <c:v>0.4550641145974833</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.58274825237398942</c:v>
+                  <c:v>0.44161493748933417</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.56552543869953686</c:v>
+                  <c:v>0.42856324363482795</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.54881163609402606</c:v>
+                  <c:v>0.41589728562847983</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.52729242404304821</c:v>
+                  <c:v>0.39958971980396069</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.50661699236558921</c:v>
+                  <c:v>0.38392158278148136</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.48675225595997129</c:v>
+                  <c:v>0.36886780219909165</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.46766642700990885</c:v>
+                  <c:v>0.35440428879621533</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.44932896411722123</c:v>
+                  <c:v>0.34050789786569369</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.43171052342907934</c:v>
+                  <c:v>0.32715639221731641</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.41478291168158099</c:v>
+                  <c:v>0.31432840659357286</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3985190410845138</c:v>
+                  <c:v>0.30200341348068227</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.38289288597511167</c:v>
+                  <c:v>0.2901616902601919</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.367879441171442</c:v>
+                  <c:v>0.27878428764857993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,307 +2001,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9688644922257018E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1859212468108845E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1859212468108845E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1859212468108845E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1859212468108845E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1859212468108845E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1859212468108845E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1859212468108845E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1859212468108845E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1859212468108845E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1859212468108845E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.7683063278025691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7683063278025691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.7683063278025691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.7683063278025691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.7683063278025691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.7683063278025691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.7683063278025691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.7683063278025691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.7683063278025691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.7683063278025691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.9823073127630173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9823073127630173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9823073127630173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9823073127630173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9823073127630173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9823073127630173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9823073127630173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.9823073127630173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9823073127630173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.9823073127630173E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9688644922258357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9688644922258357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.9688644922258357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.9688644922258357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.9688644922258357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9688644922258357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.9688644922258357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.9688644922258357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.9688644922258357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9688644922258357E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.9823073127630096E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.9688644922257615E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.9688644922257615E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.9688644922257615E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9688644922257615E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.9688644922257615E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.9688644922257615E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.9688644922257615E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.9688644922257615E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.9688644922257615E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.9688644922257615E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.9823073127629867E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9823073127629867E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.9823073127629867E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.9823073127629867E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.9823073127629867E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9823073127629867E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.9823073127629867E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.9823073127629867E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.9823073127629867E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.9823073127629867E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2243,7 +2309,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EE4-4982-B496-53DEE2E034B9}"/>
+              <c16:uniqueId val="{00000000-B005-4570-9F3F-EEFA829C54BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2255,11 +2321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385689792"/>
-        <c:axId val="385679232"/>
+        <c:axId val="289138832"/>
+        <c:axId val="289154672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385689792"/>
+        <c:axId val="289138832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,16 +2382,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385679232"/>
+        <c:crossAx val="289154672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385679232"/>
+        <c:axId val="289154672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.1"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2380,7 +2444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385689792"/>
+        <c:crossAx val="289138832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3594,22 +3658,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>397192</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>82867</xdr:rowOff>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>230333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>159067</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>82867</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64078</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E9958D-3DD3-E102-F25C-5D5F958EFF69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CF8C2A-8671-2722-4FB4-852E4DB6992D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3964,7 +4028,7 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_xll.TMX_DAY_COUNT_30_360()</f>
-        <v>140716345864955</v>
+        <v>140716431061820</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -3980,7 +4044,7 @@
       </c>
       <c r="E4" s="5" cm="1">
         <f t="array" ref="E4">_xll.TMX_DAY_COUNT_ACTUAL_360()</f>
-        <v>140716345857945</v>
+        <v>140716431054760</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -3996,7 +4060,7 @@
       </c>
       <c r="E5" s="5" cm="1">
         <f t="array" ref="E5">_xll.TMX_DAY_COUNT_ACTUAL_365()</f>
-        <v>140716345863355</v>
+        <v>140716431060195</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -4012,7 +4076,7 @@
       </c>
       <c r="E6" s="5" cm="1">
         <f t="array" ref="E6">_xll.TMX_DAY_COUNT_ACTUAL_ACTUAL()</f>
-        <v>140716345868405</v>
+        <v>140716431065320</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -4021,7 +4085,7 @@
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.TMX_DAY_COUNT_YEARS()</f>
-        <v>140716345898895</v>
+        <v>140716431096015</v>
       </c>
     </row>
   </sheetData>
@@ -4030,6 +4094,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E6F0E-62B3-47B5-8C49-DACF71BB425D}">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" ref="C5">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>1E-3</v>
+      </c>
+      <c r="E5">
+        <f>-D5</f>
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" ref="C6">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
+        <v>3.987761167674492</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
+        <v>3.9872811264024222</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
+        <v>3.9882412487909491</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" ref="C7">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
+        <v>-0.48006119416162751</v>
+      </c>
+      <c r="D7">
+        <f>(D6-E6)/(D5-E5)</f>
+        <v>-0.48006119426347027</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" ref="C8">_xll.TMX.BLACK.PUT.GAMMA(f, s, k)</f>
+        <v>3.9844391409476404E-2</v>
+      </c>
+      <c r="D8">
+        <f>(D6-2*C6+E6)/(D5^2)</f>
+        <v>3.984438734505602E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" cm="1">
+        <f t="array" ref="C9">_xll.TMX.BLACK.PUT.VEGA(f, s, k)</f>
+        <v>39.844391409476401</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
+        <v>39.844389753440623</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DAD46C-D019-4BB0-8142-A427C42D3B36}">
   <dimension ref="B2:D11"/>
   <sheetViews>
@@ -4050,7 +4229,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -4059,7 +4238,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">10*RAND()</f>
-        <v>6.0795388229777094</v>
+        <v>3.9318059039872058</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4068,18 +4247,18 @@
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>47311.505949074075</v>
+        <v>46529.062615740739</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>47311.505949074075</v>
+        <v>46529.062615740739</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.DATE.ADD_YEARS(C4,-years)</f>
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">C5-date</f>
@@ -4092,18 +4271,18 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>6.0781535555144872</v>
+        <v>3.9316344620354968</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>47311</v>
+        <v>46529</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>47311</v>
+        <v>46529</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4148,7 +4327,7 @@
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.DATE.ADD_YMD(date, years_,months, days)</f>
-        <v>45521</v>
+        <v>45523</v>
       </c>
     </row>
   </sheetData>
@@ -4160,7 +4339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B429FC-4136-41AD-B308-B590D229D902}">
   <dimension ref="B2:N43"/>
   <sheetViews>
@@ -4189,8 +4368,8 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" cm="1">
-        <f t="array" ref="I2">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>2392573155104</v>
+        <f t="array" aca="1" ref="I2" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
+        <v>2534312649600</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
@@ -4210,14 +4389,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="15">
-        <v>0.1</v>
+        <f ca="1">RAND()</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="E3" cm="1">
-        <f t="array" ref="E3:F6">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve_))</f>
+        <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve_))</f>
         <v>1</v>
       </c>
       <c r="F3" s="16">
-        <v>0.1</v>
+        <f ca="1"/>
+        <v>0.37731695875497728</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="3" t="s">
@@ -4231,15 +4412,15 @@
         <v>0</v>
       </c>
       <c r="L3" cm="1">
-        <f t="array" ref="L3">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K3)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K3)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M3" cm="1">
-        <f t="array" ref="M3">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K3)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K3)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N3" cm="1">
-        <f t="array" ref="N3">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K3)</f>
+        <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K3)</f>
         <v>1</v>
       </c>
     </row>
@@ -4251,29 +4432,31 @@
         <v>0.2</v>
       </c>
       <c r="E4">
+        <f ca="1"/>
         <v>2</v>
       </c>
       <c r="F4">
+        <f ca="1"/>
         <v>0.2</v>
       </c>
       <c r="I4" s="5" cm="1">
-        <f t="array" ref="I4">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve, shift)</f>
-        <v>2392573154576</v>
+        <f t="array" aca="1" ref="I4" ca="1">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve, shift)</f>
+        <v>2534312650128</v>
       </c>
       <c r="K4">
         <v>0.1</v>
       </c>
       <c r="L4" cm="1">
-        <f t="array" ref="L4">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K4)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K4)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M4" cm="1">
-        <f t="array" ref="M4">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K4)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K4)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N4" cm="1">
-        <f t="array" ref="N4">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K4)</f>
-        <v>0.99004983374916811</v>
+        <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K4)</f>
+        <v>0.96297127539850957</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -4284,9 +4467,11 @@
         <v>0.3</v>
       </c>
       <c r="E5">
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="F5">
+        <f ca="1"/>
         <v>0.3</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -4299,16 +4484,16 @@
         <v>0.2</v>
       </c>
       <c r="L5" cm="1">
-        <f t="array" ref="L5">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K5)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K5)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M5" cm="1">
-        <f t="array" ref="M5">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K5)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K5)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N5" cm="1">
-        <f t="array" ref="N5">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K5)</f>
-        <v>0.98019867330675525</v>
+        <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K5)</f>
+        <v>0.92731367724263203</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -4319,32 +4504,34 @@
         <v>0.4</v>
       </c>
       <c r="E6">
+        <f ca="1"/>
         <v>3</v>
       </c>
       <c r="F6">
+        <f ca="1"/>
         <v>0.4</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="5" cm="1">
-        <f t="array" ref="I6">_xll.\TMX.PWFLAT.CURVE.TRANSLATE(I4, translate)</f>
-        <v>2392573153168</v>
+        <f t="array" aca="1" ref="I6" ca="1">_xll.\TMX.PWFLAT.CURVE.TRANSLATE(I4, translate)</f>
+        <v>2534312638336</v>
       </c>
       <c r="K6">
         <v>0.30000000000000004</v>
       </c>
       <c r="L6" cm="1">
-        <f t="array" ref="L6">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K6)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K6)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M6" cm="1">
-        <f t="array" ref="M6">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K6)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K6)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N6" cm="1">
-        <f t="array" ref="N6">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K6)</f>
-        <v>0.97044553354850815</v>
+        <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K6)</f>
+        <v>0.89297643446881925</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -4352,16 +4539,16 @@
         <v>0.4</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" ref="L7">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K7)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K7)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" ref="M7">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K7)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K7)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" ref="N7">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K7)</f>
-        <v>0.96078943915232318</v>
+        <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K7)</f>
+        <v>0.85991065600125238</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -4369,16 +4556,16 @@
         <v>0.5</v>
       </c>
       <c r="L8" cm="1">
-        <f t="array" ref="L8">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K8)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K8)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M8" cm="1">
-        <f t="array" ref="M8">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K8)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K8)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N8" cm="1">
-        <f t="array" ref="N8">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K8)</f>
-        <v>0.95122942450071402</v>
+        <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K8)</f>
+        <v>0.82806926113829504</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -4386,16 +4573,16 @@
         <v>0.6</v>
       </c>
       <c r="L9" cm="1">
-        <f t="array" ref="L9">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K9)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K9)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M9" cm="1">
-        <f t="array" ref="M9">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K9)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K9)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N9" cm="1">
-        <f t="array" ref="N9">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K9)</f>
-        <v>0.94176453358424872</v>
+        <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K9)</f>
+        <v>0.79740691251664542</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -4403,16 +4590,16 @@
         <v>0.7</v>
       </c>
       <c r="L10" cm="1">
-        <f t="array" ref="L10">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K10)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K10)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M10" cm="1">
-        <f t="array" ref="M10">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K10)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K10)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N10" cm="1">
-        <f t="array" ref="N10">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K10)</f>
-        <v>0.93239381990594827</v>
+        <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K10)</f>
+        <v>0.7678799515577418</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -4420,16 +4607,16 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="L11" cm="1">
-        <f t="array" ref="L11">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K11)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K11)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M11" cm="1">
-        <f t="array" ref="M11">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K11)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K11)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N11" cm="1">
-        <f t="array" ref="N11">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K11)</f>
-        <v>0.92311634638663576</v>
+        <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K11)</f>
+        <v>0.73944633630450429</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -4437,16 +4624,16 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="L12" cm="1">
-        <f t="array" ref="L12">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K12)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K12)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M12" cm="1">
-        <f t="array" ref="M12">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K12)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K12)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N12" cm="1">
-        <f t="array" ref="N12">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K12)</f>
-        <v>0.91393118527122819</v>
+        <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K12)</f>
+        <v>0.71206558155990374</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -4454,16 +4641,16 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="L13" cm="1">
-        <f t="array" ref="L13">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K13)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="L13" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K13)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="M13" cm="1">
-        <f t="array" ref="M13">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K13)</f>
-        <v>0.1</v>
+        <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K13)</f>
+        <v>0.37731695875497728</v>
       </c>
       <c r="N13" cm="1">
-        <f t="array" ref="N13">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K13)</f>
-        <v>0.90483741803595963</v>
+        <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K13)</f>
+        <v>0.68569870124212184</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -4471,16 +4658,16 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="L14" cm="1">
-        <f t="array" ref="L14">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K14)</f>
+        <f t="array" aca="1" ref="L14" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K14)</f>
         <v>0.2</v>
       </c>
       <c r="M14" cm="1">
-        <f t="array" ref="M14">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K14)</f>
-        <v>0.10909090909090909</v>
+        <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K14)</f>
+        <v>0.36119723523179753</v>
       </c>
       <c r="N14" cm="1">
-        <f t="array" ref="N14">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K14)</f>
-        <v>0.88692043671715748</v>
+        <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K14)</f>
+        <v>0.67212095724569298</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -4488,16 +4675,16 @@
         <v>1.2</v>
       </c>
       <c r="L15" cm="1">
-        <f t="array" ref="L15">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K15)</f>
+        <f t="array" aca="1" ref="L15" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K15)</f>
         <v>0.2</v>
       </c>
       <c r="M15" cm="1">
-        <f t="array" ref="M15">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K15)</f>
-        <v>0.11666666666666668</v>
+        <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K15)</f>
+        <v>0.34776413229581438</v>
       </c>
       <c r="N15" cm="1">
-        <f t="array" ref="N15">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K15)</f>
-        <v>0.86935823539880586</v>
+        <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K15)</f>
+        <v>0.65881207059389468</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -4505,16 +4692,16 @@
         <v>1.3</v>
       </c>
       <c r="L16" cm="1">
-        <f t="array" ref="L16">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K16)</f>
+        <f t="array" aca="1" ref="L16" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K16)</f>
         <v>0.2</v>
       </c>
       <c r="M16" cm="1">
-        <f t="array" ref="M16">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K16)</f>
-        <v>0.1230769230769231</v>
+        <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K16)</f>
+        <v>0.33639766058075177</v>
       </c>
       <c r="N16" cm="1">
-        <f t="array" ref="N16">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K16)</f>
-        <v>0.85214378896621135</v>
+        <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K16)</f>
+        <v>0.64576671755461201</v>
       </c>
     </row>
     <row r="17" spans="11:14" x14ac:dyDescent="0.3">
@@ -4522,16 +4709,16 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="L17" cm="1">
-        <f t="array" ref="L17">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K17)</f>
+        <f t="array" aca="1" ref="L17" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K17)</f>
         <v>0.2</v>
       </c>
       <c r="M17" cm="1">
-        <f t="array" ref="M17">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K17)</f>
-        <v>0.12857142857142859</v>
+        <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K17)</f>
+        <v>0.32665497053926945</v>
       </c>
       <c r="N17" cm="1">
-        <f t="array" ref="N17">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K17)</f>
-        <v>0.835270211411272</v>
+        <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K17)</f>
+        <v>0.63297967981268888</v>
       </c>
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.3">
@@ -4539,16 +4726,16 @@
         <v>1.5000000000000002</v>
       </c>
       <c r="L18" cm="1">
-        <f t="array" ref="L18">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K18)</f>
+        <f t="array" aca="1" ref="L18" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K18)</f>
         <v>0.2</v>
       </c>
       <c r="M18" cm="1">
-        <f t="array" ref="M18">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K18)</f>
-        <v>0.13333333333333336</v>
+        <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K18)</f>
+        <v>0.31821130583665147</v>
       </c>
       <c r="N18" cm="1">
-        <f t="array" ref="N18">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K18)</f>
-        <v>0.81873075307798182</v>
+        <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K18)</f>
+        <v>0.62044584238253231</v>
       </c>
     </row>
     <row r="19" spans="11:14" x14ac:dyDescent="0.3">
@@ -4556,16 +4743,16 @@
         <v>1.6000000000000003</v>
       </c>
       <c r="L19" cm="1">
-        <f t="array" ref="L19">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K19)</f>
+        <f t="array" aca="1" ref="L19" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K19)</f>
         <v>0.2</v>
       </c>
       <c r="M19" cm="1">
-        <f t="array" ref="M19">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K19)</f>
-        <v>0.13750000000000004</v>
+        <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K19)</f>
+        <v>0.3108230992218608</v>
       </c>
       <c r="N19" cm="1">
-        <f t="array" ref="N19">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K19)</f>
-        <v>0.80251879796247838</v>
+        <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K19)</f>
+        <v>0.60816019156205037</v>
       </c>
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.3">
@@ -4573,16 +4760,16 @@
         <v>1.7000000000000004</v>
       </c>
       <c r="L20" cm="1">
-        <f t="array" ref="L20">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K20)</f>
+        <f t="array" aca="1" ref="L20" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K20)</f>
         <v>0.2</v>
       </c>
       <c r="M20" cm="1">
-        <f t="array" ref="M20">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K20)</f>
-        <v>0.14117647058823532</v>
+        <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K20)</f>
+        <v>0.30430409338528075</v>
       </c>
       <c r="N20" cm="1">
-        <f t="array" ref="N20">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K20)</f>
-        <v>0.78662786106655336</v>
+        <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K20)</f>
+        <v>0.59611781292710386</v>
       </c>
     </row>
     <row r="21" spans="11:14" x14ac:dyDescent="0.3">
@@ -4590,16 +4777,16 @@
         <v>1.8000000000000005</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" ref="L21">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K21)</f>
+        <f t="array" aca="1" ref="L21" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K21)</f>
         <v>0.2</v>
       </c>
       <c r="M21" cm="1">
-        <f t="array" ref="M21">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K21)</f>
-        <v>0.14444444444444446</v>
+        <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K21)</f>
+        <v>0.29850942153054294</v>
       </c>
       <c r="N21" cm="1">
-        <f t="array" ref="N21">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K21)</f>
-        <v>0.77105158580356614</v>
+        <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K21)</f>
+        <v>0.58431388936567175</v>
       </c>
     </row>
     <row r="22" spans="11:14" x14ac:dyDescent="0.3">
@@ -4607,16 +4794,16 @@
         <v>1.9000000000000006</v>
       </c>
       <c r="L22" cm="1">
-        <f t="array" ref="L22">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K22)</f>
+        <f t="array" aca="1" ref="L22" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K22)</f>
         <v>0.2</v>
       </c>
       <c r="M22" cm="1">
-        <f t="array" ref="M22">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K22)</f>
-        <v>0.14736842105263159</v>
+        <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K22)</f>
+        <v>0.29332471513419855</v>
       </c>
       <c r="N22" cm="1">
-        <f t="array" ref="N22">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K22)</f>
-        <v>0.75578374145572536</v>
+        <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K22)</f>
+        <v>0.5727436991509417</v>
       </c>
     </row>
     <row r="23" spans="11:14" x14ac:dyDescent="0.3">
@@ -4624,16 +4811,16 @@
         <v>2.0000000000000004</v>
       </c>
       <c r="L23" cm="1">
-        <f t="array" ref="L23">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K23)</f>
+        <f t="array" aca="1" ref="L23" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K23)</f>
         <v>0.3</v>
       </c>
       <c r="M23" cm="1">
-        <f t="array" ref="M23">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K23)</f>
-        <v>0.15000000000000005</v>
+        <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K23)</f>
+        <v>0.28865847937748867</v>
       </c>
       <c r="N23" cm="1">
-        <f t="array" ref="N23">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K23)</f>
-        <v>0.74081822068171777</v>
+        <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K23)</f>
+        <v>0.56140261405255643</v>
       </c>
     </row>
     <row r="24" spans="11:14" x14ac:dyDescent="0.3">
@@ -4641,16 +4828,16 @@
         <v>2.1000000000000005</v>
       </c>
       <c r="L24" cm="1">
-        <f t="array" ref="L24">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K24)</f>
+        <f t="array" aca="1" ref="L24" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K24)</f>
         <v>0.3</v>
       </c>
       <c r="M24" cm="1">
-        <f t="array" ref="M24">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K24)</f>
-        <v>0.1571428571428572</v>
+        <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K24)</f>
+        <v>0.28919855178808446</v>
       </c>
       <c r="N24" cm="1">
-        <f t="array" ref="N24">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K24)</f>
-        <v>0.71892373343192606</v>
+        <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K24)</f>
+        <v>0.54481065932976036</v>
       </c>
     </row>
     <row r="25" spans="11:14" x14ac:dyDescent="0.3">
@@ -4658,16 +4845,16 @@
         <v>2.2000000000000006</v>
       </c>
       <c r="L25" cm="1">
-        <f t="array" ref="L25">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K25)</f>
+        <f t="array" aca="1" ref="L25" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K25)</f>
         <v>0.3</v>
       </c>
       <c r="M25" cm="1">
-        <f t="array" ref="M25">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K25)</f>
-        <v>0.16363636363636369</v>
+        <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K25)</f>
+        <v>0.28968952670680786</v>
       </c>
       <c r="N25" cm="1">
-        <f t="array" ref="N25">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K25)</f>
-        <v>0.69767632607103092</v>
+        <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K25)</f>
+        <v>0.5287090709761838</v>
       </c>
     </row>
     <row r="26" spans="11:14" x14ac:dyDescent="0.3">
@@ -4675,16 +4862,16 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="L26" cm="1">
-        <f t="array" ref="L26">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K26)</f>
+        <f t="array" aca="1" ref="L26" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K26)</f>
         <v>0.3</v>
       </c>
       <c r="M26" cm="1">
-        <f t="array" ref="M26">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K26)</f>
-        <v>0.1695652173913044</v>
+        <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K26)</f>
+        <v>0.29013780815433798</v>
       </c>
       <c r="N26" cm="1">
-        <f t="array" ref="N26">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K26)</f>
-        <v>0.67705687449816454</v>
+        <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K26)</f>
+        <v>0.51308335647541869</v>
       </c>
     </row>
     <row r="27" spans="11:14" x14ac:dyDescent="0.3">
@@ -4692,16 +4879,16 @@
         <v>2.4000000000000008</v>
       </c>
       <c r="L27" cm="1">
-        <f t="array" ref="L27">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K27)</f>
+        <f t="array" aca="1" ref="L27" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K27)</f>
         <v>0.3</v>
       </c>
       <c r="M27" cm="1">
-        <f t="array" ref="M27">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K27)</f>
-        <v>0.17500000000000004</v>
+        <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K27)</f>
+        <v>0.29054873281457388</v>
       </c>
       <c r="N27" cm="1">
-        <f t="array" ref="N27">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K27)</f>
-        <v>0.65704681981505664</v>
+        <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K27)</f>
+        <v>0.49791945162964713</v>
       </c>
     </row>
     <row r="28" spans="11:14" x14ac:dyDescent="0.3">
@@ -4709,16 +4896,16 @@
         <v>2.5000000000000009</v>
       </c>
       <c r="L28" cm="1">
-        <f t="array" ref="L28">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K28)</f>
+        <f t="array" aca="1" ref="L28" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K28)</f>
         <v>0.3</v>
       </c>
       <c r="M28" cm="1">
-        <f t="array" ref="M28">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K28)</f>
-        <v>0.18000000000000005</v>
+        <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K28)</f>
+        <v>0.29092678350199092</v>
       </c>
       <c r="N28" cm="1">
-        <f t="array" ref="N28">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K28)</f>
-        <v>0.63762815162177311</v>
+        <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K28)</f>
+        <v>0.48320370790091349</v>
       </c>
     </row>
     <row r="29" spans="11:14" x14ac:dyDescent="0.3">
@@ -4726,16 +4913,16 @@
         <v>2.600000000000001</v>
       </c>
       <c r="L29" cm="1">
-        <f t="array" ref="L29">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K29)</f>
+        <f t="array" aca="1" ref="L29" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K29)</f>
         <v>0.3</v>
       </c>
       <c r="M29" cm="1">
-        <f t="array" ref="M29">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K29)</f>
-        <v>0.18461538461538468</v>
+        <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K29)</f>
+        <v>0.291275753367299</v>
       </c>
       <c r="N29" cm="1">
-        <f t="array" ref="N29">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K29)</f>
-        <v>0.61878339180614061</v>
+        <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K29)</f>
+        <v>0.4689228801265195</v>
       </c>
     </row>
     <row r="30" spans="11:14" x14ac:dyDescent="0.3">
@@ -4743,16 +4930,16 @@
         <v>2.7000000000000011</v>
       </c>
       <c r="L30" cm="1">
-        <f t="array" ref="L30">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K30)</f>
+        <f t="array" aca="1" ref="L30" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K30)</f>
         <v>0.3</v>
       </c>
       <c r="M30" cm="1">
-        <f t="array" ref="M30">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K30)</f>
-        <v>0.18888888888888894</v>
+        <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K30)</f>
+        <v>0.29159887361295456</v>
       </c>
       <c r="N30" cm="1">
-        <f t="array" ref="N30">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K30)</f>
-        <v>0.60049557881226578</v>
+        <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K30)</f>
+        <v>0.4550641145974833</v>
       </c>
     </row>
     <row r="31" spans="11:14" x14ac:dyDescent="0.3">
@@ -4760,16 +4947,16 @@
         <v>2.8000000000000012</v>
       </c>
       <c r="L31" cm="1">
-        <f t="array" ref="L31">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K31)</f>
+        <f t="array" aca="1" ref="L31" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K31)</f>
         <v>0.3</v>
       </c>
       <c r="M31" cm="1">
-        <f t="array" ref="M31">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K31)</f>
-        <v>0.19285714285714292</v>
+        <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K31)</f>
+        <v>0.29189891384106331</v>
       </c>
       <c r="N31" cm="1">
-        <f t="array" ref="N31">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K31)</f>
-        <v>0.58274825237398942</v>
+        <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K31)</f>
+        <v>0.44161493748933417</v>
       </c>
     </row>
     <row r="32" spans="11:14" x14ac:dyDescent="0.3">
@@ -4777,16 +4964,16 @@
         <v>2.9000000000000012</v>
       </c>
       <c r="L32" cm="1">
-        <f t="array" ref="L32">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K32)</f>
+        <f t="array" aca="1" ref="L32" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K32)</f>
         <v>0.3</v>
       </c>
       <c r="M32" cm="1">
-        <f t="array" ref="M32">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K32)</f>
-        <v>0.19655172413793109</v>
+        <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K32)</f>
+        <v>0.29217826163964739</v>
       </c>
       <c r="N32" cm="1">
-        <f t="array" ref="N32">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K32)</f>
-        <v>0.56552543869953686</v>
+        <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K32)</f>
+        <v>0.42856324363482795</v>
       </c>
     </row>
     <row r="33" spans="11:14" x14ac:dyDescent="0.3">
@@ -4794,16 +4981,16 @@
         <v>3.0000000000000013</v>
       </c>
       <c r="L33" cm="1">
-        <f t="array" ref="L33">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K33)</f>
+        <f t="array" aca="1" ref="L33" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K33)</f>
         <v>0.4</v>
       </c>
       <c r="M33" cm="1">
-        <f t="array" ref="M33">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K33)</f>
-        <v>0.20000000000000012</v>
+        <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K33)</f>
+        <v>0.29243898625165921</v>
       </c>
       <c r="N33" cm="1">
-        <f t="array" ref="N33">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K33)</f>
-        <v>0.54881163609402606</v>
+        <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K33)</f>
+        <v>0.41589728562847983</v>
       </c>
     </row>
     <row r="34" spans="11:14" x14ac:dyDescent="0.3">
@@ -4811,16 +4998,16 @@
         <v>3.1000000000000014</v>
       </c>
       <c r="L34" cm="1">
-        <f t="array" ref="L34">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K34)</f>
+        <f t="array" aca="1" ref="L34" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K34)</f>
         <v>0.4</v>
       </c>
       <c r="M34" cm="1">
-        <f t="array" ref="M34">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K34)</f>
-        <v>0.20645161290322592</v>
+        <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K34)</f>
+        <v>0.29590869637257339</v>
       </c>
       <c r="N34" cm="1">
-        <f t="array" ref="N34">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K34)</f>
-        <v>0.52729242404304821</v>
+        <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K34)</f>
+        <v>0.39958971980396069</v>
       </c>
     </row>
     <row r="35" spans="11:14" x14ac:dyDescent="0.3">
@@ -4828,16 +5015,16 @@
         <v>3.2000000000000015</v>
       </c>
       <c r="L35" cm="1">
-        <f t="array" ref="L35">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K35)</f>
+        <f t="array" aca="1" ref="L35" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K35)</f>
         <v>0.4</v>
       </c>
       <c r="M35" cm="1">
-        <f t="array" ref="M35">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K35)</f>
-        <v>0.21250000000000013</v>
+        <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K35)</f>
+        <v>0.2991615496109305</v>
       </c>
       <c r="N35" cm="1">
-        <f t="array" ref="N35">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K35)</f>
-        <v>0.50661699236558921</v>
+        <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K35)</f>
+        <v>0.38392158278148136</v>
       </c>
     </row>
     <row r="36" spans="11:14" x14ac:dyDescent="0.3">
@@ -4845,16 +5032,16 @@
         <v>3.3000000000000016</v>
       </c>
       <c r="L36" cm="1">
-        <f t="array" ref="L36">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K36)</f>
+        <f t="array" aca="1" ref="L36" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K36)</f>
         <v>0.4</v>
       </c>
       <c r="M36" cm="1">
-        <f t="array" ref="M36">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K36)</f>
-        <v>0.21818181818181831</v>
+        <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K36)</f>
+        <v>0.30221726022878109</v>
       </c>
       <c r="N36" cm="1">
-        <f t="array" ref="N36">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K36)</f>
-        <v>0.48675225595997129</v>
+        <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K36)</f>
+        <v>0.36886780219909165</v>
       </c>
     </row>
     <row r="37" spans="11:14" x14ac:dyDescent="0.3">
@@ -4862,16 +5049,16 @@
         <v>3.4000000000000017</v>
       </c>
       <c r="L37" cm="1">
-        <f t="array" ref="L37">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K37)</f>
+        <f t="array" aca="1" ref="L37" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K37)</f>
         <v>0.4</v>
       </c>
       <c r="M37" cm="1">
-        <f t="array" ref="M37">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K37)</f>
-        <v>0.223529411764706</v>
+        <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K37)</f>
+        <v>0.30509322316322873</v>
       </c>
       <c r="N37" cm="1">
-        <f t="array" ref="N37">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K37)</f>
-        <v>0.46766642700990885</v>
+        <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K37)</f>
+        <v>0.35440428879621533</v>
       </c>
     </row>
     <row r="38" spans="11:14" x14ac:dyDescent="0.3">
@@ -4879,16 +5066,16 @@
         <v>3.5000000000000018</v>
       </c>
       <c r="L38" cm="1">
-        <f t="array" ref="L38">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K38)</f>
+        <f t="array" aca="1" ref="L38" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K38)</f>
         <v>0.4</v>
       </c>
       <c r="M38" cm="1">
-        <f t="array" ref="M38">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K38)</f>
-        <v>0.2285714285714287</v>
+        <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K38)</f>
+        <v>0.30780484535856506</v>
       </c>
       <c r="N38" cm="1">
-        <f t="array" ref="N38">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K38)</f>
-        <v>0.44932896411722123</v>
+        <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K38)</f>
+        <v>0.34050789786569369</v>
       </c>
     </row>
     <row r="39" spans="11:14" x14ac:dyDescent="0.3">
@@ -4896,16 +5083,16 @@
         <v>3.6000000000000019</v>
       </c>
       <c r="L39" cm="1">
-        <f t="array" ref="L39">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K39)</f>
+        <f t="array" aca="1" ref="L39" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K39)</f>
         <v>0.4</v>
       </c>
       <c r="M39" cm="1">
-        <f t="array" ref="M39">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K39)</f>
-        <v>0.23333333333333345</v>
+        <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K39)</f>
+        <v>0.31036582187638267</v>
       </c>
       <c r="N39" cm="1">
-        <f t="array" ref="N39">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K39)</f>
-        <v>0.43171052342907934</v>
+        <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K39)</f>
+        <v>0.32715639221731641</v>
       </c>
     </row>
     <row r="40" spans="11:14" x14ac:dyDescent="0.3">
@@ -4913,16 +5100,16 @@
         <v>3.700000000000002</v>
       </c>
       <c r="L40" cm="1">
-        <f t="array" ref="L40">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K40)</f>
+        <f t="array" aca="1" ref="L40" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K40)</f>
         <v>0.4</v>
       </c>
       <c r="M40" cm="1">
-        <f t="array" ref="M40">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K40)</f>
-        <v>0.23783783783783796</v>
+        <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K40)</f>
+        <v>0.31278836723107506</v>
       </c>
       <c r="N40" cm="1">
-        <f t="array" ref="N40">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K40)</f>
-        <v>0.41478291168158099</v>
+        <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K40)</f>
+        <v>0.31432840659357286</v>
       </c>
     </row>
     <row r="41" spans="11:14" x14ac:dyDescent="0.3">
@@ -4930,16 +5117,16 @@
         <v>3.800000000000002</v>
       </c>
       <c r="L41" cm="1">
-        <f t="array" ref="L41">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K41)</f>
+        <f t="array" aca="1" ref="L41" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K41)</f>
         <v>0.4</v>
       </c>
       <c r="M41" cm="1">
-        <f t="array" ref="M41">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K41)</f>
-        <v>0.24210526315789485</v>
+        <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K41)</f>
+        <v>0.31508341019867836</v>
       </c>
       <c r="N41" cm="1">
-        <f t="array" ref="N41">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K41)</f>
-        <v>0.3985190410845138</v>
+        <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K41)</f>
+        <v>0.30200341348068227</v>
       </c>
     </row>
     <row r="42" spans="11:14" x14ac:dyDescent="0.3">
@@ -4947,16 +5134,16 @@
         <v>3.9000000000000021</v>
       </c>
       <c r="L42" cm="1">
-        <f t="array" ref="L42">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K42)</f>
+        <f t="array" aca="1" ref="L42" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K42)</f>
         <v>0.4</v>
       </c>
       <c r="M42" cm="1">
-        <f t="array" ref="M42">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K42)</f>
-        <v>0.24615384615384628</v>
+        <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K42)</f>
+        <v>0.31726075865512249</v>
       </c>
       <c r="N42" cm="1">
-        <f t="array" ref="N42">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K42)</f>
-        <v>0.38289288597511167</v>
+        <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K42)</f>
+        <v>0.2901616902601919</v>
       </c>
     </row>
     <row r="43" spans="11:14" x14ac:dyDescent="0.3">
@@ -4964,16 +5151,16 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="L43" cm="1">
-        <f t="array" ref="L43">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K43)</f>
+        <f t="array" aca="1" ref="L43" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K43)</f>
         <v>0.4</v>
       </c>
       <c r="M43" cm="1">
-        <f t="array" ref="M43">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K43)</f>
-        <v>0.25000000000000011</v>
+        <f t="array" aca="1" ref="M43" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K43)</f>
+        <v>0.31932923968874438</v>
       </c>
       <c r="N43" cm="1">
-        <f t="array" ref="N43">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K43)</f>
-        <v>0.367879441171442</v>
+        <f t="array" aca="1" ref="N43" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K43)</f>
+        <v>0.27878428764857993</v>
       </c>
     </row>
   </sheetData>
@@ -4982,7 +5169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8A3DD8-75E7-4A72-9366-AF366CC35FAC}">
   <dimension ref="B1:G552"/>
   <sheetViews>
@@ -5012,7 +5199,7 @@
       </c>
       <c r="E2" s="5" cm="1">
         <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
-        <v>2394369033232</v>
+        <v>2319073701568</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
@@ -5067,10 +5254,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="5">
-        <v>140716345864955</v>
+        <v>140716431061820</v>
       </c>
       <c r="F5" s="5">
-        <v>140716345864955</v>
+        <v>140716431061820</v>
       </c>
       <c r="G5" s="17" t="b">
         <f t="shared" si="0"/>
@@ -5083,7 +5270,7 @@
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
-        <v>2394369038320</v>
+        <v>2319073704352</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -5092,25 +5279,25 @@
       </c>
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45091</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5" cm="1">
+      <c r="C8" s="5" t="e" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
-        <v>2392569839008</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="20" cm="1">
+      <c r="C9" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
-        <v>4.8786680314628891E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -5129,9 +5316,9 @@
       <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="20" cm="1">
+      <c r="C12" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(C9,12/_xll.ENUM(frequency))</f>
-        <v>4.9996341958828738E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -5147,122 +5334,85 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C14" cm="1">
-        <f t="array" aca="1" ref="C14:D17" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
-        <v>1.0020739645577939</v>
-      </c>
-      <c r="D14">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="2" cm="1">
-        <f t="array" aca="1" ref="E14:E17" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C14),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
-        <v>45457</v>
+      <c r="C14" t="e" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C14),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <f ca="1"/>
-        <v>2.0014100221085989</v>
-      </c>
-      <c r="D15">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="2">
-        <f ca="1"/>
-        <v>45821.999988425923</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <f ca="1"/>
-        <v>3.0007460796594043</v>
-      </c>
-      <c r="D16">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="E16" s="2">
-        <f ca="1"/>
-        <v>46187</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <f ca="1"/>
-        <v>4.0000821372102093</v>
-      </c>
-      <c r="D17">
-        <f ca="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="E17" s="2">
-        <f ca="1"/>
-        <v>46552</v>
-      </c>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
     </row>
@@ -7174,11 +7324,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92863B8-4C87-4474-B5B0-52EEB5BB3C33}">
   <dimension ref="B2:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7231,9 +7381,9 @@
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" cm="1">
-        <f t="array" ref="G6">_xll.\TMX.BOOTSTRAP(instrument, price)</f>
-        <v>2392573154048</v>
+      <c r="G6" s="5" t="e" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">_xll.\TMX.BOOTSTRAP(instrument, price)</f>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
@@ -7254,19 +7404,19 @@
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>2394369038032</v>
+        <v>2319073702816</v>
       </c>
       <c r="F7" s="5" cm="1">
         <f t="array" ref="F7">_xll.\TMX.BOND.INSTRUMENT(E7, dated)</f>
-        <v>2392574244672</v>
+        <v>2319074063488</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7:H107">_xlfn.SEQUENCE(1+10/H5,1,0,H5)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="21" cm="1">
-        <f t="array" ref="I7:I107">_xlfn.MAP(_xlfn.ANCHORARRAY(H7),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.VALUE(curve,_xlpm.t)))</f>
-        <v>4.9688644922257018E-2</v>
+      <c r="I7" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="I7:I107" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(H7),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.VALUE(curve,_xlpm.t)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -7275,24 +7425,26 @@
         <v>2</v>
       </c>
       <c r="C8" s="18">
-        <v>5.0999999999999997E-2</v>
+        <f ca="1">0.05 + 0.01*RAND()</f>
+        <v>5.3918100718761297E-2</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="5" cm="1">
-        <f t="array" ref="E8">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>2394369041488</v>
+        <f t="array" aca="1" ref="E8" ca="1">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
+        <v>2534307269392</v>
       </c>
       <c r="F8" s="5" cm="1">
-        <f t="array" ref="F8">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
-        <v>2392574249856</v>
+        <f t="array" aca="1" ref="F8" ca="1">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
+        <v>2536171316944</v>
       </c>
       <c r="H8">
         <v>0.1</v>
       </c>
-      <c r="I8">
-        <v>4.9688644922257018E-2</v>
+      <c r="I8" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -7307,17 +7459,18 @@
       </c>
       <c r="E9" s="5" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>2394369041392</v>
+        <v>2319073701280</v>
       </c>
       <c r="F9" s="5" cm="1">
         <f t="array" ref="F9">_xll.\TMX.BOND.INSTRUMENT(E9, dated)</f>
-        <v>2392574243808</v>
+        <v>2319074061040</v>
       </c>
       <c r="H9">
         <v>0.2</v>
       </c>
-      <c r="I9">
-        <v>4.9688644922257018E-2</v>
+      <c r="I9" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -7332,17 +7485,18 @@
       </c>
       <c r="E10" s="5" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>2394369042064</v>
+        <v>2319073705696</v>
       </c>
       <c r="F10" s="5" cm="1">
         <f t="array" ref="F10">_xll.\TMX.BOND.INSTRUMENT(E10, dated)</f>
-        <v>2392574245824</v>
+        <v>2319074060032</v>
       </c>
       <c r="H10">
         <v>0.30000000000000004</v>
       </c>
-      <c r="I10">
-        <v>4.9688644922257018E-2</v>
+      <c r="I10" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -7357,17 +7511,18 @@
       </c>
       <c r="E11" s="5" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>2394369041584</v>
+        <v>2319073700512</v>
       </c>
       <c r="F11" s="5" cm="1">
         <f t="array" ref="F11">_xll.\TMX.BOND.INSTRUMENT(E11, dated)</f>
-        <v>2392574249280</v>
+        <v>2319074063776</v>
       </c>
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11">
-        <v>4.9688644922257018E-2</v>
+      <c r="I11" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -7382,17 +7537,18 @@
       </c>
       <c r="E12" s="5" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>2394369037072</v>
+        <v>2319073705600</v>
       </c>
       <c r="F12" s="5" cm="1">
         <f t="array" ref="F12">_xll.\TMX.BOND.INSTRUMENT(E12, dated)</f>
-        <v>2392574242512</v>
+        <v>2319074065360</v>
       </c>
       <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="I12">
-        <v>4.9688644922257018E-2</v>
+      <c r="I12" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -7407,17 +7563,18 @@
       </c>
       <c r="E13" s="5" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>2394369040912</v>
+        <v>2319073705792</v>
       </c>
       <c r="F13" s="5" cm="1">
         <f t="array" ref="F13">_xll.\TMX.BOND.INSTRUMENT(E13, dated)</f>
-        <v>2392574247840</v>
+        <v>2319074064352</v>
       </c>
       <c r="H13">
         <v>0.6</v>
       </c>
-      <c r="I13">
-        <v>4.9688644922257018E-2</v>
+      <c r="I13" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -7432,17 +7589,18 @@
       </c>
       <c r="E14" s="5" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>2394369041968</v>
+        <v>2319073703392</v>
       </c>
       <c r="F14" s="5" cm="1">
         <f t="array" ref="F14">_xll.\TMX.BOND.INSTRUMENT(E14, dated)</f>
-        <v>2392574242800</v>
+        <v>2319074063632</v>
       </c>
       <c r="H14">
         <v>0.7</v>
       </c>
-      <c r="I14">
-        <v>4.9688644922257018E-2</v>
+      <c r="I14" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -7457,17 +7615,18 @@
       </c>
       <c r="E15" s="5" cm="1">
         <f t="array" ref="E15">_xll.\TMX.BOND.SIMPLE(B15, C15)</f>
-        <v>2394369042256</v>
+        <v>2319073705504</v>
       </c>
       <c r="F15" s="5" cm="1">
         <f t="array" ref="F15">_xll.\TMX.BOND.INSTRUMENT(E15, dated)</f>
-        <v>2392574246976</v>
+        <v>2319074063344</v>
       </c>
       <c r="H15">
         <v>0.79999999999999993</v>
       </c>
-      <c r="I15">
-        <v>4.9688644922257018E-2</v>
+      <c r="I15" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -7482,749 +7641,841 @@
       </c>
       <c r="E16" s="5" cm="1">
         <f t="array" ref="E16">_xll.\TMX.BOND.SIMPLE(B16, C16)</f>
-        <v>2394369031504</v>
+        <v>2319073700608</v>
       </c>
       <c r="F16" s="5" cm="1">
         <f t="array" ref="F16">_xll.\TMX.BOND.INSTRUMENT(E16, dated)</f>
-        <v>2392574249424</v>
+        <v>2319074066800</v>
       </c>
       <c r="H16">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I16">
-        <v>4.9688644922257018E-2</v>
+      <c r="I16" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>0.99999999999999989</v>
       </c>
-      <c r="I17">
-        <v>4.9688644922257018E-2</v>
+      <c r="I17" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>1.0999999999999999</v>
       </c>
-      <c r="I18">
-        <v>5.1859212468108845E-2</v>
+      <c r="I18" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>1.2</v>
       </c>
-      <c r="I19">
-        <v>5.1859212468108845E-2</v>
+      <c r="I19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>1.3</v>
       </c>
-      <c r="I20">
-        <v>5.1859212468108845E-2</v>
+      <c r="I20" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>1.4000000000000001</v>
       </c>
-      <c r="I21">
-        <v>5.1859212468108845E-2</v>
-      </c>
-      <c r="K21" cm="1">
-        <f t="array" ref="K21">_xll.TMX.PWFLAT.CURVE.VALUE(curve, H21)</f>
-        <v>5.1859212468108845E-2</v>
+      <c r="I21" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" t="e" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve, H21)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H22">
         <v>1.5000000000000002</v>
       </c>
-      <c r="I22">
-        <v>5.1859212468108845E-2</v>
+      <c r="I22" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>1.6000000000000003</v>
       </c>
-      <c r="I23">
-        <v>5.1859212468108845E-2</v>
+      <c r="I23" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H24">
         <v>1.7000000000000004</v>
       </c>
-      <c r="I24">
-        <v>5.1859212468108845E-2</v>
+      <c r="I24" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H25">
         <v>1.8000000000000005</v>
       </c>
-      <c r="I25">
-        <v>5.1859212468108845E-2</v>
+      <c r="I25" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1.9000000000000006</v>
       </c>
-      <c r="I26">
-        <v>5.1859212468108845E-2</v>
+      <c r="I26" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>2.0000000000000004</v>
       </c>
-      <c r="I27">
-        <v>5.1859212468108845E-2</v>
+      <c r="I27" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>2.1000000000000005</v>
       </c>
-      <c r="I28">
-        <v>4.7683063278025691E-2</v>
+      <c r="I28" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>2.2000000000000006</v>
       </c>
-      <c r="I29">
-        <v>4.7683063278025691E-2</v>
+      <c r="I29" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>2.3000000000000007</v>
       </c>
-      <c r="I30">
-        <v>4.7683063278025691E-2</v>
+      <c r="I30" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>2.4000000000000008</v>
       </c>
-      <c r="I31">
-        <v>4.7683063278025691E-2</v>
+      <c r="I31" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>2.5000000000000009</v>
       </c>
-      <c r="I32">
-        <v>4.7683063278025691E-2</v>
+      <c r="I32" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>2.600000000000001</v>
       </c>
-      <c r="I33">
-        <v>4.7683063278025691E-2</v>
+      <c r="I33" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>2.7000000000000011</v>
       </c>
-      <c r="I34">
-        <v>4.7683063278025691E-2</v>
+      <c r="I34" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>2.8000000000000012</v>
       </c>
-      <c r="I35">
-        <v>4.7683063278025691E-2</v>
+      <c r="I35" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>2.9000000000000012</v>
       </c>
-      <c r="I36">
-        <v>4.7683063278025691E-2</v>
+      <c r="I36" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>3.0000000000000013</v>
       </c>
-      <c r="I37">
-        <v>4.7683063278025691E-2</v>
+      <c r="I37" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>3.1000000000000014</v>
       </c>
-      <c r="I38">
-        <v>4.9823073127630173E-2</v>
+      <c r="I38" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>3.2000000000000015</v>
       </c>
-      <c r="I39">
-        <v>4.9823073127630173E-2</v>
+      <c r="I39" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>3.3000000000000016</v>
       </c>
-      <c r="I40">
-        <v>4.9823073127630173E-2</v>
+      <c r="I40" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>3.4000000000000017</v>
       </c>
-      <c r="I41">
-        <v>4.9823073127630173E-2</v>
+      <c r="I41" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H42">
         <v>3.5000000000000018</v>
       </c>
-      <c r="I42">
-        <v>4.9823073127630173E-2</v>
+      <c r="I42" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H43">
         <v>3.6000000000000019</v>
       </c>
-      <c r="I43">
-        <v>4.9823073127630173E-2</v>
+      <c r="I43" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H44">
         <v>3.700000000000002</v>
       </c>
-      <c r="I44">
-        <v>4.9823073127630173E-2</v>
+      <c r="I44" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H45">
         <v>3.800000000000002</v>
       </c>
-      <c r="I45">
-        <v>4.9823073127630173E-2</v>
+      <c r="I45" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H46">
         <v>3.9000000000000021</v>
       </c>
-      <c r="I46">
-        <v>4.9823073127630173E-2</v>
+      <c r="I46" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>4.0000000000000018</v>
       </c>
-      <c r="I47">
-        <v>4.9823073127630173E-2</v>
+      <c r="I47" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H48">
         <v>4.1000000000000014</v>
       </c>
-      <c r="I48">
-        <v>4.9688644922258357E-2</v>
+      <c r="I48" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49">
         <v>4.2000000000000011</v>
       </c>
-      <c r="I49">
-        <v>4.9688644922258357E-2</v>
+      <c r="I49" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50">
         <v>4.3000000000000007</v>
       </c>
-      <c r="I50">
-        <v>4.9688644922258357E-2</v>
+      <c r="I50" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I51">
-        <v>4.9688644922258357E-2</v>
+      <c r="I51" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52">
         <v>4.5</v>
       </c>
-      <c r="I52">
-        <v>4.9688644922258357E-2</v>
+      <c r="I52" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I53">
-        <v>4.9688644922258357E-2</v>
+      <c r="I53" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H54">
         <v>4.6999999999999993</v>
       </c>
-      <c r="I54">
-        <v>4.9688644922258357E-2</v>
+      <c r="I54" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H55">
         <v>4.7999999999999989</v>
       </c>
-      <c r="I55">
-        <v>4.9688644922258357E-2</v>
+      <c r="I55" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H56">
         <v>4.8999999999999986</v>
       </c>
-      <c r="I56">
-        <v>4.9688644922258357E-2</v>
+      <c r="I56" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H57">
         <v>4.9999999999999982</v>
       </c>
-      <c r="I57">
-        <v>4.9688644922258357E-2</v>
+      <c r="I57" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H58">
         <v>5.0999999999999979</v>
       </c>
-      <c r="I58">
-        <v>4.9823073127630096E-2</v>
+      <c r="I58" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H59">
         <v>5.1999999999999975</v>
       </c>
-      <c r="I59">
-        <v>4.9823073127630096E-2</v>
+      <c r="I59" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H60">
         <v>5.2999999999999972</v>
       </c>
-      <c r="I60">
-        <v>4.9823073127630096E-2</v>
+      <c r="I60" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H61">
         <v>5.3999999999999968</v>
       </c>
-      <c r="I61">
-        <v>4.9823073127630096E-2</v>
+      <c r="I61" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H62">
         <v>5.4999999999999964</v>
       </c>
-      <c r="I62">
-        <v>4.9823073127630096E-2</v>
+      <c r="I62" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H63">
         <v>5.5999999999999961</v>
       </c>
-      <c r="I63">
-        <v>4.9823073127630096E-2</v>
+      <c r="I63" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H64">
         <v>5.6999999999999957</v>
       </c>
-      <c r="I64">
-        <v>4.9823073127630096E-2</v>
+      <c r="I64" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H65">
         <v>5.7999999999999954</v>
       </c>
-      <c r="I65">
-        <v>4.9823073127630096E-2</v>
+      <c r="I65" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H66">
         <v>5.899999999999995</v>
       </c>
-      <c r="I66">
-        <v>4.9823073127630096E-2</v>
+      <c r="I66" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H67">
         <v>5.9999999999999947</v>
       </c>
-      <c r="I67">
-        <v>4.9823073127630096E-2</v>
+      <c r="I67" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H68">
         <v>6.0999999999999943</v>
       </c>
-      <c r="I68">
-        <v>4.9823073127630096E-2</v>
+      <c r="I68" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H69">
         <v>6.199999999999994</v>
       </c>
-      <c r="I69">
-        <v>4.9823073127630096E-2</v>
+      <c r="I69" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H70">
         <v>6.2999999999999936</v>
       </c>
-      <c r="I70">
-        <v>4.9823073127630096E-2</v>
+      <c r="I70" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H71">
         <v>6.3999999999999932</v>
       </c>
-      <c r="I71">
-        <v>4.9823073127630096E-2</v>
+      <c r="I71" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H72">
         <v>6.4999999999999929</v>
       </c>
-      <c r="I72">
-        <v>4.9823073127630096E-2</v>
+      <c r="I72" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H73">
         <v>6.5999999999999925</v>
       </c>
-      <c r="I73">
-        <v>4.9823073127630096E-2</v>
+      <c r="I73" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H74">
         <v>6.6999999999999922</v>
       </c>
-      <c r="I74">
-        <v>4.9823073127630096E-2</v>
+      <c r="I74" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H75">
         <v>6.7999999999999918</v>
       </c>
-      <c r="I75">
-        <v>4.9823073127630096E-2</v>
+      <c r="I75" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H76">
         <v>6.8999999999999915</v>
       </c>
-      <c r="I76">
-        <v>4.9823073127630096E-2</v>
+      <c r="I76" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H77">
         <v>6.9999999999999911</v>
       </c>
-      <c r="I77">
-        <v>4.9823073127630096E-2</v>
+      <c r="I77" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H78">
         <v>7.0999999999999908</v>
       </c>
-      <c r="I78">
-        <v>4.9823073127630096E-2</v>
+      <c r="I78" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H79">
         <v>7.1999999999999904</v>
       </c>
-      <c r="I79">
-        <v>4.9823073127630096E-2</v>
+      <c r="I79" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H80">
         <v>7.2999999999999901</v>
       </c>
-      <c r="I80">
-        <v>4.9823073127630096E-2</v>
+      <c r="I80" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H81">
         <v>7.3999999999999897</v>
       </c>
-      <c r="I81">
-        <v>4.9823073127630096E-2</v>
+      <c r="I81" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H82">
         <v>7.4999999999999893</v>
       </c>
-      <c r="I82">
-        <v>4.9823073127630096E-2</v>
+      <c r="I82" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H83">
         <v>7.599999999999989</v>
       </c>
-      <c r="I83">
-        <v>4.9823073127630096E-2</v>
+      <c r="I83" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H84">
         <v>7.6999999999999886</v>
       </c>
-      <c r="I84">
-        <v>4.9823073127630096E-2</v>
+      <c r="I84" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H85">
         <v>7.7999999999999883</v>
       </c>
-      <c r="I85">
-        <v>4.9823073127630096E-2</v>
+      <c r="I85" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H86">
         <v>7.8999999999999879</v>
       </c>
-      <c r="I86">
-        <v>4.9823073127630096E-2</v>
+      <c r="I86" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H87">
         <v>7.9999999999999876</v>
       </c>
-      <c r="I87">
-        <v>4.9823073127630096E-2</v>
+      <c r="I87" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H88">
         <v>8.0999999999999872</v>
       </c>
-      <c r="I88">
-        <v>4.9688644922257615E-2</v>
+      <c r="I88" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H89">
         <v>8.1999999999999869</v>
       </c>
-      <c r="I89">
-        <v>4.9688644922257615E-2</v>
+      <c r="I89" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H90">
         <v>8.2999999999999865</v>
       </c>
-      <c r="I90">
-        <v>4.9688644922257615E-2</v>
+      <c r="I90" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H91">
         <v>8.3999999999999861</v>
       </c>
-      <c r="I91">
-        <v>4.9688644922257615E-2</v>
+      <c r="I91" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H92">
         <v>8.4999999999999858</v>
       </c>
-      <c r="I92">
-        <v>4.9688644922257615E-2</v>
+      <c r="I92" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H93">
         <v>8.5999999999999854</v>
       </c>
-      <c r="I93">
-        <v>4.9688644922257615E-2</v>
+      <c r="I93" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H94">
         <v>8.6999999999999851</v>
       </c>
-      <c r="I94">
-        <v>4.9688644922257615E-2</v>
+      <c r="I94" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H95">
         <v>8.7999999999999847</v>
       </c>
-      <c r="I95">
-        <v>4.9688644922257615E-2</v>
+      <c r="I95" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H96">
         <v>8.8999999999999844</v>
       </c>
-      <c r="I96">
-        <v>4.9688644922257615E-2</v>
+      <c r="I96" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97">
         <v>8.999999999999984</v>
       </c>
-      <c r="I97">
-        <v>4.9688644922257615E-2</v>
+      <c r="I97" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98">
         <v>9.0999999999999837</v>
       </c>
-      <c r="I98">
-        <v>4.9823073127629867E-2</v>
+      <c r="I98" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99">
         <v>9.1999999999999833</v>
       </c>
-      <c r="I99">
-        <v>4.9823073127629867E-2</v>
+      <c r="I99" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100">
         <v>9.2999999999999829</v>
       </c>
-      <c r="I100">
-        <v>4.9823073127629867E-2</v>
+      <c r="I100" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101">
         <v>9.3999999999999826</v>
       </c>
-      <c r="I101">
-        <v>4.9823073127629867E-2</v>
+      <c r="I101" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102">
         <v>9.4999999999999822</v>
       </c>
-      <c r="I102">
-        <v>4.9823073127629867E-2</v>
+      <c r="I102" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103">
         <v>9.5999999999999819</v>
       </c>
-      <c r="I103">
-        <v>4.9823073127629867E-2</v>
+      <c r="I103" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104">
         <v>9.6999999999999815</v>
       </c>
-      <c r="I104">
-        <v>4.9823073127629867E-2</v>
+      <c r="I104" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105">
         <v>9.7999999999999812</v>
       </c>
-      <c r="I105">
-        <v>4.9823073127629867E-2</v>
+      <c r="I105" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106">
         <v>9.8999999999999808</v>
       </c>
-      <c r="I106">
-        <v>4.9823073127629867E-2</v>
+      <c r="I106" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107">
         <v>9.9999999999999805</v>
       </c>
-      <c r="I107">
-        <v>4.9823073127629867E-2</v>
+      <c r="I107" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -8232,4 +8483,143 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE10814-8BAC-41F3-9E28-9FC194E23C82}">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <f>EXP(-r_*t)</f>
+        <v>0.36787944117144233</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <f>EXP(-r_*u)</f>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="E7">
+        <f>Du/Dt</f>
+        <v>0.36787944117144233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <f ca="1">EXP(-r_*(u-t)-σ^2*(u-t)^3/6-σ*(u-t)*_xlfn.NORM.S.INV(RAND())*SQRT(t))</f>
+        <v>0.18096584160211318</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <f ca="1">LN(C8)</f>
+        <v>-1.7094469859565664</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10">_xll.TMX.HO_LEE.ED(Dt, Du, t, u, σ)</f>
+        <v>0.34993774911115538</v>
+      </c>
+      <c r="D10" s="16" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">_xll.MONTE.MEAN(C8)</f>
+        <v>0.38067879287846046</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11">_xll.TMX.HO_LEE.ELogD(Dt, Du, t, u, σ)</f>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="array" aca="1" ref="D11:D12" ca="1">_xll.MONTE.STDEV(logD)</f>
+        <v>-1.016185039685831</v>
+      </c>
+      <c r="E11">
+        <f ca="1">(C11-D11)/D12</f>
+        <v>-0.26395273052976648</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">_xll.TMX.HO_LEE.VarLogD(t, u, σ)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="16">
+        <f ca="1"/>
+        <v>0.31753776574293535</v>
+      </c>
+      <c r="E12" s="16">
+        <f>SQRT(C12)</f>
+        <v>0.31622776601683794</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C952BEC-7358-4CA0-BF4E-E0C04C614EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB576B-25BB-4CCA-A315-303B0B7AB80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="4" r:id="rId1"/>
@@ -662,37 +662,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.2</c:v>
@@ -752,37 +752,37 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,127 +959,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37731695875497728</c:v>
+                  <c:v>0.25184833824705466</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36119723523179753</c:v>
+                  <c:v>0.24713485295186788</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34776413229581438</c:v>
+                  <c:v>0.24320694853921221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.33639766058075177</c:v>
+                  <c:v>0.23988333711311896</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.32665497053926945</c:v>
+                  <c:v>0.23703452731932476</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.31821130583665147</c:v>
+                  <c:v>0.23456555883136976</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3108230992218608</c:v>
+                  <c:v>0.23240521140440915</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30430409338528075</c:v>
+                  <c:v>0.23049902249826745</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.29850942153054294</c:v>
+                  <c:v>0.22880463235947482</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.29332471513419855</c:v>
+                  <c:v>0.22728859907739721</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28865847937748867</c:v>
+                  <c:v>0.22592416912352734</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28919855178808446</c:v>
+                  <c:v>0.22945158964145462</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28968952670680786</c:v>
+                  <c:v>0.23265833556684307</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29013780815433798</c:v>
+                  <c:v>0.23558623402045858</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29054873281457388</c:v>
+                  <c:v>0.2382701409362728</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29092678350199092</c:v>
+                  <c:v>0.24073933529882191</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.291275753367299</c:v>
+                  <c:v>0.24301859163348261</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.29159887361295456</c:v>
+                  <c:v>0.24512901416557584</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.29189891384106331</c:v>
+                  <c:v>0.24708869223109098</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.29217826163964739</c:v>
+                  <c:v>0.24891322008519129</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.29243898625165921</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.29590869637257339</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2991615496109305</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.30221726022878109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.30509322316322873</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.30780484535856506</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.31036582187638267</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.31278836723107506</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.31508341019867836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.31726075865512249</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.31932923968874438</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,124 +1259,124 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96297127539850957</c:v>
+                  <c:v>0.97512965842601385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92731367724263203</c:v>
+                  <c:v>0.95087785074203446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89297643446881925</c:v>
+                  <c:v>0.92722919379894231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85991065600125238</c:v>
+                  <c:v>0.90416868703179076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82806926113829504</c:v>
+                  <c:v>0.88168170294480752</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79740691251664542</c:v>
+                  <c:v>0.85975397783303642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7678799515577418</c:v>
+                  <c:v>0.83837160273473554</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73944633630450429</c:v>
+                  <c:v>0.81752101460879245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.71206558155990374</c:v>
+                  <c:v>0.79718898773156011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.68569870124212184</c:v>
+                  <c:v>0.77736262530765599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67212095724569298</c:v>
+                  <c:v>0.76196981400482067</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65881207059389468</c:v>
+                  <c:v>0.74688180078732025</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64576671755461201</c:v>
+                  <c:v>0.73209255024869169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.63297967981268888</c:v>
+                  <c:v>0.71759614649152659</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.62044584238253231</c:v>
+                  <c:v>0.70338679076103439</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.60816019156205037</c:v>
+                  <c:v>0.68945879912546226</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.59611781292710386</c:v>
+                  <c:v>0.67580660020244676</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.58431388936567175</c:v>
+                  <c:v>0.66242473293038706</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5727436991509417</c:v>
+                  <c:v>0.64930784438394706</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56140261405255643</c:v>
+                  <c:v>0.63645068763281409</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.54481065932976036</c:v>
+                  <c:v>0.61764072713714113</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5287090709761838</c:v>
+                  <c:v>0.59938668498789149</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.51308335647541869</c:v>
+                  <c:v>0.58167213131494588</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.49791945162964713</c:v>
+                  <c:v>0.5644811218242306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.48320370790091349</c:v>
+                  <c:v>0.54779818344677589</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4689228801265195</c:v>
+                  <c:v>0.53160830041190998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.4550641145974833</c:v>
+                  <c:v>0.51589690073205152</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.44161493748933417</c:v>
+                  <c:v>0.5006498430869375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.42856324363482795</c:v>
+                  <c:v>0.48585340409547995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.41589728562847983</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.39958971980396069</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.38392158278148136</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.36886780219909165</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.35440428879621533</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.34050789786569369</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.32715639221731641</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.31432840659357286</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.30200341348068227</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2901616902601919</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.27878428764857993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_xll.TMX_DAY_COUNT_30_360()</f>
-        <v>140716431061820</v>
+        <v>140716368016338</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="E4" s="5" cm="1">
         <f t="array" ref="E4">_xll.TMX_DAY_COUNT_ACTUAL_360()</f>
-        <v>140716431054760</v>
+        <v>140716368009178</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="E5" s="5" cm="1">
         <f t="array" ref="E5">_xll.TMX_DAY_COUNT_ACTUAL_365()</f>
-        <v>140716431060195</v>
+        <v>140716368014703</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="E6" s="5" cm="1">
         <f t="array" ref="E6">_xll.TMX_DAY_COUNT_ACTUAL_ACTUAL()</f>
-        <v>140716431065320</v>
+        <v>140716368019948</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.TMX_DAY_COUNT_YEARS()</f>
-        <v>140716431096015</v>
+        <v>140716368051158</v>
       </c>
     </row>
   </sheetData>
@@ -4097,13 +4097,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E6F0E-62B3-47B5-8C49-DACF71BB425D}">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
@@ -4111,7 +4110,8 @@
         <v>45</v>
       </c>
       <c r="C2" s="9">
-        <v>100</v>
+        <f ca="1">50 + 100*RAND()</f>
+        <v>70.939913996476818</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -4119,7 +4119,8 @@
         <v>46</v>
       </c>
       <c r="C3" s="9">
-        <v>0.1</v>
+        <f ca="1">0.01 + 0.3*RAND()</f>
+        <v>0.20041430016721062</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -4127,7 +4128,8 @@
         <v>47</v>
       </c>
       <c r="C4" s="9">
-        <v>100</v>
+        <f ca="1">50 + 100*RAND()</f>
+        <v>83.06208725632095</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -4135,8 +4137,8 @@
         <v>48</v>
       </c>
       <c r="C5" cm="1">
-        <f t="array" ref="C5">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
-        <v>0.05</v>
+        <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
+        <v>0.88735223031421984</v>
       </c>
       <c r="D5">
         <v>1E-3</v>
@@ -4151,16 +4153,16 @@
         <v>19</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>3.987761167674492</v>
+        <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
+        <v>14.008170277852862</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" ref="D6">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
-        <v>3.9872811264024222</v>
+        <f t="array" aca="1" ref="D6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
+        <v>14.007416349856022</v>
       </c>
       <c r="E6" cm="1">
-        <f t="array" ref="E6">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
-        <v>3.9882412487909491</v>
+        <f t="array" aca="1" ref="E6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
+        <v>14.008924228012383</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -4168,12 +4170,16 @@
         <v>49</v>
       </c>
       <c r="C7" cm="1">
-        <f t="array" ref="C7">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
-        <v>-0.48006119416162751</v>
+        <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
+        <v>-0.75393907829029194</v>
       </c>
       <c r="D7">
-        <f>(D6-E6)/(D5-E5)</f>
-        <v>-0.48006119426347027</v>
+        <f ca="1">(D6-E6)/(D5-E5)</f>
+        <v>-0.7539390781801103</v>
+      </c>
+      <c r="E7">
+        <f ca="1">(C7-D7)/C7</f>
+        <v>1.461413060563573E-10</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -4181,12 +4187,16 @@
         <v>50</v>
       </c>
       <c r="C8" cm="1">
-        <f t="array" ref="C8">_xll.TMX.BLACK.PUT.GAMMA(f, s, k)</f>
-        <v>3.9844391409476404E-2</v>
+        <f t="array" aca="1" ref="C8" ca="1">_xll.TMX.BLACK.GAMMA(f, s, k)</f>
+        <v>2.2162689083151634E-2</v>
       </c>
       <c r="D8">
-        <f>(D6-2*C6+E6)/(D5^2)</f>
-        <v>3.984438734505602E-2</v>
+        <f ca="1">(D6-2*C6+E6)/(D5^2)</f>
+        <v>2.2162680579640437E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E9" ca="1" si="0">(C8-D8)/C8</f>
+        <v>3.8368589503592664E-7</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -4194,17 +4204,24 @@
         <v>51</v>
       </c>
       <c r="C9" cm="1">
-        <f t="array" ref="C9">_xll.TMX.BLACK.PUT.VEGA(f, s, k)</f>
-        <v>39.844391409476401</v>
+        <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.BLACK.VEGA(f, s, k)</f>
+        <v>22.35282796350889</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" ref="D9">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
-        <v>39.844389753440623</v>
+        <f t="array" aca="1" ref="D9" ca="1">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
+        <v>22.352689086613253</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2129452194352632E-6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4229,7 +4246,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45093</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -4238,7 +4255,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">10*RAND()</f>
-        <v>3.9318059039872058</v>
+        <v>8.6147521318205058</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4247,18 +4264,18 @@
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>46529.062615740739</v>
+        <v>48240.473599537036</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>46529.062615740739</v>
+        <v>48240.473599537036</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.DATE.ADD_YEARS(C4,-years)</f>
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">C5-date</f>
@@ -4271,18 +4288,18 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>3.9316344620354968</v>
+        <v>8.6134554439858455</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>46529</v>
+        <v>48240</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>46529</v>
+        <v>48240</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4327,7 +4344,7 @@
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.DATE.ADD_YMD(date, years_,months, days)</f>
-        <v>45523</v>
+        <v>45524</v>
       </c>
     </row>
   </sheetData>
@@ -4343,8 +4360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B429FC-4136-41AD-B308-B590D229D902}">
   <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4369,7 +4386,7 @@
       </c>
       <c r="I2" s="5" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>2534312649600</v>
+        <v>2982856661520</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
@@ -4390,7 +4407,7 @@
       </c>
       <c r="C3" s="15">
         <f ca="1">RAND()</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve_))</f>
@@ -4398,7 +4415,7 @@
       </c>
       <c r="F3" s="16">
         <f ca="1"/>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="3" t="s">
@@ -4413,11 +4430,11 @@
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K3)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K3)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K3)</f>
@@ -4441,22 +4458,22 @@
       </c>
       <c r="I4" s="5" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve, shift)</f>
-        <v>2534312650128</v>
+        <v>2982856666272</v>
       </c>
       <c r="K4">
         <v>0.1</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K4)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K4)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K4)</f>
-        <v>0.96297127539850957</v>
+        <v>0.97512965842601385</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -4485,15 +4502,15 @@
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K5)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K5)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K5)</f>
-        <v>0.92731367724263203</v>
+        <v>0.95087785074203446</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -4507,31 +4524,31 @@
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="F6">
-        <f ca="1"/>
-        <v>0.4</v>
+      <c r="F6" t="e">
+        <f ca="1"/>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="5" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">_xll.\TMX.PWFLAT.CURVE.TRANSLATE(I4, translate)</f>
-        <v>2534312638336</v>
+        <v>2982856670144</v>
       </c>
       <c r="K6">
         <v>0.30000000000000004</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K6)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K6)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K6)</f>
-        <v>0.89297643446881925</v>
+        <v>0.92722919379894231</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -4540,15 +4557,15 @@
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K7)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K7)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K7)</f>
-        <v>0.85991065600125238</v>
+        <v>0.90416868703179076</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -4557,15 +4574,15 @@
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K8)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K8)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N8" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K8)</f>
-        <v>0.82806926113829504</v>
+        <v>0.88168170294480752</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -4574,15 +4591,15 @@
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K9)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K9)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N9" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K9)</f>
-        <v>0.79740691251664542</v>
+        <v>0.85975397783303642</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -4591,15 +4608,15 @@
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K10)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K10)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K10)</f>
-        <v>0.7678799515577418</v>
+        <v>0.83837160273473554</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -4608,15 +4625,15 @@
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K11)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K11)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K11)</f>
-        <v>0.73944633630450429</v>
+        <v>0.81752101460879245</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -4625,15 +4642,15 @@
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K12)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K12)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N12" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K12)</f>
-        <v>0.71206558155990374</v>
+        <v>0.79718898773156011</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -4642,15 +4659,15 @@
       </c>
       <c r="L13" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K13)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K13)</f>
-        <v>0.37731695875497728</v>
+        <v>0.25184833824705466</v>
       </c>
       <c r="N13" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K13)</f>
-        <v>0.68569870124212184</v>
+        <v>0.77736262530765599</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -4663,11 +4680,11 @@
       </c>
       <c r="M14" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K14)</f>
-        <v>0.36119723523179753</v>
+        <v>0.24713485295186788</v>
       </c>
       <c r="N14" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K14)</f>
-        <v>0.67212095724569298</v>
+        <v>0.76196981400482067</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -4680,11 +4697,11 @@
       </c>
       <c r="M15" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K15)</f>
-        <v>0.34776413229581438</v>
+        <v>0.24320694853921221</v>
       </c>
       <c r="N15" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K15)</f>
-        <v>0.65881207059389468</v>
+        <v>0.74688180078732025</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -4697,11 +4714,11 @@
       </c>
       <c r="M16" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K16)</f>
-        <v>0.33639766058075177</v>
+        <v>0.23988333711311896</v>
       </c>
       <c r="N16" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K16)</f>
-        <v>0.64576671755461201</v>
+        <v>0.73209255024869169</v>
       </c>
     </row>
     <row r="17" spans="11:14" x14ac:dyDescent="0.3">
@@ -4714,11 +4731,11 @@
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K17)</f>
-        <v>0.32665497053926945</v>
+        <v>0.23703452731932476</v>
       </c>
       <c r="N17" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K17)</f>
-        <v>0.63297967981268888</v>
+        <v>0.71759614649152659</v>
       </c>
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.3">
@@ -4731,11 +4748,11 @@
       </c>
       <c r="M18" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K18)</f>
-        <v>0.31821130583665147</v>
+        <v>0.23456555883136976</v>
       </c>
       <c r="N18" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K18)</f>
-        <v>0.62044584238253231</v>
+        <v>0.70338679076103439</v>
       </c>
     </row>
     <row r="19" spans="11:14" x14ac:dyDescent="0.3">
@@ -4748,11 +4765,11 @@
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K19)</f>
-        <v>0.3108230992218608</v>
+        <v>0.23240521140440915</v>
       </c>
       <c r="N19" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K19)</f>
-        <v>0.60816019156205037</v>
+        <v>0.68945879912546226</v>
       </c>
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.3">
@@ -4765,11 +4782,11 @@
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K20)</f>
-        <v>0.30430409338528075</v>
+        <v>0.23049902249826745</v>
       </c>
       <c r="N20" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K20)</f>
-        <v>0.59611781292710386</v>
+        <v>0.67580660020244676</v>
       </c>
     </row>
     <row r="21" spans="11:14" x14ac:dyDescent="0.3">
@@ -4782,11 +4799,11 @@
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K21)</f>
-        <v>0.29850942153054294</v>
+        <v>0.22880463235947482</v>
       </c>
       <c r="N21" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K21)</f>
-        <v>0.58431388936567175</v>
+        <v>0.66242473293038706</v>
       </c>
     </row>
     <row r="22" spans="11:14" x14ac:dyDescent="0.3">
@@ -4799,11 +4816,11 @@
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K22)</f>
-        <v>0.29332471513419855</v>
+        <v>0.22728859907739721</v>
       </c>
       <c r="N22" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K22)</f>
-        <v>0.5727436991509417</v>
+        <v>0.64930784438394706</v>
       </c>
     </row>
     <row r="23" spans="11:14" x14ac:dyDescent="0.3">
@@ -4816,11 +4833,11 @@
       </c>
       <c r="M23" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K23)</f>
-        <v>0.28865847937748867</v>
+        <v>0.22592416912352734</v>
       </c>
       <c r="N23" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K23)</f>
-        <v>0.56140261405255643</v>
+        <v>0.63645068763281409</v>
       </c>
     </row>
     <row r="24" spans="11:14" x14ac:dyDescent="0.3">
@@ -4833,11 +4850,11 @@
       </c>
       <c r="M24" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K24)</f>
-        <v>0.28919855178808446</v>
+        <v>0.22945158964145462</v>
       </c>
       <c r="N24" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K24)</f>
-        <v>0.54481065932976036</v>
+        <v>0.61764072713714113</v>
       </c>
     </row>
     <row r="25" spans="11:14" x14ac:dyDescent="0.3">
@@ -4850,11 +4867,11 @@
       </c>
       <c r="M25" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K25)</f>
-        <v>0.28968952670680786</v>
+        <v>0.23265833556684307</v>
       </c>
       <c r="N25" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K25)</f>
-        <v>0.5287090709761838</v>
+        <v>0.59938668498789149</v>
       </c>
     </row>
     <row r="26" spans="11:14" x14ac:dyDescent="0.3">
@@ -4867,11 +4884,11 @@
       </c>
       <c r="M26" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K26)</f>
-        <v>0.29013780815433798</v>
+        <v>0.23558623402045858</v>
       </c>
       <c r="N26" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K26)</f>
-        <v>0.51308335647541869</v>
+        <v>0.58167213131494588</v>
       </c>
     </row>
     <row r="27" spans="11:14" x14ac:dyDescent="0.3">
@@ -4884,11 +4901,11 @@
       </c>
       <c r="M27" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K27)</f>
-        <v>0.29054873281457388</v>
+        <v>0.2382701409362728</v>
       </c>
       <c r="N27" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K27)</f>
-        <v>0.49791945162964713</v>
+        <v>0.5644811218242306</v>
       </c>
     </row>
     <row r="28" spans="11:14" x14ac:dyDescent="0.3">
@@ -4901,11 +4918,11 @@
       </c>
       <c r="M28" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K28)</f>
-        <v>0.29092678350199092</v>
+        <v>0.24073933529882191</v>
       </c>
       <c r="N28" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K28)</f>
-        <v>0.48320370790091349</v>
+        <v>0.54779818344677589</v>
       </c>
     </row>
     <row r="29" spans="11:14" x14ac:dyDescent="0.3">
@@ -4918,11 +4935,11 @@
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K29)</f>
-        <v>0.291275753367299</v>
+        <v>0.24301859163348261</v>
       </c>
       <c r="N29" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K29)</f>
-        <v>0.4689228801265195</v>
+        <v>0.53160830041190998</v>
       </c>
     </row>
     <row r="30" spans="11:14" x14ac:dyDescent="0.3">
@@ -4935,11 +4952,11 @@
       </c>
       <c r="M30" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K30)</f>
-        <v>0.29159887361295456</v>
+        <v>0.24512901416557584</v>
       </c>
       <c r="N30" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K30)</f>
-        <v>0.4550641145974833</v>
+        <v>0.51589690073205152</v>
       </c>
     </row>
     <row r="31" spans="11:14" x14ac:dyDescent="0.3">
@@ -4952,11 +4969,11 @@
       </c>
       <c r="M31" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K31)</f>
-        <v>0.29189891384106331</v>
+        <v>0.24708869223109098</v>
       </c>
       <c r="N31" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K31)</f>
-        <v>0.44161493748933417</v>
+        <v>0.5006498430869375</v>
       </c>
     </row>
     <row r="32" spans="11:14" x14ac:dyDescent="0.3">
@@ -4969,198 +4986,198 @@
       </c>
       <c r="M32" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K32)</f>
-        <v>0.29217826163964739</v>
+        <v>0.24891322008519129</v>
       </c>
       <c r="N32" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K32)</f>
-        <v>0.42856324363482795</v>
+        <v>0.48585340409547995</v>
       </c>
     </row>
     <row r="33" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K33">
         <v>3.0000000000000013</v>
       </c>
-      <c r="L33" cm="1">
+      <c r="L33" t="e" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K33)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M33" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M33" t="e" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K33)</f>
-        <v>0.29243898625165921</v>
-      </c>
-      <c r="N33" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N33" t="e" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K33)</f>
-        <v>0.41589728562847983</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="34" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K34">
         <v>3.1000000000000014</v>
       </c>
-      <c r="L34" cm="1">
+      <c r="L34" t="e" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K34)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M34" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M34" t="e" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K34)</f>
-        <v>0.29590869637257339</v>
-      </c>
-      <c r="N34" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N34" t="e" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K34)</f>
-        <v>0.39958971980396069</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="35" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K35">
         <v>3.2000000000000015</v>
       </c>
-      <c r="L35" cm="1">
+      <c r="L35" t="e" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K35)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M35" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M35" t="e" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K35)</f>
-        <v>0.2991615496109305</v>
-      </c>
-      <c r="N35" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N35" t="e" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K35)</f>
-        <v>0.38392158278148136</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="36" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K36">
         <v>3.3000000000000016</v>
       </c>
-      <c r="L36" cm="1">
+      <c r="L36" t="e" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K36)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M36" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M36" t="e" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K36)</f>
-        <v>0.30221726022878109</v>
-      </c>
-      <c r="N36" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N36" t="e" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K36)</f>
-        <v>0.36886780219909165</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="37" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K37">
         <v>3.4000000000000017</v>
       </c>
-      <c r="L37" cm="1">
+      <c r="L37" t="e" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K37)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M37" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M37" t="e" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K37)</f>
-        <v>0.30509322316322873</v>
-      </c>
-      <c r="N37" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N37" t="e" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K37)</f>
-        <v>0.35440428879621533</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="38" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K38">
         <v>3.5000000000000018</v>
       </c>
-      <c r="L38" cm="1">
+      <c r="L38" t="e" cm="1">
         <f t="array" aca="1" ref="L38" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K38)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M38" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M38" t="e" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K38)</f>
-        <v>0.30780484535856506</v>
-      </c>
-      <c r="N38" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N38" t="e" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K38)</f>
-        <v>0.34050789786569369</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="39" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K39">
         <v>3.6000000000000019</v>
       </c>
-      <c r="L39" cm="1">
+      <c r="L39" t="e" cm="1">
         <f t="array" aca="1" ref="L39" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K39)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M39" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M39" t="e" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K39)</f>
-        <v>0.31036582187638267</v>
-      </c>
-      <c r="N39" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N39" t="e" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K39)</f>
-        <v>0.32715639221731641</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="40" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K40">
         <v>3.700000000000002</v>
       </c>
-      <c r="L40" cm="1">
+      <c r="L40" t="e" cm="1">
         <f t="array" aca="1" ref="L40" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K40)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M40" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M40" t="e" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K40)</f>
-        <v>0.31278836723107506</v>
-      </c>
-      <c r="N40" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N40" t="e" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K40)</f>
-        <v>0.31432840659357286</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="41" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K41">
         <v>3.800000000000002</v>
       </c>
-      <c r="L41" cm="1">
+      <c r="L41" t="e" cm="1">
         <f t="array" aca="1" ref="L41" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K41)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M41" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M41" t="e" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K41)</f>
-        <v>0.31508341019867836</v>
-      </c>
-      <c r="N41" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N41" t="e" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K41)</f>
-        <v>0.30200341348068227</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="42" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K42">
         <v>3.9000000000000021</v>
       </c>
-      <c r="L42" cm="1">
+      <c r="L42" t="e" cm="1">
         <f t="array" aca="1" ref="L42" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K42)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M42" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M42" t="e" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K42)</f>
-        <v>0.31726075865512249</v>
-      </c>
-      <c r="N42" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N42" t="e" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K42)</f>
-        <v>0.2901616902601919</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="43" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K43">
         <v>4.0000000000000018</v>
       </c>
-      <c r="L43" cm="1">
+      <c r="L43" t="e" cm="1">
         <f t="array" aca="1" ref="L43" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K43)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M43" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="M43" t="e" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K43)</f>
-        <v>0.31932923968874438</v>
-      </c>
-      <c r="N43" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N43" t="e" cm="1">
         <f t="array" aca="1" ref="N43" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K43)</f>
-        <v>0.27878428764857993</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -5199,7 +5216,7 @@
       </c>
       <c r="E2" s="5" cm="1">
         <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
-        <v>2319073701568</v>
+        <v>2982917215248</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
@@ -5254,10 +5271,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="5">
-        <v>140716431061820</v>
+        <v>140716368016338</v>
       </c>
       <c r="F5" s="5">
-        <v>140716431061820</v>
+        <v>140716368016338</v>
       </c>
       <c r="G5" s="17" t="b">
         <f t="shared" si="0"/>
@@ -5270,7 +5287,7 @@
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
-        <v>2319073704352</v>
+        <v>2984500273248</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -5279,25 +5296,25 @@
       </c>
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45093</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5" t="e" cm="1">
+      <c r="C8" s="5" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
-        <v>#NUM!</v>
+        <v>2983253086896</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="20" t="e" cm="1">
+      <c r="C9" s="20" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
-        <v>#VALUE!</v>
+        <v>4.8786680314628891E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -5316,9 +5333,9 @@
       <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="20" t="e" cm="1">
+      <c r="C12" s="20" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(C9,12/_xll.ENUM(frequency))</f>
-        <v>#VALUE!</v>
+        <v>4.9996341958828738E-2</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -5334,85 +5351,122 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C14" t="e" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C14),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
-        <v>#VALUE!</v>
+      <c r="C14" cm="1">
+        <f t="array" aca="1" ref="C14:D17" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
+        <v>1.0020739645577939</v>
+      </c>
+      <c r="D14">
+        <f ca="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="2" cm="1">
+        <f t="array" aca="1" ref="E14:E17" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C14),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
+        <v>45460</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="2"/>
+      <c r="C15">
+        <f ca="1"/>
+        <v>2.0014100221085989</v>
+      </c>
+      <c r="D15">
+        <f ca="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="2">
+        <f ca="1"/>
+        <v>45824.999988425923</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E16" s="2"/>
+      <c r="C16">
+        <f ca="1"/>
+        <v>3.0007460796594043</v>
+      </c>
+      <c r="D16">
+        <f ca="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="2">
+        <f ca="1"/>
+        <v>46190</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="2"/>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f ca="1"/>
+        <v>4.0000821372102093</v>
+      </c>
+      <c r="D17">
+        <f ca="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="E17" s="2">
+        <f ca="1"/>
+        <v>46555</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
     </row>
@@ -7381,9 +7435,9 @@
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="e" cm="1">
+      <c r="G6" s="5" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xll.\TMX.BOOTSTRAP(instrument, price)</f>
-        <v>#NUM!</v>
+        <v>2982856662048</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
@@ -7404,11 +7458,11 @@
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>2319073702816</v>
+        <v>2982927163792</v>
       </c>
       <c r="F7" s="5" cm="1">
         <f t="array" ref="F7">_xll.\TMX.BOND.INSTRUMENT(E7, dated)</f>
-        <v>2319074063488</v>
+        <v>2983254600688</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7:H107">_xlfn.SEQUENCE(1+10/H5,1,0,H5)</f>
@@ -7416,7 +7470,7 @@
       </c>
       <c r="I7" s="21" t="e" cm="1">
         <f t="array" aca="1" ref="I7:I107" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(H7),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.VALUE(curve,_xlpm.t)))</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -7426,25 +7480,25 @@
       </c>
       <c r="C8" s="18">
         <f ca="1">0.05 + 0.01*RAND()</f>
-        <v>5.3918100718761297E-2</v>
+        <v>5.3318075122254296E-2</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="5" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>2534307269392</v>
+        <v>2984490708224</v>
       </c>
       <c r="F8" s="5" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
-        <v>2536171316944</v>
+        <v>2983253091856</v>
       </c>
       <c r="H8">
         <v>0.1</v>
       </c>
       <c r="I8" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -7459,18 +7513,18 @@
       </c>
       <c r="E9" s="5" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>2319073701280</v>
+        <v>2982917218896</v>
       </c>
       <c r="F9" s="5" cm="1">
         <f t="array" ref="F9">_xll.\TMX.BOND.INSTRUMENT(E9, dated)</f>
-        <v>2319074061040</v>
+        <v>2983254605808</v>
       </c>
       <c r="H9">
         <v>0.2</v>
       </c>
       <c r="I9" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -7485,18 +7539,18 @@
       </c>
       <c r="E10" s="5" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>2319073705696</v>
+        <v>2982927155824</v>
       </c>
       <c r="F10" s="5" cm="1">
         <f t="array" ref="F10">_xll.\TMX.BOND.INSTRUMENT(E10, dated)</f>
-        <v>2319074060032</v>
+        <v>2983254604208</v>
       </c>
       <c r="H10">
         <v>0.30000000000000004</v>
       </c>
       <c r="I10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -7511,18 +7565,18 @@
       </c>
       <c r="E11" s="5" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>2319073700512</v>
+        <v>2982927155728</v>
       </c>
       <c r="F11" s="5" cm="1">
         <f t="array" ref="F11">_xll.\TMX.BOND.INSTRUMENT(E11, dated)</f>
-        <v>2319074063776</v>
+        <v>2983254598928</v>
       </c>
       <c r="H11">
         <v>0.4</v>
       </c>
       <c r="I11" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -7537,18 +7591,18 @@
       </c>
       <c r="E12" s="5" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>2319073705600</v>
+        <v>2982927162160</v>
       </c>
       <c r="F12" s="5" cm="1">
         <f t="array" ref="F12">_xll.\TMX.BOND.INSTRUMENT(E12, dated)</f>
-        <v>2319074065360</v>
+        <v>2983254606128</v>
       </c>
       <c r="H12">
         <v>0.5</v>
       </c>
       <c r="I12" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -7563,18 +7617,18 @@
       </c>
       <c r="E13" s="5" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>2319073705792</v>
+        <v>2982927481312</v>
       </c>
       <c r="F13" s="5" cm="1">
         <f t="array" ref="F13">_xll.\TMX.BOND.INSTRUMENT(E13, dated)</f>
-        <v>2319074064352</v>
+        <v>2983254602608</v>
       </c>
       <c r="H13">
         <v>0.6</v>
       </c>
       <c r="I13" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -7589,18 +7643,18 @@
       </c>
       <c r="E14" s="5" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>2319073703392</v>
+        <v>2982917218320</v>
       </c>
       <c r="F14" s="5" cm="1">
         <f t="array" ref="F14">_xll.\TMX.BOND.INSTRUMENT(E14, dated)</f>
-        <v>2319074063632</v>
+        <v>2983254605488</v>
       </c>
       <c r="H14">
         <v>0.7</v>
       </c>
       <c r="I14" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -7615,18 +7669,18 @@
       </c>
       <c r="E15" s="5" cm="1">
         <f t="array" ref="E15">_xll.\TMX.BOND.SIMPLE(B15, C15)</f>
-        <v>2319073705504</v>
+        <v>2982917228784</v>
       </c>
       <c r="F15" s="5" cm="1">
         <f t="array" ref="F15">_xll.\TMX.BOND.INSTRUMENT(E15, dated)</f>
-        <v>2319074063344</v>
+        <v>2983254603088</v>
       </c>
       <c r="H15">
         <v>0.79999999999999993</v>
       </c>
       <c r="I15" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -7641,18 +7695,18 @@
       </c>
       <c r="E16" s="5" cm="1">
         <f t="array" ref="E16">_xll.\TMX.BOND.SIMPLE(B16, C16)</f>
-        <v>2319073700608</v>
+        <v>2982917218224</v>
       </c>
       <c r="F16" s="5" cm="1">
         <f t="array" ref="F16">_xll.\TMX.BOND.INSTRUMENT(E16, dated)</f>
-        <v>2319074066800</v>
+        <v>2983254601808</v>
       </c>
       <c r="H16">
         <v>0.89999999999999991</v>
       </c>
       <c r="I16" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="17" spans="8:11" x14ac:dyDescent="0.3">
@@ -7661,7 +7715,7 @@
       </c>
       <c r="I17" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="18" spans="8:11" x14ac:dyDescent="0.3">
@@ -7670,7 +7724,7 @@
       </c>
       <c r="I18" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="19" spans="8:11" x14ac:dyDescent="0.3">
@@ -7679,7 +7733,7 @@
       </c>
       <c r="I19" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="20" spans="8:11" x14ac:dyDescent="0.3">
@@ -7688,7 +7742,7 @@
       </c>
       <c r="I20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="21" spans="8:11" x14ac:dyDescent="0.3">
@@ -7697,11 +7751,11 @@
       </c>
       <c r="I21" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="K21" t="e" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve, H21)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="22" spans="8:11" x14ac:dyDescent="0.3">
@@ -7710,7 +7764,7 @@
       </c>
       <c r="I22" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="23" spans="8:11" x14ac:dyDescent="0.3">
@@ -7719,7 +7773,7 @@
       </c>
       <c r="I23" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="24" spans="8:11" x14ac:dyDescent="0.3">
@@ -7728,7 +7782,7 @@
       </c>
       <c r="I24" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="8:11" x14ac:dyDescent="0.3">
@@ -7737,7 +7791,7 @@
       </c>
       <c r="I25" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="26" spans="8:11" x14ac:dyDescent="0.3">
@@ -7746,7 +7800,7 @@
       </c>
       <c r="I26" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="27" spans="8:11" x14ac:dyDescent="0.3">
@@ -7755,7 +7809,7 @@
       </c>
       <c r="I27" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="28" spans="8:11" x14ac:dyDescent="0.3">
@@ -7764,7 +7818,7 @@
       </c>
       <c r="I28" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="29" spans="8:11" x14ac:dyDescent="0.3">
@@ -7773,7 +7827,7 @@
       </c>
       <c r="I29" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="30" spans="8:11" x14ac:dyDescent="0.3">
@@ -7782,7 +7836,7 @@
       </c>
       <c r="I30" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="31" spans="8:11" x14ac:dyDescent="0.3">
@@ -7791,7 +7845,7 @@
       </c>
       <c r="I31" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="32" spans="8:11" x14ac:dyDescent="0.3">
@@ -7800,7 +7854,7 @@
       </c>
       <c r="I32" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -7809,7 +7863,7 @@
       </c>
       <c r="I33" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -7818,7 +7872,7 @@
       </c>
       <c r="I34" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
@@ -7827,7 +7881,7 @@
       </c>
       <c r="I35" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
@@ -7836,7 +7890,7 @@
       </c>
       <c r="I36" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
@@ -7845,7 +7899,7 @@
       </c>
       <c r="I37" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
@@ -7854,7 +7908,7 @@
       </c>
       <c r="I38" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
@@ -7863,7 +7917,7 @@
       </c>
       <c r="I39" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.3">
@@ -7872,7 +7926,7 @@
       </c>
       <c r="I40" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.3">
@@ -7881,7 +7935,7 @@
       </c>
       <c r="I41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.3">
@@ -7890,7 +7944,7 @@
       </c>
       <c r="I42" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.3">
@@ -7899,7 +7953,7 @@
       </c>
       <c r="I43" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.3">
@@ -7908,7 +7962,7 @@
       </c>
       <c r="I44" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.3">
@@ -7917,7 +7971,7 @@
       </c>
       <c r="I45" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.3">
@@ -7926,7 +7980,7 @@
       </c>
       <c r="I46" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.3">
@@ -7935,7 +7989,7 @@
       </c>
       <c r="I47" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.3">
@@ -7944,7 +7998,7 @@
       </c>
       <c r="I48" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
@@ -7953,7 +8007,7 @@
       </c>
       <c r="I49" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
@@ -7962,7 +8016,7 @@
       </c>
       <c r="I50" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
@@ -7971,7 +8025,7 @@
       </c>
       <c r="I51" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
@@ -7980,7 +8034,7 @@
       </c>
       <c r="I52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
@@ -7989,7 +8043,7 @@
       </c>
       <c r="I53" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
@@ -7998,7 +8052,7 @@
       </c>
       <c r="I54" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
@@ -8007,7 +8061,7 @@
       </c>
       <c r="I55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
@@ -8016,7 +8070,7 @@
       </c>
       <c r="I56" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
@@ -8025,7 +8079,7 @@
       </c>
       <c r="I57" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
@@ -8034,7 +8088,7 @@
       </c>
       <c r="I58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
@@ -8043,7 +8097,7 @@
       </c>
       <c r="I59" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
@@ -8052,7 +8106,7 @@
       </c>
       <c r="I60" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
@@ -8061,7 +8115,7 @@
       </c>
       <c r="I61" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
@@ -8070,7 +8124,7 @@
       </c>
       <c r="I62" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.3">
@@ -8079,7 +8133,7 @@
       </c>
       <c r="I63" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.3">
@@ -8088,7 +8142,7 @@
       </c>
       <c r="I64" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.3">
@@ -8097,7 +8151,7 @@
       </c>
       <c r="I65" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.3">
@@ -8106,7 +8160,7 @@
       </c>
       <c r="I66" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.3">
@@ -8115,7 +8169,7 @@
       </c>
       <c r="I67" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.3">
@@ -8124,7 +8178,7 @@
       </c>
       <c r="I68" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.3">
@@ -8133,7 +8187,7 @@
       </c>
       <c r="I69" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.3">
@@ -8142,7 +8196,7 @@
       </c>
       <c r="I70" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.3">
@@ -8151,7 +8205,7 @@
       </c>
       <c r="I71" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.3">
@@ -8160,7 +8214,7 @@
       </c>
       <c r="I72" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.3">
@@ -8169,7 +8223,7 @@
       </c>
       <c r="I73" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.3">
@@ -8178,7 +8232,7 @@
       </c>
       <c r="I74" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.3">
@@ -8187,7 +8241,7 @@
       </c>
       <c r="I75" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.3">
@@ -8196,7 +8250,7 @@
       </c>
       <c r="I76" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.3">
@@ -8205,7 +8259,7 @@
       </c>
       <c r="I77" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.3">
@@ -8214,7 +8268,7 @@
       </c>
       <c r="I78" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.3">
@@ -8223,7 +8277,7 @@
       </c>
       <c r="I79" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.3">
@@ -8232,7 +8286,7 @@
       </c>
       <c r="I80" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.3">
@@ -8241,7 +8295,7 @@
       </c>
       <c r="I81" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.3">
@@ -8250,7 +8304,7 @@
       </c>
       <c r="I82" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.3">
@@ -8259,7 +8313,7 @@
       </c>
       <c r="I83" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.3">
@@ -8268,7 +8322,7 @@
       </c>
       <c r="I84" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.3">
@@ -8277,7 +8331,7 @@
       </c>
       <c r="I85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.3">
@@ -8286,7 +8340,7 @@
       </c>
       <c r="I86" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.3">
@@ -8295,7 +8349,7 @@
       </c>
       <c r="I87" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.3">
@@ -8304,7 +8358,7 @@
       </c>
       <c r="I88" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.3">
@@ -8313,7 +8367,7 @@
       </c>
       <c r="I89" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.3">
@@ -8322,7 +8376,7 @@
       </c>
       <c r="I90" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.3">
@@ -8331,7 +8385,7 @@
       </c>
       <c r="I91" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.3">
@@ -8340,7 +8394,7 @@
       </c>
       <c r="I92" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.3">
@@ -8349,7 +8403,7 @@
       </c>
       <c r="I93" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.3">
@@ -8358,7 +8412,7 @@
       </c>
       <c r="I94" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.3">
@@ -8367,7 +8421,7 @@
       </c>
       <c r="I95" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.3">
@@ -8376,7 +8430,7 @@
       </c>
       <c r="I96" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.3">
@@ -8385,7 +8439,7 @@
       </c>
       <c r="I97" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.3">
@@ -8394,7 +8448,7 @@
       </c>
       <c r="I98" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.3">
@@ -8403,7 +8457,7 @@
       </c>
       <c r="I99" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.3">
@@ -8412,7 +8466,7 @@
       </c>
       <c r="I100" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.3">
@@ -8421,7 +8475,7 @@
       </c>
       <c r="I101" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.3">
@@ -8430,7 +8484,7 @@
       </c>
       <c r="I102" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.3">
@@ -8439,7 +8493,7 @@
       </c>
       <c r="I103" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.3">
@@ -8448,7 +8502,7 @@
       </c>
       <c r="I104" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.3">
@@ -8457,7 +8511,7 @@
       </c>
       <c r="I105" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.3">
@@ -8466,7 +8520,7 @@
       </c>
       <c r="I106" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.3">
@@ -8475,7 +8529,7 @@
       </c>
       <c r="I107" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -8489,7 +8543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE10814-8BAC-41F3-9E28-9FC194E23C82}">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -8559,7 +8613,7 @@
       </c>
       <c r="C8">
         <f ca="1">EXP(-r_*(u-t)-σ^2*(u-t)^3/6-σ*(u-t)*_xlfn.NORM.S.INV(RAND())*SQRT(t))</f>
-        <v>0.18096584160211318</v>
+        <v>0.43184198897970238</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -8568,7 +8622,7 @@
       </c>
       <c r="C9">
         <f ca="1">LN(C8)</f>
-        <v>-1.7094469859565664</v>
+        <v>-0.83969552389750657</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">

--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB576B-25BB-4CCA-A315-303B0B7AB80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0823582-6D0A-4E41-8280-228E726DE51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
+    <workbookView xWindow="1500" yWindow="1350" windowWidth="27030" windowHeight="14130" activeTab="5" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="4" r:id="rId1"/>
@@ -60,6 +60,7 @@
     <definedName name="σ">'Ho-Lee'!$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>maturity</t>
   </si>
@@ -168,15 +169,6 @@
   </si>
   <si>
     <t>discount</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>translate</t>
-  </si>
-  <si>
-    <t>curve_</t>
   </si>
   <si>
     <t>frequency</t>
@@ -506,7 +498,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>value</c:v>
+                  <c:v>forward</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -662,37 +654,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.2</c:v>
@@ -752,37 +744,37 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,127 +951,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25184833824705466</c:v>
+                  <c:v>0.95851248793963784</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24713485295186788</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24320694853921221</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23988333711311896</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23703452731932476</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.23456555883136976</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23240521140440915</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23049902249826745</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22880463235947482</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22728859907739721</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.22592416912352734</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.22945158964145462</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.23265833556684307</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23558623402045858</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2382701409362728</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.24073933529882191</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.24301859163348261</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.24512901416557584</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.24708869223109098</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.24891322008519129</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,124 +1251,124 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97512965842601385</c:v>
+                  <c:v>0.90859916123799112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95087785074203446</c:v>
+                  <c:v>0.82555243580238102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92722919379894231</c:v>
+                  <c:v>0.75009625072802388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90416868703179076</c:v>
+                  <c:v>0.68153682425924444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88168170294480752</c:v>
+                  <c:v>0.61924378687475368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85975397783303642</c:v>
+                  <c:v>0.56264438535623851</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83837160273473554</c:v>
+                  <c:v>0.51121821660994338</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81752101460879245</c:v>
+                  <c:v>0.46449244282137631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79718898773156011</c:v>
+                  <c:v>0.42203744394888804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77736262530765599</c:v>
+                  <c:v>0.38346286758298537</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76196981400482067</c:v>
+                  <c:v>0.37586979406724619</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74688180078732025</c:v>
+                  <c:v>0.36842707348079806</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73209255024869169</c:v>
+                  <c:v>0.36113172863616871</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.71759614649152659</c:v>
+                  <c:v>0.35398084129814772</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.70338679076103439</c:v>
+                  <c:v>0.34697155101645349</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.68945879912546226</c:v>
+                  <c:v>0.34010105398151486</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.67580660020244676</c:v>
+                  <c:v>0.33336660190291001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66242473293038706</c:v>
+                  <c:v>0.32676550091001366</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64930784438394706</c:v>
+                  <c:v>0.32029511047441273</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.63645068763281409</c:v>
+                  <c:v>0.31395284235366</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.61764072713714113</c:v>
+                  <c:v>0.30467413360696821</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.59938668498789149</c:v>
+                  <c:v>0.29566965214664376</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.58167213131494588</c:v>
+                  <c:v>0.28693129333155148</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5644811218242306</c:v>
+                  <c:v>0.27845119204890095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.54779818344677589</c:v>
+                  <c:v>0.27022171563511382</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.53160830041190998</c:v>
+                  <c:v>0.26223545700591128</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.51589690073205152</c:v>
+                  <c:v>0.25448522798943846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5006498430869375</c:v>
+                  <c:v>0.24696405285642434</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.48585340409547995</c:v>
+                  <c:v>0.23966516204155472</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.2325819860504062</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.22346231593430321</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.21470023319819845</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.20628171664037007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.1981932948382796</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.19042202459142168</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.18295547020944194</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.17578168361237931</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.16888918521118904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.16226694553795112</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.15590436759636864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,7 +1993,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.951694157529863E-312</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4008,84 +4000,84 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.TMX_FREQUENCY_ANNUALLY()</f>
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_xll.TMX_DAY_COUNT_30_360()</f>
-        <v>140716368016338</v>
+        <v>140716946699303</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.TMX_FREQUENCY_SEMIANNUALLY()</f>
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" cm="1">
         <f t="array" ref="E4">_xll.TMX_DAY_COUNT_ACTUAL_360()</f>
-        <v>140716368009178</v>
+        <v>140716946692093</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.TMX_FREQUENCY_QUARTERLY()</f>
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" cm="1">
         <f t="array" ref="E5">_xll.TMX_DAY_COUNT_ACTUAL_365()</f>
-        <v>140716368014703</v>
+        <v>140716946697698</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.TMX_FREQUENCY_MONTHLY()</f>
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5" cm="1">
         <f t="array" ref="E6">_xll.TMX_DAY_COUNT_ACTUAL_ACTUAL()</f>
-        <v>140716368019948</v>
+        <v>140716946702828</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.TMX_DAY_COUNT_YEARS()</f>
-        <v>140716368051158</v>
+        <v>140716946733953</v>
       </c>
     </row>
   </sheetData>
@@ -4107,38 +4099,38 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9">
         <f ca="1">50 + 100*RAND()</f>
-        <v>70.939913996476818</v>
+        <v>143.54256009219088</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9">
         <f ca="1">0.01 + 0.3*RAND()</f>
-        <v>0.20041430016721062</v>
+        <v>0.14724310424841439</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">50 + 100*RAND()</f>
-        <v>83.06208725632095</v>
+        <v>103.83770923644002</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
-        <v>0.88735223031421984</v>
+        <v>-2.1254789537184884</v>
       </c>
       <c r="D5">
         <v>1E-3</v>
@@ -4154,66 +4146,66 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>14.008170277852862</v>
+        <v>8.7883691274255105E-2</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
-        <v>14.007416349856022</v>
+        <v>8.787217052021834E-2</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
-        <v>14.008924228012383</v>
+        <v>8.7895213454794785E-2</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
-        <v>-0.75393907829029194</v>
+        <v>-1.1521467267824437E-2</v>
       </c>
       <c r="D7">
         <f ca="1">(D6-E6)/(D5-E5)</f>
-        <v>-0.7539390781801103</v>
+        <v>-1.1521467288222453E-2</v>
       </c>
       <c r="E7">
         <f ca="1">(C7-D7)/C7</f>
-        <v>1.461413060563573E-10</v>
+        <v>-1.7704356689100097E-9</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.TMX.BLACK.GAMMA(f, s, k)</f>
-        <v>2.2162689083151634E-2</v>
+        <v>1.4264982714608458E-3</v>
       </c>
       <c r="D8">
         <f ca="1">(D6-2*C6+E6)/(D5^2)</f>
-        <v>2.2162680579640437E-2</v>
+        <v>1.4265029157911613E-3</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E9" ca="1" si="0">(C8-D8)/C8</f>
-        <v>3.8368589503592664E-7</v>
+        <v>-3.2557560064581962E-6</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.BLACK.VEGA(f, s, k)</f>
-        <v>22.35282796350889</v>
+        <v>4.3278040590029576</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
-        <v>22.352689086613253</v>
+        <v>4.3280975397321786</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2129452194352632E-6</v>
+        <v>-6.7812850401685303E-5</v>
       </c>
     </row>
   </sheetData>
@@ -4246,7 +4238,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45094</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -4255,7 +4247,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">10*RAND()</f>
-        <v>8.6147521318205058</v>
+        <v>5.2546234533343394</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4264,18 +4256,18 @@
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>48240.473599537036</v>
+        <v>47021.211805555555</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>48240.473599537036</v>
+        <v>47021.211805555555</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.DATE.ADD_YEARS(C4,-years)</f>
-        <v>45094</v>
+        <v>45102</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">C5-date</f>
@@ -4288,18 +4280,18 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>8.6134554439858455</v>
+        <v>5.2540435464109461</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>48240</v>
+        <v>47021</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>48240</v>
+        <v>47021</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4344,7 +4336,7 @@
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.DATE.ADD_YMD(date, years_,months, days)</f>
-        <v>45524</v>
+        <v>45532</v>
       </c>
     </row>
   </sheetData>
@@ -4360,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B429FC-4136-41AD-B308-B590D229D902}">
   <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4386,13 +4378,13 @@
       </c>
       <c r="I2" s="5" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>2982856661520</v>
+        <v>1204148810288</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>20</v>
@@ -4407,37 +4399,32 @@
       </c>
       <c r="C3" s="15">
         <f ca="1">RAND()</f>
-        <v>0.25184833824705466</v>
+        <v>0.95851248793963784</v>
       </c>
       <c r="E3" cm="1">
-        <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve_))</f>
+        <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve))</f>
         <v>1</v>
       </c>
       <c r="F3" s="16">
         <f ca="1"/>
-        <v>0.25184833824705466</v>
+        <v>0.95851248793963784</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="K3" cm="1">
         <f t="array" ref="K3:K43">_xlfn.SEQUENCE(1+4/0.1,1,0,0.1)</f>
         <v>0</v>
       </c>
       <c r="L3" cm="1">
-        <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K3)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K3)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M3" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K3)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K3)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N3" cm="1">
-        <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K3)</f>
+        <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K3)</f>
         <v>1</v>
       </c>
     </row>
@@ -4456,24 +4443,21 @@
         <f ca="1"/>
         <v>0.2</v>
       </c>
-      <c r="I4" s="5" cm="1">
-        <f t="array" aca="1" ref="I4" ca="1">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve, shift)</f>
-        <v>2982856666272</v>
-      </c>
+      <c r="I4" s="5"/>
       <c r="K4">
         <v>0.1</v>
       </c>
       <c r="L4" cm="1">
-        <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K4)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K4)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M4" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K4)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K4)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N4" cm="1">
-        <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K4)</f>
-        <v>0.97512965842601385</v>
+        <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K4)</f>
+        <v>0.90859916123799112</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -4491,26 +4475,21 @@
         <f ca="1"/>
         <v>0.3</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="K5">
         <v>0.2</v>
       </c>
       <c r="L5" cm="1">
-        <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K5)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K5)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M5" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K5)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K5)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N5" cm="1">
-        <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K5)</f>
-        <v>0.95087785074203446</v>
+        <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K5)</f>
+        <v>0.82555243580238102</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -4524,31 +4503,26 @@
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="F6" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="5" cm="1">
-        <f t="array" aca="1" ref="I6" ca="1">_xll.\TMX.PWFLAT.CURVE.TRANSLATE(I4, translate)</f>
-        <v>2982856670144</v>
-      </c>
+      <c r="F6">
+        <f ca="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5"/>
       <c r="K6">
         <v>0.30000000000000004</v>
       </c>
       <c r="L6" cm="1">
-        <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K6)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K6)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M6" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K6)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K6)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N6" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K6)</f>
-        <v>0.92722919379894231</v>
+        <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K6)</f>
+        <v>0.75009625072802388</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -4556,16 +4530,16 @@
         <v>0.4</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K7)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K7)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K7)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K7)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K7)</f>
-        <v>0.90416868703179076</v>
+        <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K7)</f>
+        <v>0.68153682425924444</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -4573,16 +4547,16 @@
         <v>0.5</v>
       </c>
       <c r="L8" cm="1">
-        <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K8)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K8)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M8" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K8)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K8)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N8" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K8)</f>
-        <v>0.88168170294480752</v>
+        <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K8)</f>
+        <v>0.61924378687475368</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -4590,16 +4564,16 @@
         <v>0.6</v>
       </c>
       <c r="L9" cm="1">
-        <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K9)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K9)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M9" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K9)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K9)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N9" cm="1">
-        <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K9)</f>
-        <v>0.85975397783303642</v>
+        <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K9)</f>
+        <v>0.56264438535623851</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -4607,16 +4581,16 @@
         <v>0.7</v>
       </c>
       <c r="L10" cm="1">
-        <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K10)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K10)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M10" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K10)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K10)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N10" cm="1">
-        <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K10)</f>
-        <v>0.83837160273473554</v>
+        <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K10)</f>
+        <v>0.51121821660994338</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -4624,16 +4598,16 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="L11" cm="1">
-        <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K11)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K11)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M11" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K11)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K11)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N11" cm="1">
-        <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K11)</f>
-        <v>0.81752101460879245</v>
+        <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K11)</f>
+        <v>0.46449244282137631</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -4641,16 +4615,16 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="L12" cm="1">
-        <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K12)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K12)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M12" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K12)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K12)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N12" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K12)</f>
-        <v>0.79718898773156011</v>
+        <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K12)</f>
+        <v>0.42203744394888804</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -4658,16 +4632,16 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="L13" cm="1">
-        <f t="array" aca="1" ref="L13" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K13)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="L13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K13)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="M13" cm="1">
-        <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K13)</f>
-        <v>0.25184833824705466</v>
+        <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K13)</f>
+        <v>0.95851248793963784</v>
       </c>
       <c r="N13" cm="1">
-        <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K13)</f>
-        <v>0.77736262530765599</v>
+        <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K13)</f>
+        <v>0.38346286758298537</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -4675,16 +4649,16 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="L14" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K14)</f>
+        <f t="array" aca="1" ref="L14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K14)</f>
         <v>0.2</v>
       </c>
       <c r="M14" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K14)</f>
-        <v>0.24713485295186788</v>
+        <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K14)</f>
+        <v>0.2</v>
       </c>
       <c r="N14" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K14)</f>
-        <v>0.76196981400482067</v>
+        <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K14)</f>
+        <v>0.37586979406724619</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -4692,16 +4666,16 @@
         <v>1.2</v>
       </c>
       <c r="L15" cm="1">
-        <f t="array" aca="1" ref="L15" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K15)</f>
+        <f t="array" aca="1" ref="L15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K15)</f>
         <v>0.2</v>
       </c>
       <c r="M15" cm="1">
-        <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K15)</f>
-        <v>0.24320694853921221</v>
+        <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K15)</f>
+        <v>0.2</v>
       </c>
       <c r="N15" cm="1">
-        <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K15)</f>
-        <v>0.74688180078732025</v>
+        <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K15)</f>
+        <v>0.36842707348079806</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -4709,16 +4683,16 @@
         <v>1.3</v>
       </c>
       <c r="L16" cm="1">
-        <f t="array" aca="1" ref="L16" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K16)</f>
+        <f t="array" aca="1" ref="L16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K16)</f>
         <v>0.2</v>
       </c>
       <c r="M16" cm="1">
-        <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K16)</f>
-        <v>0.23988333711311896</v>
+        <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K16)</f>
+        <v>0.2</v>
       </c>
       <c r="N16" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K16)</f>
-        <v>0.73209255024869169</v>
+        <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K16)</f>
+        <v>0.36113172863616871</v>
       </c>
     </row>
     <row r="17" spans="11:14" x14ac:dyDescent="0.3">
@@ -4726,16 +4700,16 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="L17" cm="1">
-        <f t="array" aca="1" ref="L17" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K17)</f>
+        <f t="array" aca="1" ref="L17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K17)</f>
         <v>0.2</v>
       </c>
       <c r="M17" cm="1">
-        <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K17)</f>
-        <v>0.23703452731932476</v>
+        <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K17)</f>
+        <v>0.2</v>
       </c>
       <c r="N17" cm="1">
-        <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K17)</f>
-        <v>0.71759614649152659</v>
+        <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K17)</f>
+        <v>0.35398084129814772</v>
       </c>
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.3">
@@ -4743,16 +4717,16 @@
         <v>1.5000000000000002</v>
       </c>
       <c r="L18" cm="1">
-        <f t="array" aca="1" ref="L18" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K18)</f>
+        <f t="array" aca="1" ref="L18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K18)</f>
         <v>0.2</v>
       </c>
       <c r="M18" cm="1">
-        <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K18)</f>
-        <v>0.23456555883136976</v>
+        <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K18)</f>
+        <v>0.2</v>
       </c>
       <c r="N18" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K18)</f>
-        <v>0.70338679076103439</v>
+        <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K18)</f>
+        <v>0.34697155101645349</v>
       </c>
     </row>
     <row r="19" spans="11:14" x14ac:dyDescent="0.3">
@@ -4760,16 +4734,16 @@
         <v>1.6000000000000003</v>
       </c>
       <c r="L19" cm="1">
-        <f t="array" aca="1" ref="L19" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K19)</f>
+        <f t="array" aca="1" ref="L19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K19)</f>
         <v>0.2</v>
       </c>
       <c r="M19" cm="1">
-        <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K19)</f>
-        <v>0.23240521140440915</v>
+        <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K19)</f>
+        <v>0.2</v>
       </c>
       <c r="N19" cm="1">
-        <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K19)</f>
-        <v>0.68945879912546226</v>
+        <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K19)</f>
+        <v>0.34010105398151486</v>
       </c>
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.3">
@@ -4777,16 +4751,16 @@
         <v>1.7000000000000004</v>
       </c>
       <c r="L20" cm="1">
-        <f t="array" aca="1" ref="L20" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K20)</f>
+        <f t="array" aca="1" ref="L20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K20)</f>
         <v>0.2</v>
       </c>
       <c r="M20" cm="1">
-        <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K20)</f>
-        <v>0.23049902249826745</v>
+        <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K20)</f>
+        <v>0.2</v>
       </c>
       <c r="N20" cm="1">
-        <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K20)</f>
-        <v>0.67580660020244676</v>
+        <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K20)</f>
+        <v>0.33336660190291001</v>
       </c>
     </row>
     <row r="21" spans="11:14" x14ac:dyDescent="0.3">
@@ -4794,16 +4768,16 @@
         <v>1.8000000000000005</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K21)</f>
+        <f t="array" aca="1" ref="L21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K21)</f>
         <v>0.2</v>
       </c>
       <c r="M21" cm="1">
-        <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K21)</f>
-        <v>0.22880463235947482</v>
+        <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K21)</f>
+        <v>0.2</v>
       </c>
       <c r="N21" cm="1">
-        <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K21)</f>
-        <v>0.66242473293038706</v>
+        <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K21)</f>
+        <v>0.32676550091001366</v>
       </c>
     </row>
     <row r="22" spans="11:14" x14ac:dyDescent="0.3">
@@ -4811,16 +4785,16 @@
         <v>1.9000000000000006</v>
       </c>
       <c r="L22" cm="1">
-        <f t="array" aca="1" ref="L22" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K22)</f>
+        <f t="array" aca="1" ref="L22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K22)</f>
         <v>0.2</v>
       </c>
       <c r="M22" cm="1">
-        <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K22)</f>
-        <v>0.22728859907739721</v>
+        <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K22)</f>
+        <v>0.2</v>
       </c>
       <c r="N22" cm="1">
-        <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K22)</f>
-        <v>0.64930784438394706</v>
+        <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K22)</f>
+        <v>0.32029511047441273</v>
       </c>
     </row>
     <row r="23" spans="11:14" x14ac:dyDescent="0.3">
@@ -4828,16 +4802,16 @@
         <v>2.0000000000000004</v>
       </c>
       <c r="L23" cm="1">
-        <f t="array" aca="1" ref="L23" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K23)</f>
+        <f t="array" aca="1" ref="L23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K23)</f>
         <v>0.3</v>
       </c>
       <c r="M23" cm="1">
-        <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K23)</f>
-        <v>0.22592416912352734</v>
+        <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K23)</f>
+        <v>0.3</v>
       </c>
       <c r="N23" cm="1">
-        <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K23)</f>
-        <v>0.63645068763281409</v>
+        <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K23)</f>
+        <v>0.31395284235366</v>
       </c>
     </row>
     <row r="24" spans="11:14" x14ac:dyDescent="0.3">
@@ -4845,16 +4819,16 @@
         <v>2.1000000000000005</v>
       </c>
       <c r="L24" cm="1">
-        <f t="array" aca="1" ref="L24" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K24)</f>
+        <f t="array" aca="1" ref="L24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K24)</f>
         <v>0.3</v>
       </c>
       <c r="M24" cm="1">
-        <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K24)</f>
-        <v>0.22945158964145462</v>
+        <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K24)</f>
+        <v>0.3</v>
       </c>
       <c r="N24" cm="1">
-        <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K24)</f>
-        <v>0.61764072713714113</v>
+        <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K24)</f>
+        <v>0.30467413360696821</v>
       </c>
     </row>
     <row r="25" spans="11:14" x14ac:dyDescent="0.3">
@@ -4862,16 +4836,16 @@
         <v>2.2000000000000006</v>
       </c>
       <c r="L25" cm="1">
-        <f t="array" aca="1" ref="L25" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K25)</f>
+        <f t="array" aca="1" ref="L25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K25)</f>
         <v>0.3</v>
       </c>
       <c r="M25" cm="1">
-        <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K25)</f>
-        <v>0.23265833556684307</v>
+        <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K25)</f>
+        <v>0.3</v>
       </c>
       <c r="N25" cm="1">
-        <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K25)</f>
-        <v>0.59938668498789149</v>
+        <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K25)</f>
+        <v>0.29566965214664376</v>
       </c>
     </row>
     <row r="26" spans="11:14" x14ac:dyDescent="0.3">
@@ -4879,16 +4853,16 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="L26" cm="1">
-        <f t="array" aca="1" ref="L26" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K26)</f>
+        <f t="array" aca="1" ref="L26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K26)</f>
         <v>0.3</v>
       </c>
       <c r="M26" cm="1">
-        <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K26)</f>
-        <v>0.23558623402045858</v>
+        <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K26)</f>
+        <v>0.3</v>
       </c>
       <c r="N26" cm="1">
-        <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K26)</f>
-        <v>0.58167213131494588</v>
+        <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K26)</f>
+        <v>0.28693129333155148</v>
       </c>
     </row>
     <row r="27" spans="11:14" x14ac:dyDescent="0.3">
@@ -4896,16 +4870,16 @@
         <v>2.4000000000000008</v>
       </c>
       <c r="L27" cm="1">
-        <f t="array" aca="1" ref="L27" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K27)</f>
+        <f t="array" aca="1" ref="L27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K27)</f>
         <v>0.3</v>
       </c>
       <c r="M27" cm="1">
-        <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K27)</f>
-        <v>0.2382701409362728</v>
+        <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K27)</f>
+        <v>0.3</v>
       </c>
       <c r="N27" cm="1">
-        <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K27)</f>
-        <v>0.5644811218242306</v>
+        <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K27)</f>
+        <v>0.27845119204890095</v>
       </c>
     </row>
     <row r="28" spans="11:14" x14ac:dyDescent="0.3">
@@ -4913,16 +4887,16 @@
         <v>2.5000000000000009</v>
       </c>
       <c r="L28" cm="1">
-        <f t="array" aca="1" ref="L28" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K28)</f>
+        <f t="array" aca="1" ref="L28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K28)</f>
         <v>0.3</v>
       </c>
       <c r="M28" cm="1">
-        <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K28)</f>
-        <v>0.24073933529882191</v>
+        <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K28)</f>
+        <v>0.3</v>
       </c>
       <c r="N28" cm="1">
-        <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K28)</f>
-        <v>0.54779818344677589</v>
+        <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K28)</f>
+        <v>0.27022171563511382</v>
       </c>
     </row>
     <row r="29" spans="11:14" x14ac:dyDescent="0.3">
@@ -4930,16 +4904,16 @@
         <v>2.600000000000001</v>
       </c>
       <c r="L29" cm="1">
-        <f t="array" aca="1" ref="L29" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K29)</f>
+        <f t="array" aca="1" ref="L29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K29)</f>
         <v>0.3</v>
       </c>
       <c r="M29" cm="1">
-        <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K29)</f>
-        <v>0.24301859163348261</v>
+        <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K29)</f>
+        <v>0.3</v>
       </c>
       <c r="N29" cm="1">
-        <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K29)</f>
-        <v>0.53160830041190998</v>
+        <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K29)</f>
+        <v>0.26223545700591128</v>
       </c>
     </row>
     <row r="30" spans="11:14" x14ac:dyDescent="0.3">
@@ -4947,16 +4921,16 @@
         <v>2.7000000000000011</v>
       </c>
       <c r="L30" cm="1">
-        <f t="array" aca="1" ref="L30" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K30)</f>
+        <f t="array" aca="1" ref="L30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K30)</f>
         <v>0.3</v>
       </c>
       <c r="M30" cm="1">
-        <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K30)</f>
-        <v>0.24512901416557584</v>
+        <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K30)</f>
+        <v>0.3</v>
       </c>
       <c r="N30" cm="1">
-        <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K30)</f>
-        <v>0.51589690073205152</v>
+        <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K30)</f>
+        <v>0.25448522798943846</v>
       </c>
     </row>
     <row r="31" spans="11:14" x14ac:dyDescent="0.3">
@@ -4964,16 +4938,16 @@
         <v>2.8000000000000012</v>
       </c>
       <c r="L31" cm="1">
-        <f t="array" aca="1" ref="L31" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K31)</f>
+        <f t="array" aca="1" ref="L31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K31)</f>
         <v>0.3</v>
       </c>
       <c r="M31" cm="1">
-        <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K31)</f>
-        <v>0.24708869223109098</v>
+        <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K31)</f>
+        <v>0.3</v>
       </c>
       <c r="N31" cm="1">
-        <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K31)</f>
-        <v>0.5006498430869375</v>
+        <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K31)</f>
+        <v>0.24696405285642434</v>
       </c>
     </row>
     <row r="32" spans="11:14" x14ac:dyDescent="0.3">
@@ -4981,203 +4955,203 @@
         <v>2.9000000000000012</v>
       </c>
       <c r="L32" cm="1">
-        <f t="array" aca="1" ref="L32" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K32)</f>
+        <f t="array" aca="1" ref="L32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K32)</f>
         <v>0.3</v>
       </c>
       <c r="M32" cm="1">
-        <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K32)</f>
-        <v>0.24891322008519129</v>
+        <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K32)</f>
+        <v>0.3</v>
       </c>
       <c r="N32" cm="1">
-        <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K32)</f>
-        <v>0.48585340409547995</v>
+        <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K32)</f>
+        <v>0.23966516204155472</v>
       </c>
     </row>
     <row r="33" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K33">
         <v>3.0000000000000013</v>
       </c>
-      <c r="L33" t="e" cm="1">
-        <f t="array" aca="1" ref="L33" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K33)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M33" t="e" cm="1">
-        <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K33)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N33" t="e" cm="1">
-        <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K33)</f>
-        <v>#NUM!</v>
+      <c r="L33" cm="1">
+        <f t="array" aca="1" ref="L33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K33)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M33" cm="1">
+        <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K33)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N33" cm="1">
+        <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K33)</f>
+        <v>0.2325819860504062</v>
       </c>
     </row>
     <row r="34" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K34">
         <v>3.1000000000000014</v>
       </c>
-      <c r="L34" t="e" cm="1">
-        <f t="array" aca="1" ref="L34" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K34)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M34" t="e" cm="1">
-        <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K34)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N34" t="e" cm="1">
-        <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K34)</f>
-        <v>#NUM!</v>
+      <c r="L34" cm="1">
+        <f t="array" aca="1" ref="L34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K34)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M34" cm="1">
+        <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K34)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N34" cm="1">
+        <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K34)</f>
+        <v>0.22346231593430321</v>
       </c>
     </row>
     <row r="35" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K35">
         <v>3.2000000000000015</v>
       </c>
-      <c r="L35" t="e" cm="1">
-        <f t="array" aca="1" ref="L35" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K35)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M35" t="e" cm="1">
-        <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K35)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N35" t="e" cm="1">
-        <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K35)</f>
-        <v>#NUM!</v>
+      <c r="L35" cm="1">
+        <f t="array" aca="1" ref="L35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K35)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M35" cm="1">
+        <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K35)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N35" cm="1">
+        <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K35)</f>
+        <v>0.21470023319819845</v>
       </c>
     </row>
     <row r="36" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K36">
         <v>3.3000000000000016</v>
       </c>
-      <c r="L36" t="e" cm="1">
-        <f t="array" aca="1" ref="L36" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K36)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M36" t="e" cm="1">
-        <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K36)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N36" t="e" cm="1">
-        <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K36)</f>
-        <v>#NUM!</v>
+      <c r="L36" cm="1">
+        <f t="array" aca="1" ref="L36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K36)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M36" cm="1">
+        <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K36)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N36" cm="1">
+        <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K36)</f>
+        <v>0.20628171664037007</v>
       </c>
     </row>
     <row r="37" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K37">
         <v>3.4000000000000017</v>
       </c>
-      <c r="L37" t="e" cm="1">
-        <f t="array" aca="1" ref="L37" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K37)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M37" t="e" cm="1">
-        <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K37)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N37" t="e" cm="1">
-        <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K37)</f>
-        <v>#NUM!</v>
+      <c r="L37" cm="1">
+        <f t="array" aca="1" ref="L37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K37)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M37" cm="1">
+        <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K37)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N37" cm="1">
+        <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K37)</f>
+        <v>0.1981932948382796</v>
       </c>
     </row>
     <row r="38" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K38">
         <v>3.5000000000000018</v>
       </c>
-      <c r="L38" t="e" cm="1">
-        <f t="array" aca="1" ref="L38" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M38" t="e" cm="1">
-        <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N38" t="e" cm="1">
-        <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K38)</f>
-        <v>#NUM!</v>
+      <c r="L38" cm="1">
+        <f t="array" aca="1" ref="L38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K38)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M38" cm="1">
+        <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K38)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N38" cm="1">
+        <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K38)</f>
+        <v>0.19042202459142168</v>
       </c>
     </row>
     <row r="39" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K39">
         <v>3.6000000000000019</v>
       </c>
-      <c r="L39" t="e" cm="1">
-        <f t="array" aca="1" ref="L39" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K39)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M39" t="e" cm="1">
-        <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K39)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N39" t="e" cm="1">
-        <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K39)</f>
-        <v>#NUM!</v>
+      <c r="L39" cm="1">
+        <f t="array" aca="1" ref="L39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K39)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M39" cm="1">
+        <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K39)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N39" cm="1">
+        <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K39)</f>
+        <v>0.18295547020944194</v>
       </c>
     </row>
     <row r="40" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K40">
         <v>3.700000000000002</v>
       </c>
-      <c r="L40" t="e" cm="1">
-        <f t="array" aca="1" ref="L40" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K40)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M40" t="e" cm="1">
-        <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K40)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N40" t="e" cm="1">
-        <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K40)</f>
-        <v>#NUM!</v>
+      <c r="L40" cm="1">
+        <f t="array" aca="1" ref="L40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K40)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M40" cm="1">
+        <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K40)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N40" cm="1">
+        <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K40)</f>
+        <v>0.17578168361237931</v>
       </c>
     </row>
     <row r="41" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K41">
         <v>3.800000000000002</v>
       </c>
-      <c r="L41" t="e" cm="1">
-        <f t="array" aca="1" ref="L41" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K41)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M41" t="e" cm="1">
-        <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K41)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N41" t="e" cm="1">
-        <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K41)</f>
-        <v>#NUM!</v>
+      <c r="L41" cm="1">
+        <f t="array" aca="1" ref="L41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K41)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M41" cm="1">
+        <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K41)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N41" cm="1">
+        <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K41)</f>
+        <v>0.16888918521118904</v>
       </c>
     </row>
     <row r="42" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K42">
         <v>3.9000000000000021</v>
       </c>
-      <c r="L42" t="e" cm="1">
-        <f t="array" aca="1" ref="L42" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K42)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M42" t="e" cm="1">
-        <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K42)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N42" t="e" cm="1">
-        <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K42)</f>
-        <v>#NUM!</v>
+      <c r="L42" cm="1">
+        <f t="array" aca="1" ref="L42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K42)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M42" cm="1">
+        <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K42)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N42" cm="1">
+        <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K42)</f>
+        <v>0.16226694553795112</v>
       </c>
     </row>
     <row r="43" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K43">
         <v>4.0000000000000018</v>
       </c>
-      <c r="L43" t="e" cm="1">
-        <f t="array" aca="1" ref="L43" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve_,K43)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M43" t="e" cm="1">
-        <f t="array" aca="1" ref="M43" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve_,K43)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N43" t="e" cm="1">
-        <f t="array" aca="1" ref="N43" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve_,K43)</f>
-        <v>#NUM!</v>
+      <c r="L43" cm="1">
+        <f t="array" aca="1" ref="L43" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K43)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M43" cm="1">
+        <f t="array" aca="1" ref="M43" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K43)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N43" cm="1">
+        <f t="array" aca="1" ref="N43" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K43)</f>
+        <v>0.15590436759636864</v>
       </c>
     </row>
   </sheetData>
@@ -5190,7 +5164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8A3DD8-75E7-4A72-9366-AF366CC35FAC}">
   <dimension ref="B1:G552"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5216,7 +5192,7 @@
       </c>
       <c r="E2" s="5" cm="1">
         <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
-        <v>2982917215248</v>
+        <v>1204222248384</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
@@ -5247,10 +5223,10 @@
     </row>
     <row r="4" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -5265,16 +5241,16 @@
     </row>
     <row r="5" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5">
-        <v>140716368016338</v>
+        <v>140716946699303</v>
       </c>
       <c r="F5" s="5">
-        <v>140716368016338</v>
+        <v>140716946699303</v>
       </c>
       <c r="G5" s="17" t="b">
         <f t="shared" si="0"/>
@@ -5283,11 +5259,11 @@
     </row>
     <row r="6" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
-        <v>2984500273248</v>
+        <v>1204222233696</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -5296,46 +5272,46 @@
       </c>
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45094</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
-        <v>2983253086896</v>
+        <v>1204148803248</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="20" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
-        <v>4.8786680314628891E-2</v>
+        <v>4.8786679882032745E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="20"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="20" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(C9,12/_xll.ENUM(frequency))</f>
-        <v>4.9996341958828738E-2</v>
+        <v>4.9996341504604302E-2</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -5343,7 +5319,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -5361,7 +5337,7 @@
       </c>
       <c r="E14" s="2" cm="1">
         <f t="array" aca="1" ref="E14:E17" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C14),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
-        <v>45460</v>
+        <v>45468</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -5376,7 +5352,7 @@
       </c>
       <c r="E15" s="2">
         <f ca="1"/>
-        <v>45824.999988425923</v>
+        <v>45832.999988425923</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -5391,7 +5367,7 @@
       </c>
       <c r="E16" s="2">
         <f ca="1"/>
-        <v>46190</v>
+        <v>46198</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -5406,7 +5382,7 @@
       </c>
       <c r="E17" s="2">
         <f ca="1"/>
-        <v>46555</v>
+        <v>46563</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -7380,9 +7356,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92863B8-4C87-4474-B5B0-52EEB5BB3C33}">
-  <dimension ref="B2:K107"/>
+  <dimension ref="B2:P107"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7395,12 +7373,102 @@
     <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F2" cm="1">
+        <f t="array" aca="1" ref="F2:P3" ca="1">_xll.TMX.PWFLAT.CURVE(curve)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f ca="1"/>
+        <v>-1.4566508585916602E+144</v>
+      </c>
+      <c r="H2">
+        <f ca="1"/>
+        <v>-1.4568153451023237E+144</v>
+      </c>
+      <c r="I2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f ca="1"/>
+        <v>-1.4568159901474629E+144</v>
+      </c>
+      <c r="K2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" t="e">
+        <f ca="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -7411,15 +7479,15 @@
       <c r="F4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G5" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7437,16 +7505,16 @@
       </c>
       <c r="G6" s="5" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xll.\TMX.BOOTSTRAP(instrument, price)</f>
-        <v>2982856662048</v>
+        <v>1204148805008</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -7458,40 +7526,40 @@
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>2982927163792</v>
+        <v>1204222233024</v>
       </c>
       <c r="F7" s="5" cm="1">
         <f t="array" ref="F7">_xll.\TMX.BOND.INSTRUMENT(E7, dated)</f>
-        <v>2983254600688</v>
+        <v>1204151950928</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7:H107">_xlfn.SEQUENCE(1+10/H5,1,0,H5)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="21" t="e" cm="1">
-        <f t="array" aca="1" ref="I7:I107" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(H7),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.VALUE(curve,_xlpm.t)))</f>
-        <v>#NUM!</v>
+      <c r="I7" s="21" cm="1">
+        <f t="array" aca="1" ref="I7:I107" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(H7),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.FORWARD(curve,_xlpm.t)))</f>
+        <v>0</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="18">
         <f ca="1">0.05 + 0.01*RAND()</f>
-        <v>5.3318075122254296E-2</v>
+        <v>5.2378599755430709E-2</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="5" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>2984490708224</v>
+        <v>1204697061760</v>
       </c>
       <c r="F8" s="5" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
-        <v>2983253091856</v>
+        <v>1204148804304</v>
       </c>
       <c r="H8">
         <v>0.1</v>
@@ -7501,7 +7569,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -7513,11 +7581,11 @@
       </c>
       <c r="E9" s="5" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>2982917218896</v>
+        <v>1204222248096</v>
       </c>
       <c r="F9" s="5" cm="1">
         <f t="array" ref="F9">_xll.\TMX.BOND.INSTRUMENT(E9, dated)</f>
-        <v>2983254605808</v>
+        <v>1204151955680</v>
       </c>
       <c r="H9">
         <v>0.2</v>
@@ -7527,7 +7595,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -7539,11 +7607,11 @@
       </c>
       <c r="E10" s="5" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>2982927155824</v>
+        <v>1204222247904</v>
       </c>
       <c r="F10" s="5" cm="1">
         <f t="array" ref="F10">_xll.\TMX.BOND.INSTRUMENT(E10, dated)</f>
-        <v>2983254604208</v>
+        <v>1204151952512</v>
       </c>
       <c r="H10">
         <v>0.30000000000000004</v>
@@ -7553,7 +7621,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -7565,11 +7633,11 @@
       </c>
       <c r="E11" s="5" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>2982927155728</v>
+        <v>1204222246368</v>
       </c>
       <c r="F11" s="5" cm="1">
         <f t="array" ref="F11">_xll.\TMX.BOND.INSTRUMENT(E11, dated)</f>
-        <v>2983254598928</v>
+        <v>1204151955856</v>
       </c>
       <c r="H11">
         <v>0.4</v>
@@ -7579,7 +7647,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6</v>
       </c>
@@ -7591,11 +7659,11 @@
       </c>
       <c r="E12" s="5" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>2982927162160</v>
+        <v>1204222246272</v>
       </c>
       <c r="F12" s="5" cm="1">
         <f t="array" ref="F12">_xll.\TMX.BOND.INSTRUMENT(E12, dated)</f>
-        <v>2983254606128</v>
+        <v>1204151956736</v>
       </c>
       <c r="H12">
         <v>0.5</v>
@@ -7605,7 +7673,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
@@ -7617,11 +7685,11 @@
       </c>
       <c r="E13" s="5" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>2982927481312</v>
+        <v>1204222244832</v>
       </c>
       <c r="F13" s="5" cm="1">
         <f t="array" ref="F13">_xll.\TMX.BOND.INSTRUMENT(E13, dated)</f>
-        <v>2983254602608</v>
+        <v>1204151950576</v>
       </c>
       <c r="H13">
         <v>0.6</v>
@@ -7631,7 +7699,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>8</v>
       </c>
@@ -7643,11 +7711,11 @@
       </c>
       <c r="E14" s="5" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>2982917218320</v>
+        <v>1204222251936</v>
       </c>
       <c r="F14" s="5" cm="1">
         <f t="array" ref="F14">_xll.\TMX.BOND.INSTRUMENT(E14, dated)</f>
-        <v>2983254605488</v>
+        <v>1204151955504</v>
       </c>
       <c r="H14">
         <v>0.7</v>
@@ -7657,7 +7725,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9</v>
       </c>
@@ -7669,11 +7737,11 @@
       </c>
       <c r="E15" s="5" cm="1">
         <f t="array" ref="E15">_xll.\TMX.BOND.SIMPLE(B15, C15)</f>
-        <v>2982917228784</v>
+        <v>1204222250880</v>
       </c>
       <c r="F15" s="5" cm="1">
         <f t="array" ref="F15">_xll.\TMX.BOND.INSTRUMENT(E15, dated)</f>
-        <v>2983254603088</v>
+        <v>1204151951808</v>
       </c>
       <c r="H15">
         <v>0.79999999999999993</v>
@@ -7683,7 +7751,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10</v>
       </c>
@@ -7695,11 +7763,11 @@
       </c>
       <c r="E16" s="5" cm="1">
         <f t="array" ref="E16">_xll.\TMX.BOND.SIMPLE(B16, C16)</f>
-        <v>2982917218224</v>
+        <v>1204222248288</v>
       </c>
       <c r="F16" s="5" cm="1">
         <f t="array" ref="F16">_xll.\TMX.BOND.INSTRUMENT(E16, dated)</f>
-        <v>2983254601808</v>
+        <v>1204151956384</v>
       </c>
       <c r="H16">
         <v>0.89999999999999991</v>
@@ -7709,7 +7777,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>0.99999999999999989</v>
       </c>
@@ -7718,7 +7786,8 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E18" s="5"/>
       <c r="H18">
         <v>1.0999999999999999</v>
       </c>
@@ -7727,7 +7796,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>1.2</v>
       </c>
@@ -7736,7 +7805,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>1.3</v>
       </c>
@@ -7745,7 +7814,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>1.4000000000000001</v>
       </c>
@@ -7755,10 +7824,10 @@
       </c>
       <c r="K21" t="e" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve, H21)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.3">
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H22">
         <v>1.5000000000000002</v>
       </c>
@@ -7767,7 +7836,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>1.6000000000000003</v>
       </c>
@@ -7776,7 +7845,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H24">
         <v>1.7000000000000004</v>
       </c>
@@ -7785,7 +7854,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H25">
         <v>1.8000000000000005</v>
       </c>
@@ -7794,7 +7863,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1.9000000000000006</v>
       </c>
@@ -7803,7 +7872,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>2.0000000000000004</v>
       </c>
@@ -7812,7 +7881,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>2.1000000000000005</v>
       </c>
@@ -7821,7 +7890,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>2.2000000000000006</v>
       </c>
@@ -7830,7 +7899,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>2.3000000000000007</v>
       </c>
@@ -7839,7 +7908,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>2.4000000000000008</v>
       </c>
@@ -7848,7 +7917,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>2.5000000000000009</v>
       </c>
@@ -8555,7 +8624,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="9">
         <v>0.1</v>
@@ -8563,7 +8632,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="9">
         <v>0.01</v>
@@ -8571,7 +8640,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -8579,7 +8648,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="9">
         <v>20</v>
@@ -8587,7 +8656,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <f>EXP(-r_*t)</f>
@@ -8596,7 +8665,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <f>EXP(-r_*u)</f>
@@ -8609,25 +8678,25 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <f ca="1">EXP(-r_*(u-t)-σ^2*(u-t)^3/6-σ*(u-t)*_xlfn.NORM.S.INV(RAND())*SQRT(t))</f>
-        <v>0.43184198897970238</v>
+        <v>0.3102389784365393</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <f ca="1">LN(C8)</f>
-        <v>-0.83969552389750657</v>
+        <v>-1.1704123803099415</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.TMX.HO_LEE.ED(Dt, Du, t, u, σ)</f>
@@ -8640,7 +8709,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.TMX.HO_LEE.ELogD(Dt, Du, t, u, σ)</f>
@@ -8657,7 +8726,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.TMX.HO_LEE.VarLogD(t, u, σ)</f>

--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0823582-6D0A-4E41-8280-228E726DE51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B23B65D-7DEC-4311-93F2-7E9847C7069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1350" windowWidth="27030" windowHeight="14130" activeTab="5" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
@@ -654,37 +654,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.2</c:v>
@@ -951,37 +951,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95851248793963784</c:v>
+                  <c:v>0.44590820304886092</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.2</c:v>
@@ -1251,124 +1251,124 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90859916123799112</c:v>
+                  <c:v>0.95638873663254687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82555243580238102</c:v>
+                  <c:v>0.91467941555759913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75009625072802388</c:v>
+                  <c:v>0.87478909066892863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68153682425924444</c:v>
+                  <c:v>0.83663843324479115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61924378687475368</c:v>
+                  <c:v>0.80015157418921923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56264438535623851</c:v>
+                  <c:v>0.76525595315337103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51121821660994338</c:v>
+                  <c:v>0.73188217423688795</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46449244282137631</c:v>
+                  <c:v>0.69996386798229893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42203744394888804</c:v>
+                  <c:v>0.66943755938802163</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38346286758298537</c:v>
+                  <c:v>0.64024254167748562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37586979406724619</c:v>
+                  <c:v>0.62756488994681636</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36842707348079806</c:v>
+                  <c:v>0.61513827253976938</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36113172863616871</c:v>
+                  <c:v>0.60295771864369108</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35398084129814772</c:v>
+                  <c:v>0.59101835587461382</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34697155101645349</c:v>
+                  <c:v>0.57931540832823625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34010105398151486</c:v>
+                  <c:v>0.56784419466949843</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33336660190291001</c:v>
+                  <c:v>0.55660012625998523</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32676550091001366</c:v>
+                  <c:v>0.54557870532240993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32029511047441273</c:v>
+                  <c:v>0.5347755231414435</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.31395284235366</c:v>
+                  <c:v>0.52418625830016885</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.30467413360696821</c:v>
+                  <c:v>0.50869421311490348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.29566965214664376</c:v>
+                  <c:v>0.49366002705933104</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28693129333155148</c:v>
+                  <c:v>0.47907016835116351</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.27845119204890095</c:v>
+                  <c:v>0.46491150513271845</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.27022171563511382</c:v>
+                  <c:v>0.45117129365136094</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.26223545700591128</c:v>
+                  <c:v>0.43783716678926565</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.25448522798943846</c:v>
+                  <c:v>0.42489712293217602</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.24696405285642434</c:v>
+                  <c:v>0.41233951516714162</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.23966516204155472</c:v>
+                  <c:v>0.40015304079950992</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2325819860504062</c:v>
+                  <c:v>0.38832673117973826</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.22346231593430321</c:v>
+                  <c:v>0.37310022225803574</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21470023319819845</c:v>
+                  <c:v>0.35847075329090528</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.20628171664037007</c:v>
+                  <c:v>0.34441491400687974</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1981932948382796</c:v>
+                  <c:v>0.33091021206436555</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.19042202459142168</c:v>
+                  <c:v>0.31793503705909815</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.18295547020944194</c:v>
+                  <c:v>0.30546862594288399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.17578168361237931</c:v>
+                  <c:v>0.29349102979829428</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.16888918521118904</c:v>
+                  <c:v>0.28198308191614097</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.16226694553795112</c:v>
+                  <c:v>0.27092636712465268</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.15590436759636864</c:v>
+                  <c:v>0.26030319232127141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,307 +1993,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>5.951694157529863E-312</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6.1135468364413588E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>6.1135468364413588E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6.1135468364413588E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>6.1135468364413588E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6.1135468364413588E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>6.1135468364413588E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>6.1135468364413588E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>6.1135468364413588E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.1135468364413588E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6.1135468364413588E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3.7106733153595917E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3.7106733153595917E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>3.7106733153595917E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>3.7106733153595917E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>3.7106733153595917E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>3.7106733153595917E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>3.7106733153595917E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>3.7106733153595917E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>3.7106733153595917E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>3.7106733153595917E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>4.9416346883645927E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>4.9416346883645927E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>4.9416346883645927E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>4.9416346883645927E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>4.9416346883645927E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>4.9416346883645927E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>4.9416346883645927E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>4.9416346883645927E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>4.9416346883645927E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>4.9416346883645927E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>4.9283034281338421E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>4.9283034281338421E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>4.9283034281338421E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>4.9283034281338421E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>4.9283034281338421E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>4.9283034281338421E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>4.9283034281338421E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>4.9283034281338421E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>4.9283034281338421E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>4.9283034281338421E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357722100471E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>4.9283035684261692E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>4.9283035684261692E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>4.9283035684261692E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>4.9283035684261692E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>4.9283035684261692E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>4.9283035684261692E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>4.9283035684261692E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>4.9283035684261692E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>4.9283035684261692E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>4.9283035684261692E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721872757E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721872757E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721872757E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721872757E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721872757E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721872757E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721872757E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721872757E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721872757E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721872757E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_xll.TMX_DAY_COUNT_30_360()</f>
-        <v>140716946699303</v>
+        <v>140716933985319</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="E4" s="5" cm="1">
         <f t="array" ref="E4">_xll.TMX_DAY_COUNT_ACTUAL_360()</f>
-        <v>140716946692093</v>
+        <v>140716933978109</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="E5" s="5" cm="1">
         <f t="array" ref="E5">_xll.TMX_DAY_COUNT_ACTUAL_365()</f>
-        <v>140716946697698</v>
+        <v>140716933983714</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="E6" s="5" cm="1">
         <f t="array" ref="E6">_xll.TMX_DAY_COUNT_ACTUAL_ACTUAL()</f>
-        <v>140716946702828</v>
+        <v>140716933988844</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.TMX_DAY_COUNT_YEARS()</f>
-        <v>140716946733953</v>
+        <v>140716934019969</v>
       </c>
     </row>
   </sheetData>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">50 + 100*RAND()</f>
-        <v>143.54256009219088</v>
+        <v>145.86052910603851</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">0.01 + 0.3*RAND()</f>
-        <v>0.14724310424841439</v>
+        <v>0.18511975216460372</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">50 + 100*RAND()</f>
-        <v>103.83770923644002</v>
+        <v>55.980843645557123</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
-        <v>-2.1254789537184884</v>
+        <v>-5.0805311603354619</v>
       </c>
       <c r="D5">
         <v>1E-3</v>
@@ -4146,15 +4146,15 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>8.7883691274255105E-2</v>
+        <v>3.4717799517452494E-7</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
-        <v>8.787217052021834E-2</v>
+        <v>3.4710815547916958E-7</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
-        <v>8.7895213454794785E-2</v>
+        <v>3.4724785096782786E-7</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -4163,15 +4163,15 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
-        <v>-1.1521467267824437E-2</v>
+        <v>-6.9846754879865358E-8</v>
       </c>
       <c r="D7">
         <f ca="1">(D6-E6)/(D5-E5)</f>
-        <v>-1.1521467288222453E-2</v>
+        <v>-6.9847744329144432E-8</v>
       </c>
       <c r="E7">
         <f ca="1">(C7-D7)/C7</f>
-        <v>-1.7704356689100097E-9</v>
+        <v>-1.4166002139628762E-5</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -4180,15 +4180,15 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.TMX.BLACK.GAMMA(f, s, k)</f>
-        <v>1.4264982714608458E-3</v>
+        <v>1.4081882004129341E-8</v>
       </c>
       <c r="D8">
         <f ca="1">(D6-2*C6+E6)/(D5^2)</f>
-        <v>1.4265029157911613E-3</v>
+        <v>1.6097947559928598E-8</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E9" ca="1" si="0">(C8-D8)/C8</f>
-        <v>-3.2557560064581962E-6</v>
+        <v>-0.14316733766183173</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -4197,15 +4197,15 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.BLACK.VEGA(f, s, k)</f>
-        <v>4.3278040590029576</v>
+        <v>5.5461170410101093E-5</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
-        <v>4.3280975397321786</v>
+        <v>5.5632643249401951E-5</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7812850401685303E-5</v>
+        <v>-3.0917638057928122E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">10*RAND()</f>
-        <v>5.2546234533343394</v>
+        <v>9.2171310908858395</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4256,18 +4256,18 @@
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>47021.211805555555</v>
+        <v>48468.487997685188</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>47021.211805555555</v>
+        <v>48468.487997685188</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.DATE.ADD_YEARS(C4,-years)</f>
-        <v>45102</v>
+        <v>45102.000000000007</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">C5-date</f>
@@ -4280,18 +4280,18 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>5.2540435464109461</v>
+        <v>9.215794985523317</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>47021</v>
+        <v>48468</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>47021</v>
+        <v>48468</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="I2" s="5" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>1204148810288</v>
+        <v>1934059856320</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="C3" s="15">
         <f ca="1">RAND()</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve))</f>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="F3" s="16">
         <f ca="1"/>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="3"/>
@@ -4417,11 +4417,11 @@
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K3)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K3)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K3)</f>
@@ -4449,15 +4449,15 @@
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K4)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K4)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K4)</f>
-        <v>0.90859916123799112</v>
+        <v>0.95638873663254687</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -4481,15 +4481,15 @@
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K5)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K5)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K5)</f>
-        <v>0.82555243580238102</v>
+        <v>0.91467941555759913</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -4514,15 +4514,15 @@
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K6)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K6)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K6)</f>
-        <v>0.75009625072802388</v>
+        <v>0.87478909066892863</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -4531,15 +4531,15 @@
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K7)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K7)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K7)</f>
-        <v>0.68153682425924444</v>
+        <v>0.83663843324479115</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -4548,15 +4548,15 @@
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K8)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K8)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N8" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K8)</f>
-        <v>0.61924378687475368</v>
+        <v>0.80015157418921923</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -4565,15 +4565,15 @@
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K9)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K9)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N9" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K9)</f>
-        <v>0.56264438535623851</v>
+        <v>0.76525595315337103</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -4582,15 +4582,15 @@
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K10)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K10)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K10)</f>
-        <v>0.51121821660994338</v>
+        <v>0.73188217423688795</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -4599,15 +4599,15 @@
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K11)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K11)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K11)</f>
-        <v>0.46449244282137631</v>
+        <v>0.69996386798229893</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -4616,15 +4616,15 @@
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K12)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K12)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N12" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K12)</f>
-        <v>0.42203744394888804</v>
+        <v>0.66943755938802163</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -4633,15 +4633,15 @@
       </c>
       <c r="L13" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K13)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K13)</f>
-        <v>0.95851248793963784</v>
+        <v>0.44590820304886092</v>
       </c>
       <c r="N13" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K13)</f>
-        <v>0.38346286758298537</v>
+        <v>0.64024254167748562</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="N14" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K14)</f>
-        <v>0.37586979406724619</v>
+        <v>0.62756488994681636</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="N15" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K15)</f>
-        <v>0.36842707348079806</v>
+        <v>0.61513827253976938</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="N16" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K16)</f>
-        <v>0.36113172863616871</v>
+        <v>0.60295771864369108</v>
       </c>
     </row>
     <row r="17" spans="11:14" x14ac:dyDescent="0.3">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="N17" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K17)</f>
-        <v>0.35398084129814772</v>
+        <v>0.59101835587461382</v>
       </c>
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.3">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="N18" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K18)</f>
-        <v>0.34697155101645349</v>
+        <v>0.57931540832823625</v>
       </c>
     </row>
     <row r="19" spans="11:14" x14ac:dyDescent="0.3">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="N19" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K19)</f>
-        <v>0.34010105398151486</v>
+        <v>0.56784419466949843</v>
       </c>
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.3">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="N20" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K20)</f>
-        <v>0.33336660190291001</v>
+        <v>0.55660012625998523</v>
       </c>
     </row>
     <row r="21" spans="11:14" x14ac:dyDescent="0.3">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="N21" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K21)</f>
-        <v>0.32676550091001366</v>
+        <v>0.54557870532240993</v>
       </c>
     </row>
     <row r="22" spans="11:14" x14ac:dyDescent="0.3">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="N22" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K22)</f>
-        <v>0.32029511047441273</v>
+        <v>0.5347755231414435</v>
       </c>
     </row>
     <row r="23" spans="11:14" x14ac:dyDescent="0.3">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="N23" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K23)</f>
-        <v>0.31395284235366</v>
+        <v>0.52418625830016885</v>
       </c>
     </row>
     <row r="24" spans="11:14" x14ac:dyDescent="0.3">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="N24" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K24)</f>
-        <v>0.30467413360696821</v>
+        <v>0.50869421311490348</v>
       </c>
     </row>
     <row r="25" spans="11:14" x14ac:dyDescent="0.3">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="N25" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K25)</f>
-        <v>0.29566965214664376</v>
+        <v>0.49366002705933104</v>
       </c>
     </row>
     <row r="26" spans="11:14" x14ac:dyDescent="0.3">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="N26" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K26)</f>
-        <v>0.28693129333155148</v>
+        <v>0.47907016835116351</v>
       </c>
     </row>
     <row r="27" spans="11:14" x14ac:dyDescent="0.3">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="N27" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K27)</f>
-        <v>0.27845119204890095</v>
+        <v>0.46491150513271845</v>
       </c>
     </row>
     <row r="28" spans="11:14" x14ac:dyDescent="0.3">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="N28" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K28)</f>
-        <v>0.27022171563511382</v>
+        <v>0.45117129365136094</v>
       </c>
     </row>
     <row r="29" spans="11:14" x14ac:dyDescent="0.3">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="N29" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K29)</f>
-        <v>0.26223545700591128</v>
+        <v>0.43783716678926565</v>
       </c>
     </row>
     <row r="30" spans="11:14" x14ac:dyDescent="0.3">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="N30" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K30)</f>
-        <v>0.25448522798943846</v>
+        <v>0.42489712293217602</v>
       </c>
     </row>
     <row r="31" spans="11:14" x14ac:dyDescent="0.3">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="N31" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K31)</f>
-        <v>0.24696405285642434</v>
+        <v>0.41233951516714162</v>
       </c>
     </row>
     <row r="32" spans="11:14" x14ac:dyDescent="0.3">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="N32" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K32)</f>
-        <v>0.23966516204155472</v>
+        <v>0.40015304079950992</v>
       </c>
     </row>
     <row r="33" spans="11:14" x14ac:dyDescent="0.3">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="N33" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K33)</f>
-        <v>0.2325819860504062</v>
+        <v>0.38832673117973826</v>
       </c>
     </row>
     <row r="34" spans="11:14" x14ac:dyDescent="0.3">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="N34" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K34)</f>
-        <v>0.22346231593430321</v>
+        <v>0.37310022225803574</v>
       </c>
     </row>
     <row r="35" spans="11:14" x14ac:dyDescent="0.3">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="N35" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K35)</f>
-        <v>0.21470023319819845</v>
+        <v>0.35847075329090528</v>
       </c>
     </row>
     <row r="36" spans="11:14" x14ac:dyDescent="0.3">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="N36" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K36)</f>
-        <v>0.20628171664037007</v>
+        <v>0.34441491400687974</v>
       </c>
     </row>
     <row r="37" spans="11:14" x14ac:dyDescent="0.3">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="N37" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K37)</f>
-        <v>0.1981932948382796</v>
+        <v>0.33091021206436555</v>
       </c>
     </row>
     <row r="38" spans="11:14" x14ac:dyDescent="0.3">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="N38" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K38)</f>
-        <v>0.19042202459142168</v>
+        <v>0.31793503705909815</v>
       </c>
     </row>
     <row r="39" spans="11:14" x14ac:dyDescent="0.3">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="N39" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K39)</f>
-        <v>0.18295547020944194</v>
+        <v>0.30546862594288399</v>
       </c>
     </row>
     <row r="40" spans="11:14" x14ac:dyDescent="0.3">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="N40" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K40)</f>
-        <v>0.17578168361237931</v>
+        <v>0.29349102979829428</v>
       </c>
     </row>
     <row r="41" spans="11:14" x14ac:dyDescent="0.3">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="N41" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K41)</f>
-        <v>0.16888918521118904</v>
+        <v>0.28198308191614097</v>
       </c>
     </row>
     <row r="42" spans="11:14" x14ac:dyDescent="0.3">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="N42" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K42)</f>
-        <v>0.16226694553795112</v>
+        <v>0.27092636712465268</v>
       </c>
     </row>
     <row r="43" spans="11:14" x14ac:dyDescent="0.3">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="N43" cm="1">
         <f t="array" aca="1" ref="N43" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K43)</f>
-        <v>0.15590436759636864</v>
+        <v>0.26030319232127141</v>
       </c>
     </row>
   </sheetData>
@@ -5165,7 +5165,7 @@
   <dimension ref="B1:G552"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E2" s="5" cm="1">
         <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
-        <v>1204222248384</v>
+        <v>1934046364704</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
@@ -5226,13 +5226,13 @@
         <v>22</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G4" s="17" t="b">
         <f t="shared" si="0"/>
@@ -5247,10 +5247,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="5">
-        <v>140716946699303</v>
+        <v>140716933985319</v>
       </c>
       <c r="F5" s="5">
-        <v>140716946699303</v>
+        <v>140716933985319</v>
       </c>
       <c r="G5" s="17" t="b">
         <f t="shared" si="0"/>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
-        <v>1204222233696</v>
+        <v>1934046363552</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
-        <v>1204148803248</v>
+        <v>1934059852624</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="C9" s="20" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
-        <v>4.8786679882032745E-2</v>
+        <v>4.9380446996018602E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="C12" s="20" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(C9,12/_xll.ENUM(frequency))</f>
-        <v>4.9996341504604302E-2</v>
+        <v>4.9995102366507727E-2</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -5328,78 +5328,122 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C14" cm="1">
-        <f t="array" aca="1" ref="C14:D17" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
-        <v>1.0020739645577939</v>
+        <f t="array" aca="1" ref="C14:D21" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
+        <v>0.50103698227889693</v>
       </c>
       <c r="D14">
         <f ca="1"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E14" s="2" cm="1">
-        <f t="array" aca="1" ref="E14:E17" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C14),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
-        <v>45468</v>
+        <f t="array" aca="1" ref="E14:E21" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C14),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
+        <v>45285</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C15">
         <f ca="1"/>
-        <v>2.0014100221085989</v>
+        <v>1.0020739645577939</v>
       </c>
       <c r="D15">
         <f ca="1"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E15" s="2">
         <f ca="1"/>
-        <v>45832.999988425923</v>
+        <v>45468</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C16">
         <f ca="1"/>
-        <v>3.0007460796594043</v>
+        <v>1.5031109468366908</v>
       </c>
       <c r="D16">
         <f ca="1"/>
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E16" s="2">
         <f ca="1"/>
-        <v>46198</v>
+        <v>45651</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17">
         <f ca="1"/>
+        <v>2.0014100221085989</v>
+      </c>
+      <c r="D17">
+        <f ca="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <f ca="1"/>
+        <v>45832.999988425923</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f ca="1"/>
+        <v>2.5024470043874958</v>
+      </c>
+      <c r="D18">
+        <f ca="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <f ca="1"/>
+        <v>46016</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f ca="1"/>
+        <v>3.0007460796594043</v>
+      </c>
+      <c r="D19">
+        <f ca="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f ca="1"/>
+        <v>46198</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f ca="1"/>
+        <v>3.5017830619383012</v>
+      </c>
+      <c r="D20">
+        <f ca="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <f ca="1"/>
+        <v>46381</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f ca="1"/>
         <v>4.0000821372102093</v>
       </c>
-      <c r="D17">
-        <f ca="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D21">
+        <f ca="1"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E21" s="2">
         <f ca="1"/>
         <v>46563</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
@@ -7356,11 +7400,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92863B8-4C87-4474-B5B0-52EEB5BB3C33}">
-  <dimension ref="B2:P107"/>
+  <dimension ref="B2:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7373,102 +7415,12 @@
     <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" aca="1" ref="F2:P3" ca="1">_xll.TMX.PWFLAT.CURVE(curve)</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f ca="1"/>
-        <v>-1.4566508585916602E+144</v>
-      </c>
-      <c r="H2">
-        <f ca="1"/>
-        <v>-1.4568153451023237E+144</v>
-      </c>
-      <c r="I2">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f ca="1"/>
-        <v>-1.4568159901474629E+144</v>
-      </c>
-      <c r="K2">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="P3" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -7479,7 +7431,7 @@
       <c r="F4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G5" s="19" t="s">
         <v>36</v>
       </c>
@@ -7487,7 +7439,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7505,7 +7457,7 @@
       </c>
       <c r="G6" s="5" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xll.\TMX.BOOTSTRAP(instrument, price)</f>
-        <v>1204148805008</v>
+        <v>1934059827280</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
@@ -7514,7 +7466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -7526,11 +7478,11 @@
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>1204222233024</v>
+        <v>1934046363648</v>
       </c>
       <c r="F7" s="5" cm="1">
         <f t="array" ref="F7">_xll.\TMX.BOND.INSTRUMENT(E7, dated)</f>
-        <v>1204151950928</v>
+        <v>1934037281248</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7:H107">_xlfn.SEQUENCE(1+10/H5,1,0,H5)</f>
@@ -7538,38 +7490,38 @@
       </c>
       <c r="I7" s="21" cm="1">
         <f t="array" aca="1" ref="I7:I107" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(H7),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.FORWARD(curve,_xlpm.t)))</f>
-        <v>0</v>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="18">
         <f ca="1">0.05 + 0.01*RAND()</f>
-        <v>5.2378599755430709E-2</v>
+        <v>5.5845076617823466E-2</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="5" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>1204697061760</v>
+        <v>1933933468208</v>
       </c>
       <c r="F8" s="5" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
-        <v>1204148804304</v>
+        <v>1934059827632</v>
       </c>
       <c r="H8">
         <v>0.1</v>
       </c>
-      <c r="I8" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -7581,21 +7533,21 @@
       </c>
       <c r="E9" s="5" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>1204222248096</v>
+        <v>1934046361536</v>
       </c>
       <c r="F9" s="5" cm="1">
         <f t="array" ref="F9">_xll.\TMX.BOND.INSTRUMENT(E9, dated)</f>
-        <v>1204151955680</v>
+        <v>1934037283360</v>
       </c>
       <c r="H9">
         <v>0.2</v>
       </c>
-      <c r="I9" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -7607,21 +7559,21 @@
       </c>
       <c r="E10" s="5" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>1204222247904</v>
+        <v>1934046362688</v>
       </c>
       <c r="F10" s="5" cm="1">
         <f t="array" ref="F10">_xll.\TMX.BOND.INSTRUMENT(E10, dated)</f>
-        <v>1204151952512</v>
+        <v>1934037281072</v>
       </c>
       <c r="H10">
         <v>0.30000000000000004</v>
       </c>
-      <c r="I10" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -7633,21 +7585,21 @@
       </c>
       <c r="E11" s="5" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>1204222246368</v>
+        <v>1934046364896</v>
       </c>
       <c r="F11" s="5" cm="1">
         <f t="array" ref="F11">_xll.\TMX.BOND.INSTRUMENT(E11, dated)</f>
-        <v>1204151955856</v>
+        <v>1934037280896</v>
       </c>
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6</v>
       </c>
@@ -7659,21 +7611,21 @@
       </c>
       <c r="E12" s="5" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>1204222246272</v>
+        <v>1934046362880</v>
       </c>
       <c r="F12" s="5" cm="1">
         <f t="array" ref="F12">_xll.\TMX.BOND.INSTRUMENT(E12, dated)</f>
-        <v>1204151956736</v>
+        <v>1934037283712</v>
       </c>
       <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="I12" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
@@ -7685,21 +7637,21 @@
       </c>
       <c r="E13" s="5" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>1204222244832</v>
+        <v>1934046364800</v>
       </c>
       <c r="F13" s="5" cm="1">
         <f t="array" ref="F13">_xll.\TMX.BOND.INSTRUMENT(E13, dated)</f>
-        <v>1204151950576</v>
+        <v>1934037283536</v>
       </c>
       <c r="H13">
         <v>0.6</v>
       </c>
-      <c r="I13" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>8</v>
       </c>
@@ -7711,21 +7663,21 @@
       </c>
       <c r="E14" s="5" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>1204222251936</v>
+        <v>1934046362112</v>
       </c>
       <c r="F14" s="5" cm="1">
         <f t="array" ref="F14">_xll.\TMX.BOND.INSTRUMENT(E14, dated)</f>
-        <v>1204151955504</v>
+        <v>1934037282128</v>
       </c>
       <c r="H14">
         <v>0.7</v>
       </c>
-      <c r="I14" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9</v>
       </c>
@@ -7737,21 +7689,21 @@
       </c>
       <c r="E15" s="5" cm="1">
         <f t="array" ref="E15">_xll.\TMX.BOND.SIMPLE(B15, C15)</f>
-        <v>1204222250880</v>
+        <v>1934046366528</v>
       </c>
       <c r="F15" s="5" cm="1">
         <f t="array" ref="F15">_xll.\TMX.BOND.INSTRUMENT(E15, dated)</f>
-        <v>1204151951808</v>
+        <v>1934037279136</v>
       </c>
       <c r="H15">
         <v>0.79999999999999993</v>
       </c>
-      <c r="I15" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10</v>
       </c>
@@ -7763,842 +7715,838 @@
       </c>
       <c r="E16" s="5" cm="1">
         <f t="array" ref="E16">_xll.\TMX.BOND.SIMPLE(B16, C16)</f>
-        <v>1204222248288</v>
+        <v>1934046365568</v>
       </c>
       <c r="F16" s="5" cm="1">
         <f t="array" ref="F16">_xll.\TMX.BOND.INSTRUMENT(E16, dated)</f>
-        <v>1204151956384</v>
+        <v>1934037283184</v>
       </c>
       <c r="H16">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I16" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>0.99999999999999989</v>
       </c>
-      <c r="I17" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" s="5"/>
       <c r="H18">
         <v>1.0999999999999999</v>
       </c>
-      <c r="I18" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f ca="1"/>
+        <v>6.1135468364413588E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>1.2</v>
       </c>
-      <c r="I19" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <f ca="1"/>
+        <v>6.1135468364413588E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>1.3</v>
       </c>
-      <c r="I20" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f ca="1"/>
+        <v>6.1135468364413588E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>1.4000000000000001</v>
       </c>
-      <c r="I21" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K21" t="e" cm="1">
-        <f t="array" aca="1" ref="K21" ca="1">_xll.TMX.PWFLAT.CURVE.VALUE(curve, H21)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f ca="1"/>
+        <v>6.1135468364413588E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H22">
         <v>1.5000000000000002</v>
       </c>
-      <c r="I22" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f ca="1"/>
+        <v>6.1135468364413588E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>1.6000000000000003</v>
       </c>
-      <c r="I23" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f ca="1"/>
+        <v>6.1135468364413588E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H24">
         <v>1.7000000000000004</v>
       </c>
-      <c r="I24" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f ca="1"/>
+        <v>6.1135468364413588E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H25">
         <v>1.8000000000000005</v>
       </c>
-      <c r="I25" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f ca="1"/>
+        <v>6.1135468364413588E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1.9000000000000006</v>
       </c>
-      <c r="I26" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f ca="1"/>
+        <v>6.1135468364413588E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>2.0000000000000004</v>
       </c>
-      <c r="I27" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f ca="1"/>
+        <v>6.1135468364413588E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>2.1000000000000005</v>
       </c>
-      <c r="I28" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f ca="1"/>
+        <v>3.7106733153595917E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>2.2000000000000006</v>
       </c>
-      <c r="I29" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f ca="1"/>
+        <v>3.7106733153595917E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>2.3000000000000007</v>
       </c>
-      <c r="I30" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f ca="1"/>
+        <v>3.7106733153595917E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>2.4000000000000008</v>
       </c>
-      <c r="I31" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f ca="1"/>
+        <v>3.7106733153595917E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>2.5000000000000009</v>
       </c>
-      <c r="I32" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I32">
+        <f ca="1"/>
+        <v>3.7106733153595917E-2</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>2.600000000000001</v>
       </c>
-      <c r="I33" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I33">
+        <f ca="1"/>
+        <v>3.7106733153595917E-2</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>2.7000000000000011</v>
       </c>
-      <c r="I34" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I34">
+        <f ca="1"/>
+        <v>3.7106733153595917E-2</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>2.8000000000000012</v>
       </c>
-      <c r="I35" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I35">
+        <f ca="1"/>
+        <v>3.7106733153595917E-2</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>2.9000000000000012</v>
       </c>
-      <c r="I36" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I36">
+        <f ca="1"/>
+        <v>3.7106733153595917E-2</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>3.0000000000000013</v>
       </c>
-      <c r="I37" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I37">
+        <f ca="1"/>
+        <v>3.7106733153595917E-2</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>3.1000000000000014</v>
       </c>
-      <c r="I38" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I38">
+        <f ca="1"/>
+        <v>4.9416346883645927E-2</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>3.2000000000000015</v>
       </c>
-      <c r="I39" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I39">
+        <f ca="1"/>
+        <v>4.9416346883645927E-2</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>3.3000000000000016</v>
       </c>
-      <c r="I40" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I40">
+        <f ca="1"/>
+        <v>4.9416346883645927E-2</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>3.4000000000000017</v>
       </c>
-      <c r="I41" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I41">
+        <f ca="1"/>
+        <v>4.9416346883645927E-2</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H42">
         <v>3.5000000000000018</v>
       </c>
-      <c r="I42" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I42">
+        <f ca="1"/>
+        <v>4.9416346883645927E-2</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H43">
         <v>3.6000000000000019</v>
       </c>
-      <c r="I43" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I43">
+        <f ca="1"/>
+        <v>4.9416346883645927E-2</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H44">
         <v>3.700000000000002</v>
       </c>
-      <c r="I44" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I44">
+        <f ca="1"/>
+        <v>4.9416346883645927E-2</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H45">
         <v>3.800000000000002</v>
       </c>
-      <c r="I45" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I45">
+        <f ca="1"/>
+        <v>4.9416346883645927E-2</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H46">
         <v>3.9000000000000021</v>
       </c>
-      <c r="I46" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I46">
+        <f ca="1"/>
+        <v>4.9416346883645927E-2</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>4.0000000000000018</v>
       </c>
-      <c r="I47" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I47">
+        <f ca="1"/>
+        <v>4.9416346883645927E-2</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H48">
         <v>4.1000000000000014</v>
       </c>
-      <c r="I48" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I48">
+        <f ca="1"/>
+        <v>4.9283034281338421E-2</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49">
         <v>4.2000000000000011</v>
       </c>
-      <c r="I49" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I49">
+        <f ca="1"/>
+        <v>4.9283034281338421E-2</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50">
         <v>4.3000000000000007</v>
       </c>
-      <c r="I50" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I50">
+        <f ca="1"/>
+        <v>4.9283034281338421E-2</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I51" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I51">
+        <f ca="1"/>
+        <v>4.9283034281338421E-2</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52">
         <v>4.5</v>
       </c>
-      <c r="I52" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I52">
+        <f ca="1"/>
+        <v>4.9283034281338421E-2</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I53" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I53">
+        <f ca="1"/>
+        <v>4.9283034281338421E-2</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H54">
         <v>4.6999999999999993</v>
       </c>
-      <c r="I54" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I54">
+        <f ca="1"/>
+        <v>4.9283034281338421E-2</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H55">
         <v>4.7999999999999989</v>
       </c>
-      <c r="I55" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I55">
+        <f ca="1"/>
+        <v>4.9283034281338421E-2</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H56">
         <v>4.8999999999999986</v>
       </c>
-      <c r="I56" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I56">
+        <f ca="1"/>
+        <v>4.9283034281338421E-2</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H57">
         <v>4.9999999999999982</v>
       </c>
-      <c r="I57" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I57">
+        <f ca="1"/>
+        <v>4.9283034281338421E-2</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H58">
         <v>5.0999999999999979</v>
       </c>
-      <c r="I58" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I58">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H59">
         <v>5.1999999999999975</v>
       </c>
-      <c r="I59" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I59">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H60">
         <v>5.2999999999999972</v>
       </c>
-      <c r="I60" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I60">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H61">
         <v>5.3999999999999968</v>
       </c>
-      <c r="I61" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I61">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H62">
         <v>5.4999999999999964</v>
       </c>
-      <c r="I62" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I62">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H63">
         <v>5.5999999999999961</v>
       </c>
-      <c r="I63" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I63">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H64">
         <v>5.6999999999999957</v>
       </c>
-      <c r="I64" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I64">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H65">
         <v>5.7999999999999954</v>
       </c>
-      <c r="I65" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I65">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H66">
         <v>5.899999999999995</v>
       </c>
-      <c r="I66" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I66">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H67">
         <v>5.9999999999999947</v>
       </c>
-      <c r="I67" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I67">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H68">
         <v>6.0999999999999943</v>
       </c>
-      <c r="I68" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I68">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H69">
         <v>6.199999999999994</v>
       </c>
-      <c r="I69" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I69">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H70">
         <v>6.2999999999999936</v>
       </c>
-      <c r="I70" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I70">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H71">
         <v>6.3999999999999932</v>
       </c>
-      <c r="I71" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I71">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H72">
         <v>6.4999999999999929</v>
       </c>
-      <c r="I72" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I72">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H73">
         <v>6.5999999999999925</v>
       </c>
-      <c r="I73" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I73">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H74">
         <v>6.6999999999999922</v>
       </c>
-      <c r="I74" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I74">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H75">
         <v>6.7999999999999918</v>
       </c>
-      <c r="I75" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I75">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H76">
         <v>6.8999999999999915</v>
       </c>
-      <c r="I76" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I76">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H77">
         <v>6.9999999999999911</v>
       </c>
-      <c r="I77" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I77">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H78">
         <v>7.0999999999999908</v>
       </c>
-      <c r="I78" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I78">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H79">
         <v>7.1999999999999904</v>
       </c>
-      <c r="I79" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I79">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H80">
         <v>7.2999999999999901</v>
       </c>
-      <c r="I80" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I80">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H81">
         <v>7.3999999999999897</v>
       </c>
-      <c r="I81" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I81">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H82">
         <v>7.4999999999999893</v>
       </c>
-      <c r="I82" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I82">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H83">
         <v>7.599999999999989</v>
       </c>
-      <c r="I83" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I83">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H84">
         <v>7.6999999999999886</v>
       </c>
-      <c r="I84" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I84">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H85">
         <v>7.7999999999999883</v>
       </c>
-      <c r="I85" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I85">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H86">
         <v>7.8999999999999879</v>
       </c>
-      <c r="I86" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I86">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H87">
         <v>7.9999999999999876</v>
       </c>
-      <c r="I87" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I87">
+        <f ca="1"/>
+        <v>4.9416357722100471E-2</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H88">
         <v>8.0999999999999872</v>
       </c>
-      <c r="I88" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I88">
+        <f ca="1"/>
+        <v>4.9283035684261692E-2</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H89">
         <v>8.1999999999999869</v>
       </c>
-      <c r="I89" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I89">
+        <f ca="1"/>
+        <v>4.9283035684261692E-2</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H90">
         <v>8.2999999999999865</v>
       </c>
-      <c r="I90" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I90">
+        <f ca="1"/>
+        <v>4.9283035684261692E-2</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H91">
         <v>8.3999999999999861</v>
       </c>
-      <c r="I91" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I91">
+        <f ca="1"/>
+        <v>4.9283035684261692E-2</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H92">
         <v>8.4999999999999858</v>
       </c>
-      <c r="I92" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I92">
+        <f ca="1"/>
+        <v>4.9283035684261692E-2</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H93">
         <v>8.5999999999999854</v>
       </c>
-      <c r="I93" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I93">
+        <f ca="1"/>
+        <v>4.9283035684261692E-2</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H94">
         <v>8.6999999999999851</v>
       </c>
-      <c r="I94" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I94">
+        <f ca="1"/>
+        <v>4.9283035684261692E-2</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H95">
         <v>8.7999999999999847</v>
       </c>
-      <c r="I95" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I95">
+        <f ca="1"/>
+        <v>4.9283035684261692E-2</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H96">
         <v>8.8999999999999844</v>
       </c>
-      <c r="I96" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I96">
+        <f ca="1"/>
+        <v>4.9283035684261692E-2</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97">
         <v>8.999999999999984</v>
       </c>
-      <c r="I97" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I97">
+        <f ca="1"/>
+        <v>4.9283035684261692E-2</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98">
         <v>9.0999999999999837</v>
       </c>
-      <c r="I98" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I98">
+        <f ca="1"/>
+        <v>4.9416357721872757E-2</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99">
         <v>9.1999999999999833</v>
       </c>
-      <c r="I99" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I99">
+        <f ca="1"/>
+        <v>4.9416357721872757E-2</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100">
         <v>9.2999999999999829</v>
       </c>
-      <c r="I100" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I100">
+        <f ca="1"/>
+        <v>4.9416357721872757E-2</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101">
         <v>9.3999999999999826</v>
       </c>
-      <c r="I101" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I101">
+        <f ca="1"/>
+        <v>4.9416357721872757E-2</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102">
         <v>9.4999999999999822</v>
       </c>
-      <c r="I102" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I102">
+        <f ca="1"/>
+        <v>4.9416357721872757E-2</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103">
         <v>9.5999999999999819</v>
       </c>
-      <c r="I103" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I103">
+        <f ca="1"/>
+        <v>4.9416357721872757E-2</v>
       </c>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104">
         <v>9.6999999999999815</v>
       </c>
-      <c r="I104" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I104">
+        <f ca="1"/>
+        <v>4.9416357721872757E-2</v>
       </c>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105">
         <v>9.7999999999999812</v>
       </c>
-      <c r="I105" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I105">
+        <f ca="1"/>
+        <v>4.9416357721872757E-2</v>
       </c>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106">
         <v>9.8999999999999808</v>
       </c>
-      <c r="I106" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I106">
+        <f ca="1"/>
+        <v>4.9416357721872757E-2</v>
       </c>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107">
         <v>9.9999999999999805</v>
       </c>
-      <c r="I107" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+      <c r="I107">
+        <f ca="1"/>
+        <v>4.9416357721872757E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8682,7 +8630,7 @@
       </c>
       <c r="C8">
         <f ca="1">EXP(-r_*(u-t)-σ^2*(u-t)^3/6-σ*(u-t)*_xlfn.NORM.S.INV(RAND())*SQRT(t))</f>
-        <v>0.3102389784365393</v>
+        <v>0.41689632315057579</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -8691,7 +8639,7 @@
       </c>
       <c r="C9">
         <f ca="1">LN(C8)</f>
-        <v>-1.1704123803099415</v>
+        <v>-0.87491771363397619</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">

--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B23B65D-7DEC-4311-93F2-7E9847C7069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC317C6-64F7-4979-BF0C-AD2A9369A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1350" windowWidth="27030" windowHeight="14130" activeTab="5" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="coupon" localSheetId="4">Bond!$C$3</definedName>
     <definedName name="coupon">Bootstrap!$C$7:$C$16</definedName>
     <definedName name="curve" localSheetId="3">Curve!$I$2</definedName>
-    <definedName name="curve">Bootstrap!$G$6</definedName>
+    <definedName name="curve">Bootstrap!$G$7</definedName>
     <definedName name="curve_">Curve!$I$6</definedName>
     <definedName name="date">Date!$C$2</definedName>
     <definedName name="dated" localSheetId="4">Bond!$C$7</definedName>
@@ -50,17 +50,18 @@
     <definedName name="r_">'Ho-Lee'!$C$2</definedName>
     <definedName name="rate">Curve!$C$3:$C$5</definedName>
     <definedName name="s">Black!$C$3</definedName>
-    <definedName name="shift">Curve!$I$3</definedName>
+    <definedName name="shift">Curve!$I$4</definedName>
+    <definedName name="spread">Curve!$I$3</definedName>
     <definedName name="t">'Ho-Lee'!$C$4</definedName>
     <definedName name="time">Curve!$B$3:$B$5</definedName>
     <definedName name="translate">Curve!$I$5</definedName>
     <definedName name="u">'Ho-Lee'!$C$5</definedName>
     <definedName name="years">Date!$C$3</definedName>
     <definedName name="years_">Date!$C$8</definedName>
+    <definedName name="yield">Bond!$C$9</definedName>
     <definedName name="σ">'Ho-Lee'!$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>maturity</t>
   </si>
@@ -163,9 +164,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>spot</t>
   </si>
   <si>
     <t>discount</t>
@@ -284,15 +282,38 @@
   <si>
     <t>logD</t>
   </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>dur</t>
+  </si>
+  <si>
+    <t>cvx</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>cnv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -410,7 +431,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,7 +469,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -654,37 +681,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.2</c:v>
@@ -795,7 +822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>spot</c:v>
+                  <c:v>yield</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -951,127 +978,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44590820304886092</c:v>
+                  <c:v>0.18245254221952678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18404776565411524</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18537711851627231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18650195555348212</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18746610158537627</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18830169481301784</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18903283888720424</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18967796601148637</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19025141234418158</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19076449590501413</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3</c:v>
+                  <c:v>0.1912262711097634</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3</c:v>
+                  <c:v>0.19640597248548897</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3</c:v>
+                  <c:v>0.20111479191796675</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3</c:v>
+                  <c:v>0.20541414879109862</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3</c:v>
+                  <c:v>0.20935522592480288</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3</c:v>
+                  <c:v>0.21298101688781076</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3</c:v>
+                  <c:v>0.21632790085366418</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3</c:v>
+                  <c:v>0.21942686748871368</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.3</c:v>
+                  <c:v>0.22230447936411671</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3</c:v>
+                  <c:v>0.22498363524811268</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4</c:v>
+                  <c:v>0.22748418073984233</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4</c:v>
+                  <c:v>0.23304920716758937</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4</c:v>
+                  <c:v>0.23826641944360219</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4</c:v>
+                  <c:v>0.24316743703622032</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2477801594763315</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4</c:v>
+                  <c:v>0.25212929777700771</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4</c:v>
+                  <c:v>0.25623681728320197</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4</c:v>
+                  <c:v>0.26012230870798031</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4</c:v>
+                  <c:v>0.26380330058408608</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2672955236460326</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4</c:v>
+                  <c:v>0.27061313555488176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,124 +1278,124 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95638873663254687</c:v>
+                  <c:v>0.98192018275437576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91467941555759913</c:v>
+                  <c:v>0.96416724530038678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87478909066892863</c:v>
+                  <c:v>0.94673527771113886</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83663843324479115</c:v>
+                  <c:v>0.92961847691013622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80015157418921923</c:v>
+                  <c:v>0.91281114473944547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76525595315337103</c:v>
+                  <c:v>0.89630768606278721</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73188217423688795</c:v>
+                  <c:v>0.88010260690292375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69996386798229893</c:v>
+                  <c:v>0.86419051261272151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66943755938802163</c:v>
+                  <c:v>0.84856610607928118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64024254167748562</c:v>
+                  <c:v>0.83322418596053682</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.62756488994681636</c:v>
+                  <c:v>0.81672524164561933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61513827253976938</c:v>
+                  <c:v>0.80055299831717519</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60295771864369108</c:v>
+                  <c:v>0.78470098686224021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59101835587461382</c:v>
+                  <c:v>0.76916286626486952</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.57931540832823625</c:v>
+                  <c:v>0.75393242106964631</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.56784419466949843</c:v>
+                  <c:v>0.73900355889541736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55660012625998523</c:v>
+                  <c:v>0.72437030799825863</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.54557870532240993</c:v>
+                  <c:v>0.71002681488269881</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5347755231414435</c:v>
+                  <c:v>0.69596734196024246</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.52418625830016885</c:v>
+                  <c:v>0.68218626525425863</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.50869421311490348</c:v>
+                  <c:v>0.66202461416413305</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.49366002705933104</c:v>
+                  <c:v>0.64245882991475745</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.47907016835116351</c:v>
+                  <c:v>0.62347130197957701</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.46491150513271845</c:v>
+                  <c:v>0.6050449403017536</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.45117129365136094</c:v>
+                  <c:v>0.58716315991196055</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43783716678926565</c:v>
+                  <c:v>0.56980986600079053</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.42489712293217602</c:v>
+                  <c:v>0.55296943943234111</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.41233951516714162</c:v>
+                  <c:v>0.53662672268593781</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.40015304079950992</c:v>
+                  <c:v>0.52076700621334227</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.38832673117973826</c:v>
+                  <c:v>0.50537601519916608</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.37310022225803574</c:v>
+                  <c:v>0.4855599382042427</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.35847075329090528</c:v>
+                  <c:v>0.46652086070209103</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.34441491400687974</c:v>
+                  <c:v>0.44822831610682112</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.33091021206436555</c:v>
+                  <c:v>0.4306530324444629</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.31793503705909815</c:v>
+                  <c:v>0.41376688551156277</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.30546862594288399</c:v>
+                  <c:v>0.3975428538704579</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29349102979829428</c:v>
+                  <c:v>0.38195497560921121</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.28198308191614097</c:v>
+                  <c:v>0.36697830679701332</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.27092636712465268</c:v>
+                  <c:v>0.3525888815685716</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26030319232127141</c:v>
+                  <c:v>0.33876367377361288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,6 +1404,303 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-66D2-4B6E-B24E-18B2027029E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Curve!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Curve!$K$3:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Curve!$O$3:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28245254221952676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46BE-4D8E-AA0A-E8024EA00703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1990,7 +2314,7 @@
             <c:numRef>
               <c:f>Bootstrap!$I$7:$I$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>4.9283011639120938E-2</c:v>
@@ -2026,274 +2350,274 @@
                   <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.1135468364413588E-2</c:v>
+                  <c:v>5.0084025234523967E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1135468364413588E-2</c:v>
+                  <c:v>5.0084025234523967E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1135468364413588E-2</c:v>
+                  <c:v>5.0084025234523967E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1135468364413588E-2</c:v>
+                  <c:v>5.0084025234523967E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.1135468364413588E-2</c:v>
+                  <c:v>5.0084025234523967E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1135468364413588E-2</c:v>
+                  <c:v>5.0084025234523967E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1135468364413588E-2</c:v>
+                  <c:v>5.0084025234523967E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1135468364413588E-2</c:v>
+                  <c:v>5.0084025234523967E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.1135468364413588E-2</c:v>
+                  <c:v>5.0084025234523967E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1135468364413588E-2</c:v>
+                  <c:v>5.0084025234523967E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7106733153595917E-2</c:v>
+                  <c:v>4.8714916103127726E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7106733153595917E-2</c:v>
+                  <c:v>4.8714916103127726E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7106733153595917E-2</c:v>
+                  <c:v>4.8714916103127726E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.7106733153595917E-2</c:v>
+                  <c:v>4.8714916103127726E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.7106733153595917E-2</c:v>
+                  <c:v>4.8714916103127726E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7106733153595917E-2</c:v>
+                  <c:v>4.8714916103127726E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.7106733153595917E-2</c:v>
+                  <c:v>4.8714916103127726E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.7106733153595917E-2</c:v>
+                  <c:v>4.8714916103127726E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.7106733153595917E-2</c:v>
+                  <c:v>4.8714916103127726E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7106733153595917E-2</c:v>
+                  <c:v>4.8714916103127726E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.9416346883645927E-2</c:v>
+                  <c:v>4.941634952080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9416346883645927E-2</c:v>
+                  <c:v>4.941634952080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9416346883645927E-2</c:v>
+                  <c:v>4.941634952080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9416346883645927E-2</c:v>
+                  <c:v>4.941634952080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9416346883645927E-2</c:v>
+                  <c:v>4.941634952080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9416346883645927E-2</c:v>
+                  <c:v>4.941634952080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9416346883645927E-2</c:v>
+                  <c:v>4.941634952080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.9416346883645927E-2</c:v>
+                  <c:v>4.941634952080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9416346883645927E-2</c:v>
+                  <c:v>4.941634952080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.9416346883645927E-2</c:v>
+                  <c:v>4.941634952080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9283034281338421E-2</c:v>
+                  <c:v>4.9283033079067666E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9283034281338421E-2</c:v>
+                  <c:v>4.9283033079067666E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.9283034281338421E-2</c:v>
+                  <c:v>4.9283033079067666E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.9283034281338421E-2</c:v>
+                  <c:v>4.9283033079067666E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.9283034281338421E-2</c:v>
+                  <c:v>4.9283033079067666E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9283034281338421E-2</c:v>
+                  <c:v>4.9283033079067666E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.9283034281338421E-2</c:v>
+                  <c:v>4.9283033079067666E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.9283034281338421E-2</c:v>
+                  <c:v>4.9283033079067666E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.9283034281338421E-2</c:v>
+                  <c:v>4.9283033079067666E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9283034281338421E-2</c:v>
+                  <c:v>4.9283033079067666E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.9416357722100471E-2</c:v>
+                  <c:v>4.9416357721966633E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.9283035684261692E-2</c:v>
+                  <c:v>4.928303568458163E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.9283035684261692E-2</c:v>
+                  <c:v>4.928303568458163E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.9283035684261692E-2</c:v>
+                  <c:v>4.928303568458163E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9283035684261692E-2</c:v>
+                  <c:v>4.928303568458163E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.9283035684261692E-2</c:v>
+                  <c:v>4.928303568458163E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.9283035684261692E-2</c:v>
+                  <c:v>4.928303568458163E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.9283035684261692E-2</c:v>
+                  <c:v>4.928303568458163E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.9283035684261692E-2</c:v>
+                  <c:v>4.928303568458163E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.9283035684261692E-2</c:v>
+                  <c:v>4.928303568458163E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.9283035684261692E-2</c:v>
+                  <c:v>4.928303568458163E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.9416357721872757E-2</c:v>
+                  <c:v>4.9416357721873035E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9416357721872757E-2</c:v>
+                  <c:v>4.9416357721873035E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.9416357721872757E-2</c:v>
+                  <c:v>4.9416357721873035E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.9416357721872757E-2</c:v>
+                  <c:v>4.9416357721873035E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.9416357721872757E-2</c:v>
+                  <c:v>4.9416357721873035E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9416357721872757E-2</c:v>
+                  <c:v>4.9416357721873035E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.9416357721872757E-2</c:v>
+                  <c:v>4.9416357721873035E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.9416357721872757E-2</c:v>
+                  <c:v>4.9416357721873035E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.9416357721872757E-2</c:v>
+                  <c:v>4.9416357721873035E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.9416357721872757E-2</c:v>
+                  <c:v>4.9416357721873035E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,7 +2723,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3608,16 +3932,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>242454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>242453</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3985,7 +4309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28EA81D-C5B8-44E1-B499-71D23FEEDB1B}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3996,88 +4320,89 @@
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.TMX_FREQUENCY_ANNUALLY()</f>
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_xll.TMX_DAY_COUNT_30_360()</f>
-        <v>140716933985319</v>
+        <v>140718145352768</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.TMX_FREQUENCY_SEMIANNUALLY()</f>
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5" cm="1">
         <f t="array" ref="E4">_xll.TMX_DAY_COUNT_ACTUAL_360()</f>
-        <v>140716933978109</v>
+        <v>140718145345523</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.TMX_FREQUENCY_QUARTERLY()</f>
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" cm="1">
         <f t="array" ref="E5">_xll.TMX_DAY_COUNT_ACTUAL_365()</f>
-        <v>140716933983714</v>
+        <v>140718145351143</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.TMX_FREQUENCY_MONTHLY()</f>
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" cm="1">
         <f t="array" ref="E6">_xll.TMX_DAY_COUNT_ACTUAL_ACTUAL()</f>
-        <v>140716933988844</v>
+        <v>140718145356328</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.TMX_DAY_COUNT_YEARS()</f>
-        <v>140716934019969</v>
+        <v>140718145387863</v>
       </c>
     </row>
   </sheetData>
@@ -4089,7 +4414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E6F0E-62B3-47B5-8C49-DACF71BB425D}">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4099,45 +4426,45 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="9">
         <f ca="1">50 + 100*RAND()</f>
-        <v>145.86052910603851</v>
+        <v>71.043142905615213</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="9">
         <f ca="1">0.01 + 0.3*RAND()</f>
-        <v>0.18511975216460372</v>
+        <v>0.18788000732732965</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">50 + 100*RAND()</f>
-        <v>55.980843645557123</v>
+        <v>97.389620410445445</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
-        <v>-5.0805311603354619</v>
+        <v>1.7728429575877491</v>
       </c>
       <c r="D5">
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E5">
         <f>-D5</f>
-        <v>-1E-3</v>
+        <v>-1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4146,66 +4473,66 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>3.4717799517452494E-7</v>
+        <v>26.646308495741309</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
-        <v>3.4710815547916958E-7</v>
+        <v>26.646299060615476</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
-        <v>3.4724785096782786E-7</v>
+        <v>26.646317930867966</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
-        <v>-6.9846754879865358E-8</v>
+        <v>-0.94351262380448908</v>
       </c>
       <c r="D7">
         <f ca="1">(D6-E6)/(D5-E5)</f>
-        <v>-6.9847744329144432E-8</v>
+        <v>-0.94351262447389661</v>
       </c>
       <c r="E7">
         <f ca="1">(C7-D7)/C7</f>
-        <v>-1.4166002139628762E-5</v>
+        <v>-7.0948444410693762E-10</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.TMX.BLACK.GAMMA(f, s, k)</f>
-        <v>1.4081882004129341E-8</v>
+        <v>8.5115784629630712E-3</v>
       </c>
       <c r="D8">
         <f ca="1">(D6-2*C6+E6)/(D5^2)</f>
-        <v>1.6097947559928598E-8</v>
+        <v>8.2422957348171604E-3</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E9" ca="1" si="0">(C8-D8)/C8</f>
-        <v>-0.14316733766183173</v>
+        <v>3.1637225611871697E-2</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.BLACK.VEGA(f, s, k)</f>
-        <v>5.5461170410101093E-5</v>
+        <v>8.0711423628872296</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
-        <v>5.5632643249401951E-5</v>
+        <v>8.0711423620982714</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0917638057928122E-3</v>
+        <v>9.7750503783253391E-11</v>
       </c>
     </row>
   </sheetData>
@@ -4222,7 +4549,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4238,7 +4565,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45102</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -4247,7 +4574,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">10*RAND()</f>
-        <v>9.2171310908858395</v>
+        <v>7.7603850925378746</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4256,18 +4583,18 @@
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>48468.487997685188</v>
+        <v>47947.422442129631</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>48468.487997685188</v>
+        <v>47947.422442129631</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.DATE.ADD_YEARS(C4,-years)</f>
-        <v>45102.000000000007</v>
+        <v>45113</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">C5-date</f>
@@ -4280,18 +4607,18 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>9.215794985523317</v>
+        <v>7.7592284578054302</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>48468</v>
+        <v>47947</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>48468</v>
+        <v>47947</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4336,7 +4663,7 @@
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.DATE.ADD_YMD(date, years_,months, days)</f>
-        <v>45532</v>
+        <v>45544</v>
       </c>
     </row>
   </sheetData>
@@ -4350,10 +4677,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B429FC-4136-41AD-B308-B590D229D902}">
-  <dimension ref="B2:N43"/>
+  <dimension ref="B2:O43"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M3" sqref="M3:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4366,7 +4693,7 @@
     <col min="10" max="10" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4378,28 +4705,31 @@
       </c>
       <c r="I2" s="5" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>1934059856320</v>
+        <v>2044160464784</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="15">
         <f ca="1">RAND()</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve))</f>
@@ -4407,28 +4737,37 @@
       </c>
       <c r="F3" s="16">
         <f ca="1"/>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3:K43">_xlfn.SEQUENCE(1+4/0.1,1,0,0.1)</f>
         <v>0</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K3)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M3" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K3)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K3)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K3)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -4443,24 +4782,34 @@
         <f ca="1"/>
         <v>0.2</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="5" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve,spread)</f>
+        <v>2044160459504</v>
+      </c>
       <c r="K4">
         <v>0.1</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K4)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M4" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K4)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K4)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K4)</f>
-        <v>0.95638873663254687</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.98192018275437576</v>
+      </c>
+      <c r="O4" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K4)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -4481,18 +4830,22 @@
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K5)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M5" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K5)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K5)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K5)</f>
-        <v>0.91467941555759913</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.96416724530038678</v>
+      </c>
+      <c r="O5" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K5)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
@@ -4514,137 +4867,169 @@
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K6)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M6" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K6)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K6)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K6)</f>
-        <v>0.87478909066892863</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.94673527771113886</v>
+      </c>
+      <c r="O6" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K6)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K7">
         <v>0.4</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K7)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K7)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K7)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K7)</f>
-        <v>0.83663843324479115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.92961847691013622</v>
+      </c>
+      <c r="O7" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K7)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K8">
         <v>0.5</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K8)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M8" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K8)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K8)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N8" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K8)</f>
-        <v>0.80015157418921923</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.91281114473944547</v>
+      </c>
+      <c r="O8" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K8)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K9">
         <v>0.6</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K9)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M9" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K9)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K9)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N9" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K9)</f>
-        <v>0.76525595315337103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.89630768606278721</v>
+      </c>
+      <c r="O9" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K9)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K10">
         <v>0.7</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K10)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M10" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K10)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K10)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K10)</f>
-        <v>0.73188217423688795</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.88010260690292375</v>
+      </c>
+      <c r="O10" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K10)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K11">
         <v>0.79999999999999993</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K11)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M11" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K11)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K11)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K11)</f>
-        <v>0.69996386798229893</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.86419051261272151</v>
+      </c>
+      <c r="O11" cm="1">
+        <f t="array" aca="1" ref="O11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K11)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K12">
         <v>0.89999999999999991</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K12)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M12" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K12)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K12)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N12" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K12)</f>
-        <v>0.66943755938802163</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.84856610607928118</v>
+      </c>
+      <c r="O12" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K12)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K13">
         <v>0.99999999999999989</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K13)</f>
-        <v>0.44590820304886092</v>
+        <v>0.18245254221952678</v>
       </c>
       <c r="M13" cm="1">
-        <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K13)</f>
-        <v>0.44590820304886092</v>
+        <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K13)</f>
+        <v>0.18245254221952678</v>
       </c>
       <c r="N13" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K13)</f>
-        <v>0.64024254167748562</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.83322418596053682</v>
+      </c>
+      <c r="O13" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K13)</f>
+        <v>0.28245254221952676</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K14">
         <v>1.0999999999999999</v>
       </c>
@@ -4653,15 +5038,19 @@
         <v>0.2</v>
       </c>
       <c r="M14" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K14)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K14)</f>
+        <v>0.18404776565411524</v>
       </c>
       <c r="N14" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K14)</f>
-        <v>0.62756488994681636</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.81672524164561933</v>
+      </c>
+      <c r="O14" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K14)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K15">
         <v>1.2</v>
       </c>
@@ -4670,15 +5059,19 @@
         <v>0.2</v>
       </c>
       <c r="M15" cm="1">
-        <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K15)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K15)</f>
+        <v>0.18537711851627231</v>
       </c>
       <c r="N15" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K15)</f>
-        <v>0.61513827253976938</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0.80055299831717519</v>
+      </c>
+      <c r="O15" cm="1">
+        <f t="array" aca="1" ref="O15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K15)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K16">
         <v>1.3</v>
       </c>
@@ -4687,15 +5080,19 @@
         <v>0.2</v>
       </c>
       <c r="M16" cm="1">
-        <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K16)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K16)</f>
+        <v>0.18650195555348212</v>
       </c>
       <c r="N16" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K16)</f>
-        <v>0.60295771864369108</v>
-      </c>
-    </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.78470098686224021</v>
+      </c>
+      <c r="O16" cm="1">
+        <f t="array" aca="1" ref="O16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K16)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K17">
         <v>1.4000000000000001</v>
       </c>
@@ -4704,15 +5101,19 @@
         <v>0.2</v>
       </c>
       <c r="M17" cm="1">
-        <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K17)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K17)</f>
+        <v>0.18746610158537627</v>
       </c>
       <c r="N17" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K17)</f>
-        <v>0.59101835587461382</v>
-      </c>
-    </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.76916286626486952</v>
+      </c>
+      <c r="O17" cm="1">
+        <f t="array" aca="1" ref="O17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K17)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K18">
         <v>1.5000000000000002</v>
       </c>
@@ -4721,15 +5122,19 @@
         <v>0.2</v>
       </c>
       <c r="M18" cm="1">
-        <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K18)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K18)</f>
+        <v>0.18830169481301784</v>
       </c>
       <c r="N18" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K18)</f>
-        <v>0.57931540832823625</v>
-      </c>
-    </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.75393242106964631</v>
+      </c>
+      <c r="O18" cm="1">
+        <f t="array" aca="1" ref="O18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K18)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K19">
         <v>1.6000000000000003</v>
       </c>
@@ -4738,15 +5143,19 @@
         <v>0.2</v>
       </c>
       <c r="M19" cm="1">
-        <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K19)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K19)</f>
+        <v>0.18903283888720424</v>
       </c>
       <c r="N19" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K19)</f>
-        <v>0.56784419466949843</v>
-      </c>
-    </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.73900355889541736</v>
+      </c>
+      <c r="O19" cm="1">
+        <f t="array" aca="1" ref="O19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K19)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K20">
         <v>1.7000000000000004</v>
       </c>
@@ -4755,15 +5164,19 @@
         <v>0.2</v>
       </c>
       <c r="M20" cm="1">
-        <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K20)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K20)</f>
+        <v>0.18967796601148637</v>
       </c>
       <c r="N20" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K20)</f>
-        <v>0.55660012625998523</v>
-      </c>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.72437030799825863</v>
+      </c>
+      <c r="O20" cm="1">
+        <f t="array" aca="1" ref="O20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K20)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K21">
         <v>1.8000000000000005</v>
       </c>
@@ -4772,15 +5185,19 @@
         <v>0.2</v>
       </c>
       <c r="M21" cm="1">
-        <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K21)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K21)</f>
+        <v>0.19025141234418158</v>
       </c>
       <c r="N21" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K21)</f>
-        <v>0.54557870532240993</v>
-      </c>
-    </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.71002681488269881</v>
+      </c>
+      <c r="O21" cm="1">
+        <f t="array" aca="1" ref="O21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K21)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K22">
         <v>1.9000000000000006</v>
       </c>
@@ -4789,15 +5206,19 @@
         <v>0.2</v>
       </c>
       <c r="M22" cm="1">
-        <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K22)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K22)</f>
+        <v>0.19076449590501413</v>
       </c>
       <c r="N22" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K22)</f>
-        <v>0.5347755231414435</v>
-      </c>
-    </row>
-    <row r="23" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.69596734196024246</v>
+      </c>
+      <c r="O22" cm="1">
+        <f t="array" aca="1" ref="O22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K22)</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K23">
         <v>2.0000000000000004</v>
       </c>
@@ -4806,15 +5227,19 @@
         <v>0.3</v>
       </c>
       <c r="M23" cm="1">
-        <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K23)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K23)</f>
+        <v>0.1912262711097634</v>
       </c>
       <c r="N23" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K23)</f>
-        <v>0.52418625830016885</v>
-      </c>
-    </row>
-    <row r="24" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.68218626525425863</v>
+      </c>
+      <c r="O23" cm="1">
+        <f t="array" aca="1" ref="O23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K23)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K24">
         <v>2.1000000000000005</v>
       </c>
@@ -4823,15 +5248,19 @@
         <v>0.3</v>
       </c>
       <c r="M24" cm="1">
-        <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K24)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K24)</f>
+        <v>0.19640597248548897</v>
       </c>
       <c r="N24" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K24)</f>
-        <v>0.50869421311490348</v>
-      </c>
-    </row>
-    <row r="25" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.66202461416413305</v>
+      </c>
+      <c r="O24" cm="1">
+        <f t="array" aca="1" ref="O24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K24)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K25">
         <v>2.2000000000000006</v>
       </c>
@@ -4840,15 +5269,19 @@
         <v>0.3</v>
       </c>
       <c r="M25" cm="1">
-        <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K25)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K25)</f>
+        <v>0.20111479191796675</v>
       </c>
       <c r="N25" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K25)</f>
-        <v>0.49366002705933104</v>
-      </c>
-    </row>
-    <row r="26" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.64245882991475745</v>
+      </c>
+      <c r="O25" cm="1">
+        <f t="array" aca="1" ref="O25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K25)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K26">
         <v>2.3000000000000007</v>
       </c>
@@ -4857,15 +5290,19 @@
         <v>0.3</v>
       </c>
       <c r="M26" cm="1">
-        <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K26)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K26)</f>
+        <v>0.20541414879109862</v>
       </c>
       <c r="N26" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K26)</f>
-        <v>0.47907016835116351</v>
-      </c>
-    </row>
-    <row r="27" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.62347130197957701</v>
+      </c>
+      <c r="O26" cm="1">
+        <f t="array" aca="1" ref="O26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K26)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K27">
         <v>2.4000000000000008</v>
       </c>
@@ -4874,15 +5311,19 @@
         <v>0.3</v>
       </c>
       <c r="M27" cm="1">
-        <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K27)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K27)</f>
+        <v>0.20935522592480288</v>
       </c>
       <c r="N27" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K27)</f>
-        <v>0.46491150513271845</v>
-      </c>
-    </row>
-    <row r="28" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.6050449403017536</v>
+      </c>
+      <c r="O27" cm="1">
+        <f t="array" aca="1" ref="O27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K27)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K28">
         <v>2.5000000000000009</v>
       </c>
@@ -4891,15 +5332,19 @@
         <v>0.3</v>
       </c>
       <c r="M28" cm="1">
-        <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K28)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K28)</f>
+        <v>0.21298101688781076</v>
       </c>
       <c r="N28" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K28)</f>
-        <v>0.45117129365136094</v>
-      </c>
-    </row>
-    <row r="29" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.58716315991196055</v>
+      </c>
+      <c r="O28" cm="1">
+        <f t="array" aca="1" ref="O28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K28)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K29">
         <v>2.600000000000001</v>
       </c>
@@ -4908,15 +5353,19 @@
         <v>0.3</v>
       </c>
       <c r="M29" cm="1">
-        <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K29)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K29)</f>
+        <v>0.21632790085366418</v>
       </c>
       <c r="N29" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K29)</f>
-        <v>0.43783716678926565</v>
-      </c>
-    </row>
-    <row r="30" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.56980986600079053</v>
+      </c>
+      <c r="O29" cm="1">
+        <f t="array" aca="1" ref="O29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K29)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K30">
         <v>2.7000000000000011</v>
       </c>
@@ -4925,15 +5374,19 @@
         <v>0.3</v>
       </c>
       <c r="M30" cm="1">
-        <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K30)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K30)</f>
+        <v>0.21942686748871368</v>
       </c>
       <c r="N30" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K30)</f>
-        <v>0.42489712293217602</v>
-      </c>
-    </row>
-    <row r="31" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.55296943943234111</v>
+      </c>
+      <c r="O30" cm="1">
+        <f t="array" aca="1" ref="O30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K30)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K31">
         <v>2.8000000000000012</v>
       </c>
@@ -4942,15 +5395,19 @@
         <v>0.3</v>
       </c>
       <c r="M31" cm="1">
-        <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K31)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K31)</f>
+        <v>0.22230447936411671</v>
       </c>
       <c r="N31" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K31)</f>
-        <v>0.41233951516714162</v>
-      </c>
-    </row>
-    <row r="32" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.53662672268593781</v>
+      </c>
+      <c r="O31" cm="1">
+        <f t="array" aca="1" ref="O31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K31)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K32">
         <v>2.9000000000000012</v>
       </c>
@@ -4959,15 +5416,19 @@
         <v>0.3</v>
       </c>
       <c r="M32" cm="1">
-        <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K32)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K32)</f>
+        <v>0.22498363524811268</v>
       </c>
       <c r="N32" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K32)</f>
-        <v>0.40015304079950992</v>
-      </c>
-    </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.52076700621334227</v>
+      </c>
+      <c r="O32" cm="1">
+        <f t="array" aca="1" ref="O32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K32)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K33">
         <v>3.0000000000000013</v>
       </c>
@@ -4976,15 +5437,19 @@
         <v>0.4</v>
       </c>
       <c r="M33" cm="1">
-        <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K33)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K33)</f>
+        <v>0.22748418073984233</v>
       </c>
       <c r="N33" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K33)</f>
-        <v>0.38832673117973826</v>
-      </c>
-    </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.50537601519916608</v>
+      </c>
+      <c r="O33" cm="1">
+        <f t="array" aca="1" ref="O33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K33)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K34">
         <v>3.1000000000000014</v>
       </c>
@@ -4993,15 +5458,19 @@
         <v>0.4</v>
       </c>
       <c r="M34" cm="1">
-        <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K34)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K34)</f>
+        <v>0.23304920716758937</v>
       </c>
       <c r="N34" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K34)</f>
-        <v>0.37310022225803574</v>
-      </c>
-    </row>
-    <row r="35" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.4855599382042427</v>
+      </c>
+      <c r="O34" cm="1">
+        <f t="array" aca="1" ref="O34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K34)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K35">
         <v>3.2000000000000015</v>
       </c>
@@ -5010,15 +5479,19 @@
         <v>0.4</v>
       </c>
       <c r="M35" cm="1">
-        <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K35)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K35)</f>
+        <v>0.23826641944360219</v>
       </c>
       <c r="N35" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K35)</f>
-        <v>0.35847075329090528</v>
-      </c>
-    </row>
-    <row r="36" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.46652086070209103</v>
+      </c>
+      <c r="O35" cm="1">
+        <f t="array" aca="1" ref="O35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K35)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K36">
         <v>3.3000000000000016</v>
       </c>
@@ -5027,15 +5500,19 @@
         <v>0.4</v>
       </c>
       <c r="M36" cm="1">
-        <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K36)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K36)</f>
+        <v>0.24316743703622032</v>
       </c>
       <c r="N36" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K36)</f>
-        <v>0.34441491400687974</v>
-      </c>
-    </row>
-    <row r="37" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.44822831610682112</v>
+      </c>
+      <c r="O36" cm="1">
+        <f t="array" aca="1" ref="O36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K36)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K37">
         <v>3.4000000000000017</v>
       </c>
@@ -5044,15 +5521,19 @@
         <v>0.4</v>
       </c>
       <c r="M37" cm="1">
-        <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K37)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K37)</f>
+        <v>0.2477801594763315</v>
       </c>
       <c r="N37" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K37)</f>
-        <v>0.33091021206436555</v>
-      </c>
-    </row>
-    <row r="38" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.4306530324444629</v>
+      </c>
+      <c r="O37" cm="1">
+        <f t="array" aca="1" ref="O37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K37)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K38">
         <v>3.5000000000000018</v>
       </c>
@@ -5061,15 +5542,19 @@
         <v>0.4</v>
       </c>
       <c r="M38" cm="1">
-        <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K38)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K38)</f>
+        <v>0.25212929777700771</v>
       </c>
       <c r="N38" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K38)</f>
-        <v>0.31793503705909815</v>
-      </c>
-    </row>
-    <row r="39" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.41376688551156277</v>
+      </c>
+      <c r="O38" cm="1">
+        <f t="array" aca="1" ref="O38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K38)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K39">
         <v>3.6000000000000019</v>
       </c>
@@ -5078,15 +5563,19 @@
         <v>0.4</v>
       </c>
       <c r="M39" cm="1">
-        <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K39)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K39)</f>
+        <v>0.25623681728320197</v>
       </c>
       <c r="N39" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K39)</f>
-        <v>0.30546862594288399</v>
-      </c>
-    </row>
-    <row r="40" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.3975428538704579</v>
+      </c>
+      <c r="O39" cm="1">
+        <f t="array" aca="1" ref="O39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K39)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K40">
         <v>3.700000000000002</v>
       </c>
@@ -5095,15 +5584,19 @@
         <v>0.4</v>
       </c>
       <c r="M40" cm="1">
-        <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K40)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K40)</f>
+        <v>0.26012230870798031</v>
       </c>
       <c r="N40" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K40)</f>
-        <v>0.29349102979829428</v>
-      </c>
-    </row>
-    <row r="41" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.38195497560921121</v>
+      </c>
+      <c r="O40" cm="1">
+        <f t="array" aca="1" ref="O40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K40)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K41">
         <v>3.800000000000002</v>
       </c>
@@ -5112,15 +5605,19 @@
         <v>0.4</v>
       </c>
       <c r="M41" cm="1">
-        <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K41)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K41)</f>
+        <v>0.26380330058408608</v>
       </c>
       <c r="N41" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K41)</f>
-        <v>0.28198308191614097</v>
-      </c>
-    </row>
-    <row r="42" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.36697830679701332</v>
+      </c>
+      <c r="O41" cm="1">
+        <f t="array" aca="1" ref="O41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K41)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K42">
         <v>3.9000000000000021</v>
       </c>
@@ -5129,15 +5626,19 @@
         <v>0.4</v>
       </c>
       <c r="M42" cm="1">
-        <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K42)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K42)</f>
+        <v>0.2672955236460326</v>
       </c>
       <c r="N42" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K42)</f>
-        <v>0.27092636712465268</v>
-      </c>
-    </row>
-    <row r="43" spans="11:14" x14ac:dyDescent="0.3">
+        <v>0.3525888815685716</v>
+      </c>
+      <c r="O42" cm="1">
+        <f t="array" aca="1" ref="O42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K42)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K43">
         <v>4.0000000000000018</v>
       </c>
@@ -5146,12 +5647,16 @@
         <v>0.4</v>
       </c>
       <c r="M43" cm="1">
-        <f t="array" aca="1" ref="M43" ca="1">_xll.TMX.PWFLAT.CURVE.SPOT(curve,K43)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="M43" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K43)</f>
+        <v>0.27061313555488176</v>
       </c>
       <c r="N43" cm="1">
         <f t="array" aca="1" ref="N43" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K43)</f>
-        <v>0.26030319232127141</v>
+        <v>0.33876367377361288</v>
+      </c>
+      <c r="O43" cm="1">
+        <f t="array" aca="1" ref="O43" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K43)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5162,24 +5667,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8A3DD8-75E7-4A72-9366-AF366CC35FAC}">
-  <dimension ref="B1:G552"/>
+  <dimension ref="B1:I553"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -5192,18 +5699,18 @@
       </c>
       <c r="E2" s="5" cm="1">
         <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
-        <v>1934046364704</v>
+        <v>2042993404720</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="b">
-        <f>F2=D2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="17">
+        <f>F2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5216,17 +5723,17 @@
       <c r="F3">
         <v>0.05</v>
       </c>
-      <c r="G3" s="17" t="b">
-        <f t="shared" ref="G3:G5" si="0">F3=D3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G5" si="0">F3-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -5234,259 +5741,427 @@
       <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4" s="17" t="b">
+      <c r="G4" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5">
-        <v>140716933985319</v>
+        <v>140718145352768</v>
       </c>
       <c r="F5" s="5">
-        <v>140716933985319</v>
-      </c>
-      <c r="G5" s="17" t="b">
+        <v>140718145352768</v>
+      </c>
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
-        <v>1934046363552</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+        <v>2042993402032</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
-        <v>1934059852624</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>2044160458272</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="20" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
-        <v>4.9380446996018602E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>4.9377109858896553E-2</v>
+      </c>
+      <c r="D9" s="5" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">_xll.\TMX.PWFLAT.CURVE(0,0,yield)</f>
+        <v>2044160458624</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="23" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">_xll.TMX.VALUE.PRESENT(instrument, $D$9)</f>
+        <v>1.0000000017656043</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="23" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.VALUE.DURATION(instrument, $D$9)</f>
+        <v>-3.6753500677592705</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="20" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(C9,12/_xll.ENUM(frequency))</f>
-        <v>4.9995102366507727E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+      <c r="C12" s="23" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.CONVEXITY(instrument, $D$9)</f>
+        <v>14.225612023361775</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="20" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(C9,12/_xll.ENUM(frequency))</f>
+        <v>4.9991681811983657E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <f ca="1">C10-G14</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <f ca="1">C11-H14</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f ca="1">C12-I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f ca="1">SUM(G16:G23)</f>
+        <v>1.0000000017656043</v>
+      </c>
+      <c r="H14">
+        <f ca="1">SUM(H16:H23)</f>
+        <v>-3.6753500677592705</v>
+      </c>
+      <c r="I14">
+        <f ca="1">SUM(I16:I23)</f>
+        <v>14.225612023361773</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C14" cm="1">
-        <f t="array" aca="1" ref="C14:D21" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
-        <v>0.50103698227889693</v>
-      </c>
-      <c r="D14">
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="16" cm="1">
+        <f t="array" aca="1" ref="C16:D23" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
+        <v>0.50377488928588543</v>
+      </c>
+      <c r="D16">
         <f ca="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E14" s="2" cm="1">
-        <f t="array" aca="1" ref="E14:E21" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C14),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
-        <v>45285</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C15">
+      <c r="E16" s="2" cm="1">
+        <f t="array" aca="1" ref="E16:E23" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C16),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
+        <v>45297</v>
+      </c>
+      <c r="F16" s="24" cm="1">
+        <f t="array" aca="1" ref="F16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C16)</f>
+        <v>0.97543188405858439</v>
+      </c>
+      <c r="G16" s="24">
+        <f ca="1">D16*F16</f>
+        <v>2.4385797101464612E-2</v>
+      </c>
+      <c r="H16" s="24">
+        <f ca="1">-G16*C16</f>
+        <v>-1.22849522349384E-2</v>
+      </c>
+      <c r="I16" s="24">
+        <f ca="1">C16^2*G16</f>
+        <v>6.1888504520384831E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="16">
         <f ca="1"/>
         <v>1.0020739645577939</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <f ca="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E15" s="2">
-        <f ca="1"/>
-        <v>45468</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <f ca="1"/>
-        <v>1.5031109468366908</v>
-      </c>
-      <c r="D16">
+      <c r="E17" s="2">
+        <f ca="1"/>
+        <v>45479</v>
+      </c>
+      <c r="F17" s="24" cm="1">
+        <f t="array" aca="1" ref="F17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C17)</f>
+        <v>0.95172465284120833</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" ref="G17:G23" ca="1" si="1">D17*F17</f>
+        <v>2.3793116321030209E-2</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" ref="H17:H23" ca="1" si="2">-G17*C17</f>
+        <v>-2.3842462400999492E-2</v>
+      </c>
+      <c r="I17" s="24">
+        <f t="shared" ref="I17:I23" ca="1" si="3">C17^2*G17</f>
+        <v>2.3891910822989696E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="16">
+        <f ca="1"/>
+        <v>1.5058488538436792</v>
+      </c>
+      <c r="D18">
         <f ca="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E16" s="2">
-        <f ca="1"/>
-        <v>45651</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17">
+      <c r="E18" s="2">
+        <f ca="1"/>
+        <v>45663</v>
+      </c>
+      <c r="F18" s="24" cm="1">
+        <f t="array" aca="1" ref="F18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C18)</f>
+        <v>0.92834257122590202</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3208564280647551E-2</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.4948589921370468E-2</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.2627294076548474E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="16">
         <f ca="1"/>
         <v>2.0014100221085989</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <f ca="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E17" s="2">
-        <f ca="1"/>
-        <v>45832.999988425923</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <f ca="1"/>
-        <v>2.5024470043874958</v>
-      </c>
-      <c r="D18">
+      <c r="E19" s="2">
+        <f ca="1"/>
+        <v>45843.999988425923</v>
+      </c>
+      <c r="F19" s="24" cm="1">
+        <f t="array" aca="1" ref="F19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C19)</f>
+        <v>0.90590227541760349</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2647556885440089E-2</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.5327047326794399E-2</v>
+      </c>
+      <c r="I19" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.0718006792437078E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="16">
+        <f ca="1"/>
+        <v>2.5051849113944846</v>
+      </c>
+      <c r="D20">
         <f ca="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E18" s="2">
-        <f ca="1"/>
-        <v>46016</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C19">
+      <c r="E20" s="2">
+        <f ca="1"/>
+        <v>46028</v>
+      </c>
+      <c r="F20" s="24" cm="1">
+        <f t="array" aca="1" ref="F20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C20)</f>
+        <v>0.88364596328355161</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2091149082088792E-2</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.5342413355814961E-2</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13864297889914423</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="16">
         <f ca="1"/>
         <v>3.0007460796594043</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <f ca="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E19" s="2">
-        <f ca="1"/>
-        <v>46198</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <f ca="1"/>
-        <v>3.5017830619383012</v>
-      </c>
-      <c r="D20">
+      <c r="E21" s="2">
+        <f ca="1"/>
+        <v>46209</v>
+      </c>
+      <c r="F21" s="24" cm="1">
+        <f t="array" aca="1" ref="F21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C21)</f>
+        <v>0.86228609310146287</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1557152327536574E-2</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.4687540335475982E-2</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.19411088306448912</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="16">
+        <f ca="1"/>
+        <v>3.5045209689452896</v>
+      </c>
+      <c r="D22">
         <f ca="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E20" s="2">
-        <f ca="1"/>
-        <v>46381</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C21">
+      <c r="E22" s="2">
+        <f ca="1"/>
+        <v>46393</v>
+      </c>
+      <c r="F22" s="24" cm="1">
+        <f t="array" aca="1" ref="F22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C22)</f>
+        <v>0.84110134839147577</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1027533709786897E-2</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.3691432811152119E-2</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25825317151830551</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="16">
         <f ca="1"/>
         <v>4.0000821372102093</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <f ca="1"/>
         <v>1.0249999999999999</v>
       </c>
-      <c r="E21" s="2">
-        <f ca="1"/>
-        <v>46563</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="2">
+        <f ca="1"/>
+        <v>46574</v>
+      </c>
+      <c r="F23" s="24" cm="1">
+        <f t="array" aca="1" ref="F23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C23)</f>
+        <v>0.82076988493425329</v>
+      </c>
+      <c r="G23" s="24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84128913205760958</v>
+      </c>
+      <c r="H23" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.3652256293727247</v>
+      </c>
+      <c r="I23" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>13.461178927735821</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
     </row>
@@ -6788,6 +7463,7 @@
     </row>
     <row r="357" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E357" s="2"/>
+      <c r="G357" s="2"/>
     </row>
     <row r="358" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E358" s="2"/>
@@ -7373,6 +8049,9 @@
     </row>
     <row r="552" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E552" s="2"/>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E553" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7400,14 +8079,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92863B8-4C87-4474-B5B0-52EEB5BB3C33}">
-  <dimension ref="B2:J107"/>
+  <dimension ref="B2:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.296875" bestFit="1" customWidth="1"/>
@@ -7415,31 +8097,43 @@
     <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="21" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:G3">_xll.TMX.INSTRUMENT(F7)</f>
+        <v>0.50103698227889693</v>
+      </c>
+      <c r="G2">
+        <v>1.0020739645577939</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>45080</v>
+        <v>45103</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G5" s="19" t="s">
-        <v>36</v>
-      </c>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7455,18 +8149,26 @@
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" cm="1">
-        <f t="array" aca="1" ref="G6" ca="1">_xll.\TMX.BOOTSTRAP(instrument, price)</f>
-        <v>1934059827280</v>
+      <c r="G6" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -7478,11 +8180,15 @@
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>1934046363648</v>
+        <v>2042993401072</v>
       </c>
       <c r="F7" s="5" cm="1">
         <f t="array" ref="F7">_xll.\TMX.BOND.INSTRUMENT(E7, dated)</f>
-        <v>1934037281248</v>
+        <v>2043317307488</v>
+      </c>
+      <c r="G7" s="5" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">_xll.\TMX.BOOTSTRAP.CURVE(instrument, price)</f>
+        <v>2044160458976</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7:H107">_xlfn.SEQUENCE(1+10/H5,1,0,H5)</f>
@@ -7493,35 +8199,66 @@
         <v>4.9283011639120938E-2</v>
       </c>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="P7" cm="1">
+        <f t="array" ref="P7:P17">_xlfn.SEQUENCE(11,1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" cm="1">
+        <f t="array" aca="1" ref="Q7" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P7)</f>
+        <v>1.0000000020324777</v>
+      </c>
+      <c r="R7" s="22" cm="1">
+        <f t="array" aca="1" ref="R7" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P7)</f>
+        <v>-7.9913192655569132</v>
+      </c>
+      <c r="S7" s="22" cm="1">
+        <f t="array" aca="1" ref="S7" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P7)</f>
+        <v>73.390064886490308</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="18">
         <f ca="1">0.05 + 0.01*RAND()</f>
-        <v>5.5845076617823466E-2</v>
+        <v>5.0333493279632012E-2</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="5" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>1933933468208</v>
+        <v>2043319377568</v>
       </c>
       <c r="F8" s="5" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
-        <v>1934059827632</v>
+        <v>2044160465312</v>
       </c>
       <c r="H8">
         <v>0.1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="20">
         <f ca="1"/>
         <v>4.9283011639120938E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" cm="1">
+        <f t="array" aca="1" ref="Q8" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P8)</f>
+        <v>1.0248952385794579</v>
+      </c>
+      <c r="R8" s="22" cm="1">
+        <f t="array" aca="1" ref="R8" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P8)</f>
+        <v>-7.3572886756176938</v>
+      </c>
+      <c r="S8" s="22" cm="1">
+        <f t="array" aca="1" ref="S8" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P8)</f>
+        <v>61.351651321794996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -7533,21 +8270,36 @@
       </c>
       <c r="E9" s="5" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>1934046361536</v>
+        <v>2042993399824</v>
       </c>
       <c r="F9" s="5" cm="1">
         <f t="array" ref="F9">_xll.\TMX.BOND.INSTRUMENT(E9, dated)</f>
-        <v>1934037283360</v>
+        <v>2043317298160</v>
       </c>
       <c r="H9">
         <v>0.2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="20">
         <f ca="1"/>
         <v>4.9283011639120938E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" cm="1">
+        <f t="array" aca="1" ref="Q9" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P9)</f>
+        <v>1.0256202701880055</v>
+      </c>
+      <c r="R9" s="22" cm="1">
+        <f t="array" aca="1" ref="R9" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P9)</f>
+        <v>-6.6965725124109809</v>
+      </c>
+      <c r="S9" s="22" cm="1">
+        <f t="array" aca="1" ref="S9" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P9)</f>
+        <v>50.077277334764915</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -7559,21 +8311,36 @@
       </c>
       <c r="E10" s="5" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>1934046362688</v>
+        <v>2042993400496</v>
       </c>
       <c r="F10" s="5" cm="1">
         <f t="array" ref="F10">_xll.\TMX.BOND.INSTRUMENT(E10, dated)</f>
-        <v>1934037281072</v>
+        <v>2043317320160</v>
       </c>
       <c r="H10">
         <v>0.30000000000000004</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="20">
         <f ca="1"/>
         <v>4.9283011639120938E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10" cm="1">
+        <f t="array" aca="1" ref="Q10" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P10)</f>
+        <v>1.0249627491958293</v>
+      </c>
+      <c r="R10" s="22" cm="1">
+        <f t="array" aca="1" ref="R10" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P10)</f>
+        <v>-5.9930165187432971</v>
+      </c>
+      <c r="S10" s="22" cm="1">
+        <f t="array" aca="1" ref="S10" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P10)</f>
+        <v>39.55982421200541</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -7585,21 +8352,36 @@
       </c>
       <c r="E11" s="5" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>1934046364896</v>
+        <v>2042993399440</v>
       </c>
       <c r="F11" s="5" cm="1">
         <f t="array" ref="F11">_xll.\TMX.BOND.INSTRUMENT(E11, dated)</f>
-        <v>1934037280896</v>
+        <v>2043317308016</v>
       </c>
       <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="20">
         <f ca="1"/>
         <v>4.9283011639120938E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11" cm="1">
+        <f t="array" aca="1" ref="Q11" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P11)</f>
+        <v>1.0249958265333643</v>
+      </c>
+      <c r="R11" s="22" cm="1">
+        <f t="array" aca="1" ref="R11" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P11)</f>
+        <v>-5.2587329787794097</v>
+      </c>
+      <c r="S11" s="22" cm="1">
+        <f t="array" aca="1" ref="S11" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P11)</f>
+        <v>30.014898835046406</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6</v>
       </c>
@@ -7611,21 +8393,36 @@
       </c>
       <c r="E12" s="5" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>1934046362880</v>
+        <v>2042993400304</v>
       </c>
       <c r="F12" s="5" cm="1">
         <f t="array" ref="F12">_xll.\TMX.BOND.INSTRUMENT(E12, dated)</f>
-        <v>1934037283712</v>
+        <v>2043317314176</v>
       </c>
       <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="20">
         <f ca="1"/>
         <v>4.9283011639120938E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12" cm="1">
+        <f t="array" aca="1" ref="Q12" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P12)</f>
+        <v>1.0248910962137294</v>
+      </c>
+      <c r="R12" s="22" cm="1">
+        <f t="array" aca="1" ref="R12" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P12)</f>
+        <v>-4.4866587517636782</v>
+      </c>
+      <c r="S12" s="22" cm="1">
+        <f t="array" aca="1" ref="S12" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P12)</f>
+        <v>21.526538155800029</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
@@ -7637,21 +8434,36 @@
       </c>
       <c r="E13" s="5" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>1934046364800</v>
+        <v>2042993399920</v>
       </c>
       <c r="F13" s="5" cm="1">
         <f t="array" ref="F13">_xll.\TMX.BOND.INSTRUMENT(E13, dated)</f>
-        <v>1934037283536</v>
+        <v>2043317305904</v>
       </c>
       <c r="H13">
         <v>0.6</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="20">
         <f ca="1"/>
         <v>4.9283011639120938E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13" cm="1">
+        <f t="array" aca="1" ref="Q13" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P13)</f>
+        <v>1.0249244216838576</v>
+      </c>
+      <c r="R13" s="22" cm="1">
+        <f t="array" aca="1" ref="R13" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P13)</f>
+        <v>-3.6760677129263479</v>
+      </c>
+      <c r="S13" s="22" cm="1">
+        <f t="array" aca="1" ref="S13" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P13)</f>
+        <v>14.233469381920791</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>8</v>
       </c>
@@ -7663,21 +8475,36 @@
       </c>
       <c r="E14" s="5" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>1934046362112</v>
+        <v>2042993399344</v>
       </c>
       <c r="F14" s="5" cm="1">
         <f t="array" ref="F14">_xll.\TMX.BOND.INSTRUMENT(E14, dated)</f>
-        <v>1934037282128</v>
+        <v>2043317307664</v>
       </c>
       <c r="H14">
         <v>0.7</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="20">
         <f ca="1"/>
         <v>4.9283011639120938E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14" cm="1">
+        <f t="array" aca="1" ref="Q14" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P14)</f>
+        <v>1.0249580425323166</v>
+      </c>
+      <c r="R14" s="22" cm="1">
+        <f t="array" aca="1" ref="R14" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P14)</f>
+        <v>-2.8244157481660306</v>
+      </c>
+      <c r="S14" s="22" cm="1">
+        <f t="array" aca="1" ref="S14" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P14)</f>
+        <v>8.2742442213556622</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9</v>
       </c>
@@ -7689,21 +8516,36 @@
       </c>
       <c r="E15" s="5" cm="1">
         <f t="array" ref="E15">_xll.\TMX.BOND.SIMPLE(B15, C15)</f>
-        <v>1934046366528</v>
+        <v>2042993404816</v>
       </c>
       <c r="F15" s="5" cm="1">
         <f t="array" ref="F15">_xll.\TMX.BOND.INSTRUMENT(E15, dated)</f>
-        <v>1934037279136</v>
+        <v>2043317300800</v>
       </c>
       <c r="H15">
         <v>0.79999999999999993</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="20">
         <f ca="1"/>
         <v>4.9283011639120938E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15" cm="1">
+        <f t="array" aca="1" ref="Q15" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P15)</f>
+        <v>1.0249916641251475</v>
+      </c>
+      <c r="R15" s="22" cm="1">
+        <f t="array" aca="1" ref="R15" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P15)</f>
+        <v>-1.9296214514659797</v>
+      </c>
+      <c r="S15" s="22" cm="1">
+        <f t="array" aca="1" ref="S15" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P15)</f>
+        <v>3.8027102528855439</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10</v>
       </c>
@@ -7715,838 +8557,868 @@
       </c>
       <c r="E16" s="5" cm="1">
         <f t="array" ref="E16">_xll.\TMX.BOND.SIMPLE(B16, C16)</f>
-        <v>1934046365568</v>
+        <v>2042993399536</v>
       </c>
       <c r="F16" s="5" cm="1">
         <f t="array" ref="F16">_xll.\TMX.BOND.INSTRUMENT(E16, dated)</f>
-        <v>1934037283184</v>
+        <v>2043317302208</v>
       </c>
       <c r="H16">
         <v>0.89999999999999991</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="20">
         <f ca="1"/>
         <v>4.9283011639120938E-2</v>
       </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>9</v>
+      </c>
+      <c r="Q16" cm="1">
+        <f t="array" aca="1" ref="Q16" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P16)</f>
+        <v>1.0248869480551503</v>
+      </c>
+      <c r="R16" s="22" cm="1">
+        <f t="array" aca="1" ref="R16" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P16)</f>
+        <v>-0.98936829472586296</v>
+      </c>
+      <c r="S16" s="22" cm="1">
+        <f t="array" aca="1" ref="S16" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P16)</f>
+        <v>0.98475440056951746</v>
+      </c>
+    </row>
+    <row r="17" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>0.99999999999999989</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="20">
         <f ca="1"/>
         <v>4.9283011639120938E-2</v>
       </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17" cm="1">
+        <f t="array" aca="1" ref="Q17" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P17)</f>
+        <v>1.0249202622012319</v>
+      </c>
+      <c r="R17" s="22" cm="1">
+        <f t="array" aca="1" ref="R17" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P17)</f>
+        <v>-1.6135284113035881E-3</v>
+      </c>
+      <c r="S17" s="22" cm="1">
+        <f t="array" aca="1" ref="S17" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P17)</f>
+        <v>2.5401721773871199E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E18" s="5"/>
       <c r="H18">
         <v>1.0999999999999999</v>
       </c>
-      <c r="I18">
-        <f ca="1"/>
-        <v>6.1135468364413588E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="20">
+        <f ca="1"/>
+        <v>5.0084025234523967E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>1.2</v>
       </c>
-      <c r="I19">
-        <f ca="1"/>
-        <v>6.1135468364413588E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="20">
+        <f ca="1"/>
+        <v>5.0084025234523967E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>1.3</v>
       </c>
-      <c r="I20">
-        <f ca="1"/>
-        <v>6.1135468364413588E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="20">
+        <f ca="1"/>
+        <v>5.0084025234523967E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>1.4000000000000001</v>
       </c>
-      <c r="I21">
-        <f ca="1"/>
-        <v>6.1135468364413588E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="20">
+        <f ca="1"/>
+        <v>5.0084025234523967E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H22">
         <v>1.5000000000000002</v>
       </c>
-      <c r="I22">
-        <f ca="1"/>
-        <v>6.1135468364413588E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="20">
+        <f ca="1"/>
+        <v>5.0084025234523967E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>1.6000000000000003</v>
       </c>
-      <c r="I23">
-        <f ca="1"/>
-        <v>6.1135468364413588E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="20">
+        <f ca="1"/>
+        <v>5.0084025234523967E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H24">
         <v>1.7000000000000004</v>
       </c>
-      <c r="I24">
-        <f ca="1"/>
-        <v>6.1135468364413588E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="20">
+        <f ca="1"/>
+        <v>5.0084025234523967E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H25">
         <v>1.8000000000000005</v>
       </c>
-      <c r="I25">
-        <f ca="1"/>
-        <v>6.1135468364413588E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="20">
+        <f ca="1"/>
+        <v>5.0084025234523967E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>1.9000000000000006</v>
       </c>
-      <c r="I26">
-        <f ca="1"/>
-        <v>6.1135468364413588E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="20">
+        <f ca="1"/>
+        <v>5.0084025234523967E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>2.0000000000000004</v>
       </c>
-      <c r="I27">
-        <f ca="1"/>
-        <v>6.1135468364413588E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="20">
+        <f ca="1"/>
+        <v>5.0084025234523967E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>2.1000000000000005</v>
       </c>
-      <c r="I28">
-        <f ca="1"/>
-        <v>3.7106733153595917E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="20">
+        <f ca="1"/>
+        <v>4.8714916103127726E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>2.2000000000000006</v>
       </c>
-      <c r="I29">
-        <f ca="1"/>
-        <v>3.7106733153595917E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="20">
+        <f ca="1"/>
+        <v>4.8714916103127726E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>2.3000000000000007</v>
       </c>
-      <c r="I30">
-        <f ca="1"/>
-        <v>3.7106733153595917E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="20">
+        <f ca="1"/>
+        <v>4.8714916103127726E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>2.4000000000000008</v>
       </c>
-      <c r="I31">
-        <f ca="1"/>
-        <v>3.7106733153595917E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="20">
+        <f ca="1"/>
+        <v>4.8714916103127726E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:19" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>2.5000000000000009</v>
       </c>
-      <c r="I32">
-        <f ca="1"/>
-        <v>3.7106733153595917E-2</v>
+      <c r="I32" s="20">
+        <f ca="1"/>
+        <v>4.8714916103127726E-2</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>2.600000000000001</v>
       </c>
-      <c r="I33">
-        <f ca="1"/>
-        <v>3.7106733153595917E-2</v>
+      <c r="I33" s="20">
+        <f ca="1"/>
+        <v>4.8714916103127726E-2</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>2.7000000000000011</v>
       </c>
-      <c r="I34">
-        <f ca="1"/>
-        <v>3.7106733153595917E-2</v>
+      <c r="I34" s="20">
+        <f ca="1"/>
+        <v>4.8714916103127726E-2</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>2.8000000000000012</v>
       </c>
-      <c r="I35">
-        <f ca="1"/>
-        <v>3.7106733153595917E-2</v>
+      <c r="I35" s="20">
+        <f ca="1"/>
+        <v>4.8714916103127726E-2</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>2.9000000000000012</v>
       </c>
-      <c r="I36">
-        <f ca="1"/>
-        <v>3.7106733153595917E-2</v>
+      <c r="I36" s="20">
+        <f ca="1"/>
+        <v>4.8714916103127726E-2</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>3.0000000000000013</v>
       </c>
-      <c r="I37">
-        <f ca="1"/>
-        <v>3.7106733153595917E-2</v>
+      <c r="I37" s="20">
+        <f ca="1"/>
+        <v>4.8714916103127726E-2</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>3.1000000000000014</v>
       </c>
-      <c r="I38">
-        <f ca="1"/>
-        <v>4.9416346883645927E-2</v>
+      <c r="I38" s="20">
+        <f ca="1"/>
+        <v>4.941634952080589E-2</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>3.2000000000000015</v>
       </c>
-      <c r="I39">
-        <f ca="1"/>
-        <v>4.9416346883645927E-2</v>
+      <c r="I39" s="20">
+        <f ca="1"/>
+        <v>4.941634952080589E-2</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>3.3000000000000016</v>
       </c>
-      <c r="I40">
-        <f ca="1"/>
-        <v>4.9416346883645927E-2</v>
+      <c r="I40" s="20">
+        <f ca="1"/>
+        <v>4.941634952080589E-2</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>3.4000000000000017</v>
       </c>
-      <c r="I41">
-        <f ca="1"/>
-        <v>4.9416346883645927E-2</v>
+      <c r="I41" s="20">
+        <f ca="1"/>
+        <v>4.941634952080589E-2</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H42">
         <v>3.5000000000000018</v>
       </c>
-      <c r="I42">
-        <f ca="1"/>
-        <v>4.9416346883645927E-2</v>
+      <c r="I42" s="20">
+        <f ca="1"/>
+        <v>4.941634952080589E-2</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H43">
         <v>3.6000000000000019</v>
       </c>
-      <c r="I43">
-        <f ca="1"/>
-        <v>4.9416346883645927E-2</v>
+      <c r="I43" s="20">
+        <f ca="1"/>
+        <v>4.941634952080589E-2</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H44">
         <v>3.700000000000002</v>
       </c>
-      <c r="I44">
-        <f ca="1"/>
-        <v>4.9416346883645927E-2</v>
+      <c r="I44" s="20">
+        <f ca="1"/>
+        <v>4.941634952080589E-2</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H45">
         <v>3.800000000000002</v>
       </c>
-      <c r="I45">
-        <f ca="1"/>
-        <v>4.9416346883645927E-2</v>
+      <c r="I45" s="20">
+        <f ca="1"/>
+        <v>4.941634952080589E-2</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H46">
         <v>3.9000000000000021</v>
       </c>
-      <c r="I46">
-        <f ca="1"/>
-        <v>4.9416346883645927E-2</v>
+      <c r="I46" s="20">
+        <f ca="1"/>
+        <v>4.941634952080589E-2</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>4.0000000000000018</v>
       </c>
-      <c r="I47">
-        <f ca="1"/>
-        <v>4.9416346883645927E-2</v>
+      <c r="I47" s="20">
+        <f ca="1"/>
+        <v>4.941634952080589E-2</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H48">
         <v>4.1000000000000014</v>
       </c>
-      <c r="I48">
-        <f ca="1"/>
-        <v>4.9283034281338421E-2</v>
+      <c r="I48" s="20">
+        <f ca="1"/>
+        <v>4.9283033079067666E-2</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49">
         <v>4.2000000000000011</v>
       </c>
-      <c r="I49">
-        <f ca="1"/>
-        <v>4.9283034281338421E-2</v>
+      <c r="I49" s="20">
+        <f ca="1"/>
+        <v>4.9283033079067666E-2</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50">
         <v>4.3000000000000007</v>
       </c>
-      <c r="I50">
-        <f ca="1"/>
-        <v>4.9283034281338421E-2</v>
+      <c r="I50" s="20">
+        <f ca="1"/>
+        <v>4.9283033079067666E-2</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I51">
-        <f ca="1"/>
-        <v>4.9283034281338421E-2</v>
+      <c r="I51" s="20">
+        <f ca="1"/>
+        <v>4.9283033079067666E-2</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52">
         <v>4.5</v>
       </c>
-      <c r="I52">
-        <f ca="1"/>
-        <v>4.9283034281338421E-2</v>
+      <c r="I52" s="20">
+        <f ca="1"/>
+        <v>4.9283033079067666E-2</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I53">
-        <f ca="1"/>
-        <v>4.9283034281338421E-2</v>
+      <c r="I53" s="20">
+        <f ca="1"/>
+        <v>4.9283033079067666E-2</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H54">
         <v>4.6999999999999993</v>
       </c>
-      <c r="I54">
-        <f ca="1"/>
-        <v>4.9283034281338421E-2</v>
+      <c r="I54" s="20">
+        <f ca="1"/>
+        <v>4.9283033079067666E-2</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H55">
         <v>4.7999999999999989</v>
       </c>
-      <c r="I55">
-        <f ca="1"/>
-        <v>4.9283034281338421E-2</v>
+      <c r="I55" s="20">
+        <f ca="1"/>
+        <v>4.9283033079067666E-2</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H56">
         <v>4.8999999999999986</v>
       </c>
-      <c r="I56">
-        <f ca="1"/>
-        <v>4.9283034281338421E-2</v>
+      <c r="I56" s="20">
+        <f ca="1"/>
+        <v>4.9283033079067666E-2</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H57">
         <v>4.9999999999999982</v>
       </c>
-      <c r="I57">
-        <f ca="1"/>
-        <v>4.9283034281338421E-2</v>
+      <c r="I57" s="20">
+        <f ca="1"/>
+        <v>4.9283033079067666E-2</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H58">
         <v>5.0999999999999979</v>
       </c>
-      <c r="I58">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I58" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H59">
         <v>5.1999999999999975</v>
       </c>
-      <c r="I59">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I59" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H60">
         <v>5.2999999999999972</v>
       </c>
-      <c r="I60">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I60" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H61">
         <v>5.3999999999999968</v>
       </c>
-      <c r="I61">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I61" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H62">
         <v>5.4999999999999964</v>
       </c>
-      <c r="I62">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I62" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H63">
         <v>5.5999999999999961</v>
       </c>
-      <c r="I63">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I63" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H64">
         <v>5.6999999999999957</v>
       </c>
-      <c r="I64">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I64" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H65">
         <v>5.7999999999999954</v>
       </c>
-      <c r="I65">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I65" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H66">
         <v>5.899999999999995</v>
       </c>
-      <c r="I66">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I66" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H67">
         <v>5.9999999999999947</v>
       </c>
-      <c r="I67">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I67" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H68">
         <v>6.0999999999999943</v>
       </c>
-      <c r="I68">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I68" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H69">
         <v>6.199999999999994</v>
       </c>
-      <c r="I69">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I69" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H70">
         <v>6.2999999999999936</v>
       </c>
-      <c r="I70">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I70" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H71">
         <v>6.3999999999999932</v>
       </c>
-      <c r="I71">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I71" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H72">
         <v>6.4999999999999929</v>
       </c>
-      <c r="I72">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I72" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H73">
         <v>6.5999999999999925</v>
       </c>
-      <c r="I73">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I73" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H74">
         <v>6.6999999999999922</v>
       </c>
-      <c r="I74">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I74" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H75">
         <v>6.7999999999999918</v>
       </c>
-      <c r="I75">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I75" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H76">
         <v>6.8999999999999915</v>
       </c>
-      <c r="I76">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I76" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H77">
         <v>6.9999999999999911</v>
       </c>
-      <c r="I77">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I77" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H78">
         <v>7.0999999999999908</v>
       </c>
-      <c r="I78">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I78" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H79">
         <v>7.1999999999999904</v>
       </c>
-      <c r="I79">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I79" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H80">
         <v>7.2999999999999901</v>
       </c>
-      <c r="I80">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I80" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H81">
         <v>7.3999999999999897</v>
       </c>
-      <c r="I81">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I81" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H82">
         <v>7.4999999999999893</v>
       </c>
-      <c r="I82">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I82" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H83">
         <v>7.599999999999989</v>
       </c>
-      <c r="I83">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I83" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H84">
         <v>7.6999999999999886</v>
       </c>
-      <c r="I84">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I84" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H85">
         <v>7.7999999999999883</v>
       </c>
-      <c r="I85">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I85" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H86">
         <v>7.8999999999999879</v>
       </c>
-      <c r="I86">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I86" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H87">
         <v>7.9999999999999876</v>
       </c>
-      <c r="I87">
-        <f ca="1"/>
-        <v>4.9416357722100471E-2</v>
+      <c r="I87" s="20">
+        <f ca="1"/>
+        <v>4.9416357721966633E-2</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H88">
         <v>8.0999999999999872</v>
       </c>
-      <c r="I88">
-        <f ca="1"/>
-        <v>4.9283035684261692E-2</v>
+      <c r="I88" s="20">
+        <f ca="1"/>
+        <v>4.928303568458163E-2</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H89">
         <v>8.1999999999999869</v>
       </c>
-      <c r="I89">
-        <f ca="1"/>
-        <v>4.9283035684261692E-2</v>
+      <c r="I89" s="20">
+        <f ca="1"/>
+        <v>4.928303568458163E-2</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H90">
         <v>8.2999999999999865</v>
       </c>
-      <c r="I90">
-        <f ca="1"/>
-        <v>4.9283035684261692E-2</v>
+      <c r="I90" s="20">
+        <f ca="1"/>
+        <v>4.928303568458163E-2</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H91">
         <v>8.3999999999999861</v>
       </c>
-      <c r="I91">
-        <f ca="1"/>
-        <v>4.9283035684261692E-2</v>
+      <c r="I91" s="20">
+        <f ca="1"/>
+        <v>4.928303568458163E-2</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H92">
         <v>8.4999999999999858</v>
       </c>
-      <c r="I92">
-        <f ca="1"/>
-        <v>4.9283035684261692E-2</v>
+      <c r="I92" s="20">
+        <f ca="1"/>
+        <v>4.928303568458163E-2</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H93">
         <v>8.5999999999999854</v>
       </c>
-      <c r="I93">
-        <f ca="1"/>
-        <v>4.9283035684261692E-2</v>
+      <c r="I93" s="20">
+        <f ca="1"/>
+        <v>4.928303568458163E-2</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H94">
         <v>8.6999999999999851</v>
       </c>
-      <c r="I94">
-        <f ca="1"/>
-        <v>4.9283035684261692E-2</v>
+      <c r="I94" s="20">
+        <f ca="1"/>
+        <v>4.928303568458163E-2</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H95">
         <v>8.7999999999999847</v>
       </c>
-      <c r="I95">
-        <f ca="1"/>
-        <v>4.9283035684261692E-2</v>
+      <c r="I95" s="20">
+        <f ca="1"/>
+        <v>4.928303568458163E-2</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H96">
         <v>8.8999999999999844</v>
       </c>
-      <c r="I96">
-        <f ca="1"/>
-        <v>4.9283035684261692E-2</v>
+      <c r="I96" s="20">
+        <f ca="1"/>
+        <v>4.928303568458163E-2</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97">
         <v>8.999999999999984</v>
       </c>
-      <c r="I97">
-        <f ca="1"/>
-        <v>4.9283035684261692E-2</v>
+      <c r="I97" s="20">
+        <f ca="1"/>
+        <v>4.928303568458163E-2</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98">
         <v>9.0999999999999837</v>
       </c>
-      <c r="I98">
-        <f ca="1"/>
-        <v>4.9416357721872757E-2</v>
+      <c r="I98" s="20">
+        <f ca="1"/>
+        <v>4.9416357721873035E-2</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99">
         <v>9.1999999999999833</v>
       </c>
-      <c r="I99">
-        <f ca="1"/>
-        <v>4.9416357721872757E-2</v>
+      <c r="I99" s="20">
+        <f ca="1"/>
+        <v>4.9416357721873035E-2</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100">
         <v>9.2999999999999829</v>
       </c>
-      <c r="I100">
-        <f ca="1"/>
-        <v>4.9416357721872757E-2</v>
+      <c r="I100" s="20">
+        <f ca="1"/>
+        <v>4.9416357721873035E-2</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101">
         <v>9.3999999999999826</v>
       </c>
-      <c r="I101">
-        <f ca="1"/>
-        <v>4.9416357721872757E-2</v>
+      <c r="I101" s="20">
+        <f ca="1"/>
+        <v>4.9416357721873035E-2</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102">
         <v>9.4999999999999822</v>
       </c>
-      <c r="I102">
-        <f ca="1"/>
-        <v>4.9416357721872757E-2</v>
+      <c r="I102" s="20">
+        <f ca="1"/>
+        <v>4.9416357721873035E-2</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103">
         <v>9.5999999999999819</v>
       </c>
-      <c r="I103">
-        <f ca="1"/>
-        <v>4.9416357721872757E-2</v>
+      <c r="I103" s="20">
+        <f ca="1"/>
+        <v>4.9416357721873035E-2</v>
       </c>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104">
         <v>9.6999999999999815</v>
       </c>
-      <c r="I104">
-        <f ca="1"/>
-        <v>4.9416357721872757E-2</v>
+      <c r="I104" s="20">
+        <f ca="1"/>
+        <v>4.9416357721873035E-2</v>
       </c>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105">
         <v>9.7999999999999812</v>
       </c>
-      <c r="I105">
-        <f ca="1"/>
-        <v>4.9416357721872757E-2</v>
+      <c r="I105" s="20">
+        <f ca="1"/>
+        <v>4.9416357721873035E-2</v>
       </c>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106">
         <v>9.8999999999999808</v>
       </c>
-      <c r="I106">
-        <f ca="1"/>
-        <v>4.9416357721872757E-2</v>
+      <c r="I106" s="20">
+        <f ca="1"/>
+        <v>4.9416357721873035E-2</v>
       </c>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107">
         <v>9.9999999999999805</v>
       </c>
-      <c r="I107">
-        <f ca="1"/>
-        <v>4.9416357721872757E-2</v>
+      <c r="I107" s="20">
+        <f ca="1"/>
+        <v>4.9416357721873035E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8558,21 +9430,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE10814-8BAC-41F3-9E28-9FC194E23C82}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
     <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="9">
         <v>0.1</v>
@@ -8580,113 +9453,123 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <f>EXP(-r_*t)</f>
-        <v>0.36787944117144233</v>
+        <v>0.90483741803595952</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <f>EXP(-r_*u)</f>
-        <v>0.1353352832366127</v>
-      </c>
-      <c r="E7">
-        <f>Du/Dt</f>
-        <v>0.36787944117144233</v>
+        <v>0.81873075307798182</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <f ca="1">EXP(-r_*(u-t)-σ^2*(u-t)^3/6-σ*(u-t)*_xlfn.NORM.S.INV(RAND())*SQRT(t))</f>
-        <v>0.41689632315057579</v>
+        <f ca="1">EXP(-r_*(u-t) + (σ^2)*((u-t)^3)/6 - σ*(u-t)*_xlfn.NORM.S.INV(RAND())*SQRT(t))</f>
+        <v>0.83714528583086889</v>
+      </c>
+      <c r="D8">
+        <f>Du/Dt</f>
+        <v>0.90483741803595963</v>
+      </c>
+      <c r="E8">
+        <f ca="1">C8/D8</f>
+        <v>0.92518862410440172</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <f ca="1">LN(C8)</f>
-        <v>-0.87491771363397619</v>
+        <v>-0.17775764430744645</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xll.TMX.HO_LEE.ED(Dt, Du, t, u, σ)</f>
-        <v>0.34993774911115538</v>
+        <v>0.90032452258626572</v>
       </c>
       <c r="D10" s="16" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">_xll.MONTE.MEAN(C8)</f>
-        <v>0.38067879287846046</v>
+        <v>0.90658307462665866</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xll.TMX.HO_LEE.ELogD(Dt, Du, t, u, σ)</f>
-        <v>-1.1000000000000001</v>
+        <v>-0.10999999999999993</v>
       </c>
       <c r="D11" s="16">
         <f t="array" aca="1" ref="D11:D12" ca="1">_xll.MONTE.STDEV(logD)</f>
-        <v>-1.016185039685831</v>
+        <v>-0.1027521223131677</v>
       </c>
       <c r="E11">
-        <f ca="1">(C11-D11)/D12</f>
-        <v>-0.26395273052976648</v>
+        <f>-r_*(u-t) + σ^2*(u-t)^3/6</f>
+        <v>-9.8333333333333342E-2</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xll.TMX.HO_LEE.VarLogD(t, u, σ)</f>
-        <v>0.1</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="D12" s="16">
         <f ca="1"/>
-        <v>0.31753776574293535</v>
+        <v>9.6859351877785757E-2</v>
       </c>
       <c r="E12" s="16">
-        <f>SQRT(C12)</f>
-        <v>0.31622776601683794</v>
+        <f>σ^2*(u  - t)^2*t</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="16">
+        <f ca="1">D12^2</f>
+        <v>9.3817340461847185E-3</v>
       </c>
     </row>
   </sheetData>

--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC317C6-64F7-4979-BF0C-AD2A9369A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770095A3-ADD8-482B-B177-1DF45A47523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="bond.simple">Bond!$C$6</definedName>
     <definedName name="coupon" localSheetId="4">Bond!$C$3</definedName>
     <definedName name="coupon">Bootstrap!$C$7:$C$16</definedName>
-    <definedName name="curve" localSheetId="3">Curve!$I$2</definedName>
+    <definedName name="curve" localSheetId="3">Curve!$I$3</definedName>
     <definedName name="curve">Bootstrap!$G$7</definedName>
     <definedName name="curve_">Curve!$I$6</definedName>
     <definedName name="date">Date!$C$2</definedName>
@@ -50,11 +50,11 @@
     <definedName name="r_">'Ho-Lee'!$C$2</definedName>
     <definedName name="rate">Curve!$C$3:$C$5</definedName>
     <definedName name="s">Black!$C$3</definedName>
-    <definedName name="shift">Curve!$I$4</definedName>
-    <definedName name="spread">Curve!$I$3</definedName>
+    <definedName name="shift">Curve!$I$5</definedName>
+    <definedName name="spread">Curve!$I$4</definedName>
     <definedName name="t">'Ho-Lee'!$C$4</definedName>
     <definedName name="time">Curve!$B$3:$B$5</definedName>
-    <definedName name="translate">Curve!$I$5</definedName>
+    <definedName name="translate">Curve!$I$2</definedName>
     <definedName name="u">'Ho-Lee'!$C$5</definedName>
     <definedName name="years">Date!$C$3</definedName>
     <definedName name="years_">Date!$C$8</definedName>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>maturity</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>cnv</t>
+  </si>
+  <si>
+    <t>translate</t>
   </si>
 </sst>
 </file>
@@ -681,94 +684,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.49799801559335011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.4</c:v>
@@ -978,127 +981,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18245254221952678</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18404776565411524</c:v>
+                  <c:v>0.20909090909090908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18537711851627231</c:v>
+                  <c:v>0.2166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18650195555348212</c:v>
+                  <c:v>0.22307692307692306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18746610158537627</c:v>
+                  <c:v>0.22857142857142859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.18830169481301784</c:v>
+                  <c:v>0.23333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18903283888720424</c:v>
+                  <c:v>0.23750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18967796601148637</c:v>
+                  <c:v>0.2411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.19025141234418158</c:v>
+                  <c:v>0.24444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.19076449590501413</c:v>
+                  <c:v>0.24736842105263157</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1912262711097634</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.19640597248548897</c:v>
+                  <c:v>0.25714285714285717</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.20111479191796675</c:v>
+                  <c:v>0.26363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20541414879109862</c:v>
+                  <c:v>0.2695652173913044</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.20935522592480288</c:v>
+                  <c:v>0.27500000000000008</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.21298101688781076</c:v>
+                  <c:v>0.28000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.21632790085366418</c:v>
+                  <c:v>0.28461538461538466</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.21942686748871368</c:v>
+                  <c:v>0.28888888888888897</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.22230447936411671</c:v>
+                  <c:v>0.29285714285714293</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.22498363524811268</c:v>
+                  <c:v>0.29655172413793107</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.22748418073984233</c:v>
+                  <c:v>0.3000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.23304920716758937</c:v>
+                  <c:v>0.30322580645161296</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.23826641944360219</c:v>
+                  <c:v>0.30625000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.24316743703622032</c:v>
+                  <c:v>0.30909090909090914</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2477801594763315</c:v>
+                  <c:v>0.311764705882353</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.25212929777700771</c:v>
+                  <c:v>0.31428571428571433</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25623681728320197</c:v>
+                  <c:v>0.31666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.26012230870798031</c:v>
+                  <c:v>0.31891891891891899</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.26380330058408608</c:v>
+                  <c:v>0.32105263157894742</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2672955236460326</c:v>
+                  <c:v>0.32307692307692315</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.27061313555488176</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,124 +1281,124 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98192018275437576</c:v>
+                  <c:v>0.98019867330675525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96416724530038678</c:v>
+                  <c:v>0.96078943915232318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94673527771113886</c:v>
+                  <c:v>0.94176453358424872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92961847691013622</c:v>
+                  <c:v>0.92311634638663576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91281114473944547</c:v>
+                  <c:v>0.90483741803595952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89630768606278721</c:v>
+                  <c:v>0.88692043671715748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88010260690292375</c:v>
+                  <c:v>0.86935823539880586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86419051261272151</c:v>
+                  <c:v>0.85214378896621135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84856610607928118</c:v>
+                  <c:v>0.835270211411272</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83322418596053682</c:v>
+                  <c:v>0.81873075307798182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81672524164561933</c:v>
+                  <c:v>0.79453360250333405</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.80055299831717519</c:v>
+                  <c:v>0.77105158580356625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.78470098686224021</c:v>
+                  <c:v>0.74826356757856527</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.76916286626486952</c:v>
+                  <c:v>0.72614903707369083</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.75393242106964631</c:v>
+                  <c:v>0.70468808971871344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.73900355889541736</c:v>
+                  <c:v>0.68386140921235572</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.72437030799825863</c:v>
+                  <c:v>0.6636502501363194</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.71002681488269881</c:v>
+                  <c:v>0.64403642108314119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.69596734196024246</c:v>
+                  <c:v>0.62500226828270078</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.68218626525425863</c:v>
+                  <c:v>0.60653065971263331</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66202461416413305</c:v>
+                  <c:v>0.58274825237398953</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.64245882991475745</c:v>
+                  <c:v>0.55989836656540182</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.62347130197957701</c:v>
+                  <c:v>0.53794443759467436</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6050449403017536</c:v>
+                  <c:v>0.51685133449169907</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.58716315991196055</c:v>
+                  <c:v>0.4965853037914093</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.56980986600079053</c:v>
+                  <c:v>0.47711391552103416</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.55296943943234111</c:v>
+                  <c:v>0.45840601130522335</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.53662672268593781</c:v>
+                  <c:v>0.44043165450599903</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.52076700621334227</c:v>
+                  <c:v>0.4231620823177486</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.50537601519916608</c:v>
+                  <c:v>0.40656965974059878</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4855599382042427</c:v>
+                  <c:v>0.39062783535852086</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.46652086070209103</c:v>
+                  <c:v>0.37531109885139941</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.44822831610682112</c:v>
+                  <c:v>0.36059494017307803</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4306530324444629</c:v>
+                  <c:v>0.34645581033005712</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.41376688551156277</c:v>
+                  <c:v>0.33287108369807933</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3975428538704579</c:v>
+                  <c:v>0.31981902181630373</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.38195497560921121</c:v>
+                  <c:v>0.30727873860113097</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.36697830679701332</c:v>
+                  <c:v>0.29523016692401388</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3525888815685716</c:v>
+                  <c:v>0.28365402649977012</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.33876367377361288</c:v>
+                  <c:v>0.27253179303401243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,37 +1575,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28245254221952676</c:v>
+                  <c:v>0.59799801559335009</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.30000000000000004</c:v>
@@ -2317,307 +2320,307 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9283011639120938E-2</c:v>
+                  <c:v>4.9688642476346197E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0084025234523967E-2</c:v>
+                  <c:v>6.1543848739466347E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0084025234523967E-2</c:v>
+                  <c:v>6.1543848739466347E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0084025234523967E-2</c:v>
+                  <c:v>6.1543848739466347E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0084025234523967E-2</c:v>
+                  <c:v>6.1543848739466347E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0084025234523967E-2</c:v>
+                  <c:v>6.1543848739466347E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0084025234523967E-2</c:v>
+                  <c:v>6.1543848739466347E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0084025234523967E-2</c:v>
+                  <c:v>6.1543848739466347E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0084025234523967E-2</c:v>
+                  <c:v>6.1543848739466347E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0084025234523967E-2</c:v>
+                  <c:v>6.1543848739466347E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0084025234523967E-2</c:v>
+                  <c:v>6.1543848739466347E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8714916103127726E-2</c:v>
+                  <c:v>3.7506434100536605E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8714916103127726E-2</c:v>
+                  <c:v>3.7506434100536605E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8714916103127726E-2</c:v>
+                  <c:v>3.7506434100536605E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.8714916103127726E-2</c:v>
+                  <c:v>3.7506434100536605E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.8714916103127726E-2</c:v>
+                  <c:v>3.7506434100536605E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8714916103127726E-2</c:v>
+                  <c:v>3.7506434100536605E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.8714916103127726E-2</c:v>
+                  <c:v>3.7506434100536605E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.8714916103127726E-2</c:v>
+                  <c:v>3.7506434100536605E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.8714916103127726E-2</c:v>
+                  <c:v>3.7506434100536605E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.8714916103127726E-2</c:v>
+                  <c:v>3.7506434100536605E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.941634952080589E-2</c:v>
+                  <c:v>4.9823055453199108E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.941634952080589E-2</c:v>
+                  <c:v>4.9823055453199108E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.941634952080589E-2</c:v>
+                  <c:v>4.9823055453199108E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.941634952080589E-2</c:v>
+                  <c:v>4.9823055453199108E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.941634952080589E-2</c:v>
+                  <c:v>4.9823055453199108E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.941634952080589E-2</c:v>
+                  <c:v>4.9823055453199108E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.941634952080589E-2</c:v>
+                  <c:v>4.9823055453199108E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.941634952080589E-2</c:v>
+                  <c:v>4.9823055453199108E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.941634952080589E-2</c:v>
+                  <c:v>4.9823055453199108E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.941634952080589E-2</c:v>
+                  <c:v>4.9823055453199108E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9283033079067666E-2</c:v>
+                  <c:v>4.9688665317126131E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9283033079067666E-2</c:v>
+                  <c:v>4.9688665317126131E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.9283033079067666E-2</c:v>
+                  <c:v>4.9688665317126131E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.9283033079067666E-2</c:v>
+                  <c:v>4.9688665317126131E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.9283033079067666E-2</c:v>
+                  <c:v>4.9688665317126131E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9283033079067666E-2</c:v>
+                  <c:v>4.9688665317126131E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.9283033079067666E-2</c:v>
+                  <c:v>4.9688665317126131E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.9283033079067666E-2</c:v>
+                  <c:v>4.9688665317126131E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.9283033079067666E-2</c:v>
+                  <c:v>4.9688665317126131E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9283033079067666E-2</c:v>
+                  <c:v>4.9688665317126131E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.9416357721966633E-2</c:v>
+                  <c:v>4.9823066298442485E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.928303568458163E-2</c:v>
+                  <c:v>4.9688666758971364E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.928303568458163E-2</c:v>
+                  <c:v>4.9688666758971364E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.928303568458163E-2</c:v>
+                  <c:v>4.9688666758971364E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.928303568458163E-2</c:v>
+                  <c:v>4.9688666758971364E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.928303568458163E-2</c:v>
+                  <c:v>4.9688666758971364E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.928303568458163E-2</c:v>
+                  <c:v>4.9688666758971364E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.928303568458163E-2</c:v>
+                  <c:v>4.9688666758971364E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.928303568458163E-2</c:v>
+                  <c:v>4.9688666758971364E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.928303568458163E-2</c:v>
+                  <c:v>4.9688666758971364E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.928303568458163E-2</c:v>
+                  <c:v>4.9688666758971364E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.9416357721873035E-2</c:v>
+                  <c:v>4.9823066298217138E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9416357721873035E-2</c:v>
+                  <c:v>4.9823066298217138E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.9416357721873035E-2</c:v>
+                  <c:v>4.9823066298217138E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.9416357721873035E-2</c:v>
+                  <c:v>4.9823066298217138E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.9416357721873035E-2</c:v>
+                  <c:v>4.9823066298217138E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9416357721873035E-2</c:v>
+                  <c:v>4.9823066298217138E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.9416357721873035E-2</c:v>
+                  <c:v>4.9823066298217138E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.9416357721873035E-2</c:v>
+                  <c:v>4.9823066298217138E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.9416357721873035E-2</c:v>
+                  <c:v>4.9823066298217138E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.9416357721873035E-2</c:v>
+                  <c:v>4.9823066298217138E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4309,9 +4312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28EA81D-C5B8-44E1-B499-71D23FEEDB1B}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4337,15 +4338,15 @@
         <v>23</v>
       </c>
       <c r="C3" cm="1">
-        <f t="array" ref="C3">_xll.TMX_FREQUENCY_ANNUALLY()</f>
-        <v>12</v>
+        <f t="array" ref="C3">_xll.ENUM(B3)</f>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="5" cm="1">
-        <f t="array" ref="E3">_xll.TMX_DAY_COUNT_30_360()</f>
-        <v>140718145352768</v>
+        <f t="array" ref="E3">_xll.ENUM(D3)</f>
+        <v>140716919108667</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -4353,15 +4354,15 @@
         <v>24</v>
       </c>
       <c r="C4" cm="1">
-        <f t="array" ref="C4">_xll.TMX_FREQUENCY_SEMIANNUALLY()</f>
-        <v>6</v>
+        <f t="array" ref="C4">_xll.ENUM(B4)</f>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" cm="1">
-        <f t="array" ref="E4">_xll.TMX_DAY_COUNT_ACTUAL_360()</f>
-        <v>140718145345523</v>
+        <f t="array" ref="E4">_xll.ENUM(D4)</f>
+        <v>140716919101427</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -4369,15 +4370,15 @@
         <v>25</v>
       </c>
       <c r="C5" cm="1">
-        <f t="array" ref="C5">_xll.TMX_FREQUENCY_QUARTERLY()</f>
-        <v>3</v>
+        <f t="array" ref="C5">_xll.ENUM(B5)</f>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="5" cm="1">
-        <f t="array" ref="E5">_xll.TMX_DAY_COUNT_ACTUAL_365()</f>
-        <v>140718145351143</v>
+        <f t="array" ref="E5">_xll.ENUM(D5)</f>
+        <v>140716919107042</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -4385,15 +4386,15 @@
         <v>26</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6">_xll.TMX_FREQUENCY_MONTHLY()</f>
-        <v>1</v>
+        <f t="array" ref="C6">_xll.ENUM(B6)</f>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="5" cm="1">
-        <f t="array" ref="E6">_xll.TMX_DAY_COUNT_ACTUAL_ACTUAL()</f>
-        <v>140718145356328</v>
+        <f t="array" ref="E6">_xll.ENUM(D6)</f>
+        <v>140716919112232</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -4401,8 +4402,8 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" cm="1">
-        <f t="array" ref="E7">_xll.TMX_DAY_COUNT_YEARS()</f>
-        <v>140718145387863</v>
+        <f t="array" ref="E7">_xll.ENUM(D7)</f>
+        <v>140716919143762</v>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +4416,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4430,7 +4431,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">50 + 100*RAND()</f>
-        <v>71.043142905615213</v>
+        <v>87.781066393534559</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -4439,7 +4440,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">0.01 + 0.3*RAND()</f>
-        <v>0.18788000732732965</v>
+        <v>0.21477371143465818</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -4448,7 +4449,7 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">50 + 100*RAND()</f>
-        <v>97.389620410445445</v>
+        <v>127.28850171233745</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -4457,14 +4458,14 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
-        <v>1.7728429575877491</v>
+        <v>1.8376281501577103</v>
       </c>
       <c r="D5">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="E5">
         <f>-D5</f>
-        <v>-1.0000000000000001E-5</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4473,15 +4474,15 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>26.646308495741309</v>
+        <v>39.891305153484211</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
-        <v>26.646299060615476</v>
+        <v>39.890357466582188</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
-        <v>26.646317930867966</v>
+        <v>39.892252846056905</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -4490,15 +4491,15 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
-        <v>-0.94351262380448908</v>
+        <v>-0.9476897374305282</v>
       </c>
       <c r="D7">
         <f ca="1">(D6-E6)/(D5-E5)</f>
-        <v>-0.94351262447389661</v>
+        <v>-0.94768973735881445</v>
       </c>
       <c r="E7">
         <f ca="1">(C7-D7)/C7</f>
-        <v>-7.0948444410693762E-10</v>
+        <v>7.5672177528348981E-11</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -4507,15 +4508,15 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.TMX.BLACK.GAMMA(f, s, k)</f>
-        <v>8.5115784629630712E-3</v>
+        <v>5.6707022208863549E-3</v>
       </c>
       <c r="D8">
         <f ca="1">(D6-2*C6+E6)/(D5^2)</f>
-        <v>8.2422957348171604E-3</v>
+        <v>5.6706710438447772E-3</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E9" ca="1" si="0">(C8-D8)/C8</f>
-        <v>3.1637225611871697E-2</v>
+        <v>5.4979154897095681E-6</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -4524,15 +4525,15 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.BLACK.VEGA(f, s, k)</f>
-        <v>8.0711423628872296</v>
+        <v>9.384684338779703</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
-        <v>8.0711423620982714</v>
+        <v>9.3846809783499907</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7750503783253391E-11</v>
+        <v>3.5807594490818332E-7</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4575,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">10*RAND()</f>
-        <v>7.7603850925378746</v>
+        <v>8.0037089814204663</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4583,11 +4584,11 @@
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>47947.422442129631</v>
+        <v>48036.294675925928</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>47947.422442129631</v>
+        <v>48036.294675925928</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4607,18 +4608,18 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>7.7592284578054302</v>
+        <v>8.0029021814274071</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>47947</v>
+        <v>48036</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>47947</v>
+        <v>48036</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4680,7 +4681,7 @@
   <dimension ref="B2:O43"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M43"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4701,11 +4702,10 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" cm="1">
-        <f t="array" aca="1" ref="I2" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>2044160464784</v>
+        <v>66</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="C3" s="15">
         <f ca="1">RAND()</f>
-        <v>0.18245254221952678</v>
+        <v>0.49799801559335011</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve))</f>
@@ -4737,34 +4737,35 @@
       </c>
       <c r="F3" s="16">
         <f ca="1"/>
-        <v>0.18245254221952678</v>
+        <v>0.49799801559335011</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3">
-        <v>0.1</v>
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
+        <v>2207344032928</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3:K43">_xlfn.SEQUENCE(1+4/0.1,1,0,0.1)</f>
         <v>0</v>
       </c>
       <c r="L3" cm="1">
-        <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K3)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K3,translate)</f>
+        <v>0.49799801559335011</v>
       </c>
       <c r="M3" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K3)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K3,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N3" cm="1">
-        <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K3)</f>
+        <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K3,translate)</f>
         <v>1</v>
       </c>
       <c r="O3" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K3)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
@@ -4783,30 +4784,29 @@
         <v>0.2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="5" cm="1">
-        <f t="array" aca="1" ref="I4" ca="1">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve,spread)</f>
-        <v>2044160459504</v>
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0.1</v>
       </c>
       <c r="L4" cm="1">
-        <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K4)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K4,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="M4" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K4)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K4,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N4" cm="1">
-        <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K4)</f>
-        <v>0.98192018275437576</v>
+        <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K4,translate)</f>
+        <v>0.98019867330675525</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K4)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -4824,25 +4824,31 @@
         <f ca="1"/>
         <v>0.3</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="5" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve,spread)</f>
+        <v>2207344029056</v>
+      </c>
       <c r="K5">
         <v>0.2</v>
       </c>
       <c r="L5" cm="1">
-        <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K5)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K5,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="M5" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K5)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K5,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N5" cm="1">
-        <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K5)</f>
-        <v>0.96416724530038678</v>
+        <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K5,translate)</f>
+        <v>0.96078943915232318</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K5)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
@@ -4866,20 +4872,20 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="L6" cm="1">
-        <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K6)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K6,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="M6" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K6)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K6,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N6" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K6)</f>
-        <v>0.94673527771113886</v>
+        <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K6,translate)</f>
+        <v>0.94176453358424872</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K6)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -4887,20 +4893,20 @@
         <v>0.4</v>
       </c>
       <c r="L7" cm="1">
-        <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K7)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K7,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="M7" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K7)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K7,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N7" cm="1">
-        <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K7)</f>
-        <v>0.92961847691013622</v>
+        <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K7,translate)</f>
+        <v>0.92311634638663576</v>
       </c>
       <c r="O7" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K7)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
@@ -4908,20 +4914,20 @@
         <v>0.5</v>
       </c>
       <c r="L8" cm="1">
-        <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K8)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K8,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="M8" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K8)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K8,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N8" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K8)</f>
-        <v>0.91281114473944547</v>
+        <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K8,translate)</f>
+        <v>0.90483741803595952</v>
       </c>
       <c r="O8" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K8)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
@@ -4929,20 +4935,20 @@
         <v>0.6</v>
       </c>
       <c r="L9" cm="1">
-        <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K9)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K9,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="M9" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K9)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K9,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N9" cm="1">
-        <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K9)</f>
-        <v>0.89630768606278721</v>
+        <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K9,translate)</f>
+        <v>0.88692043671715748</v>
       </c>
       <c r="O9" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K9)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -4950,20 +4956,20 @@
         <v>0.7</v>
       </c>
       <c r="L10" cm="1">
-        <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K10)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K10,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="M10" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K10)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K10,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N10" cm="1">
-        <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K10)</f>
-        <v>0.88010260690292375</v>
+        <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K10,translate)</f>
+        <v>0.86935823539880586</v>
       </c>
       <c r="O10" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K10)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
@@ -4971,20 +4977,20 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="L11" cm="1">
-        <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K11)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K11,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="M11" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K11)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K11,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N11" cm="1">
-        <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K11)</f>
-        <v>0.86419051261272151</v>
+        <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K11,translate)</f>
+        <v>0.85214378896621135</v>
       </c>
       <c r="O11" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K11)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -4992,20 +4998,20 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="L12" cm="1">
-        <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K12)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K12,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="M12" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K12)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K12,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N12" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K12)</f>
-        <v>0.84856610607928118</v>
+        <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K12,translate)</f>
+        <v>0.835270211411272</v>
       </c>
       <c r="O12" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K12)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -5013,20 +5019,20 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="L13" cm="1">
-        <f t="array" aca="1" ref="L13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K13)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="L13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K13,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="M13" cm="1">
-        <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K13)</f>
-        <v>0.18245254221952678</v>
+        <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K13,translate)</f>
+        <v>0.2</v>
       </c>
       <c r="N13" cm="1">
-        <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K13)</f>
-        <v>0.83322418596053682</v>
+        <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K13,translate)</f>
+        <v>0.81873075307798182</v>
       </c>
       <c r="O13" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K13)</f>
-        <v>0.28245254221952676</v>
+        <v>0.59799801559335009</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -5034,16 +5040,16 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="L14" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K14)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="L14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K14,translate)</f>
+        <v>0.3</v>
       </c>
       <c r="M14" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K14)</f>
-        <v>0.18404776565411524</v>
+        <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K14,translate)</f>
+        <v>0.20909090909090908</v>
       </c>
       <c r="N14" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K14)</f>
-        <v>0.81672524164561933</v>
+        <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K14,translate)</f>
+        <v>0.79453360250333405</v>
       </c>
       <c r="O14" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K14)</f>
@@ -5055,16 +5061,16 @@
         <v>1.2</v>
       </c>
       <c r="L15" cm="1">
-        <f t="array" aca="1" ref="L15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K15)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="L15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K15,translate)</f>
+        <v>0.3</v>
       </c>
       <c r="M15" cm="1">
-        <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K15)</f>
-        <v>0.18537711851627231</v>
+        <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K15,translate)</f>
+        <v>0.2166666666666667</v>
       </c>
       <c r="N15" cm="1">
-        <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K15)</f>
-        <v>0.80055299831717519</v>
+        <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K15,translate)</f>
+        <v>0.77105158580356625</v>
       </c>
       <c r="O15" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K15)</f>
@@ -5076,16 +5082,16 @@
         <v>1.3</v>
       </c>
       <c r="L16" cm="1">
-        <f t="array" aca="1" ref="L16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K16)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="L16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K16,translate)</f>
+        <v>0.3</v>
       </c>
       <c r="M16" cm="1">
-        <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K16)</f>
-        <v>0.18650195555348212</v>
+        <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K16,translate)</f>
+        <v>0.22307692307692306</v>
       </c>
       <c r="N16" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K16)</f>
-        <v>0.78470098686224021</v>
+        <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K16,translate)</f>
+        <v>0.74826356757856527</v>
       </c>
       <c r="O16" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K16)</f>
@@ -5097,16 +5103,16 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="L17" cm="1">
-        <f t="array" aca="1" ref="L17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K17)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="L17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K17,translate)</f>
+        <v>0.3</v>
       </c>
       <c r="M17" cm="1">
-        <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K17)</f>
-        <v>0.18746610158537627</v>
+        <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K17,translate)</f>
+        <v>0.22857142857142859</v>
       </c>
       <c r="N17" cm="1">
-        <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K17)</f>
-        <v>0.76916286626486952</v>
+        <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K17,translate)</f>
+        <v>0.72614903707369083</v>
       </c>
       <c r="O17" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K17)</f>
@@ -5118,16 +5124,16 @@
         <v>1.5000000000000002</v>
       </c>
       <c r="L18" cm="1">
-        <f t="array" aca="1" ref="L18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K18)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="L18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K18,translate)</f>
+        <v>0.3</v>
       </c>
       <c r="M18" cm="1">
-        <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K18)</f>
-        <v>0.18830169481301784</v>
+        <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K18,translate)</f>
+        <v>0.23333333333333331</v>
       </c>
       <c r="N18" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K18)</f>
-        <v>0.75393242106964631</v>
+        <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K18,translate)</f>
+        <v>0.70468808971871344</v>
       </c>
       <c r="O18" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K18)</f>
@@ -5139,16 +5145,16 @@
         <v>1.6000000000000003</v>
       </c>
       <c r="L19" cm="1">
-        <f t="array" aca="1" ref="L19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K19)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="L19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K19,translate)</f>
+        <v>0.3</v>
       </c>
       <c r="M19" cm="1">
-        <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K19)</f>
-        <v>0.18903283888720424</v>
+        <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K19,translate)</f>
+        <v>0.23750000000000002</v>
       </c>
       <c r="N19" cm="1">
-        <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K19)</f>
-        <v>0.73900355889541736</v>
+        <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K19,translate)</f>
+        <v>0.68386140921235572</v>
       </c>
       <c r="O19" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K19)</f>
@@ -5160,16 +5166,16 @@
         <v>1.7000000000000004</v>
       </c>
       <c r="L20" cm="1">
-        <f t="array" aca="1" ref="L20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K20)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="L20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K20,translate)</f>
+        <v>0.3</v>
       </c>
       <c r="M20" cm="1">
-        <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K20)</f>
-        <v>0.18967796601148637</v>
+        <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K20,translate)</f>
+        <v>0.2411764705882353</v>
       </c>
       <c r="N20" cm="1">
-        <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K20)</f>
-        <v>0.72437030799825863</v>
+        <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K20,translate)</f>
+        <v>0.6636502501363194</v>
       </c>
       <c r="O20" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K20)</f>
@@ -5181,16 +5187,16 @@
         <v>1.8000000000000005</v>
       </c>
       <c r="L21" cm="1">
-        <f t="array" aca="1" ref="L21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K21)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="L21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K21,translate)</f>
+        <v>0.3</v>
       </c>
       <c r="M21" cm="1">
-        <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K21)</f>
-        <v>0.19025141234418158</v>
+        <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K21,translate)</f>
+        <v>0.24444444444444446</v>
       </c>
       <c r="N21" cm="1">
-        <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K21)</f>
-        <v>0.71002681488269881</v>
+        <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K21,translate)</f>
+        <v>0.64403642108314119</v>
       </c>
       <c r="O21" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K21)</f>
@@ -5202,16 +5208,16 @@
         <v>1.9000000000000006</v>
       </c>
       <c r="L22" cm="1">
-        <f t="array" aca="1" ref="L22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K22)</f>
-        <v>0.2</v>
+        <f t="array" aca="1" ref="L22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K22,translate)</f>
+        <v>0.3</v>
       </c>
       <c r="M22" cm="1">
-        <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K22)</f>
-        <v>0.19076449590501413</v>
+        <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K22,translate)</f>
+        <v>0.24736842105263157</v>
       </c>
       <c r="N22" cm="1">
-        <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K22)</f>
-        <v>0.69596734196024246</v>
+        <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K22,translate)</f>
+        <v>0.62500226828270078</v>
       </c>
       <c r="O22" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K22)</f>
@@ -5223,16 +5229,16 @@
         <v>2.0000000000000004</v>
       </c>
       <c r="L23" cm="1">
-        <f t="array" aca="1" ref="L23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K23)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="L23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K23,translate)</f>
+        <v>0.4</v>
       </c>
       <c r="M23" cm="1">
-        <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K23)</f>
-        <v>0.1912262711097634</v>
+        <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K23,translate)</f>
+        <v>0.25000000000000006</v>
       </c>
       <c r="N23" cm="1">
-        <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K23)</f>
-        <v>0.68218626525425863</v>
+        <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K23,translate)</f>
+        <v>0.60653065971263331</v>
       </c>
       <c r="O23" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K23)</f>
@@ -5244,16 +5250,16 @@
         <v>2.1000000000000005</v>
       </c>
       <c r="L24" cm="1">
-        <f t="array" aca="1" ref="L24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K24)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="L24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K24,translate)</f>
+        <v>0.4</v>
       </c>
       <c r="M24" cm="1">
-        <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K24)</f>
-        <v>0.19640597248548897</v>
+        <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K24,translate)</f>
+        <v>0.25714285714285717</v>
       </c>
       <c r="N24" cm="1">
-        <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K24)</f>
-        <v>0.66202461416413305</v>
+        <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K24,translate)</f>
+        <v>0.58274825237398953</v>
       </c>
       <c r="O24" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K24)</f>
@@ -5265,16 +5271,16 @@
         <v>2.2000000000000006</v>
       </c>
       <c r="L25" cm="1">
-        <f t="array" aca="1" ref="L25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K25)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="L25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K25,translate)</f>
+        <v>0.4</v>
       </c>
       <c r="M25" cm="1">
-        <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K25)</f>
-        <v>0.20111479191796675</v>
+        <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K25,translate)</f>
+        <v>0.26363636363636367</v>
       </c>
       <c r="N25" cm="1">
-        <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K25)</f>
-        <v>0.64245882991475745</v>
+        <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K25,translate)</f>
+        <v>0.55989836656540182</v>
       </c>
       <c r="O25" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K25)</f>
@@ -5286,16 +5292,16 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="L26" cm="1">
-        <f t="array" aca="1" ref="L26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K26)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="L26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K26,translate)</f>
+        <v>0.4</v>
       </c>
       <c r="M26" cm="1">
-        <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K26)</f>
-        <v>0.20541414879109862</v>
+        <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K26,translate)</f>
+        <v>0.2695652173913044</v>
       </c>
       <c r="N26" cm="1">
-        <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K26)</f>
-        <v>0.62347130197957701</v>
+        <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K26,translate)</f>
+        <v>0.53794443759467436</v>
       </c>
       <c r="O26" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K26)</f>
@@ -5307,16 +5313,16 @@
         <v>2.4000000000000008</v>
       </c>
       <c r="L27" cm="1">
-        <f t="array" aca="1" ref="L27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K27)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="L27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K27,translate)</f>
+        <v>0.4</v>
       </c>
       <c r="M27" cm="1">
-        <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K27)</f>
-        <v>0.20935522592480288</v>
+        <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K27,translate)</f>
+        <v>0.27500000000000008</v>
       </c>
       <c r="N27" cm="1">
-        <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K27)</f>
-        <v>0.6050449403017536</v>
+        <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K27,translate)</f>
+        <v>0.51685133449169907</v>
       </c>
       <c r="O27" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K27)</f>
@@ -5328,16 +5334,16 @@
         <v>2.5000000000000009</v>
       </c>
       <c r="L28" cm="1">
-        <f t="array" aca="1" ref="L28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K28)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="L28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K28,translate)</f>
+        <v>0.4</v>
       </c>
       <c r="M28" cm="1">
-        <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K28)</f>
-        <v>0.21298101688781076</v>
+        <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K28,translate)</f>
+        <v>0.28000000000000008</v>
       </c>
       <c r="N28" cm="1">
-        <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K28)</f>
-        <v>0.58716315991196055</v>
+        <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K28,translate)</f>
+        <v>0.4965853037914093</v>
       </c>
       <c r="O28" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K28)</f>
@@ -5349,16 +5355,16 @@
         <v>2.600000000000001</v>
       </c>
       <c r="L29" cm="1">
-        <f t="array" aca="1" ref="L29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K29)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="L29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K29,translate)</f>
+        <v>0.4</v>
       </c>
       <c r="M29" cm="1">
-        <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K29)</f>
-        <v>0.21632790085366418</v>
+        <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K29,translate)</f>
+        <v>0.28461538461538466</v>
       </c>
       <c r="N29" cm="1">
-        <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K29)</f>
-        <v>0.56980986600079053</v>
+        <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K29,translate)</f>
+        <v>0.47711391552103416</v>
       </c>
       <c r="O29" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K29)</f>
@@ -5370,16 +5376,16 @@
         <v>2.7000000000000011</v>
       </c>
       <c r="L30" cm="1">
-        <f t="array" aca="1" ref="L30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K30)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="L30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K30,translate)</f>
+        <v>0.4</v>
       </c>
       <c r="M30" cm="1">
-        <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K30)</f>
-        <v>0.21942686748871368</v>
+        <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K30,translate)</f>
+        <v>0.28888888888888897</v>
       </c>
       <c r="N30" cm="1">
-        <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K30)</f>
-        <v>0.55296943943234111</v>
+        <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K30,translate)</f>
+        <v>0.45840601130522335</v>
       </c>
       <c r="O30" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K30)</f>
@@ -5391,16 +5397,16 @@
         <v>2.8000000000000012</v>
       </c>
       <c r="L31" cm="1">
-        <f t="array" aca="1" ref="L31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K31)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="L31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K31,translate)</f>
+        <v>0.4</v>
       </c>
       <c r="M31" cm="1">
-        <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K31)</f>
-        <v>0.22230447936411671</v>
+        <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K31,translate)</f>
+        <v>0.29285714285714293</v>
       </c>
       <c r="N31" cm="1">
-        <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K31)</f>
-        <v>0.53662672268593781</v>
+        <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K31,translate)</f>
+        <v>0.44043165450599903</v>
       </c>
       <c r="O31" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K31)</f>
@@ -5412,16 +5418,16 @@
         <v>2.9000000000000012</v>
       </c>
       <c r="L32" cm="1">
-        <f t="array" aca="1" ref="L32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K32)</f>
-        <v>0.3</v>
+        <f t="array" aca="1" ref="L32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K32,translate)</f>
+        <v>0.4</v>
       </c>
       <c r="M32" cm="1">
-        <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K32)</f>
-        <v>0.22498363524811268</v>
+        <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K32,translate)</f>
+        <v>0.29655172413793107</v>
       </c>
       <c r="N32" cm="1">
-        <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K32)</f>
-        <v>0.52076700621334227</v>
+        <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K32,translate)</f>
+        <v>0.4231620823177486</v>
       </c>
       <c r="O32" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K32)</f>
@@ -5433,16 +5439,16 @@
         <v>3.0000000000000013</v>
       </c>
       <c r="L33" cm="1">
-        <f t="array" aca="1" ref="L33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K33)</f>
+        <f t="array" aca="1" ref="L33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K33,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M33" cm="1">
-        <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K33)</f>
-        <v>0.22748418073984233</v>
+        <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K33,translate)</f>
+        <v>0.3000000000000001</v>
       </c>
       <c r="N33" cm="1">
-        <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K33)</f>
-        <v>0.50537601519916608</v>
+        <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K33,translate)</f>
+        <v>0.40656965974059878</v>
       </c>
       <c r="O33" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K33)</f>
@@ -5454,16 +5460,16 @@
         <v>3.1000000000000014</v>
       </c>
       <c r="L34" cm="1">
-        <f t="array" aca="1" ref="L34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K34)</f>
+        <f t="array" aca="1" ref="L34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K34,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M34" cm="1">
-        <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K34)</f>
-        <v>0.23304920716758937</v>
+        <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K34,translate)</f>
+        <v>0.30322580645161296</v>
       </c>
       <c r="N34" cm="1">
-        <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K34)</f>
-        <v>0.4855599382042427</v>
+        <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K34,translate)</f>
+        <v>0.39062783535852086</v>
       </c>
       <c r="O34" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K34)</f>
@@ -5475,16 +5481,16 @@
         <v>3.2000000000000015</v>
       </c>
       <c r="L35" cm="1">
-        <f t="array" aca="1" ref="L35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K35)</f>
+        <f t="array" aca="1" ref="L35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K35,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M35" cm="1">
-        <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K35)</f>
-        <v>0.23826641944360219</v>
+        <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K35,translate)</f>
+        <v>0.30625000000000002</v>
       </c>
       <c r="N35" cm="1">
-        <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K35)</f>
-        <v>0.46652086070209103</v>
+        <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K35,translate)</f>
+        <v>0.37531109885139941</v>
       </c>
       <c r="O35" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K35)</f>
@@ -5496,16 +5502,16 @@
         <v>3.3000000000000016</v>
       </c>
       <c r="L36" cm="1">
-        <f t="array" aca="1" ref="L36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K36)</f>
+        <f t="array" aca="1" ref="L36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K36,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M36" cm="1">
-        <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K36)</f>
-        <v>0.24316743703622032</v>
+        <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K36,translate)</f>
+        <v>0.30909090909090914</v>
       </c>
       <c r="N36" cm="1">
-        <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K36)</f>
-        <v>0.44822831610682112</v>
+        <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K36,translate)</f>
+        <v>0.36059494017307803</v>
       </c>
       <c r="O36" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K36)</f>
@@ -5517,16 +5523,16 @@
         <v>3.4000000000000017</v>
       </c>
       <c r="L37" cm="1">
-        <f t="array" aca="1" ref="L37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K37)</f>
+        <f t="array" aca="1" ref="L37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K37,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M37" cm="1">
-        <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K37)</f>
-        <v>0.2477801594763315</v>
+        <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K37,translate)</f>
+        <v>0.311764705882353</v>
       </c>
       <c r="N37" cm="1">
-        <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K37)</f>
-        <v>0.4306530324444629</v>
+        <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K37,translate)</f>
+        <v>0.34645581033005712</v>
       </c>
       <c r="O37" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K37)</f>
@@ -5538,16 +5544,16 @@
         <v>3.5000000000000018</v>
       </c>
       <c r="L38" cm="1">
-        <f t="array" aca="1" ref="L38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K38)</f>
+        <f t="array" aca="1" ref="L38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K38,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M38" cm="1">
-        <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K38)</f>
-        <v>0.25212929777700771</v>
+        <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K38,translate)</f>
+        <v>0.31428571428571433</v>
       </c>
       <c r="N38" cm="1">
-        <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K38)</f>
-        <v>0.41376688551156277</v>
+        <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K38,translate)</f>
+        <v>0.33287108369807933</v>
       </c>
       <c r="O38" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K38)</f>
@@ -5559,16 +5565,16 @@
         <v>3.6000000000000019</v>
       </c>
       <c r="L39" cm="1">
-        <f t="array" aca="1" ref="L39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K39)</f>
+        <f t="array" aca="1" ref="L39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K39,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M39" cm="1">
-        <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K39)</f>
-        <v>0.25623681728320197</v>
+        <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K39,translate)</f>
+        <v>0.31666666666666671</v>
       </c>
       <c r="N39" cm="1">
-        <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K39)</f>
-        <v>0.3975428538704579</v>
+        <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K39,translate)</f>
+        <v>0.31981902181630373</v>
       </c>
       <c r="O39" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K39)</f>
@@ -5580,16 +5586,16 @@
         <v>3.700000000000002</v>
       </c>
       <c r="L40" cm="1">
-        <f t="array" aca="1" ref="L40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K40)</f>
+        <f t="array" aca="1" ref="L40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K40,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M40" cm="1">
-        <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K40)</f>
-        <v>0.26012230870798031</v>
+        <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K40,translate)</f>
+        <v>0.31891891891891899</v>
       </c>
       <c r="N40" cm="1">
-        <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K40)</f>
-        <v>0.38195497560921121</v>
+        <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K40,translate)</f>
+        <v>0.30727873860113097</v>
       </c>
       <c r="O40" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K40)</f>
@@ -5601,16 +5607,16 @@
         <v>3.800000000000002</v>
       </c>
       <c r="L41" cm="1">
-        <f t="array" aca="1" ref="L41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K41)</f>
+        <f t="array" aca="1" ref="L41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K41,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M41" cm="1">
-        <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K41)</f>
-        <v>0.26380330058408608</v>
+        <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K41,translate)</f>
+        <v>0.32105263157894742</v>
       </c>
       <c r="N41" cm="1">
-        <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K41)</f>
-        <v>0.36697830679701332</v>
+        <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K41,translate)</f>
+        <v>0.29523016692401388</v>
       </c>
       <c r="O41" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K41)</f>
@@ -5622,16 +5628,16 @@
         <v>3.9000000000000021</v>
       </c>
       <c r="L42" cm="1">
-        <f t="array" aca="1" ref="L42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K42)</f>
+        <f t="array" aca="1" ref="L42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K42,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M42" cm="1">
-        <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K42)</f>
-        <v>0.2672955236460326</v>
+        <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K42,translate)</f>
+        <v>0.32307692307692315</v>
       </c>
       <c r="N42" cm="1">
-        <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K42)</f>
-        <v>0.3525888815685716</v>
+        <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K42,translate)</f>
+        <v>0.28365402649977012</v>
       </c>
       <c r="O42" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K42)</f>
@@ -5643,16 +5649,16 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="L43" cm="1">
-        <f t="array" aca="1" ref="L43" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K43)</f>
+        <f t="array" aca="1" ref="L43" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K43,translate)</f>
         <v>0.4</v>
       </c>
       <c r="M43" cm="1">
-        <f t="array" aca="1" ref="M43" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K43)</f>
-        <v>0.27061313555488176</v>
+        <f t="array" aca="1" ref="M43" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K43,translate)</f>
+        <v>0.32500000000000001</v>
       </c>
       <c r="N43" cm="1">
-        <f t="array" aca="1" ref="N43" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K43)</f>
-        <v>0.33876367377361288</v>
+        <f t="array" aca="1" ref="N43" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K43,translate)</f>
+        <v>0.27253179303401243</v>
       </c>
       <c r="O43" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K43)</f>
@@ -5691,19 +5697,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2:D5">_xll.TMX.BOND.SIMPLE(bond.simple)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" cm="1">
         <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
-        <v>2042993404720</v>
+        <v>2205744282544</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="17">
         <f>F2-D2</f>
@@ -5715,13 +5721,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:G5" si="0">F3-D3</f>
@@ -5736,10 +5742,10 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" si="0"/>
@@ -5754,10 +5760,10 @@
         <v>27</v>
       </c>
       <c r="D5" s="5">
-        <v>140718145352768</v>
+        <v>140716919108667</v>
       </c>
       <c r="F5" s="5">
-        <v>140718145352768</v>
+        <v>140716919108667</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" si="0"/>
@@ -5770,7 +5776,7 @@
       </c>
       <c r="C6" s="5" cm="1">
         <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
-        <v>2042993402032</v>
+        <v>2205744290224</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -5788,7 +5794,7 @@
       </c>
       <c r="C8" s="5" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
-        <v>2044160458272</v>
+        <v>2207344029760</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -5797,11 +5803,11 @@
       </c>
       <c r="C9" s="20" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
-        <v>4.9377109858896553E-2</v>
+        <v>3.9585327332811372E-2</v>
       </c>
       <c r="D9" s="5" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_xll.\TMX.PWFLAT.CURVE(0,0,yield)</f>
-        <v>2044160458624</v>
+        <v>2207344031344</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -5810,7 +5816,7 @@
       </c>
       <c r="C10" s="23" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">_xll.TMX.VALUE.PRESENT(instrument, $D$9)</f>
-        <v>1.0000000017656043</v>
+        <v>1.000000001080527</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -5819,7 +5825,7 @@
       </c>
       <c r="C11" s="23" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.VALUE.DURATION(instrument, $D$9)</f>
-        <v>-3.6753500677592705</v>
+        <v>-4.5834637662394009</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5828,7 +5834,7 @@
       </c>
       <c r="C12" s="23" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.CONVEXITY(instrument, $D$9)</f>
-        <v>14.225612023361775</v>
+        <v>22.178239353225383</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5836,34 +5842,34 @@
         <v>38</v>
       </c>
       <c r="C13" s="20" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(C9,12/_xll.ENUM(frequency))</f>
-        <v>4.9991681811983657E-2</v>
+        <f t="array" aca="1" ref="C13" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(C9,_xll.ENUM(frequency))</f>
+        <v>3.9979674296520162E-2</v>
       </c>
       <c r="G13" s="7">
         <f ca="1">C10-G14</f>
-        <v>0</v>
+        <v>0.85350127098634077</v>
       </c>
       <c r="H13" s="7">
         <f ca="1">C11-H14</f>
-        <v>0</v>
+        <v>-4.2610080284477192</v>
       </c>
       <c r="I13" s="7">
         <f ca="1">C12-I14</f>
-        <v>0</v>
+        <v>21.276671617752239</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G14">
         <f ca="1">SUM(G16:G23)</f>
-        <v>1.0000000017656043</v>
+        <v>0.14649873009418624</v>
       </c>
       <c r="H14">
         <f ca="1">SUM(H16:H23)</f>
-        <v>-3.6753500677592705</v>
+        <v>-0.32245573779168146</v>
       </c>
       <c r="I14">
         <f ca="1">SUM(I16:I23)</f>
-        <v>14.225612023361773</v>
+        <v>0.90156773547314439</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -5891,32 +5897,32 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="16" cm="1">
-        <f t="array" aca="1" ref="C16:D23" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
+        <f t="array" aca="1" ref="C16:D25" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
         <v>0.50377488928588543</v>
       </c>
       <c r="D16">
         <f ca="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E16" s="2" cm="1">
-        <f t="array" aca="1" ref="E16:E23" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C16),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
+        <f t="array" aca="1" ref="E16:E25" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C16),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
         <v>45297</v>
       </c>
       <c r="F16" s="24" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C16)</f>
-        <v>0.97543188405858439</v>
+        <v>0.98025543443800101</v>
       </c>
       <c r="G16" s="24">
         <f ca="1">D16*F16</f>
-        <v>2.4385797101464612E-2</v>
+        <v>1.9605108688760021E-2</v>
       </c>
       <c r="H16" s="24">
         <f ca="1">-G16*C16</f>
-        <v>-1.22849522349384E-2</v>
+        <v>-9.8765614591178295E-3</v>
       </c>
       <c r="I16" s="24">
         <f ca="1">C16^2*G16</f>
-        <v>6.1888504520384831E-3</v>
+        <v>4.9755636555923275E-3</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
@@ -5926,7 +5932,7 @@
       </c>
       <c r="D17">
         <f ca="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E17" s="2">
         <f ca="1"/>
@@ -5934,19 +5940,19 @@
       </c>
       <c r="F17" s="24" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C17)</f>
-        <v>0.95172465284120833</v>
+        <v>0.9611090259767846</v>
       </c>
       <c r="G17" s="24">
         <f t="shared" ref="G17:G23" ca="1" si="1">D17*F17</f>
-        <v>2.3793116321030209E-2</v>
+        <v>1.9222180519535694E-2</v>
       </c>
       <c r="H17" s="24">
         <f t="shared" ref="H17:H23" ca="1" si="2">-G17*C17</f>
-        <v>-2.3842462400999492E-2</v>
+        <v>-1.9262046640656727E-2</v>
       </c>
       <c r="I17" s="24">
         <f t="shared" ref="I17:I23" ca="1" si="3">C17^2*G17</f>
-        <v>2.3891910822989696E-2</v>
+        <v>1.9301995442700021E-2</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
@@ -5956,7 +5962,7 @@
       </c>
       <c r="D18">
         <f ca="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E18" s="2">
         <f ca="1"/>
@@ -5964,19 +5970,19 @@
       </c>
       <c r="F18" s="24" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C18)</f>
-        <v>0.92834257122590202</v>
+        <v>0.94213234580115701</v>
       </c>
       <c r="G18" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3208564280647551E-2</v>
+        <v>1.884264691602314E-2</v>
       </c>
       <c r="H18" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.4948589921370468E-2</v>
+        <v>-2.8374178261874581E-2</v>
       </c>
       <c r="I18" s="24">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2627294076548474E-2</v>
+        <v>4.2727223814400077E-2</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
@@ -5986,7 +5992,7 @@
       </c>
       <c r="D19">
         <f ca="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E19" s="2">
         <f ca="1"/>
@@ -5994,19 +6000,19 @@
       </c>
       <c r="F19" s="24" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C19)</f>
-        <v>0.90590227541760349</v>
+        <v>0.923830680030578</v>
       </c>
       <c r="G19" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2647556885440089E-2</v>
+        <v>1.847661360061156E-2</v>
       </c>
       <c r="H19" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.5327047326794399E-2</v>
+        <v>-3.6979279634892018E-2</v>
       </c>
       <c r="I19" s="24">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0718006792437078E-2</v>
+        <v>7.4010700871629295E-2</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
@@ -6016,7 +6022,7 @@
       </c>
       <c r="D20">
         <f ca="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E20" s="2">
         <f ca="1"/>
@@ -6024,19 +6030,19 @@
       </c>
       <c r="F20" s="24" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C20)</f>
-        <v>0.88364596328355161</v>
+        <v>0.90559004460052817</v>
       </c>
       <c r="G20" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2091149082088792E-2</v>
+        <v>1.8111800892010563E-2</v>
       </c>
       <c r="H20" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.5342413355814961E-2</v>
+        <v>-4.537341031284603E-2</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13864297889914423</v>
+        <v>0.11366878289425278</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
@@ -6046,7 +6052,7 @@
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E21" s="2">
         <f ca="1"/>
@@ -6054,19 +6060,19 @@
       </c>
       <c r="F21" s="24" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C21)</f>
-        <v>0.86228609310146287</v>
+        <v>0.88799824192513144</v>
       </c>
       <c r="G21" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1557152327536574E-2</v>
+        <v>1.7759964838502628E-2</v>
       </c>
       <c r="H21" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.4687540335475982E-2</v>
+        <v>-5.3293144864025629E-2</v>
       </c>
       <c r="I21" s="24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19411088306448912</v>
+        <v>0.15991919552344561</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
@@ -6076,7 +6082,7 @@
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E22" s="2">
         <f ca="1"/>
@@ -6084,19 +6090,19 @@
       </c>
       <c r="F22" s="24" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C22)</f>
-        <v>0.84110134839147577</v>
+        <v>0.87046510241850084</v>
       </c>
       <c r="G22" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1027533709786897E-2</v>
+        <v>1.7409302048370018E-2</v>
       </c>
       <c r="H22" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.3691432811152119E-2</v>
+        <v>-6.101126408321491E-2</v>
       </c>
       <c r="I22" s="24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25825317151830551</v>
+        <v>0.21381525432148527</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
@@ -6106,7 +6112,7 @@
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>1.0249999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="E23" s="2">
         <f ca="1"/>
@@ -6114,1628 +6120,2064 @@
       </c>
       <c r="F23" s="24" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C23)</f>
-        <v>0.82076988493425329</v>
+        <v>0.85355562951863018</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84128913205760958</v>
+        <v>1.7071112590372604E-2</v>
       </c>
       <c r="H23" s="24">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.3652256293727247</v>
+        <v>-6.8285852535053759E-2</v>
       </c>
       <c r="I23" s="24">
         <f t="shared" ca="1" si="3"/>
-        <v>13.461178927735821</v>
+        <v>0.27314901894963906</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E24" s="2"/>
+      <c r="C24" s="16">
+        <f ca="1"/>
+        <v>4.5038570264960951</v>
+      </c>
+      <c r="D24">
+        <f ca="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="2">
+        <f ca="1"/>
+        <v>46758</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E25" s="2"/>
+      <c r="C25" s="16">
+        <f ca="1"/>
+        <v>5.0021561017680032</v>
+      </c>
+      <c r="D25">
+        <f ca="1"/>
+        <v>1.02</v>
+      </c>
+      <c r="E25" s="2">
+        <f ca="1"/>
+        <v>46940</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="16"/>
       <c r="E26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="16"/>
       <c r="E27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="16"/>
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="16"/>
       <c r="E29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="16"/>
       <c r="E30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="16"/>
       <c r="E31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="16"/>
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="16"/>
       <c r="E33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="16"/>
       <c r="E34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="16"/>
       <c r="E35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="16"/>
       <c r="E36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="16"/>
       <c r="E37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="16"/>
       <c r="E38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="16"/>
       <c r="E39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="16"/>
       <c r="E40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="16"/>
       <c r="E41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="16"/>
       <c r="E42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="16"/>
       <c r="E43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="16"/>
       <c r="E44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="16"/>
       <c r="E45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="16"/>
       <c r="E46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C47" s="16"/>
       <c r="E47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C48" s="16"/>
       <c r="E48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="16"/>
       <c r="E49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="16"/>
       <c r="E50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="16"/>
       <c r="E51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="16"/>
       <c r="E52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="16"/>
       <c r="E53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="16"/>
       <c r="E54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="16"/>
       <c r="E55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="16"/>
       <c r="E56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="16"/>
       <c r="E57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="16"/>
       <c r="E58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="16"/>
       <c r="E59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C60" s="16"/>
       <c r="E60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C61" s="16"/>
       <c r="E61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="16"/>
       <c r="E62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="16"/>
       <c r="E63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C64" s="16"/>
       <c r="E64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="16"/>
       <c r="E65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="16"/>
       <c r="E66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="16"/>
       <c r="E67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C68" s="16"/>
       <c r="E68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C69" s="16"/>
       <c r="E69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C70" s="16"/>
       <c r="E70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C71" s="16"/>
       <c r="E71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C72" s="16"/>
       <c r="E72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C73" s="16"/>
       <c r="E73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C74" s="16"/>
       <c r="E74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C75" s="16"/>
       <c r="E75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="16"/>
       <c r="E76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C77" s="16"/>
       <c r="E77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="16"/>
       <c r="E78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C79" s="16"/>
       <c r="E79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="16"/>
       <c r="E80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C81" s="16"/>
       <c r="E81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="16"/>
       <c r="E82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C83" s="16"/>
       <c r="E83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C84" s="16"/>
       <c r="E84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="16"/>
       <c r="E85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C86" s="16"/>
       <c r="E86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C87" s="16"/>
       <c r="E87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C88" s="16"/>
       <c r="E88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C89" s="16"/>
       <c r="E89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C90" s="16"/>
       <c r="E90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C91" s="16"/>
       <c r="E91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C92" s="16"/>
       <c r="E92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C93" s="16"/>
       <c r="E93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C94" s="16"/>
       <c r="E94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C95" s="16"/>
       <c r="E95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C96" s="16"/>
       <c r="E96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C97" s="16"/>
       <c r="E97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C98" s="16"/>
       <c r="E98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C99" s="16"/>
       <c r="E99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C100" s="16"/>
       <c r="E100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C101" s="16"/>
       <c r="E101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C102" s="16"/>
       <c r="E102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C103" s="16"/>
       <c r="E103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C104" s="16"/>
       <c r="E104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C105" s="16"/>
       <c r="E105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C106" s="16"/>
       <c r="E106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C107" s="16"/>
       <c r="E107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C108" s="16"/>
       <c r="E108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C109" s="16"/>
       <c r="E109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C110" s="16"/>
       <c r="E110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C111" s="16"/>
       <c r="E111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C112" s="16"/>
       <c r="E112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C113" s="16"/>
       <c r="E113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C114" s="16"/>
       <c r="E114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C115" s="16"/>
       <c r="E115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C116" s="16"/>
       <c r="E116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C117" s="16"/>
       <c r="E117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C118" s="16"/>
       <c r="E118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C119" s="16"/>
       <c r="E119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C120" s="16"/>
       <c r="E120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C121" s="16"/>
       <c r="E121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C122" s="16"/>
       <c r="E122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C123" s="16"/>
       <c r="E123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C124" s="16"/>
       <c r="E124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C125" s="16"/>
       <c r="E125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C126" s="16"/>
       <c r="E126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C127" s="16"/>
       <c r="E127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C128" s="16"/>
       <c r="E128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C129" s="16"/>
       <c r="E129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C130" s="16"/>
       <c r="E130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C131" s="16"/>
       <c r="E131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C132" s="16"/>
       <c r="E132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C133" s="16"/>
       <c r="E133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C134" s="16"/>
       <c r="E134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C135" s="16"/>
       <c r="E135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C136" s="16"/>
       <c r="E136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C137" s="16"/>
       <c r="E137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C138" s="16"/>
       <c r="E138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C139" s="16"/>
       <c r="E139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C140" s="16"/>
       <c r="E140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C141" s="16"/>
       <c r="E141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C142" s="16"/>
       <c r="E142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C143" s="16"/>
       <c r="E143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C144" s="16"/>
       <c r="E144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C145" s="16"/>
       <c r="E145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C146" s="16"/>
       <c r="E146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C147" s="16"/>
       <c r="E147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C148" s="16"/>
       <c r="E148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C149" s="16"/>
       <c r="E149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C150" s="16"/>
       <c r="E150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C151" s="16"/>
       <c r="E151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C152" s="16"/>
       <c r="E152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C153" s="16"/>
       <c r="E153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C154" s="16"/>
       <c r="E154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C155" s="16"/>
       <c r="E155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C156" s="16"/>
       <c r="E156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C157" s="16"/>
       <c r="E157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C158" s="16"/>
       <c r="E158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C159" s="16"/>
       <c r="E159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C160" s="16"/>
       <c r="E160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C161" s="16"/>
       <c r="E161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C162" s="16"/>
       <c r="E162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C163" s="16"/>
       <c r="E163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C164" s="16"/>
       <c r="E164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C165" s="16"/>
       <c r="E165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C166" s="16"/>
       <c r="E166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C167" s="16"/>
       <c r="E167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C168" s="16"/>
       <c r="E168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C169" s="16"/>
       <c r="E169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C170" s="16"/>
       <c r="E170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C171" s="16"/>
       <c r="E171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C172" s="16"/>
       <c r="E172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C173" s="16"/>
       <c r="E173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C174" s="16"/>
       <c r="E174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C175" s="16"/>
       <c r="E175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C176" s="16"/>
       <c r="E176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C177" s="16"/>
       <c r="E177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C178" s="16"/>
       <c r="E178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C179" s="16"/>
       <c r="E179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C180" s="16"/>
       <c r="E180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C181" s="16"/>
       <c r="E181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C182" s="16"/>
       <c r="E182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C183" s="16"/>
       <c r="E183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C184" s="16"/>
       <c r="E184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C185" s="16"/>
       <c r="E185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C186" s="16"/>
       <c r="E186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C187" s="16"/>
       <c r="E187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C188" s="16"/>
       <c r="E188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C189" s="16"/>
       <c r="E189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C190" s="16"/>
       <c r="E190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C191" s="16"/>
       <c r="E191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C192" s="16"/>
       <c r="E192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C193" s="16"/>
       <c r="E193" s="2"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C194" s="16"/>
       <c r="E194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C195" s="16"/>
       <c r="E195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C196" s="16"/>
       <c r="E196" s="2"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C197" s="16"/>
       <c r="E197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C198" s="16"/>
       <c r="E198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C199" s="16"/>
       <c r="E199" s="2"/>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C200" s="16"/>
       <c r="E200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C201" s="16"/>
       <c r="E201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C202" s="16"/>
       <c r="E202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C203" s="16"/>
       <c r="E203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C204" s="16"/>
       <c r="E204" s="2"/>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C205" s="16"/>
       <c r="E205" s="2"/>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C206" s="16"/>
       <c r="E206" s="2"/>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C207" s="16"/>
       <c r="E207" s="2"/>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C208" s="16"/>
       <c r="E208" s="2"/>
       <c r="G208" s="2"/>
     </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C209" s="16"/>
       <c r="E209" s="2"/>
       <c r="G209" s="2"/>
     </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C210" s="16"/>
       <c r="E210" s="2"/>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C211" s="16"/>
       <c r="E211" s="2"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C212" s="16"/>
       <c r="E212" s="2"/>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C213" s="16"/>
       <c r="E213" s="2"/>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C214" s="16"/>
       <c r="E214" s="2"/>
       <c r="G214" s="2"/>
     </row>
-    <row r="215" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C215" s="16"/>
       <c r="E215" s="2"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C216" s="16"/>
       <c r="E216" s="2"/>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C217" s="16"/>
       <c r="E217" s="2"/>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C218" s="16"/>
       <c r="E218" s="2"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C219" s="16"/>
       <c r="E219" s="2"/>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C220" s="16"/>
       <c r="E220" s="2"/>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C221" s="16"/>
       <c r="E221" s="2"/>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C222" s="16"/>
       <c r="E222" s="2"/>
       <c r="G222" s="2"/>
     </row>
-    <row r="223" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C223" s="16"/>
       <c r="E223" s="2"/>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C224" s="16"/>
       <c r="E224" s="2"/>
       <c r="G224" s="2"/>
     </row>
-    <row r="225" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C225" s="16"/>
       <c r="E225" s="2"/>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C226" s="16"/>
       <c r="E226" s="2"/>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C227" s="16"/>
       <c r="E227" s="2"/>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C228" s="16"/>
       <c r="E228" s="2"/>
       <c r="G228" s="2"/>
     </row>
-    <row r="229" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C229" s="16"/>
       <c r="E229" s="2"/>
       <c r="G229" s="2"/>
     </row>
-    <row r="230" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C230" s="16"/>
       <c r="E230" s="2"/>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C231" s="16"/>
       <c r="E231" s="2"/>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C232" s="16"/>
       <c r="E232" s="2"/>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C233" s="16"/>
       <c r="E233" s="2"/>
       <c r="G233" s="2"/>
     </row>
-    <row r="234" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C234" s="16"/>
       <c r="E234" s="2"/>
       <c r="G234" s="2"/>
     </row>
-    <row r="235" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C235" s="16"/>
       <c r="E235" s="2"/>
       <c r="G235" s="2"/>
     </row>
-    <row r="236" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C236" s="16"/>
       <c r="E236" s="2"/>
       <c r="G236" s="2"/>
     </row>
-    <row r="237" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C237" s="16"/>
       <c r="E237" s="2"/>
       <c r="G237" s="2"/>
     </row>
-    <row r="238" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C238" s="16"/>
       <c r="E238" s="2"/>
       <c r="G238" s="2"/>
     </row>
-    <row r="239" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C239" s="16"/>
       <c r="E239" s="2"/>
       <c r="G239" s="2"/>
     </row>
-    <row r="240" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C240" s="16"/>
       <c r="E240" s="2"/>
       <c r="G240" s="2"/>
     </row>
-    <row r="241" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C241" s="16"/>
       <c r="E241" s="2"/>
       <c r="G241" s="2"/>
     </row>
-    <row r="242" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C242" s="16"/>
       <c r="E242" s="2"/>
       <c r="G242" s="2"/>
     </row>
-    <row r="243" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C243" s="16"/>
       <c r="E243" s="2"/>
       <c r="G243" s="2"/>
     </row>
-    <row r="244" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C244" s="16"/>
       <c r="E244" s="2"/>
       <c r="G244" s="2"/>
     </row>
-    <row r="245" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C245" s="16"/>
       <c r="E245" s="2"/>
       <c r="G245" s="2"/>
     </row>
-    <row r="246" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C246" s="16"/>
       <c r="E246" s="2"/>
       <c r="G246" s="2"/>
     </row>
-    <row r="247" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C247" s="16"/>
       <c r="E247" s="2"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="248" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C248" s="16"/>
       <c r="E248" s="2"/>
       <c r="G248" s="2"/>
     </row>
-    <row r="249" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C249" s="16"/>
       <c r="E249" s="2"/>
       <c r="G249" s="2"/>
     </row>
-    <row r="250" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C250" s="16"/>
       <c r="E250" s="2"/>
       <c r="G250" s="2"/>
     </row>
-    <row r="251" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C251" s="16"/>
       <c r="E251" s="2"/>
       <c r="G251" s="2"/>
     </row>
-    <row r="252" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C252" s="16"/>
       <c r="E252" s="2"/>
       <c r="G252" s="2"/>
     </row>
-    <row r="253" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C253" s="16"/>
       <c r="E253" s="2"/>
       <c r="G253" s="2"/>
     </row>
-    <row r="254" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C254" s="16"/>
       <c r="E254" s="2"/>
       <c r="G254" s="2"/>
     </row>
-    <row r="255" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C255" s="16"/>
       <c r="E255" s="2"/>
       <c r="G255" s="2"/>
     </row>
-    <row r="256" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C256" s="16"/>
       <c r="E256" s="2"/>
       <c r="G256" s="2"/>
     </row>
-    <row r="257" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C257" s="16"/>
       <c r="E257" s="2"/>
       <c r="G257" s="2"/>
     </row>
-    <row r="258" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C258" s="16"/>
       <c r="E258" s="2"/>
       <c r="G258" s="2"/>
     </row>
-    <row r="259" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C259" s="16"/>
       <c r="E259" s="2"/>
       <c r="G259" s="2"/>
     </row>
-    <row r="260" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C260" s="16"/>
       <c r="E260" s="2"/>
       <c r="G260" s="2"/>
     </row>
-    <row r="261" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C261" s="16"/>
       <c r="E261" s="2"/>
       <c r="G261" s="2"/>
     </row>
-    <row r="262" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C262" s="16"/>
       <c r="E262" s="2"/>
       <c r="G262" s="2"/>
     </row>
-    <row r="263" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C263" s="16"/>
       <c r="E263" s="2"/>
       <c r="G263" s="2"/>
     </row>
-    <row r="264" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C264" s="16"/>
       <c r="E264" s="2"/>
       <c r="G264" s="2"/>
     </row>
-    <row r="265" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C265" s="16"/>
       <c r="E265" s="2"/>
       <c r="G265" s="2"/>
     </row>
-    <row r="266" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C266" s="16"/>
       <c r="E266" s="2"/>
       <c r="G266" s="2"/>
     </row>
-    <row r="267" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C267" s="16"/>
       <c r="E267" s="2"/>
       <c r="G267" s="2"/>
     </row>
-    <row r="268" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C268" s="16"/>
       <c r="E268" s="2"/>
       <c r="G268" s="2"/>
     </row>
-    <row r="269" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C269" s="16"/>
       <c r="E269" s="2"/>
       <c r="G269" s="2"/>
     </row>
-    <row r="270" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C270" s="16"/>
       <c r="E270" s="2"/>
       <c r="G270" s="2"/>
     </row>
-    <row r="271" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C271" s="16"/>
       <c r="E271" s="2"/>
       <c r="G271" s="2"/>
     </row>
-    <row r="272" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C272" s="16"/>
       <c r="E272" s="2"/>
       <c r="G272" s="2"/>
     </row>
-    <row r="273" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C273" s="16"/>
       <c r="E273" s="2"/>
       <c r="G273" s="2"/>
     </row>
-    <row r="274" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C274" s="16"/>
       <c r="E274" s="2"/>
       <c r="G274" s="2"/>
     </row>
-    <row r="275" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C275" s="16"/>
       <c r="E275" s="2"/>
       <c r="G275" s="2"/>
     </row>
-    <row r="276" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C276" s="16"/>
       <c r="E276" s="2"/>
       <c r="G276" s="2"/>
     </row>
-    <row r="277" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C277" s="16"/>
       <c r="E277" s="2"/>
       <c r="G277" s="2"/>
     </row>
-    <row r="278" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C278" s="16"/>
       <c r="E278" s="2"/>
       <c r="G278" s="2"/>
     </row>
-    <row r="279" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C279" s="16"/>
       <c r="E279" s="2"/>
       <c r="G279" s="2"/>
     </row>
-    <row r="280" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C280" s="16"/>
       <c r="E280" s="2"/>
       <c r="G280" s="2"/>
     </row>
-    <row r="281" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C281" s="16"/>
       <c r="E281" s="2"/>
       <c r="G281" s="2"/>
     </row>
-    <row r="282" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C282" s="16"/>
       <c r="E282" s="2"/>
       <c r="G282" s="2"/>
     </row>
-    <row r="283" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C283" s="16"/>
       <c r="E283" s="2"/>
       <c r="G283" s="2"/>
     </row>
-    <row r="284" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C284" s="16"/>
       <c r="E284" s="2"/>
       <c r="G284" s="2"/>
     </row>
-    <row r="285" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C285" s="16"/>
       <c r="E285" s="2"/>
       <c r="G285" s="2"/>
     </row>
-    <row r="286" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C286" s="16"/>
       <c r="E286" s="2"/>
       <c r="G286" s="2"/>
     </row>
-    <row r="287" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C287" s="16"/>
       <c r="E287" s="2"/>
       <c r="G287" s="2"/>
     </row>
-    <row r="288" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C288" s="16"/>
       <c r="E288" s="2"/>
       <c r="G288" s="2"/>
     </row>
-    <row r="289" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C289" s="16"/>
       <c r="E289" s="2"/>
       <c r="G289" s="2"/>
     </row>
-    <row r="290" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C290" s="16"/>
       <c r="E290" s="2"/>
       <c r="G290" s="2"/>
     </row>
-    <row r="291" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C291" s="16"/>
       <c r="E291" s="2"/>
       <c r="G291" s="2"/>
     </row>
-    <row r="292" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C292" s="16"/>
       <c r="E292" s="2"/>
       <c r="G292" s="2"/>
     </row>
-    <row r="293" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C293" s="16"/>
       <c r="E293" s="2"/>
       <c r="G293" s="2"/>
     </row>
-    <row r="294" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C294" s="16"/>
       <c r="E294" s="2"/>
       <c r="G294" s="2"/>
     </row>
-    <row r="295" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C295" s="16"/>
       <c r="E295" s="2"/>
       <c r="G295" s="2"/>
     </row>
-    <row r="296" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C296" s="16"/>
       <c r="E296" s="2"/>
       <c r="G296" s="2"/>
     </row>
-    <row r="297" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C297" s="16"/>
       <c r="E297" s="2"/>
       <c r="G297" s="2"/>
     </row>
-    <row r="298" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C298" s="16"/>
       <c r="E298" s="2"/>
       <c r="G298" s="2"/>
     </row>
-    <row r="299" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C299" s="16"/>
       <c r="E299" s="2"/>
       <c r="G299" s="2"/>
     </row>
-    <row r="300" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C300" s="16"/>
       <c r="E300" s="2"/>
       <c r="G300" s="2"/>
     </row>
-    <row r="301" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C301" s="16"/>
       <c r="E301" s="2"/>
       <c r="G301" s="2"/>
     </row>
-    <row r="302" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C302" s="16"/>
       <c r="E302" s="2"/>
       <c r="G302" s="2"/>
     </row>
-    <row r="303" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C303" s="16"/>
       <c r="E303" s="2"/>
       <c r="G303" s="2"/>
     </row>
-    <row r="304" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C304" s="16"/>
       <c r="E304" s="2"/>
       <c r="G304" s="2"/>
     </row>
-    <row r="305" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C305" s="16"/>
       <c r="E305" s="2"/>
       <c r="G305" s="2"/>
     </row>
-    <row r="306" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C306" s="16"/>
       <c r="E306" s="2"/>
       <c r="G306" s="2"/>
     </row>
-    <row r="307" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C307" s="16"/>
       <c r="E307" s="2"/>
       <c r="G307" s="2"/>
     </row>
-    <row r="308" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C308" s="16"/>
       <c r="E308" s="2"/>
       <c r="G308" s="2"/>
     </row>
-    <row r="309" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C309" s="16"/>
       <c r="E309" s="2"/>
       <c r="G309" s="2"/>
     </row>
-    <row r="310" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C310" s="16"/>
       <c r="E310" s="2"/>
       <c r="G310" s="2"/>
     </row>
-    <row r="311" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C311" s="16"/>
       <c r="E311" s="2"/>
       <c r="G311" s="2"/>
     </row>
-    <row r="312" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C312" s="16"/>
       <c r="E312" s="2"/>
       <c r="G312" s="2"/>
     </row>
-    <row r="313" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C313" s="16"/>
       <c r="E313" s="2"/>
       <c r="G313" s="2"/>
     </row>
-    <row r="314" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C314" s="16"/>
       <c r="E314" s="2"/>
       <c r="G314" s="2"/>
     </row>
-    <row r="315" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C315" s="16"/>
       <c r="E315" s="2"/>
       <c r="G315" s="2"/>
     </row>
-    <row r="316" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C316" s="16"/>
       <c r="E316" s="2"/>
       <c r="G316" s="2"/>
     </row>
-    <row r="317" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C317" s="16"/>
       <c r="E317" s="2"/>
       <c r="G317" s="2"/>
     </row>
-    <row r="318" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C318" s="16"/>
       <c r="E318" s="2"/>
       <c r="G318" s="2"/>
     </row>
-    <row r="319" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C319" s="16"/>
       <c r="E319" s="2"/>
       <c r="G319" s="2"/>
     </row>
-    <row r="320" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C320" s="16"/>
       <c r="E320" s="2"/>
       <c r="G320" s="2"/>
     </row>
-    <row r="321" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C321" s="16"/>
       <c r="E321" s="2"/>
       <c r="G321" s="2"/>
     </row>
-    <row r="322" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C322" s="16"/>
       <c r="E322" s="2"/>
       <c r="G322" s="2"/>
     </row>
-    <row r="323" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C323" s="16"/>
       <c r="E323" s="2"/>
       <c r="G323" s="2"/>
     </row>
-    <row r="324" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C324" s="16"/>
       <c r="E324" s="2"/>
       <c r="G324" s="2"/>
     </row>
-    <row r="325" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C325" s="16"/>
       <c r="E325" s="2"/>
       <c r="G325" s="2"/>
     </row>
-    <row r="326" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C326" s="16"/>
       <c r="E326" s="2"/>
       <c r="G326" s="2"/>
     </row>
-    <row r="327" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C327" s="16"/>
       <c r="E327" s="2"/>
       <c r="G327" s="2"/>
     </row>
-    <row r="328" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C328" s="16"/>
       <c r="E328" s="2"/>
       <c r="G328" s="2"/>
     </row>
-    <row r="329" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C329" s="16"/>
       <c r="E329" s="2"/>
       <c r="G329" s="2"/>
     </row>
-    <row r="330" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C330" s="16"/>
       <c r="E330" s="2"/>
       <c r="G330" s="2"/>
     </row>
-    <row r="331" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C331" s="16"/>
       <c r="E331" s="2"/>
       <c r="G331" s="2"/>
     </row>
-    <row r="332" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C332" s="16"/>
       <c r="E332" s="2"/>
       <c r="G332" s="2"/>
     </row>
-    <row r="333" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C333" s="16"/>
       <c r="E333" s="2"/>
       <c r="G333" s="2"/>
     </row>
-    <row r="334" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C334" s="16"/>
       <c r="E334" s="2"/>
       <c r="G334" s="2"/>
     </row>
-    <row r="335" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C335" s="16"/>
       <c r="E335" s="2"/>
       <c r="G335" s="2"/>
     </row>
-    <row r="336" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C336" s="16"/>
       <c r="E336" s="2"/>
       <c r="G336" s="2"/>
     </row>
-    <row r="337" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C337" s="16"/>
       <c r="E337" s="2"/>
       <c r="G337" s="2"/>
     </row>
-    <row r="338" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C338" s="16"/>
       <c r="E338" s="2"/>
       <c r="G338" s="2"/>
     </row>
-    <row r="339" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C339" s="16"/>
       <c r="E339" s="2"/>
       <c r="G339" s="2"/>
     </row>
-    <row r="340" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C340" s="16"/>
       <c r="E340" s="2"/>
       <c r="G340" s="2"/>
     </row>
-    <row r="341" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C341" s="16"/>
       <c r="E341" s="2"/>
       <c r="G341" s="2"/>
     </row>
-    <row r="342" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C342" s="16"/>
       <c r="E342" s="2"/>
       <c r="G342" s="2"/>
     </row>
-    <row r="343" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C343" s="16"/>
       <c r="E343" s="2"/>
       <c r="G343" s="2"/>
     </row>
-    <row r="344" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C344" s="16"/>
       <c r="E344" s="2"/>
       <c r="G344" s="2"/>
     </row>
-    <row r="345" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C345" s="16"/>
       <c r="E345" s="2"/>
       <c r="G345" s="2"/>
     </row>
-    <row r="346" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C346" s="16"/>
       <c r="E346" s="2"/>
       <c r="G346" s="2"/>
     </row>
-    <row r="347" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C347" s="16"/>
       <c r="E347" s="2"/>
       <c r="G347" s="2"/>
     </row>
-    <row r="348" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C348" s="16"/>
       <c r="E348" s="2"/>
       <c r="G348" s="2"/>
     </row>
-    <row r="349" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C349" s="16"/>
       <c r="E349" s="2"/>
       <c r="G349" s="2"/>
     </row>
-    <row r="350" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C350" s="16"/>
       <c r="E350" s="2"/>
       <c r="G350" s="2"/>
     </row>
-    <row r="351" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C351" s="16"/>
       <c r="E351" s="2"/>
       <c r="G351" s="2"/>
     </row>
-    <row r="352" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C352" s="16"/>
       <c r="E352" s="2"/>
       <c r="G352" s="2"/>
     </row>
-    <row r="353" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C353" s="16"/>
       <c r="E353" s="2"/>
       <c r="G353" s="2"/>
     </row>
-    <row r="354" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C354" s="16"/>
       <c r="E354" s="2"/>
       <c r="G354" s="2"/>
     </row>
-    <row r="355" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C355" s="16"/>
       <c r="E355" s="2"/>
       <c r="G355" s="2"/>
     </row>
-    <row r="356" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C356" s="16"/>
       <c r="E356" s="2"/>
       <c r="G356" s="2"/>
     </row>
-    <row r="357" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C357" s="16"/>
       <c r="E357" s="2"/>
       <c r="G357" s="2"/>
     </row>
-    <row r="358" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C358" s="16"/>
       <c r="E358" s="2"/>
     </row>
-    <row r="359" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C359" s="16"/>
       <c r="E359" s="2"/>
     </row>
-    <row r="360" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C360" s="16"/>
       <c r="E360" s="2"/>
     </row>
-    <row r="361" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C361" s="16"/>
       <c r="E361" s="2"/>
     </row>
-    <row r="362" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C362" s="16"/>
       <c r="E362" s="2"/>
     </row>
-    <row r="363" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C363" s="16"/>
       <c r="E363" s="2"/>
     </row>
-    <row r="364" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C364" s="16"/>
       <c r="E364" s="2"/>
     </row>
-    <row r="365" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C365" s="16"/>
       <c r="E365" s="2"/>
     </row>
-    <row r="366" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C366" s="16"/>
       <c r="E366" s="2"/>
     </row>
-    <row r="367" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C367" s="16"/>
       <c r="E367" s="2"/>
     </row>
-    <row r="368" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C368" s="16"/>
       <c r="E368" s="2"/>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C369" s="16"/>
       <c r="E369" s="2"/>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C370" s="16"/>
       <c r="E370" s="2"/>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C371" s="16"/>
       <c r="E371" s="2"/>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C372" s="16"/>
       <c r="E372" s="2"/>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C373" s="16"/>
       <c r="E373" s="2"/>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C374" s="16"/>
       <c r="E374" s="2"/>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C375" s="16"/>
       <c r="E375" s="2"/>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C376" s="16"/>
       <c r="E376" s="2"/>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C377" s="16"/>
       <c r="E377" s="2"/>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C378" s="16"/>
       <c r="E378" s="2"/>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C379" s="16"/>
       <c r="E379" s="2"/>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C380" s="16"/>
       <c r="E380" s="2"/>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C381" s="16"/>
       <c r="E381" s="2"/>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C382" s="16"/>
       <c r="E382" s="2"/>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C383" s="16"/>
       <c r="E383" s="2"/>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C384" s="16"/>
       <c r="E384" s="2"/>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C385" s="16"/>
       <c r="E385" s="2"/>
     </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C386" s="16"/>
       <c r="E386" s="2"/>
     </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C387" s="16"/>
       <c r="E387" s="2"/>
     </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C388" s="16"/>
       <c r="E388" s="2"/>
     </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C389" s="16"/>
       <c r="E389" s="2"/>
     </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C390" s="16"/>
       <c r="E390" s="2"/>
     </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C391" s="16"/>
       <c r="E391" s="2"/>
     </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C392" s="16"/>
       <c r="E392" s="2"/>
     </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C393" s="16"/>
       <c r="E393" s="2"/>
     </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C394" s="16"/>
       <c r="E394" s="2"/>
     </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C395" s="16"/>
       <c r="E395" s="2"/>
     </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C396" s="16"/>
       <c r="E396" s="2"/>
     </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C397" s="16"/>
       <c r="E397" s="2"/>
     </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C398" s="16"/>
       <c r="E398" s="2"/>
     </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C399" s="16"/>
       <c r="E399" s="2"/>
     </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C400" s="16"/>
       <c r="E400" s="2"/>
     </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C401" s="16"/>
       <c r="E401" s="2"/>
     </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C402" s="16"/>
       <c r="E402" s="2"/>
     </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C403" s="16"/>
       <c r="E403" s="2"/>
     </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C404" s="16"/>
       <c r="E404" s="2"/>
     </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C405" s="16"/>
       <c r="E405" s="2"/>
     </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C406" s="16"/>
       <c r="E406" s="2"/>
     </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C407" s="16"/>
       <c r="E407" s="2"/>
     </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C408" s="16"/>
       <c r="E408" s="2"/>
     </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C409" s="16"/>
       <c r="E409" s="2"/>
     </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C410" s="16"/>
       <c r="E410" s="2"/>
     </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C411" s="16"/>
       <c r="E411" s="2"/>
     </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C412" s="16"/>
       <c r="E412" s="2"/>
     </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C413" s="16"/>
       <c r="E413" s="2"/>
     </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C414" s="16"/>
       <c r="E414" s="2"/>
     </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C415" s="16"/>
       <c r="E415" s="2"/>
     </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C416" s="16"/>
       <c r="E416" s="2"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C417" s="16"/>
       <c r="E417" s="2"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C418" s="16"/>
       <c r="E418" s="2"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C419" s="16"/>
       <c r="E419" s="2"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C420" s="16"/>
       <c r="E420" s="2"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C421" s="16"/>
       <c r="E421" s="2"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C422" s="16"/>
       <c r="E422" s="2"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C423" s="16"/>
       <c r="E423" s="2"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C424" s="16"/>
       <c r="E424" s="2"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C425" s="16"/>
       <c r="E425" s="2"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C426" s="16"/>
       <c r="E426" s="2"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C427" s="16"/>
       <c r="E427" s="2"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C428" s="16"/>
       <c r="E428" s="2"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C429" s="16"/>
       <c r="E429" s="2"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C430" s="16"/>
       <c r="E430" s="2"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C431" s="16"/>
       <c r="E431" s="2"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C432" s="16"/>
       <c r="E432" s="2"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C433" s="16"/>
       <c r="E433" s="2"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C434" s="16"/>
       <c r="E434" s="2"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C435" s="16"/>
       <c r="E435" s="2"/>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C436" s="16"/>
       <c r="E436" s="2"/>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C437" s="16"/>
       <c r="E437" s="2"/>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C438" s="16"/>
       <c r="E438" s="2"/>
     </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C439" s="16"/>
       <c r="E439" s="2"/>
     </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E440" s="2"/>
     </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E441" s="2"/>
     </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E442" s="2"/>
     </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E443" s="2"/>
     </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E444" s="2"/>
     </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E445" s="2"/>
     </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E446" s="2"/>
     </row>
-    <row r="447" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E447" s="2"/>
     </row>
-    <row r="448" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E448" s="2"/>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.3">
@@ -8102,19 +8544,43 @@
         <v>5</v>
       </c>
       <c r="F2" cm="1">
-        <f t="array" ref="F2:G3">_xll.TMX.INSTRUMENT(F7)</f>
+        <f t="array" ref="F2:K3">_xll.TMX.INSTRUMENT(F7)</f>
+        <v>0.16701232742629896</v>
+      </c>
+      <c r="G2">
+        <v>0.33402465485259791</v>
+      </c>
+      <c r="H2">
         <v>0.50103698227889693</v>
       </c>
-      <c r="G2">
+      <c r="I2">
+        <v>0.67078721671218433</v>
+      </c>
+      <c r="J2">
+        <v>0.83506163713149484</v>
+      </c>
+      <c r="K2">
         <v>1.0020739645577939</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F3">
-        <v>2.5000000000000001E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="G3">
-        <v>1.0249999999999999</v>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H3">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I3">
+        <v>8.3333333333333315E-3</v>
+      </c>
+      <c r="J3">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="K3">
+        <v>1.0083333333333333</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
@@ -8180,15 +8646,15 @@
       </c>
       <c r="E7" s="5" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>2042993401072</v>
+        <v>2206068901120</v>
       </c>
       <c r="F7" s="5" cm="1">
         <f t="array" ref="F7">_xll.\TMX.BOND.INSTRUMENT(E7, dated)</f>
-        <v>2043317307488</v>
+        <v>2206070491040</v>
       </c>
       <c r="G7" s="5" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">_xll.\TMX.BOOTSTRAP.CURVE(instrument, price)</f>
-        <v>2044160458976</v>
+        <v>2207344035216</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7:H107">_xlfn.SEQUENCE(1+10/H5,1,0,H5)</f>
@@ -8196,7 +8662,7 @@
       </c>
       <c r="I7" s="21" cm="1">
         <f t="array" aca="1" ref="I7:I107" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(H7),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.FORWARD(curve,_xlpm.t)))</f>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="J7" s="2"/>
       <c r="P7" cm="1">
@@ -8205,15 +8671,15 @@
       </c>
       <c r="Q7" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P7)</f>
-        <v>1.0000000020324777</v>
+        <v>1.0000000020174171</v>
       </c>
       <c r="R7" s="22" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P7)</f>
-        <v>-7.9913192655569132</v>
+        <v>-7.915043811885198</v>
       </c>
       <c r="S7" s="22" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P7)</f>
-        <v>73.390064886490308</v>
+        <v>72.629839853388773</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
@@ -8222,40 +8688,40 @@
       </c>
       <c r="C8" s="18">
         <f ca="1">0.05 + 0.01*RAND()</f>
-        <v>5.0333493279632012E-2</v>
+        <v>5.5744507400907098E-2</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="5" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>2043319377568</v>
+        <v>2207341077264</v>
       </c>
       <c r="F8" s="5" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
-        <v>2044160465312</v>
+        <v>2207344037152</v>
       </c>
       <c r="H8">
         <v>0.1</v>
       </c>
       <c r="I8" s="20">
         <f ca="1"/>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P8)</f>
-        <v>1.0248952385794579</v>
+        <v>1.0082294270301151</v>
       </c>
       <c r="R8" s="22" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P8)</f>
-        <v>-7.3572886756176938</v>
+        <v>-7.2887309079783282</v>
       </c>
       <c r="S8" s="22" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P8)</f>
-        <v>61.351651321794996</v>
+        <v>60.73117237253939</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
@@ -8270,33 +8736,33 @@
       </c>
       <c r="E9" s="5" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>2042993399824</v>
+        <v>2206068900448</v>
       </c>
       <c r="F9" s="5" cm="1">
         <f t="array" ref="F9">_xll.\TMX.BOND.INSTRUMENT(E9, dated)</f>
-        <v>2043317298160</v>
+        <v>2206070491744</v>
       </c>
       <c r="H9">
         <v>0.2</v>
       </c>
       <c r="I9" s="20">
         <f ca="1"/>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P9)</f>
-        <v>1.0256202701880055</v>
+        <v>1.0203763340144432</v>
       </c>
       <c r="R9" s="22" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P9)</f>
-        <v>-6.6965725124109809</v>
+        <v>-6.7093441633866</v>
       </c>
       <c r="S9" s="22" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P9)</f>
-        <v>50.077277334764915</v>
+        <v>50.132443026909655</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
@@ -8311,33 +8777,33 @@
       </c>
       <c r="E10" s="5" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>2042993400496</v>
+        <v>2206068899776</v>
       </c>
       <c r="F10" s="5" cm="1">
         <f t="array" ref="F10">_xll.\TMX.BOND.INSTRUMENT(E10, dated)</f>
-        <v>2043317320160</v>
+        <v>2206070491392</v>
       </c>
       <c r="H10">
         <v>0.30000000000000004</v>
       </c>
       <c r="I10" s="20">
         <f ca="1"/>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="P10">
         <v>3</v>
       </c>
       <c r="Q10" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P10)</f>
-        <v>1.0249627491958293</v>
+        <v>1.0083051215416343</v>
       </c>
       <c r="R10" s="22" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P10)</f>
-        <v>-5.9930165187432971</v>
+        <v>-5.9364432635984166</v>
       </c>
       <c r="S10" s="22" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P10)</f>
-        <v>39.55982421200541</v>
+        <v>39.156021731022896</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
@@ -8352,33 +8818,33 @@
       </c>
       <c r="E11" s="5" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>2042993399440</v>
+        <v>2206068901216</v>
       </c>
       <c r="F11" s="5" cm="1">
         <f t="array" ref="F11">_xll.\TMX.BOND.INSTRUMENT(E11, dated)</f>
-        <v>2043317308016</v>
+        <v>2206070491568</v>
       </c>
       <c r="H11">
         <v>0.4</v>
       </c>
       <c r="I11" s="20">
         <f ca="1"/>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="P11">
         <v>4</v>
       </c>
       <c r="Q11" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P11)</f>
-        <v>1.0249958265333643</v>
+        <v>1.0083291927108993</v>
       </c>
       <c r="R11" s="22" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P11)</f>
-        <v>-5.2587329787794097</v>
+        <v>-5.2099977377642297</v>
       </c>
       <c r="S11" s="22" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P11)</f>
-        <v>30.014898835046406</v>
+        <v>29.714595534364467</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
@@ -8393,33 +8859,33 @@
       </c>
       <c r="E12" s="5" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>2042993400304</v>
+        <v>2206068899392</v>
       </c>
       <c r="F12" s="5" cm="1">
         <f t="array" ref="F12">_xll.\TMX.BOND.INSTRUMENT(E12, dated)</f>
-        <v>2043317314176</v>
+        <v>2206070492272</v>
       </c>
       <c r="H12">
         <v>0.5</v>
       </c>
       <c r="I12" s="20">
         <f ca="1"/>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="P12">
         <v>5</v>
       </c>
       <c r="Q12" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P12)</f>
-        <v>1.0248910962137294</v>
+        <v>1.0082253186337664</v>
       </c>
       <c r="R12" s="22" cm="1">
         <f t="array" aca="1" ref="R12" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P12)</f>
-        <v>-4.4866587517636782</v>
+        <v>-4.4458795897907155</v>
       </c>
       <c r="S12" s="22" cm="1">
         <f t="array" aca="1" ref="S12" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P12)</f>
-        <v>21.526538155800029</v>
+        <v>21.315365662629855</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
@@ -8434,33 +8900,33 @@
       </c>
       <c r="E13" s="5" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>2042993399920</v>
+        <v>2206068901504</v>
       </c>
       <c r="F13" s="5" cm="1">
         <f t="array" ref="F13">_xll.\TMX.BOND.INSTRUMENT(E13, dated)</f>
-        <v>2043317305904</v>
+        <v>2206070488752</v>
       </c>
       <c r="H13">
         <v>0.6</v>
       </c>
       <c r="I13" s="20">
         <f ca="1"/>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="P13">
         <v>6</v>
       </c>
       <c r="Q13" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P13)</f>
-        <v>1.0249244216838576</v>
+        <v>1.0082583720351745</v>
       </c>
       <c r="R13" s="22" cm="1">
         <f t="array" aca="1" ref="R13" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P13)</f>
-        <v>-3.6760677129263479</v>
+        <v>-3.6433442513518162</v>
       </c>
       <c r="S13" s="22" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P13)</f>
-        <v>14.233469381920791</v>
+        <v>14.096238255400751</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
@@ -8475,33 +8941,33 @@
       </c>
       <c r="E14" s="5" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>2042993399344</v>
+        <v>2206068902176</v>
       </c>
       <c r="F14" s="5" cm="1">
         <f t="array" ref="F14">_xll.\TMX.BOND.INSTRUMENT(E14, dated)</f>
-        <v>2043317307664</v>
+        <v>2206070490160</v>
       </c>
       <c r="H14">
         <v>0.7</v>
       </c>
       <c r="I14" s="20">
         <f ca="1"/>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="P14">
         <v>7</v>
       </c>
       <c r="Q14" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P14)</f>
-        <v>1.0249580425323166</v>
+        <v>1.0082917183623681</v>
       </c>
       <c r="R14" s="22" cm="1">
         <f t="array" aca="1" ref="R14" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P14)</f>
-        <v>-2.8244157481660306</v>
+        <v>-2.7998127844877101</v>
       </c>
       <c r="S14" s="22" cm="1">
         <f t="array" aca="1" ref="S14" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P14)</f>
-        <v>8.2742442213556622</v>
+        <v>8.1953849823578526</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
@@ -8516,33 +8982,33 @@
       </c>
       <c r="E15" s="5" cm="1">
         <f t="array" ref="E15">_xll.\TMX.BOND.SIMPLE(B15, C15)</f>
-        <v>2042993404816</v>
+        <v>2206068900160</v>
       </c>
       <c r="F15" s="5" cm="1">
         <f t="array" ref="F15">_xll.\TMX.BOND.INSTRUMENT(E15, dated)</f>
-        <v>2043317300800</v>
+        <v>2206070490864</v>
       </c>
       <c r="H15">
         <v>0.79999999999999993</v>
       </c>
       <c r="I15" s="20">
         <f ca="1"/>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="P15">
         <v>8</v>
       </c>
       <c r="Q15" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P15)</f>
-        <v>1.0249916641251475</v>
+        <v>1.0083250654321485</v>
       </c>
       <c r="R15" s="22" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P15)</f>
-        <v>-1.9296214514659797</v>
+        <v>-1.9131895449126148</v>
       </c>
       <c r="S15" s="22" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P15)</f>
-        <v>3.8027102528855439</v>
+        <v>3.7663270282232926</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
@@ -8557,33 +9023,33 @@
       </c>
       <c r="E16" s="5" cm="1">
         <f t="array" ref="E16">_xll.\TMX.BOND.SIMPLE(B16, C16)</f>
-        <v>2042993399536</v>
+        <v>2206068882784</v>
       </c>
       <c r="F16" s="5" cm="1">
         <f t="array" ref="F16">_xll.\TMX.BOND.INSTRUMENT(E16, dated)</f>
-        <v>2043317302208</v>
+        <v>2206070489984</v>
       </c>
       <c r="H16">
         <v>0.89999999999999991</v>
       </c>
       <c r="I16" s="20">
         <f ca="1"/>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="P16">
         <v>9</v>
       </c>
       <c r="Q16" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P16)</f>
-        <v>1.0248869480551503</v>
+        <v>1.0082212043507919</v>
       </c>
       <c r="R16" s="22" cm="1">
         <f t="array" aca="1" ref="R16" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P16)</f>
-        <v>-0.98936829472586296</v>
+        <v>-0.98111925467500805</v>
       </c>
       <c r="S16" s="22" cm="1">
         <f t="array" aca="1" ref="S16" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P16)</f>
-        <v>0.98475440056951746</v>
+        <v>0.97471353860328536</v>
       </c>
     </row>
     <row r="17" spans="5:19" x14ac:dyDescent="0.3">
@@ -8592,22 +9058,22 @@
       </c>
       <c r="I17" s="20">
         <f ca="1"/>
-        <v>4.9283011639120938E-2</v>
+        <v>4.9688642476346197E-2</v>
       </c>
       <c r="P17">
         <v>10</v>
       </c>
       <c r="Q17" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P17)</f>
-        <v>1.0249202622012319</v>
+        <v>1.0082542465190039</v>
       </c>
       <c r="R17" s="22" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P17)</f>
-        <v>-1.6135284113035881E-3</v>
+        <v>-1.5872911606624976E-3</v>
       </c>
       <c r="S17" s="22" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P17)</f>
-        <v>2.5401721773871199E-6</v>
+        <v>2.4988669647718765E-6</v>
       </c>
     </row>
     <row r="18" spans="5:19" x14ac:dyDescent="0.3">
@@ -8617,7 +9083,7 @@
       </c>
       <c r="I18" s="20">
         <f ca="1"/>
-        <v>5.0084025234523967E-2</v>
+        <v>6.1543848739466347E-2</v>
       </c>
     </row>
     <row r="19" spans="5:19" x14ac:dyDescent="0.3">
@@ -8626,7 +9092,7 @@
       </c>
       <c r="I19" s="20">
         <f ca="1"/>
-        <v>5.0084025234523967E-2</v>
+        <v>6.1543848739466347E-2</v>
       </c>
     </row>
     <row r="20" spans="5:19" x14ac:dyDescent="0.3">
@@ -8635,7 +9101,7 @@
       </c>
       <c r="I20" s="20">
         <f ca="1"/>
-        <v>5.0084025234523967E-2</v>
+        <v>6.1543848739466347E-2</v>
       </c>
     </row>
     <row r="21" spans="5:19" x14ac:dyDescent="0.3">
@@ -8644,7 +9110,7 @@
       </c>
       <c r="I21" s="20">
         <f ca="1"/>
-        <v>5.0084025234523967E-2</v>
+        <v>6.1543848739466347E-2</v>
       </c>
     </row>
     <row r="22" spans="5:19" x14ac:dyDescent="0.3">
@@ -8653,7 +9119,7 @@
       </c>
       <c r="I22" s="20">
         <f ca="1"/>
-        <v>5.0084025234523967E-2</v>
+        <v>6.1543848739466347E-2</v>
       </c>
     </row>
     <row r="23" spans="5:19" x14ac:dyDescent="0.3">
@@ -8662,7 +9128,7 @@
       </c>
       <c r="I23" s="20">
         <f ca="1"/>
-        <v>5.0084025234523967E-2</v>
+        <v>6.1543848739466347E-2</v>
       </c>
     </row>
     <row r="24" spans="5:19" x14ac:dyDescent="0.3">
@@ -8671,7 +9137,7 @@
       </c>
       <c r="I24" s="20">
         <f ca="1"/>
-        <v>5.0084025234523967E-2</v>
+        <v>6.1543848739466347E-2</v>
       </c>
     </row>
     <row r="25" spans="5:19" x14ac:dyDescent="0.3">
@@ -8680,7 +9146,7 @@
       </c>
       <c r="I25" s="20">
         <f ca="1"/>
-        <v>5.0084025234523967E-2</v>
+        <v>6.1543848739466347E-2</v>
       </c>
     </row>
     <row r="26" spans="5:19" x14ac:dyDescent="0.3">
@@ -8689,7 +9155,7 @@
       </c>
       <c r="I26" s="20">
         <f ca="1"/>
-        <v>5.0084025234523967E-2</v>
+        <v>6.1543848739466347E-2</v>
       </c>
     </row>
     <row r="27" spans="5:19" x14ac:dyDescent="0.3">
@@ -8698,7 +9164,7 @@
       </c>
       <c r="I27" s="20">
         <f ca="1"/>
-        <v>5.0084025234523967E-2</v>
+        <v>6.1543848739466347E-2</v>
       </c>
     </row>
     <row r="28" spans="5:19" x14ac:dyDescent="0.3">
@@ -8707,7 +9173,7 @@
       </c>
       <c r="I28" s="20">
         <f ca="1"/>
-        <v>4.8714916103127726E-2</v>
+        <v>3.7506434100536605E-2</v>
       </c>
     </row>
     <row r="29" spans="5:19" x14ac:dyDescent="0.3">
@@ -8716,7 +9182,7 @@
       </c>
       <c r="I29" s="20">
         <f ca="1"/>
-        <v>4.8714916103127726E-2</v>
+        <v>3.7506434100536605E-2</v>
       </c>
     </row>
     <row r="30" spans="5:19" x14ac:dyDescent="0.3">
@@ -8725,7 +9191,7 @@
       </c>
       <c r="I30" s="20">
         <f ca="1"/>
-        <v>4.8714916103127726E-2</v>
+        <v>3.7506434100536605E-2</v>
       </c>
     </row>
     <row r="31" spans="5:19" x14ac:dyDescent="0.3">
@@ -8734,7 +9200,7 @@
       </c>
       <c r="I31" s="20">
         <f ca="1"/>
-        <v>4.8714916103127726E-2</v>
+        <v>3.7506434100536605E-2</v>
       </c>
     </row>
     <row r="32" spans="5:19" x14ac:dyDescent="0.3">
@@ -8743,7 +9209,7 @@
       </c>
       <c r="I32" s="20">
         <f ca="1"/>
-        <v>4.8714916103127726E-2</v>
+        <v>3.7506434100536605E-2</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -8752,7 +9218,7 @@
       </c>
       <c r="I33" s="20">
         <f ca="1"/>
-        <v>4.8714916103127726E-2</v>
+        <v>3.7506434100536605E-2</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -8761,7 +9227,7 @@
       </c>
       <c r="I34" s="20">
         <f ca="1"/>
-        <v>4.8714916103127726E-2</v>
+        <v>3.7506434100536605E-2</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
@@ -8770,7 +9236,7 @@
       </c>
       <c r="I35" s="20">
         <f ca="1"/>
-        <v>4.8714916103127726E-2</v>
+        <v>3.7506434100536605E-2</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
@@ -8779,7 +9245,7 @@
       </c>
       <c r="I36" s="20">
         <f ca="1"/>
-        <v>4.8714916103127726E-2</v>
+        <v>3.7506434100536605E-2</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
@@ -8788,7 +9254,7 @@
       </c>
       <c r="I37" s="20">
         <f ca="1"/>
-        <v>4.8714916103127726E-2</v>
+        <v>3.7506434100536605E-2</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
@@ -8797,7 +9263,7 @@
       </c>
       <c r="I38" s="20">
         <f ca="1"/>
-        <v>4.941634952080589E-2</v>
+        <v>4.9823055453199108E-2</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
@@ -8806,7 +9272,7 @@
       </c>
       <c r="I39" s="20">
         <f ca="1"/>
-        <v>4.941634952080589E-2</v>
+        <v>4.9823055453199108E-2</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.3">
@@ -8815,7 +9281,7 @@
       </c>
       <c r="I40" s="20">
         <f ca="1"/>
-        <v>4.941634952080589E-2</v>
+        <v>4.9823055453199108E-2</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.3">
@@ -8824,7 +9290,7 @@
       </c>
       <c r="I41" s="20">
         <f ca="1"/>
-        <v>4.941634952080589E-2</v>
+        <v>4.9823055453199108E-2</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.3">
@@ -8833,7 +9299,7 @@
       </c>
       <c r="I42" s="20">
         <f ca="1"/>
-        <v>4.941634952080589E-2</v>
+        <v>4.9823055453199108E-2</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.3">
@@ -8842,7 +9308,7 @@
       </c>
       <c r="I43" s="20">
         <f ca="1"/>
-        <v>4.941634952080589E-2</v>
+        <v>4.9823055453199108E-2</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.3">
@@ -8851,7 +9317,7 @@
       </c>
       <c r="I44" s="20">
         <f ca="1"/>
-        <v>4.941634952080589E-2</v>
+        <v>4.9823055453199108E-2</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.3">
@@ -8860,7 +9326,7 @@
       </c>
       <c r="I45" s="20">
         <f ca="1"/>
-        <v>4.941634952080589E-2</v>
+        <v>4.9823055453199108E-2</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.3">
@@ -8869,7 +9335,7 @@
       </c>
       <c r="I46" s="20">
         <f ca="1"/>
-        <v>4.941634952080589E-2</v>
+        <v>4.9823055453199108E-2</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.3">
@@ -8878,7 +9344,7 @@
       </c>
       <c r="I47" s="20">
         <f ca="1"/>
-        <v>4.941634952080589E-2</v>
+        <v>4.9823055453199108E-2</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.3">
@@ -8887,7 +9353,7 @@
       </c>
       <c r="I48" s="20">
         <f ca="1"/>
-        <v>4.9283033079067666E-2</v>
+        <v>4.9688665317126131E-2</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
@@ -8896,7 +9362,7 @@
       </c>
       <c r="I49" s="20">
         <f ca="1"/>
-        <v>4.9283033079067666E-2</v>
+        <v>4.9688665317126131E-2</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
@@ -8905,7 +9371,7 @@
       </c>
       <c r="I50" s="20">
         <f ca="1"/>
-        <v>4.9283033079067666E-2</v>
+        <v>4.9688665317126131E-2</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
@@ -8914,7 +9380,7 @@
       </c>
       <c r="I51" s="20">
         <f ca="1"/>
-        <v>4.9283033079067666E-2</v>
+        <v>4.9688665317126131E-2</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
@@ -8923,7 +9389,7 @@
       </c>
       <c r="I52" s="20">
         <f ca="1"/>
-        <v>4.9283033079067666E-2</v>
+        <v>4.9688665317126131E-2</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
@@ -8932,7 +9398,7 @@
       </c>
       <c r="I53" s="20">
         <f ca="1"/>
-        <v>4.9283033079067666E-2</v>
+        <v>4.9688665317126131E-2</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
@@ -8941,7 +9407,7 @@
       </c>
       <c r="I54" s="20">
         <f ca="1"/>
-        <v>4.9283033079067666E-2</v>
+        <v>4.9688665317126131E-2</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
@@ -8950,7 +9416,7 @@
       </c>
       <c r="I55" s="20">
         <f ca="1"/>
-        <v>4.9283033079067666E-2</v>
+        <v>4.9688665317126131E-2</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
@@ -8959,7 +9425,7 @@
       </c>
       <c r="I56" s="20">
         <f ca="1"/>
-        <v>4.9283033079067666E-2</v>
+        <v>4.9688665317126131E-2</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
@@ -8968,7 +9434,7 @@
       </c>
       <c r="I57" s="20">
         <f ca="1"/>
-        <v>4.9283033079067666E-2</v>
+        <v>4.9688665317126131E-2</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
@@ -8977,7 +9443,7 @@
       </c>
       <c r="I58" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
@@ -8986,7 +9452,7 @@
       </c>
       <c r="I59" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
@@ -8995,7 +9461,7 @@
       </c>
       <c r="I60" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
@@ -9004,7 +9470,7 @@
       </c>
       <c r="I61" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
@@ -9013,7 +9479,7 @@
       </c>
       <c r="I62" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.3">
@@ -9022,7 +9488,7 @@
       </c>
       <c r="I63" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.3">
@@ -9031,7 +9497,7 @@
       </c>
       <c r="I64" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.3">
@@ -9040,7 +9506,7 @@
       </c>
       <c r="I65" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.3">
@@ -9049,7 +9515,7 @@
       </c>
       <c r="I66" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.3">
@@ -9058,7 +9524,7 @@
       </c>
       <c r="I67" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.3">
@@ -9067,7 +9533,7 @@
       </c>
       <c r="I68" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.3">
@@ -9076,7 +9542,7 @@
       </c>
       <c r="I69" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.3">
@@ -9085,7 +9551,7 @@
       </c>
       <c r="I70" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.3">
@@ -9094,7 +9560,7 @@
       </c>
       <c r="I71" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.3">
@@ -9103,7 +9569,7 @@
       </c>
       <c r="I72" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.3">
@@ -9112,7 +9578,7 @@
       </c>
       <c r="I73" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.3">
@@ -9121,7 +9587,7 @@
       </c>
       <c r="I74" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.3">
@@ -9130,7 +9596,7 @@
       </c>
       <c r="I75" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.3">
@@ -9139,7 +9605,7 @@
       </c>
       <c r="I76" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.3">
@@ -9148,7 +9614,7 @@
       </c>
       <c r="I77" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.3">
@@ -9157,7 +9623,7 @@
       </c>
       <c r="I78" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.3">
@@ -9166,7 +9632,7 @@
       </c>
       <c r="I79" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.3">
@@ -9175,7 +9641,7 @@
       </c>
       <c r="I80" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.3">
@@ -9184,7 +9650,7 @@
       </c>
       <c r="I81" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.3">
@@ -9193,7 +9659,7 @@
       </c>
       <c r="I82" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.3">
@@ -9202,7 +9668,7 @@
       </c>
       <c r="I83" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.3">
@@ -9211,7 +9677,7 @@
       </c>
       <c r="I84" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.3">
@@ -9220,7 +9686,7 @@
       </c>
       <c r="I85" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.3">
@@ -9229,7 +9695,7 @@
       </c>
       <c r="I86" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.3">
@@ -9238,7 +9704,7 @@
       </c>
       <c r="I87" s="20">
         <f ca="1"/>
-        <v>4.9416357721966633E-2</v>
+        <v>4.9823066298442485E-2</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.3">
@@ -9247,7 +9713,7 @@
       </c>
       <c r="I88" s="20">
         <f ca="1"/>
-        <v>4.928303568458163E-2</v>
+        <v>4.9688666758971364E-2</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.3">
@@ -9256,7 +9722,7 @@
       </c>
       <c r="I89" s="20">
         <f ca="1"/>
-        <v>4.928303568458163E-2</v>
+        <v>4.9688666758971364E-2</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.3">
@@ -9265,7 +9731,7 @@
       </c>
       <c r="I90" s="20">
         <f ca="1"/>
-        <v>4.928303568458163E-2</v>
+        <v>4.9688666758971364E-2</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.3">
@@ -9274,7 +9740,7 @@
       </c>
       <c r="I91" s="20">
         <f ca="1"/>
-        <v>4.928303568458163E-2</v>
+        <v>4.9688666758971364E-2</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.3">
@@ -9283,7 +9749,7 @@
       </c>
       <c r="I92" s="20">
         <f ca="1"/>
-        <v>4.928303568458163E-2</v>
+        <v>4.9688666758971364E-2</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.3">
@@ -9292,7 +9758,7 @@
       </c>
       <c r="I93" s="20">
         <f ca="1"/>
-        <v>4.928303568458163E-2</v>
+        <v>4.9688666758971364E-2</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.3">
@@ -9301,7 +9767,7 @@
       </c>
       <c r="I94" s="20">
         <f ca="1"/>
-        <v>4.928303568458163E-2</v>
+        <v>4.9688666758971364E-2</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.3">
@@ -9310,7 +9776,7 @@
       </c>
       <c r="I95" s="20">
         <f ca="1"/>
-        <v>4.928303568458163E-2</v>
+        <v>4.9688666758971364E-2</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.3">
@@ -9319,7 +9785,7 @@
       </c>
       <c r="I96" s="20">
         <f ca="1"/>
-        <v>4.928303568458163E-2</v>
+        <v>4.9688666758971364E-2</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.3">
@@ -9328,7 +9794,7 @@
       </c>
       <c r="I97" s="20">
         <f ca="1"/>
-        <v>4.928303568458163E-2</v>
+        <v>4.9688666758971364E-2</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.3">
@@ -9337,7 +9803,7 @@
       </c>
       <c r="I98" s="20">
         <f ca="1"/>
-        <v>4.9416357721873035E-2</v>
+        <v>4.9823066298217138E-2</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.3">
@@ -9346,7 +9812,7 @@
       </c>
       <c r="I99" s="20">
         <f ca="1"/>
-        <v>4.9416357721873035E-2</v>
+        <v>4.9823066298217138E-2</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.3">
@@ -9355,7 +9821,7 @@
       </c>
       <c r="I100" s="20">
         <f ca="1"/>
-        <v>4.9416357721873035E-2</v>
+        <v>4.9823066298217138E-2</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.3">
@@ -9364,7 +9830,7 @@
       </c>
       <c r="I101" s="20">
         <f ca="1"/>
-        <v>4.9416357721873035E-2</v>
+        <v>4.9823066298217138E-2</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.3">
@@ -9373,7 +9839,7 @@
       </c>
       <c r="I102" s="20">
         <f ca="1"/>
-        <v>4.9416357721873035E-2</v>
+        <v>4.9823066298217138E-2</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.3">
@@ -9382,7 +9848,7 @@
       </c>
       <c r="I103" s="20">
         <f ca="1"/>
-        <v>4.9416357721873035E-2</v>
+        <v>4.9823066298217138E-2</v>
       </c>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.3">
@@ -9391,7 +9857,7 @@
       </c>
       <c r="I104" s="20">
         <f ca="1"/>
-        <v>4.9416357721873035E-2</v>
+        <v>4.9823066298217138E-2</v>
       </c>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.3">
@@ -9400,7 +9866,7 @@
       </c>
       <c r="I105" s="20">
         <f ca="1"/>
-        <v>4.9416357721873035E-2</v>
+        <v>4.9823066298217138E-2</v>
       </c>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.3">
@@ -9409,7 +9875,7 @@
       </c>
       <c r="I106" s="20">
         <f ca="1"/>
-        <v>4.9416357721873035E-2</v>
+        <v>4.9823066298217138E-2</v>
       </c>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.3">
@@ -9418,7 +9884,7 @@
       </c>
       <c r="I107" s="20">
         <f ca="1"/>
-        <v>4.9416357721873035E-2</v>
+        <v>4.9823066298217138E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9432,8 +9898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE10814-8BAC-41F3-9E28-9FC194E23C82}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9499,7 +9965,7 @@
       </c>
       <c r="C8">
         <f ca="1">EXP(-r_*(u-t) + (σ^2)*((u-t)^3)/6 - σ*(u-t)*_xlfn.NORM.S.INV(RAND())*SQRT(t))</f>
-        <v>0.83714528583086889</v>
+        <v>0.82015323773867621</v>
       </c>
       <c r="D8">
         <f>Du/Dt</f>
@@ -9507,7 +9973,7 @@
       </c>
       <c r="E8">
         <f ca="1">C8/D8</f>
-        <v>0.92518862410440172</v>
+        <v>0.9064095067143676</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -9516,7 +9982,7 @@
       </c>
       <c r="C9">
         <f ca="1">LN(C8)</f>
-        <v>-0.17775764430744645</v>
+        <v>-0.19826408089178185</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -9529,7 +9995,7 @@
       </c>
       <c r="D10" s="16" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">_xll.MONTE.MEAN(C8)</f>
-        <v>0.90658307462665866</v>
+        <v>0.91117082891689261</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -9542,7 +10008,7 @@
       </c>
       <c r="D11" s="16">
         <f t="array" aca="1" ref="D11:D12" ca="1">_xll.MONTE.STDEV(logD)</f>
-        <v>-0.1027521223131677</v>
+        <v>-9.8088883243502623E-2</v>
       </c>
       <c r="E11">
         <f>-r_*(u-t) + σ^2*(u-t)^3/6</f>
@@ -9559,7 +10025,7 @@
       </c>
       <c r="D12" s="16">
         <f ca="1"/>
-        <v>9.6859351877785757E-2</v>
+        <v>0.10065052733331713</v>
       </c>
       <c r="E12" s="16">
         <f>σ^2*(u  - t)^2*t</f>
@@ -9569,7 +10035,7 @@
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D13" s="16">
         <f ca="1">D12^2</f>
-        <v>9.3817340461847185E-3</v>
+        <v>1.0130528652474819E-2</v>
       </c>
     </row>
   </sheetData>

--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770095A3-ADD8-482B-B177-1DF45A47523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2266D33E-054E-4D60-A71C-913527E6EFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
@@ -22,32 +22,32 @@
     <sheet name="Ho-Lee" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="bond">Bootstrap!$E$7:$E$16</definedName>
+    <definedName name="B_t">'Ho-Lee'!$C$6</definedName>
+    <definedName name="bond">Bootstrap!$E$5:$E$14</definedName>
     <definedName name="bond.simple">Bond!$C$6</definedName>
     <definedName name="coupon" localSheetId="4">Bond!$C$3</definedName>
-    <definedName name="coupon">Bootstrap!$C$7:$C$16</definedName>
+    <definedName name="coupon">Bootstrap!$C$5:$C$14</definedName>
     <definedName name="curve" localSheetId="3">Curve!$I$3</definedName>
-    <definedName name="curve">Bootstrap!$G$7</definedName>
+    <definedName name="curve">Bootstrap!$G$5</definedName>
     <definedName name="curve_">Curve!$I$6</definedName>
     <definedName name="date">Date!$C$2</definedName>
     <definedName name="dated" localSheetId="4">Bond!$C$7</definedName>
-    <definedName name="dated">Bootstrap!$C$4</definedName>
+    <definedName name="dated">Bootstrap!$C$2</definedName>
     <definedName name="day_count" localSheetId="4">Bond!$C$5</definedName>
     <definedName name="days">Date!$C$10</definedName>
-    <definedName name="Dt">'Ho-Lee'!$C$6</definedName>
-    <definedName name="Du">'Ho-Lee'!$C$7</definedName>
+    <definedName name="Dt">'Ho-Lee'!$C$7</definedName>
+    <definedName name="Du">'Ho-Lee'!$C$8</definedName>
     <definedName name="extrapolate">Curve!$C$6</definedName>
     <definedName name="f">Black!$C$2</definedName>
     <definedName name="frequency" localSheetId="4">Bond!$C$4</definedName>
     <definedName name="instrument" localSheetId="4">Bond!$C$8</definedName>
-    <definedName name="instrument">Bootstrap!$F$7:$F$16</definedName>
+    <definedName name="instrument">Bootstrap!$F$5:$F$14</definedName>
     <definedName name="k">Black!$C$4</definedName>
-    <definedName name="logD">'Ho-Lee'!$C$9</definedName>
+    <definedName name="logD">'Ho-Lee'!$C$11</definedName>
     <definedName name="maturity" localSheetId="4">Bond!$C$2</definedName>
-    <definedName name="maturity">Bootstrap!$B$7:$B$16</definedName>
+    <definedName name="maturity">Bootstrap!$B$5:$B$14</definedName>
     <definedName name="months">Date!$C$9</definedName>
-    <definedName name="price">Bootstrap!$D$7:$D$16</definedName>
-    <definedName name="r_">'Ho-Lee'!$C$2</definedName>
+    <definedName name="price">Bootstrap!$D$5:$D$14</definedName>
     <definedName name="rate">Curve!$C$3:$C$5</definedName>
     <definedName name="s">Black!$C$3</definedName>
     <definedName name="shift">Curve!$I$5</definedName>
@@ -59,7 +59,9 @@
     <definedName name="years">Date!$C$3</definedName>
     <definedName name="years_">Date!$C$8</definedName>
     <definedName name="yield">Bond!$C$9</definedName>
+    <definedName name="Z">'Ho-Lee'!$C$6</definedName>
     <definedName name="σ">'Ho-Lee'!$C$3</definedName>
+    <definedName name="φ">'Ho-Lee'!$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>maturity</t>
   </si>
@@ -119,9 +121,6 @@
   </si>
   <si>
     <t>dated</t>
-  </si>
-  <si>
-    <t>BondLib</t>
   </si>
   <si>
     <t>price</t>
@@ -253,9 +252,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>σ</t>
   </si>
   <si>
@@ -289,9 +285,6 @@
     <t>dur</t>
   </si>
   <si>
-    <t>cvx</t>
-  </si>
-  <si>
     <t>present</t>
   </si>
   <si>
@@ -305,6 +298,18 @@
   </si>
   <si>
     <t>translate</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>φ</t>
+  </si>
+  <si>
+    <t>D_t</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -321,13 +326,6 @@
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -366,6 +364,13 @@
       <i/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,11 +435,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,32 +448,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -478,6 +480,14 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -552,127 +562,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999999</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4000000000000001</c:v>
+                  <c:v>1.5000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5000000000000002</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6000000000000003</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7000000000000004</c:v>
+                  <c:v>1.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8000000000000005</c:v>
+                  <c:v>1.9000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9000000000000006</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0000000000000004</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1000000000000005</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000006</c:v>
+                  <c:v>2.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3000000000000007</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4000000000000008</c:v>
+                  <c:v>2.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5000000000000009</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.600000000000001</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7000000000000011</c:v>
+                  <c:v>2.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8000000000000012</c:v>
+                  <c:v>2.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9000000000000012</c:v>
+                  <c:v>3.0000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0000000000000013</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1000000000000014</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2000000000000015</c:v>
+                  <c:v>3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3000000000000016</c:v>
+                  <c:v>3.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4000000000000017</c:v>
+                  <c:v>3.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5000000000000018</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6000000000000019</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.700000000000002</c:v>
+                  <c:v>3.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.800000000000002</c:v>
+                  <c:v>3.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.0000000000000018</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,91 +691,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.49799801559335011</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="28">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.4</c:v>
@@ -801,9 +808,6 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -849,127 +853,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999999</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4000000000000001</c:v>
+                  <c:v>1.5000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5000000000000002</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6000000000000003</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7000000000000004</c:v>
+                  <c:v>1.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8000000000000005</c:v>
+                  <c:v>1.9000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9000000000000006</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0000000000000004</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1000000000000005</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000006</c:v>
+                  <c:v>2.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3000000000000007</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4000000000000008</c:v>
+                  <c:v>2.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5000000000000009</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.600000000000001</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7000000000000011</c:v>
+                  <c:v>2.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8000000000000012</c:v>
+                  <c:v>2.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9000000000000012</c:v>
+                  <c:v>3.0000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0000000000000013</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1000000000000014</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2000000000000015</c:v>
+                  <c:v>3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3000000000000016</c:v>
+                  <c:v>3.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4000000000000017</c:v>
+                  <c:v>3.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5000000000000018</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6000000000000019</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.700000000000002</c:v>
+                  <c:v>3.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.800000000000002</c:v>
+                  <c:v>3.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.0000000000000018</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,127 +982,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.77516531164610902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2</c:v>
+                  <c:v>0.72287755604191728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20909090909090908</c:v>
+                  <c:v>0.67930442637175747</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2166666666666667</c:v>
+                  <c:v>0.64243485511239151</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.22307692307692306</c:v>
+                  <c:v>0.61083236546150643</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22857142857142859</c:v>
+                  <c:v>0.58344354109740604</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.23333333333333331</c:v>
+                  <c:v>0.55947831977881812</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23750000000000002</c:v>
+                  <c:v>0.53833253626241706</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2411764705882353</c:v>
+                  <c:v>0.51953628424783826</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.24444444444444446</c:v>
+                  <c:v>0.50271858507689948</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.24736842105263157</c:v>
+                  <c:v>0.48758265582305449</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25000000000000006</c:v>
+                  <c:v>0.47865014840290904</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25714285714285717</c:v>
+                  <c:v>0.47052968711186771</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26363636363636367</c:v>
+                  <c:v>0.46311535288961259</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2695652173913044</c:v>
+                  <c:v>0.45631887985254538</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.27500000000000008</c:v>
+                  <c:v>0.45006612465844359</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28000000000000008</c:v>
+                  <c:v>0.44429435063311878</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28461538461538466</c:v>
+                  <c:v>0.43895011542448475</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28888888888888897</c:v>
+                  <c:v>0.43398761130218172</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.29285714285714293</c:v>
+                  <c:v>0.42936734884348582</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.29655172413793107</c:v>
+                  <c:v>0.42505510388203638</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.3000000000000001</c:v>
+                  <c:v>0.4242468747245513</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.30322580645161296</c:v>
+                  <c:v>0.42348915988940905</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.30625000000000002</c:v>
+                  <c:v>0.42277736716548758</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.30909090909090914</c:v>
+                  <c:v>0.42210744460179678</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.311764705882353</c:v>
+                  <c:v>0.42147580332745971</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.31428571428571433</c:v>
+                  <c:v>0.42087925323503028</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.31666666666666671</c:v>
+                  <c:v>0.42031494909354294</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.31891891891891899</c:v>
+                  <c:v>0.41978034517002866</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.32105263157894742</c:v>
+                  <c:v>0.41927315683233563</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.32307692307692315</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0.41879132791152729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,127 +1144,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999999</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4000000000000001</c:v>
+                  <c:v>1.5000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5000000000000002</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6000000000000003</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7000000000000004</c:v>
+                  <c:v>1.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8000000000000005</c:v>
+                  <c:v>1.9000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9000000000000006</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0000000000000004</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1000000000000005</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000006</c:v>
+                  <c:v>2.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3000000000000007</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4000000000000008</c:v>
+                  <c:v>2.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5000000000000009</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.600000000000001</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7000000000000011</c:v>
+                  <c:v>2.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8000000000000012</c:v>
+                  <c:v>2.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9000000000000012</c:v>
+                  <c:v>3.0000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0000000000000013</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1000000000000014</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2000000000000015</c:v>
+                  <c:v>3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3000000000000016</c:v>
+                  <c:v>3.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4000000000000017</c:v>
+                  <c:v>3.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5000000000000018</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6000000000000019</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.700000000000002</c:v>
+                  <c:v>3.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.800000000000002</c:v>
+                  <c:v>3.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.0000000000000018</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,127 +1273,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.9254117261366106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98019867330675525</c:v>
+                  <c:v>0.85638686287114107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96078943915232318</c:v>
+                  <c:v>0.79251044501029944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94176453358424872</c:v>
+                  <c:v>0.7333984588982746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92311634638663576</c:v>
+                  <c:v>0.67869553379498238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90483741803595952</c:v>
+                  <c:v>0.62807280545042299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88692043671715748</c:v>
+                  <c:v>0.58122593903133946</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86935823539880586</c:v>
+                  <c:v>0.53787329951436424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85214378896621135</c:v>
+                  <c:v>0.49775425854638194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.835270211411272</c:v>
+                  <c:v>0.46062762759325609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81873075307798182</c:v>
+                  <c:v>0.45150658945534777</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79453360250333405</c:v>
+                  <c:v>0.44256615997338972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77105158580356625</c:v>
+                  <c:v>0.43380276285638181</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.74826356757856527</c:v>
+                  <c:v>0.42521289262863043</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72614903707369083</c:v>
+                  <c:v>0.41679311322751134</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.70468808971871344</c:v>
+                  <c:v>0.40854005662899889</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.68386140921235572</c:v>
+                  <c:v>0.40045042150041138</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6636502501363194</c:v>
+                  <c:v>0.3925209718798342</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64403642108314119</c:v>
+                  <c:v>0.38474853588169167</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62500226828270078</c:v>
+                  <c:v>0.37713000442795075</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.60653065971263331</c:v>
+                  <c:v>0.36598412836423388</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.58274825237398953</c:v>
+                  <c:v>0.35516766272071465</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.55989836656540182</c:v>
+                  <c:v>0.34467087194818052</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.53794443759467436</c:v>
+                  <c:v>0.33448430822638159</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.51685133449169907</c:v>
+                  <c:v>0.32459880296035454</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4965853037914093</c:v>
+                  <c:v>0.31500545852806838</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.47711391552103416</c:v>
+                  <c:v>0.30569564027196378</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.45840601130522335</c:v>
+                  <c:v>0.29666096872717873</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.44043165450599903</c:v>
+                  <c:v>0.28789331207946423</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4231620823177486</c:v>
+                  <c:v>0.27938477884600277</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.40656965974059878</c:v>
+                  <c:v>0.26842994497514688</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.39062783535852086</c:v>
+                  <c:v>0.25790465628436038</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.37531109885139941</c:v>
+                  <c:v>0.24779207006622328</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.36059494017307803</c:v>
+                  <c:v>0.23807600402531984</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.34645581033005712</c:v>
+                  <c:v>0.22874091038311328</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.33287108369807933</c:v>
+                  <c:v>0.21977185099818328</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.31981902181630373</c:v>
+                  <c:v>0.21115447346201244</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.30727873860113097</c:v>
+                  <c:v>0.20287498813207105</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.29523016692401388</c:v>
+                  <c:v>0.19492014606544675</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.28365402649977012</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.27253179303401243</c:v>
+                  <c:v>0.18727721781770951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,127 +1435,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999999</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4000000000000001</c:v>
+                  <c:v>1.5000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5000000000000002</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6000000000000003</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7000000000000004</c:v>
+                  <c:v>1.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8000000000000005</c:v>
+                  <c:v>1.9000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9000000000000006</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0000000000000004</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1000000000000005</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000006</c:v>
+                  <c:v>2.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3000000000000007</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4000000000000008</c:v>
+                  <c:v>2.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5000000000000009</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.600000000000001</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7000000000000011</c:v>
+                  <c:v>2.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8000000000000012</c:v>
+                  <c:v>2.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9000000000000012</c:v>
+                  <c:v>3.0000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0000000000000013</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1000000000000014</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2000000000000015</c:v>
+                  <c:v>3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3000000000000016</c:v>
+                  <c:v>3.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4000000000000017</c:v>
+                  <c:v>3.5000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5000000000000018</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6000000000000019</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.700000000000002</c:v>
+                  <c:v>3.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.800000000000002</c:v>
+                  <c:v>3.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.0000000000000018</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,127 +1564,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.82516531164610907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.82516531164610907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.82516531164610907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.82516531164610907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.82516531164610907</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.82516531164610907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.82516531164610907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.82516531164610907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.82516531164610907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.82516531164610907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59799801559335009</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,7 +1966,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bootstrap!$I$6</c:f>
+              <c:f>Bootstrap!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2003,7 +1989,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Bootstrap!$H$7:$H$107</c:f>
+              <c:f>Bootstrap!$H$5:$H$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2026,25 +2012,25 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999999</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.3</c:v>
@@ -2053,91 +2039,91 @@
                   <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5000000000000002</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6000000000000003</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7000000000000004</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8000000000000005</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9000000000000006</c:v>
+                  <c:v>1.9000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0000000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1000000000000005</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000006</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3000000000000007</c:v>
+                  <c:v>2.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4000000000000008</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5000000000000009</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.600000000000001</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7000000000000011</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8000000000000012</c:v>
+                  <c:v>2.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9000000000000012</c:v>
+                  <c:v>2.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0000000000000013</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1000000000000014</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2000000000000015</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3000000000000016</c:v>
+                  <c:v>3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4000000000000017</c:v>
+                  <c:v>3.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5000000000000018</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6000000000000019</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.700000000000002</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.800000000000002</c:v>
+                  <c:v>3.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9000000000000021</c:v>
+                  <c:v>3.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.0000000000000018</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.1000000000000014</c:v>
+                  <c:v>4.1000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2000000000000011</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4.4000000000000004</c:v>
@@ -2146,481 +2132,481 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.6999999999999993</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.7999999999999989</c:v>
+                  <c:v>4.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.8999999999999986</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9999999999999982</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.0999999999999979</c:v>
+                  <c:v>5.1000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.1999999999999975</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.2999999999999972</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.3999999999999968</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.4999999999999964</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.5999999999999961</c:v>
+                  <c:v>5.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.6999999999999957</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7999999999999954</c:v>
+                  <c:v>5.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.899999999999995</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.9999999999999947</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.0999999999999943</c:v>
+                  <c:v>6.1000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.199999999999994</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.2999999999999936</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.3999999999999932</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.4999999999999929</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.5999999999999925</c:v>
+                  <c:v>6.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.6999999999999922</c:v>
+                  <c:v>6.7</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.7999999999999918</c:v>
+                  <c:v>6.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.8999999999999915</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.9999999999999911</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.0999999999999908</c:v>
+                  <c:v>7.1000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.4999999999999893</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.599999999999989</c:v>
+                  <c:v>7.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.6999999999999886</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.7999999999999883</c:v>
+                  <c:v>7.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.8999999999999879</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.9999999999999876</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.0999999999999872</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.1999999999999869</c:v>
+                  <c:v>8.2000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.2999999999999865</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.3999999999999861</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.4999999999999858</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.5999999999999854</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.6999999999999851</c:v>
+                  <c:v>8.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.7999999999999847</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.8999999999999844</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.999999999999984</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.0999999999999837</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.1999999999999833</c:v>
+                  <c:v>9.2000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.2999999999999829</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.3999999999999826</c:v>
+                  <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.4999999999999822</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.5999999999999819</c:v>
+                  <c:v>9.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.6999999999999815</c:v>
+                  <c:v>9.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.7999999999999812</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.8999999999999808</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.9999999999999805</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Bootstrap!$I$7:$I$107</c:f>
+              <c:f>Bootstrap!$I$5:$I$105</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9688642476346197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.1543848739466347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1543848739466347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1543848739466347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1543848739466347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.1543848739466347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1543848739466347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1543848739466347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1543848739466347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.1543848739466347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1543848739466347E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7506434100536605E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7506434100536605E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7506434100536605E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.7506434100536605E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.7506434100536605E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7506434100536605E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.7506434100536605E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.7506434100536605E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.7506434100536605E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7506434100536605E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.9823055453199108E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9823055453199108E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9823055453199108E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9823055453199108E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9823055453199108E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9823055453199108E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9823055453199108E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.9823055453199108E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9823055453199108E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.9823055453199108E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9688665317126131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9688665317126131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.9688665317126131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.9688665317126131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.9688665317126131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9688665317126131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.9688665317126131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.9688665317126131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.9688665317126131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9688665317126131E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.9823066298442485E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.9688666758971364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.9688666758971364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.9688666758971364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9688666758971364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.9688666758971364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.9688666758971364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.9688666758971364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.9688666758971364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.9688666758971364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.9688666758971364E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.9823066298217138E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9823066298217138E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.9823066298217138E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.9823066298217138E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.9823066298217138E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9823066298217138E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.9823066298217138E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.9823066298217138E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.9823066298217138E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.9823066298217138E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,6 +2695,7 @@
         <c:axId val="289154672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7.0000000000000007E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3978,13 +3965,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>225136</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>230333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>64078</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4312,7 +4299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28EA81D-C5B8-44E1-B499-71D23FEEDB1B}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4326,82 +4315,82 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xll.ENUM(B3)</f>
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" cm="1">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" cm="1">
         <f t="array" ref="E3">_xll.ENUM(D3)</f>
         <v>140716919108667</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xll.ENUM(B4)</f>
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5" cm="1">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_xll.ENUM(D4)</f>
         <v>140716919101427</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xll.ENUM(B5)</f>
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5" cm="1">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" cm="1">
         <f t="array" ref="E5">_xll.ENUM(D5)</f>
         <v>140716919107042</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xll.ENUM(B6)</f>
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" cm="1">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" cm="1">
         <f t="array" ref="E6">_xll.ENUM(D6)</f>
         <v>140716919112232</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5" cm="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" cm="1">
         <f t="array" ref="E7">_xll.ENUM(D7)</f>
         <v>140716919143762</v>
       </c>
@@ -4413,10 +4402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E6F0E-62B3-47B5-8C49-DACF71BB425D}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4425,40 +4414,40 @@
     <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8">
+        <f ca="1">50 + 100*RAND()</f>
+        <v>71.905252937208061</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C3" s="8">
+        <f ca="1">0.01 + 0.3*RAND()</f>
+        <v>0.17694275142670132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="8">
         <f ca="1">50 + 100*RAND()</f>
-        <v>87.781066393534559</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="9">
-        <f ca="1">0.01 + 0.3*RAND()</f>
-        <v>0.21477371143465818</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+        <v>126.26708231597058</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="9">
-        <f ca="1">50 + 100*RAND()</f>
-        <v>127.28850171233745</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
-        <v>1.8376281501577103</v>
+        <v>3.2705742815704375</v>
       </c>
       <c r="D5">
         <v>1E-3</v>
@@ -4467,73 +4456,92 @@
         <f>-D5</f>
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>19</v>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>39.891305153484211</v>
+        <v>54.365155130040108</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
-        <v>39.890357466582188</v>
+        <v>54.364156118785473</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
-        <v>39.892252846056905</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>54.366154141556606</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">_xll.TMX.BLACK.CALL.VALUE(f, s, k)</f>
+        <v>3.3257512775861642E-3</v>
+      </c>
+      <c r="H6">
+        <f ca="1">G6-C6-f+k</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
-        <v>-0.9476897374305282</v>
+        <v>-0.99901138556741298</v>
       </c>
       <c r="D7">
         <f ca="1">(D6-E6)/(D5-E5)</f>
-        <v>-0.94768973735881445</v>
+        <v>-0.99901138556646174</v>
       </c>
       <c r="E7">
         <f ca="1">(C7-D7)/C7</f>
-        <v>7.5672177528348981E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>46</v>
+        <v>9.521804268112066E-13</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">_xll.TMX.BLACK.CALL.DELTA(f, s, k)</f>
+        <v>0.99901138556741298</v>
+      </c>
+      <c r="H7">
+        <f ca="1">G7+C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.TMX.BLACK.GAMMA(f, s, k)</f>
-        <v>5.6707022208863549E-3</v>
+        <v>2.6187668332118753E-4</v>
       </c>
       <c r="D8">
         <f ca="1">(D6-2*C6+E6)/(D5^2)</f>
-        <v>5.6706710438447772E-3</v>
+        <v>2.6186341983702732E-4</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E9" ca="1" si="0">(C8-D8)/C8</f>
-        <v>5.4979154897095681E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>47</v>
+        <v>5.0647823975750591E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.BLACK.VEGA(f, s, k)</f>
-        <v>9.384684338779703</v>
+        <v>0.23958015676079852</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
-        <v>9.3846809783499907</v>
+        <v>0.23967196511165412</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5807594490818332E-7</v>
+        <v>-3.832051539529486E-4</v>
       </c>
     </row>
   </sheetData>
@@ -4550,7 +4558,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4562,33 +4570,33 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
         <f ca="1">TODAY()</f>
         <v>45113</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <f ca="1">10*RAND()</f>
+        <v>9.5888976139206932</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="9">
-        <f ca="1">10*RAND()</f>
-        <v>8.0037089814204663</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>48036.294675925928</v>
+        <v>48615.272928240738</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>48036.294675925928</v>
+        <v>48615.272928240738</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4597,70 +4605,70 @@
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.DATE.ADD_YEARS(C4,-years)</f>
         <v>45113</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f ca="1">C5-date</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>11</v>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>8.0029021814274071</v>
+        <v>9.5881503384737545</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>48036</v>
+        <v>48615</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>48036</v>
+        <v>48615</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f ca="1">-years_ + YEAR(C11)-YEAR(date)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f ca="1">-months + MONTH(C11)-MONTH(date)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f ca="1">-days + DATE(YEAR(date),MONTH(date),DAY(C11))-date</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>14</v>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.DATE.ADD_YMD(date, years_,months, days)</f>
@@ -4678,10 +4686,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B429FC-4136-41AD-B308-B590D229D902}">
-  <dimension ref="B2:O43"/>
+  <dimension ref="B2:O42"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4692,331 +4700,332 @@
     <col min="7" max="7" width="3.59765625" customWidth="1"/>
     <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.59765625" customWidth="1"/>
+    <col min="17" max="17" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <f ca="1">RAND()</f>
-        <v>0.49799801559335011</v>
-      </c>
-      <c r="E3" cm="1">
+        <v>0.77516531164610902</v>
+      </c>
+      <c r="E3" s="25" cm="1">
         <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve))</f>
         <v>1</v>
       </c>
-      <c r="F3" s="16">
-        <f ca="1"/>
-        <v>0.49799801559335011</v>
-      </c>
-      <c r="G3" s="16"/>
+      <c r="F3" s="26">
+        <f ca="1"/>
+        <v>0.77516531164610902</v>
+      </c>
+      <c r="G3" s="15"/>
       <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" cm="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>2207344032928</v>
+        <v>1640477350656</v>
       </c>
       <c r="K3" cm="1">
-        <f t="array" ref="K3:K43">_xlfn.SEQUENCE(1+4/0.1,1,0,0.1)</f>
-        <v>0</v>
+        <f t="array" ref="K3:K42">_xll.ARRAY.SEQUENCE(0.1,4,0.1)</f>
+        <v>0.1</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K3,translate)</f>
-        <v>0.49799801559335011</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K3,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K3,translate)</f>
-        <v>1</v>
+        <v>0.9254117261366106</v>
       </c>
       <c r="O3" cm="1">
-        <f t="array" aca="1" ref="O3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K3)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K3,translate)</f>
+        <v>0.82516531164610907</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="25">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="25">
         <f ca="1"/>
         <v>0.2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K4,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K4,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K4,translate)</f>
-        <v>0.98019867330675525</v>
+        <v>0.85638686287114107</v>
       </c>
       <c r="O4" cm="1">
-        <f t="array" aca="1" ref="O4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K4)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K4,translate)</f>
+        <v>0.82516531164610907</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="25">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="25">
         <f ca="1"/>
         <v>0.3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="5" cm="1">
+        <v>61</v>
+      </c>
+      <c r="I5" s="4" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve,spread)</f>
-        <v>2207344029056</v>
+        <v>1640477350832</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K5,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K5,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K5,translate)</f>
-        <v>0.96078943915232318</v>
+        <v>0.79251044501029944</v>
       </c>
       <c r="O5" cm="1">
-        <f t="array" aca="1" ref="O5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K5)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K5,translate)</f>
+        <v>0.82516531164610907</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8">
         <v>0.4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="25">
         <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="25">
         <f ca="1"/>
         <v>0.4</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="4"/>
       <c r="K6">
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K6,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K6,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K6,translate)</f>
-        <v>0.94176453358424872</v>
+        <v>0.7333984588982746</v>
       </c>
       <c r="O6" cm="1">
-        <f t="array" aca="1" ref="O6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K6)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K6,translate)</f>
+        <v>0.82516531164610907</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K7,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K7,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K7,translate)</f>
-        <v>0.92311634638663576</v>
+        <v>0.67869553379498238</v>
       </c>
       <c r="O7" cm="1">
-        <f t="array" aca="1" ref="O7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K7)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K7,translate)</f>
+        <v>0.82516531164610907</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K8,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K8,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="N8" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K8,translate)</f>
-        <v>0.90483741803595952</v>
+        <v>0.62807280545042299</v>
       </c>
       <c r="O8" cm="1">
-        <f t="array" aca="1" ref="O8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K8)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K8,translate)</f>
+        <v>0.82516531164610907</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K9">
-        <v>0.6</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K9,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K9,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="N9" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K9,translate)</f>
-        <v>0.88692043671715748</v>
+        <v>0.58122593903133946</v>
       </c>
       <c r="O9" cm="1">
-        <f t="array" aca="1" ref="O9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K9)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K9,translate)</f>
+        <v>0.82516531164610907</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K10,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K10,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K10,translate)</f>
-        <v>0.86935823539880586</v>
+        <v>0.53787329951436424</v>
       </c>
       <c r="O10" cm="1">
-        <f t="array" aca="1" ref="O10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K10)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K10,translate)</f>
+        <v>0.82516531164610907</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K11">
-        <v>0.79999999999999993</v>
+        <v>0.9</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K11,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K11,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K11,translate)</f>
-        <v>0.85214378896621135</v>
+        <v>0.49775425854638194</v>
       </c>
       <c r="O11" cm="1">
-        <f t="array" aca="1" ref="O11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K11)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K11,translate)</f>
+        <v>0.82516531164610907</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K12">
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K12,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K12,translate)</f>
-        <v>0.2</v>
+        <v>0.77516531164610902</v>
       </c>
       <c r="N12" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K12,translate)</f>
-        <v>0.835270211411272</v>
+        <v>0.46062762759325609</v>
       </c>
       <c r="O12" cm="1">
-        <f t="array" aca="1" ref="O12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K12)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K12,translate)</f>
+        <v>0.82516531164610907</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K13">
-        <v>0.99999999999999989</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K13,translate)</f>
@@ -5024,398 +5033,398 @@
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K13,translate)</f>
-        <v>0.2</v>
+        <v>0.72287755604191728</v>
       </c>
       <c r="N13" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K13,translate)</f>
-        <v>0.81873075307798182</v>
+        <v>0.45150658945534777</v>
       </c>
       <c r="O13" cm="1">
-        <f t="array" aca="1" ref="O13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K13)</f>
-        <v>0.59799801559335009</v>
+        <f t="array" aca="1" ref="O13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K13,translate)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K14">
-        <v>1.0999999999999999</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="L14" cm="1">
         <f t="array" aca="1" ref="L14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K14,translate)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K14,translate)</f>
-        <v>0.20909090909090908</v>
+        <v>0.67930442637175747</v>
       </c>
       <c r="N14" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K14,translate)</f>
-        <v>0.79453360250333405</v>
+        <v>0.44256615997338972</v>
       </c>
       <c r="O14" cm="1">
-        <f t="array" aca="1" ref="O14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K14)</f>
-        <v>0.30000000000000004</v>
+        <f t="array" aca="1" ref="O14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K14,translate)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K15">
-        <v>1.2</v>
+        <v>1.3000000000000003</v>
       </c>
       <c r="L15" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K15,translate)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K15,translate)</f>
-        <v>0.2166666666666667</v>
+        <v>0.64243485511239151</v>
       </c>
       <c r="N15" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K15,translate)</f>
-        <v>0.77105158580356625</v>
+        <v>0.43380276285638181</v>
       </c>
       <c r="O15" cm="1">
-        <f t="array" aca="1" ref="O15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K15)</f>
-        <v>0.30000000000000004</v>
+        <f t="array" aca="1" ref="O15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K15,translate)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K16">
-        <v>1.3</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="L16" cm="1">
         <f t="array" aca="1" ref="L16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K16,translate)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M16" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K16,translate)</f>
-        <v>0.22307692307692306</v>
+        <v>0.61083236546150643</v>
       </c>
       <c r="N16" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K16,translate)</f>
-        <v>0.74826356757856527</v>
+        <v>0.42521289262863043</v>
       </c>
       <c r="O16" cm="1">
-        <f t="array" aca="1" ref="O16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K16)</f>
-        <v>0.30000000000000004</v>
+        <f t="array" aca="1" ref="O16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K16,translate)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K17">
-        <v>1.4000000000000001</v>
+        <v>1.5000000000000002</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K17,translate)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K17,translate)</f>
-        <v>0.22857142857142859</v>
+        <v>0.58344354109740604</v>
       </c>
       <c r="N17" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K17,translate)</f>
-        <v>0.72614903707369083</v>
+        <v>0.41679311322751134</v>
       </c>
       <c r="O17" cm="1">
-        <f t="array" aca="1" ref="O17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K17)</f>
-        <v>0.30000000000000004</v>
+        <f t="array" aca="1" ref="O17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K17,translate)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K18">
-        <v>1.5000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="L18" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K18,translate)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M18" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K18,translate)</f>
-        <v>0.23333333333333331</v>
+        <v>0.55947831977881812</v>
       </c>
       <c r="N18" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K18,translate)</f>
-        <v>0.70468808971871344</v>
+        <v>0.40854005662899889</v>
       </c>
       <c r="O18" cm="1">
-        <f t="array" aca="1" ref="O18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K18)</f>
-        <v>0.30000000000000004</v>
+        <f t="array" aca="1" ref="O18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K18,translate)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K19">
-        <v>1.6000000000000003</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="L19" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K19,translate)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K19,translate)</f>
-        <v>0.23750000000000002</v>
+        <v>0.53833253626241706</v>
       </c>
       <c r="N19" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K19,translate)</f>
-        <v>0.68386140921235572</v>
+        <v>0.40045042150041138</v>
       </c>
       <c r="O19" cm="1">
-        <f t="array" aca="1" ref="O19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K19)</f>
-        <v>0.30000000000000004</v>
+        <f t="array" aca="1" ref="O19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K19,translate)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K20">
-        <v>1.7000000000000004</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="L20" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K20,translate)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K20,translate)</f>
-        <v>0.2411764705882353</v>
+        <v>0.51953628424783826</v>
       </c>
       <c r="N20" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K20,translate)</f>
-        <v>0.6636502501363194</v>
+        <v>0.3925209718798342</v>
       </c>
       <c r="O20" cm="1">
-        <f t="array" aca="1" ref="O20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K20)</f>
-        <v>0.30000000000000004</v>
+        <f t="array" aca="1" ref="O20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K20,translate)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K21">
-        <v>1.8000000000000005</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="L21" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K21,translate)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K21,translate)</f>
-        <v>0.24444444444444446</v>
+        <v>0.50271858507689948</v>
       </c>
       <c r="N21" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K21,translate)</f>
-        <v>0.64403642108314119</v>
+        <v>0.38474853588169167</v>
       </c>
       <c r="O21" cm="1">
-        <f t="array" aca="1" ref="O21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K21)</f>
-        <v>0.30000000000000004</v>
+        <f t="array" aca="1" ref="O21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K21,translate)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K22">
-        <v>1.9000000000000006</v>
+        <v>2</v>
       </c>
       <c r="L22" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K22,translate)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K22,translate)</f>
-        <v>0.24736842105263157</v>
+        <v>0.48758265582305449</v>
       </c>
       <c r="N22" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K22,translate)</f>
-        <v>0.62500226828270078</v>
+        <v>0.37713000442795075</v>
       </c>
       <c r="O22" cm="1">
-        <f t="array" aca="1" ref="O22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K22)</f>
-        <v>0.30000000000000004</v>
+        <f t="array" aca="1" ref="O22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K22,translate)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K23">
-        <v>2.0000000000000004</v>
+        <v>2.1</v>
       </c>
       <c r="L23" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K23,translate)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M23" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K23,translate)</f>
-        <v>0.25000000000000006</v>
+        <v>0.47865014840290904</v>
       </c>
       <c r="N23" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K23,translate)</f>
-        <v>0.60653065971263331</v>
+        <v>0.36598412836423388</v>
       </c>
       <c r="O23" cm="1">
-        <f t="array" aca="1" ref="O23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K23)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="O23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K23,translate)</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="24" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K24">
-        <v>2.1000000000000005</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K24,translate)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M24" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K24,translate)</f>
-        <v>0.25714285714285717</v>
+        <v>0.47052968711186771</v>
       </c>
       <c r="N24" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K24,translate)</f>
-        <v>0.58274825237398953</v>
+        <v>0.35516766272071465</v>
       </c>
       <c r="O24" cm="1">
-        <f t="array" aca="1" ref="O24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K24)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="O24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K24,translate)</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="25" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K25">
-        <v>2.2000000000000006</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="L25" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K25,translate)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M25" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K25,translate)</f>
-        <v>0.26363636363636367</v>
+        <v>0.46311535288961259</v>
       </c>
       <c r="N25" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K25,translate)</f>
-        <v>0.55989836656540182</v>
+        <v>0.34467087194818052</v>
       </c>
       <c r="O25" cm="1">
-        <f t="array" aca="1" ref="O25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K25)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="O25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K25,translate)</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="26" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K26">
-        <v>2.3000000000000007</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="L26" cm="1">
         <f t="array" aca="1" ref="L26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K26,translate)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M26" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K26,translate)</f>
-        <v>0.2695652173913044</v>
+        <v>0.45631887985254538</v>
       </c>
       <c r="N26" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K26,translate)</f>
-        <v>0.53794443759467436</v>
+        <v>0.33448430822638159</v>
       </c>
       <c r="O26" cm="1">
-        <f t="array" aca="1" ref="O26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K26)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="O26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K26,translate)</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="27" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K27">
-        <v>2.4000000000000008</v>
+        <v>2.5000000000000004</v>
       </c>
       <c r="L27" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K27,translate)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M27" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K27,translate)</f>
-        <v>0.27500000000000008</v>
+        <v>0.45006612465844359</v>
       </c>
       <c r="N27" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K27,translate)</f>
-        <v>0.51685133449169907</v>
+        <v>0.32459880296035454</v>
       </c>
       <c r="O27" cm="1">
-        <f t="array" aca="1" ref="O27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K27)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="O27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K27,translate)</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="28" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K28">
-        <v>2.5000000000000009</v>
+        <v>2.6</v>
       </c>
       <c r="L28" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K28,translate)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M28" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K28,translate)</f>
-        <v>0.28000000000000008</v>
+        <v>0.44429435063311878</v>
       </c>
       <c r="N28" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K28,translate)</f>
-        <v>0.4965853037914093</v>
+        <v>0.31500545852806838</v>
       </c>
       <c r="O28" cm="1">
-        <f t="array" aca="1" ref="O28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K28)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="O28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K28,translate)</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="29" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K29">
-        <v>2.600000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="L29" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K29,translate)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K29,translate)</f>
-        <v>0.28461538461538466</v>
+        <v>0.43895011542448475</v>
       </c>
       <c r="N29" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K29,translate)</f>
-        <v>0.47711391552103416</v>
+        <v>0.30569564027196378</v>
       </c>
       <c r="O29" cm="1">
-        <f t="array" aca="1" ref="O29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K29)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="O29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K29,translate)</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="30" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K30">
-        <v>2.7000000000000011</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="L30" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K30,translate)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M30" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K30,translate)</f>
-        <v>0.28888888888888897</v>
+        <v>0.43398761130218172</v>
       </c>
       <c r="N30" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K30,translate)</f>
-        <v>0.45840601130522335</v>
+        <v>0.29666096872717873</v>
       </c>
       <c r="O30" cm="1">
-        <f t="array" aca="1" ref="O30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K30)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="O30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K30,translate)</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="31" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K31">
-        <v>2.8000000000000012</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="L31" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K31,translate)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M31" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K31,translate)</f>
-        <v>0.29285714285714293</v>
+        <v>0.42936734884348582</v>
       </c>
       <c r="N31" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K31,translate)</f>
-        <v>0.44043165450599903</v>
+        <v>0.28789331207946423</v>
       </c>
       <c r="O31" cm="1">
-        <f t="array" aca="1" ref="O31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K31)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="O31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K31,translate)</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="32" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K32">
-        <v>2.9000000000000012</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="L32" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K32,translate)</f>
@@ -5423,20 +5432,20 @@
       </c>
       <c r="M32" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K32,translate)</f>
-        <v>0.29655172413793107</v>
+        <v>0.42505510388203638</v>
       </c>
       <c r="N32" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K32,translate)</f>
-        <v>0.4231620823177486</v>
+        <v>0.27938477884600277</v>
       </c>
       <c r="O32" cm="1">
-        <f t="array" aca="1" ref="O32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K32)</f>
-        <v>0.4</v>
+        <f t="array" aca="1" ref="O32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K32,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K33">
-        <v>3.0000000000000013</v>
+        <v>3.1</v>
       </c>
       <c r="L33" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K33,translate)</f>
@@ -5444,20 +5453,20 @@
       </c>
       <c r="M33" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K33,translate)</f>
-        <v>0.3000000000000001</v>
+        <v>0.4242468747245513</v>
       </c>
       <c r="N33" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K33,translate)</f>
-        <v>0.40656965974059878</v>
+        <v>0.26842994497514688</v>
       </c>
       <c r="O33" cm="1">
-        <f t="array" aca="1" ref="O33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K33)</f>
-        <v>0.5</v>
+        <f t="array" aca="1" ref="O33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K33,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="34" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K34">
-        <v>3.1000000000000014</v>
+        <v>3.2</v>
       </c>
       <c r="L34" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K34,translate)</f>
@@ -5465,20 +5474,20 @@
       </c>
       <c r="M34" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K34,translate)</f>
-        <v>0.30322580645161296</v>
+        <v>0.42348915988940905</v>
       </c>
       <c r="N34" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K34,translate)</f>
-        <v>0.39062783535852086</v>
+        <v>0.25790465628436038</v>
       </c>
       <c r="O34" cm="1">
-        <f t="array" aca="1" ref="O34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K34)</f>
-        <v>0.5</v>
+        <f t="array" aca="1" ref="O34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K34,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="35" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K35">
-        <v>3.2000000000000015</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="L35" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K35,translate)</f>
@@ -5486,20 +5495,20 @@
       </c>
       <c r="M35" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K35,translate)</f>
-        <v>0.30625000000000002</v>
+        <v>0.42277736716548758</v>
       </c>
       <c r="N35" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K35,translate)</f>
-        <v>0.37531109885139941</v>
+        <v>0.24779207006622328</v>
       </c>
       <c r="O35" cm="1">
-        <f t="array" aca="1" ref="O35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K35)</f>
-        <v>0.5</v>
+        <f t="array" aca="1" ref="O35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K35,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="36" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K36">
-        <v>3.3000000000000016</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="L36" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K36,translate)</f>
@@ -5507,20 +5516,20 @@
       </c>
       <c r="M36" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K36,translate)</f>
-        <v>0.30909090909090914</v>
+        <v>0.42210744460179678</v>
       </c>
       <c r="N36" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K36,translate)</f>
-        <v>0.36059494017307803</v>
+        <v>0.23807600402531984</v>
       </c>
       <c r="O36" cm="1">
-        <f t="array" aca="1" ref="O36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K36)</f>
-        <v>0.5</v>
+        <f t="array" aca="1" ref="O36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K36,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="37" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K37">
-        <v>3.4000000000000017</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="L37" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K37,translate)</f>
@@ -5528,20 +5537,20 @@
       </c>
       <c r="M37" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K37,translate)</f>
-        <v>0.311764705882353</v>
+        <v>0.42147580332745971</v>
       </c>
       <c r="N37" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K37,translate)</f>
-        <v>0.34645581033005712</v>
+        <v>0.22874091038311328</v>
       </c>
       <c r="O37" cm="1">
-        <f t="array" aca="1" ref="O37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K37)</f>
-        <v>0.5</v>
+        <f t="array" aca="1" ref="O37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K37,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="38" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K38">
-        <v>3.5000000000000018</v>
+        <v>3.6</v>
       </c>
       <c r="L38" cm="1">
         <f t="array" aca="1" ref="L38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K38,translate)</f>
@@ -5549,20 +5558,20 @@
       </c>
       <c r="M38" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K38,translate)</f>
-        <v>0.31428571428571433</v>
+        <v>0.42087925323503028</v>
       </c>
       <c r="N38" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K38,translate)</f>
-        <v>0.33287108369807933</v>
+        <v>0.21977185099818328</v>
       </c>
       <c r="O38" cm="1">
-        <f t="array" aca="1" ref="O38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K38)</f>
-        <v>0.5</v>
+        <f t="array" aca="1" ref="O38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K38,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="39" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K39">
-        <v>3.6000000000000019</v>
+        <v>3.7</v>
       </c>
       <c r="L39" cm="1">
         <f t="array" aca="1" ref="L39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K39,translate)</f>
@@ -5570,20 +5579,20 @@
       </c>
       <c r="M39" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K39,translate)</f>
-        <v>0.31666666666666671</v>
+        <v>0.42031494909354294</v>
       </c>
       <c r="N39" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K39,translate)</f>
-        <v>0.31981902181630373</v>
+        <v>0.21115447346201244</v>
       </c>
       <c r="O39" cm="1">
-        <f t="array" aca="1" ref="O39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K39)</f>
-        <v>0.5</v>
+        <f t="array" aca="1" ref="O39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K39,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="40" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K40">
-        <v>3.700000000000002</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="L40" cm="1">
         <f t="array" aca="1" ref="L40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K40,translate)</f>
@@ -5591,20 +5600,20 @@
       </c>
       <c r="M40" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K40,translate)</f>
-        <v>0.31891891891891899</v>
+        <v>0.41978034517002866</v>
       </c>
       <c r="N40" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K40,translate)</f>
-        <v>0.30727873860113097</v>
+        <v>0.20287498813207105</v>
       </c>
       <c r="O40" cm="1">
-        <f t="array" aca="1" ref="O40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K40)</f>
-        <v>0.5</v>
+        <f t="array" aca="1" ref="O40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K40,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="41" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K41">
-        <v>3.800000000000002</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="L41" cm="1">
         <f t="array" aca="1" ref="L41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K41,translate)</f>
@@ -5612,20 +5621,20 @@
       </c>
       <c r="M41" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K41,translate)</f>
-        <v>0.32105263157894742</v>
+        <v>0.41927315683233563</v>
       </c>
       <c r="N41" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K41,translate)</f>
-        <v>0.29523016692401388</v>
+        <v>0.19492014606544675</v>
       </c>
       <c r="O41" cm="1">
-        <f t="array" aca="1" ref="O41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K41)</f>
-        <v>0.5</v>
+        <f t="array" aca="1" ref="O41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K41,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="42" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K42">
-        <v>3.9000000000000021</v>
+        <v>4</v>
       </c>
       <c r="L42" cm="1">
         <f t="array" aca="1" ref="L42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K42,translate)</f>
@@ -5633,36 +5642,15 @@
       </c>
       <c r="M42" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K42,translate)</f>
-        <v>0.32307692307692315</v>
+        <v>0.41879132791152729</v>
       </c>
       <c r="N42" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K42,translate)</f>
-        <v>0.28365402649977012</v>
+        <v>0.18727721781770951</v>
       </c>
       <c r="O42" cm="1">
-        <f t="array" aca="1" ref="O42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K42)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K43">
-        <v>4.0000000000000018</v>
-      </c>
-      <c r="L43" cm="1">
-        <f t="array" aca="1" ref="L43" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K43,translate)</f>
-        <v>0.4</v>
-      </c>
-      <c r="M43" cm="1">
-        <f t="array" aca="1" ref="M43" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K43,translate)</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="N43" cm="1">
-        <f t="array" aca="1" ref="N43" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K43,translate)</f>
-        <v>0.27253179303401243</v>
-      </c>
-      <c r="O43" cm="1">
-        <f t="array" aca="1" ref="O43" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K43)</f>
-        <v>0.5</v>
+        <f t="array" aca="1" ref="O42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K42,translate)</f>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -5676,7 +5664,7 @@
   <dimension ref="B1:I553"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5693,25 +5681,25 @@
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12">
-        <v>5</v>
+      <c r="C2" s="11">
+        <v>4</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2:D5">_xll.TMX.BOND.SIMPLE(bond.simple)</f>
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" cm="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
-        <v>2205744282544</v>
+        <v>3229850275728</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
-        <v>5</v>
-      </c>
-      <c r="G2" s="17">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16">
         <f>F2-D2</f>
         <v>0</v>
       </c>
@@ -5720,7 +5708,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0.04</v>
       </c>
       <c r="D3">
@@ -5729,17 +5717,17 @@
       <c r="F3">
         <v>0.04</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <f t="shared" ref="G3:G5" si="0">F3-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5747,36 +5735,36 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5">
-        <v>140716919108667</v>
-      </c>
-      <c r="F5" s="5">
-        <v>140716919108667</v>
-      </c>
-      <c r="G5" s="17">
+        <v>21</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4">
+        <v>140716919112232</v>
+      </c>
+      <c r="F5" s="4">
+        <v>140716919112232</v>
+      </c>
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" cm="1">
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" cm="1">
         <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
-        <v>2205744290224</v>
+        <v>3229850275824</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -5789,2368 +5777,2274 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="e" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
-        <v>2207344029760</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="4" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">_xll.\TMX.PWFLAT.CURVE(0,0,yield)</f>
+        <v>1640477351360</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="22" t="e" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">_xll.TMX.VALUE.PRESENT(instrument, $D$9)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="22" t="e" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.VALUE.DURATION(instrument, $D$9)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="22" t="e" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.CONVEXITY(instrument, $D$9)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="20" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
-        <v>3.9585327332811372E-2</v>
-      </c>
-      <c r="D9" s="5" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">_xll.\TMX.PWFLAT.CURVE(0,0,yield)</f>
-        <v>2207344031344</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="23" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">_xll.TMX.VALUE.PRESENT(instrument, $D$9)</f>
-        <v>1.000000001080527</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="23" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.VALUE.DURATION(instrument, $D$9)</f>
-        <v>-4.5834637662394009</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="23" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.CONVEXITY(instrument, $D$9)</f>
-        <v>22.178239353225383</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="20" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(C9,_xll.ENUM(frequency))</f>
-        <v>3.9979674296520162E-2</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="C13" s="19" t="e" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(yield,_xll.ENUM(frequency))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="6" t="e">
         <f ca="1">C10-G14</f>
-        <v>0.85350127098634077</v>
-      </c>
-      <c r="H13" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" s="6" t="e">
         <f ca="1">C11-H14</f>
-        <v>-4.2610080284477192</v>
-      </c>
-      <c r="I13" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="6" t="e">
         <f ca="1">C12-I14</f>
-        <v>21.276671617752239</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G14">
+      <c r="G14" t="e">
         <f ca="1">SUM(G16:G23)</f>
-        <v>0.14649873009418624</v>
-      </c>
-      <c r="H14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" t="e">
         <f ca="1">SUM(H16:H23)</f>
-        <v>-0.32245573779168146</v>
-      </c>
-      <c r="I14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" t="e">
         <f ca="1">SUM(I16:I23)</f>
-        <v>0.90156773547314439</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="16" cm="1">
-        <f t="array" aca="1" ref="C16:D25" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
-        <v>0.50377488928588543</v>
-      </c>
-      <c r="D16">
-        <f ca="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="E16" s="2" cm="1">
-        <f t="array" aca="1" ref="E16:E25" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C16),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
-        <v>45297</v>
-      </c>
-      <c r="F16" s="24" cm="1">
+      <c r="C16" s="15" t="e" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C16),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="23" t="e" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C16)</f>
-        <v>0.98025543443800101</v>
-      </c>
-      <c r="G16" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" s="23" t="e">
         <f ca="1">D16*F16</f>
-        <v>1.9605108688760021E-2</v>
-      </c>
-      <c r="H16" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" s="23" t="e">
         <f ca="1">-G16*C16</f>
-        <v>-9.8765614591178295E-3</v>
-      </c>
-      <c r="I16" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="23" t="e">
         <f ca="1">C16^2*G16</f>
-        <v>4.9755636555923275E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="16">
-        <f ca="1"/>
-        <v>1.0020739645577939</v>
-      </c>
-      <c r="D17">
-        <f ca="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="E17" s="2">
-        <f ca="1"/>
-        <v>45479</v>
-      </c>
-      <c r="F17" s="24" cm="1">
+      <c r="C17" s="15"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="23" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C17)</f>
-        <v>0.9611090259767846</v>
-      </c>
-      <c r="G17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23">
         <f t="shared" ref="G17:G23" ca="1" si="1">D17*F17</f>
-        <v>1.9222180519535694E-2</v>
-      </c>
-      <c r="H17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
         <f t="shared" ref="H17:H23" ca="1" si="2">-G17*C17</f>
-        <v>-1.9262046640656727E-2</v>
-      </c>
-      <c r="I17" s="24">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
         <f t="shared" ref="I17:I23" ca="1" si="3">C17^2*G17</f>
-        <v>1.9301995442700021E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="16">
-        <f ca="1"/>
-        <v>1.5058488538436792</v>
-      </c>
-      <c r="D18">
-        <f ca="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="E18" s="2">
-        <f ca="1"/>
-        <v>45663</v>
-      </c>
-      <c r="F18" s="24" cm="1">
+      <c r="C18" s="15"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="23" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C18)</f>
-        <v>0.94213234580115701</v>
-      </c>
-      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.884264691602314E-2</v>
-      </c>
-      <c r="H18" s="24">
+        <v>0</v>
+      </c>
+      <c r="H18" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.8374178261874581E-2</v>
-      </c>
-      <c r="I18" s="24">
+        <v>0</v>
+      </c>
+      <c r="I18" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2727223814400077E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="16">
-        <f ca="1"/>
-        <v>2.0014100221085989</v>
-      </c>
-      <c r="D19">
-        <f ca="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="E19" s="2">
-        <f ca="1"/>
-        <v>45843.999988425923</v>
-      </c>
-      <c r="F19" s="24" cm="1">
+      <c r="C19" s="15"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="23" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C19)</f>
-        <v>0.923830680030578</v>
-      </c>
-      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.847661360061156E-2</v>
-      </c>
-      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.6979279634892018E-2</v>
-      </c>
-      <c r="I19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>7.4010700871629295E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="16">
-        <f ca="1"/>
-        <v>2.5051849113944846</v>
-      </c>
-      <c r="D20">
-        <f ca="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="E20" s="2">
-        <f ca="1"/>
-        <v>46028</v>
-      </c>
-      <c r="F20" s="24" cm="1">
+      <c r="C20" s="15"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="23" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C20)</f>
-        <v>0.90559004460052817</v>
-      </c>
-      <c r="G20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8111800892010563E-2</v>
-      </c>
-      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.537341031284603E-2</v>
-      </c>
-      <c r="I20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11366878289425278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="16">
-        <f ca="1"/>
-        <v>3.0007460796594043</v>
-      </c>
-      <c r="D21">
-        <f ca="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="E21" s="2">
-        <f ca="1"/>
-        <v>46209</v>
-      </c>
-      <c r="F21" s="24" cm="1">
+      <c r="C21" s="15"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="23" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C21)</f>
-        <v>0.88799824192513144</v>
-      </c>
-      <c r="G21" s="24">
+        <v>1</v>
+      </c>
+      <c r="G21" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7759964838502628E-2</v>
-      </c>
-      <c r="H21" s="24">
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.3293144864025629E-2</v>
-      </c>
-      <c r="I21" s="24">
+        <v>0</v>
+      </c>
+      <c r="I21" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15991919552344561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="16">
-        <f ca="1"/>
-        <v>3.5045209689452896</v>
-      </c>
-      <c r="D22">
-        <f ca="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="E22" s="2">
-        <f ca="1"/>
-        <v>46393</v>
-      </c>
-      <c r="F22" s="24" cm="1">
+      <c r="C22" s="15"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="23" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C22)</f>
-        <v>0.87046510241850084</v>
-      </c>
-      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7409302048370018E-2</v>
-      </c>
-      <c r="H22" s="24">
+        <v>0</v>
+      </c>
+      <c r="H22" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.101126408321491E-2</v>
-      </c>
-      <c r="I22" s="24">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21381525432148527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="16">
-        <f ca="1"/>
-        <v>4.0000821372102093</v>
-      </c>
-      <c r="D23">
-        <f ca="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="E23" s="2">
-        <f ca="1"/>
-        <v>46574</v>
-      </c>
-      <c r="F23" s="24" cm="1">
+      <c r="C23" s="15"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="23" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C23)</f>
-        <v>0.85355562951863018</v>
-      </c>
-      <c r="G23" s="24">
+        <v>1</v>
+      </c>
+      <c r="G23" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7071112590372604E-2</v>
-      </c>
-      <c r="H23" s="24">
+        <v>0</v>
+      </c>
+      <c r="H23" s="23">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.8285852535053759E-2</v>
-      </c>
-      <c r="I23" s="24">
+        <v>0</v>
+      </c>
+      <c r="I23" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27314901894963906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="16">
-        <f ca="1"/>
-        <v>4.5038570264960951</v>
-      </c>
-      <c r="D24">
-        <f ca="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="E24" s="2">
-        <f ca="1"/>
-        <v>46758</v>
-      </c>
+      <c r="C24" s="15"/>
+      <c r="E24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="16">
-        <f ca="1"/>
-        <v>5.0021561017680032</v>
-      </c>
-      <c r="D25">
-        <f ca="1"/>
-        <v>1.02</v>
-      </c>
-      <c r="E25" s="2">
-        <f ca="1"/>
-        <v>46940</v>
-      </c>
+      <c r="C25" s="15"/>
+      <c r="E25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="16"/>
+      <c r="C26" s="15"/>
       <c r="E26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="16"/>
+      <c r="C27" s="15"/>
       <c r="E27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="16"/>
+      <c r="C28" s="15"/>
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="16"/>
+      <c r="C29" s="15"/>
       <c r="E29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="16"/>
+      <c r="C30" s="15"/>
       <c r="E30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="16"/>
+      <c r="C31" s="15"/>
       <c r="E31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="16"/>
+      <c r="C32" s="15"/>
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="16"/>
+      <c r="C33" s="15"/>
       <c r="E33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="16"/>
+      <c r="C34" s="15"/>
       <c r="E34" s="2"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C35" s="16"/>
+      <c r="C35" s="15"/>
       <c r="E35" s="2"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="16"/>
+      <c r="C36" s="15"/>
       <c r="E36" s="2"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="16"/>
+      <c r="C37" s="15"/>
       <c r="E37" s="2"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="16"/>
+      <c r="C38" s="15"/>
       <c r="E38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="16"/>
+      <c r="C39" s="15"/>
       <c r="E39" s="2"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="16"/>
+      <c r="C40" s="15"/>
       <c r="E40" s="2"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C41" s="16"/>
+      <c r="C41" s="15"/>
       <c r="E41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C42" s="16"/>
+      <c r="C42" s="15"/>
       <c r="E42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C43" s="16"/>
+      <c r="C43" s="15"/>
       <c r="E43" s="2"/>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C44" s="16"/>
+      <c r="C44" s="15"/>
       <c r="E44" s="2"/>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C45" s="16"/>
+      <c r="C45" s="15"/>
       <c r="E45" s="2"/>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="16"/>
+      <c r="C46" s="15"/>
       <c r="E46" s="2"/>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C47" s="16"/>
+      <c r="C47" s="15"/>
       <c r="E47" s="2"/>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C48" s="16"/>
+      <c r="C48" s="15"/>
       <c r="E48" s="2"/>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="16"/>
+      <c r="C49" s="15"/>
       <c r="E49" s="2"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="16"/>
+      <c r="C50" s="15"/>
       <c r="E50" s="2"/>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="16"/>
+      <c r="C51" s="15"/>
       <c r="E51" s="2"/>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="16"/>
+      <c r="C52" s="15"/>
       <c r="E52" s="2"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C53" s="16"/>
+      <c r="C53" s="15"/>
       <c r="E53" s="2"/>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C54" s="16"/>
+      <c r="C54" s="15"/>
       <c r="E54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C55" s="16"/>
+      <c r="C55" s="15"/>
       <c r="E55" s="2"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C56" s="16"/>
+      <c r="C56" s="15"/>
       <c r="E56" s="2"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C57" s="16"/>
+      <c r="C57" s="15"/>
       <c r="E57" s="2"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C58" s="16"/>
+      <c r="C58" s="15"/>
       <c r="E58" s="2"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C59" s="16"/>
+      <c r="C59" s="15"/>
       <c r="E59" s="2"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C60" s="16"/>
+      <c r="C60" s="15"/>
       <c r="E60" s="2"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C61" s="16"/>
+      <c r="C61" s="15"/>
       <c r="E61" s="2"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C62" s="16"/>
+      <c r="C62" s="15"/>
       <c r="E62" s="2"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C63" s="16"/>
+      <c r="C63" s="15"/>
       <c r="E63" s="2"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C64" s="16"/>
+      <c r="C64" s="15"/>
       <c r="E64" s="2"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C65" s="16"/>
+      <c r="C65" s="15"/>
       <c r="E65" s="2"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C66" s="16"/>
+      <c r="C66" s="15"/>
       <c r="E66" s="2"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C67" s="16"/>
+      <c r="C67" s="15"/>
       <c r="E67" s="2"/>
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C68" s="16"/>
+      <c r="C68" s="15"/>
       <c r="E68" s="2"/>
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C69" s="16"/>
+      <c r="C69" s="15"/>
       <c r="E69" s="2"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C70" s="16"/>
+      <c r="C70" s="15"/>
       <c r="E70" s="2"/>
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C71" s="16"/>
+      <c r="C71" s="15"/>
       <c r="E71" s="2"/>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C72" s="16"/>
+      <c r="C72" s="15"/>
       <c r="E72" s="2"/>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C73" s="16"/>
+      <c r="C73" s="15"/>
       <c r="E73" s="2"/>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C74" s="16"/>
+      <c r="C74" s="15"/>
       <c r="E74" s="2"/>
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C75" s="16"/>
+      <c r="C75" s="15"/>
       <c r="E75" s="2"/>
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C76" s="16"/>
+      <c r="C76" s="15"/>
       <c r="E76" s="2"/>
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C77" s="16"/>
+      <c r="C77" s="15"/>
       <c r="E77" s="2"/>
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C78" s="16"/>
+      <c r="C78" s="15"/>
       <c r="E78" s="2"/>
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C79" s="16"/>
+      <c r="C79" s="15"/>
       <c r="E79" s="2"/>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C80" s="16"/>
+      <c r="C80" s="15"/>
       <c r="E80" s="2"/>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C81" s="16"/>
+      <c r="C81" s="15"/>
       <c r="E81" s="2"/>
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C82" s="16"/>
+      <c r="C82" s="15"/>
       <c r="E82" s="2"/>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C83" s="16"/>
+      <c r="C83" s="15"/>
       <c r="E83" s="2"/>
       <c r="G83" s="2"/>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C84" s="16"/>
+      <c r="C84" s="15"/>
       <c r="E84" s="2"/>
       <c r="G84" s="2"/>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C85" s="16"/>
+      <c r="C85" s="15"/>
       <c r="E85" s="2"/>
       <c r="G85" s="2"/>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C86" s="16"/>
+      <c r="C86" s="15"/>
       <c r="E86" s="2"/>
       <c r="G86" s="2"/>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C87" s="16"/>
+      <c r="C87" s="15"/>
       <c r="E87" s="2"/>
       <c r="G87" s="2"/>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C88" s="16"/>
+      <c r="C88" s="15"/>
       <c r="E88" s="2"/>
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C89" s="16"/>
+      <c r="C89" s="15"/>
       <c r="E89" s="2"/>
       <c r="G89" s="2"/>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C90" s="16"/>
+      <c r="C90" s="15"/>
       <c r="E90" s="2"/>
       <c r="G90" s="2"/>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C91" s="16"/>
+      <c r="C91" s="15"/>
       <c r="E91" s="2"/>
       <c r="G91" s="2"/>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C92" s="16"/>
+      <c r="C92" s="15"/>
       <c r="E92" s="2"/>
       <c r="G92" s="2"/>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C93" s="16"/>
+      <c r="C93" s="15"/>
       <c r="E93" s="2"/>
       <c r="G93" s="2"/>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C94" s="16"/>
+      <c r="C94" s="15"/>
       <c r="E94" s="2"/>
       <c r="G94" s="2"/>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C95" s="16"/>
+      <c r="C95" s="15"/>
       <c r="E95" s="2"/>
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C96" s="16"/>
+      <c r="C96" s="15"/>
       <c r="E96" s="2"/>
       <c r="G96" s="2"/>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C97" s="16"/>
+      <c r="C97" s="15"/>
       <c r="E97" s="2"/>
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C98" s="16"/>
+      <c r="C98" s="15"/>
       <c r="E98" s="2"/>
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C99" s="16"/>
+      <c r="C99" s="15"/>
       <c r="E99" s="2"/>
       <c r="G99" s="2"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C100" s="16"/>
+      <c r="C100" s="15"/>
       <c r="E100" s="2"/>
       <c r="G100" s="2"/>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C101" s="16"/>
+      <c r="C101" s="15"/>
       <c r="E101" s="2"/>
       <c r="G101" s="2"/>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C102" s="16"/>
+      <c r="C102" s="15"/>
       <c r="E102" s="2"/>
       <c r="G102" s="2"/>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C103" s="16"/>
+      <c r="C103" s="15"/>
       <c r="E103" s="2"/>
       <c r="G103" s="2"/>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C104" s="16"/>
+      <c r="C104" s="15"/>
       <c r="E104" s="2"/>
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C105" s="16"/>
+      <c r="C105" s="15"/>
       <c r="E105" s="2"/>
       <c r="G105" s="2"/>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C106" s="16"/>
+      <c r="C106" s="15"/>
       <c r="E106" s="2"/>
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C107" s="16"/>
+      <c r="C107" s="15"/>
       <c r="E107" s="2"/>
       <c r="G107" s="2"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C108" s="16"/>
+      <c r="C108" s="15"/>
       <c r="E108" s="2"/>
       <c r="G108" s="2"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C109" s="16"/>
+      <c r="C109" s="15"/>
       <c r="E109" s="2"/>
       <c r="G109" s="2"/>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C110" s="16"/>
+      <c r="C110" s="15"/>
       <c r="E110" s="2"/>
       <c r="G110" s="2"/>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C111" s="16"/>
+      <c r="C111" s="15"/>
       <c r="E111" s="2"/>
       <c r="G111" s="2"/>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C112" s="16"/>
+      <c r="C112" s="15"/>
       <c r="E112" s="2"/>
       <c r="G112" s="2"/>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C113" s="16"/>
+      <c r="C113" s="15"/>
       <c r="E113" s="2"/>
       <c r="G113" s="2"/>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C114" s="16"/>
+      <c r="C114" s="15"/>
       <c r="E114" s="2"/>
       <c r="G114" s="2"/>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C115" s="16"/>
+      <c r="C115" s="15"/>
       <c r="E115" s="2"/>
       <c r="G115" s="2"/>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C116" s="16"/>
+      <c r="C116" s="15"/>
       <c r="E116" s="2"/>
       <c r="G116" s="2"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C117" s="16"/>
+      <c r="C117" s="15"/>
       <c r="E117" s="2"/>
       <c r="G117" s="2"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C118" s="16"/>
+      <c r="C118" s="15"/>
       <c r="E118" s="2"/>
       <c r="G118" s="2"/>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C119" s="16"/>
+      <c r="C119" s="15"/>
       <c r="E119" s="2"/>
       <c r="G119" s="2"/>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C120" s="16"/>
+      <c r="C120" s="15"/>
       <c r="E120" s="2"/>
       <c r="G120" s="2"/>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C121" s="16"/>
+      <c r="C121" s="15"/>
       <c r="E121" s="2"/>
       <c r="G121" s="2"/>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C122" s="16"/>
+      <c r="C122" s="15"/>
       <c r="E122" s="2"/>
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C123" s="16"/>
+      <c r="C123" s="15"/>
       <c r="E123" s="2"/>
       <c r="G123" s="2"/>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C124" s="16"/>
+      <c r="C124" s="15"/>
       <c r="E124" s="2"/>
       <c r="G124" s="2"/>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C125" s="16"/>
+      <c r="C125" s="15"/>
       <c r="E125" s="2"/>
       <c r="G125" s="2"/>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C126" s="16"/>
+      <c r="C126" s="15"/>
       <c r="E126" s="2"/>
       <c r="G126" s="2"/>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C127" s="16"/>
+      <c r="C127" s="15"/>
       <c r="E127" s="2"/>
       <c r="G127" s="2"/>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C128" s="16"/>
+      <c r="C128" s="15"/>
       <c r="E128" s="2"/>
       <c r="G128" s="2"/>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C129" s="16"/>
+      <c r="C129" s="15"/>
       <c r="E129" s="2"/>
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C130" s="16"/>
+      <c r="C130" s="15"/>
       <c r="E130" s="2"/>
       <c r="G130" s="2"/>
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C131" s="16"/>
+      <c r="C131" s="15"/>
       <c r="E131" s="2"/>
       <c r="G131" s="2"/>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C132" s="16"/>
+      <c r="C132" s="15"/>
       <c r="E132" s="2"/>
       <c r="G132" s="2"/>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C133" s="16"/>
+      <c r="C133" s="15"/>
       <c r="E133" s="2"/>
       <c r="G133" s="2"/>
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C134" s="16"/>
+      <c r="C134" s="15"/>
       <c r="E134" s="2"/>
       <c r="G134" s="2"/>
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C135" s="16"/>
+      <c r="C135" s="15"/>
       <c r="E135" s="2"/>
       <c r="G135" s="2"/>
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C136" s="16"/>
+      <c r="C136" s="15"/>
       <c r="E136" s="2"/>
       <c r="G136" s="2"/>
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C137" s="16"/>
+      <c r="C137" s="15"/>
       <c r="E137" s="2"/>
       <c r="G137" s="2"/>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C138" s="16"/>
+      <c r="C138" s="15"/>
       <c r="E138" s="2"/>
       <c r="G138" s="2"/>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C139" s="16"/>
+      <c r="C139" s="15"/>
       <c r="E139" s="2"/>
       <c r="G139" s="2"/>
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C140" s="16"/>
+      <c r="C140" s="15"/>
       <c r="E140" s="2"/>
       <c r="G140" s="2"/>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C141" s="16"/>
+      <c r="C141" s="15"/>
       <c r="E141" s="2"/>
       <c r="G141" s="2"/>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C142" s="16"/>
+      <c r="C142" s="15"/>
       <c r="E142" s="2"/>
       <c r="G142" s="2"/>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C143" s="16"/>
+      <c r="C143" s="15"/>
       <c r="E143" s="2"/>
       <c r="G143" s="2"/>
     </row>
     <row r="144" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C144" s="16"/>
+      <c r="C144" s="15"/>
       <c r="E144" s="2"/>
       <c r="G144" s="2"/>
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C145" s="16"/>
+      <c r="C145" s="15"/>
       <c r="E145" s="2"/>
       <c r="G145" s="2"/>
     </row>
     <row r="146" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C146" s="16"/>
+      <c r="C146" s="15"/>
       <c r="E146" s="2"/>
       <c r="G146" s="2"/>
     </row>
     <row r="147" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C147" s="16"/>
+      <c r="C147" s="15"/>
       <c r="E147" s="2"/>
       <c r="G147" s="2"/>
     </row>
     <row r="148" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C148" s="16"/>
+      <c r="C148" s="15"/>
       <c r="E148" s="2"/>
       <c r="G148" s="2"/>
     </row>
     <row r="149" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C149" s="16"/>
+      <c r="C149" s="15"/>
       <c r="E149" s="2"/>
       <c r="G149" s="2"/>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C150" s="16"/>
+      <c r="C150" s="15"/>
       <c r="E150" s="2"/>
       <c r="G150" s="2"/>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C151" s="16"/>
+      <c r="C151" s="15"/>
       <c r="E151" s="2"/>
       <c r="G151" s="2"/>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C152" s="16"/>
+      <c r="C152" s="15"/>
       <c r="E152" s="2"/>
       <c r="G152" s="2"/>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C153" s="16"/>
+      <c r="C153" s="15"/>
       <c r="E153" s="2"/>
       <c r="G153" s="2"/>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C154" s="16"/>
+      <c r="C154" s="15"/>
       <c r="E154" s="2"/>
       <c r="G154" s="2"/>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C155" s="16"/>
+      <c r="C155" s="15"/>
       <c r="E155" s="2"/>
       <c r="G155" s="2"/>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C156" s="16"/>
+      <c r="C156" s="15"/>
       <c r="E156" s="2"/>
       <c r="G156" s="2"/>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C157" s="16"/>
+      <c r="C157" s="15"/>
       <c r="E157" s="2"/>
       <c r="G157" s="2"/>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C158" s="16"/>
+      <c r="C158" s="15"/>
       <c r="E158" s="2"/>
       <c r="G158" s="2"/>
     </row>
     <row r="159" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C159" s="16"/>
+      <c r="C159" s="15"/>
       <c r="E159" s="2"/>
       <c r="G159" s="2"/>
     </row>
     <row r="160" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C160" s="16"/>
+      <c r="C160" s="15"/>
       <c r="E160" s="2"/>
       <c r="G160" s="2"/>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C161" s="16"/>
+      <c r="C161" s="15"/>
       <c r="E161" s="2"/>
       <c r="G161" s="2"/>
     </row>
     <row r="162" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C162" s="16"/>
+      <c r="C162" s="15"/>
       <c r="E162" s="2"/>
       <c r="G162" s="2"/>
     </row>
     <row r="163" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C163" s="16"/>
+      <c r="C163" s="15"/>
       <c r="E163" s="2"/>
       <c r="G163" s="2"/>
     </row>
     <row r="164" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C164" s="16"/>
+      <c r="C164" s="15"/>
       <c r="E164" s="2"/>
       <c r="G164" s="2"/>
     </row>
     <row r="165" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C165" s="16"/>
+      <c r="C165" s="15"/>
       <c r="E165" s="2"/>
       <c r="G165" s="2"/>
     </row>
     <row r="166" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C166" s="16"/>
+      <c r="C166" s="15"/>
       <c r="E166" s="2"/>
       <c r="G166" s="2"/>
     </row>
     <row r="167" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C167" s="16"/>
+      <c r="C167" s="15"/>
       <c r="E167" s="2"/>
       <c r="G167" s="2"/>
     </row>
     <row r="168" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C168" s="16"/>
+      <c r="C168" s="15"/>
       <c r="E168" s="2"/>
       <c r="G168" s="2"/>
     </row>
     <row r="169" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C169" s="16"/>
+      <c r="C169" s="15"/>
       <c r="E169" s="2"/>
       <c r="G169" s="2"/>
     </row>
     <row r="170" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C170" s="16"/>
+      <c r="C170" s="15"/>
       <c r="E170" s="2"/>
       <c r="G170" s="2"/>
     </row>
     <row r="171" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C171" s="16"/>
+      <c r="C171" s="15"/>
       <c r="E171" s="2"/>
       <c r="G171" s="2"/>
     </row>
     <row r="172" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C172" s="16"/>
+      <c r="C172" s="15"/>
       <c r="E172" s="2"/>
       <c r="G172" s="2"/>
     </row>
     <row r="173" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C173" s="16"/>
+      <c r="C173" s="15"/>
       <c r="E173" s="2"/>
       <c r="G173" s="2"/>
     </row>
     <row r="174" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C174" s="16"/>
+      <c r="C174" s="15"/>
       <c r="E174" s="2"/>
       <c r="G174" s="2"/>
     </row>
     <row r="175" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C175" s="16"/>
+      <c r="C175" s="15"/>
       <c r="E175" s="2"/>
       <c r="G175" s="2"/>
     </row>
     <row r="176" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C176" s="16"/>
+      <c r="C176" s="15"/>
       <c r="E176" s="2"/>
       <c r="G176" s="2"/>
     </row>
     <row r="177" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C177" s="16"/>
+      <c r="C177" s="15"/>
       <c r="E177" s="2"/>
       <c r="G177" s="2"/>
     </row>
     <row r="178" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C178" s="16"/>
+      <c r="C178" s="15"/>
       <c r="E178" s="2"/>
       <c r="G178" s="2"/>
     </row>
     <row r="179" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C179" s="16"/>
+      <c r="C179" s="15"/>
       <c r="E179" s="2"/>
       <c r="G179" s="2"/>
     </row>
     <row r="180" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C180" s="16"/>
+      <c r="C180" s="15"/>
       <c r="E180" s="2"/>
       <c r="G180" s="2"/>
     </row>
     <row r="181" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C181" s="16"/>
+      <c r="C181" s="15"/>
       <c r="E181" s="2"/>
       <c r="G181" s="2"/>
     </row>
     <row r="182" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C182" s="16"/>
+      <c r="C182" s="15"/>
       <c r="E182" s="2"/>
       <c r="G182" s="2"/>
     </row>
     <row r="183" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C183" s="16"/>
+      <c r="C183" s="15"/>
       <c r="E183" s="2"/>
       <c r="G183" s="2"/>
     </row>
     <row r="184" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C184" s="16"/>
+      <c r="C184" s="15"/>
       <c r="E184" s="2"/>
       <c r="G184" s="2"/>
     </row>
     <row r="185" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C185" s="16"/>
+      <c r="C185" s="15"/>
       <c r="E185" s="2"/>
       <c r="G185" s="2"/>
     </row>
     <row r="186" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C186" s="16"/>
+      <c r="C186" s="15"/>
       <c r="E186" s="2"/>
       <c r="G186" s="2"/>
     </row>
     <row r="187" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C187" s="16"/>
+      <c r="C187" s="15"/>
       <c r="E187" s="2"/>
       <c r="G187" s="2"/>
     </row>
     <row r="188" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C188" s="16"/>
+      <c r="C188" s="15"/>
       <c r="E188" s="2"/>
       <c r="G188" s="2"/>
     </row>
     <row r="189" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C189" s="16"/>
+      <c r="C189" s="15"/>
       <c r="E189" s="2"/>
       <c r="G189" s="2"/>
     </row>
     <row r="190" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C190" s="16"/>
+      <c r="C190" s="15"/>
       <c r="E190" s="2"/>
       <c r="G190" s="2"/>
     </row>
     <row r="191" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C191" s="16"/>
+      <c r="C191" s="15"/>
       <c r="E191" s="2"/>
       <c r="G191" s="2"/>
     </row>
     <row r="192" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C192" s="16"/>
+      <c r="C192" s="15"/>
       <c r="E192" s="2"/>
       <c r="G192" s="2"/>
     </row>
     <row r="193" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C193" s="16"/>
+      <c r="C193" s="15"/>
       <c r="E193" s="2"/>
       <c r="G193" s="2"/>
     </row>
     <row r="194" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C194" s="16"/>
+      <c r="C194" s="15"/>
       <c r="E194" s="2"/>
       <c r="G194" s="2"/>
     </row>
     <row r="195" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C195" s="16"/>
+      <c r="C195" s="15"/>
       <c r="E195" s="2"/>
       <c r="G195" s="2"/>
     </row>
     <row r="196" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C196" s="16"/>
+      <c r="C196" s="15"/>
       <c r="E196" s="2"/>
       <c r="G196" s="2"/>
     </row>
     <row r="197" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C197" s="16"/>
+      <c r="C197" s="15"/>
       <c r="E197" s="2"/>
       <c r="G197" s="2"/>
     </row>
     <row r="198" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C198" s="16"/>
+      <c r="C198" s="15"/>
       <c r="E198" s="2"/>
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C199" s="16"/>
+      <c r="C199" s="15"/>
       <c r="E199" s="2"/>
       <c r="G199" s="2"/>
     </row>
     <row r="200" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C200" s="16"/>
+      <c r="C200" s="15"/>
       <c r="E200" s="2"/>
       <c r="G200" s="2"/>
     </row>
     <row r="201" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C201" s="16"/>
+      <c r="C201" s="15"/>
       <c r="E201" s="2"/>
       <c r="G201" s="2"/>
     </row>
     <row r="202" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C202" s="16"/>
+      <c r="C202" s="15"/>
       <c r="E202" s="2"/>
       <c r="G202" s="2"/>
     </row>
     <row r="203" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C203" s="16"/>
+      <c r="C203" s="15"/>
       <c r="E203" s="2"/>
       <c r="G203" s="2"/>
     </row>
     <row r="204" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C204" s="16"/>
+      <c r="C204" s="15"/>
       <c r="E204" s="2"/>
       <c r="G204" s="2"/>
     </row>
     <row r="205" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C205" s="16"/>
+      <c r="C205" s="15"/>
       <c r="E205" s="2"/>
       <c r="G205" s="2"/>
     </row>
     <row r="206" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C206" s="16"/>
+      <c r="C206" s="15"/>
       <c r="E206" s="2"/>
       <c r="G206" s="2"/>
     </row>
     <row r="207" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C207" s="16"/>
+      <c r="C207" s="15"/>
       <c r="E207" s="2"/>
       <c r="G207" s="2"/>
     </row>
     <row r="208" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C208" s="16"/>
+      <c r="C208" s="15"/>
       <c r="E208" s="2"/>
       <c r="G208" s="2"/>
     </row>
     <row r="209" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C209" s="16"/>
+      <c r="C209" s="15"/>
       <c r="E209" s="2"/>
       <c r="G209" s="2"/>
     </row>
     <row r="210" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C210" s="16"/>
+      <c r="C210" s="15"/>
       <c r="E210" s="2"/>
       <c r="G210" s="2"/>
     </row>
     <row r="211" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C211" s="16"/>
+      <c r="C211" s="15"/>
       <c r="E211" s="2"/>
       <c r="G211" s="2"/>
     </row>
     <row r="212" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C212" s="16"/>
+      <c r="C212" s="15"/>
       <c r="E212" s="2"/>
       <c r="G212" s="2"/>
     </row>
     <row r="213" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C213" s="16"/>
+      <c r="C213" s="15"/>
       <c r="E213" s="2"/>
       <c r="G213" s="2"/>
     </row>
     <row r="214" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C214" s="16"/>
+      <c r="C214" s="15"/>
       <c r="E214" s="2"/>
       <c r="G214" s="2"/>
     </row>
     <row r="215" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C215" s="16"/>
+      <c r="C215" s="15"/>
       <c r="E215" s="2"/>
       <c r="G215" s="2"/>
     </row>
     <row r="216" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C216" s="16"/>
+      <c r="C216" s="15"/>
       <c r="E216" s="2"/>
       <c r="G216" s="2"/>
     </row>
     <row r="217" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C217" s="16"/>
+      <c r="C217" s="15"/>
       <c r="E217" s="2"/>
       <c r="G217" s="2"/>
     </row>
     <row r="218" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C218" s="16"/>
+      <c r="C218" s="15"/>
       <c r="E218" s="2"/>
       <c r="G218" s="2"/>
     </row>
     <row r="219" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C219" s="16"/>
+      <c r="C219" s="15"/>
       <c r="E219" s="2"/>
       <c r="G219" s="2"/>
     </row>
     <row r="220" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C220" s="16"/>
+      <c r="C220" s="15"/>
       <c r="E220" s="2"/>
       <c r="G220" s="2"/>
     </row>
     <row r="221" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C221" s="16"/>
+      <c r="C221" s="15"/>
       <c r="E221" s="2"/>
       <c r="G221" s="2"/>
     </row>
     <row r="222" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C222" s="16"/>
+      <c r="C222" s="15"/>
       <c r="E222" s="2"/>
       <c r="G222" s="2"/>
     </row>
     <row r="223" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C223" s="16"/>
+      <c r="C223" s="15"/>
       <c r="E223" s="2"/>
       <c r="G223" s="2"/>
     </row>
     <row r="224" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C224" s="16"/>
+      <c r="C224" s="15"/>
       <c r="E224" s="2"/>
       <c r="G224" s="2"/>
     </row>
     <row r="225" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C225" s="16"/>
+      <c r="C225" s="15"/>
       <c r="E225" s="2"/>
       <c r="G225" s="2"/>
     </row>
     <row r="226" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C226" s="16"/>
+      <c r="C226" s="15"/>
       <c r="E226" s="2"/>
       <c r="G226" s="2"/>
     </row>
     <row r="227" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C227" s="16"/>
+      <c r="C227" s="15"/>
       <c r="E227" s="2"/>
       <c r="G227" s="2"/>
     </row>
     <row r="228" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C228" s="16"/>
+      <c r="C228" s="15"/>
       <c r="E228" s="2"/>
       <c r="G228" s="2"/>
     </row>
     <row r="229" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C229" s="16"/>
+      <c r="C229" s="15"/>
       <c r="E229" s="2"/>
       <c r="G229" s="2"/>
     </row>
     <row r="230" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C230" s="16"/>
+      <c r="C230" s="15"/>
       <c r="E230" s="2"/>
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C231" s="16"/>
+      <c r="C231" s="15"/>
       <c r="E231" s="2"/>
       <c r="G231" s="2"/>
     </row>
     <row r="232" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C232" s="16"/>
+      <c r="C232" s="15"/>
       <c r="E232" s="2"/>
       <c r="G232" s="2"/>
     </row>
     <row r="233" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C233" s="16"/>
+      <c r="C233" s="15"/>
       <c r="E233" s="2"/>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C234" s="16"/>
+      <c r="C234" s="15"/>
       <c r="E234" s="2"/>
       <c r="G234" s="2"/>
     </row>
     <row r="235" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C235" s="16"/>
+      <c r="C235" s="15"/>
       <c r="E235" s="2"/>
       <c r="G235" s="2"/>
     </row>
     <row r="236" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C236" s="16"/>
+      <c r="C236" s="15"/>
       <c r="E236" s="2"/>
       <c r="G236" s="2"/>
     </row>
     <row r="237" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C237" s="16"/>
+      <c r="C237" s="15"/>
       <c r="E237" s="2"/>
       <c r="G237" s="2"/>
     </row>
     <row r="238" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C238" s="16"/>
+      <c r="C238" s="15"/>
       <c r="E238" s="2"/>
       <c r="G238" s="2"/>
     </row>
     <row r="239" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C239" s="16"/>
+      <c r="C239" s="15"/>
       <c r="E239" s="2"/>
       <c r="G239" s="2"/>
     </row>
     <row r="240" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C240" s="16"/>
+      <c r="C240" s="15"/>
       <c r="E240" s="2"/>
       <c r="G240" s="2"/>
     </row>
     <row r="241" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C241" s="16"/>
+      <c r="C241" s="15"/>
       <c r="E241" s="2"/>
       <c r="G241" s="2"/>
     </row>
     <row r="242" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C242" s="16"/>
+      <c r="C242" s="15"/>
       <c r="E242" s="2"/>
       <c r="G242" s="2"/>
     </row>
     <row r="243" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C243" s="16"/>
+      <c r="C243" s="15"/>
       <c r="E243" s="2"/>
       <c r="G243" s="2"/>
     </row>
     <row r="244" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C244" s="16"/>
+      <c r="C244" s="15"/>
       <c r="E244" s="2"/>
       <c r="G244" s="2"/>
     </row>
     <row r="245" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C245" s="16"/>
+      <c r="C245" s="15"/>
       <c r="E245" s="2"/>
       <c r="G245" s="2"/>
     </row>
     <row r="246" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C246" s="16"/>
+      <c r="C246" s="15"/>
       <c r="E246" s="2"/>
       <c r="G246" s="2"/>
     </row>
     <row r="247" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C247" s="16"/>
+      <c r="C247" s="15"/>
       <c r="E247" s="2"/>
       <c r="G247" s="2"/>
     </row>
     <row r="248" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C248" s="16"/>
+      <c r="C248" s="15"/>
       <c r="E248" s="2"/>
       <c r="G248" s="2"/>
     </row>
     <row r="249" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C249" s="16"/>
+      <c r="C249" s="15"/>
       <c r="E249" s="2"/>
       <c r="G249" s="2"/>
     </row>
     <row r="250" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C250" s="16"/>
+      <c r="C250" s="15"/>
       <c r="E250" s="2"/>
       <c r="G250" s="2"/>
     </row>
     <row r="251" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C251" s="16"/>
+      <c r="C251" s="15"/>
       <c r="E251" s="2"/>
       <c r="G251" s="2"/>
     </row>
     <row r="252" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C252" s="16"/>
+      <c r="C252" s="15"/>
       <c r="E252" s="2"/>
       <c r="G252" s="2"/>
     </row>
     <row r="253" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C253" s="16"/>
+      <c r="C253" s="15"/>
       <c r="E253" s="2"/>
       <c r="G253" s="2"/>
     </row>
     <row r="254" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C254" s="16"/>
+      <c r="C254" s="15"/>
       <c r="E254" s="2"/>
       <c r="G254" s="2"/>
     </row>
     <row r="255" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C255" s="16"/>
+      <c r="C255" s="15"/>
       <c r="E255" s="2"/>
       <c r="G255" s="2"/>
     </row>
     <row r="256" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C256" s="16"/>
+      <c r="C256" s="15"/>
       <c r="E256" s="2"/>
       <c r="G256" s="2"/>
     </row>
     <row r="257" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C257" s="16"/>
+      <c r="C257" s="15"/>
       <c r="E257" s="2"/>
       <c r="G257" s="2"/>
     </row>
     <row r="258" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C258" s="16"/>
+      <c r="C258" s="15"/>
       <c r="E258" s="2"/>
       <c r="G258" s="2"/>
     </row>
     <row r="259" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C259" s="16"/>
+      <c r="C259" s="15"/>
       <c r="E259" s="2"/>
       <c r="G259" s="2"/>
     </row>
     <row r="260" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C260" s="16"/>
+      <c r="C260" s="15"/>
       <c r="E260" s="2"/>
       <c r="G260" s="2"/>
     </row>
     <row r="261" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C261" s="16"/>
+      <c r="C261" s="15"/>
       <c r="E261" s="2"/>
       <c r="G261" s="2"/>
     </row>
     <row r="262" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C262" s="16"/>
+      <c r="C262" s="15"/>
       <c r="E262" s="2"/>
       <c r="G262" s="2"/>
     </row>
     <row r="263" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C263" s="16"/>
+      <c r="C263" s="15"/>
       <c r="E263" s="2"/>
       <c r="G263" s="2"/>
     </row>
     <row r="264" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C264" s="16"/>
+      <c r="C264" s="15"/>
       <c r="E264" s="2"/>
       <c r="G264" s="2"/>
     </row>
     <row r="265" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C265" s="16"/>
+      <c r="C265" s="15"/>
       <c r="E265" s="2"/>
       <c r="G265" s="2"/>
     </row>
     <row r="266" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C266" s="16"/>
+      <c r="C266" s="15"/>
       <c r="E266" s="2"/>
       <c r="G266" s="2"/>
     </row>
     <row r="267" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C267" s="16"/>
+      <c r="C267" s="15"/>
       <c r="E267" s="2"/>
       <c r="G267" s="2"/>
     </row>
     <row r="268" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C268" s="16"/>
+      <c r="C268" s="15"/>
       <c r="E268" s="2"/>
       <c r="G268" s="2"/>
     </row>
     <row r="269" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C269" s="16"/>
+      <c r="C269" s="15"/>
       <c r="E269" s="2"/>
       <c r="G269" s="2"/>
     </row>
     <row r="270" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C270" s="16"/>
+      <c r="C270" s="15"/>
       <c r="E270" s="2"/>
       <c r="G270" s="2"/>
     </row>
     <row r="271" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C271" s="16"/>
+      <c r="C271" s="15"/>
       <c r="E271" s="2"/>
       <c r="G271" s="2"/>
     </row>
     <row r="272" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C272" s="16"/>
+      <c r="C272" s="15"/>
       <c r="E272" s="2"/>
       <c r="G272" s="2"/>
     </row>
     <row r="273" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C273" s="16"/>
+      <c r="C273" s="15"/>
       <c r="E273" s="2"/>
       <c r="G273" s="2"/>
     </row>
     <row r="274" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C274" s="16"/>
+      <c r="C274" s="15"/>
       <c r="E274" s="2"/>
       <c r="G274" s="2"/>
     </row>
     <row r="275" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C275" s="16"/>
+      <c r="C275" s="15"/>
       <c r="E275" s="2"/>
       <c r="G275" s="2"/>
     </row>
     <row r="276" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C276" s="16"/>
+      <c r="C276" s="15"/>
       <c r="E276" s="2"/>
       <c r="G276" s="2"/>
     </row>
     <row r="277" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C277" s="16"/>
+      <c r="C277" s="15"/>
       <c r="E277" s="2"/>
       <c r="G277" s="2"/>
     </row>
     <row r="278" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C278" s="16"/>
+      <c r="C278" s="15"/>
       <c r="E278" s="2"/>
       <c r="G278" s="2"/>
     </row>
     <row r="279" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C279" s="16"/>
+      <c r="C279" s="15"/>
       <c r="E279" s="2"/>
       <c r="G279" s="2"/>
     </row>
     <row r="280" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C280" s="16"/>
+      <c r="C280" s="15"/>
       <c r="E280" s="2"/>
       <c r="G280" s="2"/>
     </row>
     <row r="281" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C281" s="16"/>
+      <c r="C281" s="15"/>
       <c r="E281" s="2"/>
       <c r="G281" s="2"/>
     </row>
     <row r="282" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C282" s="16"/>
+      <c r="C282" s="15"/>
       <c r="E282" s="2"/>
       <c r="G282" s="2"/>
     </row>
     <row r="283" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C283" s="16"/>
+      <c r="C283" s="15"/>
       <c r="E283" s="2"/>
       <c r="G283" s="2"/>
     </row>
     <row r="284" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C284" s="16"/>
+      <c r="C284" s="15"/>
       <c r="E284" s="2"/>
       <c r="G284" s="2"/>
     </row>
     <row r="285" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C285" s="16"/>
+      <c r="C285" s="15"/>
       <c r="E285" s="2"/>
       <c r="G285" s="2"/>
     </row>
     <row r="286" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C286" s="16"/>
+      <c r="C286" s="15"/>
       <c r="E286" s="2"/>
       <c r="G286" s="2"/>
     </row>
     <row r="287" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C287" s="16"/>
+      <c r="C287" s="15"/>
       <c r="E287" s="2"/>
       <c r="G287" s="2"/>
     </row>
     <row r="288" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C288" s="16"/>
+      <c r="C288" s="15"/>
       <c r="E288" s="2"/>
       <c r="G288" s="2"/>
     </row>
     <row r="289" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C289" s="16"/>
+      <c r="C289" s="15"/>
       <c r="E289" s="2"/>
       <c r="G289" s="2"/>
     </row>
     <row r="290" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C290" s="16"/>
+      <c r="C290" s="15"/>
       <c r="E290" s="2"/>
       <c r="G290" s="2"/>
     </row>
     <row r="291" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C291" s="16"/>
+      <c r="C291" s="15"/>
       <c r="E291" s="2"/>
       <c r="G291" s="2"/>
     </row>
     <row r="292" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C292" s="16"/>
+      <c r="C292" s="15"/>
       <c r="E292" s="2"/>
       <c r="G292" s="2"/>
     </row>
     <row r="293" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C293" s="16"/>
+      <c r="C293" s="15"/>
       <c r="E293" s="2"/>
       <c r="G293" s="2"/>
     </row>
     <row r="294" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C294" s="16"/>
+      <c r="C294" s="15"/>
       <c r="E294" s="2"/>
       <c r="G294" s="2"/>
     </row>
     <row r="295" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C295" s="16"/>
+      <c r="C295" s="15"/>
       <c r="E295" s="2"/>
       <c r="G295" s="2"/>
     </row>
     <row r="296" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C296" s="16"/>
+      <c r="C296" s="15"/>
       <c r="E296" s="2"/>
       <c r="G296" s="2"/>
     </row>
     <row r="297" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C297" s="16"/>
+      <c r="C297" s="15"/>
       <c r="E297" s="2"/>
       <c r="G297" s="2"/>
     </row>
     <row r="298" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C298" s="16"/>
+      <c r="C298" s="15"/>
       <c r="E298" s="2"/>
       <c r="G298" s="2"/>
     </row>
     <row r="299" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C299" s="16"/>
+      <c r="C299" s="15"/>
       <c r="E299" s="2"/>
       <c r="G299" s="2"/>
     </row>
     <row r="300" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C300" s="16"/>
+      <c r="C300" s="15"/>
       <c r="E300" s="2"/>
       <c r="G300" s="2"/>
     </row>
     <row r="301" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C301" s="16"/>
+      <c r="C301" s="15"/>
       <c r="E301" s="2"/>
       <c r="G301" s="2"/>
     </row>
     <row r="302" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C302" s="16"/>
+      <c r="C302" s="15"/>
       <c r="E302" s="2"/>
       <c r="G302" s="2"/>
     </row>
     <row r="303" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C303" s="16"/>
+      <c r="C303" s="15"/>
       <c r="E303" s="2"/>
       <c r="G303" s="2"/>
     </row>
     <row r="304" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C304" s="16"/>
+      <c r="C304" s="15"/>
       <c r="E304" s="2"/>
       <c r="G304" s="2"/>
     </row>
     <row r="305" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C305" s="16"/>
+      <c r="C305" s="15"/>
       <c r="E305" s="2"/>
       <c r="G305" s="2"/>
     </row>
     <row r="306" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C306" s="16"/>
+      <c r="C306" s="15"/>
       <c r="E306" s="2"/>
       <c r="G306" s="2"/>
     </row>
     <row r="307" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C307" s="16"/>
+      <c r="C307" s="15"/>
       <c r="E307" s="2"/>
       <c r="G307" s="2"/>
     </row>
     <row r="308" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C308" s="16"/>
+      <c r="C308" s="15"/>
       <c r="E308" s="2"/>
       <c r="G308" s="2"/>
     </row>
     <row r="309" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C309" s="16"/>
+      <c r="C309" s="15"/>
       <c r="E309" s="2"/>
       <c r="G309" s="2"/>
     </row>
     <row r="310" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C310" s="16"/>
+      <c r="C310" s="15"/>
       <c r="E310" s="2"/>
       <c r="G310" s="2"/>
     </row>
     <row r="311" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C311" s="16"/>
+      <c r="C311" s="15"/>
       <c r="E311" s="2"/>
       <c r="G311" s="2"/>
     </row>
     <row r="312" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C312" s="16"/>
+      <c r="C312" s="15"/>
       <c r="E312" s="2"/>
       <c r="G312" s="2"/>
     </row>
     <row r="313" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C313" s="16"/>
+      <c r="C313" s="15"/>
       <c r="E313" s="2"/>
       <c r="G313" s="2"/>
     </row>
     <row r="314" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C314" s="16"/>
+      <c r="C314" s="15"/>
       <c r="E314" s="2"/>
       <c r="G314" s="2"/>
     </row>
     <row r="315" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C315" s="16"/>
+      <c r="C315" s="15"/>
       <c r="E315" s="2"/>
       <c r="G315" s="2"/>
     </row>
     <row r="316" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C316" s="16"/>
+      <c r="C316" s="15"/>
       <c r="E316" s="2"/>
       <c r="G316" s="2"/>
     </row>
     <row r="317" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C317" s="16"/>
+      <c r="C317" s="15"/>
       <c r="E317" s="2"/>
       <c r="G317" s="2"/>
     </row>
     <row r="318" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C318" s="16"/>
+      <c r="C318" s="15"/>
       <c r="E318" s="2"/>
       <c r="G318" s="2"/>
     </row>
     <row r="319" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C319" s="16"/>
+      <c r="C319" s="15"/>
       <c r="E319" s="2"/>
       <c r="G319" s="2"/>
     </row>
     <row r="320" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C320" s="16"/>
+      <c r="C320" s="15"/>
       <c r="E320" s="2"/>
       <c r="G320" s="2"/>
     </row>
     <row r="321" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C321" s="16"/>
+      <c r="C321" s="15"/>
       <c r="E321" s="2"/>
       <c r="G321" s="2"/>
     </row>
     <row r="322" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C322" s="16"/>
+      <c r="C322" s="15"/>
       <c r="E322" s="2"/>
       <c r="G322" s="2"/>
     </row>
     <row r="323" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C323" s="16"/>
+      <c r="C323" s="15"/>
       <c r="E323" s="2"/>
       <c r="G323" s="2"/>
     </row>
     <row r="324" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C324" s="16"/>
+      <c r="C324" s="15"/>
       <c r="E324" s="2"/>
       <c r="G324" s="2"/>
     </row>
     <row r="325" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C325" s="16"/>
+      <c r="C325" s="15"/>
       <c r="E325" s="2"/>
       <c r="G325" s="2"/>
     </row>
     <row r="326" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C326" s="16"/>
+      <c r="C326" s="15"/>
       <c r="E326" s="2"/>
       <c r="G326" s="2"/>
     </row>
     <row r="327" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C327" s="16"/>
+      <c r="C327" s="15"/>
       <c r="E327" s="2"/>
       <c r="G327" s="2"/>
     </row>
     <row r="328" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C328" s="16"/>
+      <c r="C328" s="15"/>
       <c r="E328" s="2"/>
       <c r="G328" s="2"/>
     </row>
     <row r="329" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C329" s="16"/>
+      <c r="C329" s="15"/>
       <c r="E329" s="2"/>
       <c r="G329" s="2"/>
     </row>
     <row r="330" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C330" s="16"/>
+      <c r="C330" s="15"/>
       <c r="E330" s="2"/>
       <c r="G330" s="2"/>
     </row>
     <row r="331" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C331" s="16"/>
+      <c r="C331" s="15"/>
       <c r="E331" s="2"/>
       <c r="G331" s="2"/>
     </row>
     <row r="332" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C332" s="16"/>
+      <c r="C332" s="15"/>
       <c r="E332" s="2"/>
       <c r="G332" s="2"/>
     </row>
     <row r="333" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C333" s="16"/>
+      <c r="C333" s="15"/>
       <c r="E333" s="2"/>
       <c r="G333" s="2"/>
     </row>
     <row r="334" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C334" s="16"/>
+      <c r="C334" s="15"/>
       <c r="E334" s="2"/>
       <c r="G334" s="2"/>
     </row>
     <row r="335" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C335" s="16"/>
+      <c r="C335" s="15"/>
       <c r="E335" s="2"/>
       <c r="G335" s="2"/>
     </row>
     <row r="336" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C336" s="16"/>
+      <c r="C336" s="15"/>
       <c r="E336" s="2"/>
       <c r="G336" s="2"/>
     </row>
     <row r="337" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C337" s="16"/>
+      <c r="C337" s="15"/>
       <c r="E337" s="2"/>
       <c r="G337" s="2"/>
     </row>
     <row r="338" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C338" s="16"/>
+      <c r="C338" s="15"/>
       <c r="E338" s="2"/>
       <c r="G338" s="2"/>
     </row>
     <row r="339" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C339" s="16"/>
+      <c r="C339" s="15"/>
       <c r="E339" s="2"/>
       <c r="G339" s="2"/>
     </row>
     <row r="340" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C340" s="16"/>
+      <c r="C340" s="15"/>
       <c r="E340" s="2"/>
       <c r="G340" s="2"/>
     </row>
     <row r="341" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C341" s="16"/>
+      <c r="C341" s="15"/>
       <c r="E341" s="2"/>
       <c r="G341" s="2"/>
     </row>
     <row r="342" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C342" s="16"/>
+      <c r="C342" s="15"/>
       <c r="E342" s="2"/>
       <c r="G342" s="2"/>
     </row>
     <row r="343" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C343" s="16"/>
+      <c r="C343" s="15"/>
       <c r="E343" s="2"/>
       <c r="G343" s="2"/>
     </row>
     <row r="344" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C344" s="16"/>
+      <c r="C344" s="15"/>
       <c r="E344" s="2"/>
       <c r="G344" s="2"/>
     </row>
     <row r="345" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C345" s="16"/>
+      <c r="C345" s="15"/>
       <c r="E345" s="2"/>
       <c r="G345" s="2"/>
     </row>
     <row r="346" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C346" s="16"/>
+      <c r="C346" s="15"/>
       <c r="E346" s="2"/>
       <c r="G346" s="2"/>
     </row>
     <row r="347" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C347" s="16"/>
+      <c r="C347" s="15"/>
       <c r="E347" s="2"/>
       <c r="G347" s="2"/>
     </row>
     <row r="348" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C348" s="16"/>
+      <c r="C348" s="15"/>
       <c r="E348" s="2"/>
       <c r="G348" s="2"/>
     </row>
     <row r="349" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C349" s="16"/>
+      <c r="C349" s="15"/>
       <c r="E349" s="2"/>
       <c r="G349" s="2"/>
     </row>
     <row r="350" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C350" s="16"/>
+      <c r="C350" s="15"/>
       <c r="E350" s="2"/>
       <c r="G350" s="2"/>
     </row>
     <row r="351" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C351" s="16"/>
+      <c r="C351" s="15"/>
       <c r="E351" s="2"/>
       <c r="G351" s="2"/>
     </row>
     <row r="352" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C352" s="16"/>
+      <c r="C352" s="15"/>
       <c r="E352" s="2"/>
       <c r="G352" s="2"/>
     </row>
     <row r="353" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C353" s="16"/>
+      <c r="C353" s="15"/>
       <c r="E353" s="2"/>
       <c r="G353" s="2"/>
     </row>
     <row r="354" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C354" s="16"/>
+      <c r="C354" s="15"/>
       <c r="E354" s="2"/>
       <c r="G354" s="2"/>
     </row>
     <row r="355" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C355" s="16"/>
+      <c r="C355" s="15"/>
       <c r="E355" s="2"/>
       <c r="G355" s="2"/>
     </row>
     <row r="356" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C356" s="16"/>
+      <c r="C356" s="15"/>
       <c r="E356" s="2"/>
       <c r="G356" s="2"/>
     </row>
     <row r="357" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C357" s="16"/>
+      <c r="C357" s="15"/>
       <c r="E357" s="2"/>
       <c r="G357" s="2"/>
     </row>
     <row r="358" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C358" s="16"/>
+      <c r="C358" s="15"/>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C359" s="16"/>
+      <c r="C359" s="15"/>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C360" s="16"/>
+      <c r="C360" s="15"/>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C361" s="16"/>
+      <c r="C361" s="15"/>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C362" s="16"/>
+      <c r="C362" s="15"/>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C363" s="16"/>
+      <c r="C363" s="15"/>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C364" s="16"/>
+      <c r="C364" s="15"/>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C365" s="16"/>
+      <c r="C365" s="15"/>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C366" s="16"/>
+      <c r="C366" s="15"/>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C367" s="16"/>
+      <c r="C367" s="15"/>
       <c r="E367" s="2"/>
     </row>
     <row r="368" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C368" s="16"/>
+      <c r="C368" s="15"/>
       <c r="E368" s="2"/>
     </row>
     <row r="369" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C369" s="16"/>
+      <c r="C369" s="15"/>
       <c r="E369" s="2"/>
     </row>
     <row r="370" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C370" s="16"/>
+      <c r="C370" s="15"/>
       <c r="E370" s="2"/>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C371" s="16"/>
+      <c r="C371" s="15"/>
       <c r="E371" s="2"/>
     </row>
     <row r="372" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C372" s="16"/>
+      <c r="C372" s="15"/>
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C373" s="16"/>
+      <c r="C373" s="15"/>
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C374" s="16"/>
+      <c r="C374" s="15"/>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C375" s="16"/>
+      <c r="C375" s="15"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C376" s="16"/>
+      <c r="C376" s="15"/>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C377" s="16"/>
+      <c r="C377" s="15"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C378" s="16"/>
+      <c r="C378" s="15"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C379" s="16"/>
+      <c r="C379" s="15"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C380" s="16"/>
+      <c r="C380" s="15"/>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C381" s="16"/>
+      <c r="C381" s="15"/>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C382" s="16"/>
+      <c r="C382" s="15"/>
       <c r="E382" s="2"/>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C383" s="16"/>
+      <c r="C383" s="15"/>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C384" s="16"/>
+      <c r="C384" s="15"/>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C385" s="16"/>
+      <c r="C385" s="15"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C386" s="16"/>
+      <c r="C386" s="15"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C387" s="16"/>
+      <c r="C387" s="15"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C388" s="16"/>
+      <c r="C388" s="15"/>
       <c r="E388" s="2"/>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C389" s="16"/>
+      <c r="C389" s="15"/>
       <c r="E389" s="2"/>
     </row>
     <row r="390" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C390" s="16"/>
+      <c r="C390" s="15"/>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C391" s="16"/>
+      <c r="C391" s="15"/>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C392" s="16"/>
+      <c r="C392" s="15"/>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C393" s="16"/>
+      <c r="C393" s="15"/>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C394" s="16"/>
+      <c r="C394" s="15"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C395" s="16"/>
+      <c r="C395" s="15"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C396" s="16"/>
+      <c r="C396" s="15"/>
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C397" s="16"/>
+      <c r="C397" s="15"/>
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C398" s="16"/>
+      <c r="C398" s="15"/>
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C399" s="16"/>
+      <c r="C399" s="15"/>
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C400" s="16"/>
+      <c r="C400" s="15"/>
       <c r="E400" s="2"/>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C401" s="16"/>
+      <c r="C401" s="15"/>
       <c r="E401" s="2"/>
     </row>
     <row r="402" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C402" s="16"/>
+      <c r="C402" s="15"/>
       <c r="E402" s="2"/>
     </row>
     <row r="403" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C403" s="16"/>
+      <c r="C403" s="15"/>
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C404" s="16"/>
+      <c r="C404" s="15"/>
       <c r="E404" s="2"/>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C405" s="16"/>
+      <c r="C405" s="15"/>
       <c r="E405" s="2"/>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C406" s="16"/>
+      <c r="C406" s="15"/>
       <c r="E406" s="2"/>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C407" s="16"/>
+      <c r="C407" s="15"/>
       <c r="E407" s="2"/>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C408" s="16"/>
+      <c r="C408" s="15"/>
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C409" s="16"/>
+      <c r="C409" s="15"/>
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C410" s="16"/>
+      <c r="C410" s="15"/>
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C411" s="16"/>
+      <c r="C411" s="15"/>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C412" s="16"/>
+      <c r="C412" s="15"/>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C413" s="16"/>
+      <c r="C413" s="15"/>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C414" s="16"/>
+      <c r="C414" s="15"/>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C415" s="16"/>
+      <c r="C415" s="15"/>
       <c r="E415" s="2"/>
     </row>
     <row r="416" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C416" s="16"/>
+      <c r="C416" s="15"/>
       <c r="E416" s="2"/>
     </row>
     <row r="417" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C417" s="16"/>
+      <c r="C417" s="15"/>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C418" s="16"/>
+      <c r="C418" s="15"/>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C419" s="16"/>
+      <c r="C419" s="15"/>
       <c r="E419" s="2"/>
     </row>
     <row r="420" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C420" s="16"/>
+      <c r="C420" s="15"/>
       <c r="E420" s="2"/>
     </row>
     <row r="421" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C421" s="16"/>
+      <c r="C421" s="15"/>
       <c r="E421" s="2"/>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C422" s="16"/>
+      <c r="C422" s="15"/>
       <c r="E422" s="2"/>
     </row>
     <row r="423" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C423" s="16"/>
+      <c r="C423" s="15"/>
       <c r="E423" s="2"/>
     </row>
     <row r="424" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C424" s="16"/>
+      <c r="C424" s="15"/>
       <c r="E424" s="2"/>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C425" s="16"/>
+      <c r="C425" s="15"/>
       <c r="E425" s="2"/>
     </row>
     <row r="426" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C426" s="16"/>
+      <c r="C426" s="15"/>
       <c r="E426" s="2"/>
     </row>
     <row r="427" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C427" s="16"/>
+      <c r="C427" s="15"/>
       <c r="E427" s="2"/>
     </row>
     <row r="428" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C428" s="16"/>
+      <c r="C428" s="15"/>
       <c r="E428" s="2"/>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C429" s="16"/>
+      <c r="C429" s="15"/>
       <c r="E429" s="2"/>
     </row>
     <row r="430" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C430" s="16"/>
+      <c r="C430" s="15"/>
       <c r="E430" s="2"/>
     </row>
     <row r="431" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C431" s="16"/>
+      <c r="C431" s="15"/>
       <c r="E431" s="2"/>
     </row>
     <row r="432" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C432" s="16"/>
+      <c r="C432" s="15"/>
       <c r="E432" s="2"/>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C433" s="16"/>
+      <c r="C433" s="15"/>
       <c r="E433" s="2"/>
     </row>
     <row r="434" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C434" s="16"/>
+      <c r="C434" s="15"/>
       <c r="E434" s="2"/>
     </row>
     <row r="435" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C435" s="16"/>
+      <c r="C435" s="15"/>
       <c r="E435" s="2"/>
     </row>
     <row r="436" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C436" s="16"/>
+      <c r="C436" s="15"/>
       <c r="E436" s="2"/>
     </row>
     <row r="437" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C437" s="16"/>
+      <c r="C437" s="15"/>
       <c r="E437" s="2"/>
     </row>
     <row r="438" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C438" s="16"/>
+      <c r="C438" s="15"/>
       <c r="E438" s="2"/>
     </row>
     <row r="439" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C439" s="16"/>
+      <c r="C439" s="15"/>
       <c r="E439" s="2"/>
     </row>
     <row r="440" spans="3:5" x14ac:dyDescent="0.3">
@@ -8521,11 +8415,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92863B8-4C87-4474-B5B0-52EEB5BB3C33}">
-  <dimension ref="B2:S107"/>
+  <dimension ref="B2:S105"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8539,1352 +8431,1156 @@
     <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="21" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45103</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2:K3">_xll.TMX.INSTRUMENT(F7)</f>
-        <v>0.16701232742629896</v>
-      </c>
-      <c r="G2">
-        <v>0.33402465485259791</v>
-      </c>
-      <c r="H2">
-        <v>0.50103698227889693</v>
-      </c>
-      <c r="I2">
-        <v>0.67078721671218433</v>
-      </c>
-      <c r="J2">
-        <v>0.83506163713149484</v>
-      </c>
-      <c r="K2">
-        <v>1.0020739645577939</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="F3">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="G3">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="H3">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="I3">
-        <v>8.3333333333333315E-3</v>
-      </c>
-      <c r="J3">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="K3">
-        <v>1.0083333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45103</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H5">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" cm="1">
+        <f t="array" ref="E5">_xll.\TMX.BOND.SIMPLE(B5, C5)</f>
+        <v>3229850279088</v>
+      </c>
+      <c r="F5" s="4" cm="1">
+        <f t="array" ref="F5">_xll.\TMX.BOND.INSTRUMENT(E5, dated)</f>
+        <v>3229848298960</v>
+      </c>
+      <c r="G5" s="4" t="e" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">_xll.\TMX.BOOTSTRAP.CURVE(instrument, price)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5:H105">_xll.ARRAY.SEQUENCE(0,10,H3)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="20" t="e" cm="1">
+        <f t="array" aca="1" ref="I5:I105" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(H5),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.FORWARD(curve,_xlpm.t)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17">
+        <f ca="1">0.05 + 0.01*RAND() - 0.005</f>
+        <v>4.9972679245480892E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">_xll.\TMX.BOND.SIMPLE(B6, C6)</f>
+        <v>1640163491472</v>
+      </c>
+      <c r="F6" s="4" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">_xll.\TMX.BOND.INSTRUMENT(E6, dated)</f>
+        <v>1640477351536</v>
+      </c>
+      <c r="H6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" t="s">
-        <v>61</v>
-      </c>
+      <c r="I6" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" cm="1">
+      <c r="E7" s="4" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>2206068901120</v>
-      </c>
-      <c r="F7" s="5" cm="1">
+        <v>3229850279184</v>
+      </c>
+      <c r="F7" s="4" cm="1">
         <f t="array" ref="F7">_xll.\TMX.BOND.INSTRUMENT(E7, dated)</f>
-        <v>2206070491040</v>
-      </c>
-      <c r="G7" s="5" cm="1">
-        <f t="array" aca="1" ref="G7" ca="1">_xll.\TMX.BOOTSTRAP.CURVE(instrument, price)</f>
-        <v>2207344035216</v>
-      </c>
-      <c r="H7" cm="1">
-        <f t="array" ref="H7:H107">_xlfn.SEQUENCE(1+10/H5,1,0,H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="21" cm="1">
-        <f t="array" aca="1" ref="I7:I107" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(H7),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.FORWARD(curve,_xlpm.t)))</f>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="P7" cm="1">
-        <f t="array" ref="P7:P17">_xlfn.SEQUENCE(11,1,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" cm="1">
-        <f t="array" aca="1" ref="Q7" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P7)</f>
-        <v>1.0000000020174171</v>
-      </c>
-      <c r="R7" s="22" cm="1">
-        <f t="array" aca="1" ref="R7" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P7)</f>
-        <v>-7.915043811885198</v>
-      </c>
-      <c r="S7" s="22" cm="1">
-        <f t="array" aca="1" ref="S7" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P7)</f>
-        <v>72.629839853388773</v>
-      </c>
+        <v>3229848293504</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="18">
-        <f ca="1">0.05 + 0.01*RAND()</f>
-        <v>5.5744507400907098E-2</v>
-      </c>
-      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>2207341077264</v>
-      </c>
-      <c r="F8" s="5" cm="1">
-        <f t="array" aca="1" ref="F8" ca="1">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
-        <v>2207344037152</v>
+      <c r="E8" s="4" cm="1">
+        <f t="array" ref="E8">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
+        <v>3229850276304</v>
+      </c>
+      <c r="F8" s="4" cm="1">
+        <f t="array" ref="F8">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
+        <v>3229848298432</v>
       </c>
       <c r="H8">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="20">
-        <f ca="1"/>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" cm="1">
-        <f t="array" aca="1" ref="Q8" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P8)</f>
-        <v>1.0082294270301151</v>
-      </c>
-      <c r="R8" s="22" cm="1">
-        <f t="array" aca="1" ref="R8" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P8)</f>
-        <v>-7.2887309079783282</v>
-      </c>
-      <c r="S8" s="22" cm="1">
-        <f t="array" aca="1" ref="S8" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P8)</f>
-        <v>60.73117237253939</v>
-      </c>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I8" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="18">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17">
         <v>0.05</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5" cm="1">
+      <c r="E9" s="4" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>2206068900448</v>
-      </c>
-      <c r="F9" s="5" cm="1">
+        <v>3229850276016</v>
+      </c>
+      <c r="F9" s="4" cm="1">
         <f t="array" ref="F9">_xll.\TMX.BOND.INSTRUMENT(E9, dated)</f>
-        <v>2206070491744</v>
+        <v>3229848303712</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="20">
-        <f ca="1"/>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9" cm="1">
-        <f t="array" aca="1" ref="Q9" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P9)</f>
-        <v>1.0203763340144432</v>
-      </c>
-      <c r="R9" s="22" cm="1">
-        <f t="array" aca="1" ref="R9" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P9)</f>
-        <v>-6.7093441633866</v>
-      </c>
-      <c r="S9" s="22" cm="1">
-        <f t="array" aca="1" ref="S9" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P9)</f>
-        <v>50.132443026909655</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="18">
+        <v>6</v>
+      </c>
+      <c r="C10" s="17">
         <v>0.05</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="5" cm="1">
+      <c r="E10" s="4" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>2206068899776</v>
-      </c>
-      <c r="F10" s="5" cm="1">
+        <v>3229850277264</v>
+      </c>
+      <c r="F10" s="4" cm="1">
         <f t="array" ref="F10">_xll.\TMX.BOND.INSTRUMENT(E10, dated)</f>
-        <v>2206070491392</v>
+        <v>3229848301600</v>
       </c>
       <c r="H10">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I10" s="20">
-        <f ca="1"/>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10" cm="1">
-        <f t="array" aca="1" ref="Q10" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P10)</f>
-        <v>1.0083051215416343</v>
-      </c>
-      <c r="R10" s="22" cm="1">
-        <f t="array" aca="1" ref="R10" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P10)</f>
-        <v>-5.9364432635984166</v>
-      </c>
-      <c r="S10" s="22" cm="1">
-        <f t="array" aca="1" ref="S10" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P10)</f>
-        <v>39.156021731022896</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="18">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17">
         <v>0.05</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="5" cm="1">
+      <c r="E11" s="4" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>2206068901216</v>
-      </c>
-      <c r="F11" s="5" cm="1">
+        <v>3229850275344</v>
+      </c>
+      <c r="F11" s="4" cm="1">
         <f t="array" ref="F11">_xll.\TMX.BOND.INSTRUMENT(E11, dated)</f>
-        <v>2206070491568</v>
+        <v>3229848296144</v>
       </c>
       <c r="H11">
-        <v>0.4</v>
-      </c>
-      <c r="I11" s="20">
-        <f ca="1"/>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11" cm="1">
-        <f t="array" aca="1" ref="Q11" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P11)</f>
-        <v>1.0083291927108993</v>
-      </c>
-      <c r="R11" s="22" cm="1">
-        <f t="array" aca="1" ref="R11" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P11)</f>
-        <v>-5.2099977377642297</v>
-      </c>
-      <c r="S11" s="22" cm="1">
-        <f t="array" aca="1" ref="S11" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P11)</f>
-        <v>29.714595534364467</v>
-      </c>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I11" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" s="18">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17">
         <v>0.05</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="5" cm="1">
+      <c r="E12" s="4" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>2206068899392</v>
-      </c>
-      <c r="F12" s="5" cm="1">
+        <v>3229850276688</v>
+      </c>
+      <c r="F12" s="4" cm="1">
         <f t="array" ref="F12">_xll.\TMX.BOND.INSTRUMENT(E12, dated)</f>
-        <v>2206070492272</v>
+        <v>3229848293856</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="20">
-        <f ca="1"/>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12" cm="1">
-        <f t="array" aca="1" ref="Q12" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P12)</f>
-        <v>1.0082253186337664</v>
-      </c>
-      <c r="R12" s="22" cm="1">
-        <f t="array" aca="1" ref="R12" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P12)</f>
-        <v>-4.4458795897907155</v>
-      </c>
-      <c r="S12" s="22" cm="1">
-        <f t="array" aca="1" ref="S12" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P12)</f>
-        <v>21.315365662629855</v>
-      </c>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="I12" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13" s="18">
+        <v>9</v>
+      </c>
+      <c r="C13" s="17">
         <v>0.05</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="5" cm="1">
+      <c r="E13" s="4" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>2206068901504</v>
-      </c>
-      <c r="F13" s="5" cm="1">
+        <v>3229850276592</v>
+      </c>
+      <c r="F13" s="4" cm="1">
         <f t="array" ref="F13">_xll.\TMX.BOND.INSTRUMENT(E13, dated)</f>
-        <v>2206070488752</v>
+        <v>3229848297728</v>
       </c>
       <c r="H13">
-        <v>0.6</v>
-      </c>
-      <c r="I13" s="20">
-        <f ca="1"/>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13" cm="1">
-        <f t="array" aca="1" ref="Q13" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P13)</f>
-        <v>1.0082583720351745</v>
-      </c>
-      <c r="R13" s="22" cm="1">
-        <f t="array" aca="1" ref="R13" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P13)</f>
-        <v>-3.6433442513518162</v>
-      </c>
-      <c r="S13" s="22" cm="1">
-        <f t="array" aca="1" ref="S13" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P13)</f>
-        <v>14.096238255400751</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14" s="18">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17">
         <v>0.05</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="5" cm="1">
+      <c r="E14" s="4" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>2206068902176</v>
-      </c>
-      <c r="F14" s="5" cm="1">
+        <v>3229850277168</v>
+      </c>
+      <c r="F14" s="4" cm="1">
         <f t="array" ref="F14">_xll.\TMX.BOND.INSTRUMENT(E14, dated)</f>
-        <v>2206070490160</v>
+        <v>3229848300016</v>
       </c>
       <c r="H14">
-        <v>0.7</v>
-      </c>
-      <c r="I14" s="20">
-        <f ca="1"/>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
-      <c r="Q14" cm="1">
-        <f t="array" aca="1" ref="Q14" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P14)</f>
-        <v>1.0082917183623681</v>
-      </c>
-      <c r="R14" s="22" cm="1">
-        <f t="array" aca="1" ref="R14" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P14)</f>
-        <v>-2.7998127844877101</v>
-      </c>
-      <c r="S14" s="22" cm="1">
-        <f t="array" aca="1" ref="S14" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P14)</f>
-        <v>8.1953849823578526</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="H15">
         <v>1</v>
       </c>
-      <c r="E15" s="5" cm="1">
-        <f t="array" ref="E15">_xll.\TMX.BOND.SIMPLE(B15, C15)</f>
-        <v>2206068900160</v>
-      </c>
-      <c r="F15" s="5" cm="1">
-        <f t="array" ref="F15">_xll.\TMX.BOND.INSTRUMENT(E15, dated)</f>
-        <v>2206070490864</v>
-      </c>
-      <c r="H15">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="I15" s="20">
-        <f ca="1"/>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="P15">
-        <v>8</v>
-      </c>
-      <c r="Q15" cm="1">
-        <f t="array" aca="1" ref="Q15" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P15)</f>
-        <v>1.0083250654321485</v>
-      </c>
-      <c r="R15" s="22" cm="1">
-        <f t="array" aca="1" ref="R15" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P15)</f>
-        <v>-1.9131895449126148</v>
-      </c>
-      <c r="S15" s="22" cm="1">
-        <f t="array" aca="1" ref="S15" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P15)</f>
-        <v>3.7663270282232926</v>
-      </c>
+      <c r="I15" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" cm="1">
-        <f t="array" ref="E16">_xll.\TMX.BOND.SIMPLE(B16, C16)</f>
-        <v>2206068882784</v>
-      </c>
-      <c r="F16" s="5" cm="1">
-        <f t="array" ref="F16">_xll.\TMX.BOND.INSTRUMENT(E16, dated)</f>
-        <v>2206070489984</v>
-      </c>
+      <c r="E16" s="27"/>
       <c r="H16">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="I16" s="20">
-        <f ca="1"/>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="P16">
-        <v>9</v>
-      </c>
-      <c r="Q16" cm="1">
-        <f t="array" aca="1" ref="Q16" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P16)</f>
-        <v>1.0082212043507919</v>
-      </c>
-      <c r="R16" s="22" cm="1">
-        <f t="array" aca="1" ref="R16" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P16)</f>
-        <v>-0.98111925467500805</v>
-      </c>
-      <c r="S16" s="22" cm="1">
-        <f t="array" aca="1" ref="S16" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P16)</f>
-        <v>0.97471353860328536</v>
-      </c>
-    </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I16" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="I17" s="20">
-        <f ca="1"/>
-        <v>4.9688642476346197E-2</v>
-      </c>
-      <c r="P17">
-        <v>10</v>
-      </c>
-      <c r="Q17" cm="1">
-        <f t="array" aca="1" ref="Q17" ca="1">_xll.TMX.VALUE.PRESENT($F$16, curve, $P17)</f>
-        <v>1.0082542465190039</v>
-      </c>
-      <c r="R17" s="22" cm="1">
-        <f t="array" aca="1" ref="R17" ca="1">_xll.TMX.VALUE.DURATION($F$16, curve, $P17)</f>
-        <v>-1.5872911606624976E-3</v>
-      </c>
-      <c r="S17" s="22" cm="1">
-        <f t="array" aca="1" ref="S17" ca="1">_xll.TMX.VALUE.CONVEXITY($F$16, curve, $P17)</f>
-        <v>2.4988669647718765E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.3">
-      <c r="E18" s="5"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I17" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18">
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="I18" s="20">
-        <f ca="1"/>
-        <v>6.1543848739466347E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="I18" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19">
-        <v>1.2</v>
-      </c>
-      <c r="I19" s="20">
-        <f ca="1"/>
-        <v>6.1543848739466347E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="5:19" x14ac:dyDescent="0.3">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I19" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20">
-        <v>1.3</v>
-      </c>
-      <c r="I20" s="20">
-        <f ca="1"/>
-        <v>6.1543848739466347E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="5:19" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="I21" s="20">
-        <f ca="1"/>
-        <v>6.1543848739466347E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+      <c r="I21" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22">
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="I22" s="20">
-        <f ca="1"/>
-        <v>6.1543848739466347E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:19" x14ac:dyDescent="0.3">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="I22" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23">
-        <v>1.6000000000000003</v>
-      </c>
-      <c r="I23" s="20">
-        <f ca="1"/>
-        <v>6.1543848739466347E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="5:19" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+      <c r="I23" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24">
-        <v>1.7000000000000004</v>
-      </c>
-      <c r="I24" s="20">
-        <f ca="1"/>
-        <v>6.1543848739466347E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="5:19" x14ac:dyDescent="0.3">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="I24" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25">
-        <v>1.8000000000000005</v>
-      </c>
-      <c r="I25" s="20">
-        <f ca="1"/>
-        <v>6.1543848739466347E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="5:19" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26">
-        <v>1.9000000000000006</v>
-      </c>
-      <c r="I26" s="20">
-        <f ca="1"/>
-        <v>6.1543848739466347E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="5:19" x14ac:dyDescent="0.3">
+        <v>2.1</v>
+      </c>
+      <c r="I26" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27">
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="I27" s="20">
-        <f ca="1"/>
-        <v>6.1543848739466347E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:19" x14ac:dyDescent="0.3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I27" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28">
-        <v>2.1000000000000005</v>
-      </c>
-      <c r="I28" s="20">
-        <f ca="1"/>
-        <v>3.7506434100536605E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:19" x14ac:dyDescent="0.3">
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="I28" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29">
-        <v>2.2000000000000006</v>
-      </c>
-      <c r="I29" s="20">
-        <f ca="1"/>
-        <v>3.7506434100536605E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:19" x14ac:dyDescent="0.3">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="I29" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30">
-        <v>2.3000000000000007</v>
-      </c>
-      <c r="I30" s="20">
-        <f ca="1"/>
-        <v>3.7506434100536605E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="5:19" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+      <c r="I30" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31">
-        <v>2.4000000000000008</v>
-      </c>
-      <c r="I31" s="20">
-        <f ca="1"/>
-        <v>3.7506434100536605E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="5:19" x14ac:dyDescent="0.3">
+        <v>2.6</v>
+      </c>
+      <c r="I31" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32">
-        <v>2.5000000000000009</v>
-      </c>
-      <c r="I32" s="20">
-        <f ca="1"/>
-        <v>3.7506434100536605E-2</v>
+        <v>2.7</v>
+      </c>
+      <c r="I32" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="I33" s="20">
-        <f ca="1"/>
-        <v>3.7506434100536605E-2</v>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="I33" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34">
-        <v>2.7000000000000011</v>
-      </c>
-      <c r="I34" s="20">
-        <f ca="1"/>
-        <v>3.7506434100536605E-2</v>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="I34" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35">
-        <v>2.8000000000000012</v>
-      </c>
-      <c r="I35" s="20">
-        <f ca="1"/>
-        <v>3.7506434100536605E-2</v>
+        <v>3</v>
+      </c>
+      <c r="I35" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36">
-        <v>2.9000000000000012</v>
-      </c>
-      <c r="I36" s="20">
-        <f ca="1"/>
-        <v>3.7506434100536605E-2</v>
+        <v>3.1</v>
+      </c>
+      <c r="I36" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37">
-        <v>3.0000000000000013</v>
-      </c>
-      <c r="I37" s="20">
-        <f ca="1"/>
-        <v>3.7506434100536605E-2</v>
+        <v>3.2</v>
+      </c>
+      <c r="I37" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38">
-        <v>3.1000000000000014</v>
-      </c>
-      <c r="I38" s="20">
-        <f ca="1"/>
-        <v>4.9823055453199108E-2</v>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="I38" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39">
-        <v>3.2000000000000015</v>
-      </c>
-      <c r="I39" s="20">
-        <f ca="1"/>
-        <v>4.9823055453199108E-2</v>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="I39" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H40">
-        <v>3.3000000000000016</v>
-      </c>
-      <c r="I40" s="20">
-        <f ca="1"/>
-        <v>4.9823055453199108E-2</v>
+        <v>3.5</v>
+      </c>
+      <c r="I40" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H41">
-        <v>3.4000000000000017</v>
-      </c>
-      <c r="I41" s="20">
-        <f ca="1"/>
-        <v>4.9823055453199108E-2</v>
+        <v>3.6</v>
+      </c>
+      <c r="I41" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H42">
-        <v>3.5000000000000018</v>
-      </c>
-      <c r="I42" s="20">
-        <f ca="1"/>
-        <v>4.9823055453199108E-2</v>
+        <v>3.7</v>
+      </c>
+      <c r="I42" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H43">
-        <v>3.6000000000000019</v>
-      </c>
-      <c r="I43" s="20">
-        <f ca="1"/>
-        <v>4.9823055453199108E-2</v>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="I43" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H44">
-        <v>3.700000000000002</v>
-      </c>
-      <c r="I44" s="20">
-        <f ca="1"/>
-        <v>4.9823055453199108E-2</v>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="I44" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H45">
-        <v>3.800000000000002</v>
-      </c>
-      <c r="I45" s="20">
-        <f ca="1"/>
-        <v>4.9823055453199108E-2</v>
+        <v>4</v>
+      </c>
+      <c r="I45" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H46">
-        <v>3.9000000000000021</v>
-      </c>
-      <c r="I46" s="20">
-        <f ca="1"/>
-        <v>4.9823055453199108E-2</v>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="I46" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H47">
-        <v>4.0000000000000018</v>
-      </c>
-      <c r="I47" s="20">
-        <f ca="1"/>
-        <v>4.9823055453199108E-2</v>
+        <v>4.2</v>
+      </c>
+      <c r="I47" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H48">
-        <v>4.1000000000000014</v>
-      </c>
-      <c r="I48" s="20">
-        <f ca="1"/>
-        <v>4.9688665317126131E-2</v>
+        <v>4.3</v>
+      </c>
+      <c r="I48" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49">
-        <v>4.2000000000000011</v>
-      </c>
-      <c r="I49" s="20">
-        <f ca="1"/>
-        <v>4.9688665317126131E-2</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I49" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50">
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="I50" s="20">
-        <f ca="1"/>
-        <v>4.9688665317126131E-2</v>
+        <v>4.5</v>
+      </c>
+      <c r="I50" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I51" s="20">
-        <f ca="1"/>
-        <v>4.9688665317126131E-2</v>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="I51" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52">
-        <v>4.5</v>
-      </c>
-      <c r="I52" s="20">
-        <f ca="1"/>
-        <v>4.9688665317126131E-2</v>
+        <v>4.7</v>
+      </c>
+      <c r="I52" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I53" s="20">
-        <f ca="1"/>
-        <v>4.9688665317126131E-2</v>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="I53" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H54">
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="I54" s="20">
-        <f ca="1"/>
-        <v>4.9688665317126131E-2</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I54" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H55">
-        <v>4.7999999999999989</v>
-      </c>
-      <c r="I55" s="20">
-        <f ca="1"/>
-        <v>4.9688665317126131E-2</v>
+        <v>5</v>
+      </c>
+      <c r="I55" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H56">
-        <v>4.8999999999999986</v>
-      </c>
-      <c r="I56" s="20">
-        <f ca="1"/>
-        <v>4.9688665317126131E-2</v>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="I56" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H57">
-        <v>4.9999999999999982</v>
-      </c>
-      <c r="I57" s="20">
-        <f ca="1"/>
-        <v>4.9688665317126131E-2</v>
+        <v>5.2</v>
+      </c>
+      <c r="I57" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H58">
-        <v>5.0999999999999979</v>
-      </c>
-      <c r="I58" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="I58" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H59">
-        <v>5.1999999999999975</v>
-      </c>
-      <c r="I59" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>5.4</v>
+      </c>
+      <c r="I59" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H60">
-        <v>5.2999999999999972</v>
-      </c>
-      <c r="I60" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>5.5</v>
+      </c>
+      <c r="I60" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H61">
-        <v>5.3999999999999968</v>
-      </c>
-      <c r="I61" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="I61" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H62">
-        <v>5.4999999999999964</v>
-      </c>
-      <c r="I62" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>5.7</v>
+      </c>
+      <c r="I62" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H63">
-        <v>5.5999999999999961</v>
-      </c>
-      <c r="I63" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="I63" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H64">
-        <v>5.6999999999999957</v>
-      </c>
-      <c r="I64" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>5.9</v>
+      </c>
+      <c r="I64" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H65">
-        <v>5.7999999999999954</v>
-      </c>
-      <c r="I65" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>6</v>
+      </c>
+      <c r="I65" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H66">
-        <v>5.899999999999995</v>
-      </c>
-      <c r="I66" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="I66" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H67">
-        <v>5.9999999999999947</v>
-      </c>
-      <c r="I67" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>6.2</v>
+      </c>
+      <c r="I67" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H68">
-        <v>6.0999999999999943</v>
-      </c>
-      <c r="I68" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="I68" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H69">
-        <v>6.199999999999994</v>
-      </c>
-      <c r="I69" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>6.4</v>
+      </c>
+      <c r="I69" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H70">
-        <v>6.2999999999999936</v>
-      </c>
-      <c r="I70" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>6.5</v>
+      </c>
+      <c r="I70" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H71">
-        <v>6.3999999999999932</v>
-      </c>
-      <c r="I71" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="I71" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H72">
-        <v>6.4999999999999929</v>
-      </c>
-      <c r="I72" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>6.7</v>
+      </c>
+      <c r="I72" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H73">
-        <v>6.5999999999999925</v>
-      </c>
-      <c r="I73" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="I73" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H74">
-        <v>6.6999999999999922</v>
-      </c>
-      <c r="I74" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>6.9</v>
+      </c>
+      <c r="I74" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H75">
-        <v>6.7999999999999918</v>
-      </c>
-      <c r="I75" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>7</v>
+      </c>
+      <c r="I75" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H76">
-        <v>6.8999999999999915</v>
-      </c>
-      <c r="I76" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>7.1000000000000005</v>
+      </c>
+      <c r="I76" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H77">
-        <v>6.9999999999999911</v>
-      </c>
-      <c r="I77" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>7.2</v>
+      </c>
+      <c r="I77" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H78">
-        <v>7.0999999999999908</v>
-      </c>
-      <c r="I78" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="I78" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H79">
-        <v>7.1999999999999904</v>
-      </c>
-      <c r="I79" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>7.4</v>
+      </c>
+      <c r="I79" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H80">
-        <v>7.2999999999999901</v>
-      </c>
-      <c r="I80" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>7.5</v>
+      </c>
+      <c r="I80" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H81">
-        <v>7.3999999999999897</v>
-      </c>
-      <c r="I81" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="I81" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H82">
-        <v>7.4999999999999893</v>
-      </c>
-      <c r="I82" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>7.7</v>
+      </c>
+      <c r="I82" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H83">
-        <v>7.599999999999989</v>
-      </c>
-      <c r="I83" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I83" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H84">
-        <v>7.6999999999999886</v>
-      </c>
-      <c r="I84" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>7.9</v>
+      </c>
+      <c r="I84" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H85">
-        <v>7.7999999999999883</v>
-      </c>
-      <c r="I85" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>8</v>
+      </c>
+      <c r="I85" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H86">
-        <v>7.8999999999999879</v>
-      </c>
-      <c r="I86" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>8.1</v>
+      </c>
+      <c r="I86" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H87">
-        <v>7.9999999999999876</v>
-      </c>
-      <c r="I87" s="20">
-        <f ca="1"/>
-        <v>4.9823066298442485E-2</v>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="I87" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H88">
-        <v>8.0999999999999872</v>
-      </c>
-      <c r="I88" s="20">
-        <f ca="1"/>
-        <v>4.9688666758971364E-2</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I88" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H89">
-        <v>8.1999999999999869</v>
-      </c>
-      <c r="I89" s="20">
-        <f ca="1"/>
-        <v>4.9688666758971364E-2</v>
+        <v>8.4</v>
+      </c>
+      <c r="I89" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H90">
-        <v>8.2999999999999865</v>
-      </c>
-      <c r="I90" s="20">
-        <f ca="1"/>
-        <v>4.9688666758971364E-2</v>
+        <v>8.5</v>
+      </c>
+      <c r="I90" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H91">
-        <v>8.3999999999999861</v>
-      </c>
-      <c r="I91" s="20">
-        <f ca="1"/>
-        <v>4.9688666758971364E-2</v>
+        <v>8.6</v>
+      </c>
+      <c r="I91" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H92">
-        <v>8.4999999999999858</v>
-      </c>
-      <c r="I92" s="20">
-        <f ca="1"/>
-        <v>4.9688666758971364E-2</v>
+        <v>8.7000000000000011</v>
+      </c>
+      <c r="I92" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H93">
-        <v>8.5999999999999854</v>
-      </c>
-      <c r="I93" s="20">
-        <f ca="1"/>
-        <v>4.9688666758971364E-2</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I93" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H94">
-        <v>8.6999999999999851</v>
-      </c>
-      <c r="I94" s="20">
-        <f ca="1"/>
-        <v>4.9688666758971364E-2</v>
+        <v>8.9</v>
+      </c>
+      <c r="I94" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H95">
-        <v>8.7999999999999847</v>
-      </c>
-      <c r="I95" s="20">
-        <f ca="1"/>
-        <v>4.9688666758971364E-2</v>
+        <v>9</v>
+      </c>
+      <c r="I95" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H96">
-        <v>8.8999999999999844</v>
-      </c>
-      <c r="I96" s="20">
-        <f ca="1"/>
-        <v>4.9688666758971364E-2</v>
+        <v>9.1</v>
+      </c>
+      <c r="I96" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97">
-        <v>8.999999999999984</v>
-      </c>
-      <c r="I97" s="20">
-        <f ca="1"/>
-        <v>4.9688666758971364E-2</v>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="I97" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98">
-        <v>9.0999999999999837</v>
-      </c>
-      <c r="I98" s="20">
-        <f ca="1"/>
-        <v>4.9823066298217138E-2</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I98" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99">
-        <v>9.1999999999999833</v>
-      </c>
-      <c r="I99" s="20">
-        <f ca="1"/>
-        <v>4.9823066298217138E-2</v>
+        <v>9.4</v>
+      </c>
+      <c r="I99" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100">
-        <v>9.2999999999999829</v>
-      </c>
-      <c r="I100" s="20">
-        <f ca="1"/>
-        <v>4.9823066298217138E-2</v>
+        <v>9.5</v>
+      </c>
+      <c r="I100" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101">
-        <v>9.3999999999999826</v>
-      </c>
-      <c r="I101" s="20">
-        <f ca="1"/>
-        <v>4.9823066298217138E-2</v>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I101" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102">
-        <v>9.4999999999999822</v>
-      </c>
-      <c r="I102" s="20">
-        <f ca="1"/>
-        <v>4.9823066298217138E-2</v>
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="I102" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103">
-        <v>9.5999999999999819</v>
-      </c>
-      <c r="I103" s="20">
-        <f ca="1"/>
-        <v>4.9823066298217138E-2</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I103" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104">
-        <v>9.6999999999999815</v>
-      </c>
-      <c r="I104" s="20">
-        <f ca="1"/>
-        <v>4.9823066298217138E-2</v>
+        <v>9.9</v>
+      </c>
+      <c r="I104" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105">
-        <v>9.7999999999999812</v>
-      </c>
-      <c r="I105" s="20">
-        <f ca="1"/>
-        <v>4.9823066298217138E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H106">
-        <v>9.8999999999999808</v>
-      </c>
-      <c r="I106" s="20">
-        <f ca="1"/>
-        <v>4.9823066298217138E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H107">
-        <v>9.9999999999999805</v>
-      </c>
-      <c r="I107" s="20">
-        <f ca="1"/>
-        <v>4.9823066298217138E-2</v>
+        <v>10</v>
+      </c>
+      <c r="I105" s="19" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -9896,148 +9592,166 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE10814-8BAC-41F3-9E28-9FC194E23C82}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.69921875" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="9">
+        <v>65</v>
+      </c>
+      <c r="C2" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.1</v>
+        <v>48</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="9">
+        <v>47</v>
+      </c>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="9">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <f>EXP(-r_*t)</f>
-        <v>0.90483741803595952</v>
+        <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
+        <v>0.5650584280374279</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <f>EXP(-r_*u)</f>
-        <v>0.81873075307798182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <f>EXP(-φ*t + σ^2*t^3/6)</f>
+        <v>0.90485249878526608</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C8">
-        <f ca="1">EXP(-r_*(u-t) + (σ^2)*((u-t)^3)/6 - σ*(u-t)*_xlfn.NORM.S.INV(RAND())*SQRT(t))</f>
-        <v>0.82015323773867621</v>
-      </c>
-      <c r="D8">
-        <f>Du/Dt</f>
-        <v>0.90483741803595963</v>
-      </c>
-      <c r="E8">
-        <f ca="1">C8/D8</f>
-        <v>0.9064095067143676</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>58</v>
+        <f>EXP(-φ*u + σ^2*u^3/6)</f>
+        <v>0.81883992445632237</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="28" t="s">
+        <v>66</v>
       </c>
       <c r="C9">
-        <f ca="1">LN(C8)</f>
-        <v>-0.19826408089178185</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+        <f ca="1">EXP(-φ*t+Z*SQRT(t)*(σ^2)*(t^3)/6)</f>
+        <v>0.90484593950957004</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">_xll.MONTE.MEAN(C9)</f>
+        <v>0.90483751189603223</v>
+      </c>
+      <c r="E9" s="16">
+        <f ca="1">D9-Dt</f>
+        <v>-1.4986889233847833E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <f ca="1">EXP(-φ*(u-t) + (σ^2)*((u-t)^3)/6 - σ*(u-t)*Z*SQRT(t))</f>
+        <v>0.89975397187352479</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <f ca="1">LN(C10)</f>
+        <v>-0.10563391761370766</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">_xll.TMX.HO_LEE.ED(Dt, Du, t, u, σ)</f>
+        <v>0.90489774254128974</v>
+      </c>
+      <c r="D12" s="15" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">_xll.MONTE.MEAN(C10)</f>
+        <v>0.90484102108061737</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">_xll.TMX.HO_LEE.ELogD(Dt, Du, t, u, σ)</f>
+        <v>-9.9983333333333452E-2</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="array" aca="1" ref="D13:D14" ca="1">_xll.MONTE.STDEV(logD)</f>
+        <v>-0.10004548972958061</v>
+      </c>
+      <c r="E13" s="6">
+        <f ca="1">D13-C13</f>
+        <v>-6.2156396247153856E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C10" cm="1">
-        <f t="array" ref="C10">_xll.TMX.HO_LEE.ED(Dt, Du, t, u, σ)</f>
-        <v>0.90032452258626572</v>
-      </c>
-      <c r="D10" s="16" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">_xll.MONTE.MEAN(C8)</f>
-        <v>0.91117082891689261</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" cm="1">
-        <f t="array" ref="C11">_xll.TMX.HO_LEE.ELogD(Dt, Du, t, u, σ)</f>
-        <v>-0.10999999999999993</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="array" aca="1" ref="D11:D12" ca="1">_xll.MONTE.STDEV(logD)</f>
-        <v>-9.8088883243502623E-2</v>
-      </c>
-      <c r="E11">
-        <f>-r_*(u-t) + σ^2*(u-t)^3/6</f>
-        <v>-9.8333333333333342E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" cm="1">
-        <f t="array" ref="C12">_xll.TMX.HO_LEE.VarLogD(t, u, σ)</f>
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="D12" s="16">
-        <f ca="1"/>
-        <v>0.10065052733331713</v>
-      </c>
-      <c r="E12" s="16">
-        <f>σ^2*(u  - t)^2*t</f>
-        <v>1.0000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="16">
-        <f ca="1">D12^2</f>
-        <v>1.0130528652474819E-2</v>
-      </c>
-    </row>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">_xll.TMX.HO_LEE.VarLogD(t, u, σ)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D14" s="15">
+        <f ca="1"/>
+        <v>9.947224965841649E-3</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="15">
+        <f ca="1">D14^2</f>
+        <v>9.8947284521063393E-5</v>
+      </c>
+      <c r="E15" s="6">
+        <f ca="1">D15-C14</f>
+        <v>-1.0527154789366115E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2266D33E-054E-4D60-A71C-913527E6EFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D6EE57-02F2-4814-8A59-2A0CC786429C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <definedName name="B_t">'Ho-Lee'!$C$6</definedName>
     <definedName name="bond">Bootstrap!$E$5:$E$14</definedName>
     <definedName name="bond.simple">Bond!$C$6</definedName>
+    <definedName name="cash" localSheetId="4">INDEX(_xlfn.ANCHORARRAY(Bond!$C$16),,2)</definedName>
+    <definedName name="convexity">Bond!$C$12</definedName>
     <definedName name="coupon" localSheetId="4">Bond!$C$3</definedName>
     <definedName name="coupon">Bootstrap!$C$5:$C$14</definedName>
     <definedName name="curve" localSheetId="3">Curve!$I$3</definedName>
@@ -37,6 +39,7 @@
     <definedName name="days">Date!$C$10</definedName>
     <definedName name="Dt">'Ho-Lee'!$C$7</definedName>
     <definedName name="Du">'Ho-Lee'!$C$8</definedName>
+    <definedName name="duration">Bond!$C$11</definedName>
     <definedName name="extrapolate">Curve!$C$6</definedName>
     <definedName name="f">Black!$C$2</definedName>
     <definedName name="frequency" localSheetId="4">Bond!$C$4</definedName>
@@ -47,12 +50,14 @@
     <definedName name="maturity" localSheetId="4">Bond!$C$2</definedName>
     <definedName name="maturity">Bootstrap!$B$5:$B$14</definedName>
     <definedName name="months">Date!$C$9</definedName>
+    <definedName name="present">Bond!$C$10</definedName>
     <definedName name="price">Bootstrap!$D$5:$D$14</definedName>
     <definedName name="rate">Curve!$C$3:$C$5</definedName>
     <definedName name="s">Black!$C$3</definedName>
     <definedName name="shift">Curve!$I$5</definedName>
     <definedName name="spread">Curve!$I$4</definedName>
     <definedName name="t">'Ho-Lee'!$C$4</definedName>
+    <definedName name="time" localSheetId="4">INDEX(_xlfn.ANCHORARRAY(Bond!$C$16),,1)</definedName>
     <definedName name="time">Curve!$B$3:$B$5</definedName>
     <definedName name="translate">Curve!$I$2</definedName>
     <definedName name="u">'Ho-Lee'!$C$5</definedName>
@@ -323,7 +328,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -370,6 +375,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -439,7 +451,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,9 +498,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -691,34 +706,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2</c:v>
@@ -982,124 +997,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77516531164610902</c:v>
+                  <c:v>0.83205424111347082</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72287755604191728</c:v>
+                  <c:v>0.77459476464860977</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67930442637175747</c:v>
+                  <c:v>0.72671186759455897</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64243485511239151</c:v>
+                  <c:v>0.68619557008728516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61083236546150643</c:v>
+                  <c:v>0.6514673150810506</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.58344354109740604</c:v>
+                  <c:v>0.62136949407564723</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.55947831977881812</c:v>
+                  <c:v>0.59503390069591922</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53833253626241706</c:v>
+                  <c:v>0.57179661241968871</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51953628424783826</c:v>
+                  <c:v>0.5511412450630393</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.50271858507689948</c:v>
+                  <c:v>0.53266012690182685</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.48758265582305449</c:v>
+                  <c:v>0.51602712055673539</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.47865014840290904</c:v>
+                  <c:v>0.5057401148159385</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.47052968711186771</c:v>
+                  <c:v>0.49638829141521396</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.46311535288961259</c:v>
+                  <c:v>0.4878496700493351</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.45631887985254538</c:v>
+                  <c:v>0.48002260046394613</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.45006612465844359</c:v>
+                  <c:v>0.4728216964453883</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.44429435063311878</c:v>
+                  <c:v>0.46617470812056566</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43895011542448475</c:v>
+                  <c:v>0.46002008930128541</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.43398761130218172</c:v>
+                  <c:v>0.4543050861119538</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.42936734884348582</c:v>
+                  <c:v>0.44898422107361058</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.42505510388203638</c:v>
+                  <c:v>0.44401808037115692</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4242468747245513</c:v>
+                  <c:v>0.44259814229466798</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.42348915988940905</c:v>
+                  <c:v>0.44126695034795965</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.42277736716548758</c:v>
+                  <c:v>0.44001643670105178</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.42210744460179678</c:v>
+                  <c:v>0.4388394826804326</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.42147580332745971</c:v>
+                  <c:v>0.43772978317527739</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.42087925323503028</c:v>
+                  <c:v>0.43668173364263074</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.42031494909354294</c:v>
+                  <c:v>0.43569033543607316</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.41978034517002866</c:v>
+                  <c:v>0.43475111608249228</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.41927315683233563</c:v>
+                  <c:v>0.43386006182396686</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.41879132791152729</c:v>
+                  <c:v>0.43301356027836768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,124 +1288,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.9254117261366106</c:v>
+                  <c:v>0.92016210432122925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85638686287114107</c:v>
+                  <c:v>0.84669829822887288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79251044501029944</c:v>
+                  <c:v>0.77909968782348338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7333984588982746</c:v>
+                  <c:v>0.71689800822366934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67869553379498238</c:v>
+                  <c:v>0.65966237983078946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62807280545042299</c:v>
+                  <c:v>0.60699632356664934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58122593903133946</c:v>
+                  <c:v>0.55853501440833775</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53787329951436424</c:v>
+                  <c:v>0.51394275419506419</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49775425854638194</c:v>
+                  <c:v>0.47291064620077855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46062762759325609</c:v>
+                  <c:v>0.43515445536402081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45150658945534777</c:v>
+                  <c:v>0.42653781983133682</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44256615997338972</c:v>
+                  <c:v>0.4180918051138322</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43380276285638181</c:v>
+                  <c:v>0.40981303269300479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.42521289262863043</c:v>
+                  <c:v>0.40169819094950121</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41679311322751134</c:v>
+                  <c:v>0.39374403383842477</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40854005662899889</c:v>
+                  <c:v>0.38594737959087416</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40045042150041138</c:v>
+                  <c:v>0.3783051094411935</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3925209718798342</c:v>
+                  <c:v>0.37081416637942477</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.38474853588169167</c:v>
+                  <c:v>0.36347155392846253</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37713000442795075</c:v>
+                  <c:v>0.35627433494542382</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.36598412836423388</c:v>
+                  <c:v>0.34574483706575171</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.35516766272071465</c:v>
+                  <c:v>0.3355265328779154</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.34467087194818052</c:v>
+                  <c:v>0.32561022521838967</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.33448430822638159</c:v>
+                  <c:v>0.31598698874091008</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.32459880296035454</c:v>
+                  <c:v>0.30664816188305893</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.31500545852806838</c:v>
+                  <c:v>0.29758533907027451</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.30569564027196378</c:v>
+                  <c:v>0.28879036315026624</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.29666096872717873</c:v>
+                  <c:v>0.28025531805102755</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.28789331207946423</c:v>
+                  <c:v>0.2719725216558363</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.27938477884600277</c:v>
+                  <c:v>0.26393451888883118</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.26842994497514688</c:v>
+                  <c:v>0.25358549837613842</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25790465628436038</c:v>
+                  <c:v>0.24364226876197237</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.24779207006622328</c:v>
+                  <c:v>0.23408891875761503</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.23807600402531984</c:v>
+                  <c:v>0.22491016096490268</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.22874091038311328</c:v>
+                  <c:v>0.21609130741312757</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.21977185099818328</c:v>
+                  <c:v>0.20761824605515114</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.21115447346201244</c:v>
+                  <c:v>0.19947741818511769</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.20287498813207105</c:v>
+                  <c:v>0.19165579674163266</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.19492014606544675</c:v>
+                  <c:v>0.1841408654616849</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.18727721781770951</c:v>
+                  <c:v>0.17692059885195566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1564,124 +1579,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.82516531164610907</c:v>
+                  <c:v>0.73205424111347084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82516531164610907</c:v>
+                  <c:v>0.73205424111347084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82516531164610907</c:v>
+                  <c:v>0.73205424111347084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82516531164610907</c:v>
+                  <c:v>0.73205424111347084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82516531164610907</c:v>
+                  <c:v>0.73205424111347084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82516531164610907</c:v>
+                  <c:v>0.73205424111347084</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82516531164610907</c:v>
+                  <c:v>0.73205424111347084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82516531164610907</c:v>
+                  <c:v>0.73205424111347084</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82516531164610907</c:v>
+                  <c:v>0.73205424111347084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82516531164610907</c:v>
+                  <c:v>0.73205424111347084</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.45</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,307 +2321,307 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4.7571559635601009E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4.7571559635601009E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.7571559635601009E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.7571559635601009E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.7571559635601009E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4.7571559635601009E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4.7571559635601009E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.7571559635601009E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>4.7571559635601009E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>4.7571559635601009E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>5.1354629850704714E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>5.1354629850704714E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>5.1354629850704714E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>5.1354629850704714E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>5.1354629850704714E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>5.1354629850704714E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>5.1354629850704714E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>5.1354629850704714E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>5.1354629850704714E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>5.1354629850704714E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>4.9416364521089204E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>4.9416364521089204E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>4.9416364521089204E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>4.9416364521089204E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>4.9416364521089204E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>4.9416364521089204E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>4.9416364521089204E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>4.9416364521089204E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>4.9416364521089204E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>4.9416364521089204E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>4.9283017362696399E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>4.9283017362696399E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>4.9283017362696399E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>4.9283017362696399E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>4.9283017362696399E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>4.9283017362696399E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>4.9283017362696399E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>4.9283017362696399E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>4.9283017362696399E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>4.9283017362696399E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357720749947E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>4.928303568762156E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>4.928303568762156E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>4.928303568762156E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>4.928303568762156E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>4.928303568762156E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>4.928303568762156E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>4.928303568762156E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>4.928303568762156E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>4.928303568762156E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>4.928303568762156E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721873097E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721873097E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721873097E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721873097E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721873097E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721873097E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721873097E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721873097E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721873097E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>4.9416357721873097E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4299,21 +4314,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28EA81D-C5B8-44E1-B499-71D23FEEDB1B}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="28.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4322,7 +4335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -4335,10 +4348,10 @@
       </c>
       <c r="E3" s="4" cm="1">
         <f t="array" ref="E3">_xll.ENUM(D3)</f>
-        <v>140716919108667</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>140716792689723</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -4351,10 +4364,10 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_xll.ENUM(D4)</f>
-        <v>140716919101427</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+        <v>140716792682483</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -4367,10 +4380,10 @@
       </c>
       <c r="E5" s="4" cm="1">
         <f t="array" ref="E5">_xll.ENUM(D5)</f>
-        <v>140716919107042</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+        <v>140716792688098</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -4383,16 +4396,16 @@
       </c>
       <c r="E6" s="4" cm="1">
         <f t="array" ref="E6">_xll.ENUM(D6)</f>
-        <v>140716919112232</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>140716792693288</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="4" cm="1">
         <f t="array" ref="E7">_xll.ENUM(D7)</f>
-        <v>140716919143762</v>
+        <v>140716792724818</v>
       </c>
     </row>
   </sheetData>
@@ -4402,52 +4415,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E6F0E-62B3-47B5-8C49-DACF71BB425D}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="8">
         <f ca="1">50 + 100*RAND()</f>
-        <v>71.905252937208061</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+        <v>126.61982146909079</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="8">
         <f ca="1">0.01 + 0.3*RAND()</f>
-        <v>0.17694275142670132</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+        <v>8.1167832685849539E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="8">
         <f ca="1">50 + 100*RAND()</f>
-        <v>126.26708231597058</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+        <v>97.934750284783178</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
-        <v>3.2705742815704375</v>
+        <v>-3.1243105146495629</v>
       </c>
       <c r="D5">
         <v>1E-3</v>
@@ -4460,90 +4473,91 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>54.365155130040108</v>
+        <v>1.904828845051193E-3</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
-        <v>54.364156118785473</v>
+        <v>1.9041547680517107E-3</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
-        <v>54.366154141556606</v>
+        <v>1.9055031499915082E-3</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xll.TMX.BLACK.CALL.VALUE(f, s, k)</f>
-        <v>3.3257512775861642E-3</v>
-      </c>
-      <c r="H6">
+        <v>28.68697601315267</v>
+      </c>
+      <c r="H6" s="16">
         <f ca="1">G6-C6-f+k</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
-        <v>-0.99901138556741298</v>
+        <v>-6.7419095619192237E-4</v>
       </c>
       <c r="D7">
         <f ca="1">(D6-E6)/(D5-E5)</f>
-        <v>-0.99901138556646174</v>
-      </c>
-      <c r="E7">
+        <v>-6.7419096989873584E-4</v>
+      </c>
+      <c r="E7" s="16">
         <f ca="1">(C7-D7)/C7</f>
-        <v>9.521804268112066E-13</v>
+        <v>-2.0330758424057315E-8</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">_xll.TMX.BLACK.CALL.DELTA(f, s, k)</f>
-        <v>0.99901138556741298</v>
-      </c>
-      <c r="H7">
+        <v>6.7419095619192237E-4</v>
+      </c>
+      <c r="H7" s="16">
         <f ca="1">G7+C7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.TMX.BLACK.GAMMA(f, s, k)</f>
-        <v>2.6187668332118753E-4</v>
+        <v>2.2793796337986028E-4</v>
       </c>
       <c r="D8">
         <f ca="1">(D6-2*C6+E6)/(D5^2)</f>
-        <v>2.6186341983702732E-4</v>
-      </c>
-      <c r="E8">
+        <v>2.2794083287536182E-4</v>
+      </c>
+      <c r="E8" s="16">
         <f t="shared" ref="E8:E9" ca="1" si="0">(C8-D8)/C8</f>
-        <v>5.0647823975750591E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-1.2588931913698872E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.BLACK.VEGA(f, s, k)</f>
-        <v>0.23958015676079852</v>
+        <v>0.29662244267176524</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
-        <v>0.23967196511165412</v>
-      </c>
-      <c r="E9">
+        <v>0.29714950452511962</v>
+      </c>
+      <c r="E9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.832051539529486E-4</v>
-      </c>
-    </row>
+        <v>-1.7768778673892035E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4558,17 +4572,17 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -4577,60 +4591,60 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="8">
         <f ca="1">10*RAND()</f>
-        <v>9.5888976139206932</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.6891044383181413</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>48615.272928240738</v>
+        <v>47190.902719907404</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>48615.272928240738</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47190.902719907404</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
       <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.DATE.ADD_YEARS(C4,-years)</f>
-        <v>45113</v>
+        <v>45112.999999999993</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">C5-date</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>9.5881503384737545</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.68663285351513</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>48615</v>
+        <v>47190</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>48615</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4642,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4654,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4666,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
@@ -4689,21 +4703,21 @@
   <dimension ref="B2:O42"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="4" max="4" width="3.59765625" customWidth="1"/>
-    <col min="5" max="6" width="8.69921875" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.59765625" customWidth="1"/>
-    <col min="17" max="17" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="4" max="4" width="3.58203125" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="3.58203125" customWidth="1"/>
+    <col min="9" max="9" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.58203125" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4732,13 +4746,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">RAND()</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="E3" s="25" cm="1">
         <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve))</f>
@@ -4746,7 +4760,7 @@
       </c>
       <c r="F3" s="26">
         <f ca="1"/>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="3" t="s">
@@ -4754,7 +4768,7 @@
       </c>
       <c r="I3" s="4" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>1640477350656</v>
+        <v>1487167971792</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3:K42">_xll.ARRAY.SEQUENCE(0.1,4,0.1)</f>
@@ -4762,22 +4776,22 @@
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K3,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K3,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K3,translate)</f>
-        <v>0.9254117261366106</v>
+        <v>0.92016210432122925</v>
       </c>
       <c r="O3" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K3,translate)</f>
-        <v>0.82516531164610907</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.73205424111347084</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -4796,29 +4810,29 @@
         <v>60</v>
       </c>
       <c r="I4">
-        <v>0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="K4">
         <v>0.2</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K4,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K4,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K4,translate)</f>
-        <v>0.85638686287114107</v>
+        <v>0.84669829822887288</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K4,translate)</f>
-        <v>0.82516531164610907</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.73205424111347084</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -4838,29 +4852,29 @@
       </c>
       <c r="I5" s="4" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve,spread)</f>
-        <v>1640477350832</v>
+        <v>1487167973024</v>
       </c>
       <c r="K5">
         <v>0.30000000000000004</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K5,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K5,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K5,translate)</f>
-        <v>0.79251044501029944</v>
+        <v>0.77909968782348338</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K5,translate)</f>
-        <v>0.82516531164610907</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.73205424111347084</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -4882,148 +4896,148 @@
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K6,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K6,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K6,translate)</f>
-        <v>0.7333984588982746</v>
+        <v>0.71689800822366934</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K6,translate)</f>
-        <v>0.82516531164610907</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.73205424111347084</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K7">
         <v>0.5</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K7,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K7,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K7,translate)</f>
-        <v>0.67869553379498238</v>
+        <v>0.65966237983078946</v>
       </c>
       <c r="O7" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K7,translate)</f>
-        <v>0.82516531164610907</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.73205424111347084</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K8">
         <v>0.6</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K8,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K8,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="N8" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K8,translate)</f>
-        <v>0.62807280545042299</v>
+        <v>0.60699632356664934</v>
       </c>
       <c r="O8" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K8,translate)</f>
-        <v>0.82516531164610907</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.73205424111347084</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K9">
         <v>0.70000000000000007</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K9,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K9,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="N9" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K9,translate)</f>
-        <v>0.58122593903133946</v>
+        <v>0.55853501440833775</v>
       </c>
       <c r="O9" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K9,translate)</f>
-        <v>0.82516531164610907</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.73205424111347084</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K10">
         <v>0.8</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K10,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K10,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K10,translate)</f>
-        <v>0.53787329951436424</v>
+        <v>0.51394275419506419</v>
       </c>
       <c r="O10" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K10,translate)</f>
-        <v>0.82516531164610907</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.73205424111347084</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K11">
         <v>0.9</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K11,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K11,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K11,translate)</f>
-        <v>0.49775425854638194</v>
+        <v>0.47291064620077855</v>
       </c>
       <c r="O11" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K11,translate)</f>
-        <v>0.82516531164610907</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.73205424111347084</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K12,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K12,translate)</f>
-        <v>0.77516531164610902</v>
+        <v>0.83205424111347082</v>
       </c>
       <c r="N12" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K12,translate)</f>
-        <v>0.46062762759325609</v>
+        <v>0.43515445536402081</v>
       </c>
       <c r="O12" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K12,translate)</f>
-        <v>0.82516531164610907</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.73205424111347084</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K13">
         <v>1.1000000000000001</v>
       </c>
@@ -5033,18 +5047,18 @@
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K13,translate)</f>
-        <v>0.72287755604191728</v>
+        <v>0.77459476464860977</v>
       </c>
       <c r="N13" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K13,translate)</f>
-        <v>0.45150658945534777</v>
+        <v>0.42653781983133682</v>
       </c>
       <c r="O13" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K13,translate)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K14">
         <v>1.2000000000000002</v>
       </c>
@@ -5054,18 +5068,18 @@
       </c>
       <c r="M14" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K14,translate)</f>
-        <v>0.67930442637175747</v>
+        <v>0.72671186759455897</v>
       </c>
       <c r="N14" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K14,translate)</f>
-        <v>0.44256615997338972</v>
+        <v>0.4180918051138322</v>
       </c>
       <c r="O14" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K14,translate)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K15">
         <v>1.3000000000000003</v>
       </c>
@@ -5075,18 +5089,18 @@
       </c>
       <c r="M15" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K15,translate)</f>
-        <v>0.64243485511239151</v>
+        <v>0.68619557008728516</v>
       </c>
       <c r="N15" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K15,translate)</f>
-        <v>0.43380276285638181</v>
+        <v>0.40981303269300479</v>
       </c>
       <c r="O15" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K15,translate)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K16">
         <v>1.4000000000000001</v>
       </c>
@@ -5096,18 +5110,18 @@
       </c>
       <c r="M16" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K16,translate)</f>
-        <v>0.61083236546150643</v>
+        <v>0.6514673150810506</v>
       </c>
       <c r="N16" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K16,translate)</f>
-        <v>0.42521289262863043</v>
+        <v>0.40169819094950121</v>
       </c>
       <c r="O16" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K16,translate)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K17">
         <v>1.5000000000000002</v>
       </c>
@@ -5117,18 +5131,18 @@
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K17,translate)</f>
-        <v>0.58344354109740604</v>
+        <v>0.62136949407564723</v>
       </c>
       <c r="N17" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K17,translate)</f>
-        <v>0.41679311322751134</v>
+        <v>0.39374403383842477</v>
       </c>
       <c r="O17" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K17,translate)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K18">
         <v>1.6</v>
       </c>
@@ -5138,18 +5152,18 @@
       </c>
       <c r="M18" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K18,translate)</f>
-        <v>0.55947831977881812</v>
+        <v>0.59503390069591922</v>
       </c>
       <c r="N18" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K18,translate)</f>
-        <v>0.40854005662899889</v>
+        <v>0.38594737959087416</v>
       </c>
       <c r="O18" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K18,translate)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K19">
         <v>1.7000000000000002</v>
       </c>
@@ -5159,18 +5173,18 @@
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K19,translate)</f>
-        <v>0.53833253626241706</v>
+        <v>0.57179661241968871</v>
       </c>
       <c r="N19" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K19,translate)</f>
-        <v>0.40045042150041138</v>
+        <v>0.3783051094411935</v>
       </c>
       <c r="O19" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K19,translate)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K20">
         <v>1.8000000000000003</v>
       </c>
@@ -5180,18 +5194,18 @@
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K20,translate)</f>
-        <v>0.51953628424783826</v>
+        <v>0.5511412450630393</v>
       </c>
       <c r="N20" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K20,translate)</f>
-        <v>0.3925209718798342</v>
+        <v>0.37081416637942477</v>
       </c>
       <c r="O20" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K20,translate)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K21">
         <v>1.9000000000000001</v>
       </c>
@@ -5201,18 +5215,18 @@
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K21,translate)</f>
-        <v>0.50271858507689948</v>
+        <v>0.53266012690182685</v>
       </c>
       <c r="N21" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K21,translate)</f>
-        <v>0.38474853588169167</v>
+        <v>0.36347155392846253</v>
       </c>
       <c r="O21" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K21,translate)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K22">
         <v>2</v>
       </c>
@@ -5222,18 +5236,18 @@
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K22,translate)</f>
-        <v>0.48758265582305449</v>
+        <v>0.51602712055673539</v>
       </c>
       <c r="N22" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K22,translate)</f>
-        <v>0.37713000442795075</v>
+        <v>0.35627433494542382</v>
       </c>
       <c r="O22" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K22,translate)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K23">
         <v>2.1</v>
       </c>
@@ -5243,18 +5257,18 @@
       </c>
       <c r="M23" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K23,translate)</f>
-        <v>0.47865014840290904</v>
+        <v>0.5057401148159385</v>
       </c>
       <c r="N23" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K23,translate)</f>
-        <v>0.36598412836423388</v>
+        <v>0.34574483706575171</v>
       </c>
       <c r="O23" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K23,translate)</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="24" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K24">
         <v>2.2000000000000002</v>
       </c>
@@ -5264,18 +5278,18 @@
       </c>
       <c r="M24" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K24,translate)</f>
-        <v>0.47052968711186771</v>
+        <v>0.49638829141521396</v>
       </c>
       <c r="N24" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K24,translate)</f>
-        <v>0.35516766272071465</v>
+        <v>0.3355265328779154</v>
       </c>
       <c r="O24" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K24,translate)</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="25" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K25">
         <v>2.3000000000000003</v>
       </c>
@@ -5285,18 +5299,18 @@
       </c>
       <c r="M25" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K25,translate)</f>
-        <v>0.46311535288961259</v>
+        <v>0.4878496700493351</v>
       </c>
       <c r="N25" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K25,translate)</f>
-        <v>0.34467087194818052</v>
+        <v>0.32561022521838967</v>
       </c>
       <c r="O25" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K25,translate)</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="26" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K26">
         <v>2.4000000000000004</v>
       </c>
@@ -5306,18 +5320,18 @@
       </c>
       <c r="M26" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K26,translate)</f>
-        <v>0.45631887985254538</v>
+        <v>0.48002260046394613</v>
       </c>
       <c r="N26" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K26,translate)</f>
-        <v>0.33448430822638159</v>
+        <v>0.31598698874091008</v>
       </c>
       <c r="O26" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K26,translate)</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="27" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K27">
         <v>2.5000000000000004</v>
       </c>
@@ -5327,18 +5341,18 @@
       </c>
       <c r="M27" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K27,translate)</f>
-        <v>0.45006612465844359</v>
+        <v>0.4728216964453883</v>
       </c>
       <c r="N27" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K27,translate)</f>
-        <v>0.32459880296035454</v>
+        <v>0.30664816188305893</v>
       </c>
       <c r="O27" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K27,translate)</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="28" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K28">
         <v>2.6</v>
       </c>
@@ -5348,18 +5362,18 @@
       </c>
       <c r="M28" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K28,translate)</f>
-        <v>0.44429435063311878</v>
+        <v>0.46617470812056566</v>
       </c>
       <c r="N28" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K28,translate)</f>
-        <v>0.31500545852806838</v>
+        <v>0.29758533907027451</v>
       </c>
       <c r="O28" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K28,translate)</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="29" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K29">
         <v>2.7</v>
       </c>
@@ -5369,18 +5383,18 @@
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K29,translate)</f>
-        <v>0.43895011542448475</v>
+        <v>0.46002008930128541</v>
       </c>
       <c r="N29" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K29,translate)</f>
-        <v>0.30569564027196378</v>
+        <v>0.28879036315026624</v>
       </c>
       <c r="O29" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K29,translate)</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="30" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K30">
         <v>2.8000000000000003</v>
       </c>
@@ -5390,18 +5404,18 @@
       </c>
       <c r="M30" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K30,translate)</f>
-        <v>0.43398761130218172</v>
+        <v>0.4543050861119538</v>
       </c>
       <c r="N30" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K30,translate)</f>
-        <v>0.29666096872717873</v>
+        <v>0.28025531805102755</v>
       </c>
       <c r="O30" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K30,translate)</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="31" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K31">
         <v>2.9000000000000004</v>
       </c>
@@ -5411,18 +5425,18 @@
       </c>
       <c r="M31" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K31,translate)</f>
-        <v>0.42936734884348582</v>
+        <v>0.44898422107361058</v>
       </c>
       <c r="N31" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K31,translate)</f>
-        <v>0.28789331207946423</v>
+        <v>0.2719725216558363</v>
       </c>
       <c r="O31" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K31,translate)</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="32" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K32">
         <v>3.0000000000000004</v>
       </c>
@@ -5432,18 +5446,18 @@
       </c>
       <c r="M32" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K32,translate)</f>
-        <v>0.42505510388203638</v>
+        <v>0.44401808037115692</v>
       </c>
       <c r="N32" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K32,translate)</f>
-        <v>0.27938477884600277</v>
+        <v>0.26393451888883118</v>
       </c>
       <c r="O32" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K32,translate)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="33" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K33">
         <v>3.1</v>
       </c>
@@ -5453,18 +5467,18 @@
       </c>
       <c r="M33" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K33,translate)</f>
-        <v>0.4242468747245513</v>
+        <v>0.44259814229466798</v>
       </c>
       <c r="N33" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K33,translate)</f>
-        <v>0.26842994497514688</v>
+        <v>0.25358549837613842</v>
       </c>
       <c r="O33" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K33,translate)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="34" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K34">
         <v>3.2</v>
       </c>
@@ -5474,18 +5488,18 @@
       </c>
       <c r="M34" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K34,translate)</f>
-        <v>0.42348915988940905</v>
+        <v>0.44126695034795965</v>
       </c>
       <c r="N34" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K34,translate)</f>
-        <v>0.25790465628436038</v>
+        <v>0.24364226876197237</v>
       </c>
       <c r="O34" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K34,translate)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="35" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K35">
         <v>3.3000000000000003</v>
       </c>
@@ -5495,18 +5509,18 @@
       </c>
       <c r="M35" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K35,translate)</f>
-        <v>0.42277736716548758</v>
+        <v>0.44001643670105178</v>
       </c>
       <c r="N35" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K35,translate)</f>
-        <v>0.24779207006622328</v>
+        <v>0.23408891875761503</v>
       </c>
       <c r="O35" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K35,translate)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="36" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K36">
         <v>3.4000000000000004</v>
       </c>
@@ -5516,18 +5530,18 @@
       </c>
       <c r="M36" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K36,translate)</f>
-        <v>0.42210744460179678</v>
+        <v>0.4388394826804326</v>
       </c>
       <c r="N36" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K36,translate)</f>
-        <v>0.23807600402531984</v>
+        <v>0.22491016096490268</v>
       </c>
       <c r="O36" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K36,translate)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="37" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K37">
         <v>3.5000000000000004</v>
       </c>
@@ -5537,18 +5551,18 @@
       </c>
       <c r="M37" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K37,translate)</f>
-        <v>0.42147580332745971</v>
+        <v>0.43772978317527739</v>
       </c>
       <c r="N37" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K37,translate)</f>
-        <v>0.22874091038311328</v>
+        <v>0.21609130741312757</v>
       </c>
       <c r="O37" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K37,translate)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="38" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K38">
         <v>3.6</v>
       </c>
@@ -5558,18 +5572,18 @@
       </c>
       <c r="M38" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K38,translate)</f>
-        <v>0.42087925323503028</v>
+        <v>0.43668173364263074</v>
       </c>
       <c r="N38" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K38,translate)</f>
-        <v>0.21977185099818328</v>
+        <v>0.20761824605515114</v>
       </c>
       <c r="O38" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K38,translate)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="39" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K39">
         <v>3.7</v>
       </c>
@@ -5579,18 +5593,18 @@
       </c>
       <c r="M39" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K39,translate)</f>
-        <v>0.42031494909354294</v>
+        <v>0.43569033543607316</v>
       </c>
       <c r="N39" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K39,translate)</f>
-        <v>0.21115447346201244</v>
+        <v>0.19947741818511769</v>
       </c>
       <c r="O39" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K39,translate)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="40" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K40">
         <v>3.8000000000000003</v>
       </c>
@@ -5600,18 +5614,18 @@
       </c>
       <c r="M40" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K40,translate)</f>
-        <v>0.41978034517002866</v>
+        <v>0.43475111608249228</v>
       </c>
       <c r="N40" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K40,translate)</f>
-        <v>0.20287498813207105</v>
+        <v>0.19165579674163266</v>
       </c>
       <c r="O40" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K40,translate)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="41" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K41">
         <v>3.9000000000000004</v>
       </c>
@@ -5621,18 +5635,18 @@
       </c>
       <c r="M41" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K41,translate)</f>
-        <v>0.41927315683233563</v>
+        <v>0.43386006182396686</v>
       </c>
       <c r="N41" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K41,translate)</f>
-        <v>0.19492014606544675</v>
+        <v>0.1841408654616849</v>
       </c>
       <c r="O41" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K41,translate)</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="42" spans="11:15" x14ac:dyDescent="0.3">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="11:15" x14ac:dyDescent="0.35">
       <c r="K42">
         <v>4</v>
       </c>
@@ -5642,15 +5656,15 @@
       </c>
       <c r="M42" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K42,translate)</f>
-        <v>0.41879132791152729</v>
+        <v>0.43301356027836768</v>
       </c>
       <c r="N42" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K42,translate)</f>
-        <v>0.18727721781770951</v>
+        <v>0.17692059885195566</v>
       </c>
       <c r="O42" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K42,translate)</f>
-        <v>0.45</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -5663,111 +5677,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8A3DD8-75E7-4A72-9366-AF366CC35FAC}">
   <dimension ref="B1:I553"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.9140625" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <v>4</v>
-      </c>
-      <c r="D2" cm="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="25" cm="1">
         <f t="array" ref="D2:D5">_xll.TMX.BOND.SIMPLE(bond.simple)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
-        <v>3229850275728</v>
-      </c>
-      <c r="F2" cm="1">
+        <v>1487225911056</v>
+      </c>
+      <c r="F2" s="25" cm="1">
         <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="16">
         <f>F2-D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="D3">
-        <v>0.04</v>
-      </c>
-      <c r="F3">
-        <v>0.04</v>
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.02</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G5" si="0">F3-D3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="D4" s="25">
+        <v>4</v>
+      </c>
+      <c r="F4" s="25">
+        <v>4</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4">
-        <v>140716919112232</v>
-      </c>
-      <c r="F5" s="4">
-        <v>140716919112232</v>
+        <v>27</v>
+      </c>
+      <c r="D5" s="28">
+        <v>140716792682483</v>
+      </c>
+      <c r="F5" s="28">
+        <v>140716792682483</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="4" cm="1">
         <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
-        <v>3229850275824</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1487354323584</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -5776,91 +5788,95 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="e" cm="1">
+      <c r="C8" s="4" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1487167974960</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="19" t="e" cm="1">
+      <c r="C9" s="19" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
-        <v>#VALUE!</v>
+        <v>2.0239937843028265E-2</v>
       </c>
       <c r="D9" s="4" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_xll.\TMX.PWFLAT.CURVE(0,0,yield)</f>
-        <v>1640477351360</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1487167977424</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="22" t="e" cm="1">
+      <c r="C10" s="22" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">_xll.TMX.VALUE.PRESENT(instrument, $D$9)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1.0000000000000056</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="22" t="e" cm="1">
+      <c r="C11" s="22" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.VALUE.DURATION(instrument, $D$9)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-2.9188134000356967</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="22" t="e" cm="1">
+      <c r="C12" s="22" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.CONVEXITY(instrument, $D$9)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8.6705434182642289</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="19" t="e" cm="1">
+      <c r="C13" s="19" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(yield,_xll.ENUM(frequency))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="6" t="e">
-        <f ca="1">C10-G14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" s="6" t="e">
-        <f ca="1">C11-H14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="6" t="e">
-        <f ca="1">C12-I14</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G14" t="e">
-        <f ca="1">SUM(G16:G23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" t="e">
-        <f ca="1">SUM(H16:H23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I14" t="e">
-        <f ca="1">SUM(I16:I23)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2.0291231206562621E-2</v>
+      </c>
+      <c r="D13" s="29">
+        <f ca="1">C13-coupon</f>
+        <v>2.9123120656262061E-4</v>
+      </c>
+      <c r="G13" s="30">
+        <f ca="1">present-G14</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <f ca="1">duration-H14</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <f ca="1">convexity-I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="23">
+        <f ca="1">SUM(_xlfn.ANCHORARRAY(G16))</f>
+        <v>1.0000000000000056</v>
+      </c>
+      <c r="H14" s="23">
+        <f ca="1">SUM(_xlfn.ANCHORARRAY(H16))</f>
+        <v>-2.9188134000356967</v>
+      </c>
+      <c r="I14" s="15">
+        <f ca="1">SUM(_xlfn.ANCHORARRAY(I16))</f>
+        <v>8.6705434182642289</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
@@ -5883,2510 +5899,2930 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="15" t="e" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(C16),,1),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="23" t="e" cm="1">
-        <f t="array" aca="1" ref="F16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" s="23" t="e">
-        <f ca="1">D16*F16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="23" t="e">
-        <f ca="1">-G16*C16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I16" s="23" t="e">
-        <f ca="1">C16^2*G16</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="23" cm="1">
-        <f t="array" aca="1" ref="F17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C17)</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="23">
-        <f t="shared" ref="G17:G23" ca="1" si="1">D17*F17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="23">
-        <f t="shared" ref="H17:H23" ca="1" si="2">-G17*C17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="23">
-        <f t="shared" ref="I17:I23" ca="1" si="3">C17^2*G17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="15"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="23" cm="1">
-        <f t="array" aca="1" ref="F18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C18)</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="23" cm="1">
-        <f t="array" aca="1" ref="F19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C19)</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="23" cm="1">
-        <f t="array" aca="1" ref="F20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C20)</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="15"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="23" cm="1">
-        <f t="array" aca="1" ref="F21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C21)</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="15"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="23" cm="1">
-        <f t="array" aca="1" ref="F22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C22)</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="15"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="23" cm="1">
-        <f t="array" aca="1" ref="F23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, C23)</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="23">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="15"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="15"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="15"/>
-      <c r="E26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="15"/>
-      <c r="E27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C16" s="15" cm="1">
+        <f t="array" aca="1" ref="C16:D27" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
+        <v>0.25188744464294271</v>
+      </c>
+      <c r="D16">
+        <f ca="1"/>
+        <v>5.1111111111111105E-3</v>
+      </c>
+      <c r="E16" s="2" cm="1">
+        <f t="array" aca="1" ref="E16:E27" ca="1">_xlfn.MAP(time,_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
+        <v>45205</v>
+      </c>
+      <c r="F16" s="15" cm="1">
+        <f t="array" aca="1" ref="F16:F27" ca="1">_xlfn.MAP(time,_xlfn.LAMBDA(_xlpm.t, _xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, _xlpm.t)))</f>
+        <v>0.99491478747156925</v>
+      </c>
+      <c r="G16" s="15" cm="1">
+        <f t="array" aca="1" ref="G16:G27" ca="1">cash*_xlfn.ANCHORARRAY(F16)</f>
+        <v>5.0851200248546863E-3</v>
+      </c>
+      <c r="H16" s="15" cm="1">
+        <f t="array" aca="1" ref="H16:H27" ca="1">-time*_xlfn.ANCHORARRAY(G16)</f>
+        <v>-1.2808778887633042E-3</v>
+      </c>
+      <c r="I16" s="15" cm="1">
+        <f t="array" aca="1" ref="I16:I27" ca="1">time^2*_xlfn.ANCHORARRAY(G16)</f>
+        <v>3.2263705830023613E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C17" s="15">
+        <f ca="1"/>
+        <v>0.50377488928588543</v>
+      </c>
+      <c r="D17">
+        <f ca="1"/>
+        <v>5.1111111111111105E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <f ca="1"/>
+        <v>45297</v>
+      </c>
+      <c r="F17" s="15">
+        <f ca="1"/>
+        <v>0.98985543432959777</v>
+      </c>
+      <c r="G17" s="15">
+        <f ca="1"/>
+        <v>5.0592611087957214E-3</v>
+      </c>
+      <c r="H17" s="15">
+        <f ca="1"/>
+        <v>-2.5487287049519507E-3</v>
+      </c>
+      <c r="I17" s="15">
+        <f ca="1"/>
+        <v>1.2839855211569269E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C18" s="15">
+        <f ca="1"/>
+        <v>0.75292442692183958</v>
+      </c>
+      <c r="D18">
+        <f ca="1"/>
+        <v>5.0555555555555553E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <f ca="1"/>
+        <v>45388</v>
+      </c>
+      <c r="F18" s="15">
+        <f ca="1"/>
+        <v>0.98487638455291215</v>
+      </c>
+      <c r="G18" s="15">
+        <f ca="1"/>
+        <v>4.9790972774619449E-3</v>
+      </c>
+      <c r="H18" s="15">
+        <f ca="1"/>
+        <v>-3.7488839642211267E-3</v>
+      </c>
+      <c r="I18" s="15">
+        <f ca="1"/>
+        <v>2.8226263103576657E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C19" s="15">
+        <f ca="1"/>
+        <v>1.0020739645577939</v>
+      </c>
+      <c r="D19">
+        <f ca="1"/>
+        <v>5.0555555555555553E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <f ca="1"/>
+        <v>45479</v>
+      </c>
+      <c r="F19" s="15">
+        <f ca="1"/>
+        <v>0.97992237978362762</v>
+      </c>
+      <c r="G19" s="15">
+        <f ca="1"/>
+        <v>4.9540520311283391E-3</v>
+      </c>
+      <c r="H19" s="15">
+        <f ca="1"/>
+        <v>-4.9643265594583657E-3</v>
+      </c>
+      <c r="I19" s="15">
+        <f ca="1"/>
+        <v>4.9746223967959968E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C20" s="15">
+        <f ca="1"/>
+        <v>1.2539614092007365</v>
+      </c>
+      <c r="D20">
+        <f ca="1"/>
+        <v>5.1111111111111105E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <f ca="1"/>
+        <v>45571</v>
+      </c>
+      <c r="F20" s="15">
+        <f ca="1"/>
+        <v>0.9749392662210622</v>
+      </c>
+      <c r="G20" s="15">
+        <f ca="1"/>
+        <v>4.9830229162409843E-3</v>
+      </c>
+      <c r="H20" s="15">
+        <f ca="1"/>
+        <v>-6.2485184381291083E-3</v>
+      </c>
+      <c r="I20" s="15">
+        <f ca="1"/>
+        <v>7.8354009860931613E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C21" s="15">
+        <f ca="1"/>
+        <v>1.5058488538436792</v>
+      </c>
+      <c r="D21">
+        <f ca="1"/>
+        <v>5.1111111111111105E-3</v>
+      </c>
+      <c r="E21" s="2">
+        <f ca="1"/>
+        <v>45663</v>
+      </c>
+      <c r="F21" s="15">
+        <f ca="1"/>
+        <v>0.96998149285001578</v>
+      </c>
+      <c r="G21" s="15">
+        <f ca="1"/>
+        <v>4.9576831856778577E-3</v>
+      </c>
+      <c r="H21" s="15">
+        <f ca="1"/>
+        <v>-7.4655215428730817E-3</v>
+      </c>
+      <c r="I21" s="15">
+        <f ca="1"/>
+        <v>1.1241947058680726E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C22" s="15">
+        <f ca="1"/>
+        <v>1.7522604844726448</v>
+      </c>
+      <c r="D22">
+        <f ca="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E22" s="2">
+        <f ca="1"/>
+        <v>45753</v>
+      </c>
+      <c r="F22" s="15">
+        <f ca="1"/>
+        <v>0.96515589324100604</v>
+      </c>
+      <c r="G22" s="15">
+        <f ca="1"/>
+        <v>4.82577946620503E-3</v>
+      </c>
+      <c r="H22" s="15">
+        <f ca="1"/>
+        <v>-8.4560226654105675E-3</v>
+      </c>
+      <c r="I22" s="15">
+        <f ca="1"/>
+        <v>1.4817154372403985E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="15">
+        <f ca="1"/>
+        <v>2.0014100221085989</v>
+      </c>
+      <c r="D23">
+        <f ca="1"/>
+        <v>5.0555555555555553E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <f ca="1"/>
+        <v>45843.999988425923</v>
+      </c>
+      <c r="F23" s="15">
+        <f ca="1"/>
+        <v>0.96030108407590498</v>
+      </c>
+      <c r="G23" s="15">
+        <f ca="1"/>
+        <v>4.8548554806059638E-3</v>
+      </c>
+      <c r="H23" s="15">
+        <f ca="1"/>
+        <v>-9.716556414773635E-3</v>
+      </c>
+      <c r="I23" s="15">
+        <f ca="1"/>
+        <v>1.9446813388911549E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C24" s="15">
+        <f ca="1"/>
+        <v>2.2532974667515417</v>
+      </c>
+      <c r="D24">
+        <f ca="1"/>
+        <v>5.1111111111111105E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <f ca="1"/>
+        <v>45936</v>
+      </c>
+      <c r="F24" s="15">
+        <f ca="1"/>
+        <v>0.95541774897209653</v>
+      </c>
+      <c r="G24" s="15">
+        <f ca="1"/>
+        <v>4.8832462725240484E-3</v>
+      </c>
+      <c r="H24" s="15">
+        <f ca="1"/>
+        <v>-1.1003406455402346E-2</v>
+      </c>
+      <c r="I24" s="15">
+        <f ca="1"/>
+        <v>2.4793947891595673E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C25" s="15">
+        <f ca="1"/>
+        <v>2.5051849113944846</v>
+      </c>
+      <c r="D25">
+        <f ca="1"/>
+        <v>5.1111111111111105E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f ca="1"/>
+        <v>46028</v>
+      </c>
+      <c r="F25" s="15">
+        <f ca="1"/>
+        <v>0.95055924666513858</v>
+      </c>
+      <c r="G25" s="15">
+        <f ca="1"/>
+        <v>4.858413927399597E-3</v>
+      </c>
+      <c r="H25" s="15">
+        <f ca="1"/>
+        <v>-1.2171225264230289E-2</v>
+      </c>
+      <c r="I25" s="15">
+        <f ca="1"/>
+        <v>3.049116988513307E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C26" s="15">
+        <f ca="1"/>
+        <v>2.7515965420234503</v>
+      </c>
+      <c r="D26">
+        <f ca="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E26" s="2">
+        <f ca="1"/>
+        <v>46118</v>
+      </c>
+      <c r="F26" s="15">
+        <f ca="1"/>
+        <v>0.94583027156318045</v>
+      </c>
+      <c r="G26" s="15">
+        <f ca="1"/>
+        <v>4.7291513578159019E-3</v>
+      </c>
+      <c r="H26" s="15">
+        <f ca="1"/>
+        <v>-1.301271652287174E-2</v>
+      </c>
+      <c r="I26" s="15">
+        <f ca="1"/>
+        <v>3.5805745786665295E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C27" s="15">
+        <f ca="1"/>
+        <v>3.0007460796594043</v>
+      </c>
+      <c r="D27">
+        <f ca="1"/>
+        <v>1.0050555555555556</v>
+      </c>
+      <c r="E27" s="2">
+        <f ca="1"/>
+        <v>46209</v>
+      </c>
+      <c r="F27" s="15">
+        <f ca="1"/>
+        <v>0.94107267177731002</v>
+      </c>
+      <c r="G27" s="15">
+        <f ca="1"/>
+        <v>0.94583031695129538</v>
+      </c>
+      <c r="H27" s="15">
+        <f ca="1"/>
+        <v>-2.8381966156146112</v>
+      </c>
+      <c r="I27" s="15">
+        <f ca="1"/>
+        <v>8.5167073676081344</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C28" s="15"/>
       <c r="E28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C29" s="15"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C30" s="15"/>
       <c r="E30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C31" s="15"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C32" s="15"/>
       <c r="E32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C33" s="15"/>
       <c r="E33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C34" s="15"/>
       <c r="E34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C35" s="15"/>
       <c r="E35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C36" s="15"/>
       <c r="E36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C37" s="15"/>
       <c r="E37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C38" s="15"/>
       <c r="E38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C39" s="15"/>
       <c r="E39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C40" s="15"/>
       <c r="E40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C41" s="15"/>
       <c r="E41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C42" s="15"/>
       <c r="E42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C43" s="15"/>
       <c r="E43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C44" s="15"/>
       <c r="E44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C45" s="15"/>
       <c r="E45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C46" s="15"/>
       <c r="E46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C47" s="15"/>
       <c r="E47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C48" s="15"/>
       <c r="E48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C49" s="15"/>
       <c r="E49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C50" s="15"/>
       <c r="E50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C51" s="15"/>
       <c r="E51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C52" s="15"/>
       <c r="E52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C53" s="15"/>
       <c r="E53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C54" s="15"/>
       <c r="E54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C55" s="15"/>
       <c r="E55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C56" s="15"/>
       <c r="E56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C57" s="15"/>
       <c r="E57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C58" s="15"/>
       <c r="E58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C59" s="15"/>
       <c r="E59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C60" s="15"/>
       <c r="E60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C61" s="15"/>
       <c r="E61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C62" s="15"/>
       <c r="E62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C63" s="15"/>
       <c r="E63" s="2"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C64" s="15"/>
       <c r="E64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C65" s="15"/>
       <c r="E65" s="2"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C66" s="15"/>
       <c r="E66" s="2"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C67" s="15"/>
       <c r="E67" s="2"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C68" s="15"/>
       <c r="E68" s="2"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C69" s="15"/>
       <c r="E69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C70" s="15"/>
       <c r="E70" s="2"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C71" s="15"/>
       <c r="E71" s="2"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C72" s="15"/>
       <c r="E72" s="2"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C73" s="15"/>
       <c r="E73" s="2"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C74" s="15"/>
       <c r="E74" s="2"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C75" s="15"/>
       <c r="E75" s="2"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C76" s="15"/>
       <c r="E76" s="2"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C77" s="15"/>
       <c r="E77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C78" s="15"/>
       <c r="E78" s="2"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C79" s="15"/>
       <c r="E79" s="2"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C80" s="15"/>
       <c r="E80" s="2"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C81" s="15"/>
       <c r="E81" s="2"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C82" s="15"/>
       <c r="E82" s="2"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C83" s="15"/>
       <c r="E83" s="2"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C84" s="15"/>
       <c r="E84" s="2"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C85" s="15"/>
       <c r="E85" s="2"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C86" s="15"/>
       <c r="E86" s="2"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C87" s="15"/>
       <c r="E87" s="2"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C88" s="15"/>
       <c r="E88" s="2"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C89" s="15"/>
       <c r="E89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C90" s="15"/>
       <c r="E90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C91" s="15"/>
       <c r="E91" s="2"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C92" s="15"/>
       <c r="E92" s="2"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C93" s="15"/>
       <c r="E93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C94" s="15"/>
       <c r="E94" s="2"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C95" s="15"/>
       <c r="E95" s="2"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C96" s="15"/>
       <c r="E96" s="2"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C97" s="15"/>
       <c r="E97" s="2"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C98" s="15"/>
       <c r="E98" s="2"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C99" s="15"/>
       <c r="E99" s="2"/>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C100" s="15"/>
       <c r="E100" s="2"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C101" s="15"/>
       <c r="E101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C102" s="15"/>
       <c r="E102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C103" s="15"/>
       <c r="E103" s="2"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C104" s="15"/>
       <c r="E104" s="2"/>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C105" s="15"/>
       <c r="E105" s="2"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C106" s="15"/>
       <c r="E106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C107" s="15"/>
       <c r="E107" s="2"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C108" s="15"/>
       <c r="E108" s="2"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C109" s="15"/>
       <c r="E109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C110" s="15"/>
       <c r="E110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C111" s="15"/>
       <c r="E111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C112" s="15"/>
       <c r="E112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C113" s="15"/>
       <c r="E113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C114" s="15"/>
       <c r="E114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C115" s="15"/>
       <c r="E115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C116" s="15"/>
       <c r="E116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C117" s="15"/>
       <c r="E117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C118" s="15"/>
       <c r="E118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C119" s="15"/>
       <c r="E119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C120" s="15"/>
       <c r="E120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C121" s="15"/>
       <c r="E121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C122" s="15"/>
       <c r="E122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C123" s="15"/>
       <c r="E123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C124" s="15"/>
       <c r="E124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C125" s="15"/>
       <c r="E125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C126" s="15"/>
       <c r="E126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C127" s="15"/>
       <c r="E127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C128" s="15"/>
       <c r="E128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C129" s="15"/>
       <c r="E129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C130" s="15"/>
       <c r="E130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C131" s="15"/>
       <c r="E131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C132" s="15"/>
       <c r="E132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C133" s="15"/>
       <c r="E133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C134" s="15"/>
       <c r="E134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C135" s="15"/>
       <c r="E135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C136" s="15"/>
       <c r="E136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C137" s="15"/>
       <c r="E137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C138" s="15"/>
       <c r="E138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C139" s="15"/>
       <c r="E139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C140" s="15"/>
       <c r="E140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C141" s="15"/>
       <c r="E141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C142" s="15"/>
       <c r="E142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C143" s="15"/>
       <c r="E143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C144" s="15"/>
       <c r="E144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C145" s="15"/>
       <c r="E145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C146" s="15"/>
       <c r="E146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C147" s="15"/>
       <c r="E147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C148" s="15"/>
       <c r="E148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C149" s="15"/>
       <c r="E149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C150" s="15"/>
       <c r="E150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C151" s="15"/>
       <c r="E151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C152" s="15"/>
       <c r="E152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C153" s="15"/>
       <c r="E153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C154" s="15"/>
       <c r="E154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C155" s="15"/>
       <c r="E155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C156" s="15"/>
       <c r="E156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C157" s="15"/>
       <c r="E157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C158" s="15"/>
       <c r="E158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C159" s="15"/>
       <c r="E159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C160" s="15"/>
       <c r="E160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C161" s="15"/>
       <c r="E161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C162" s="15"/>
       <c r="E162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C163" s="15"/>
       <c r="E163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C164" s="15"/>
       <c r="E164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C165" s="15"/>
       <c r="E165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C166" s="15"/>
       <c r="E166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C167" s="15"/>
       <c r="E167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C168" s="15"/>
       <c r="E168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C169" s="15"/>
       <c r="E169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C170" s="15"/>
       <c r="E170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C171" s="15"/>
       <c r="E171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C172" s="15"/>
       <c r="E172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C173" s="15"/>
       <c r="E173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C174" s="15"/>
       <c r="E174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C175" s="15"/>
       <c r="E175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C176" s="15"/>
       <c r="E176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C177" s="15"/>
       <c r="E177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C178" s="15"/>
       <c r="E178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C179" s="15"/>
       <c r="E179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C180" s="15"/>
       <c r="E180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C181" s="15"/>
       <c r="E181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C182" s="15"/>
       <c r="E182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C183" s="15"/>
       <c r="E183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C184" s="15"/>
       <c r="E184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C185" s="15"/>
       <c r="E185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C186" s="15"/>
       <c r="E186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C187" s="15"/>
       <c r="E187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C188" s="15"/>
       <c r="E188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C189" s="15"/>
       <c r="E189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C190" s="15"/>
       <c r="E190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C191" s="15"/>
       <c r="E191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C192" s="15"/>
       <c r="E192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C193" s="15"/>
       <c r="E193" s="2"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C194" s="15"/>
       <c r="E194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C195" s="15"/>
       <c r="E195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C196" s="15"/>
       <c r="E196" s="2"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C197" s="15"/>
       <c r="E197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C198" s="15"/>
       <c r="E198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C199" s="15"/>
       <c r="E199" s="2"/>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C200" s="15"/>
       <c r="E200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C201" s="15"/>
       <c r="E201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C202" s="15"/>
       <c r="E202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C203" s="15"/>
       <c r="E203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C204" s="15"/>
       <c r="E204" s="2"/>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C205" s="15"/>
       <c r="E205" s="2"/>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C206" s="15"/>
       <c r="E206" s="2"/>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C207" s="15"/>
       <c r="E207" s="2"/>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C208" s="15"/>
       <c r="E208" s="2"/>
       <c r="G208" s="2"/>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C209" s="15"/>
       <c r="E209" s="2"/>
       <c r="G209" s="2"/>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C210" s="15"/>
       <c r="E210" s="2"/>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C211" s="15"/>
       <c r="E211" s="2"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C212" s="15"/>
       <c r="E212" s="2"/>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C213" s="15"/>
       <c r="E213" s="2"/>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C214" s="15"/>
       <c r="E214" s="2"/>
       <c r="G214" s="2"/>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C215" s="15"/>
       <c r="E215" s="2"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C216" s="15"/>
       <c r="E216" s="2"/>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C217" s="15"/>
       <c r="E217" s="2"/>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C218" s="15"/>
       <c r="E218" s="2"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C219" s="15"/>
       <c r="E219" s="2"/>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C220" s="15"/>
       <c r="E220" s="2"/>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C221" s="15"/>
       <c r="E221" s="2"/>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C222" s="15"/>
       <c r="E222" s="2"/>
       <c r="G222" s="2"/>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C223" s="15"/>
       <c r="E223" s="2"/>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C224" s="15"/>
       <c r="E224" s="2"/>
       <c r="G224" s="2"/>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C225" s="15"/>
       <c r="E225" s="2"/>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C226" s="15"/>
       <c r="E226" s="2"/>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C227" s="15"/>
       <c r="E227" s="2"/>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C228" s="15"/>
       <c r="E228" s="2"/>
       <c r="G228" s="2"/>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C229" s="15"/>
       <c r="E229" s="2"/>
       <c r="G229" s="2"/>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C230" s="15"/>
       <c r="E230" s="2"/>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C231" s="15"/>
       <c r="E231" s="2"/>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C232" s="15"/>
       <c r="E232" s="2"/>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C233" s="15"/>
       <c r="E233" s="2"/>
       <c r="G233" s="2"/>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C234" s="15"/>
       <c r="E234" s="2"/>
       <c r="G234" s="2"/>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C235" s="15"/>
       <c r="E235" s="2"/>
       <c r="G235" s="2"/>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C236" s="15"/>
       <c r="E236" s="2"/>
       <c r="G236" s="2"/>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C237" s="15"/>
       <c r="E237" s="2"/>
       <c r="G237" s="2"/>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C238" s="15"/>
       <c r="E238" s="2"/>
       <c r="G238" s="2"/>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C239" s="15"/>
       <c r="E239" s="2"/>
       <c r="G239" s="2"/>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C240" s="15"/>
       <c r="E240" s="2"/>
       <c r="G240" s="2"/>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C241" s="15"/>
       <c r="E241" s="2"/>
       <c r="G241" s="2"/>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C242" s="15"/>
       <c r="E242" s="2"/>
       <c r="G242" s="2"/>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C243" s="15"/>
       <c r="E243" s="2"/>
       <c r="G243" s="2"/>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C244" s="15"/>
       <c r="E244" s="2"/>
       <c r="G244" s="2"/>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C245" s="15"/>
       <c r="E245" s="2"/>
       <c r="G245" s="2"/>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C246" s="15"/>
       <c r="E246" s="2"/>
       <c r="G246" s="2"/>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C247" s="15"/>
       <c r="E247" s="2"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C248" s="15"/>
       <c r="E248" s="2"/>
       <c r="G248" s="2"/>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C249" s="15"/>
       <c r="E249" s="2"/>
       <c r="G249" s="2"/>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C250" s="15"/>
       <c r="E250" s="2"/>
       <c r="G250" s="2"/>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C251" s="15"/>
       <c r="E251" s="2"/>
       <c r="G251" s="2"/>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C252" s="15"/>
       <c r="E252" s="2"/>
       <c r="G252" s="2"/>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C253" s="15"/>
       <c r="E253" s="2"/>
       <c r="G253" s="2"/>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C254" s="15"/>
       <c r="E254" s="2"/>
       <c r="G254" s="2"/>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C255" s="15"/>
       <c r="E255" s="2"/>
       <c r="G255" s="2"/>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C256" s="15"/>
       <c r="E256" s="2"/>
       <c r="G256" s="2"/>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C257" s="15"/>
       <c r="E257" s="2"/>
       <c r="G257" s="2"/>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C258" s="15"/>
       <c r="E258" s="2"/>
       <c r="G258" s="2"/>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C259" s="15"/>
       <c r="E259" s="2"/>
       <c r="G259" s="2"/>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C260" s="15"/>
       <c r="E260" s="2"/>
       <c r="G260" s="2"/>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C261" s="15"/>
       <c r="E261" s="2"/>
       <c r="G261" s="2"/>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C262" s="15"/>
       <c r="E262" s="2"/>
       <c r="G262" s="2"/>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C263" s="15"/>
       <c r="E263" s="2"/>
       <c r="G263" s="2"/>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C264" s="15"/>
       <c r="E264" s="2"/>
       <c r="G264" s="2"/>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C265" s="15"/>
       <c r="E265" s="2"/>
       <c r="G265" s="2"/>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C266" s="15"/>
       <c r="E266" s="2"/>
       <c r="G266" s="2"/>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C267" s="15"/>
       <c r="E267" s="2"/>
       <c r="G267" s="2"/>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C268" s="15"/>
       <c r="E268" s="2"/>
       <c r="G268" s="2"/>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C269" s="15"/>
       <c r="E269" s="2"/>
       <c r="G269" s="2"/>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C270" s="15"/>
       <c r="E270" s="2"/>
       <c r="G270" s="2"/>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C271" s="15"/>
       <c r="E271" s="2"/>
       <c r="G271" s="2"/>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C272" s="15"/>
       <c r="E272" s="2"/>
       <c r="G272" s="2"/>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C273" s="15"/>
       <c r="E273" s="2"/>
       <c r="G273" s="2"/>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C274" s="15"/>
       <c r="E274" s="2"/>
       <c r="G274" s="2"/>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C275" s="15"/>
       <c r="E275" s="2"/>
       <c r="G275" s="2"/>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C276" s="15"/>
       <c r="E276" s="2"/>
       <c r="G276" s="2"/>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C277" s="15"/>
       <c r="E277" s="2"/>
       <c r="G277" s="2"/>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C278" s="15"/>
       <c r="E278" s="2"/>
       <c r="G278" s="2"/>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C279" s="15"/>
       <c r="E279" s="2"/>
       <c r="G279" s="2"/>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C280" s="15"/>
       <c r="E280" s="2"/>
       <c r="G280" s="2"/>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C281" s="15"/>
       <c r="E281" s="2"/>
       <c r="G281" s="2"/>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C282" s="15"/>
       <c r="E282" s="2"/>
       <c r="G282" s="2"/>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C283" s="15"/>
       <c r="E283" s="2"/>
       <c r="G283" s="2"/>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C284" s="15"/>
       <c r="E284" s="2"/>
       <c r="G284" s="2"/>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C285" s="15"/>
       <c r="E285" s="2"/>
       <c r="G285" s="2"/>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C286" s="15"/>
       <c r="E286" s="2"/>
       <c r="G286" s="2"/>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C287" s="15"/>
       <c r="E287" s="2"/>
       <c r="G287" s="2"/>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C288" s="15"/>
       <c r="E288" s="2"/>
       <c r="G288" s="2"/>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C289" s="15"/>
       <c r="E289" s="2"/>
       <c r="G289" s="2"/>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C290" s="15"/>
       <c r="E290" s="2"/>
       <c r="G290" s="2"/>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C291" s="15"/>
       <c r="E291" s="2"/>
       <c r="G291" s="2"/>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C292" s="15"/>
       <c r="E292" s="2"/>
       <c r="G292" s="2"/>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C293" s="15"/>
       <c r="E293" s="2"/>
       <c r="G293" s="2"/>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C294" s="15"/>
       <c r="E294" s="2"/>
       <c r="G294" s="2"/>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C295" s="15"/>
       <c r="E295" s="2"/>
       <c r="G295" s="2"/>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C296" s="15"/>
       <c r="E296" s="2"/>
       <c r="G296" s="2"/>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C297" s="15"/>
       <c r="E297" s="2"/>
       <c r="G297" s="2"/>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C298" s="15"/>
       <c r="E298" s="2"/>
       <c r="G298" s="2"/>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C299" s="15"/>
       <c r="E299" s="2"/>
       <c r="G299" s="2"/>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C300" s="15"/>
       <c r="E300" s="2"/>
       <c r="G300" s="2"/>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C301" s="15"/>
       <c r="E301" s="2"/>
       <c r="G301" s="2"/>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C302" s="15"/>
       <c r="E302" s="2"/>
       <c r="G302" s="2"/>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C303" s="15"/>
       <c r="E303" s="2"/>
       <c r="G303" s="2"/>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C304" s="15"/>
       <c r="E304" s="2"/>
       <c r="G304" s="2"/>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C305" s="15"/>
       <c r="E305" s="2"/>
       <c r="G305" s="2"/>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C306" s="15"/>
       <c r="E306" s="2"/>
       <c r="G306" s="2"/>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C307" s="15"/>
       <c r="E307" s="2"/>
       <c r="G307" s="2"/>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C308" s="15"/>
       <c r="E308" s="2"/>
       <c r="G308" s="2"/>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C309" s="15"/>
       <c r="E309" s="2"/>
       <c r="G309" s="2"/>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C310" s="15"/>
       <c r="E310" s="2"/>
       <c r="G310" s="2"/>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C311" s="15"/>
       <c r="E311" s="2"/>
       <c r="G311" s="2"/>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C312" s="15"/>
       <c r="E312" s="2"/>
       <c r="G312" s="2"/>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C313" s="15"/>
       <c r="E313" s="2"/>
       <c r="G313" s="2"/>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C314" s="15"/>
       <c r="E314" s="2"/>
       <c r="G314" s="2"/>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C315" s="15"/>
       <c r="E315" s="2"/>
       <c r="G315" s="2"/>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C316" s="15"/>
       <c r="E316" s="2"/>
       <c r="G316" s="2"/>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C317" s="15"/>
       <c r="E317" s="2"/>
       <c r="G317" s="2"/>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C318" s="15"/>
       <c r="E318" s="2"/>
       <c r="G318" s="2"/>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C319" s="15"/>
       <c r="E319" s="2"/>
       <c r="G319" s="2"/>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C320" s="15"/>
       <c r="E320" s="2"/>
       <c r="G320" s="2"/>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C321" s="15"/>
       <c r="E321" s="2"/>
       <c r="G321" s="2"/>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C322" s="15"/>
       <c r="E322" s="2"/>
       <c r="G322" s="2"/>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C323" s="15"/>
       <c r="E323" s="2"/>
       <c r="G323" s="2"/>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C324" s="15"/>
       <c r="E324" s="2"/>
       <c r="G324" s="2"/>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C325" s="15"/>
       <c r="E325" s="2"/>
       <c r="G325" s="2"/>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C326" s="15"/>
       <c r="E326" s="2"/>
       <c r="G326" s="2"/>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C327" s="15"/>
       <c r="E327" s="2"/>
       <c r="G327" s="2"/>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C328" s="15"/>
       <c r="E328" s="2"/>
       <c r="G328" s="2"/>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C329" s="15"/>
       <c r="E329" s="2"/>
       <c r="G329" s="2"/>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C330" s="15"/>
       <c r="E330" s="2"/>
       <c r="G330" s="2"/>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C331" s="15"/>
       <c r="E331" s="2"/>
       <c r="G331" s="2"/>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C332" s="15"/>
       <c r="E332" s="2"/>
       <c r="G332" s="2"/>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C333" s="15"/>
       <c r="E333" s="2"/>
       <c r="G333" s="2"/>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C334" s="15"/>
       <c r="E334" s="2"/>
       <c r="G334" s="2"/>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C335" s="15"/>
       <c r="E335" s="2"/>
       <c r="G335" s="2"/>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C336" s="15"/>
       <c r="E336" s="2"/>
       <c r="G336" s="2"/>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C337" s="15"/>
       <c r="E337" s="2"/>
       <c r="G337" s="2"/>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C338" s="15"/>
       <c r="E338" s="2"/>
       <c r="G338" s="2"/>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C339" s="15"/>
       <c r="E339" s="2"/>
       <c r="G339" s="2"/>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C340" s="15"/>
       <c r="E340" s="2"/>
       <c r="G340" s="2"/>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C341" s="15"/>
       <c r="E341" s="2"/>
       <c r="G341" s="2"/>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C342" s="15"/>
       <c r="E342" s="2"/>
       <c r="G342" s="2"/>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C343" s="15"/>
       <c r="E343" s="2"/>
       <c r="G343" s="2"/>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C344" s="15"/>
       <c r="E344" s="2"/>
       <c r="G344" s="2"/>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C345" s="15"/>
       <c r="E345" s="2"/>
       <c r="G345" s="2"/>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C346" s="15"/>
       <c r="E346" s="2"/>
       <c r="G346" s="2"/>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C347" s="15"/>
       <c r="E347" s="2"/>
       <c r="G347" s="2"/>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C348" s="15"/>
       <c r="E348" s="2"/>
       <c r="G348" s="2"/>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C349" s="15"/>
       <c r="E349" s="2"/>
       <c r="G349" s="2"/>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C350" s="15"/>
       <c r="E350" s="2"/>
       <c r="G350" s="2"/>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C351" s="15"/>
       <c r="E351" s="2"/>
       <c r="G351" s="2"/>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C352" s="15"/>
       <c r="E352" s="2"/>
       <c r="G352" s="2"/>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C353" s="15"/>
       <c r="E353" s="2"/>
       <c r="G353" s="2"/>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C354" s="15"/>
       <c r="E354" s="2"/>
       <c r="G354" s="2"/>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C355" s="15"/>
       <c r="E355" s="2"/>
       <c r="G355" s="2"/>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C356" s="15"/>
       <c r="E356" s="2"/>
       <c r="G356" s="2"/>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C357" s="15"/>
       <c r="E357" s="2"/>
       <c r="G357" s="2"/>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C358" s="15"/>
       <c r="E358" s="2"/>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C359" s="15"/>
       <c r="E359" s="2"/>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C360" s="15"/>
       <c r="E360" s="2"/>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C361" s="15"/>
       <c r="E361" s="2"/>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C362" s="15"/>
       <c r="E362" s="2"/>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C363" s="15"/>
       <c r="E363" s="2"/>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C364" s="15"/>
       <c r="E364" s="2"/>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C365" s="15"/>
       <c r="E365" s="2"/>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C366" s="15"/>
       <c r="E366" s="2"/>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C367" s="15"/>
       <c r="E367" s="2"/>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C368" s="15"/>
       <c r="E368" s="2"/>
     </row>
-    <row r="369" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C369" s="15"/>
       <c r="E369" s="2"/>
     </row>
-    <row r="370" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C370" s="15"/>
       <c r="E370" s="2"/>
     </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C371" s="15"/>
       <c r="E371" s="2"/>
     </row>
-    <row r="372" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C372" s="15"/>
       <c r="E372" s="2"/>
     </row>
-    <row r="373" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C373" s="15"/>
       <c r="E373" s="2"/>
     </row>
-    <row r="374" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C374" s="15"/>
       <c r="E374" s="2"/>
     </row>
-    <row r="375" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C375" s="15"/>
       <c r="E375" s="2"/>
     </row>
-    <row r="376" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C376" s="15"/>
       <c r="E376" s="2"/>
     </row>
-    <row r="377" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C377" s="15"/>
       <c r="E377" s="2"/>
     </row>
-    <row r="378" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C378" s="15"/>
       <c r="E378" s="2"/>
     </row>
-    <row r="379" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C379" s="15"/>
       <c r="E379" s="2"/>
     </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C380" s="15"/>
       <c r="E380" s="2"/>
     </row>
-    <row r="381" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C381" s="15"/>
       <c r="E381" s="2"/>
     </row>
-    <row r="382" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C382" s="15"/>
       <c r="E382" s="2"/>
     </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C383" s="15"/>
       <c r="E383" s="2"/>
     </row>
-    <row r="384" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C384" s="15"/>
       <c r="E384" s="2"/>
     </row>
-    <row r="385" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C385" s="15"/>
       <c r="E385" s="2"/>
     </row>
-    <row r="386" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C386" s="15"/>
       <c r="E386" s="2"/>
     </row>
-    <row r="387" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C387" s="15"/>
       <c r="E387" s="2"/>
     </row>
-    <row r="388" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C388" s="15"/>
       <c r="E388" s="2"/>
     </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C389" s="15"/>
       <c r="E389" s="2"/>
     </row>
-    <row r="390" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C390" s="15"/>
       <c r="E390" s="2"/>
     </row>
-    <row r="391" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C391" s="15"/>
       <c r="E391" s="2"/>
     </row>
-    <row r="392" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C392" s="15"/>
       <c r="E392" s="2"/>
     </row>
-    <row r="393" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C393" s="15"/>
       <c r="E393" s="2"/>
     </row>
-    <row r="394" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C394" s="15"/>
       <c r="E394" s="2"/>
     </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C395" s="15"/>
       <c r="E395" s="2"/>
     </row>
-    <row r="396" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C396" s="15"/>
       <c r="E396" s="2"/>
     </row>
-    <row r="397" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C397" s="15"/>
       <c r="E397" s="2"/>
     </row>
-    <row r="398" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C398" s="15"/>
       <c r="E398" s="2"/>
     </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C399" s="15"/>
       <c r="E399" s="2"/>
     </row>
-    <row r="400" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C400" s="15"/>
       <c r="E400" s="2"/>
     </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C401" s="15"/>
       <c r="E401" s="2"/>
     </row>
-    <row r="402" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C402" s="15"/>
       <c r="E402" s="2"/>
     </row>
-    <row r="403" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C403" s="15"/>
       <c r="E403" s="2"/>
     </row>
-    <row r="404" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C404" s="15"/>
       <c r="E404" s="2"/>
     </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C405" s="15"/>
       <c r="E405" s="2"/>
     </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C406" s="15"/>
       <c r="E406" s="2"/>
     </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C407" s="15"/>
       <c r="E407" s="2"/>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C408" s="15"/>
       <c r="E408" s="2"/>
     </row>
-    <row r="409" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C409" s="15"/>
       <c r="E409" s="2"/>
     </row>
-    <row r="410" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C410" s="15"/>
       <c r="E410" s="2"/>
     </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C411" s="15"/>
       <c r="E411" s="2"/>
     </row>
-    <row r="412" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C412" s="15"/>
       <c r="E412" s="2"/>
     </row>
-    <row r="413" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C413" s="15"/>
       <c r="E413" s="2"/>
     </row>
-    <row r="414" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C414" s="15"/>
       <c r="E414" s="2"/>
     </row>
-    <row r="415" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C415" s="15"/>
       <c r="E415" s="2"/>
     </row>
-    <row r="416" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C416" s="15"/>
       <c r="E416" s="2"/>
     </row>
-    <row r="417" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C417" s="15"/>
       <c r="E417" s="2"/>
     </row>
-    <row r="418" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C418" s="15"/>
       <c r="E418" s="2"/>
     </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C419" s="15"/>
       <c r="E419" s="2"/>
     </row>
-    <row r="420" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C420" s="15"/>
       <c r="E420" s="2"/>
     </row>
-    <row r="421" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C421" s="15"/>
       <c r="E421" s="2"/>
     </row>
-    <row r="422" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C422" s="15"/>
       <c r="E422" s="2"/>
     </row>
-    <row r="423" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C423" s="15"/>
       <c r="E423" s="2"/>
     </row>
-    <row r="424" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C424" s="15"/>
       <c r="E424" s="2"/>
     </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C425" s="15"/>
       <c r="E425" s="2"/>
     </row>
-    <row r="426" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C426" s="15"/>
       <c r="E426" s="2"/>
     </row>
-    <row r="427" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C427" s="15"/>
       <c r="E427" s="2"/>
     </row>
-    <row r="428" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C428" s="15"/>
       <c r="E428" s="2"/>
     </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C429" s="15"/>
       <c r="E429" s="2"/>
     </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C430" s="15"/>
       <c r="E430" s="2"/>
     </row>
-    <row r="431" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C431" s="15"/>
       <c r="E431" s="2"/>
     </row>
-    <row r="432" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C432" s="15"/>
       <c r="E432" s="2"/>
     </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C433" s="15"/>
       <c r="E433" s="2"/>
     </row>
-    <row r="434" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C434" s="15"/>
       <c r="E434" s="2"/>
     </row>
-    <row r="435" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C435" s="15"/>
       <c r="E435" s="2"/>
     </row>
-    <row r="436" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C436" s="15"/>
       <c r="E436" s="2"/>
     </row>
-    <row r="437" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C437" s="15"/>
       <c r="E437" s="2"/>
     </row>
-    <row r="438" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C438" s="15"/>
       <c r="E438" s="2"/>
     </row>
-    <row r="439" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C439" s="15"/>
       <c r="E439" s="2"/>
     </row>
-    <row r="440" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E440" s="2"/>
     </row>
-    <row r="441" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E441" s="2"/>
     </row>
-    <row r="442" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E442" s="2"/>
     </row>
-    <row r="443" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E443" s="2"/>
     </row>
-    <row r="444" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E444" s="2"/>
     </row>
-    <row r="445" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E445" s="2"/>
     </row>
-    <row r="446" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E446" s="2"/>
     </row>
-    <row r="447" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E447" s="2"/>
     </row>
-    <row r="448" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E448" s="2"/>
     </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E449" s="2"/>
     </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E450" s="2"/>
     </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E451" s="2"/>
     </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E452" s="2"/>
     </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E453" s="2"/>
     </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E454" s="2"/>
     </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E455" s="2"/>
     </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E456" s="2"/>
     </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E457" s="2"/>
     </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E458" s="2"/>
     </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E459" s="2"/>
     </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E460" s="2"/>
     </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E461" s="2"/>
     </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E462" s="2"/>
     </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E463" s="2"/>
     </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E464" s="2"/>
     </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E465" s="2"/>
     </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E466" s="2"/>
     </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E467" s="2"/>
     </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E468" s="2"/>
     </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E469" s="2"/>
     </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E470" s="2"/>
     </row>
-    <row r="471" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E471" s="2"/>
     </row>
-    <row r="472" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E472" s="2"/>
     </row>
-    <row r="473" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E473" s="2"/>
     </row>
-    <row r="474" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E474" s="2"/>
     </row>
-    <row r="475" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E475" s="2"/>
     </row>
-    <row r="476" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E476" s="2"/>
     </row>
-    <row r="477" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E477" s="2"/>
     </row>
-    <row r="478" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E478" s="2"/>
     </row>
-    <row r="479" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E479" s="2"/>
     </row>
-    <row r="480" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E480" s="2"/>
     </row>
-    <row r="481" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E481" s="2"/>
     </row>
-    <row r="482" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E482" s="2"/>
     </row>
-    <row r="483" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E483" s="2"/>
     </row>
-    <row r="484" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E484" s="2"/>
     </row>
-    <row r="485" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E485" s="2"/>
     </row>
-    <row r="486" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E486" s="2"/>
     </row>
-    <row r="487" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E487" s="2"/>
     </row>
-    <row r="488" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E488" s="2"/>
     </row>
-    <row r="489" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E489" s="2"/>
     </row>
-    <row r="490" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E490" s="2"/>
     </row>
-    <row r="491" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E491" s="2"/>
     </row>
-    <row r="492" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E492" s="2"/>
     </row>
-    <row r="493" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E493" s="2"/>
     </row>
-    <row r="494" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E494" s="2"/>
     </row>
-    <row r="495" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E495" s="2"/>
     </row>
-    <row r="496" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E496" s="2"/>
     </row>
-    <row r="497" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E497" s="2"/>
     </row>
-    <row r="498" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E498" s="2"/>
     </row>
-    <row r="499" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E499" s="2"/>
     </row>
-    <row r="500" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E500" s="2"/>
     </row>
-    <row r="501" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E501" s="2"/>
     </row>
-    <row r="502" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E502" s="2"/>
     </row>
-    <row r="503" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E503" s="2"/>
     </row>
-    <row r="504" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E504" s="2"/>
     </row>
-    <row r="505" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E505" s="2"/>
     </row>
-    <row r="506" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E506" s="2"/>
     </row>
-    <row r="507" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E507" s="2"/>
     </row>
-    <row r="508" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E508" s="2"/>
     </row>
-    <row r="509" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E509" s="2"/>
     </row>
-    <row r="510" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E510" s="2"/>
     </row>
-    <row r="511" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E511" s="2"/>
     </row>
-    <row r="512" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E512" s="2"/>
     </row>
-    <row r="513" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E513" s="2"/>
     </row>
-    <row r="514" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E514" s="2"/>
     </row>
-    <row r="515" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E515" s="2"/>
     </row>
-    <row r="516" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E516" s="2"/>
     </row>
-    <row r="517" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E517" s="2"/>
     </row>
-    <row r="518" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E518" s="2"/>
     </row>
-    <row r="519" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E519" s="2"/>
     </row>
-    <row r="520" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E520" s="2"/>
     </row>
-    <row r="521" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E521" s="2"/>
     </row>
-    <row r="522" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E522" s="2"/>
     </row>
-    <row r="523" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E523" s="2"/>
     </row>
-    <row r="524" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E524" s="2"/>
     </row>
-    <row r="525" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E525" s="2"/>
     </row>
-    <row r="526" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E526" s="2"/>
     </row>
-    <row r="527" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E527" s="2"/>
     </row>
-    <row r="528" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E528" s="2"/>
     </row>
-    <row r="529" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E529" s="2"/>
     </row>
-    <row r="530" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E530" s="2"/>
     </row>
-    <row r="531" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E531" s="2"/>
     </row>
-    <row r="532" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E532" s="2"/>
     </row>
-    <row r="533" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E533" s="2"/>
     </row>
-    <row r="534" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E534" s="2"/>
     </row>
-    <row r="535" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E535" s="2"/>
     </row>
-    <row r="536" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E536" s="2"/>
     </row>
-    <row r="537" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E537" s="2"/>
     </row>
-    <row r="538" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E538" s="2"/>
     </row>
-    <row r="539" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E539" s="2"/>
     </row>
-    <row r="540" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E540" s="2"/>
     </row>
-    <row r="541" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E541" s="2"/>
     </row>
-    <row r="542" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E542" s="2"/>
     </row>
-    <row r="543" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E543" s="2"/>
     </row>
-    <row r="544" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E544" s="2"/>
     </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E545" s="2"/>
     </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E546" s="2"/>
     </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E547" s="2"/>
     </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E548" s="2"/>
     </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E549" s="2"/>
     </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E550" s="2"/>
     </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E551" s="2"/>
     </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E552" s="2"/>
     </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E553" s="2"/>
     </row>
   </sheetData>
@@ -8419,19 +8855,19 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8442,12 +8878,12 @@
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="H3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8474,7 +8910,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -8486,58 +8922,58 @@
       </c>
       <c r="E5" s="4" cm="1">
         <f t="array" ref="E5">_xll.\TMX.BOND.SIMPLE(B5, C5)</f>
-        <v>3229850279088</v>
+        <v>1487354367840</v>
       </c>
       <c r="F5" s="4" cm="1">
         <f t="array" ref="F5">_xll.\TMX.BOND.INSTRUMENT(E5, dated)</f>
-        <v>3229848298960</v>
-      </c>
-      <c r="G5" s="4" t="e" cm="1">
+        <v>1487699142880</v>
+      </c>
+      <c r="G5" s="4" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">_xll.\TMX.BOOTSTRAP.CURVE(instrument, price)</f>
-        <v>#NUM!</v>
+        <v>1487167972496</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5:H105">_xll.ARRAY.SEQUENCE(0,10,H3)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="20" t="e" cm="1">
+      <c r="I5" s="20" cm="1">
         <f t="array" aca="1" ref="I5:I105" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(H5),_xlfn.LAMBDA(_xlpm.t,_xll.TMX.PWFLAT.CURVE.FORWARD(curve,_xlpm.t)))</f>
-        <v>#VALUE!</v>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="J5" s="2"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="17">
         <f ca="1">0.05 + 0.01*RAND() - 0.005</f>
-        <v>4.9972679245480892E-2</v>
+        <v>4.9078218220503775E-2</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="4" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xll.\TMX.BOND.SIMPLE(B6, C6)</f>
-        <v>1640163491472</v>
+        <v>1487319013232</v>
       </c>
       <c r="F6" s="4" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">_xll.\TMX.BOND.INSTRUMENT(E6, dated)</f>
-        <v>1640477351536</v>
+        <v>1487167975840</v>
       </c>
       <c r="H6">
         <v>0.1</v>
       </c>
-      <c r="I6" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I6" s="19">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -8549,23 +8985,23 @@
       </c>
       <c r="E7" s="4" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>3229850279184</v>
+        <v>1487354365248</v>
       </c>
       <c r="F7" s="4" cm="1">
         <f t="array" ref="F7">_xll.\TMX.BOND.INSTRUMENT(E7, dated)</f>
-        <v>3229848293504</v>
+        <v>1487699138832</v>
       </c>
       <c r="H7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I7" s="19">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -8577,23 +9013,23 @@
       </c>
       <c r="E8" s="4" cm="1">
         <f t="array" ref="E8">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>3229850276304</v>
+        <v>1487354368032</v>
       </c>
       <c r="F8" s="4" cm="1">
         <f t="array" ref="F8">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
-        <v>3229848298432</v>
+        <v>1487699150624</v>
       </c>
       <c r="H8">
         <v>0.30000000000000004</v>
       </c>
-      <c r="I8" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I8" s="19">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -8605,23 +9041,23 @@
       </c>
       <c r="E9" s="4" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>3229850276016</v>
+        <v>1487354366784</v>
       </c>
       <c r="F9" s="4" cm="1">
         <f t="array" ref="F9">_xll.\TMX.BOND.INSTRUMENT(E9, dated)</f>
-        <v>3229848303712</v>
+        <v>1487699137952</v>
       </c>
       <c r="H9">
         <v>0.4</v>
       </c>
-      <c r="I9" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I9" s="19">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -8633,23 +9069,23 @@
       </c>
       <c r="E10" s="4" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>3229850277264</v>
+        <v>1487354364384</v>
       </c>
       <c r="F10" s="4" cm="1">
         <f t="array" ref="F10">_xll.\TMX.BOND.INSTRUMENT(E10, dated)</f>
-        <v>3229848301600</v>
+        <v>1487699147456</v>
       </c>
       <c r="H10">
         <v>0.5</v>
       </c>
-      <c r="I10" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I10" s="19">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -8661,23 +9097,23 @@
       </c>
       <c r="E11" s="4" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>3229850275344</v>
+        <v>1487354370336</v>
       </c>
       <c r="F11" s="4" cm="1">
         <f t="array" ref="F11">_xll.\TMX.BOND.INSTRUMENT(E11, dated)</f>
-        <v>3229848296144</v>
+        <v>1487699143408</v>
       </c>
       <c r="H11">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I11" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I11" s="19">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -8689,23 +9125,23 @@
       </c>
       <c r="E12" s="4" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>3229850276688</v>
+        <v>1487354366016</v>
       </c>
       <c r="F12" s="4" cm="1">
         <f t="array" ref="F12">_xll.\TMX.BOND.INSTRUMENT(E12, dated)</f>
-        <v>3229848293856</v>
+        <v>1487699155728</v>
       </c>
       <c r="H12">
         <v>0.70000000000000007</v>
       </c>
-      <c r="I12" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I12" s="19">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -8717,23 +9153,23 @@
       </c>
       <c r="E13" s="4" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>3229850276592</v>
+        <v>1487354365920</v>
       </c>
       <c r="F13" s="4" cm="1">
         <f t="array" ref="F13">_xll.\TMX.BOND.INSTRUMENT(E13, dated)</f>
-        <v>3229848297728</v>
+        <v>1487699144640</v>
       </c>
       <c r="H13">
         <v>0.8</v>
       </c>
-      <c r="I13" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I13" s="19">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -8745,842 +9181,842 @@
       </c>
       <c r="E14" s="4" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>3229850277168</v>
+        <v>1487354370240</v>
       </c>
       <c r="F14" s="4" cm="1">
         <f t="array" ref="F14">_xll.\TMX.BOND.INSTRUMENT(E14, dated)</f>
-        <v>3229848300016</v>
+        <v>1487699143232</v>
       </c>
       <c r="H14">
         <v>0.9</v>
       </c>
-      <c r="I14" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I14" s="19">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I15" s="19">
+        <f ca="1"/>
+        <v>4.9283011639120938E-2</v>
       </c>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="E16" s="27"/>
       <c r="H16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I16" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="19">
+        <f ca="1"/>
+        <v>4.7571559635601009E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I17" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="19">
+        <f ca="1"/>
+        <v>4.7571559635601009E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H18">
         <v>1.3</v>
       </c>
-      <c r="I18" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="19">
+        <f ca="1"/>
+        <v>4.7571559635601009E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H19">
         <v>1.4000000000000001</v>
       </c>
-      <c r="I19" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="19">
+        <f ca="1"/>
+        <v>4.7571559635601009E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H20">
         <v>1.5</v>
       </c>
-      <c r="I20" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="19">
+        <f ca="1"/>
+        <v>4.7571559635601009E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H21">
         <v>1.6</v>
       </c>
-      <c r="I21" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="19">
+        <f ca="1"/>
+        <v>4.7571559635601009E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H22">
         <v>1.7000000000000002</v>
       </c>
-      <c r="I22" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="19">
+        <f ca="1"/>
+        <v>4.7571559635601009E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H23">
         <v>1.8</v>
       </c>
-      <c r="I23" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="19">
+        <f ca="1"/>
+        <v>4.7571559635601009E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H24">
         <v>1.9000000000000001</v>
       </c>
-      <c r="I24" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="19">
+        <f ca="1"/>
+        <v>4.7571559635601009E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H25">
         <v>2</v>
       </c>
-      <c r="I25" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="19">
+        <f ca="1"/>
+        <v>4.7571559635601009E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H26">
         <v>2.1</v>
       </c>
-      <c r="I26" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="19">
+        <f ca="1"/>
+        <v>5.1354629850704714E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I27" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="19">
+        <f ca="1"/>
+        <v>5.1354629850704714E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H28">
         <v>2.3000000000000003</v>
       </c>
-      <c r="I28" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="19">
+        <f ca="1"/>
+        <v>5.1354629850704714E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H29">
         <v>2.4000000000000004</v>
       </c>
-      <c r="I29" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="19">
+        <f ca="1"/>
+        <v>5.1354629850704714E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H30">
         <v>2.5</v>
       </c>
-      <c r="I30" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="19">
+        <f ca="1"/>
+        <v>5.1354629850704714E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H31">
         <v>2.6</v>
       </c>
-      <c r="I31" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="19">
+        <f ca="1"/>
+        <v>5.1354629850704714E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H32">
         <v>2.7</v>
       </c>
-      <c r="I32" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="19">
+        <f ca="1"/>
+        <v>5.1354629850704714E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H33">
         <v>2.8000000000000003</v>
       </c>
-      <c r="I33" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="19">
+        <f ca="1"/>
+        <v>5.1354629850704714E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H34">
         <v>2.9000000000000004</v>
       </c>
-      <c r="I34" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="19">
+        <f ca="1"/>
+        <v>5.1354629850704714E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H35">
         <v>3</v>
       </c>
-      <c r="I35" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="19">
+        <f ca="1"/>
+        <v>5.1354629850704714E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H36">
         <v>3.1</v>
       </c>
-      <c r="I36" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="19">
+        <f ca="1"/>
+        <v>4.9416364521089204E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H37">
         <v>3.2</v>
       </c>
-      <c r="I37" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="19">
+        <f ca="1"/>
+        <v>4.9416364521089204E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H38">
         <v>3.3000000000000003</v>
       </c>
-      <c r="I38" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="19">
+        <f ca="1"/>
+        <v>4.9416364521089204E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H39">
         <v>3.4000000000000004</v>
       </c>
-      <c r="I39" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="19">
+        <f ca="1"/>
+        <v>4.9416364521089204E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H40">
         <v>3.5</v>
       </c>
-      <c r="I40" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="19">
+        <f ca="1"/>
+        <v>4.9416364521089204E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H41">
         <v>3.6</v>
       </c>
-      <c r="I41" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="19">
+        <f ca="1"/>
+        <v>4.9416364521089204E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H42">
         <v>3.7</v>
       </c>
-      <c r="I42" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="19">
+        <f ca="1"/>
+        <v>4.9416364521089204E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H43">
         <v>3.8000000000000003</v>
       </c>
-      <c r="I43" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="19">
+        <f ca="1"/>
+        <v>4.9416364521089204E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H44">
         <v>3.9000000000000004</v>
       </c>
-      <c r="I44" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="19">
+        <f ca="1"/>
+        <v>4.9416364521089204E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H45">
         <v>4</v>
       </c>
-      <c r="I45" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="19">
+        <f ca="1"/>
+        <v>4.9416364521089204E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H46">
         <v>4.1000000000000005</v>
       </c>
-      <c r="I46" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="19">
+        <f ca="1"/>
+        <v>4.9283017362696399E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H47">
         <v>4.2</v>
       </c>
-      <c r="I47" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="19">
+        <f ca="1"/>
+        <v>4.9283017362696399E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H48">
         <v>4.3</v>
       </c>
-      <c r="I48" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="19">
+        <f ca="1"/>
+        <v>4.9283017362696399E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H49">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I49" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="19">
+        <f ca="1"/>
+        <v>4.9283017362696399E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H50">
         <v>4.5</v>
       </c>
-      <c r="I50" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="19">
+        <f ca="1"/>
+        <v>4.9283017362696399E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H51">
         <v>4.6000000000000005</v>
       </c>
-      <c r="I51" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I51" s="19">
+        <f ca="1"/>
+        <v>4.9283017362696399E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H52">
         <v>4.7</v>
       </c>
-      <c r="I52" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="19">
+        <f ca="1"/>
+        <v>4.9283017362696399E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H53">
         <v>4.8000000000000007</v>
       </c>
-      <c r="I53" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="19">
+        <f ca="1"/>
+        <v>4.9283017362696399E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H54">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I54" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="19">
+        <f ca="1"/>
+        <v>4.9283017362696399E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H55">
         <v>5</v>
       </c>
-      <c r="I55" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I55" s="19">
+        <f ca="1"/>
+        <v>4.9283017362696399E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H56">
         <v>5.1000000000000005</v>
       </c>
-      <c r="I56" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I56" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H57">
         <v>5.2</v>
       </c>
-      <c r="I57" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I57" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H58">
         <v>5.3000000000000007</v>
       </c>
-      <c r="I58" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I58" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H59">
         <v>5.4</v>
       </c>
-      <c r="I59" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I59" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H60">
         <v>5.5</v>
       </c>
-      <c r="I60" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H61">
         <v>5.6000000000000005</v>
       </c>
-      <c r="I61" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H62">
         <v>5.7</v>
       </c>
-      <c r="I62" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I62" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H63">
         <v>5.8000000000000007</v>
       </c>
-      <c r="I63" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I63" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H64">
         <v>5.9</v>
       </c>
-      <c r="I64" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I64" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H65">
         <v>6</v>
       </c>
-      <c r="I65" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H66">
         <v>6.1000000000000005</v>
       </c>
-      <c r="I66" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H67">
         <v>6.2</v>
       </c>
-      <c r="I67" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I67" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H68">
         <v>6.3000000000000007</v>
       </c>
-      <c r="I68" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H69">
         <v>6.4</v>
       </c>
-      <c r="I69" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I69" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H70">
         <v>6.5</v>
       </c>
-      <c r="I70" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I70" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H71">
         <v>6.6000000000000005</v>
       </c>
-      <c r="I71" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I71" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H72">
         <v>6.7</v>
       </c>
-      <c r="I72" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I72" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H73">
         <v>6.8000000000000007</v>
       </c>
-      <c r="I73" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I73" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H74">
         <v>6.9</v>
       </c>
-      <c r="I74" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I74" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H75">
         <v>7</v>
       </c>
-      <c r="I75" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I75" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H76">
         <v>7.1000000000000005</v>
       </c>
-      <c r="I76" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I76" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H77">
         <v>7.2</v>
       </c>
-      <c r="I77" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I77" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H78">
         <v>7.3000000000000007</v>
       </c>
-      <c r="I78" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I78" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H79">
         <v>7.4</v>
       </c>
-      <c r="I79" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I79" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H80">
         <v>7.5</v>
       </c>
-      <c r="I80" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I80" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H81">
         <v>7.6000000000000005</v>
       </c>
-      <c r="I81" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H82">
         <v>7.7</v>
       </c>
-      <c r="I82" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I82" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H83">
         <v>7.8000000000000007</v>
       </c>
-      <c r="I83" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I83" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H84">
         <v>7.9</v>
       </c>
-      <c r="I84" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I84" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H85">
         <v>8</v>
       </c>
-      <c r="I85" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I85" s="19">
+        <f ca="1"/>
+        <v>4.9416357720749947E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H86">
         <v>8.1</v>
       </c>
-      <c r="I86" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I86" s="19">
+        <f ca="1"/>
+        <v>4.928303568762156E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H87">
         <v>8.2000000000000011</v>
       </c>
-      <c r="I87" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I87" s="19">
+        <f ca="1"/>
+        <v>4.928303568762156E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H88">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I88" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I88" s="19">
+        <f ca="1"/>
+        <v>4.928303568762156E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H89">
         <v>8.4</v>
       </c>
-      <c r="I89" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I89" s="19">
+        <f ca="1"/>
+        <v>4.928303568762156E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H90">
         <v>8.5</v>
       </c>
-      <c r="I90" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I90" s="19">
+        <f ca="1"/>
+        <v>4.928303568762156E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H91">
         <v>8.6</v>
       </c>
-      <c r="I91" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I91" s="19">
+        <f ca="1"/>
+        <v>4.928303568762156E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H92">
         <v>8.7000000000000011</v>
       </c>
-      <c r="I92" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I92" s="19">
+        <f ca="1"/>
+        <v>4.928303568762156E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H93">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I93" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I93" s="19">
+        <f ca="1"/>
+        <v>4.928303568762156E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H94">
         <v>8.9</v>
       </c>
-      <c r="I94" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I94" s="19">
+        <f ca="1"/>
+        <v>4.928303568762156E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H95">
         <v>9</v>
       </c>
-      <c r="I95" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I95" s="19">
+        <f ca="1"/>
+        <v>4.928303568762156E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H96">
         <v>9.1</v>
       </c>
-      <c r="I96" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I96" s="19">
+        <f ca="1"/>
+        <v>4.9416357721873097E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H97">
         <v>9.2000000000000011</v>
       </c>
-      <c r="I97" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I97" s="19">
+        <f ca="1"/>
+        <v>4.9416357721873097E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H98">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I98" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I98" s="19">
+        <f ca="1"/>
+        <v>4.9416357721873097E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H99">
         <v>9.4</v>
       </c>
-      <c r="I99" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I99" s="19">
+        <f ca="1"/>
+        <v>4.9416357721873097E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H100">
         <v>9.5</v>
       </c>
-      <c r="I100" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I100" s="19">
+        <f ca="1"/>
+        <v>4.9416357721873097E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H101">
         <v>9.6000000000000014</v>
       </c>
-      <c r="I101" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I101" s="19">
+        <f ca="1"/>
+        <v>4.9416357721873097E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H102">
         <v>9.7000000000000011</v>
       </c>
-      <c r="I102" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I102" s="19">
+        <f ca="1"/>
+        <v>4.9416357721873097E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H103">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I103" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I103" s="19">
+        <f ca="1"/>
+        <v>4.9416357721873097E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H104">
         <v>9.9</v>
       </c>
-      <c r="I104" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I104" s="19">
+        <f ca="1"/>
+        <v>4.9416357721873097E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H105">
         <v>10</v>
       </c>
-      <c r="I105" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="I105" s="19">
+        <f ca="1"/>
+        <v>4.9416357721873097E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9594,16 +10030,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE10814-8BAC-41F3-9E28-9FC194E23C82}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
@@ -9611,7 +10047,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
@@ -9619,7 +10055,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -9627,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
@@ -9635,16 +10071,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C6">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.5650584280374279</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1.4868585268509518</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
@@ -9653,7 +10089,7 @@
         <v>0.90485249878526608</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
@@ -9662,42 +10098,42 @@
         <v>0.81883992445632237</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C9">
         <f ca="1">EXP(-φ*t+Z*SQRT(t)*(σ^2)*(t^3)/6)</f>
-        <v>0.90484593950957004</v>
+        <v>0.90485984106763107</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_xll.MONTE.MEAN(C9)</f>
-        <v>0.90483751189603223</v>
+        <v>0.90483751599064366</v>
       </c>
       <c r="E9" s="16">
         <f ca="1">D9-Dt</f>
-        <v>-1.4986889233847833E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+        <v>-1.4982794622420137E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C10">
         <f ca="1">EXP(-φ*(u-t) + (σ^2)*((u-t)^3)/6 - σ*(u-t)*Z*SQRT(t))</f>
-        <v>0.89975397187352479</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+        <v>0.89149814842515662</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C11">
         <f ca="1">LN(C10)</f>
-        <v>-0.10563391761370766</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.11485191860184286</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
         <v>53</v>
       </c>
@@ -9707,10 +10143,10 @@
       </c>
       <c r="D12" s="15" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">_xll.MONTE.MEAN(C10)</f>
-        <v>0.90484102108061737</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.90483943005119316</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
@@ -9720,14 +10156,14 @@
       </c>
       <c r="D13" s="15">
         <f t="array" aca="1" ref="D13:D14" ca="1">_xll.MONTE.STDEV(logD)</f>
-        <v>-0.10004548972958061</v>
+        <v>-0.10004820328103688</v>
       </c>
       <c r="E13" s="6">
         <f ca="1">D13-C13</f>
-        <v>-6.2156396247153856E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-6.4869947703424802E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
@@ -9737,21 +10173,21 @@
       </c>
       <c r="D14" s="15">
         <f ca="1"/>
-        <v>9.947224965841649E-3</v>
+        <v>1.0043330998061853E-2</v>
       </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="2:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D15" s="15">
         <f ca="1">D14^2</f>
-        <v>9.8947284521063393E-5</v>
+        <v>1.008684975366301E-4</v>
       </c>
       <c r="E15" s="6">
         <f ca="1">D15-C14</f>
-        <v>-1.0527154789366115E-6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>8.6849753663009233E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D6EE57-02F2-4814-8A59-2A0CC786429C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A898A85D-FAFE-4911-8215-4A3D0A48ED5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="4" r:id="rId1"/>
@@ -706,34 +706,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2</c:v>
@@ -997,124 +997,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83205424111347082</c:v>
+                  <c:v>0.41644948512420576</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77459476464860977</c:v>
+                  <c:v>0.39677225920382342</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72671186759455897</c:v>
+                  <c:v>0.38037457093683813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.68619557008728516</c:v>
+                  <c:v>0.36649960394169673</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6514673150810506</c:v>
+                  <c:v>0.35460677508871841</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62136949407564723</c:v>
+                  <c:v>0.3442996567494705</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59503390069591922</c:v>
+                  <c:v>0.33528092820262856</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57179661241968871</c:v>
+                  <c:v>0.32732322654365043</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5511412450630393</c:v>
+                  <c:v>0.32024971395789203</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.53266012690182685</c:v>
+                  <c:v>0.3139207816443188</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.51602712055673539</c:v>
+                  <c:v>0.30822474256210286</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5057401148159385</c:v>
+                  <c:v>0.30783308815438365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.49638829141521396</c:v>
+                  <c:v>0.30747703869282078</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4878496700493351</c:v>
+                  <c:v>0.30715195005400248</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.48002260046394613</c:v>
+                  <c:v>0.30685395213508571</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4728216964453883</c:v>
+                  <c:v>0.30657979404968227</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.46617470812056566</c:v>
+                  <c:v>0.30632672504777142</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.46002008930128541</c:v>
+                  <c:v>0.30609240189785397</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.4543050861119538</c:v>
+                  <c:v>0.30587481611578776</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.44898422107361058</c:v>
+                  <c:v>0.30567223624972606</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.44401808037115692</c:v>
+                  <c:v>0.30548316170806861</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.44259814229466798</c:v>
+                  <c:v>0.30853209197555026</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.44126695034795965</c:v>
+                  <c:v>0.31139046410131432</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.44001643670105178</c:v>
+                  <c:v>0.31407560155278963</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4388394826804326</c:v>
+                  <c:v>0.31660278974241346</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.43772978317527739</c:v>
+                  <c:v>0.31898556717834453</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.43668173364263074</c:v>
+                  <c:v>0.32123596809005717</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.43569033543607316</c:v>
+                  <c:v>0.32336472570924479</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.43475111608249228</c:v>
+                  <c:v>0.32538144345373837</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.43386006182396686</c:v>
+                  <c:v>0.32729473977543738</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.43301356027836768</c:v>
+                  <c:v>0.32911237128105142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,124 +1288,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.92016210432122925</c:v>
+                  <c:v>0.95921028915993489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84669829822887288</c:v>
+                  <c:v>0.92008437883028604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77909968782348338</c:v>
+                  <c:v>0.88255440306933775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71689800822366934</c:v>
+                  <c:v>0.84655526416751326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65966237983078946</c:v>
+                  <c:v>0.81202451973198542</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60699632356664934</c:v>
+                  <c:v>0.77890227437707504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55853501440833775</c:v>
+                  <c:v>0.74713107583256511</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51394275419506419</c:v>
+                  <c:v>0.7166558152897281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47291064620077855</c:v>
+                  <c:v>0.687423631812209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43515445536402081</c:v>
+                  <c:v>0.65938382064596168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42653781983133682</c:v>
+                  <c:v>0.64632714619711107</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4180918051138322</c:v>
+                  <c:v>0.63352901122454952</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40981303269300479</c:v>
+                  <c:v>0.62098429630364393</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40169819094950121</c:v>
+                  <c:v>0.60868798338116081</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39374403383842477</c:v>
+                  <c:v>0.59663515376797815</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.38594737959087416</c:v>
+                  <c:v>0.58482098617154421</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3783051094411935</c:v>
+                  <c:v>0.57324075476729586</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.37081416637942477</c:v>
+                  <c:v>0.56188982730826653</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.36347155392846253</c:v>
+                  <c:v>0.55076366327212467</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.35627433494542382</c:v>
+                  <c:v>0.53985781204490513</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.34574483706575171</c:v>
+                  <c:v>0.52390260245024822</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3355265328779154</c:v>
+                  <c:v>0.50841894056228309</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.32561022521838967</c:v>
+                  <c:v>0.49339289004013204</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.31598698874091008</c:v>
+                  <c:v>0.47881092642403633</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.30664816188305893</c:v>
+                  <c:v>0.46465992496242942</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29758533907027451</c:v>
+                  <c:v>0.45092714879877466</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28879036315026624</c:v>
+                  <c:v>0.43760023750753441</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28025531805102755</c:v>
+                  <c:v>0.42466719596895308</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2719725216558363</c:v>
+                  <c:v>0.41211638357263958</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.26393451888883118</c:v>
+                  <c:v>0.39993650374023176</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.25358549837613842</c:v>
+                  <c:v>0.38425476912511841</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.24364226876197237</c:v>
+                  <c:v>0.36918792411932794</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.23408891875761503</c:v>
+                  <c:v>0.35471185855641951</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.22491016096490268</c:v>
+                  <c:v>0.34080340764310052</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.21609130741312757</c:v>
+                  <c:v>0.32744031489061509</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.20761824605515114</c:v>
+                  <c:v>0.31460119649961427</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.19947741818511769</c:v>
+                  <c:v>0.30226550714151418</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.19165579674163266</c:v>
+                  <c:v>0.29041350708158797</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1841408654616849</c:v>
+                  <c:v>0.27902623059117815</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.17692059885195566</c:v>
+                  <c:v>0.2680854555984849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,34 +1579,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.73205424111347084</c:v>
+                  <c:v>0.31644948512420579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73205424111347084</c:v>
+                  <c:v>0.31644948512420579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73205424111347084</c:v>
+                  <c:v>0.31644948512420579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73205424111347084</c:v>
+                  <c:v>0.31644948512420579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73205424111347084</c:v>
+                  <c:v>0.31644948512420579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73205424111347084</c:v>
+                  <c:v>0.31644948512420579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73205424111347084</c:v>
+                  <c:v>0.31644948512420579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73205424111347084</c:v>
+                  <c:v>0.31644948512420579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73205424111347084</c:v>
+                  <c:v>0.31644948512420579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73205424111347084</c:v>
+                  <c:v>0.31644948512420579</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.1</c:v>
@@ -2354,274 +2354,274 @@
                   <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7571559635601009E-2</c:v>
+                  <c:v>5.5581637272549694E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7571559635601009E-2</c:v>
+                  <c:v>5.5581637272549694E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7571559635601009E-2</c:v>
+                  <c:v>5.5581637272549694E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7571559635601009E-2</c:v>
+                  <c:v>5.5581637272549694E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7571559635601009E-2</c:v>
+                  <c:v>5.5581637272549694E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7571559635601009E-2</c:v>
+                  <c:v>5.5581637272549694E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7571559635601009E-2</c:v>
+                  <c:v>5.5581637272549694E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7571559635601009E-2</c:v>
+                  <c:v>5.5581637272549694E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7571559635601009E-2</c:v>
+                  <c:v>5.5581637272549694E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7571559635601009E-2</c:v>
+                  <c:v>5.5581637272549694E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.1354629850704714E-2</c:v>
+                  <c:v>4.2939744506772057E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.1354629850704714E-2</c:v>
+                  <c:v>4.2939744506772057E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.1354629850704714E-2</c:v>
+                  <c:v>4.2939744506772057E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.1354629850704714E-2</c:v>
+                  <c:v>4.2939744506772057E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.1354629850704714E-2</c:v>
+                  <c:v>4.2939744506772057E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.1354629850704714E-2</c:v>
+                  <c:v>4.2939744506772057E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.1354629850704714E-2</c:v>
+                  <c:v>4.2939744506772057E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.1354629850704714E-2</c:v>
+                  <c:v>4.2939744506772057E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1354629850704714E-2</c:v>
+                  <c:v>4.2939744506772057E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.1354629850704714E-2</c:v>
+                  <c:v>4.2939744506772057E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.9416364521089204E-2</c:v>
+                  <c:v>4.9416364400681617E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9416364521089204E-2</c:v>
+                  <c:v>4.9416364400681617E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9416364521089204E-2</c:v>
+                  <c:v>4.9416364400681617E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9416364521089204E-2</c:v>
+                  <c:v>4.9416364400681617E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9416364521089204E-2</c:v>
+                  <c:v>4.9416364400681617E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9416364521089204E-2</c:v>
+                  <c:v>4.9416364400681617E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9416364521089204E-2</c:v>
+                  <c:v>4.9416364400681617E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.9416364521089204E-2</c:v>
+                  <c:v>4.9416364400681617E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9416364521089204E-2</c:v>
+                  <c:v>4.9416364400681617E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.9416364521089204E-2</c:v>
+                  <c:v>4.9416364400681617E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9283017362696399E-2</c:v>
+                  <c:v>4.9283017362986459E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9283017362696399E-2</c:v>
+                  <c:v>4.9283017362986459E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.9283017362696399E-2</c:v>
+                  <c:v>4.9283017362986459E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.9283017362696399E-2</c:v>
+                  <c:v>4.9283017362986459E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.9283017362696399E-2</c:v>
+                  <c:v>4.9283017362986459E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9283017362696399E-2</c:v>
+                  <c:v>4.9283017362986459E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.9283017362696399E-2</c:v>
+                  <c:v>4.9283017362986459E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.9283017362696399E-2</c:v>
+                  <c:v>4.9283017362986459E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.9283017362696399E-2</c:v>
+                  <c:v>4.9283017362986459E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9283017362696399E-2</c:v>
+                  <c:v>4.9283017362986459E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.9416357720749947E-2</c:v>
+                  <c:v>4.9416357720753049E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.928303568762156E-2</c:v>
+                  <c:v>4.9283035687614794E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.928303568762156E-2</c:v>
+                  <c:v>4.9283035687614794E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.928303568762156E-2</c:v>
+                  <c:v>4.9283035687614794E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.928303568762156E-2</c:v>
+                  <c:v>4.9283035687614794E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.928303568762156E-2</c:v>
+                  <c:v>4.9283035687614794E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.928303568762156E-2</c:v>
+                  <c:v>4.9283035687614794E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.928303568762156E-2</c:v>
+                  <c:v>4.9283035687614794E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.928303568762156E-2</c:v>
+                  <c:v>4.9283035687614794E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.928303568762156E-2</c:v>
+                  <c:v>4.9283035687614794E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.928303568762156E-2</c:v>
+                  <c:v>4.9283035687614794E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.9416357721873097E-2</c:v>
+                  <c:v>4.9416357721872965E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9416357721873097E-2</c:v>
+                  <c:v>4.9416357721872965E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.9416357721873097E-2</c:v>
+                  <c:v>4.9416357721872965E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.9416357721873097E-2</c:v>
+                  <c:v>4.9416357721872965E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.9416357721873097E-2</c:v>
+                  <c:v>4.9416357721872965E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9416357721873097E-2</c:v>
+                  <c:v>4.9416357721872965E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.9416357721873097E-2</c:v>
+                  <c:v>4.9416357721872965E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.9416357721873097E-2</c:v>
+                  <c:v>4.9416357721872965E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.9416357721873097E-2</c:v>
+                  <c:v>4.9416357721872965E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.9416357721873097E-2</c:v>
+                  <c:v>4.9416357721872965E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4314,7 +4314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28EA81D-C5B8-44E1-B499-71D23FEEDB1B}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4348,7 +4350,7 @@
       </c>
       <c r="E3" s="4" cm="1">
         <f t="array" ref="E3">_xll.ENUM(D3)</f>
-        <v>140716792689723</v>
+        <v>140716592084022</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
@@ -4364,7 +4366,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_xll.ENUM(D4)</f>
-        <v>140716792682483</v>
+        <v>140716592076782</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
@@ -4380,7 +4382,7 @@
       </c>
       <c r="E5" s="4" cm="1">
         <f t="array" ref="E5">_xll.ENUM(D5)</f>
-        <v>140716792688098</v>
+        <v>140716592082397</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
@@ -4396,7 +4398,7 @@
       </c>
       <c r="E6" s="4" cm="1">
         <f t="array" ref="E6">_xll.ENUM(D6)</f>
-        <v>140716792693288</v>
+        <v>140716592087587</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
@@ -4405,7 +4407,7 @@
       </c>
       <c r="E7" s="4" cm="1">
         <f t="array" ref="E7">_xll.ENUM(D7)</f>
-        <v>140716792724818</v>
+        <v>140716592119097</v>
       </c>
     </row>
   </sheetData>
@@ -4433,7 +4435,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">50 + 100*RAND()</f>
-        <v>126.61982146909079</v>
+        <v>55.57648474565103</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
@@ -4442,7 +4444,7 @@
       </c>
       <c r="C3" s="8">
         <f ca="1">0.01 + 0.3*RAND()</f>
-        <v>8.1167832685849539E-2</v>
+        <v>0.29839914694443209</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -4451,7 +4453,7 @@
       </c>
       <c r="C4" s="8">
         <f ca="1">50 + 100*RAND()</f>
-        <v>97.934750284783178</v>
+        <v>96.162225586071258</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -4460,7 +4462,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
-        <v>-3.1243105146495629</v>
+        <v>1.9865923582128671</v>
       </c>
       <c r="D5">
         <v>1E-3</v>
@@ -4479,19 +4481,19 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>1.904828845051193E-3</v>
+        <v>40.866613822992726</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
-        <v>1.9041547680517107E-3</v>
+        <v>40.865659512958629</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
-        <v>1.9055031499915082E-3</v>
+        <v>40.86756813881248</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xll.TMX.BLACK.CALL.VALUE(f, s, k)</f>
-        <v>28.68697601315267</v>
+        <v>0.28087298257249671</v>
       </c>
       <c r="H6" s="16">
         <f ca="1">G6-C6-f+k</f>
@@ -4504,19 +4506,19 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
-        <v>-6.7419095619192237E-4</v>
+        <v>-0.95431292701417658</v>
       </c>
       <c r="D7">
         <f ca="1">(D6-E6)/(D5-E5)</f>
-        <v>-6.7419096989873584E-4</v>
+        <v>-0.9543129269253825</v>
       </c>
       <c r="E7" s="16">
         <f ca="1">(C7-D7)/C7</f>
-        <v>-2.0330758424057315E-8</v>
+        <v>9.3045038669969195E-11</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">_xll.TMX.BLACK.CALL.DELTA(f, s, k)</f>
-        <v>6.7419095619192237E-4</v>
+        <v>0.95431292701417658</v>
       </c>
       <c r="H7" s="16">
         <f ca="1">G7+C7</f>
@@ -4529,15 +4531,15 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.TMX.BLACK.GAMMA(f, s, k)</f>
-        <v>2.2793796337986028E-4</v>
+        <v>5.7856555916260023E-3</v>
       </c>
       <c r="D8">
         <f ca="1">(D6-2*C6+E6)/(D5^2)</f>
-        <v>2.2794083287536182E-4</v>
+        <v>5.7856581747728342E-3</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" ref="E8:E9" ca="1" si="0">(C8-D8)/C8</f>
-        <v>-1.2588931913698872E-5</v>
+        <v>-4.4647435211861792E-7</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4546,15 +4548,15 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.BLACK.VEGA(f, s, k)</f>
-        <v>0.29662244267176524</v>
+        <v>5.3325176597229742</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
-        <v>0.29714950452511962</v>
+        <v>5.3325286132235306</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7768778673892035E-3</v>
+        <v>-2.0540955052220857E-6</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -4597,7 +4599,7 @@
       </c>
       <c r="C3" s="8">
         <f ca="1">10*RAND()</f>
-        <v>5.6891044383181413</v>
+        <v>3.1697596372643244</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -4606,18 +4608,18 @@
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>47190.902719907404</v>
+        <v>46270.730925925927</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>47190.902719907404</v>
+        <v>46270.730925925927</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
       <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.DATE.ADD_YEARS(C4,-years)</f>
-        <v>45112.999999999993</v>
+        <v>45113</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">C5-date</f>
@@ -4630,18 +4632,18 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>5.68663285351513</v>
+        <v>3.1677584070857034</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>47190</v>
+        <v>46270</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>47190</v>
+        <v>46270</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4752,7 +4754,7 @@
       </c>
       <c r="C3" s="14">
         <f ca="1">RAND()</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="E3" s="25" cm="1">
         <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve))</f>
@@ -4760,7 +4762,7 @@
       </c>
       <c r="F3" s="26">
         <f ca="1"/>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="3" t="s">
@@ -4768,7 +4770,7 @@
       </c>
       <c r="I3" s="4" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>1487167971792</v>
+        <v>2141527846656</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3:K42">_xll.ARRAY.SEQUENCE(0.1,4,0.1)</f>
@@ -4776,19 +4778,19 @@
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K3,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K3,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K3,translate)</f>
-        <v>0.92016210432122925</v>
+        <v>0.95921028915993489</v>
       </c>
       <c r="O3" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K3,translate)</f>
-        <v>0.73205424111347084</v>
+        <v>0.31644948512420579</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
@@ -4817,19 +4819,19 @@
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K4,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K4,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K4,translate)</f>
-        <v>0.84669829822887288</v>
+        <v>0.92008437883028604</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K4,translate)</f>
-        <v>0.73205424111347084</v>
+        <v>0.31644948512420579</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
@@ -4852,26 +4854,26 @@
       </c>
       <c r="I5" s="4" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve,spread)</f>
-        <v>1487167973024</v>
+        <v>2141527841552</v>
       </c>
       <c r="K5">
         <v>0.30000000000000004</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K5,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K5,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K5,translate)</f>
-        <v>0.77909968782348338</v>
+        <v>0.88255440306933775</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K5,translate)</f>
-        <v>0.73205424111347084</v>
+        <v>0.31644948512420579</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
@@ -4896,19 +4898,19 @@
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K6,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K6,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K6,translate)</f>
-        <v>0.71689800822366934</v>
+        <v>0.84655526416751326</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K6,translate)</f>
-        <v>0.73205424111347084</v>
+        <v>0.31644948512420579</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
@@ -4917,19 +4919,19 @@
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K7,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K7,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K7,translate)</f>
-        <v>0.65966237983078946</v>
+        <v>0.81202451973198542</v>
       </c>
       <c r="O7" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K7,translate)</f>
-        <v>0.73205424111347084</v>
+        <v>0.31644948512420579</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
@@ -4938,19 +4940,19 @@
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K8,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K8,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="N8" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K8,translate)</f>
-        <v>0.60699632356664934</v>
+        <v>0.77890227437707504</v>
       </c>
       <c r="O8" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K8,translate)</f>
-        <v>0.73205424111347084</v>
+        <v>0.31644948512420579</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
@@ -4959,19 +4961,19 @@
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K9,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K9,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="N9" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K9,translate)</f>
-        <v>0.55853501440833775</v>
+        <v>0.74713107583256511</v>
       </c>
       <c r="O9" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K9,translate)</f>
-        <v>0.73205424111347084</v>
+        <v>0.31644948512420579</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
@@ -4980,19 +4982,19 @@
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K10,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K10,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K10,translate)</f>
-        <v>0.51394275419506419</v>
+        <v>0.7166558152897281</v>
       </c>
       <c r="O10" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K10,translate)</f>
-        <v>0.73205424111347084</v>
+        <v>0.31644948512420579</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
@@ -5001,19 +5003,19 @@
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K11,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K11,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K11,translate)</f>
-        <v>0.47291064620077855</v>
+        <v>0.687423631812209</v>
       </c>
       <c r="O11" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K11,translate)</f>
-        <v>0.73205424111347084</v>
+        <v>0.31644948512420579</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
@@ -5022,19 +5024,19 @@
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K12,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K12,translate)</f>
-        <v>0.83205424111347082</v>
+        <v>0.41644948512420576</v>
       </c>
       <c r="N12" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K12,translate)</f>
-        <v>0.43515445536402081</v>
+        <v>0.65938382064596168</v>
       </c>
       <c r="O12" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K12,translate)</f>
-        <v>0.73205424111347084</v>
+        <v>0.31644948512420579</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
@@ -5047,11 +5049,11 @@
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K13,translate)</f>
-        <v>0.77459476464860977</v>
+        <v>0.39677225920382342</v>
       </c>
       <c r="N13" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K13,translate)</f>
-        <v>0.42653781983133682</v>
+        <v>0.64632714619711107</v>
       </c>
       <c r="O13" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K13,translate)</f>
@@ -5068,11 +5070,11 @@
       </c>
       <c r="M14" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K14,translate)</f>
-        <v>0.72671186759455897</v>
+        <v>0.38037457093683813</v>
       </c>
       <c r="N14" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K14,translate)</f>
-        <v>0.4180918051138322</v>
+        <v>0.63352901122454952</v>
       </c>
       <c r="O14" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K14,translate)</f>
@@ -5089,11 +5091,11 @@
       </c>
       <c r="M15" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K15,translate)</f>
-        <v>0.68619557008728516</v>
+        <v>0.36649960394169673</v>
       </c>
       <c r="N15" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K15,translate)</f>
-        <v>0.40981303269300479</v>
+        <v>0.62098429630364393</v>
       </c>
       <c r="O15" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K15,translate)</f>
@@ -5110,11 +5112,11 @@
       </c>
       <c r="M16" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K16,translate)</f>
-        <v>0.6514673150810506</v>
+        <v>0.35460677508871841</v>
       </c>
       <c r="N16" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K16,translate)</f>
-        <v>0.40169819094950121</v>
+        <v>0.60868798338116081</v>
       </c>
       <c r="O16" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K16,translate)</f>
@@ -5131,11 +5133,11 @@
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K17,translate)</f>
-        <v>0.62136949407564723</v>
+        <v>0.3442996567494705</v>
       </c>
       <c r="N17" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K17,translate)</f>
-        <v>0.39374403383842477</v>
+        <v>0.59663515376797815</v>
       </c>
       <c r="O17" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K17,translate)</f>
@@ -5152,11 +5154,11 @@
       </c>
       <c r="M18" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K18,translate)</f>
-        <v>0.59503390069591922</v>
+        <v>0.33528092820262856</v>
       </c>
       <c r="N18" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K18,translate)</f>
-        <v>0.38594737959087416</v>
+        <v>0.58482098617154421</v>
       </c>
       <c r="O18" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K18,translate)</f>
@@ -5173,11 +5175,11 @@
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K19,translate)</f>
-        <v>0.57179661241968871</v>
+        <v>0.32732322654365043</v>
       </c>
       <c r="N19" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K19,translate)</f>
-        <v>0.3783051094411935</v>
+        <v>0.57324075476729586</v>
       </c>
       <c r="O19" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K19,translate)</f>
@@ -5194,11 +5196,11 @@
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K20,translate)</f>
-        <v>0.5511412450630393</v>
+        <v>0.32024971395789203</v>
       </c>
       <c r="N20" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K20,translate)</f>
-        <v>0.37081416637942477</v>
+        <v>0.56188982730826653</v>
       </c>
       <c r="O20" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K20,translate)</f>
@@ -5215,11 +5217,11 @@
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K21,translate)</f>
-        <v>0.53266012690182685</v>
+        <v>0.3139207816443188</v>
       </c>
       <c r="N21" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K21,translate)</f>
-        <v>0.36347155392846253</v>
+        <v>0.55076366327212467</v>
       </c>
       <c r="O21" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K21,translate)</f>
@@ -5236,11 +5238,11 @@
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K22,translate)</f>
-        <v>0.51602712055673539</v>
+        <v>0.30822474256210286</v>
       </c>
       <c r="N22" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K22,translate)</f>
-        <v>0.35627433494542382</v>
+        <v>0.53985781204490513</v>
       </c>
       <c r="O22" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K22,translate)</f>
@@ -5257,11 +5259,11 @@
       </c>
       <c r="M23" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K23,translate)</f>
-        <v>0.5057401148159385</v>
+        <v>0.30783308815438365</v>
       </c>
       <c r="N23" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K23,translate)</f>
-        <v>0.34574483706575171</v>
+        <v>0.52390260245024822</v>
       </c>
       <c r="O23" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K23,translate)</f>
@@ -5278,11 +5280,11 @@
       </c>
       <c r="M24" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K24,translate)</f>
-        <v>0.49638829141521396</v>
+        <v>0.30747703869282078</v>
       </c>
       <c r="N24" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K24,translate)</f>
-        <v>0.3355265328779154</v>
+        <v>0.50841894056228309</v>
       </c>
       <c r="O24" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K24,translate)</f>
@@ -5299,11 +5301,11 @@
       </c>
       <c r="M25" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K25,translate)</f>
-        <v>0.4878496700493351</v>
+        <v>0.30715195005400248</v>
       </c>
       <c r="N25" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K25,translate)</f>
-        <v>0.32561022521838967</v>
+        <v>0.49339289004013204</v>
       </c>
       <c r="O25" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K25,translate)</f>
@@ -5320,11 +5322,11 @@
       </c>
       <c r="M26" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K26,translate)</f>
-        <v>0.48002260046394613</v>
+        <v>0.30685395213508571</v>
       </c>
       <c r="N26" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K26,translate)</f>
-        <v>0.31598698874091008</v>
+        <v>0.47881092642403633</v>
       </c>
       <c r="O26" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K26,translate)</f>
@@ -5341,11 +5343,11 @@
       </c>
       <c r="M27" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K27,translate)</f>
-        <v>0.4728216964453883</v>
+        <v>0.30657979404968227</v>
       </c>
       <c r="N27" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K27,translate)</f>
-        <v>0.30664816188305893</v>
+        <v>0.46465992496242942</v>
       </c>
       <c r="O27" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K27,translate)</f>
@@ -5362,11 +5364,11 @@
       </c>
       <c r="M28" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K28,translate)</f>
-        <v>0.46617470812056566</v>
+        <v>0.30632672504777142</v>
       </c>
       <c r="N28" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K28,translate)</f>
-        <v>0.29758533907027451</v>
+        <v>0.45092714879877466</v>
       </c>
       <c r="O28" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K28,translate)</f>
@@ -5383,11 +5385,11 @@
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K29,translate)</f>
-        <v>0.46002008930128541</v>
+        <v>0.30609240189785397</v>
       </c>
       <c r="N29" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K29,translate)</f>
-        <v>0.28879036315026624</v>
+        <v>0.43760023750753441</v>
       </c>
       <c r="O29" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K29,translate)</f>
@@ -5404,11 +5406,11 @@
       </c>
       <c r="M30" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K30,translate)</f>
-        <v>0.4543050861119538</v>
+        <v>0.30587481611578776</v>
       </c>
       <c r="N30" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K30,translate)</f>
-        <v>0.28025531805102755</v>
+        <v>0.42466719596895308</v>
       </c>
       <c r="O30" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K30,translate)</f>
@@ -5425,11 +5427,11 @@
       </c>
       <c r="M31" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K31,translate)</f>
-        <v>0.44898422107361058</v>
+        <v>0.30567223624972606</v>
       </c>
       <c r="N31" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K31,translate)</f>
-        <v>0.2719725216558363</v>
+        <v>0.41211638357263958</v>
       </c>
       <c r="O31" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K31,translate)</f>
@@ -5446,11 +5448,11 @@
       </c>
       <c r="M32" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K32,translate)</f>
-        <v>0.44401808037115692</v>
+        <v>0.30548316170806861</v>
       </c>
       <c r="N32" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K32,translate)</f>
-        <v>0.26393451888883118</v>
+        <v>0.39993650374023176</v>
       </c>
       <c r="O32" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K32,translate)</f>
@@ -5467,11 +5469,11 @@
       </c>
       <c r="M33" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K33,translate)</f>
-        <v>0.44259814229466798</v>
+        <v>0.30853209197555026</v>
       </c>
       <c r="N33" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K33,translate)</f>
-        <v>0.25358549837613842</v>
+        <v>0.38425476912511841</v>
       </c>
       <c r="O33" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K33,translate)</f>
@@ -5488,11 +5490,11 @@
       </c>
       <c r="M34" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K34,translate)</f>
-        <v>0.44126695034795965</v>
+        <v>0.31139046410131432</v>
       </c>
       <c r="N34" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K34,translate)</f>
-        <v>0.24364226876197237</v>
+        <v>0.36918792411932794</v>
       </c>
       <c r="O34" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K34,translate)</f>
@@ -5509,11 +5511,11 @@
       </c>
       <c r="M35" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K35,translate)</f>
-        <v>0.44001643670105178</v>
+        <v>0.31407560155278963</v>
       </c>
       <c r="N35" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K35,translate)</f>
-        <v>0.23408891875761503</v>
+        <v>0.35471185855641951</v>
       </c>
       <c r="O35" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K35,translate)</f>
@@ -5530,11 +5532,11 @@
       </c>
       <c r="M36" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K36,translate)</f>
-        <v>0.4388394826804326</v>
+        <v>0.31660278974241346</v>
       </c>
       <c r="N36" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K36,translate)</f>
-        <v>0.22491016096490268</v>
+        <v>0.34080340764310052</v>
       </c>
       <c r="O36" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K36,translate)</f>
@@ -5551,11 +5553,11 @@
       </c>
       <c r="M37" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K37,translate)</f>
-        <v>0.43772978317527739</v>
+        <v>0.31898556717834453</v>
       </c>
       <c r="N37" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K37,translate)</f>
-        <v>0.21609130741312757</v>
+        <v>0.32744031489061509</v>
       </c>
       <c r="O37" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K37,translate)</f>
@@ -5572,11 +5574,11 @@
       </c>
       <c r="M38" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K38,translate)</f>
-        <v>0.43668173364263074</v>
+        <v>0.32123596809005717</v>
       </c>
       <c r="N38" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K38,translate)</f>
-        <v>0.20761824605515114</v>
+        <v>0.31460119649961427</v>
       </c>
       <c r="O38" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K38,translate)</f>
@@ -5593,11 +5595,11 @@
       </c>
       <c r="M39" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K39,translate)</f>
-        <v>0.43569033543607316</v>
+        <v>0.32336472570924479</v>
       </c>
       <c r="N39" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K39,translate)</f>
-        <v>0.19947741818511769</v>
+        <v>0.30226550714151418</v>
       </c>
       <c r="O39" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K39,translate)</f>
@@ -5614,11 +5616,11 @@
       </c>
       <c r="M40" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K40,translate)</f>
-        <v>0.43475111608249228</v>
+        <v>0.32538144345373837</v>
       </c>
       <c r="N40" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K40,translate)</f>
-        <v>0.19165579674163266</v>
+        <v>0.29041350708158797</v>
       </c>
       <c r="O40" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K40,translate)</f>
@@ -5635,11 +5637,11 @@
       </c>
       <c r="M41" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K41,translate)</f>
-        <v>0.43386006182396686</v>
+        <v>0.32729473977543738</v>
       </c>
       <c r="N41" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K41,translate)</f>
-        <v>0.1841408654616849</v>
+        <v>0.27902623059117815</v>
       </c>
       <c r="O41" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K41,translate)</f>
@@ -5656,11 +5658,11 @@
       </c>
       <c r="M42" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K42,translate)</f>
-        <v>0.43301356027836768</v>
+        <v>0.32911237128105142</v>
       </c>
       <c r="N42" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K42,translate)</f>
-        <v>0.17692059885195566</v>
+        <v>0.2680854555984849</v>
       </c>
       <c r="O42" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K42,translate)</f>
@@ -5705,7 +5707,7 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
-        <v>1487225911056</v>
+        <v>2141508726912</v>
       </c>
       <c r="F2" s="25" cm="1">
         <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
@@ -5760,10 +5762,10 @@
         <v>27</v>
       </c>
       <c r="D5" s="28">
-        <v>140716792682483</v>
+        <v>140716592076782</v>
       </c>
       <c r="F5" s="28">
-        <v>140716792682483</v>
+        <v>140716592076782</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
@@ -5776,7 +5778,7 @@
       </c>
       <c r="C6" s="4" cm="1">
         <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
-        <v>1487354323584</v>
+        <v>2141508729408</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
@@ -5794,7 +5796,7 @@
       </c>
       <c r="C8" s="4" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
-        <v>1487167974960</v>
+        <v>2141527836800</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
@@ -5807,7 +5809,7 @@
       </c>
       <c r="D9" s="4" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_xll.\TMX.PWFLAT.CURVE(0,0,yield)</f>
-        <v>1487167977424</v>
+        <v>2141527845072</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
@@ -8922,15 +8924,15 @@
       </c>
       <c r="E5" s="4" cm="1">
         <f t="array" ref="E5">_xll.\TMX.BOND.SIMPLE(B5, C5)</f>
-        <v>1487354367840</v>
+        <v>2141508726720</v>
       </c>
       <c r="F5" s="4" cm="1">
         <f t="array" ref="F5">_xll.\TMX.BOND.INSTRUMENT(E5, dated)</f>
-        <v>1487699142880</v>
+        <v>2141855140656</v>
       </c>
       <c r="G5" s="4" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">_xll.\TMX.BOOTSTRAP.CURVE(instrument, price)</f>
-        <v>1487167972496</v>
+        <v>2141527840496</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5:H105">_xll.ARRAY.SEQUENCE(0,10,H3)</f>
@@ -8950,18 +8952,18 @@
       </c>
       <c r="C6" s="17">
         <f ca="1">0.05 + 0.01*RAND() - 0.005</f>
-        <v>4.9078218220503775E-2</v>
+        <v>5.3077290564359073E-2</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="4" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xll.\TMX.BOND.SIMPLE(B6, C6)</f>
-        <v>1487319013232</v>
+        <v>2142425904464</v>
       </c>
       <c r="F6" s="4" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">_xll.\TMX.BOND.INSTRUMENT(E6, dated)</f>
-        <v>1487167975840</v>
+        <v>2141527839264</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -8985,11 +8987,11 @@
       </c>
       <c r="E7" s="4" cm="1">
         <f t="array" ref="E7">_xll.\TMX.BOND.SIMPLE(B7, C7)</f>
-        <v>1487354365248</v>
+        <v>2141508727968</v>
       </c>
       <c r="F7" s="4" cm="1">
         <f t="array" ref="F7">_xll.\TMX.BOND.INSTRUMENT(E7, dated)</f>
-        <v>1487699138832</v>
+        <v>2141855135904</v>
       </c>
       <c r="H7">
         <v>0.2</v>
@@ -9013,11 +9015,11 @@
       </c>
       <c r="E8" s="4" cm="1">
         <f t="array" ref="E8">_xll.\TMX.BOND.SIMPLE(B8, C8)</f>
-        <v>1487354368032</v>
+        <v>2141508731040</v>
       </c>
       <c r="F8" s="4" cm="1">
         <f t="array" ref="F8">_xll.\TMX.BOND.INSTRUMENT(E8, dated)</f>
-        <v>1487699150624</v>
+        <v>2141855132912</v>
       </c>
       <c r="H8">
         <v>0.30000000000000004</v>
@@ -9041,11 +9043,11 @@
       </c>
       <c r="E9" s="4" cm="1">
         <f t="array" ref="E9">_xll.\TMX.BOND.SIMPLE(B9, C9)</f>
-        <v>1487354366784</v>
+        <v>2141508728160</v>
       </c>
       <c r="F9" s="4" cm="1">
         <f t="array" ref="F9">_xll.\TMX.BOND.INSTRUMENT(E9, dated)</f>
-        <v>1487699137952</v>
+        <v>2141855135728</v>
       </c>
       <c r="H9">
         <v>0.4</v>
@@ -9069,11 +9071,11 @@
       </c>
       <c r="E10" s="4" cm="1">
         <f t="array" ref="E10">_xll.\TMX.BOND.SIMPLE(B10, C10)</f>
-        <v>1487354364384</v>
+        <v>2141508729120</v>
       </c>
       <c r="F10" s="4" cm="1">
         <f t="array" ref="F10">_xll.\TMX.BOND.INSTRUMENT(E10, dated)</f>
-        <v>1487699147456</v>
+        <v>2141855140480</v>
       </c>
       <c r="H10">
         <v>0.5</v>
@@ -9097,11 +9099,11 @@
       </c>
       <c r="E11" s="4" cm="1">
         <f t="array" ref="E11">_xll.\TMX.BOND.SIMPLE(B11, C11)</f>
-        <v>1487354370336</v>
+        <v>2141508728832</v>
       </c>
       <c r="F11" s="4" cm="1">
         <f t="array" ref="F11">_xll.\TMX.BOND.INSTRUMENT(E11, dated)</f>
-        <v>1487699143408</v>
+        <v>2141855141008</v>
       </c>
       <c r="H11">
         <v>0.60000000000000009</v>
@@ -9125,11 +9127,11 @@
       </c>
       <c r="E12" s="4" cm="1">
         <f t="array" ref="E12">_xll.\TMX.BOND.SIMPLE(B12, C12)</f>
-        <v>1487354366016</v>
+        <v>2141508727584</v>
       </c>
       <c r="F12" s="4" cm="1">
         <f t="array" ref="F12">_xll.\TMX.BOND.INSTRUMENT(E12, dated)</f>
-        <v>1487699155728</v>
+        <v>2141855140304</v>
       </c>
       <c r="H12">
         <v>0.70000000000000007</v>
@@ -9153,11 +9155,11 @@
       </c>
       <c r="E13" s="4" cm="1">
         <f t="array" ref="E13">_xll.\TMX.BOND.SIMPLE(B13, C13)</f>
-        <v>1487354365920</v>
+        <v>2141508727104</v>
       </c>
       <c r="F13" s="4" cm="1">
         <f t="array" ref="F13">_xll.\TMX.BOND.INSTRUMENT(E13, dated)</f>
-        <v>1487699144640</v>
+        <v>2141855140832</v>
       </c>
       <c r="H13">
         <v>0.8</v>
@@ -9181,11 +9183,11 @@
       </c>
       <c r="E14" s="4" cm="1">
         <f t="array" ref="E14">_xll.\TMX.BOND.SIMPLE(B14, C14)</f>
-        <v>1487354370240</v>
+        <v>2141508727392</v>
       </c>
       <c r="F14" s="4" cm="1">
         <f t="array" ref="F14">_xll.\TMX.BOND.INSTRUMENT(E14, dated)</f>
-        <v>1487699143232</v>
+        <v>2141855142064</v>
       </c>
       <c r="H14">
         <v>0.9</v>
@@ -9215,7 +9217,7 @@
       </c>
       <c r="I16" s="19">
         <f ca="1"/>
-        <v>4.7571559635601009E-2</v>
+        <v>5.5581637272549694E-2</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.35">
@@ -9224,7 +9226,7 @@
       </c>
       <c r="I17" s="19">
         <f ca="1"/>
-        <v>4.7571559635601009E-2</v>
+        <v>5.5581637272549694E-2</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.35">
@@ -9233,7 +9235,7 @@
       </c>
       <c r="I18" s="19">
         <f ca="1"/>
-        <v>4.7571559635601009E-2</v>
+        <v>5.5581637272549694E-2</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.35">
@@ -9242,7 +9244,7 @@
       </c>
       <c r="I19" s="19">
         <f ca="1"/>
-        <v>4.7571559635601009E-2</v>
+        <v>5.5581637272549694E-2</v>
       </c>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.35">
@@ -9251,7 +9253,7 @@
       </c>
       <c r="I20" s="19">
         <f ca="1"/>
-        <v>4.7571559635601009E-2</v>
+        <v>5.5581637272549694E-2</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.35">
@@ -9260,7 +9262,7 @@
       </c>
       <c r="I21" s="19">
         <f ca="1"/>
-        <v>4.7571559635601009E-2</v>
+        <v>5.5581637272549694E-2</v>
       </c>
     </row>
     <row r="22" spans="8:9" x14ac:dyDescent="0.35">
@@ -9269,7 +9271,7 @@
       </c>
       <c r="I22" s="19">
         <f ca="1"/>
-        <v>4.7571559635601009E-2</v>
+        <v>5.5581637272549694E-2</v>
       </c>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.35">
@@ -9278,7 +9280,7 @@
       </c>
       <c r="I23" s="19">
         <f ca="1"/>
-        <v>4.7571559635601009E-2</v>
+        <v>5.5581637272549694E-2</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.35">
@@ -9287,7 +9289,7 @@
       </c>
       <c r="I24" s="19">
         <f ca="1"/>
-        <v>4.7571559635601009E-2</v>
+        <v>5.5581637272549694E-2</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.35">
@@ -9296,7 +9298,7 @@
       </c>
       <c r="I25" s="19">
         <f ca="1"/>
-        <v>4.7571559635601009E-2</v>
+        <v>5.5581637272549694E-2</v>
       </c>
     </row>
     <row r="26" spans="8:9" x14ac:dyDescent="0.35">
@@ -9305,7 +9307,7 @@
       </c>
       <c r="I26" s="19">
         <f ca="1"/>
-        <v>5.1354629850704714E-2</v>
+        <v>4.2939744506772057E-2</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.35">
@@ -9314,7 +9316,7 @@
       </c>
       <c r="I27" s="19">
         <f ca="1"/>
-        <v>5.1354629850704714E-2</v>
+        <v>4.2939744506772057E-2</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.35">
@@ -9323,7 +9325,7 @@
       </c>
       <c r="I28" s="19">
         <f ca="1"/>
-        <v>5.1354629850704714E-2</v>
+        <v>4.2939744506772057E-2</v>
       </c>
     </row>
     <row r="29" spans="8:9" x14ac:dyDescent="0.35">
@@ -9332,7 +9334,7 @@
       </c>
       <c r="I29" s="19">
         <f ca="1"/>
-        <v>5.1354629850704714E-2</v>
+        <v>4.2939744506772057E-2</v>
       </c>
     </row>
     <row r="30" spans="8:9" x14ac:dyDescent="0.35">
@@ -9341,7 +9343,7 @@
       </c>
       <c r="I30" s="19">
         <f ca="1"/>
-        <v>5.1354629850704714E-2</v>
+        <v>4.2939744506772057E-2</v>
       </c>
     </row>
     <row r="31" spans="8:9" x14ac:dyDescent="0.35">
@@ -9350,7 +9352,7 @@
       </c>
       <c r="I31" s="19">
         <f ca="1"/>
-        <v>5.1354629850704714E-2</v>
+        <v>4.2939744506772057E-2</v>
       </c>
     </row>
     <row r="32" spans="8:9" x14ac:dyDescent="0.35">
@@ -9359,7 +9361,7 @@
       </c>
       <c r="I32" s="19">
         <f ca="1"/>
-        <v>5.1354629850704714E-2</v>
+        <v>4.2939744506772057E-2</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.35">
@@ -9368,7 +9370,7 @@
       </c>
       <c r="I33" s="19">
         <f ca="1"/>
-        <v>5.1354629850704714E-2</v>
+        <v>4.2939744506772057E-2</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.35">
@@ -9377,7 +9379,7 @@
       </c>
       <c r="I34" s="19">
         <f ca="1"/>
-        <v>5.1354629850704714E-2</v>
+        <v>4.2939744506772057E-2</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.35">
@@ -9386,7 +9388,7 @@
       </c>
       <c r="I35" s="19">
         <f ca="1"/>
-        <v>5.1354629850704714E-2</v>
+        <v>4.2939744506772057E-2</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.35">
@@ -9395,7 +9397,7 @@
       </c>
       <c r="I36" s="19">
         <f ca="1"/>
-        <v>4.9416364521089204E-2</v>
+        <v>4.9416364400681617E-2</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.35">
@@ -9404,7 +9406,7 @@
       </c>
       <c r="I37" s="19">
         <f ca="1"/>
-        <v>4.9416364521089204E-2</v>
+        <v>4.9416364400681617E-2</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.35">
@@ -9413,7 +9415,7 @@
       </c>
       <c r="I38" s="19">
         <f ca="1"/>
-        <v>4.9416364521089204E-2</v>
+        <v>4.9416364400681617E-2</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.35">
@@ -9422,7 +9424,7 @@
       </c>
       <c r="I39" s="19">
         <f ca="1"/>
-        <v>4.9416364521089204E-2</v>
+        <v>4.9416364400681617E-2</v>
       </c>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.35">
@@ -9431,7 +9433,7 @@
       </c>
       <c r="I40" s="19">
         <f ca="1"/>
-        <v>4.9416364521089204E-2</v>
+        <v>4.9416364400681617E-2</v>
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.35">
@@ -9440,7 +9442,7 @@
       </c>
       <c r="I41" s="19">
         <f ca="1"/>
-        <v>4.9416364521089204E-2</v>
+        <v>4.9416364400681617E-2</v>
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.35">
@@ -9449,7 +9451,7 @@
       </c>
       <c r="I42" s="19">
         <f ca="1"/>
-        <v>4.9416364521089204E-2</v>
+        <v>4.9416364400681617E-2</v>
       </c>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.35">
@@ -9458,7 +9460,7 @@
       </c>
       <c r="I43" s="19">
         <f ca="1"/>
-        <v>4.9416364521089204E-2</v>
+        <v>4.9416364400681617E-2</v>
       </c>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.35">
@@ -9467,7 +9469,7 @@
       </c>
       <c r="I44" s="19">
         <f ca="1"/>
-        <v>4.9416364521089204E-2</v>
+        <v>4.9416364400681617E-2</v>
       </c>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.35">
@@ -9476,7 +9478,7 @@
       </c>
       <c r="I45" s="19">
         <f ca="1"/>
-        <v>4.9416364521089204E-2</v>
+        <v>4.9416364400681617E-2</v>
       </c>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.35">
@@ -9485,7 +9487,7 @@
       </c>
       <c r="I46" s="19">
         <f ca="1"/>
-        <v>4.9283017362696399E-2</v>
+        <v>4.9283017362986459E-2</v>
       </c>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.35">
@@ -9494,7 +9496,7 @@
       </c>
       <c r="I47" s="19">
         <f ca="1"/>
-        <v>4.9283017362696399E-2</v>
+        <v>4.9283017362986459E-2</v>
       </c>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.35">
@@ -9503,7 +9505,7 @@
       </c>
       <c r="I48" s="19">
         <f ca="1"/>
-        <v>4.9283017362696399E-2</v>
+        <v>4.9283017362986459E-2</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.35">
@@ -9512,7 +9514,7 @@
       </c>
       <c r="I49" s="19">
         <f ca="1"/>
-        <v>4.9283017362696399E-2</v>
+        <v>4.9283017362986459E-2</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.35">
@@ -9521,7 +9523,7 @@
       </c>
       <c r="I50" s="19">
         <f ca="1"/>
-        <v>4.9283017362696399E-2</v>
+        <v>4.9283017362986459E-2</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.35">
@@ -9530,7 +9532,7 @@
       </c>
       <c r="I51" s="19">
         <f ca="1"/>
-        <v>4.9283017362696399E-2</v>
+        <v>4.9283017362986459E-2</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.35">
@@ -9539,7 +9541,7 @@
       </c>
       <c r="I52" s="19">
         <f ca="1"/>
-        <v>4.9283017362696399E-2</v>
+        <v>4.9283017362986459E-2</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.35">
@@ -9548,7 +9550,7 @@
       </c>
       <c r="I53" s="19">
         <f ca="1"/>
-        <v>4.9283017362696399E-2</v>
+        <v>4.9283017362986459E-2</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.35">
@@ -9557,7 +9559,7 @@
       </c>
       <c r="I54" s="19">
         <f ca="1"/>
-        <v>4.9283017362696399E-2</v>
+        <v>4.9283017362986459E-2</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.35">
@@ -9566,7 +9568,7 @@
       </c>
       <c r="I55" s="19">
         <f ca="1"/>
-        <v>4.9283017362696399E-2</v>
+        <v>4.9283017362986459E-2</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.35">
@@ -9575,7 +9577,7 @@
       </c>
       <c r="I56" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.35">
@@ -9584,7 +9586,7 @@
       </c>
       <c r="I57" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.35">
@@ -9593,7 +9595,7 @@
       </c>
       <c r="I58" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.35">
@@ -9602,7 +9604,7 @@
       </c>
       <c r="I59" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.35">
@@ -9611,7 +9613,7 @@
       </c>
       <c r="I60" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.35">
@@ -9620,7 +9622,7 @@
       </c>
       <c r="I61" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.35">
@@ -9629,7 +9631,7 @@
       </c>
       <c r="I62" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.35">
@@ -9638,7 +9640,7 @@
       </c>
       <c r="I63" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.35">
@@ -9647,7 +9649,7 @@
       </c>
       <c r="I64" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.35">
@@ -9656,7 +9658,7 @@
       </c>
       <c r="I65" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.35">
@@ -9665,7 +9667,7 @@
       </c>
       <c r="I66" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.35">
@@ -9674,7 +9676,7 @@
       </c>
       <c r="I67" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.35">
@@ -9683,7 +9685,7 @@
       </c>
       <c r="I68" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.35">
@@ -9692,7 +9694,7 @@
       </c>
       <c r="I69" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.35">
@@ -9701,7 +9703,7 @@
       </c>
       <c r="I70" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.35">
@@ -9710,7 +9712,7 @@
       </c>
       <c r="I71" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.35">
@@ -9719,7 +9721,7 @@
       </c>
       <c r="I72" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.35">
@@ -9728,7 +9730,7 @@
       </c>
       <c r="I73" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.35">
@@ -9737,7 +9739,7 @@
       </c>
       <c r="I74" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.35">
@@ -9746,7 +9748,7 @@
       </c>
       <c r="I75" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.35">
@@ -9755,7 +9757,7 @@
       </c>
       <c r="I76" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.35">
@@ -9764,7 +9766,7 @@
       </c>
       <c r="I77" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.35">
@@ -9773,7 +9775,7 @@
       </c>
       <c r="I78" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.35">
@@ -9782,7 +9784,7 @@
       </c>
       <c r="I79" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.35">
@@ -9791,7 +9793,7 @@
       </c>
       <c r="I80" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.35">
@@ -9800,7 +9802,7 @@
       </c>
       <c r="I81" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.35">
@@ -9809,7 +9811,7 @@
       </c>
       <c r="I82" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.35">
@@ -9818,7 +9820,7 @@
       </c>
       <c r="I83" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.35">
@@ -9827,7 +9829,7 @@
       </c>
       <c r="I84" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.35">
@@ -9836,7 +9838,7 @@
       </c>
       <c r="I85" s="19">
         <f ca="1"/>
-        <v>4.9416357720749947E-2</v>
+        <v>4.9416357720753049E-2</v>
       </c>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.35">
@@ -9845,7 +9847,7 @@
       </c>
       <c r="I86" s="19">
         <f ca="1"/>
-        <v>4.928303568762156E-2</v>
+        <v>4.9283035687614794E-2</v>
       </c>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.35">
@@ -9854,7 +9856,7 @@
       </c>
       <c r="I87" s="19">
         <f ca="1"/>
-        <v>4.928303568762156E-2</v>
+        <v>4.9283035687614794E-2</v>
       </c>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.35">
@@ -9863,7 +9865,7 @@
       </c>
       <c r="I88" s="19">
         <f ca="1"/>
-        <v>4.928303568762156E-2</v>
+        <v>4.9283035687614794E-2</v>
       </c>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.35">
@@ -9872,7 +9874,7 @@
       </c>
       <c r="I89" s="19">
         <f ca="1"/>
-        <v>4.928303568762156E-2</v>
+        <v>4.9283035687614794E-2</v>
       </c>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.35">
@@ -9881,7 +9883,7 @@
       </c>
       <c r="I90" s="19">
         <f ca="1"/>
-        <v>4.928303568762156E-2</v>
+        <v>4.9283035687614794E-2</v>
       </c>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.35">
@@ -9890,7 +9892,7 @@
       </c>
       <c r="I91" s="19">
         <f ca="1"/>
-        <v>4.928303568762156E-2</v>
+        <v>4.9283035687614794E-2</v>
       </c>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.35">
@@ -9899,7 +9901,7 @@
       </c>
       <c r="I92" s="19">
         <f ca="1"/>
-        <v>4.928303568762156E-2</v>
+        <v>4.9283035687614794E-2</v>
       </c>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.35">
@@ -9908,7 +9910,7 @@
       </c>
       <c r="I93" s="19">
         <f ca="1"/>
-        <v>4.928303568762156E-2</v>
+        <v>4.9283035687614794E-2</v>
       </c>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.35">
@@ -9917,7 +9919,7 @@
       </c>
       <c r="I94" s="19">
         <f ca="1"/>
-        <v>4.928303568762156E-2</v>
+        <v>4.9283035687614794E-2</v>
       </c>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.35">
@@ -9926,7 +9928,7 @@
       </c>
       <c r="I95" s="19">
         <f ca="1"/>
-        <v>4.928303568762156E-2</v>
+        <v>4.9283035687614794E-2</v>
       </c>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.35">
@@ -9935,7 +9937,7 @@
       </c>
       <c r="I96" s="19">
         <f ca="1"/>
-        <v>4.9416357721873097E-2</v>
+        <v>4.9416357721872965E-2</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.35">
@@ -9944,7 +9946,7 @@
       </c>
       <c r="I97" s="19">
         <f ca="1"/>
-        <v>4.9416357721873097E-2</v>
+        <v>4.9416357721872965E-2</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.35">
@@ -9953,7 +9955,7 @@
       </c>
       <c r="I98" s="19">
         <f ca="1"/>
-        <v>4.9416357721873097E-2</v>
+        <v>4.9416357721872965E-2</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.35">
@@ -9962,7 +9964,7 @@
       </c>
       <c r="I99" s="19">
         <f ca="1"/>
-        <v>4.9416357721873097E-2</v>
+        <v>4.9416357721872965E-2</v>
       </c>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.35">
@@ -9971,7 +9973,7 @@
       </c>
       <c r="I100" s="19">
         <f ca="1"/>
-        <v>4.9416357721873097E-2</v>
+        <v>4.9416357721872965E-2</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.35">
@@ -9980,7 +9982,7 @@
       </c>
       <c r="I101" s="19">
         <f ca="1"/>
-        <v>4.9416357721873097E-2</v>
+        <v>4.9416357721872965E-2</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.35">
@@ -9989,7 +9991,7 @@
       </c>
       <c r="I102" s="19">
         <f ca="1"/>
-        <v>4.9416357721873097E-2</v>
+        <v>4.9416357721872965E-2</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.35">
@@ -9998,7 +10000,7 @@
       </c>
       <c r="I103" s="19">
         <f ca="1"/>
-        <v>4.9416357721873097E-2</v>
+        <v>4.9416357721872965E-2</v>
       </c>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.35">
@@ -10007,7 +10009,7 @@
       </c>
       <c r="I104" s="19">
         <f ca="1"/>
-        <v>4.9416357721873097E-2</v>
+        <v>4.9416357721872965E-2</v>
       </c>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.35">
@@ -10016,7 +10018,7 @@
       </c>
       <c r="I105" s="19">
         <f ca="1"/>
-        <v>4.9416357721873097E-2</v>
+        <v>4.9416357721872965E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10030,7 +10032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE10814-8BAC-41F3-9E28-9FC194E23C82}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10077,7 +10081,7 @@
       </c>
       <c r="C6">
         <f ca="1">_xlfn.NORM.S.INV(RAND())</f>
-        <v>1.4868585268509518</v>
+        <v>-0.80584347825979419</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
@@ -10104,15 +10108,15 @@
       </c>
       <c r="C9">
         <f ca="1">EXP(-φ*t+Z*SQRT(t)*(σ^2)*(t^3)/6)</f>
-        <v>0.90485984106763107</v>
+        <v>0.90482526549536502</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_xll.MONTE.MEAN(C9)</f>
-        <v>0.90483751599064366</v>
+        <v>0.90483751647513344</v>
       </c>
       <c r="E9" s="16">
         <f ca="1">D9-Dt</f>
-        <v>-1.4982794622420137E-5</v>
+        <v>-1.498231013263851E-5</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
@@ -10121,7 +10125,7 @@
       </c>
       <c r="C10">
         <f ca="1">EXP(-φ*(u-t) + (σ^2)*((u-t)^3)/6 - σ*(u-t)*Z*SQRT(t))</f>
-        <v>0.89149814842515662</v>
+        <v>0.91217365253600768</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
@@ -10130,7 +10134,7 @@
       </c>
       <c r="C11">
         <f ca="1">LN(C10)</f>
-        <v>-0.11485191860184286</v>
+        <v>-9.1924898550735407E-2</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -10143,7 +10147,7 @@
       </c>
       <c r="D12" s="15" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">_xll.MONTE.MEAN(C10)</f>
-        <v>0.90483943005119316</v>
+        <v>0.90483886884293963</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10156,11 +10160,11 @@
       </c>
       <c r="D13" s="15">
         <f t="array" aca="1" ref="D13:D14" ca="1">_xll.MONTE.STDEV(logD)</f>
-        <v>-0.10004820328103688</v>
+        <v>-0.10004852505796966</v>
       </c>
       <c r="E13" s="6">
         <f ca="1">D13-C13</f>
-        <v>-6.4869947703424802E-5</v>
+        <v>-6.5191724636204373E-5</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10173,18 +10177,18 @@
       </c>
       <c r="D14" s="15">
         <f ca="1"/>
-        <v>1.0043330998061853E-2</v>
+        <v>1.0012740436646801E-2</v>
       </c>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D15" s="15">
         <f ca="1">D14^2</f>
-        <v>1.008684975366301E-4</v>
+        <v>1.0025497105166198E-4</v>
       </c>
       <c r="E15" s="6">
         <f ca="1">D15-C14</f>
-        <v>8.6849753663009233E-7</v>
+        <v>2.5497105166197341E-7</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/bondxll/bondlib.xlsx
+++ b/bondxll/bondlib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\tmcrossx\bondlib\bondxll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A898A85D-FAFE-4911-8215-4A3D0A48ED5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2964D1-706C-4768-8864-2F36017D3B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06412BBD-41CB-406E-9C18-9630F19E364B}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Ho-Lee" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="B_t">'Ho-Lee'!$C$6</definedName>
     <definedName name="bond">Bootstrap!$E$5:$E$14</definedName>
     <definedName name="bond.simple">Bond!$C$6</definedName>
     <definedName name="cash" localSheetId="4">INDEX(_xlfn.ANCHORARRAY(Bond!$C$16),,2)</definedName>
@@ -328,7 +327,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -383,6 +382,14 @@
     <font>
       <sz val="8"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -502,8 +509,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -706,34 +715,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2</c:v>
@@ -793,37 +802,37 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,124 +1006,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41644948512420576</c:v>
+                  <c:v>0.58491436821452436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39677225920382342</c:v>
+                  <c:v>0.54992215292229485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38037457093683813</c:v>
+                  <c:v>0.52076197351210363</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36649960394169673</c:v>
+                  <c:v>0.49608797554963407</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35460677508871841</c:v>
+                  <c:v>0.47493883443894597</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3442996567494705</c:v>
+                  <c:v>0.45660957880968289</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33528092820262856</c:v>
+                  <c:v>0.44057148013407771</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32732322654365043</c:v>
+                  <c:v>0.42642021659677898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.32024971395789203</c:v>
+                  <c:v>0.4138413156747357</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3139207816443188</c:v>
+                  <c:v>0.40258650958659176</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30822474256210286</c:v>
+                  <c:v>0.39245718410726216</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30783308815438365</c:v>
+                  <c:v>0.38805446105453539</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.30747703869282078</c:v>
+                  <c:v>0.3840519855520565</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.30715195005400248</c:v>
+                  <c:v>0.38039755139761927</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.30685395213508571</c:v>
+                  <c:v>0.37704765342271845</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.30657979404968227</c:v>
+                  <c:v>0.37396574728580972</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.30632672504777142</c:v>
+                  <c:v>0.37112091085174015</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.30609240189785397</c:v>
+                  <c:v>0.36848680304241643</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.30587481611578776</c:v>
+                  <c:v>0.36604084579090151</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.30567223624972606</c:v>
+                  <c:v>0.36376357524638764</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30548316170806861</c:v>
+                  <c:v>0.36163812273817481</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.30853209197555026</c:v>
+                  <c:v>0.3661014091014595</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.31139046410131432</c:v>
+                  <c:v>0.37028574006703885</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.31407560155278963</c:v>
+                  <c:v>0.37421647521652257</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.31660278974241346</c:v>
+                  <c:v>0.37791599065133069</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.31898556717834453</c:v>
+                  <c:v>0.38140410520414986</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.32123596809005717</c:v>
+                  <c:v>0.38469843561514566</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.32336472570924479</c:v>
+                  <c:v>0.38781469411203362</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.32538144345373837</c:v>
+                  <c:v>0.3907669390038222</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.32729473977543738</c:v>
+                  <c:v>0.39356778672167292</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.32911237128105142</c:v>
+                  <c:v>0.39622859205363109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,124 +1297,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.95921028915993489</c:v>
+                  <c:v>0.94318631703792211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92008437883028604</c:v>
+                  <c:v>0.88960042864755973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88255440306933775</c:v>
+                  <c:v>0.83905895193144875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84655526416751326</c:v>
+                  <c:v>0.79138892264992211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81202451973198542</c:v>
+                  <c:v>0.74642720329878909</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77890227437707504</c:v>
+                  <c:v>0.70401992481630127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74713107583256511</c:v>
+                  <c:v>0.66402196000880198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7166558152897281</c:v>
+                  <c:v>0.62629642689300435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.687423631812209</c:v>
+                  <c:v>0.59071422025522302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65938382064596168</c:v>
+                  <c:v>0.55715356982445186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64632714619711107</c:v>
+                  <c:v>0.54612118997005032</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.63352901122454952</c:v>
+                  <c:v>0.53530726587334976</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.62098429630364393</c:v>
+                  <c:v>0.52470747182052402</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60868798338116081</c:v>
+                  <c:v>0.51431756775261928</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59663515376797815</c:v>
+                  <c:v>0.50413339756947462</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.58482098617154421</c:v>
+                  <c:v>0.49415088746722613</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57324075476729586</c:v>
+                  <c:v>0.48436604430873076</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.56188982730826653</c:v>
+                  <c:v>0.47477495402625897</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.55076366327212467</c:v>
+                  <c:v>0.46537378005581476</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.53985781204490513</c:v>
+                  <c:v>0.4561587618024594</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.52390260245024822</c:v>
+                  <c:v>0.44267723298021455</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.50841894056228309</c:v>
+                  <c:v>0.42959414354926156</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.49339289004013204</c:v>
+                  <c:v>0.41689771784597751</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.47881092642403633</c:v>
+                  <c:v>0.40457652823019508</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.46465992496242942</c:v>
+                  <c:v>0.39261948479955472</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.45092714879877466</c:v>
+                  <c:v>0.38101582540784434</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43760023750753441</c:v>
+                  <c:v>0.36975510597834071</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.42466719596895308</c:v>
+                  <c:v>0.35882719110343608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.41211638357263958</c:v>
+                  <c:v>0.34822224492208653</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.39993650374023176</c:v>
+                  <c:v>0.33793072226687343</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.38425476912511841</c:v>
+                  <c:v>0.3214496464630287</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.36918792411932794</c:v>
+                  <c:v>0.30577236221098475</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.35471185855641951</c:v>
+                  <c:v>0.29085966813417891</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.34080340764310052</c:v>
+                  <c:v>0.27667427472974365</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.32744031489061509</c:v>
+                  <c:v>0.26318071112532648</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.31460119649961427</c:v>
+                  <c:v>0.25034523638343303</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.30226550714151418</c:v>
+                  <c:v>0.23813575513150817</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29041350708158797</c:v>
+                  <c:v>0.22652173730678746</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.27902623059117815</c:v>
+                  <c:v>0.21547414181523736</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2680854555984849</c:v>
+                  <c:v>0.2049653439136935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,124 +1588,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.31644948512420579</c:v>
+                  <c:v>0.68491436821452434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31644948512420579</c:v>
+                  <c:v>0.68491436821452434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31644948512420579</c:v>
+                  <c:v>0.68491436821452434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31644948512420579</c:v>
+                  <c:v>0.68491436821452434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31644948512420579</c:v>
+                  <c:v>0.68491436821452434</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31644948512420579</c:v>
+                  <c:v>0.68491436821452434</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31644948512420579</c:v>
+                  <c:v>0.68491436821452434</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31644948512420579</c:v>
+                  <c:v>0.68491436821452434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31644948512420579</c:v>
+                  <c:v>0.68491436821452434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31644948512420579</c:v>
+                  <c:v>0.68491436821452434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2354,274 +2363,274 @@
                   <c:v>4.9283011639120938E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5581637272549694E-2</c:v>
+                  <c:v>5.1585054314548233E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5581637272549694E-2</c:v>
+                  <c:v>5.1585054314548233E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5581637272549694E-2</c:v>
+                  <c:v>5.1585054314548233E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5581637272549694E-2</c:v>
+                  <c:v>5.1585054314548233E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5581637272549694E-2</c:v>
+                  <c:v>5.1585054314548233E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5581637272549694E-2</c:v>
+                  <c:v>5.1585054314548233E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5581637272549694E-2</c:v>
+                  <c:v>5.1585054314548233E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5581637272549694E-2</c:v>
+                  <c:v>5.1585054314548233E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5581637272549694E-2</c:v>
+                  <c:v>5.1585054314548233E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.5581637272549694E-2</c:v>
+                  <c:v>5.1585054314548233E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.2939744506772057E-2</c:v>
+                  <c:v>4.7137984858476464E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.2939744506772057E-2</c:v>
+                  <c:v>4.7137984858476464E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2939744506772057E-2</c:v>
+                  <c:v>4.7137984858476464E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.2939744506772057E-2</c:v>
+                  <c:v>4.7137984858476464E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2939744506772057E-2</c:v>
+                  <c:v>4.7137984858476464E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.2939744506772057E-2</c:v>
+                  <c:v>4.7137984858476464E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.2939744506772057E-2</c:v>
+                  <c:v>4.7137984858476464E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.2939744506772057E-2</c:v>
+                  <c:v>4.7137984858476464E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.2939744506772057E-2</c:v>
+                  <c:v>4.7137984858476464E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.2939744506772057E-2</c:v>
+                  <c:v>4.7137984858476464E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.9416364400681617E-2</c:v>
+                  <c:v>4.9416364517221215E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9416364400681617E-2</c:v>
+                  <c:v>4.9416364517221215E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9416364400681617E-2</c:v>
+                  <c:v>4.9416364517221215E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9416364400681617E-2</c:v>
+                  <c:v>4.9416364517221215E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9416364400681617E-2</c:v>
+                  <c:v>4.9416364517221215E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9416364400681617E-2</c:v>
+                  <c:v>4.9416364517221215E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9416364400681617E-2</c:v>
+                  <c:v>4.9416364517221215E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.9416364400681617E-2</c:v>
+                  <c:v>4.9416364517221215E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9416364400681617E-2</c:v>
+                  <c:v>4.9416364517221215E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.9416364400681617E-2</c:v>
+                  <c:v>4.9416364517221215E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9283017362986459E-2</c:v>
+                  <c:v>4.9283017362953575E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9283017362986459E-2</c:v>
+                  <c:v>4.9283017362953575E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.9283017362986459E-2</c:v>
+                  <c:v>4.9283017362953575E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.9283017362986459E-2</c:v>
+                  <c:v>4.9283017362953575E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.9283017362986459E-2</c:v>
+                  <c:v>4.9283017362953575E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9283017362986459E-2</c:v>
+                  <c:v>4.9283017362953575E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.9283017362986459E-2</c:v>
+                  <c:v>4.9283017362953575E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.9283017362986459E-2</c:v>
+                  <c:v>4.9283017362953575E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.9283017362986459E-2</c:v>
+                  <c:v>4.9283017362953575E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9283017362986459E-2</c:v>
+                  <c:v>4.9283017362953575E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.9416357720753049E-2</c:v>
+                  <c:v>4.9416357720749815E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.9283035687614794E-2</c:v>
+                  <c:v>4.9283035687621969E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.9283035687614794E-2</c:v>
+                  <c:v>4.9283035687621969E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.9283035687614794E-2</c:v>
+                  <c:v>4.9283035687621969E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9283035687614794E-2</c:v>
+                  <c:v>4.9283035687621969E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.9283035687614794E-2</c:v>
+                  <c:v>4.9283035687621969E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.9283035687614794E-2</c:v>
+                  <c:v>4.9283035687621969E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.9283035687614794E-2</c:v>
+                  <c:v>4.9283035687621969E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.9283035687614794E-2</c:v>
+                  <c:v>4.9283035687621969E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.9283035687614794E-2</c:v>
+                  <c:v>4.9283035687621969E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.9283035687614794E-2</c:v>
+                  <c:v>4.9283035687621969E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.9416357721872965E-2</c:v>
+                  <c:v>4.9416357721872958E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9416357721872965E-2</c:v>
+                  <c:v>4.9416357721872958E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.9416357721872965E-2</c:v>
+                  <c:v>4.9416357721872958E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.9416357721872965E-2</c:v>
+                  <c:v>4.9416357721872958E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.9416357721872965E-2</c:v>
+                  <c:v>4.9416357721872958E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9416357721872965E-2</c:v>
+                  <c:v>4.9416357721872958E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.9416357721872965E-2</c:v>
+                  <c:v>4.9416357721872958E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.9416357721872965E-2</c:v>
+                  <c:v>4.9416357721872958E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.9416357721872965E-2</c:v>
+                  <c:v>4.9416357721872958E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.9416357721872965E-2</c:v>
+                  <c:v>4.9416357721872958E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3978,16 +3987,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>225136</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>230333</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>64078</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4314,30 +4323,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28EA81D-C5B8-44E1-B499-71D23FEEDB1B}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="2" max="2" width="28.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="28.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -4350,10 +4357,10 @@
       </c>
       <c r="E3" s="4" cm="1">
         <f t="array" ref="E3">_xll.ENUM(D3)</f>
-        <v>140716592084022</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+        <v>140716601127980</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -4366,10 +4373,10 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_xll.ENUM(D4)</f>
-        <v>140716592076782</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+        <v>140716601120750</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -4382,10 +4389,10 @@
       </c>
       <c r="E5" s="4" cm="1">
         <f t="array" ref="E5">_xll.ENUM(D5)</f>
-        <v>140716592082397</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+        <v>140716601126340</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -4398,20 +4405,21 @@
       </c>
       <c r="E6" s="4" cm="1">
         <f t="array" ref="E6">_xll.ENUM(D6)</f>
-        <v>140716592087587</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+        <v>140716601131645</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="4" cm="1">
         <f t="array" ref="E7">_xll.ENUM(D7)</f>
-        <v>140716592119097</v>
+        <v>140716601163150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4419,50 +4427,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E6F0E-62B3-47B5-8C49-DACF71BB425D}">
   <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="8">
         <f ca="1">50 + 100*RAND()</f>
-        <v>55.57648474565103</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+        <v>124.59833498475891</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="8">
         <f ca="1">0.01 + 0.3*RAND()</f>
-        <v>0.29839914694443209</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0.29802669645075003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="8">
         <f ca="1">50 + 100*RAND()</f>
-        <v>96.162225586071258</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+        <v>103.88413278061428</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.BLACK.MONEYNESS(f, s, k)</f>
-        <v>1.9865923582128671</v>
+        <v>-0.46106311594071869</v>
       </c>
       <c r="D5">
         <v>1E-3</v>
@@ -4475,91 +4481,91 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>40.866613822992726</v>
+        <v>5.5923254240287044</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + D5, s, k)</f>
-        <v>40.865659512958629</v>
+        <v>5.5921015286392688</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xll.TMX.BLACK.PUT.VALUE(f + E5, s, k)</f>
-        <v>40.86756813881248</v>
+        <v>5.5925493274722733</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xll.TMX.BLACK.CALL.VALUE(f, s, k)</f>
-        <v>0.28087298257249671</v>
+        <v>26.306527628173331</v>
       </c>
       <c r="H6" s="16">
         <f ca="1">G6-C6-f+k</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.BLACK.PUT.DELTA(f, s, k)</f>
-        <v>-0.95431292701417658</v>
+        <v>-0.22389941646934114</v>
       </c>
       <c r="D7">
         <f ca="1">(D6-E6)/(D5-E5)</f>
-        <v>-0.9543129269253825</v>
+        <v>-0.22389941650224898</v>
       </c>
       <c r="E7" s="16">
         <f ca="1">(C7-D7)/C7</f>
-        <v>9.3045038669969195E-11</v>
+        <v>-1.4697601108605043E-10</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">_xll.TMX.BLACK.CALL.DELTA(f, s, k)</f>
-        <v>0.95431292701417658</v>
+        <v>0.22389941646934114</v>
       </c>
       <c r="H7" s="16">
         <f ca="1">G7+C7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.TMX.BLACK.GAMMA(f, s, k)</f>
-        <v>5.7856555916260023E-3</v>
+        <v>8.0541303100472323E-3</v>
       </c>
       <c r="D8">
         <f ca="1">(D6-2*C6+E6)/(D5^2)</f>
-        <v>5.7856581747728342E-3</v>
+        <v>8.0541333602468512E-3</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" ref="E8:E9" ca="1" si="0">(C8-D8)/C8</f>
-        <v>-4.4647435211861792E-7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>-3.7871247440807396E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.BLACK.VEGA(f, s, k)</f>
-        <v>5.3325176597229742</v>
+        <v>37.264757413253818</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">(_xll.TMX.BLACK.PUT.VALUE(f, s + D5, k) - _xll.TMX.BLACK.PUT.VALUE(f, s + E5, k))/(D5 - E5)</f>
-        <v>5.3325286132235306</v>
+        <v>37.264686347766585</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0540955052220857E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
+        <v>1.9070427977156908E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4573,80 +4579,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DAD46C-D019-4BB0-8142-A427C42D3B36}">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">TODAY()</f>
-        <v>45113</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="8">
         <f ca="1">10*RAND()</f>
-        <v>3.1697596372643244</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.3365534051456374</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xll.TMX.DATE.ADD_YEARS(date,years)</f>
-        <v>46270.730925925927</v>
+        <v>45967.408599537041</v>
       </c>
       <c r="D4">
         <f ca="1">C4</f>
-        <v>46270.730925925927</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45967.408599537041</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.TMX.DATE.ADD_YEARS(C4,-years)</f>
-        <v>45113</v>
+        <v>45114.000000000007</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">C5-date</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.TMX.DATE.SUB_YEARS(C4,date)</f>
-        <v>3.1677584070857034</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.3354346769611971</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">_xll.TMX.DATE.ADD_YEARS(date,C6)</f>
-        <v>46270</v>
+        <v>45967</v>
       </c>
       <c r="D7">
         <f ca="1">C7</f>
-        <v>46270</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4658,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4682,13 +4686,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.DATE.ADD_YMD(date, years_,months, days)</f>
-        <v>45544</v>
+        <v>45545</v>
       </c>
     </row>
   </sheetData>
@@ -4704,22 +4708,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B429FC-4136-41AD-B308-B590D229D902}">
   <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="4" max="4" width="3.58203125" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3.58203125" customWidth="1"/>
-    <col min="9" max="9" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.58203125" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="4" max="4" width="3.59765625" customWidth="1"/>
+    <col min="5" max="6" width="8.69921875" customWidth="1"/>
+    <col min="7" max="7" width="3.59765625" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.59765625" customWidth="1"/>
+    <col min="17" max="17" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4748,13 +4752,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">RAND()</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="E3" s="25" cm="1">
         <f t="array" aca="1" ref="E3:F6" ca="1">TRANSPOSE(_xll.TMX.PWFLAT.CURVE(curve))</f>
@@ -4762,7 +4766,7 @@
       </c>
       <c r="F3" s="26">
         <f ca="1"/>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="3" t="s">
@@ -4770,7 +4774,7 @@
       </c>
       <c r="I3" s="4" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">_xll.\TMX.PWFLAT.CURVE(time, rate, extrapolate)</f>
-        <v>2141527846656</v>
+        <v>2046831270480</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3:K42">_xll.ARRAY.SEQUENCE(0.1,4,0.1)</f>
@@ -4778,22 +4782,22 @@
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K3,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K3,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K3,translate)</f>
-        <v>0.95921028915993489</v>
+        <v>0.94318631703792211</v>
       </c>
       <c r="O3" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K3,translate)</f>
-        <v>0.31644948512420579</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.68491436821452434</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -4812,29 +4816,29 @@
         <v>60</v>
       </c>
       <c r="I4">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0.2</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K4,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K4,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K4,translate)</f>
-        <v>0.92008437883028604</v>
+        <v>0.88960042864755973</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K4,translate)</f>
-        <v>0.31644948512420579</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.68491436821452434</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -4854,34 +4858,34 @@
       </c>
       <c r="I5" s="4" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">_xll.\TMX.PWFLAT.CURVE.SHIFT(curve,spread)</f>
-        <v>2141527841552</v>
+        <v>2046831278928</v>
       </c>
       <c r="K5">
         <v>0.30000000000000004</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K5,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K5,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K5,translate)</f>
-        <v>0.88255440306933775</v>
+        <v>0.83905895193144875</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K5,translate)</f>
-        <v>0.31644948512420579</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.68491436821452434</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="25">
         <f ca="1"/>
@@ -4889,7 +4893,7 @@
       </c>
       <c r="F6" s="25">
         <f ca="1"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
@@ -4898,148 +4902,148 @@
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K6,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K6,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K6,translate)</f>
-        <v>0.84655526416751326</v>
+        <v>0.79138892264992211</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K6,translate)</f>
-        <v>0.31644948512420579</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.68491436821452434</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K7">
         <v>0.5</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K7,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K7,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K7,translate)</f>
-        <v>0.81202451973198542</v>
+        <v>0.74642720329878909</v>
       </c>
       <c r="O7" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K7,translate)</f>
-        <v>0.31644948512420579</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.68491436821452434</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K8">
         <v>0.6</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K8,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K8,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="N8" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K8,translate)</f>
-        <v>0.77890227437707504</v>
+        <v>0.70401992481630127</v>
       </c>
       <c r="O8" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K8,translate)</f>
-        <v>0.31644948512420579</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.68491436821452434</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K9">
         <v>0.70000000000000007</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K9,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K9,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="N9" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K9,translate)</f>
-        <v>0.74713107583256511</v>
+        <v>0.66402196000880198</v>
       </c>
       <c r="O9" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K9,translate)</f>
-        <v>0.31644948512420579</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.68491436821452434</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K10">
         <v>0.8</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K10,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K10,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K10,translate)</f>
-        <v>0.7166558152897281</v>
+        <v>0.62629642689300435</v>
       </c>
       <c r="O10" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K10,translate)</f>
-        <v>0.31644948512420579</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.68491436821452434</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K11">
         <v>0.9</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K11,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K11,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K11,translate)</f>
-        <v>0.687423631812209</v>
+        <v>0.59071422025522302</v>
       </c>
       <c r="O11" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K11,translate)</f>
-        <v>0.31644948512420579</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.68491436821452434</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K12,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K12,translate)</f>
-        <v>0.41644948512420576</v>
+        <v>0.58491436821452436</v>
       </c>
       <c r="N12" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K12,translate)</f>
-        <v>0.65938382064596168</v>
+        <v>0.55715356982445186</v>
       </c>
       <c r="O12" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K12,translate)</f>
-        <v>0.31644948512420579</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.68491436821452434</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K13">
         <v>1.1000000000000001</v>
       </c>
@@ -5049,18 +5053,18 @@
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K13,translate)</f>
-        <v>0.39677225920382342</v>
+        <v>0.54992215292229485</v>
       </c>
       <c r="N13" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K13,translate)</f>
-        <v>0.64632714619711107</v>
+        <v>0.54612118997005032</v>
       </c>
       <c r="O13" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K13,translate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K14">
         <v>1.2000000000000002</v>
       </c>
@@ -5070,18 +5074,18 @@
       </c>
       <c r="M14" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K14,translate)</f>
-        <v>0.38037457093683813</v>
+        <v>0.52076197351210363</v>
       </c>
       <c r="N14" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K14,translate)</f>
-        <v>0.63352901122454952</v>
+        <v>0.53530726587334976</v>
       </c>
       <c r="O14" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K14,translate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K15">
         <v>1.3000000000000003</v>
       </c>
@@ -5091,18 +5095,18 @@
       </c>
       <c r="M15" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K15,translate)</f>
-        <v>0.36649960394169673</v>
+        <v>0.49608797554963407</v>
       </c>
       <c r="N15" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K15,translate)</f>
-        <v>0.62098429630364393</v>
+        <v>0.52470747182052402</v>
       </c>
       <c r="O15" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K15,translate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K16">
         <v>1.4000000000000001</v>
       </c>
@@ -5112,18 +5116,18 @@
       </c>
       <c r="M16" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K16,translate)</f>
-        <v>0.35460677508871841</v>
+        <v>0.47493883443894597</v>
       </c>
       <c r="N16" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K16,translate)</f>
-        <v>0.60868798338116081</v>
+        <v>0.51431756775261928</v>
       </c>
       <c r="O16" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K16,translate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K17">
         <v>1.5000000000000002</v>
       </c>
@@ -5133,18 +5137,18 @@
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K17,translate)</f>
-        <v>0.3442996567494705</v>
+        <v>0.45660957880968289</v>
       </c>
       <c r="N17" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K17,translate)</f>
-        <v>0.59663515376797815</v>
+        <v>0.50413339756947462</v>
       </c>
       <c r="O17" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K17,translate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K18">
         <v>1.6</v>
       </c>
@@ -5154,18 +5158,18 @@
       </c>
       <c r="M18" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K18,translate)</f>
-        <v>0.33528092820262856</v>
+        <v>0.44057148013407771</v>
       </c>
       <c r="N18" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K18,translate)</f>
-        <v>0.58482098617154421</v>
+        <v>0.49415088746722613</v>
       </c>
       <c r="O18" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K18,translate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K19">
         <v>1.7000000000000002</v>
       </c>
@@ -5175,18 +5179,18 @@
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K19,translate)</f>
-        <v>0.32732322654365043</v>
+        <v>0.42642021659677898</v>
       </c>
       <c r="N19" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K19,translate)</f>
-        <v>0.57324075476729586</v>
+        <v>0.48436604430873076</v>
       </c>
       <c r="O19" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K19,translate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K20">
         <v>1.8000000000000003</v>
       </c>
@@ -5196,18 +5200,18 @@
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K20,translate)</f>
-        <v>0.32024971395789203</v>
+        <v>0.4138413156747357</v>
       </c>
       <c r="N20" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K20,translate)</f>
-        <v>0.56188982730826653</v>
+        <v>0.47477495402625897</v>
       </c>
       <c r="O20" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K20,translate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K21">
         <v>1.9000000000000001</v>
       </c>
@@ -5217,18 +5221,18 @@
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K21,translate)</f>
-        <v>0.3139207816443188</v>
+        <v>0.40258650958659176</v>
       </c>
       <c r="N21" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K21,translate)</f>
-        <v>0.55076366327212467</v>
+        <v>0.46537378005581476</v>
       </c>
       <c r="O21" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K21,translate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K22">
         <v>2</v>
       </c>
@@ -5238,18 +5242,18 @@
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K22,translate)</f>
-        <v>0.30822474256210286</v>
+        <v>0.39245718410726216</v>
       </c>
       <c r="N22" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K22,translate)</f>
-        <v>0.53985781204490513</v>
+        <v>0.4561587618024594</v>
       </c>
       <c r="O22" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K22,translate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K23">
         <v>2.1</v>
       </c>
@@ -5259,18 +5263,18 @@
       </c>
       <c r="M23" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K23,translate)</f>
-        <v>0.30783308815438365</v>
+        <v>0.38805446105453539</v>
       </c>
       <c r="N23" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K23,translate)</f>
-        <v>0.52390260245024822</v>
+        <v>0.44267723298021455</v>
       </c>
       <c r="O23" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K23,translate)</f>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K24">
         <v>2.2000000000000002</v>
       </c>
@@ -5280,18 +5284,18 @@
       </c>
       <c r="M24" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K24,translate)</f>
-        <v>0.30747703869282078</v>
+        <v>0.3840519855520565</v>
       </c>
       <c r="N24" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K24,translate)</f>
-        <v>0.50841894056228309</v>
+        <v>0.42959414354926156</v>
       </c>
       <c r="O24" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K24,translate)</f>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K25">
         <v>2.3000000000000003</v>
       </c>
@@ -5301,18 +5305,18 @@
       </c>
       <c r="M25" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K25,translate)</f>
-        <v>0.30715195005400248</v>
+        <v>0.38039755139761927</v>
       </c>
       <c r="N25" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K25,translate)</f>
-        <v>0.49339289004013204</v>
+        <v>0.41689771784597751</v>
       </c>
       <c r="O25" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K25,translate)</f>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K26">
         <v>2.4000000000000004</v>
       </c>
@@ -5322,18 +5326,18 @@
       </c>
       <c r="M26" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K26,translate)</f>
-        <v>0.30685395213508571</v>
+        <v>0.37704765342271845</v>
       </c>
       <c r="N26" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K26,translate)</f>
-        <v>0.47881092642403633</v>
+        <v>0.40457652823019508</v>
       </c>
       <c r="O26" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K26,translate)</f>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K27">
         <v>2.5000000000000004</v>
       </c>
@@ -5343,18 +5347,18 @@
       </c>
       <c r="M27" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K27,translate)</f>
-        <v>0.30657979404968227</v>
+        <v>0.37396574728580972</v>
       </c>
       <c r="N27" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K27,translate)</f>
-        <v>0.46465992496242942</v>
+        <v>0.39261948479955472</v>
       </c>
       <c r="O27" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K27,translate)</f>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K28">
         <v>2.6</v>
       </c>
@@ -5364,18 +5368,18 @@
       </c>
       <c r="M28" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K28,translate)</f>
-        <v>0.30632672504777142</v>
+        <v>0.37112091085174015</v>
       </c>
       <c r="N28" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K28,translate)</f>
-        <v>0.45092714879877466</v>
+        <v>0.38101582540784434</v>
       </c>
       <c r="O28" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K28,translate)</f>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K29">
         <v>2.7</v>
       </c>
@@ -5385,18 +5389,18 @@
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K29,translate)</f>
-        <v>0.30609240189785397</v>
+        <v>0.36848680304241643</v>
       </c>
       <c r="N29" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K29,translate)</f>
-        <v>0.43760023750753441</v>
+        <v>0.36975510597834071</v>
       </c>
       <c r="O29" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K29,translate)</f>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K30">
         <v>2.8000000000000003</v>
       </c>
@@ -5406,18 +5410,18 @@
       </c>
       <c r="M30" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K30,translate)</f>
-        <v>0.30587481611578776</v>
+        <v>0.36604084579090151</v>
       </c>
       <c r="N30" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K30,translate)</f>
-        <v>0.42466719596895308</v>
+        <v>0.35882719110343608</v>
       </c>
       <c r="O30" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K30,translate)</f>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K31">
         <v>2.9000000000000004</v>
       </c>
@@ -5427,246 +5431,246 @@
       </c>
       <c r="M31" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K31,translate)</f>
-        <v>0.30567223624972606</v>
+        <v>0.36376357524638764</v>
       </c>
       <c r="N31" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K31,translate)</f>
-        <v>0.41211638357263958</v>
+        <v>0.34822224492208653</v>
       </c>
       <c r="O31" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K31,translate)</f>
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K32">
         <v>3.0000000000000004</v>
       </c>
       <c r="L32" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K32,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M32" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K32,translate)</f>
-        <v>0.30548316170806861</v>
+        <v>0.36163812273817481</v>
       </c>
       <c r="N32" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K32,translate)</f>
-        <v>0.39993650374023176</v>
+        <v>0.33793072226687343</v>
       </c>
       <c r="O32" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K32,translate)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K33">
         <v>3.1</v>
       </c>
       <c r="L33" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K33,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M33" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K33,translate)</f>
-        <v>0.30853209197555026</v>
+        <v>0.3661014091014595</v>
       </c>
       <c r="N33" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K33,translate)</f>
-        <v>0.38425476912511841</v>
+        <v>0.3214496464630287</v>
       </c>
       <c r="O33" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K33,translate)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K34">
         <v>3.2</v>
       </c>
       <c r="L34" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K34,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M34" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K34,translate)</f>
-        <v>0.31139046410131432</v>
+        <v>0.37028574006703885</v>
       </c>
       <c r="N34" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K34,translate)</f>
-        <v>0.36918792411932794</v>
+        <v>0.30577236221098475</v>
       </c>
       <c r="O34" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K34,translate)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K35">
         <v>3.3000000000000003</v>
       </c>
       <c r="L35" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K35,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M35" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K35,translate)</f>
-        <v>0.31407560155278963</v>
+        <v>0.37421647521652257</v>
       </c>
       <c r="N35" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K35,translate)</f>
-        <v>0.35471185855641951</v>
+        <v>0.29085966813417891</v>
       </c>
       <c r="O35" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K35,translate)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K36">
         <v>3.4000000000000004</v>
       </c>
       <c r="L36" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K36,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M36" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K36,translate)</f>
-        <v>0.31660278974241346</v>
+        <v>0.37791599065133069</v>
       </c>
       <c r="N36" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K36,translate)</f>
-        <v>0.34080340764310052</v>
+        <v>0.27667427472974365</v>
       </c>
       <c r="O36" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K36,translate)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K37">
         <v>3.5000000000000004</v>
       </c>
       <c r="L37" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K37,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M37" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K37,translate)</f>
-        <v>0.31898556717834453</v>
+        <v>0.38140410520414986</v>
       </c>
       <c r="N37" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K37,translate)</f>
-        <v>0.32744031489061509</v>
+        <v>0.26318071112532648</v>
       </c>
       <c r="O37" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K37,translate)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K38">
         <v>3.6</v>
       </c>
       <c r="L38" cm="1">
         <f t="array" aca="1" ref="L38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K38,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M38" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K38,translate)</f>
-        <v>0.32123596809005717</v>
+        <v>0.38469843561514566</v>
       </c>
       <c r="N38" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K38,translate)</f>
-        <v>0.31460119649961427</v>
+        <v>0.25034523638343303</v>
       </c>
       <c r="O38" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K38,translate)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K39">
         <v>3.7</v>
       </c>
       <c r="L39" cm="1">
         <f t="array" aca="1" ref="L39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K39,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M39" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K39,translate)</f>
-        <v>0.32336472570924479</v>
+        <v>0.38781469411203362</v>
       </c>
       <c r="N39" cm="1">
         <f t="array" aca="1" ref="N39" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K39,translate)</f>
-        <v>0.30226550714151418</v>
+        <v>0.23813575513150817</v>
       </c>
       <c r="O39" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K39,translate)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K40">
         <v>3.8000000000000003</v>
       </c>
       <c r="L40" cm="1">
         <f t="array" aca="1" ref="L40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K40,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M40" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K40,translate)</f>
-        <v>0.32538144345373837</v>
+        <v>0.3907669390038222</v>
       </c>
       <c r="N40" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K40,translate)</f>
-        <v>0.29041350708158797</v>
+        <v>0.22652173730678746</v>
       </c>
       <c r="O40" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K40,translate)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K41">
         <v>3.9000000000000004</v>
       </c>
       <c r="L41" cm="1">
         <f t="array" aca="1" ref="L41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K41,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M41" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K41,translate)</f>
-        <v>0.32729473977543738</v>
+        <v>0.39356778672167292</v>
       </c>
       <c r="N41" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K41,translate)</f>
-        <v>0.27902623059117815</v>
+        <v>0.21547414181523736</v>
       </c>
       <c r="O41" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K41,translate)</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="11:15" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K42">
         <v>4</v>
       </c>
       <c r="L42" cm="1">
         <f t="array" aca="1" ref="L42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(curve,K42,translate)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M42" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">_xll.TMX.PWFLAT.CURVE.YIELD(curve,K42,translate)</f>
-        <v>0.32911237128105142</v>
+        <v>0.39622859205363109</v>
       </c>
       <c r="N42" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">_xll.TMX.PWFLAT.CURVE.DISCOUNT(curve,K42,translate)</f>
-        <v>0.2680854555984849</v>
+        <v>0.2049653439136935</v>
       </c>
       <c r="O42" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">_xll.TMX.PWFLAT.CURVE.FORWARD(shift,K42,translate)</f>
-        <v>0.30000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -5681,204 +5685,205 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.9140625" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="25" cm="1">
         <f t="array" ref="D2:D5">_xll.TMX.BOND.SIMPLE(bond.simple)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_xll.\TMX.BOND.SIMPLE(D2,D3,D4,D5)</f>
-        <v>2141508726912</v>
+        <v>2047199131520</v>
       </c>
       <c r="F2" s="25" cm="1">
         <f t="array" ref="F2:F5">_xll.TMX.BOND.SIMPLE(E2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="16">
         <f>F2-D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D3" s="25">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F3" s="25">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G5" si="0">F3-D3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="28">
-        <v>140716592076782</v>
+        <v>140716601127980</v>
       </c>
       <c r="F5" s="28">
-        <v>140716592076782</v>
+        <v>140716601127980</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="4" cm="1">
         <f t="array" ref="C6">_xll.\TMX.BOND.SIMPLE(maturity, coupon, _xll.ENUM(frequency), _xll.ENUM(day_count))</f>
-        <v>2141508729408</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+        <v>2047199127008</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+        <v>45114</v>
+      </c>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="4" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">_xll.\TMX.BOND.INSTRUMENT(bond.simple, dated)</f>
-        <v>2141527836800</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+        <v>2046831277168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="19" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xll.TMX.VALUE.YIELD(instrument, 1)</f>
-        <v>2.0239937843028265E-2</v>
+        <v>2.9762784907889205E-2</v>
       </c>
       <c r="D9" s="4" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_xll.\TMX.PWFLAT.CURVE(0,0,yield)</f>
-        <v>2141527845072</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+        <v>2046831271712</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="22" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">_xll.TMX.VALUE.PRESENT(instrument, $D$9)</f>
-        <v>1.0000000000000056</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1.0000000000493396</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="22" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xll.TMX.VALUE.DURATION(instrument, $D$9)</f>
-        <v>-2.9188134000356967</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+        <v>-4.6825521661918081</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="22" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xll.TMX.VALUE.CONVEXITY(instrument, $D$9)</f>
-        <v>8.6705434182642289</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>22.8473970296997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="19" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">_xll.TMX.VALUE.COMPOUND_YIELD(yield,_xll.ENUM(frequency))</f>
-        <v>2.0291231206562621E-2</v>
+        <v>2.9985343372104456E-2</v>
       </c>
       <c r="D13" s="29">
         <f ca="1">C13-coupon</f>
-        <v>2.9123120656262061E-4</v>
-      </c>
-      <c r="G13" s="30">
+        <v>-1.4656627895542895E-5</v>
+      </c>
+      <c r="G13" s="6">
         <f ca="1">present-G14</f>
         <v>0</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="6">
         <f ca="1">duration-H14</f>
         <v>0</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="6">
         <f ca="1">convexity-I14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G14" s="23">
         <f ca="1">SUM(_xlfn.ANCHORARRAY(G16))</f>
-        <v>1.0000000000000056</v>
+        <v>1.0000000000493396</v>
       </c>
       <c r="H14" s="23">
         <f ca="1">SUM(_xlfn.ANCHORARRAY(H16))</f>
-        <v>-2.9188134000356967</v>
+        <v>-4.6825521661918081</v>
       </c>
       <c r="I14" s="15">
         <f ca="1">SUM(_xlfn.ANCHORARRAY(I16))</f>
-        <v>8.6705434182642289</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+        <v>22.8473970296997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
@@ -5901,367 +5906,323 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C16" s="15" cm="1">
-        <f t="array" aca="1" ref="C16:D27" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
-        <v>0.25188744464294271</v>
+        <f t="array" aca="1" ref="C16:D25" ca="1">TRANSPOSE(_xll.TMX.INSTRUMENT(instrument))</f>
+        <v>0.50377488928588543</v>
       </c>
       <c r="D16">
         <f ca="1"/>
-        <v>5.1111111111111105E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E16" s="2" cm="1">
-        <f t="array" aca="1" ref="E16:E27" ca="1">_xlfn.MAP(time,_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
-        <v>45205</v>
+        <f t="array" aca="1" ref="E16:E25" ca="1">_xlfn.MAP(time,_xlfn.LAMBDA(_xlpm.t,_xll.TMX.DATE.ADD_YEARS(dated,_xlpm.t)))</f>
+        <v>45298</v>
       </c>
       <c r="F16" s="15" cm="1">
-        <f t="array" aca="1" ref="F16:F27" ca="1">_xlfn.MAP(time,_xlfn.LAMBDA(_xlpm.t, _xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, _xlpm.t)))</f>
-        <v>0.99491478747156925</v>
+        <f t="array" aca="1" ref="F16:F25" ca="1">_xlfn.MAP(time,_xlfn.LAMBDA(_xlpm.t, _xll.TMX.PWFLAT.CURVE.DISCOUNT($D$9, _xlpm.t)))</f>
+        <v>0.9851181028059387</v>
       </c>
       <c r="G16" s="15" cm="1">
-        <f t="array" aca="1" ref="G16:G27" ca="1">cash*_xlfn.ANCHORARRAY(F16)</f>
-        <v>5.0851200248546863E-3</v>
+        <f t="array" aca="1" ref="G16:G25" ca="1">cash*_xlfn.ANCHORARRAY(F16)</f>
+        <v>1.477677154208908E-2</v>
       </c>
       <c r="H16" s="15" cm="1">
-        <f t="array" aca="1" ref="H16:H27" ca="1">-time*_xlfn.ANCHORARRAY(G16)</f>
-        <v>-1.2808778887633042E-3</v>
+        <f t="array" aca="1" ref="H16:H25" ca="1">-time*_xlfn.ANCHORARRAY(G16)</f>
+        <v>-7.4441664476187488E-3</v>
       </c>
       <c r="I16" s="15" cm="1">
-        <f t="array" aca="1" ref="I16:I27" ca="1">time^2*_xlfn.ANCHORARRAY(G16)</f>
-        <v>3.2263705830023613E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+        <f t="array" aca="1" ref="I16:I25" ca="1">time^2*_xlfn.ANCHORARRAY(G16)</f>
+        <v>3.7501841279748379E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="15">
         <f ca="1"/>
-        <v>0.50377488928588543</v>
+        <v>1.0020739645577939</v>
       </c>
       <c r="D17">
         <f ca="1"/>
-        <v>5.1111111111111105E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E17" s="2">
         <f ca="1"/>
-        <v>45297</v>
+        <v>45480</v>
       </c>
       <c r="F17" s="15">
         <f ca="1"/>
-        <v>0.98985543432959777</v>
+        <v>0.9706158501653317</v>
       </c>
       <c r="G17" s="15">
         <f ca="1"/>
-        <v>5.0592611087957214E-3</v>
+        <v>1.4559237752479975E-2</v>
       </c>
       <c r="H17" s="15">
         <f ca="1"/>
-        <v>-2.5487287049519507E-3</v>
+        <v>-1.4589433095567112E-2</v>
       </c>
       <c r="I17" s="15">
         <f ca="1"/>
-        <v>1.2839855211569269E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+        <v>1.4619691062725624E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" s="15">
         <f ca="1"/>
-        <v>0.75292442692183958</v>
+        <v>1.5058488538436792</v>
       </c>
       <c r="D18">
         <f ca="1"/>
-        <v>5.0555555555555553E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E18" s="2">
         <f ca="1"/>
-        <v>45388</v>
+        <v>45664</v>
       </c>
       <c r="F18" s="15">
         <f ca="1"/>
-        <v>0.98487638455291215</v>
+        <v>0.9561712448682449</v>
       </c>
       <c r="G18" s="15">
         <f ca="1"/>
-        <v>4.9790972774619449E-3</v>
+        <v>1.4342568673023673E-2</v>
       </c>
       <c r="H18" s="15">
         <f ca="1"/>
-        <v>-3.7488839642211267E-3</v>
+        <v>-2.1597740597446957E-2</v>
       </c>
       <c r="I18" s="15">
         <f ca="1"/>
-        <v>2.8226263103576657E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+        <v>3.2522932924278596E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="15">
         <f ca="1"/>
-        <v>1.0020739645577939</v>
+        <v>2.0014100221085989</v>
       </c>
       <c r="D19">
         <f ca="1"/>
-        <v>5.0555555555555553E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E19" s="2">
         <f ca="1"/>
-        <v>45479</v>
+        <v>45844.999988425923</v>
       </c>
       <c r="F19" s="15">
         <f ca="1"/>
-        <v>0.97992237978362762</v>
+        <v>0.94217190092052328</v>
       </c>
       <c r="G19" s="15">
         <f ca="1"/>
-        <v>4.9540520311283391E-3</v>
+        <v>1.4132578513807849E-2</v>
       </c>
       <c r="H19" s="15">
         <f ca="1"/>
-        <v>-4.9643265594583657E-3</v>
+        <v>-2.8285084275771675E-2</v>
       </c>
       <c r="I19" s="15">
         <f ca="1"/>
-        <v>4.9746223967959968E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+        <v>5.6610051145715774E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="15">
         <f ca="1"/>
-        <v>1.2539614092007365</v>
+        <v>2.5051849113944846</v>
       </c>
       <c r="D20">
         <f ca="1"/>
-        <v>5.1111111111111105E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E20" s="2">
         <f ca="1"/>
-        <v>45571</v>
+        <v>46029</v>
       </c>
       <c r="F20" s="15">
         <f ca="1"/>
-        <v>0.9749392662210622</v>
+        <v>0.92815059555189072</v>
       </c>
       <c r="G20" s="15">
         <f ca="1"/>
-        <v>4.9830229162409843E-3</v>
+        <v>1.3922258933278361E-2</v>
       </c>
       <c r="H20" s="15">
         <f ca="1"/>
-        <v>-6.2485184381291083E-3</v>
+        <v>-3.4877833012176021E-2</v>
       </c>
       <c r="I20" s="15">
         <f ca="1"/>
-        <v>7.8354009860931613E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+        <v>8.7375421004239812E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="15">
         <f ca="1"/>
-        <v>1.5058488538436792</v>
+        <v>3.0007460796594043</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>5.1111111111111105E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E21" s="2">
         <f ca="1"/>
-        <v>45663</v>
+        <v>46210</v>
       </c>
       <c r="F21" s="15">
         <f ca="1"/>
-        <v>0.96998149285001578</v>
+        <v>0.91456150312503781</v>
       </c>
       <c r="G21" s="15">
         <f ca="1"/>
-        <v>4.9576831856778577E-3</v>
+        <v>1.3718422546875567E-2</v>
       </c>
       <c r="H21" s="15">
         <f ca="1"/>
-        <v>-7.4655215428730817E-3</v>
+        <v>-4.1165502676648036E-2</v>
       </c>
       <c r="I21" s="15">
         <f ca="1"/>
-        <v>1.1241947058680726E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+        <v>0.12352722077416031</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="15">
         <f ca="1"/>
-        <v>1.7522604844726448</v>
+        <v>3.5045209689452896</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E22" s="2">
         <f ca="1"/>
-        <v>45753</v>
+        <v>46394</v>
       </c>
       <c r="F22" s="15">
         <f ca="1"/>
-        <v>0.96515589324100604</v>
+        <v>0.90095109285788488</v>
       </c>
       <c r="G22" s="15">
         <f ca="1"/>
-        <v>4.82577946620503E-3</v>
+        <v>1.3514266392868273E-2</v>
       </c>
       <c r="H22" s="15">
         <f ca="1"/>
-        <v>-8.4560226654105675E-3</v>
+        <v>-4.7361029953719484E-2</v>
       </c>
       <c r="I22" s="15">
         <f ca="1"/>
-        <v>1.4817154372403985E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+        <v>0.1659777225836559</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="15">
         <f ca="1"/>
-        <v>2.0014100221085989</v>
+        <v>4.0000821372102093</v>
       </c>
       <c r="D23">
         <f ca="1"/>
-        <v>5.0555555555555553E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E23" s="2">
         <f ca="1"/>
-        <v>45843.999988425923</v>
+        <v>46575</v>
       </c>
       <c r="F23" s="15">
         <f ca="1"/>
-        <v>0.96030108407590498</v>
+        <v>0.88776022950920597</v>
       </c>
       <c r="G23" s="15">
         <f ca="1"/>
-        <v>4.8548554806059638E-3</v>
+        <v>1.3316403442638089E-2</v>
       </c>
       <c r="H23" s="15">
         <f ca="1"/>
-        <v>-9.716556414773635E-3</v>
+        <v>-5.3266707542781157E-2</v>
       </c>
       <c r="I23" s="15">
         <f ca="1"/>
-        <v>1.9446813388911549E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+        <v>0.21307120534987922</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" s="15">
         <f ca="1"/>
-        <v>2.2532974667515417</v>
+        <v>4.5038570264960951</v>
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>5.1111111111111105E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E24" s="2">
         <f ca="1"/>
-        <v>45936</v>
+        <v>46759</v>
       </c>
       <c r="F24" s="15">
         <f ca="1"/>
-        <v>0.95541774897209653</v>
+        <v>0.87454867304067374</v>
       </c>
       <c r="G24" s="15">
         <f ca="1"/>
-        <v>4.8832462725240484E-3</v>
+        <v>1.3118230095610106E-2</v>
       </c>
       <c r="H24" s="15">
         <f ca="1"/>
-        <v>-1.1003406455402346E-2</v>
+        <v>-5.9082632791306121E-2</v>
       </c>
       <c r="I24" s="15">
         <f ca="1"/>
-        <v>2.4793947891595673E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+        <v>0.26609973084101268</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C25" s="15">
         <f ca="1"/>
-        <v>2.5051849113944846</v>
+        <v>5.0021561017680032</v>
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>5.1111111111111105E-3</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="E25" s="2">
         <f ca="1"/>
-        <v>46028</v>
+        <v>46941</v>
       </c>
       <c r="F25" s="15">
         <f ca="1"/>
-        <v>0.95055924666513858</v>
+        <v>0.86167414990804803</v>
       </c>
       <c r="G25" s="15">
         <f ca="1"/>
-        <v>4.858413927399597E-3</v>
+        <v>0.87459926215666861</v>
       </c>
       <c r="H25" s="15">
         <f ca="1"/>
-        <v>-1.2171225264230289E-2</v>
+        <v>-4.3748820357987732</v>
       </c>
       <c r="I25" s="15">
         <f ca="1"/>
-        <v>3.049116988513307E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C26" s="15">
-        <f ca="1"/>
-        <v>2.7515965420234503</v>
-      </c>
-      <c r="D26">
-        <f ca="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E26" s="2">
-        <f ca="1"/>
-        <v>46118</v>
-      </c>
-      <c r="F26" s="15">
-        <f ca="1"/>
-        <v>0.94583027156318045</v>
-      </c>
-      <c r="G26" s="15">
-        <f ca="1"/>
-        <v>4.7291513578159019E-3</v>
-      </c>
-      <c r="H26" s="15">
-        <f ca="1"/>
-        <v>-1.301271652287174E-2</v>
-      </c>
-      <c r="I26" s="15">
-        <f ca="1"/>
-        <v>3.5805745786665295E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C27" s="15">
-        <f ca="1"/>
-        <v>3.0007460796594043</v>
-      </c>
-      <c r="D27">
-        <f ca="1"/>
-        <v>1.0050555555555556</v>
-      </c>
-      <c r="E27" s="2">
-        <f ca="1"/>
-        <v>46209</v>
-      </c>
-      <c r="F27" s="15">
-        <f ca="1"/>
-        <v>0.94107267177731002</v>
-      </c>
-      <c r="G27" s="15">
-        <f ca="1"/>
-        <v>0.94583031695129538</v>
-      </c>
-      <c r="H27" s="15">
-        <f ca="1"/>
-        <v>-2.8381966156146112</v>
-      </c>
-      <c r="I27" s="15">
-        <f ca="1"/>
-        <v>8.5167073676081344</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
+        <v>21.883842869886056</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="15"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="15"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28" s="15"/>
       <c r="E28" s="2"/>
       <c r="F28" s="15"/>
@@ -6269,7 +6230,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" s="15"/>
       <c r="E29" s="2"/>
       <c r="F29" s="15"/>
@@ -6277,7 +6238,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" s="15"/>
       <c r="E30" s="2"/>
       <c r="F30" s="15"/>
@@ -6285,7 +6246,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C31" s="15"/>
       <c r="E31" s="2"/>
       <c r="F31" s="15"/>
@@ -6293,7 +6254,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C32" s="15"/>
       <c r="E32" s="2"/>
       <c r="F32" s="15"/>
@@ -6301,7 +6262,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" s="15"/>
       <c r="E33" s="2"/>
       <c r="F33" s="15"/>
@@ -6309,7 +6270,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" s="15"/>
       <c r="E34" s="2"/>
       <c r="F34" s="15"/>
@@ -6317,7 +6278,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" s="15"/>
       <c r="E35" s="2"/>
       <c r="F35" s="15"/>
@@ -6325,7 +6286,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="15"/>
       <c r="E36" s="2"/>
       <c r="F36" s="15"/>
@@ -6333,7 +6294,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" s="15"/>
       <c r="E37" s="2"/>
       <c r="F37" s="15"/>
@@ -6341,7 +6302,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C38" s="15"/>
       <c r="E38" s="2"/>
       <c r="F38" s="15"/>
@@ -6349,7 +6310,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39" s="15"/>
       <c r="E39" s="2"/>
       <c r="F39" s="15"/>
@@ -6357,7 +6318,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
       <c r="E40" s="2"/>
       <c r="F40" s="15"/>
@@ -6365,7 +6326,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41" s="15"/>
       <c r="E41" s="2"/>
       <c r="F41" s="15"/>
@@ -6373,7 +6334,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" s="15"/>
       <c r="E42" s="2"/>
       <c r="F42" s="15"/>
@@ -6381,7 +6342,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C43" s="15"/>
       <c r="E43" s="2"/>
       <c r="F43" s="15"/>
@@ -6389,7 +6350,7 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C44" s="15"/>
       <c r="E44" s="2"/>
       <c r="F44" s="15"/>
@@ -6397,7 +6358,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C45" s="15"/>
       <c r="E45" s="2"/>
       <c r="F45" s="15"/>
@@ -6405,7 +6366,7 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C46" s="15"/>
       <c r="E46" s="2"/>
       <c r="F46" s="15"/>
@@ -6413,7 +6374,7 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C47" s="15"/>
       <c r="E47" s="2"/>
       <c r="F47" s="15"/>
@@ -6421,7 +6382,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C48" s="15"/>
       <c r="E48" s="2"/>
       <c r="F48" s="15"/>
@@ -6429,7 +6390,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C49" s="15"/>
       <c r="E49" s="2"/>
       <c r="F49" s="15"/>
@@ -6437,7 +6398,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C50" s="15"/>
       <c r="E50" s="2"/>
       <c r="F50" s="15"/>
@@ -6445,7 +6406,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C51" s="15"/>
       <c r="E51" s="2"/>
       <c r="F51" s="15"/>
@@ -6453,7 +6414,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C52" s="15"/>
       <c r="E52" s="2"/>
       <c r="F52" s="15"/>
@@ -6461,7 +6422,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C53" s="15"/>
       <c r="E53" s="2"/>
       <c r="F53" s="15"/>
@@ -6469,7 +6430,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C54" s="15"/>
       <c r="E54" s="2"/>
       <c r="F54" s="15"/>
@@ -6477,7 +6438,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C55" s="15"/>
       <c r="E55" s="2"/>
       <c r="F55" s="15"/>
@@ -6485,7 +6446,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C56" s="15"/>
       <c r="E56" s="2"/>
       <c r="F56" s="15"/>
@@ -6493,7 +6454,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C57" s="15"/>
       <c r="E57" s="2"/>
       <c r="F57" s="15"/>
@@ -6501,7 +6462,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C58" s="15"/>
       <c r="E58" s="2"/>
       <c r="F58" s="15"/>
@@ -6509,7 +6470,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C59" s="15"/>
       <c r="E59" s="2"/>
       <c r="F59" s="15"/>
@@ -6517,7 +6478,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C60" s="15"/>
       <c r="E60" s="2"/>
       <c r="F60" s="15"/>
@@ -6525,7 +6486,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C61" s="15"/>
       <c r="E61" s="2"/>
       <c r="F61" s="15"/>
@@ -6533,7 +6494,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C62" s="15"/>
       <c r="E62" s="2"/>
       <c r="F62" s="15"/>
@@ -6541,7 +6502,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C63" s="15"/>
       <c r="E63" s="2"/>
       <c r="F63" s="15"/>
@@ -6549,7 +6510,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C64" s="15"/>
       <c r="E64" s="2"/>
       <c r="F64" s="15"/>
@@ -6557,7 +6518,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C65" s="15"/>
       <c r="E65" s="2"/>
       <c r="F65" s="15"/>
@@ -6565,7 +6526,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C66" s="15"/>
       <c r="E66" s="2"/>
       <c r="F66" s="15"/>
@@ -6573,7 +6534,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C67" s="15"/>
       <c r="E67" s="2"/>
       <c r="F67" s="15"/>
@@ -6581,7 +6542,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C68" s="15"/>
       <c r="E68" s="2"/>
       <c r="F68" s="15"/>
@@ -6589,7 +6550,7 @@
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C69" s="15"/>
       <c r="E69" s="2"/>
       <c r="F69" s="15"/>
@@ -6597,7 +6558,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C70" s="15"/>
       <c r="E70" s="2"/>
       <c r="F70" s="15"/>
@@ -6605,7 +6566,7 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C71" s="15"/>
       <c r="E71" s="2"/>
       <c r="F71" s="15"/>
@@ -6613,7 +6574,7 @@
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C72" s="15"/>
       <c r="E72" s="2"/>
       <c r="F72" s="15"/>
@@ -6621,7 +6582,7 @@
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C73" s="15"/>
       <c r="E73" s="2"/>
       <c r="F73" s="15"/>
@@ -6629,7 +6590,7 @@
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C74" s="15"/>
       <c r="E74" s="2"/>
       <c r="F74" s="15"/>
@@ -6637,7 +6598,7 @@
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C75" s="15"/>
       <c r="E75" s="2"/>
       <c r="F75" s="15"/>
@@ -6645,7 +6606,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C76" s="15"/>
       <c r="E76" s="2"/>
       <c r="F76" s="15"/>
@@ -6653,7 +6614,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C77" s="15"/>
       <c r="E77" s="2"/>
       <c r="F77" s="15"/>
@@ -6661,7 +6622,7 @@
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C78" s="15"/>
       <c r="E78" s="2"/>
       <c r="F78" s="15"/>
@@ -6669,7 +6630,7 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C79" s="15"/>
       <c r="E79" s="2"/>
       <c r="F79" s="15"/>
@@ -6677,7 +6638,7 @@
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C80" s="15"/>
       <c r="E80" s="2"/>
       <c r="F80" s="15"/>
@@ -6685,7 +6646,7 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C81" s="15"/>
       <c r="E81" s="2"/>
       <c r="F81" s="15"/>
@@ -6693,7 +6654,7 @@
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C82" s="15"/>
       <c r="E82" s="2"/>
       <c r="F82" s="15"/>
@@ -6701,7 +6662,7 @@
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C83" s="15"/>
       <c r="E83" s="2"/>
       <c r="F83" s="15"/>
@@ -6709,7 +6670,7 @@
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C84" s="15"/>
       <c r="E84" s="2"/>
       <c r="F84" s="15"/>
@@ -6717,7 +6678,7 @@
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C85" s="15"/>
       <c r="E85" s="2"/>
       <c r="F85" s="15"/>
@@ -6725,7 +6686,7 @@
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C86" s="15"/>
       <c r="E86" s="2"/>
       <c r="F86" s="15"/>
@@ -6733,7 +6694,7 @@
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C87" s="15"/>
       <c r="E87" s="2"/>
       <c r="F87" s="15"/>
@@ -6741,7 +6702,7 @@
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C88" s="15"/>
       <c r="E88" s="2"/>
       <c r="F88" s="15"/>
@@ -6749,7 +6710,7 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C89" s="15"/>
       <c r="E89" s="2"/>
       <c r="F89" s="15"/>
@@ -6757,7 +6718,7 @@
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C90" s="15"/>
       <c r="E90" s="2"/>
       <c r="F90" s="15"/>
@@ -6765,7 +6726,7 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C91" s="15"/>
       <c r="E91" s="2"/>
       <c r="F91" s="15"/>
@@ -6773,7 +6734,7 @@
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C92" s="15"/>
       <c r="E92" s="2"/>
       <c r="F92" s="15"/>
@@ -6781,7 +6742,7 @@
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C93" s="15"/>
       <c r="E93" s="2"/>
       <c r="F93" s="15"/>
@@ -6789,7 +6750,7 @@
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C94" s="15"/>
       <c r="E94" s="2"/>
       <c r="F94" s="15"/>
@@ -6797,7 +6758,7 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C95" s="15"/>
       <c r="E95" s="2"/>
       <c r="F95" s="15"/>
@@ -6805,7 +6766,7 @@
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C96" s="15"/>
       <c r="E96" s="2"/>
       <c r="F96" s="15"/>
@@ -6813,7 +6774,7 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C97" s="15"/>
       <c r="E97" s="2"/>
       <c r="F97" s="15"/>
@@ -6821,7 +6782,7 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C98" s="15"/>
       <c r="E98" s="2"/>
       <c r="F98" s="15"/>
@@ -6829,7 +6790,7 @@
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C99" s="15"/>
       <c r="E99" s="2"/>
       <c r="F99" s="15"/>
@@ -6837,7 +6798,7 @@
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C100" s="15"/>
       <c r="E100" s="2"/>
       <c r="F100" s="15"/>
@@ -6845,7 +6806,7 @@
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C101" s="15"/>
       <c r="E101" s="2"/>
       <c r="F101" s="15"/>
@@ -6853,7 +6814,7 @@
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C102" s="15"/>
       <c r="E102" s="2"/>
       <c r="F102" s="15"/>
@@ -6861,7 +6822,7 @@
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C103" s="15"/>
       <c r="E103" s="2"/>
       <c r="F103" s="15"/>
@@ -6869,7 +6830,7 @@
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C104" s="15"/>
       <c r="E104" s="2"/>
       <c r="F104" s="15"/>
@@ -6877,7 +6838,7 @@
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C105" s="15"/>
       <c r="E105" s="2"/>
       <c r="F105" s="15"/>
@@ -6885,7 +6846,7 @@
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C106" s="15"/>
       <c r="E106" s="2"/>
       <c r="F106" s="15"/>
@@ -6893,7 +6854,7 @@
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C107" s="15"/>
       <c r="E107" s="2"/>
       <c r="F107" s="15"/>
@@ -6901,7 +6862,7 @@
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C108" s="15"/>
       <c r="E108" s="2"/>
       <c r="F108" s="15"/>
@@ -6909,7 +6870,7 @@
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C109" s="15"/>
       <c r="E109" s="2"/>
       <c r="F109" s="15"/>
@@ -6917,1914 +6878,1914 @@
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C110" s="15"/>
       <c r="E110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C111" s="15"/>
       <c r="E111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C112" s="15"/>
       <c r="E112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C113" s="15"/>
       <c r="E113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114" s="15"/>
       <c r="E114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115" s="15"/>
       <c r="E115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116" s="15"/>
       <c r="E116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C117" s="15"/>
       <c r="E117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C118" s="15"/>
       <c r="E118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119" s="15"/>
       <c r="E119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120" s="15"/>
       <c r="E120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121" s="15"/>
       <c r="E121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C122" s="15"/>
       <c r="E122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C123" s="15"/>
       <c r="E123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124" s="15"/>
       <c r="E124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125" s="15"/>
       <c r="E125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126" s="15"/>
       <c r="E126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C127" s="15"/>
       <c r="E127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C128" s="15"/>
       <c r="E128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129" s="15"/>
       <c r="E129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130" s="15"/>
       <c r="E130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131" s="15"/>
       <c r="E131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C132" s="15"/>
       <c r="E132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C133" s="15"/>
       <c r="E133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134" s="15"/>
       <c r="E134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135" s="15"/>
       <c r="E135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136" s="15"/>
       <c r="E136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C137" s="15"/>
       <c r="E137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C138" s="15"/>
       <c r="E138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139" s="15"/>
       <c r="E139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140" s="15"/>
       <c r="E140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141" s="15"/>
       <c r="E141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142" s="15"/>
       <c r="E142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C143" s="15"/>
       <c r="E143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C144" s="15"/>
       <c r="E144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145" s="15"/>
       <c r="E145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C146" s="15"/>
       <c r="E146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C147" s="15"/>
       <c r="E147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C148" s="15"/>
       <c r="E148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C149" s="15"/>
       <c r="E149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C150" s="15"/>
       <c r="E150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C151" s="15"/>
       <c r="E151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C152" s="15"/>
       <c r="E152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C153" s="15"/>
       <c r="E153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C154" s="15"/>
       <c r="E154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C155" s="15"/>
       <c r="E155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C156" s="15"/>
       <c r="E156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C157" s="15"/>
       <c r="E157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C158" s="15"/>
       <c r="E158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C159" s="15"/>
       <c r="E159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C160" s="15"/>
       <c r="E160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C161" s="15"/>
       <c r="E161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C162" s="15"/>
       <c r="E162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C163" s="15"/>
       <c r="E163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C164" s="15"/>
       <c r="E164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C165" s="15"/>
       <c r="E165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C166" s="15"/>
       <c r="E166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C167" s="15"/>
       <c r="E167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C168" s="15"/>
       <c r="E168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C169" s="15"/>
       <c r="E169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C170" s="15"/>
       <c r="E170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C171" s="15"/>
       <c r="E171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C172" s="15"/>
       <c r="E172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C173" s="15"/>
       <c r="E173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C174" s="15"/>
       <c r="E174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C175" s="15"/>
       <c r="E175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C176" s="15"/>
       <c r="E176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C177" s="15"/>
       <c r="E177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C178" s="15"/>
       <c r="E178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C179" s="15"/>
       <c r="E179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C180" s="15"/>
       <c r="E180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C181" s="15"/>
       <c r="E181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C182" s="15"/>
       <c r="E182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C183" s="15"/>
       <c r="E183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C184" s="15"/>
       <c r="E184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C185" s="15"/>
       <c r="E185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C186" s="15"/>
       <c r="E186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C187" s="15"/>
       <c r="E187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C188" s="15"/>
       <c r="E188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C189" s="15"/>
       <c r="E189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C190" s="15"/>
       <c r="E190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C191" s="15"/>
       <c r="E191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C192" s="15"/>
       <c r="E192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C193" s="15"/>
       <c r="E193" s="2"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C194" s="15"/>
       <c r="E194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C195" s="15"/>
       <c r="E195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C196" s="15"/>
       <c r="E196" s="2"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C197" s="15"/>
       <c r="E197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C198" s="15"/>
       <c r="E198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C199" s="15"/>
       <c r="E199" s="2"/>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C200" s="15"/>
       <c r="E200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C201" s="15"/>
       <c r="E201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C202" s="15"/>
       <c r="E202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C203" s="15"/>
       <c r="E203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C204" s="15"/>
       <c r="E204" s="2"/>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C205" s="15"/>
       <c r="E205" s="2"/>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C206" s="15"/>
       <c r="E206" s="2"/>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C207" s="15"/>
       <c r="E207" s="2"/>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C208" s="15"/>
       <c r="E208" s="2"/>
       <c r="G208" s="2"/>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C209" s="15"/>
       <c r="E209" s="2"/>
       <c r="G209" s="2"/>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C210" s="15"/>
       <c r="E210" s="2"/>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C211" s="15"/>
       <c r="E211" s="2"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C212" s="15"/>
       <c r="E212" s="2"/>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C213" s="15"/>
       <c r="E213" s="2"/>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C214" s="15"/>
       <c r="E214" s="2"/>
       <c r="G214" s="2"/>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C215" s="15"/>
       <c r="E215" s="2"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C216" s="15"/>
       <c r="E216" s="2"/>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C217" s="15"/>
       <c r="E217" s="2"/>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C218" s="15"/>
       <c r="E218" s="2"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C219" s="15"/>
       <c r="E219" s="2"/>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C220" s="15"/>
       <c r="E220" s="2"/>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C221" s="15"/>
       <c r="E221" s="2"/>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C222" s="15"/>
       <c r="E222" s="2"/>
       <c r="G222" s="2"/>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C223" s="15"/>
       <c r="E223" s="2"/>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C224" s="15"/>
       <c r="E224" s="2"/>
       <c r="G224" s="2"/>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C225" s="15"/>
       <c r="E225" s="2"/>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C226" s="15"/>
       <c r="E226" s="2"/>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C227" s="15"/>
       <c r="E227" s="2"/>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C228" s="15"/>
       <c r="E228" s="2"/>
       <c r="G228" s="2"/>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C229" s="15"/>
       <c r="E229" s="2"/>
       <c r="G229" s="2"/>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C230" s="15"/>
       <c r="E230" s="2"/>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C231" s="15"/>
       <c r="E231" s="2"/>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C232" s="15"/>
       <c r="E232" s="2"/>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C233" s="15"/>
       <c r="E233" s="2"/>
       <c r="G233" s="2"/>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C234" s="15"/>
       <c r="E234" s="2"/>
       <c r="G234" s="2"/>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C235" s="15"/>
       <c r="E235" s="2"/>
       <c r="G235" s="2"/>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C236" s="15"/>
       <c r="E236" s="2"/>
       <c r="G236" s="2"/>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C237" s="15"/>
       <c r="E237" s="2"/>
       <c r="G237" s="2"/>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C238" s="15"/>
       <c r="E238" s="2"/>
       <c r="G238" s="2"/>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C239" s="15"/>
       <c r="E239" s="2"/>
       <c r="G239" s="2"/>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C240" s="15"/>
       <c r="E240" s="2"/>
       <c r="G240" s="2"/>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C241" s="15"/>
       <c r="E241" s="2"/>
       <c r="G241" s="2"/>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C242" s="15"/>
       <c r="E242" s="2"/>
       <c r="G242" s="2"/>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C243" s="15"/>
       <c r="E243" s="2"/>
       <c r="G243" s="2"/>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C244" s="15"/>
       <c r="E244" s="2"/>
       <c r="G244" s="2"/>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C245" s="15"/>
       <c r="E245" s="2"/>
       <c r="G245" s="2"/>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C246" s="15"/>
       <c r="E246" s="2"/>
       <c r="G246" s="2"/>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C247" s="15"/>
       <c r="E247" s="2"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C248" s="15"/>
       <c r="E248" s="2"/>
       <c r="G248" s="2"/>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C249" s="15"/>
       <c r="E249" s="2"/>
       <c r="G249" s="2"/>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C250" s="15"/>
       <c r="E250" s="2"/>
       <c r="G250" s="2"/>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C251" s="15"/>
       <c r="E251" s="2"/>
       <c r="G251" s="2"/>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C252" s="15"/>
       <c r="E252" s="2"/>
       <c r="G252" s="2"/>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C253" s="15"/>
       <c r="E253" s="2"/>
       <c r="G253" s="2"/>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C254" s="15"/>
       <c r="E254" s="2"/>
       <c r="G254" s="2"/>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C255" s="15"/>
       <c r="E255" s="2"/>
       <c r="G255" s="2"/>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C256" s="15"/>
       <c r="E256" s="2"/>
       <c r="G256" s="2"/>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C257" s="15"/>
       <c r="E257" s="2"/>
       <c r="G257" s="2"/>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C258" s="15"/>
       <c r="E258" s="2"/>
       <c r="G258" s="2"/>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C259" s="15"/>
       <c r="E259" s="2"/>
       <c r="G259" s="2"/>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C260" s="15"/>
       <c r="E260" s="2"/>
       <c r="G260" s="2"/>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C261" s="15"/>
       <c r="E261" s="2"/>
       <c r="G261" s="2"/>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C262" s="15"/>
       <c r="E262" s="2"/>
       <c r="G262" s="2"/>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C263" s="15"/>
       <c r="E263" s="2"/>
       <c r="G263" s="2"/>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C264" s="15"/>
       <c r="E264" s="2"/>
       <c r="G264" s="2"/>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C265" s="15"/>
       <c r="E265" s="2"/>
       <c r="G265" s="2"/>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C266" s="15"/>
       <c r="E266" s="2"/>
       <c r="G266" s="2"/>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C267" s="15"/>
       <c r="E267" s="2"/>
       <c r="G267" s="2"/>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C268" s="15"/>
       <c r="E268" s="2"/>
       <c r="G268" s="2"/>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C269" s="15"/>
       <c r="E269" s="2"/>
       <c r="G269" s="2"/>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C270" s="15"/>
       <c r="E270" s="2"/>
       <c r="G270" s="2"/>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C271" s="15"/>
       <c r="E271" s="2"/>
       <c r="G271" s="2"/>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C272" s="15"/>
       <c r="E272" s="2"/>
       <c r="G272" s="2"/>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C273" s="15"/>
       <c r="E273" s="2"/>
       <c r="G273" s="2"/>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C274" s="15"/>
       <c r="E274" s="2"/>
       <c r="G274" s="2"/>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C275" s="15"/>
       <c r="E275" s="2"/>
       <c r="G275" s="2"/>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C276" s="15"/>
       <c r="E276" s="2"/>
       <c r="G276" s="2"/>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C277" s="15"/>
       <c r="E277" s="2"/>
       <c r="G277" s="2"/>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C278" s="15"/>
       <c r="E278" s="2"/>
       <c r="G278" s="2"/>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C279" s="15"/>
       <c r="E279" s="2"/>
       <c r="G279" s="2"/>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C280" s="15"/>
       <c r="E280" s="2"/>
       <c r="G280" s="2"/>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C281" s="15"/>
       <c r="E281" s="2"/>
       <c r="G281" s="2"/>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C282" s="15"/>
       <c r="E282" s="2"/>
       <c r="G282" s="2"/>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C283" s="15"/>
       <c r="E283" s="2"/>
       <c r="G283" s="2"/>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C284" s="15"/>
       <c r="E284" s="2"/>
       <c r="G284" s="2"/>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C285" s="15"/>
       <c r="E285" s="2"/>
       <c r="G285" s="2"/>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C286" s="15"/>
       <c r="E286" s="2"/>
       <c r="G286" s="2"/>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C287" s="15"/>
       <c r="E287" s="2"/>
       <c r="G287" s="2"/>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C288" s="15"/>
       <c r="E288" s="2"/>
       <c r="G288" s="2"/>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C289" s="15"/>
       <c r="E289" s="2"/>
       <c r="G289" s="2"/>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C290" s="15"/>
       <c r="E290" s="2"/>
       <c r="G290" s="2"/>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C291" s="15"/>
       <c r="E291" s="2"/>
       <c r="G291" s="2"/>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C292" s="15"/>
       <c r="E292" s="2"/>
       <c r="G292" s="2"/>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C293" s="15"/>
       <c r="E293" s="2"/>
       <c r="G293" s="2"/>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C294" s="15"/>
       <c r="E294" s="2"/>
       <c r="G294" s="2"/>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C295" s="15"/>
       <c r="E295" s="2"/>
       <c r="G295" s="2"/>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C296" s="15"/>
       <c r="E296" s="2"/>
       <c r="G296" s="2"/>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C297" s="15"/>
       <c r="E297" s="2"/>
       <c r="G297" s="2"/>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C298" s="15"/>
       <c r="E298" s="2"/>
       <c r="G298" s="2"/>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C299" s="15"/>
       <c r="E299" s="2"/>
       <c r="G299" s="2"/>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C300" s="15"/>
       <c r="E300" s="2"/>
       <c r="G300" s="2"/>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C301" s="15"/>
       <c r="E301" s="2"/>
       <c r="G301" s="2"/>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C302" s="15"/>
       <c r="E302" s="2"/>
       <c r="G302" s="2"/>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C303" s="15"/>
       <c r="E303" s="2"/>
       <c r="G303" s="2"/>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C304" s="15"/>
       <c r="E304" s="2"/>
       <c r="G304" s="2"/>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C305" s="15"/>
       <c r="E305" s="2"/>
       <c r="G305" s="2"/>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C306" s="15"/>
       <c r="E306" s="2"/>
       <c r="G306" s="2"/>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C307" s="15"/>
       <c r="E307" s="2"/>
       <c r="G307" s="2"/>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C308" s="15"/>
       <c r="E308" s="2"/>
       <c r="G308" s="2"/>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C309" s="15"/>
       <c r="E309" s="2"/>
       <c r="G309" s="2"/>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C310" s="15"/>
       <c r="E310" s="2"/>
       <c r="G310" s="2"/>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C311" s="15"/>
       <c r="E311" s="2"/>
       <c r="G311" s="2"/>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C312" s="15"/>
       <c r="E312" s="2"/>
       <c r="G312" s="2"/>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C313" s="15"/>
       <c r="E313" s="2"/>
       <c r="G313" s="2"/>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C314" s="15"/>
       <c r="E314" s="2"/>
       <c r="G314" s="2"/>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C315" s="15"/>
       <c r="E315" s="2"/>
       <c r="G315" s="2"/>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C316" s="15"/>
       <c r="E316" s="2"/>
       <c r="G316" s="2"/>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C317" s="15"/>
       <c r="E317" s="2"/>
       <c r="G317" s="2"/>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C318" s="15"/>
       <c r="E318" s="2"/>
       <c r="G318" s="2"/>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C319" s="15"/>
       <c r="E319" s="2"/>
       <c r="G319" s="2"/>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C320" s="15"/>
       <c r="E320" s="2"/>
       <c r="G320" s="2"/>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C321" s="15"/>
       <c r="E321" s="2"/>
       <c r="G321" s="2"/>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C322" s="15"/>
       <c r="E322" s="2"/>
       <c r="G322" s="2"/>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C323" s="15"/>
       <c r="E323" s="2"/>
       <c r="G323" s="2"/>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C324" s="15"/>
       <c r="E324" s="2"/>
       <c r="G324" s="2"/>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C325" s="15"/>
       <c r="E325" s="2"/>
       <c r="G325" s="2"/>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C326" s="15"/>
       <c r="E326" s="2"/>
       <c r="G326" s="2"/>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C327" s="15"/>
       <c r="E327" s="2"/>
       <c r="G327" s="2"/>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C328" s="15"/>
       <c r="E328" s="2"/>
       <c r="G328" s="2"/>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C329" s="15"/>
       <c r="E329" s="2"/>
       <c r="G329" s="2"/>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C330" s="15"/>
       <c r="E330" s="2"/>
       <c r="G330" s="2"/>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C331" s="15"/>
       <c r="E331" s="2"/>
       <c r="G331" s="2"/>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C332" s="15"/>
       <c r="E332" s="2"/>
       <c r="G332" s="2"/>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C333" s="15"/>
       <c r="E333" s="2"/>
       <c r="G333" s="2"/>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C334" s="15"/>
       <c r="E334" s="2"/>
       <c r="G334" s="2"/>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C335" s="15"/>
       <c r="E335" s="2"/>
       <c r="G335" s="2"/>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C336" s="15"/>
       <c r="E336" s="2"/>
       <c r="G336" s="2"/>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C337" s="15"/>
       <c r="E337" s="2"/>
       <c r="G337" s="2"/>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C338" s="15"/>
       <c r="E338" s="2"/>
       <c r="G338" s="2"/>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C339" s="15"/>
       <c r="E339" s="2"/>
       <c r="G339" s="2"/>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C340" s="15"/>
       <c r="E340" s="2"/>
       <c r="G340" s="2"/>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C341" s="15"/>
       <c r="E341" s="2"/>
       <c r="G341" s="2"/>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C342" s="15"/>
       <c r="E342" s="2"/>
       <c r="G342" s="2"/>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C343" s="15"/>
       <c r="E343" s="2"/>
       <c r="G343" s="2"/>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C344" s="15"/>
       <c r="E344" s="2"/>
       <c r="G344" s="2"/>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C345" s="15"/>
       <c r="E345" s="2"/>
       <c r="G345" s="2"/>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C346" s="15"/>
       <c r="E346" s="2"/>
       <c r="G346" s="2"/>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C347" s="15"/>
       <c r="E347" s="2"/>
       <c r="G347" s="2"/>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C348" s="15"/>
       <c r="E348" s="2"/>
       <c r="G348" s="2"/>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C349" s="15"/>
       <c r="E349" s="2"/>
       <c r="G349" s="2"/>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C350" s="15"/>
       <c r="E350" s="2"/>
       <c r="G350" s="2"/>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C351" s="15"/>
       <c r="E351" s="2"/>
       <c r="G351" s="2"/>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C352" s="15"/>
       <c r="E352" s="2"/>
       <c r="G352" s="2"/>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C353" s="15"/>
       <c r="E353" s="2"/>
       <c r="G353" s="2"/>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C354" s="15"/>
       <c r="E354" s="2"/>
       <c r="G354" s="2"/>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C355" s="15"/>
       <c r="E355" s="2"/>
       <c r="G355" s="2"/>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C356" s="15"/>
       <c r="E356" s="2"/>
       <c r="G356" s="2"/>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C357" s="15"/>
       <c r="E357" s="2"/>
       <c r="G357" s="2"/>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C358" s="15"/>
       <c r="E358" s="2"/>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C359" s="15"/>
       <c r="E359" s="2"/>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C360" s="15"/>
       <c r="E360" s="2"/>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C361" s="15"/>
       <c r="E361" s="2"/>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C362" s="15"/>
       <c r="E362" s="2"/>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C363" s="15"/>
       <c r="E363" s="2"/>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C364" s="15"/>
       <c r="E364" s="2"/>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C365" s="15"/>
       <c r="E365" s="2"/>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C366" s="15"/>
       <c r="E366" s="2"/>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C367" s="15"/>
       <c r="E367" s="2"/>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C368" s="15"/>
       <c r="E368" s="2"/>
     </row>
-    <row r="369" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C369" s="15"/>
       <c r="E369" s="2"/>
     </row>
-    <row r="370" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C370" s="15"/>
       <c r="E370" s="2"/>
     </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C371" s="15"/>
       <c r="E371" s="2"/>
     </row>
-    <row r="372" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C372" s="15"/>
       <c r="E372" s="2"/>
     </row>
-    <row r="373" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C373" s="15"/>
       <c r="E373" s="2"/>
     </row>
-    <row r="374" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C374" s="15"/>
       <c r="E374" s="2"/>
     </row>
-    <row r="375" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C375" s="15"/>
       <c r="E375" s="2"/>
     </row>
-    <row r="376" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C376" s="15"/>
       <c r="E376" s="2"/>
     </row>
-    <row r="377" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C377" s="15"/>
       <c r="E377" s="2"/>
     </row>
-    <row r="378" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C378" s="15"/>
       <c r="E378" s="2"/>
     </row>
-    <row r="379" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C379" s="15"/>
       <c r="E379" s="2"/>
     </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C380" s="15"/>
       <c r="E380" s="2"/>
     </row>
-    <row r="381" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C381" s="15"/>
       <c r="E381" s="2"/>
     </row>
-    <row r="382" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C382" s="15"/>
       <c r="E382" s="2"/>
     </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C383" s="15"/>
       <c r="E383" s="2"/>
     </row>
-    <row r="384" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C384" s="15"/>
       <c r="E384" s="2"/>
     </row>
-    <row r="385" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C385" s="15"/>
       <c r="E385" s="2"/>
     </row>
-    <row r="386" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C386" s="15"/>
       <c r="E386" s="2"/>
     </row>
-    <row r="387" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C387" s="15"/>
       <c r="E387" s="2"/>
     </row>
-    <row r="388" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C388" s="15"/>
       <c r="E388" s="2"/>
     </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C389" s="15"/>
       <c r="E389" s="2"/>
     </row>
-    <row r="390" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C390" s="15"/>
       <c r="E390" s="2"/>
     </row>
-    <row r="391" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C391" s="15"/>
       <c r="E391" s="2"/>
     </row>
-    <row r="392" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C392" s="15"/>
       <c r="E392" s="2"/>
     </row>
-    <row r="393" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C393" s="15"/>
       <c r="E393" s="2"/>
     </row>
-    <row r="394" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C394" s="15"/>
       <c r="E394" s="2"/>
     </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C395" s="15"/>
       <c r="E395" s="2"/>
     </row>
-    <row r="396" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C396" s="15"/>
       <c r="E396" s="2"/>
     </row>
-    <row r="397" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C397" s="15"/>
       <c r="E397" s="2"/>
     </row>
-    <row r="398" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C398" s="15"/>
       <c r="E398" s="2"/>
     </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C399" s="15"/>
       <c r="E399" s="2"/>
     </row>
-    <row r="400" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C400" s="15"/>
       <c r="E400" s="2"/>
     </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C401" s="15"/>
       <c r="E401" s="2"/>
     </row>
-    <row r="402" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C402" s="15"/>
       <c r="E402" s="2"/>
     </row>
-    <row r="403" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C403" s="15"/>
       <c r="E403" s="2"/>
     </row>
-    <row r="404" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C404" s="15"/>
       <c r="E404" s="2"/>
     </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C405" s="15"/>
       <c r="E405" s="2"/>
     </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C406" s="15"/>
       <c r="E406" s="2"/>
     </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C407" s="15"/>
       <c r="E407" s="2"/>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C408" s="15"/>
       <c r="E408" s="2"/>
     </row>
-    <row r="409" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C409" s="15"/>
       <c r="E409" s="2"/>
     </row>
-    <row r="410" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C410" s="15"/>
       <c r="E410" s="2"/>
     </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C411" s="15"/>
       <c r="E411" s="2"/>
     </row>
-    <row r="412" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C412" s="15"/>
       <c r="E412" s="2"/>
     </row>
-    <row r="413" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C413" s="15"/>
       <c r="E413" s="2"/>
     </row>
-    <row r="414" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C414" s="15"/>
       <c r="E414" s="2"/>
     </row>
-    <row r="415" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C415" s="15"/>
       <c r="E415" s="2"/>
     </row>
-    <row r="416" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C416" s="15"/>
       <c r="E416" s="2"/>
     </row>
-    <row r="417" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C417" s="15"/>
       <c r="E417" s="2"/>
     </row>
-    <row r="418" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C418" s="15"/>
       <c r="E418" s="2"/>
     </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C419" s="15"/>
       <c r="E419" s="2"/>
     </row>
-    <row r="420" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C420" s="15"/>
       <c r="E420" s="2"/>
     </row>
-    <row r="421" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C421" s="15"/>
       <c r="E421" s="2"/>
     </row>
-    <row r="422" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C422" s="15"/>
       <c r="E422" s="2"/>
     </row>
-    <row r="423" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C423" s="15"/>
       <c r="E423" s="2"/>
     </row>
-    <row r="424" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C424" s="15"/>
       <c r="E424" s="2"/>
     </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C425" s="15"/>
       <c r="E425" s="2"/>
     </row>
-    <row r="426" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C426" s="15"/>
       <c r="E426" s="2"/>
     </row>
-    <row r="427" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C427" s="15"/>
       <c r="E427" s="2"/>
     </row>
-    <row r="428" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C428" s="15"/>
       <c r="E428" s="2"/>
     </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C429" s="15"/>
       <c r="E429" s="2"/>
     </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C430" s="15"/>
       <c r="E430" s="2"/>
     </row>
-    <row r="431" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C431" s="15"/>
       <c r="E431" s="2"/>
     </row>
-    <row r="432" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C432" s="15"/>
       <c r="E432" s="2"/>
     </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C433" s="15"/>
       <c r="E433" s="2"/>
     </row>
-    <row r="434" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C434" s="15"/>
       <c r="E434" s="2"/>
     </row>
-    <row r="435" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C435" s="15"/>
       <c r="E435" s="2"/>
     </row>
-    <row r="436" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C436" s="15"/>
       <c r="E436" s="2"/>
     </row>
-    <row r="437" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C437" s="15"/>
       <c r="E437" s="2"/>
     </row>
-    <row r="438" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C438" s="15"/>
       <c r="E438" s="2"/>
     </row>
-    <row r="439" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="439" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C439" s="15"/>
       <c r="E439" s="2"/>
     </row>
-    <row r="440" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="440" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E440" s="2"/>
     </row>
-    <row r="441" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="441" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E441" s="2"/>
     </row>
-    <row r="442" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="442" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E442" s="2"/>
     </row>
-    <row r="443" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="443" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E443" s="2"/>
     </row>
-    <row r="444" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="444" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E444" s="2"/>
     </row>
-    <row r="445" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="445" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E445" s="2"/>
     </row>
-    <row r="446" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="446" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E446" s="2"/>
     </row>
-    <row r="447" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="447" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E447" s="2"/>
     </row>
-    <row r="448" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="448" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E448" s="2"/>
     </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="449" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E449" s="2"/>
     </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="450" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E450" s="2"/>
     </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="451" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E451" s="2"/>
     </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="452" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E452" s="2"/>
     </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="453" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E453" s="2"/>
     </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="454" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E454" s="2"/>
     </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="455" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E455" s="2"/>
     </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="456" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E456" s="2"/>
     </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="457" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E457" s="2"/>
     </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="458" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E458" s="2"/>
     </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="459" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E459" s="2"/>
     </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="460" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E460" s="2"/>
     </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="461" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E461" s="2"/>
     </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="462" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E462" s="2"/>
     </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="463" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E463" s="2"/>
     </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="464" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E464" s="2"/>
     </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="465" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E465" s="2"/>
     </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="466" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E466" s="2"/>
     </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="467" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E467" s="2"/>
     </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="468" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E468" s="2"/>
     </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="469" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E469" s="2"/>
     </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="470" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E470" s="2"/>
     </row>
-    <row r="471" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="471" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E471" s="2"/>
     </row>
-    <row r="472" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="472" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E472" s="2"/>
     </row>
-    <row r="473" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="473" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E473" s="2"/>
     </row>
-    <row r="474" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="474" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E474" s="2"/>
     </row>
-    <row r="475" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="475" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E475" s="2"/>
     </row>
-    <row r="476" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="476" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E476" s="2"/>
     </row>
-    <row r="477" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="477" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E477" s="2"/>
     </row>
-    <row r="478" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="478" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E478" s="2"/>
     </row>
-    <row r="479" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="479" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E479" s="2"/>
     </row>
-    <row r="480" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="480" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E480" s="2"/>
     </row>
-    <row r="481" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="481" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E481" s="2"/>
     </row>
-    <row r="482" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="482" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E482" s="2"/>
     </row>
-    <row r="483" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="483" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E483" s="2"/>
     </row>
-    <row r="484" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="484" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E484" s="2"/>
     </row>
-    <row r="485" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="485" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E485" s="2"/>
     </row>
-    <row r="486" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="486" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E486" s="2"/>
     </row>
-    <row r="487" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="487" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E487" s="2"/>
     </row>
-    <row r="488" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="488" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E488" s="2"/>
     </row>
-    <row r="489" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="489" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E489" s="2"/>
     </row>
-    <row r="490" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="490" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E490" s="2"/>
     </row>
-    <row r="491" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="491" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E491" s="2"/>
     </row>
-    <row r="492" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="492" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E492" s="2"/>
     </row>
-    <row r="493" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="493" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E493" s="2"/>
     </row>
-    <row r="494" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="494" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E494" s="2"/>
     </row>
-    <row r="495" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="495" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E495" s="2"/>
     </row>
-    <row r="496" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="496" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E496" s="2"/>
     </row>
-    <row r="497" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E497" s="2"/>
     </row>
-    <row r="498" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="498" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E498" s="2"/>
     </row>
-    <row r="499" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E499" s="2"/>
     </row>
-    <row r="500" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E500" s="2"/>
     </row>
-    <row r="501" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E501" s="2"/>
     </row>
-    <row r="502" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E502" s="2"/>
     </row>
-    <row r="503" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E503" s="2"/>
     </row>
-    <row r="504" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E504" s="2"/>
     </row>
-    <row r="505" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E505" s="2"/>
     </row>
-    <row r="506" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E506" s="2"/>
     </row>
-    <row r="507" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E507" s="2"/>
     </row>
-    <row r="508" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E508" s="2"/>
     </row>
-    <row r="509" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E509" s="2"/>
     </row>
-    <row r="510" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E510" s="2"/>
     </row>
-    <row r="511" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E511" s="2"/>
     </row>
-    <row r="512" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="512" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E512" s="2"/>
     </row>
-    <row r="513" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="513" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E513" s="2"/>
     </row>
-    <row r="514" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="514" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E514" s="2"/>
     </row>
-    <row r="515" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="515" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E515" s="2"/>
     </row>
-    <row r="516" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="516" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E516" s="2"/>
     </row>
-    <row r="517" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="517" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E517" s="2"/>
     </row>
-    <row r="518" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="518" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E518" s="2"/>
     </row>
-    <row r="519" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="519" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E519" s="2"/>
     </row>
-    <row r="520" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="520" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E520" s="2"/>
     </row>
-    <row r="521" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="521" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E521" s="2"/>
     </row>
-    <row r="522" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="522" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E522" s="2"/>
     </row>
-    <row r="523" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="523" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E523" s="2"/>
     </row>
-    <row r="524" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="524" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E524" s="2"/>
     </row>
-    <row r="525" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="525" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E525" s="2"/>
     </row>
-    <row r="526" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="526" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E526" s="2"/>
     </row>
-    <row r="527" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="527" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E527" s="2"/>
     </row>
-    <row r="528" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="528" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E528" s="2"/>
     </row>
-    <row r="529" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="529" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E529" s="2"/>
     </row>
-    <row r="530" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="530" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E530" s="2"/>
     </row>
-    <row r="531" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="531" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E531" s="2"/>
     </row>
-    <row r="532" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="532" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E532" s="2"/>
     </row>
-    <row r="533" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="533" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E533" s="2"/>
     </row>
-    <row r="534" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="534" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E534" s="2"/>
     </row>
-    <row r="535" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="535" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E535" s="2"/>
     </row>
-    <row r="536" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="536" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E536" s="2"/>
     </row>
-    <row r="537" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="537" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E537" s="2"/>
     </row>
-    <row r="538" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="538" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E538" s="2"/>
     </row>
-    <row r="539" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="539" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E539" s="2"/>
     </row>
-    <row r="540" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="540" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E540" s="2"/>
     </row>
-    <row r="541" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="541" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E541" s="2"/>
     </row>
-    <row r="542" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="542" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E542" s="2"/>
     </row>
-    <row r="543" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="543" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E543" s="2"/>
     </row>
-    <row r="544" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="544" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E544" s="2"/>
     </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="545" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E545" s="2"/>
     </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="546" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E546" s="2"/>
     </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="547" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E547" s="2"/>
     </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="548" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E548" s="2"/>
     </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="549" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E549" s="2"/>
     </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="550" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E550" s="2"/>
     </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="551" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E551" s="2"/>
     </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="552" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E552" s="2"/>
     </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="553" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E553" s="2"/>
     </row>
   </sheetData>
@@ -8855,21 +8816,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92863B8-4C87-4474-B5B0-52EEB5BB3C33}">
   <dimension ref="B2:S105"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8880,12 +8841,12 @@
       <c r="F2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8912,7 +8873,7 @@
       </c>
       <c r="Q4" s="1"/>
     </